--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>IO_RECEIVE_ERROR</t>
-  </si>
-  <si>
-    <t>RIO 보드와의 통신 에러</t>
   </si>
   <si>
     <t>No memory available</t>
@@ -3207,22 +3204,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">외부 E-Stop신호감지. 외부에서 E-Stop신호가 들어오는지를 확인 후 클리어
-Switch 접점  
-EMO 스위치 눌림 확인 
-EMO 스위치 시계 방향으로 돌려서 EMO 스위치 해제 
-티칭펜던트 뒷면 데드맨 스위치 ( 1단 ) 유지 상태에서 펜던트(TP) CLR 키 눌러 EMO 해제
-장비 에서 보내 EMO Signal Input 불량  ( 장비 외부 신호 때문에 에러 발생 )
-제어기 유저 EMO 커넥터 1,2번점퍼 , 4,5번 점퍼 하여서 004 에러 해제 테스트  
-점퍼 해서 004 에러 해제 된다면 외부 EMO 시그널 장비 쪽 점검
-Control Box EM-STOP S/W 눌림 확인
-로드포트로 GET , PUT 동작 명령시 004 에러가 발생 하는 경우 
-도어 인터락 에러 발생 추정됨 
-로드포트 도어 열리고 다운 상태에서 도어 다운 센서 시그널이 감지 되고 있는 상태 에서만  
-GET , PUT 동작이 가능 함 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>There is not sufficient memory to perform the requested operation. Large amounts of memory may be used by the following: loaded GPL procedures, arrays, strings, and the Data Logger. Check if any of these items are unusually large.
 FTP 접속 후 NVRAM 폴더 -&gt; 'file1' 파일 삭제</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3518,6 +3499,28 @@
   </si>
   <si>
     <t>A required software license is not installed on your controller. The name of the missing license is shown after this error message. The license names include:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO 보드와의 통신 에러
+마스터 보드 - WTR IO 보드간의 이더넷 통신이 되지 않음
+장비 IP와 겹치는 IP는 없는지 확인 (WTR 기본: 192.168.0.1 IO 보드: 192.168.0.11)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">외부 E-Stop신호감지. 외부에서 E-Stop신호가 들어오는지를 확인 후 클리어
+Switch 접점  
+EMO 스위치 눌림 확인 
+EMO 스위치 시계 방향으로 돌려서 EMO 스위치 해제 
+티칭펜던트 뒷면 데드맨 스위치 ( 1단 ) 유지 상태에서 펜던트(TP) CLR 키 눌러 EMO 해제
+장비 에서 보내 EMO Signal Input 불량  ( 장비 외부 신호 때문에 에러 발생 )
+제어기 유저 EMO 커넥터 1,2번점퍼 , 4,5번 점퍼 하여서 004 에러 해제 테스트  
+점퍼 해서 004 에러 해제 된다면 외부 EMO 시그널 장비 쪽 점검
+Control Box EM-STOP S/W 눌림 확인
+로드포트로 GET , PUT 동작 명령시 004 에러가 발생 하는 경우 
+도어 인터락 에러 발생 추정됨 
+로드포트 도어 열리고 다운 상태에서 도어 다운 센서 시그널이 감지 되고 있는 상태 에서만  
+GET , PUT 동작이 가능 함 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3877,6 +3880,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3912,18 +3927,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4207,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4220,13 +4223,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D1" t="s">
         <v>973</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>974</v>
-      </c>
-      <c r="E1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4234,10 +4237,10 @@
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4259,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>978</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4270,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4281,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4289,10 +4292,10 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4303,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4311,10 +4314,10 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4325,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4336,7 +4339,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4347,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4358,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4369,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4380,7 +4383,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4391,7 +4394,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4402,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4413,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4435,7 +4438,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4443,10 +4446,10 @@
         <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4454,10 +4457,10 @@
         <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4465,10 +4468,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4476,10 +4479,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4490,7 +4493,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4501,7 +4504,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4523,7 +4526,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4534,7 +4537,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4545,7 +4548,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4556,7 +4559,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4567,7 +4570,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4578,7 +4581,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4589,7 +4592,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4600,7 +4603,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4611,7 +4614,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4622,7 +4625,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4633,7 +4636,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4644,7 +4647,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4824,10 +4827,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="45">
+      <c r="C56" s="49">
         <v>1061</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4835,15 +4838,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="46"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="47"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4936,7 +4939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C67" s="1">
         <v>2003</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4963,10 +4966,10 @@
         <v>-200</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -4974,10 +4977,10 @@
         <v>-201</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4985,10 +4988,10 @@
         <v>-202</v>
       </c>
       <c r="D71" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -4996,10 +4999,10 @@
         <v>-203</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5007,10 +5010,10 @@
         <v>-204</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5018,10 +5021,10 @@
         <v>-205</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="75" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5029,10 +5032,10 @@
         <v>-206</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5040,33 +5043,33 @@
         <v>-207</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="8" t="s">
+    </row>
+    <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C77" s="43">
+        <v>-208</v>
+      </c>
+      <c r="D77" s="46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="39">
-        <v>-208</v>
-      </c>
-      <c r="D77" s="42" t="s">
+      <c r="E77" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="9" t="s">
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C78" s="44"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="45"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="11" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="40"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="41"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5074,10 +5077,10 @@
         <v>-209</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5085,173 +5088,173 @@
         <v>-210</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="8" t="s">
+    </row>
+    <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C82" s="43">
+        <v>-211</v>
+      </c>
+      <c r="D82" s="46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="39">
-        <v>-211</v>
-      </c>
-      <c r="D82" s="42" t="s">
+      <c r="E82" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="29" t="s">
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C83" s="44"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C84" s="44"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="40"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="40"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="30" t="s">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="40"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="30" t="s">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="40"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="30" t="s">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C87" s="44"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="40"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="30" t="s">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C88" s="44"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="40"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="30" t="s">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C89" s="44"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="40"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="30" t="s">
+    <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="45"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="41"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="31" t="s">
+    <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C91" s="43">
+        <v>-212</v>
+      </c>
+      <c r="D91" s="46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="39">
-        <v>-212</v>
-      </c>
-      <c r="D91" s="42" t="s">
+      <c r="E91" s="29" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C92" s="44"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C93" s="44"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="29" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="40"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="10"/>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="40"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="30" t="s">
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C94" s="44"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="40"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="30" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="40"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="30" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C96" s="44"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="40"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="30" t="s">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C97" s="44"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="40"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="30" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C98" s="44"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="40"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="30" t="s">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C99" s="44"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="40"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="30" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="40"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="30" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C101" s="44"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="40"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="30" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C102" s="44"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="40"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="30" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C103" s="44"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="31" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="40"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="10"/>
-    </row>
-    <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="41"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="105" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5259,10 +5262,10 @@
         <v>-213</v>
       </c>
       <c r="D105" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="106" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5270,10 +5273,10 @@
         <v>-214</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="107" spans="3:5" ht="151.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5281,10 +5284,10 @@
         <v>-215</v>
       </c>
       <c r="D107" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="46" t="s">
         <v>136</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="108" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5292,28 +5295,28 @@
         <v>-216</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E108" s="43"/>
+        <v>137</v>
+      </c>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
         <v>-217</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="44"/>
+        <v>138</v>
+      </c>
+      <c r="E109" s="48"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
         <v>-218</v>
       </c>
       <c r="D110" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="111" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -5321,10 +5324,10 @@
         <v>-219</v>
       </c>
       <c r="D111" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="112" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5332,10 +5335,10 @@
         <v>-220</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="113" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5343,10 +5346,10 @@
         <v>-221</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="114" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5354,10 +5357,10 @@
         <v>-222</v>
       </c>
       <c r="D114" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="115" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5365,10 +5368,10 @@
         <v>-300</v>
       </c>
       <c r="D115" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="116" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5376,10 +5379,10 @@
         <v>-301</v>
       </c>
       <c r="D116" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="117" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5387,10 +5390,10 @@
         <v>-302</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="118" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5398,10 +5401,10 @@
         <v>-303</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="119" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5409,10 +5412,10 @@
         <v>-304</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="120" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5420,10 +5423,10 @@
         <v>-308</v>
       </c>
       <c r="D120" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="121" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5431,10 +5434,10 @@
         <v>-309</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5442,10 +5445,10 @@
         <v>-310</v>
       </c>
       <c r="D122" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="123" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5453,10 +5456,10 @@
         <v>-311</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="124" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5464,10 +5467,10 @@
         <v>-312</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="125" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5475,10 +5478,10 @@
         <v>-314</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="126" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5486,10 +5489,10 @@
         <v>-315</v>
       </c>
       <c r="D126" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="127" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5497,10 +5500,10 @@
         <v>-316</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="128" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5508,10 +5511,10 @@
         <v>-317</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="129" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5519,10 +5522,10 @@
         <v>-318</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="130" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5530,10 +5533,10 @@
         <v>-319</v>
       </c>
       <c r="D130" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="131" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5541,10 +5544,10 @@
         <v>-320</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="132" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5552,10 +5555,10 @@
         <v>-321</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="133" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -5563,10 +5566,10 @@
         <v>-322</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="134" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5574,10 +5577,10 @@
         <v>-323</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5585,10 +5588,10 @@
         <v>-324</v>
       </c>
       <c r="D135" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="136" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5596,10 +5599,10 @@
         <v>-325</v>
       </c>
       <c r="D136" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="137" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5607,10 +5610,10 @@
         <v>-326</v>
       </c>
       <c r="D137" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="138" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5618,10 +5621,10 @@
         <v>-500</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="139" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5629,10 +5632,10 @@
         <v>-501</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="140" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5640,10 +5643,10 @@
         <v>-502</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="141" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5651,10 +5654,10 @@
         <v>-503</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5662,10 +5665,10 @@
         <v>-504</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="143" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5673,10 +5676,10 @@
         <v>-505</v>
       </c>
       <c r="D143" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="144" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5684,10 +5687,10 @@
         <v>-506</v>
       </c>
       <c r="D144" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="145" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -5695,10 +5698,10 @@
         <v>-507</v>
       </c>
       <c r="D145" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="146" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5706,10 +5709,10 @@
         <v>-508</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="147" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5717,10 +5720,10 @@
         <v>-509</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="148" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5728,10 +5731,10 @@
         <v>-510</v>
       </c>
       <c r="D148" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="149" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5739,10 +5742,10 @@
         <v>-511</v>
       </c>
       <c r="D149" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="150" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5750,10 +5753,10 @@
         <v>-512</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="151" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5761,10 +5764,10 @@
         <v>-513</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E151" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="152" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5772,10 +5775,10 @@
         <v>-514</v>
       </c>
       <c r="D152" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="153" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5783,10 +5786,10 @@
         <v>-515</v>
       </c>
       <c r="D153" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="154" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5794,10 +5797,10 @@
         <v>-516</v>
       </c>
       <c r="D154" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="155" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5805,10 +5808,10 @@
         <v>-517</v>
       </c>
       <c r="D155" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="156" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5816,10 +5819,10 @@
         <v>-518</v>
       </c>
       <c r="D156" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="157" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5827,10 +5830,10 @@
         <v>-519</v>
       </c>
       <c r="D157" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E157" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="158" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5838,10 +5841,10 @@
         <v>-520</v>
       </c>
       <c r="D158" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="159" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5849,10 +5852,10 @@
         <v>-521</v>
       </c>
       <c r="D159" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="160" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5860,10 +5863,10 @@
         <v>-522</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="161" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5871,10 +5874,10 @@
         <v>-523</v>
       </c>
       <c r="D161" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E161" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="162" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5882,10 +5885,10 @@
         <v>-524</v>
       </c>
       <c r="D162" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E162" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="163" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5893,10 +5896,10 @@
         <v>-525</v>
       </c>
       <c r="D163" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="164" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5904,10 +5907,10 @@
         <v>-526</v>
       </c>
       <c r="D164" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E164" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="165" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5915,10 +5918,10 @@
         <v>-700</v>
       </c>
       <c r="D165" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E165" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="166" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5926,10 +5929,10 @@
         <v>-702</v>
       </c>
       <c r="D166" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E166" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="167" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5937,10 +5940,10 @@
         <v>-704</v>
       </c>
       <c r="D167" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="168" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5948,10 +5951,10 @@
         <v>-705</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="169" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5959,10 +5962,10 @@
         <v>-706</v>
       </c>
       <c r="D169" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="170" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5970,10 +5973,10 @@
         <v>-707</v>
       </c>
       <c r="D170" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="171" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -5981,10 +5984,10 @@
         <v>-708</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="172" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5992,10 +5995,10 @@
         <v>-709</v>
       </c>
       <c r="D172" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E172" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="173" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6003,10 +6006,10 @@
         <v>-710</v>
       </c>
       <c r="D173" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E173" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="174" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -6014,10 +6017,10 @@
         <v>-711</v>
       </c>
       <c r="D174" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="175" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6025,10 +6028,10 @@
         <v>-712</v>
       </c>
       <c r="D175" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E175" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="176" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6036,10 +6039,10 @@
         <v>-713</v>
       </c>
       <c r="D176" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E176" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6047,10 +6050,10 @@
         <v>-714</v>
       </c>
       <c r="D177" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E177" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6058,10 +6061,10 @@
         <v>-715</v>
       </c>
       <c r="D178" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="179" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6069,10 +6072,10 @@
         <v>-716</v>
       </c>
       <c r="D179" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6080,10 +6083,10 @@
         <v>-717</v>
       </c>
       <c r="D180" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E180" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6091,10 +6094,10 @@
         <v>-718</v>
       </c>
       <c r="D181" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E181" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6102,10 +6105,10 @@
         <v>-719</v>
       </c>
       <c r="D182" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="183" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6113,7 +6116,7 @@
         <v>-720</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E183" s="14"/>
     </row>
@@ -6122,7 +6125,7 @@
         <v>-721</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E184" s="14"/>
     </row>
@@ -6131,7 +6134,7 @@
         <v>-722</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E185" s="14"/>
     </row>
@@ -6140,7 +6143,7 @@
         <v>-723</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E186" s="14"/>
     </row>
@@ -6149,7 +6152,7 @@
         <v>-724</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E187" s="14"/>
     </row>
@@ -6158,7 +6161,7 @@
         <v>-725</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E188" s="14"/>
     </row>
@@ -6167,7 +6170,7 @@
         <v>-726</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E189" s="14"/>
     </row>
@@ -6176,7 +6179,7 @@
         <v>-727</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E190" s="14"/>
     </row>
@@ -6185,7 +6188,7 @@
         <v>-728</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E191" s="14"/>
     </row>
@@ -6194,7 +6197,7 @@
         <v>-729</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E192" s="14"/>
     </row>
@@ -6203,7 +6206,7 @@
         <v>-730</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E193" s="14"/>
     </row>
@@ -6212,10 +6215,10 @@
         <v>-731</v>
       </c>
       <c r="D194" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="195" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6223,10 +6226,10 @@
         <v>-732</v>
       </c>
       <c r="D195" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E195" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="196" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6234,7 +6237,7 @@
         <v>-733</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E196" s="14"/>
     </row>
@@ -6243,7 +6246,7 @@
         <v>-734</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E197" s="14"/>
     </row>
@@ -6252,10 +6255,10 @@
         <v>-735</v>
       </c>
       <c r="D198" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="199" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6263,10 +6266,10 @@
         <v>-736</v>
       </c>
       <c r="D199" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="200" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6274,7 +6277,7 @@
         <v>-737</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E200" s="14"/>
     </row>
@@ -6283,7 +6286,7 @@
         <v>-738</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E201" s="14"/>
     </row>
@@ -6292,7 +6295,7 @@
         <v>-739</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E202" s="14"/>
     </row>
@@ -6301,7 +6304,7 @@
         <v>-740</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E203" s="14"/>
     </row>
@@ -6310,7 +6313,7 @@
         <v>-741</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E204" s="14"/>
     </row>
@@ -6319,7 +6322,7 @@
         <v>-742</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E205" s="14"/>
     </row>
@@ -6328,7 +6331,7 @@
         <v>-743</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E206" s="14"/>
     </row>
@@ -6337,7 +6340,7 @@
         <v>-744</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E207" s="14"/>
     </row>
@@ -6346,7 +6349,7 @@
         <v>-745</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E208" s="14"/>
     </row>
@@ -6355,7 +6358,7 @@
         <v>-746</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E209" s="14"/>
     </row>
@@ -6364,7 +6367,7 @@
         <v>-747</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E210" s="14"/>
     </row>
@@ -6373,10 +6376,10 @@
         <v>-748</v>
       </c>
       <c r="D211" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="212" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6384,7 +6387,7 @@
         <v>-749</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E212" s="14"/>
     </row>
@@ -6393,7 +6396,7 @@
         <v>-750</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E213" s="14"/>
     </row>
@@ -6402,7 +6405,7 @@
         <v>-751</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E214" s="14"/>
     </row>
@@ -6411,10 +6414,10 @@
         <v>-752</v>
       </c>
       <c r="D215" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="216" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6422,7 +6425,7 @@
         <v>-753</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E216" s="14"/>
     </row>
@@ -6431,7 +6434,7 @@
         <v>-754</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E217" s="14"/>
     </row>
@@ -6440,7 +6443,7 @@
         <v>-755</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E218" s="14"/>
     </row>
@@ -6449,7 +6452,7 @@
         <v>-756</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E219" s="14"/>
     </row>
@@ -6458,10 +6461,10 @@
         <v>-757</v>
       </c>
       <c r="D220" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E220" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="221" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6469,7 +6472,7 @@
         <v>-758</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E221" s="14"/>
     </row>
@@ -6478,7 +6481,7 @@
         <v>-759</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E222" s="14"/>
     </row>
@@ -6487,7 +6490,7 @@
         <v>-760</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E223" s="14"/>
     </row>
@@ -6496,7 +6499,7 @@
         <v>-761</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E224" s="14"/>
     </row>
@@ -6505,10 +6508,10 @@
         <v>-762</v>
       </c>
       <c r="D225" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="226" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6516,10 +6519,10 @@
         <v>-763</v>
       </c>
       <c r="D226" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E226" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="227" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6527,7 +6530,7 @@
         <v>-764</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E227" s="14"/>
     </row>
@@ -6536,7 +6539,7 @@
         <v>-765</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E228" s="14"/>
     </row>
@@ -6545,7 +6548,7 @@
         <v>-766</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E229" s="14"/>
     </row>
@@ -6554,7 +6557,7 @@
         <v>-767</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E230" s="14"/>
     </row>
@@ -6563,7 +6566,7 @@
         <v>-768</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E231" s="14"/>
     </row>
@@ -6572,10 +6575,10 @@
         <v>-769</v>
       </c>
       <c r="D232" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6583,10 +6586,10 @@
         <v>-770</v>
       </c>
       <c r="D233" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="234" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6594,7 +6597,7 @@
         <v>-771</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E234" s="14"/>
     </row>
@@ -6603,7 +6606,7 @@
         <v>-772</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E235" s="14"/>
     </row>
@@ -6612,7 +6615,7 @@
         <v>-773</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E236" s="14"/>
     </row>
@@ -6621,10 +6624,10 @@
         <v>-774</v>
       </c>
       <c r="D237" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E237" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="238" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6632,33 +6635,33 @@
         <v>-775</v>
       </c>
       <c r="D238" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E238" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E238" s="8" t="s">
+    </row>
+    <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C239" s="43">
+        <v>-776</v>
+      </c>
+      <c r="D239" s="46" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="39">
-        <v>-776</v>
-      </c>
-      <c r="D239" s="42" t="s">
+      <c r="E239" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E239" s="9" t="s">
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C240" s="44"/>
+      <c r="D240" s="47"/>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C241" s="45"/>
+      <c r="D241" s="48"/>
+      <c r="E241" s="11" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="40"/>
-      <c r="D240" s="43"/>
-      <c r="E240" s="10"/>
-    </row>
-    <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="41"/>
-      <c r="D241" s="44"/>
-      <c r="E241" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="242" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6666,7 +6669,7 @@
         <v>-778</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E242" s="14"/>
     </row>
@@ -6675,7 +6678,7 @@
         <v>-779</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E243" s="14"/>
     </row>
@@ -6684,7 +6687,7 @@
         <v>-780</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E244" s="14"/>
     </row>
@@ -6693,10 +6696,10 @@
         <v>-781</v>
       </c>
       <c r="D245" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="246" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6704,10 +6707,10 @@
         <v>-782</v>
       </c>
       <c r="D246" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E246" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="247" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6715,10 +6718,10 @@
         <v>-783</v>
       </c>
       <c r="D247" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E247" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="248" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6726,10 +6729,10 @@
         <v>-784</v>
       </c>
       <c r="D248" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="E248" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="249" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6737,10 +6740,10 @@
         <v>-785</v>
       </c>
       <c r="D249" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="250" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6748,10 +6751,10 @@
         <v>-786</v>
       </c>
       <c r="D250" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E250" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="251" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6759,10 +6762,10 @@
         <v>-787</v>
       </c>
       <c r="D251" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E251" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="252" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6770,10 +6773,10 @@
         <v>-788</v>
       </c>
       <c r="D252" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E252" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="253" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6781,10 +6784,10 @@
         <v>-789</v>
       </c>
       <c r="D253" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E253" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="E253" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="254" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6792,10 +6795,10 @@
         <v>-790</v>
       </c>
       <c r="D254" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E254" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="E254" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="255" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6803,10 +6806,10 @@
         <v>-791</v>
       </c>
       <c r="D255" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E255" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="256" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6814,10 +6817,10 @@
         <v>-792</v>
       </c>
       <c r="D256" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E256" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="257" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6825,10 +6828,10 @@
         <v>-793</v>
       </c>
       <c r="D257" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E257" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="E257" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="258" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -6836,10 +6839,10 @@
         <v>-794</v>
       </c>
       <c r="D258" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E258" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="259" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6847,10 +6850,10 @@
         <v>-795</v>
       </c>
       <c r="D259" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E259" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="260" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6858,10 +6861,10 @@
         <v>-796</v>
       </c>
       <c r="D260" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E260" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="E260" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="261" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6869,10 +6872,10 @@
         <v>-797</v>
       </c>
       <c r="D261" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E261" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="262" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6880,10 +6883,10 @@
         <v>-798</v>
       </c>
       <c r="D262" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="263" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6891,10 +6894,10 @@
         <v>-799</v>
       </c>
       <c r="D263" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E263" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="264" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6902,10 +6905,10 @@
         <v>-800</v>
       </c>
       <c r="D264" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E264" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="265" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6913,10 +6916,10 @@
         <v>-801</v>
       </c>
       <c r="D265" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E265" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="E265" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="266" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6924,10 +6927,10 @@
         <v>-802</v>
       </c>
       <c r="D266" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E266" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="267" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6935,10 +6938,10 @@
         <v>-803</v>
       </c>
       <c r="D267" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E267" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="268" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6946,10 +6949,10 @@
         <v>-804</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="269" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6957,10 +6960,10 @@
         <v>-805</v>
       </c>
       <c r="D269" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="270" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6968,10 +6971,10 @@
         <v>-806</v>
       </c>
       <c r="D270" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E270" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="271" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6979,10 +6982,10 @@
         <v>-807</v>
       </c>
       <c r="D271" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E271" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="272" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6990,10 +6993,10 @@
         <v>-808</v>
       </c>
       <c r="D272" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E272" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="273" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7001,10 +7004,10 @@
         <v>-809</v>
       </c>
       <c r="D273" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E273" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="274" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7012,37 +7015,37 @@
         <v>-810</v>
       </c>
       <c r="D274" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E274" s="8" t="s">
+    </row>
+    <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C275" s="43">
+        <v>-811</v>
+      </c>
+      <c r="D275" s="46" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="39">
-        <v>-811</v>
-      </c>
-      <c r="D275" s="42" t="s">
+      <c r="E275" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="E275" s="42" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="41"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="44"/>
+      <c r="C276" s="45"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
         <v>-812</v>
       </c>
       <c r="D277" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="278" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7050,10 +7053,10 @@
         <v>-1000</v>
       </c>
       <c r="D278" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E278" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="279" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7061,56 +7064,56 @@
         <v>-1001</v>
       </c>
       <c r="D279" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E279" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E279" s="8" t="s">
+    </row>
+    <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C280" s="43">
+        <v>-1002</v>
+      </c>
+      <c r="D280" s="46" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="39">
-        <v>-1002</v>
-      </c>
-      <c r="D280" s="42" t="s">
+      <c r="E280" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E280" s="9" t="s">
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C281" s="44"/>
+      <c r="D281" s="47"/>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C282" s="45"/>
+      <c r="D282" s="48"/>
+      <c r="E282" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="40"/>
-      <c r="D281" s="43"/>
-      <c r="E281" s="12"/>
-    </row>
-    <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="41"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="15" t="s">
+    <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C283" s="43">
+        <v>-1003</v>
+      </c>
+      <c r="D283" s="46" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="39">
-        <v>-1003</v>
-      </c>
-      <c r="D283" s="42" t="s">
+      <c r="E283" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E283" s="9" t="s">
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C284" s="44"/>
+      <c r="D284" s="47"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C285" s="45"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="15" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="40"/>
-      <c r="D284" s="43"/>
-      <c r="E284" s="12"/>
-    </row>
-    <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="41"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="15" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="286" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7118,204 +7121,204 @@
         <v>-1004</v>
       </c>
       <c r="D286" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E286" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E286" s="8" t="s">
+    </row>
+    <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C287" s="43">
+        <v>-1005</v>
+      </c>
+      <c r="D287" s="46" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="39">
-        <v>-1005</v>
-      </c>
-      <c r="D287" s="42" t="s">
+      <c r="E287" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E287" s="9" t="s">
+    </row>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C288" s="44"/>
+      <c r="D288" s="47"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C289" s="45"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="40"/>
-      <c r="D288" s="43"/>
-      <c r="E288" s="12"/>
-    </row>
-    <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="41"/>
-      <c r="D289" s="44"/>
-      <c r="E289" s="15" t="s">
+    <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C290" s="43">
+        <v>-1006</v>
+      </c>
+      <c r="D290" s="46" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="39">
-        <v>-1006</v>
-      </c>
-      <c r="D290" s="42" t="s">
+      <c r="E290" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E290" s="9" t="s">
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C291" s="44"/>
+      <c r="D291" s="47"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C292" s="44"/>
+      <c r="D292" s="47"/>
+      <c r="E292" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="40"/>
-      <c r="D291" s="43"/>
-      <c r="E291" s="12"/>
-    </row>
-    <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="40"/>
-      <c r="D292" s="43"/>
-      <c r="E292" s="16" t="s">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C293" s="44"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="40"/>
-      <c r="D293" s="43"/>
-      <c r="E293" s="16" t="s">
+    <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C294" s="45"/>
+      <c r="D294" s="48"/>
+      <c r="E294" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="41"/>
-      <c r="D294" s="44"/>
-      <c r="E294" s="15" t="s">
+    <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C295" s="43">
+        <v>-1007</v>
+      </c>
+      <c r="D295" s="46" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="39">
-        <v>-1007</v>
-      </c>
-      <c r="D295" s="42" t="s">
+      <c r="E295" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="E295" s="17" t="s">
+    </row>
+    <row r="296" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C296" s="44"/>
+      <c r="D296" s="47"/>
+      <c r="E296" s="18"/>
+    </row>
+    <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C297" s="44"/>
+      <c r="D297" s="47"/>
+      <c r="E297" s="19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="40"/>
-      <c r="D296" s="43"/>
-      <c r="E296" s="18"/>
-    </row>
-    <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="40"/>
-      <c r="D297" s="43"/>
-      <c r="E297" s="19" t="s">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C298" s="44"/>
+      <c r="D298" s="47"/>
+      <c r="E298" s="19"/>
+    </row>
+    <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C299" s="44"/>
+      <c r="D299" s="47"/>
+      <c r="E299" s="16" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="40"/>
-      <c r="D298" s="43"/>
-      <c r="E298" s="19"/>
-    </row>
-    <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="40"/>
-      <c r="D299" s="43"/>
-      <c r="E299" s="16" t="s">
+    <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C300" s="45"/>
+      <c r="D300" s="48"/>
+      <c r="E300" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="41"/>
-      <c r="D300" s="44"/>
-      <c r="E300" s="15" t="s">
+    <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C301" s="43">
+        <v>-1008</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="39">
-        <v>-1008</v>
-      </c>
-      <c r="D301" s="42" t="s">
+      <c r="E301" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="E301" s="9" t="s">
+    </row>
+    <row r="302" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C302" s="44"/>
+      <c r="D302" s="47"/>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C303" s="45"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="40"/>
-      <c r="D302" s="43"/>
-      <c r="E302" s="12"/>
-    </row>
-    <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="41"/>
-      <c r="D303" s="44"/>
-      <c r="E303" s="15" t="s">
+    <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C304" s="43">
+        <v>-1009</v>
+      </c>
+      <c r="D304" s="46" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="39">
-        <v>-1009</v>
-      </c>
-      <c r="D304" s="42" t="s">
+      <c r="E304" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E304" s="9" t="s">
+    </row>
+    <row r="305" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C305" s="44"/>
+      <c r="D305" s="47"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C306" s="45"/>
+      <c r="D306" s="48"/>
+      <c r="E306" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="40"/>
-      <c r="D305" s="43"/>
-      <c r="E305" s="12"/>
-    </row>
-    <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="41"/>
-      <c r="D306" s="44"/>
-      <c r="E306" s="15" t="s">
+    <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C307" s="43">
+        <v>-1010</v>
+      </c>
+      <c r="D307" s="46" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="39">
-        <v>-1010</v>
-      </c>
-      <c r="D307" s="42" t="s">
+      <c r="E307" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E307" s="9" t="s">
+    </row>
+    <row r="308" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C308" s="44"/>
+      <c r="D308" s="47"/>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C309" s="45"/>
+      <c r="D309" s="48"/>
+      <c r="E309" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="40"/>
-      <c r="D308" s="43"/>
-      <c r="E308" s="12"/>
-    </row>
-    <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="41"/>
-      <c r="D309" s="44"/>
-      <c r="E309" s="15" t="s">
+    <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C310" s="43">
+        <v>-1011</v>
+      </c>
+      <c r="D310" s="46" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="39">
-        <v>-1011</v>
-      </c>
-      <c r="D310" s="42" t="s">
+      <c r="E310" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E310" s="9" t="s">
+    </row>
+    <row r="311" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C311" s="44"/>
+      <c r="D311" s="47"/>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C312" s="45"/>
+      <c r="D312" s="48"/>
+      <c r="E312" s="15" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="40"/>
-      <c r="D311" s="43"/>
-      <c r="E311" s="12"/>
-    </row>
-    <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="41"/>
-      <c r="D312" s="44"/>
-      <c r="E312" s="15" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="313" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -7323,63 +7326,63 @@
         <v>-1012</v>
       </c>
       <c r="D313" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C314" s="43">
+        <v>-1013</v>
+      </c>
+      <c r="D314" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="E313" s="9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="39">
-        <v>-1013</v>
-      </c>
-      <c r="D314" s="42" t="s">
+      <c r="E314" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E314" s="9" t="s">
+    </row>
+    <row r="315" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C315" s="44"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C316" s="44"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="16" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="40"/>
-      <c r="D315" s="43"/>
-      <c r="E315" s="12"/>
-    </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="40"/>
-      <c r="D316" s="43"/>
-      <c r="E316" s="16" t="s">
+    <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C317" s="45"/>
+      <c r="D317" s="48"/>
+      <c r="E317" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="41"/>
-      <c r="D317" s="44"/>
-      <c r="E317" s="15" t="s">
+    <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C318" s="43">
+        <v>-1014</v>
+      </c>
+      <c r="D318" s="46" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C318" s="39">
-        <v>-1014</v>
-      </c>
-      <c r="D318" s="42" t="s">
+      <c r="E318" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E318" s="9" t="s">
+    </row>
+    <row r="319" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C319" s="44"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C320" s="45"/>
+      <c r="D320" s="48"/>
+      <c r="E320" s="15" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="40"/>
-      <c r="D319" s="43"/>
-      <c r="E319" s="12"/>
-    </row>
-    <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="41"/>
-      <c r="D320" s="44"/>
-      <c r="E320" s="15" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7387,40 +7390,40 @@
         <v>-1015</v>
       </c>
       <c r="D321" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E321" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E321" s="8" t="s">
+    </row>
+    <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C322" s="43">
+        <v>-1016</v>
+      </c>
+      <c r="D322" s="46" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="39">
-        <v>-1016</v>
-      </c>
-      <c r="D322" s="42" t="s">
+      <c r="E322" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E322" s="9" t="s">
+    </row>
+    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C323" s="44"/>
+      <c r="D323" s="47"/>
+      <c r="E323" s="10"/>
+    </row>
+    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C324" s="44"/>
+      <c r="D324" s="47"/>
+      <c r="E324" s="12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="40"/>
-      <c r="D323" s="43"/>
-      <c r="E323" s="10"/>
-    </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="40"/>
-      <c r="D324" s="43"/>
-      <c r="E324" s="12" t="s">
+    <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C325" s="45"/>
+      <c r="D325" s="48"/>
+      <c r="E325" s="11" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="41"/>
-      <c r="D325" s="44"/>
-      <c r="E325" s="11" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="326" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7428,10 +7431,10 @@
         <v>-1017</v>
       </c>
       <c r="D326" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E326" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="327" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7439,91 +7442,91 @@
         <v>-1018</v>
       </c>
       <c r="D327" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E327" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E327" s="8" t="s">
+    </row>
+    <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C328" s="43">
+        <v>-1019</v>
+      </c>
+      <c r="D328" s="46" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="39">
-        <v>-1019</v>
-      </c>
-      <c r="D328" s="42" t="s">
+      <c r="E328" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E328" s="9" t="s">
+    </row>
+    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C329" s="44"/>
+      <c r="D329" s="47"/>
+      <c r="E329" s="10"/>
+    </row>
+    <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C330" s="45"/>
+      <c r="D330" s="48"/>
+      <c r="E330" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="40"/>
-      <c r="D329" s="43"/>
-      <c r="E329" s="10"/>
-    </row>
-    <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="41"/>
-      <c r="D330" s="44"/>
-      <c r="E330" s="11" t="s">
+    <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C331" s="43">
+        <v>-1020</v>
+      </c>
+      <c r="D331" s="46" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="39">
-        <v>-1020</v>
-      </c>
-      <c r="D331" s="42" t="s">
+      <c r="E331" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="E331" s="9" t="s">
+    </row>
+    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C332" s="44"/>
+      <c r="D332" s="47"/>
+      <c r="E332" s="10"/>
+    </row>
+    <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C333" s="44"/>
+      <c r="D333" s="47"/>
+      <c r="E333" s="12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="40"/>
-      <c r="D332" s="43"/>
-      <c r="E332" s="10"/>
-    </row>
-    <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="40"/>
-      <c r="D333" s="43"/>
-      <c r="E333" s="12" t="s">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C334" s="44"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="10"/>
+    </row>
+    <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C335" s="45"/>
+      <c r="D335" s="48"/>
+      <c r="E335" s="11" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="40"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="10"/>
-    </row>
-    <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="41"/>
-      <c r="D335" s="44"/>
-      <c r="E335" s="11" t="s">
+    <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C336" s="43">
+        <v>-1021</v>
+      </c>
+      <c r="D336" s="46" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C336" s="39">
-        <v>-1021</v>
-      </c>
-      <c r="D336" s="42" t="s">
+      <c r="E336" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E336" s="9" t="s">
+    </row>
+    <row r="337" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C337" s="44"/>
+      <c r="D337" s="47"/>
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C338" s="45"/>
+      <c r="D338" s="48"/>
+      <c r="E338" s="15" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="40"/>
-      <c r="D337" s="43"/>
-      <c r="E337" s="12"/>
-    </row>
-    <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="41"/>
-      <c r="D338" s="44"/>
-      <c r="E338" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7531,10 +7534,10 @@
         <v>-1022</v>
       </c>
       <c r="D339" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E339" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="E339" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="340" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7542,10 +7545,10 @@
         <v>-1023</v>
       </c>
       <c r="D340" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E340" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="341" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7553,10 +7556,10 @@
         <v>-1024</v>
       </c>
       <c r="D341" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="E341" s="8" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="342" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -7564,54 +7567,54 @@
         <v>-1025</v>
       </c>
       <c r="D342" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E342" s="8" t="s">
+    </row>
+    <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C343" s="43">
+        <v>-1026</v>
+      </c>
+      <c r="D343" s="46" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C343" s="39">
-        <v>-1026</v>
-      </c>
-      <c r="D343" s="42" t="s">
+      <c r="E343" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E343" s="9" t="s">
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C344" s="44"/>
+      <c r="D344" s="47"/>
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C345" s="44"/>
+      <c r="D345" s="47"/>
+      <c r="E345" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="40"/>
-      <c r="D344" s="43"/>
-      <c r="E344" s="10"/>
-    </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="40"/>
-      <c r="D345" s="43"/>
-      <c r="E345" s="12" t="s">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C346" s="44"/>
+      <c r="D346" s="47"/>
+      <c r="E346" s="12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="40"/>
-      <c r="D346" s="43"/>
-      <c r="E346" s="12" t="s">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C347" s="44"/>
+      <c r="D347" s="47"/>
+      <c r="E347" s="12" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="40"/>
-      <c r="D347" s="43"/>
-      <c r="E347" s="12" t="s">
+    <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C348" s="45"/>
+      <c r="D348" s="48"/>
+      <c r="E348" s="11" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="41"/>
-      <c r="D348" s="44"/>
-      <c r="E348" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="349" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -7619,136 +7622,136 @@
         <v>-1027</v>
       </c>
       <c r="D349" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E349" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="E349" s="8" t="s">
+    </row>
+    <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C350" s="43">
+        <v>-1028</v>
+      </c>
+      <c r="D350" s="46" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C350" s="39">
-        <v>-1028</v>
-      </c>
-      <c r="D350" s="42" t="s">
+      <c r="E350" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E350" s="9" t="s">
+    </row>
+    <row r="351" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C351" s="44"/>
+      <c r="D351" s="47"/>
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C352" s="44"/>
+      <c r="D352" s="47"/>
+      <c r="E352" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="40"/>
-      <c r="D351" s="43"/>
-      <c r="E351" s="10"/>
-    </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="40"/>
-      <c r="D352" s="43"/>
-      <c r="E352" s="12" t="s">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C353" s="44"/>
+      <c r="D353" s="47"/>
+      <c r="E353" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="40"/>
-      <c r="D353" s="43"/>
-      <c r="E353" s="12" t="s">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C354" s="44"/>
+      <c r="D354" s="47"/>
+      <c r="E354" s="12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="40"/>
-      <c r="D354" s="43"/>
-      <c r="E354" s="12" t="s">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C355" s="44"/>
+      <c r="D355" s="47"/>
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C356" s="45"/>
+      <c r="D356" s="48"/>
+      <c r="E356" s="15" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="40"/>
-      <c r="D355" s="43"/>
-      <c r="E355" s="12"/>
-    </row>
-    <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="41"/>
-      <c r="D356" s="44"/>
-      <c r="E356" s="15" t="s">
+    <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C357" s="43">
+        <v>-1029</v>
+      </c>
+      <c r="D357" s="46" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="39">
-        <v>-1029</v>
-      </c>
-      <c r="D357" s="42" t="s">
+      <c r="E357" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="E357" s="9" t="s">
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C358" s="44"/>
+      <c r="D358" s="47"/>
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C359" s="44"/>
+      <c r="D359" s="47"/>
+      <c r="E359" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="40"/>
-      <c r="D358" s="43"/>
-      <c r="E358" s="10"/>
-    </row>
-    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="40"/>
-      <c r="D359" s="43"/>
-      <c r="E359" s="12" t="s">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C360" s="44"/>
+      <c r="D360" s="47"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C361" s="44"/>
+      <c r="D361" s="47"/>
+      <c r="E361" s="16" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="40"/>
-      <c r="D360" s="43"/>
-      <c r="E360" s="12"/>
-    </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="40"/>
-      <c r="D361" s="43"/>
-      <c r="E361" s="16" t="s">
+    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C362" s="45"/>
+      <c r="D362" s="48"/>
+      <c r="E362" s="15" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="41"/>
-      <c r="D362" s="44"/>
-      <c r="E362" s="15" t="s">
+    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C363" s="43">
+        <v>-1030</v>
+      </c>
+      <c r="D363" s="46" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="39">
-        <v>-1030</v>
-      </c>
-      <c r="D363" s="42" t="s">
+      <c r="E363" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="E363" s="9" t="s">
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C364" s="44"/>
+      <c r="D364" s="47"/>
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C365" s="44"/>
+      <c r="D365" s="47"/>
+      <c r="E365" s="12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="40"/>
-      <c r="D364" s="43"/>
-      <c r="E364" s="10"/>
-    </row>
-    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="40"/>
-      <c r="D365" s="43"/>
-      <c r="E365" s="12" t="s">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C366" s="44"/>
+      <c r="D366" s="47"/>
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C367" s="45"/>
+      <c r="D367" s="48"/>
+      <c r="E367" s="11" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="40"/>
-      <c r="D366" s="43"/>
-      <c r="E366" s="10"/>
-    </row>
-    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="41"/>
-      <c r="D367" s="44"/>
-      <c r="E367" s="11" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="368" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7756,10 +7759,10 @@
         <v>-1031</v>
       </c>
       <c r="D368" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E368" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="E368" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="369" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7767,217 +7770,217 @@
         <v>-1032</v>
       </c>
       <c r="D369" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E369" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="E369" s="8" t="s">
+    </row>
+    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C370" s="43">
+        <v>-1033</v>
+      </c>
+      <c r="D370" s="46" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="39">
-        <v>-1033</v>
-      </c>
-      <c r="D370" s="42" t="s">
+      <c r="E370" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E370" s="9" t="s">
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C371" s="44"/>
+      <c r="D371" s="47"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C372" s="45"/>
+      <c r="D372" s="48"/>
+      <c r="E372" s="15" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="40"/>
-      <c r="D371" s="43"/>
-      <c r="E371" s="12"/>
-    </row>
-    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="41"/>
-      <c r="D372" s="44"/>
-      <c r="E372" s="15" t="s">
+    <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C373" s="43">
+        <v>-1034</v>
+      </c>
+      <c r="D373" s="46" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C373" s="39">
-        <v>-1034</v>
-      </c>
-      <c r="D373" s="42" t="s">
+      <c r="E373" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="E373" s="9" t="s">
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C374" s="44"/>
+      <c r="D374" s="47"/>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C375" s="45"/>
+      <c r="D375" s="48"/>
+      <c r="E375" s="15" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="40"/>
-      <c r="D374" s="43"/>
-      <c r="E374" s="12"/>
-    </row>
-    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="41"/>
-      <c r="D375" s="44"/>
-      <c r="E375" s="15" t="s">
+    <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C376" s="43">
+        <v>-1035</v>
+      </c>
+      <c r="D376" s="46" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C376" s="39">
-        <v>-1035</v>
-      </c>
-      <c r="D376" s="42" t="s">
+      <c r="E376" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E376" s="9" t="s">
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C377" s="44"/>
+      <c r="D377" s="47"/>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C378" s="45"/>
+      <c r="D378" s="48"/>
+      <c r="E378" s="15" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="40"/>
-      <c r="D377" s="43"/>
-      <c r="E377" s="12"/>
-    </row>
-    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="41"/>
-      <c r="D378" s="44"/>
-      <c r="E378" s="15" t="s">
+    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C379" s="43">
+        <v>-1036</v>
+      </c>
+      <c r="D379" s="46" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="39">
-        <v>-1036</v>
-      </c>
-      <c r="D379" s="42" t="s">
+      <c r="E379" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="E379" s="9" t="s">
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C380" s="44"/>
+      <c r="D380" s="47"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C381" s="45"/>
+      <c r="D381" s="48"/>
+      <c r="E381" s="15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="40"/>
-      <c r="D380" s="43"/>
-      <c r="E380" s="12"/>
-    </row>
-    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="41"/>
-      <c r="D381" s="44"/>
-      <c r="E381" s="15" t="s">
+    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C382" s="43">
+        <v>-1037</v>
+      </c>
+      <c r="D382" s="46" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="39">
-        <v>-1037</v>
-      </c>
-      <c r="D382" s="42" t="s">
+      <c r="E382" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="E382" s="9" t="s">
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C383" s="44"/>
+      <c r="D383" s="47"/>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C384" s="45"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="40"/>
-      <c r="D383" s="43"/>
-      <c r="E383" s="12"/>
-    </row>
-    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="41"/>
-      <c r="D384" s="44"/>
-      <c r="E384" s="15" t="s">
+    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C385" s="43">
+        <v>-1038</v>
+      </c>
+      <c r="D385" s="46" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="39">
-        <v>-1038</v>
-      </c>
-      <c r="D385" s="42" t="s">
+      <c r="E385" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="E385" s="9" t="s">
+    </row>
+    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C386" s="44"/>
+      <c r="D386" s="47"/>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C387" s="45"/>
+      <c r="D387" s="48"/>
+      <c r="E387" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="40"/>
-      <c r="D386" s="43"/>
-      <c r="E386" s="12"/>
-    </row>
-    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="41"/>
-      <c r="D387" s="44"/>
-      <c r="E387" s="15" t="s">
+    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C388" s="43">
+        <v>-1039</v>
+      </c>
+      <c r="D388" s="46" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="39">
-        <v>-1039</v>
-      </c>
-      <c r="D388" s="42" t="s">
+      <c r="E388" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="E388" s="9" t="s">
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C389" s="44"/>
+      <c r="D389" s="47"/>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C390" s="45"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="15" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="40"/>
-      <c r="D389" s="43"/>
-      <c r="E389" s="12"/>
-    </row>
-    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="41"/>
-      <c r="D390" s="44"/>
-      <c r="E390" s="15" t="s">
+    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C391" s="43">
+        <v>-1040</v>
+      </c>
+      <c r="D391" s="46" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="39">
-        <v>-1040</v>
-      </c>
-      <c r="D391" s="42" t="s">
+      <c r="E391" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="E391" s="9" t="s">
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C392" s="44"/>
+      <c r="D392" s="47"/>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C393" s="45"/>
+      <c r="D393" s="48"/>
+      <c r="E393" s="15" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="40"/>
-      <c r="D392" s="43"/>
-      <c r="E392" s="12"/>
-    </row>
-    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="41"/>
-      <c r="D393" s="44"/>
-      <c r="E393" s="15" t="s">
+    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C394" s="43">
+        <v>-1041</v>
+      </c>
+      <c r="D394" s="46" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="39">
-        <v>-1041</v>
-      </c>
-      <c r="D394" s="42" t="s">
+      <c r="E394" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="E394" s="9" t="s">
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C395" s="44"/>
+      <c r="D395" s="47"/>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C396" s="45"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="15" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="40"/>
-      <c r="D395" s="43"/>
-      <c r="E395" s="12"/>
-    </row>
-    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="41"/>
-      <c r="D396" s="44"/>
-      <c r="E396" s="15" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="397" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -7985,45 +7988,45 @@
         <v>-1042</v>
       </c>
       <c r="D397" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E397" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="E397" s="8" t="s">
+    </row>
+    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C398" s="43">
+        <v>-1043</v>
+      </c>
+      <c r="D398" s="46" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="39">
-        <v>-1043</v>
-      </c>
-      <c r="D398" s="42" t="s">
+      <c r="E398" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="E398" s="9" t="s">
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C399" s="44"/>
+      <c r="D399" s="47"/>
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C400" s="44"/>
+      <c r="D400" s="47"/>
+      <c r="E400" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="40"/>
-      <c r="D399" s="43"/>
-      <c r="E399" s="10"/>
-    </row>
-    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="40"/>
-      <c r="D400" s="43"/>
-      <c r="E400" s="12" t="s">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C401" s="44"/>
+      <c r="D401" s="47"/>
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C402" s="45"/>
+      <c r="D402" s="48"/>
+      <c r="E402" s="11" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="40"/>
-      <c r="D401" s="43"/>
-      <c r="E401" s="10"/>
-    </row>
-    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="41"/>
-      <c r="D402" s="44"/>
-      <c r="E402" s="11" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="403" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8031,77 +8034,77 @@
         <v>-1044</v>
       </c>
       <c r="D403" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E403" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="E403" s="8" t="s">
+    </row>
+    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C404" s="43">
+        <v>-1045</v>
+      </c>
+      <c r="D404" s="46" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="39">
-        <v>-1045</v>
-      </c>
-      <c r="D404" s="42" t="s">
+      <c r="E404" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E404" s="9" t="s">
+    </row>
+    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C405" s="44"/>
+      <c r="D405" s="47"/>
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C406" s="44"/>
+      <c r="D406" s="47"/>
+      <c r="E406" s="12" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="40"/>
-      <c r="D405" s="43"/>
-      <c r="E405" s="10"/>
-    </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="40"/>
-      <c r="D406" s="43"/>
-      <c r="E406" s="12" t="s">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C407" s="44"/>
+      <c r="D407" s="47"/>
+      <c r="E407" s="12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="40"/>
-      <c r="D407" s="43"/>
-      <c r="E407" s="12" t="s">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C408" s="44"/>
+      <c r="D408" s="47"/>
+      <c r="E408" s="12" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="40"/>
-      <c r="D408" s="43"/>
-      <c r="E408" s="12" t="s">
+    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C409" s="45"/>
+      <c r="D409" s="48"/>
+      <c r="E409" s="11" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="41"/>
-      <c r="D409" s="44"/>
-      <c r="E409" s="11" t="s">
+    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C410" s="43">
+        <v>-1046</v>
+      </c>
+      <c r="D410" s="46" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="39">
-        <v>-1046</v>
-      </c>
-      <c r="D410" s="42" t="s">
+      <c r="E410" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E410" s="9" t="s">
+    </row>
+    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C411" s="44"/>
+      <c r="D411" s="47"/>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C412" s="45"/>
+      <c r="D412" s="48"/>
+      <c r="E412" s="15" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="40"/>
-      <c r="D411" s="43"/>
-      <c r="E411" s="12"/>
-    </row>
-    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="41"/>
-      <c r="D412" s="44"/>
-      <c r="E412" s="15" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="413" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8109,10 +8112,10 @@
         <v>-1047</v>
       </c>
       <c r="D413" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E413" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="E413" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="414" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8120,10 +8123,10 @@
         <v>-1048</v>
       </c>
       <c r="D414" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E414" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="E414" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="415" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8131,10 +8134,10 @@
         <v>-1049</v>
       </c>
       <c r="D415" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E415" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="E415" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="416" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8142,86 +8145,86 @@
         <v>-1050</v>
       </c>
       <c r="D416" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E416" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="E416" s="8" t="s">
+    </row>
+    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C417" s="43">
+        <v>-1051</v>
+      </c>
+      <c r="D417" s="46" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="39">
-        <v>-1051</v>
-      </c>
-      <c r="D417" s="42" t="s">
+      <c r="E417" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="E417" s="9" t="s">
+    </row>
+    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C418" s="44"/>
+      <c r="D418" s="47"/>
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C419" s="44"/>
+      <c r="D419" s="47"/>
+      <c r="E419" s="12" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="40"/>
-      <c r="D418" s="43"/>
-      <c r="E418" s="10"/>
-    </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="40"/>
-      <c r="D419" s="43"/>
-      <c r="E419" s="12" t="s">
+    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C420" s="45"/>
+      <c r="D420" s="48"/>
+      <c r="E420" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="41"/>
-      <c r="D420" s="44"/>
-      <c r="E420" s="11" t="s">
+    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C421" s="43">
+        <v>-1052</v>
+      </c>
+      <c r="D421" s="46" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="39">
-        <v>-1052</v>
-      </c>
-      <c r="D421" s="42" t="s">
+      <c r="E421" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="E421" s="9" t="s">
+    </row>
+    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C422" s="44"/>
+      <c r="D422" s="47"/>
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C423" s="45"/>
+      <c r="D423" s="48"/>
+      <c r="E423" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="40"/>
-      <c r="D422" s="43"/>
-      <c r="E422" s="10"/>
-    </row>
-    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="41"/>
-      <c r="D423" s="44"/>
-      <c r="E423" s="11" t="s">
+    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C424" s="43">
+        <v>-1053</v>
+      </c>
+      <c r="D424" s="46" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="39">
-        <v>-1053</v>
-      </c>
-      <c r="D424" s="42" t="s">
+      <c r="E424" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E424" s="9" t="s">
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C425" s="44"/>
+      <c r="D425" s="47"/>
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C426" s="45"/>
+      <c r="D426" s="48"/>
+      <c r="E426" s="11" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="40"/>
-      <c r="D425" s="43"/>
-      <c r="E425" s="10"/>
-    </row>
-    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="41"/>
-      <c r="D426" s="44"/>
-      <c r="E426" s="11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="427" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8229,63 +8232,63 @@
         <v>-1054</v>
       </c>
       <c r="D427" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E427" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="E427" s="8" t="s">
+    </row>
+    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C428" s="43">
+        <v>-1055</v>
+      </c>
+      <c r="D428" s="46" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="39">
-        <v>-1055</v>
-      </c>
-      <c r="D428" s="42" t="s">
+      <c r="E428" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="E428" s="9" t="s">
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C429" s="44"/>
+      <c r="D429" s="47"/>
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C430" s="44"/>
+      <c r="D430" s="47"/>
+      <c r="E430" s="12" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="40"/>
-      <c r="D429" s="43"/>
-      <c r="E429" s="10"/>
-    </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="40"/>
-      <c r="D430" s="43"/>
-      <c r="E430" s="12" t="s">
+    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C431" s="45"/>
+      <c r="D431" s="48"/>
+      <c r="E431" s="11" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="41"/>
-      <c r="D431" s="44"/>
-      <c r="E431" s="11" t="s">
+    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C432" s="43">
+        <v>-1056</v>
+      </c>
+      <c r="D432" s="46" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="39">
-        <v>-1056</v>
-      </c>
-      <c r="D432" s="42" t="s">
+      <c r="E432" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E432" s="9" t="s">
+    </row>
+    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C433" s="44"/>
+      <c r="D433" s="47"/>
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C434" s="45"/>
+      <c r="D434" s="48"/>
+      <c r="E434" s="11" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="40"/>
-      <c r="D433" s="43"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="41"/>
-      <c r="D434" s="44"/>
-      <c r="E434" s="11" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="435" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8293,10 +8296,10 @@
         <v>-1057</v>
       </c>
       <c r="D435" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E435" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="E435" s="8" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="436" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8304,10 +8307,10 @@
         <v>-1058</v>
       </c>
       <c r="D436" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E436" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="E436" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="437" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8315,10 +8318,10 @@
         <v>-1059</v>
       </c>
       <c r="D437" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E437" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="E437" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="438" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8326,10 +8329,10 @@
         <v>-1500</v>
       </c>
       <c r="D438" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E438" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="E438" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="439" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8337,10 +8340,10 @@
         <v>-1501</v>
       </c>
       <c r="D439" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E439" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="440" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8348,10 +8351,10 @@
         <v>-1502</v>
       </c>
       <c r="D440" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E440" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="E440" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="441" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8359,10 +8362,10 @@
         <v>-1505</v>
       </c>
       <c r="D441" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E441" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="E441" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="442" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8370,10 +8373,10 @@
         <v>-1507</v>
       </c>
       <c r="D442" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E442" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="E442" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="443" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8381,10 +8384,10 @@
         <v>-1509</v>
       </c>
       <c r="D443" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E443" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="E443" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="444" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8392,10 +8395,10 @@
         <v>-1510</v>
       </c>
       <c r="D444" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E444" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="445" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8403,10 +8406,10 @@
         <v>-1511</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E445" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="446" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8414,10 +8417,10 @@
         <v>-1512</v>
       </c>
       <c r="D446" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E446" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="E446" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="447" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8425,10 +8428,10 @@
         <v>-1514</v>
       </c>
       <c r="D447" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E447" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="E447" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="448" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8436,10 +8439,10 @@
         <v>-1515</v>
       </c>
       <c r="D448" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E448" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="E448" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="449" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8447,10 +8450,10 @@
         <v>-1516</v>
       </c>
       <c r="D449" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E449" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="E449" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="450" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8458,7 +8461,7 @@
         <v>-1517</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E450" s="14"/>
     </row>
@@ -8467,7 +8470,7 @@
         <v>-1518</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E451" s="14"/>
     </row>
@@ -8476,7 +8479,7 @@
         <v>-1519</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E452" s="14"/>
     </row>
@@ -8485,7 +8488,7 @@
         <v>-1520</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E453" s="14"/>
     </row>
@@ -8494,7 +8497,7 @@
         <v>-1521</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E454" s="14"/>
     </row>
@@ -8503,10 +8506,10 @@
         <v>-1522</v>
       </c>
       <c r="D455" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E455" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="E455" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="456" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8514,10 +8517,10 @@
         <v>-1523</v>
       </c>
       <c r="D456" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E456" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="E456" s="8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="457" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8525,10 +8528,10 @@
         <v>-1524</v>
       </c>
       <c r="D457" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E457" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="E457" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="458" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8536,10 +8539,10 @@
         <v>-1550</v>
       </c>
       <c r="D458" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E458" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="E458" s="8" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="459" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8547,10 +8550,10 @@
         <v>-1551</v>
       </c>
       <c r="D459" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E459" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="E459" s="8" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="460" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8558,10 +8561,10 @@
         <v>-1552</v>
       </c>
       <c r="D460" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E460" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="E460" s="8" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="461" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8569,10 +8572,10 @@
         <v>-1553</v>
       </c>
       <c r="D461" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E461" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="E461" s="8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="462" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8580,10 +8583,10 @@
         <v>-1554</v>
       </c>
       <c r="D462" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E462" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="E462" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="463" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8591,10 +8594,10 @@
         <v>-1555</v>
       </c>
       <c r="D463" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E463" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="E463" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="464" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8602,10 +8605,10 @@
         <v>-1556</v>
       </c>
       <c r="D464" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E464" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="E464" s="8" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="465" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8613,10 +8616,10 @@
         <v>-1558</v>
       </c>
       <c r="D465" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E465" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="E465" s="8" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="466" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8624,10 +8627,10 @@
         <v>-1560</v>
       </c>
       <c r="D466" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E466" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="E466" s="8" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="467" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8635,35 +8638,35 @@
         <v>-1561</v>
       </c>
       <c r="D467" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E467" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="E467" s="8" t="s">
+    </row>
+    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C468" s="43">
+        <v>-1600</v>
+      </c>
+      <c r="D468" s="46" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="39">
-        <v>-1600</v>
-      </c>
-      <c r="D468" s="42" t="s">
+      <c r="E468" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="E468" s="9" t="s">
+    </row>
+    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C469" s="44"/>
+      <c r="D469" s="47"/>
+      <c r="E469" s="12" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="40"/>
-      <c r="D469" s="43"/>
-      <c r="E469" s="12" t="s">
+    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C470" s="45"/>
+      <c r="D470" s="48"/>
+      <c r="E470" s="11" t="s">
         <v>656</v>
-      </c>
-    </row>
-    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="41"/>
-      <c r="D470" s="44"/>
-      <c r="E470" s="11" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="471" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8671,10 +8674,10 @@
         <v>-1601</v>
       </c>
       <c r="D471" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E471" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="E471" s="8" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="472" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8682,10 +8685,10 @@
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="E472" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="E472" s="8" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8693,10 +8696,10 @@
         <v>-1603</v>
       </c>
       <c r="D473" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E473" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="E473" s="8" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8704,10 +8707,10 @@
         <v>-1604</v>
       </c>
       <c r="D474" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E474" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="E474" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8715,10 +8718,10 @@
         <v>-1605</v>
       </c>
       <c r="D475" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E475" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="E475" s="8" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8726,10 +8729,10 @@
         <v>-1606</v>
       </c>
       <c r="D476" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E476" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="E476" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8737,10 +8740,10 @@
         <v>-1607</v>
       </c>
       <c r="D477" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E477" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="E477" s="8" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8748,57 +8751,57 @@
         <v>-1609</v>
       </c>
       <c r="D478" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E478" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="E478" s="8" t="s">
+    </row>
+    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C479" s="43">
+        <v>-1610</v>
+      </c>
+      <c r="D479" s="46" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="39">
-        <v>-1610</v>
-      </c>
-      <c r="D479" s="42" t="s">
+      <c r="E479" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="E479" s="9" t="s">
+    </row>
+    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C480" s="44"/>
+      <c r="D480" s="47"/>
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C481" s="44"/>
+      <c r="D481" s="47"/>
+      <c r="E481" s="12" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="40"/>
-      <c r="D480" s="43"/>
-      <c r="E480" s="10"/>
-    </row>
-    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="40"/>
-      <c r="D481" s="43"/>
-      <c r="E481" s="12" t="s">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C482" s="44"/>
+      <c r="D482" s="47"/>
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C483" s="44"/>
+      <c r="D483" s="47"/>
+      <c r="E483" s="12" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="40"/>
-      <c r="D482" s="43"/>
-      <c r="E482" s="10"/>
-    </row>
-    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="40"/>
-      <c r="D483" s="43"/>
-      <c r="E483" s="12" t="s">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C484" s="44"/>
+      <c r="D484" s="47"/>
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C485" s="45"/>
+      <c r="D485" s="48"/>
+      <c r="E485" s="11" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="40"/>
-      <c r="D484" s="43"/>
-      <c r="E484" s="10"/>
-    </row>
-    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="41"/>
-      <c r="D485" s="44"/>
-      <c r="E485" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8806,10 +8809,10 @@
         <v>-1611</v>
       </c>
       <c r="D486" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E486" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="E486" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8817,10 +8820,10 @@
         <v>-1612</v>
       </c>
       <c r="D487" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E487" s="8" t="s">
         <v>681</v>
-      </c>
-      <c r="E487" s="8" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8828,10 +8831,10 @@
         <v>-1613</v>
       </c>
       <c r="D488" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="E488" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="E488" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8839,10 +8842,10 @@
         <v>-1614</v>
       </c>
       <c r="D489" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="E489" s="8" t="s">
         <v>685</v>
-      </c>
-      <c r="E489" s="8" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8850,10 +8853,10 @@
         <v>-1615</v>
       </c>
       <c r="D490" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E490" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="E490" s="8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8861,10 +8864,10 @@
         <v>-1616</v>
       </c>
       <c r="D491" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E491" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="E491" s="8" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="492" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8872,10 +8875,10 @@
         <v>-1617</v>
       </c>
       <c r="D492" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E492" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="E492" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8883,10 +8886,10 @@
         <v>-1700</v>
       </c>
       <c r="D493" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E493" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="E493" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8894,10 +8897,10 @@
         <v>-1701</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8905,10 +8908,10 @@
         <v>-1702</v>
       </c>
       <c r="D495" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E495" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="E495" s="8" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8916,10 +8919,10 @@
         <v>-1703</v>
       </c>
       <c r="D496" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E496" s="8" t="s">
         <v>698</v>
-      </c>
-      <c r="E496" s="8" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="497" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8927,10 +8930,10 @@
         <v>-1704</v>
       </c>
       <c r="D497" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E497" s="8" t="s">
         <v>700</v>
-      </c>
-      <c r="E497" s="8" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="498" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8938,10 +8941,10 @@
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E498" s="8" t="s">
         <v>702</v>
-      </c>
-      <c r="E498" s="8" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8949,10 +8952,10 @@
         <v>-1706</v>
       </c>
       <c r="D499" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E499" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="E499" s="8" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8960,10 +8963,10 @@
         <v>-1707</v>
       </c>
       <c r="D500" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E500" s="8" t="s">
         <v>706</v>
-      </c>
-      <c r="E500" s="8" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8971,10 +8974,10 @@
         <v>-1708</v>
       </c>
       <c r="D501" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E501" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="E501" s="8" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="502" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8982,10 +8985,10 @@
         <v>-1709</v>
       </c>
       <c r="D502" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E502" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="E502" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8993,10 +8996,10 @@
         <v>-1710</v>
       </c>
       <c r="D503" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E503" s="8" t="s">
         <v>712</v>
-      </c>
-      <c r="E503" s="8" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9004,10 +9007,10 @@
         <v>-1720</v>
       </c>
       <c r="D504" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E504" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="E504" s="8" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9015,10 +9018,10 @@
         <v>-1730</v>
       </c>
       <c r="D505" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E505" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="E505" s="8" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9026,10 +9029,10 @@
         <v>-1731</v>
       </c>
       <c r="D506" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E506" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="E506" s="8" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9037,10 +9040,10 @@
         <v>-1732</v>
       </c>
       <c r="D507" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E507" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="E507" s="8" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9048,10 +9051,10 @@
         <v>-1740</v>
       </c>
       <c r="D508" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E508" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="E508" s="8" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="509" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9059,7 +9062,7 @@
         <v>-3000</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E509" s="14"/>
     </row>
@@ -9068,7 +9071,7 @@
         <v>-3001</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E510" s="14"/>
     </row>
@@ -9077,7 +9080,7 @@
         <v>-3002</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E511" s="14"/>
     </row>
@@ -9086,7 +9089,7 @@
         <v>-3003</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E512" s="14"/>
     </row>
@@ -9095,7 +9098,7 @@
         <v>-3004</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E513" s="14"/>
     </row>
@@ -9104,7 +9107,7 @@
         <v>-3005</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E514" s="14"/>
     </row>
@@ -9113,7 +9116,7 @@
         <v>-3006</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E515" s="14"/>
     </row>
@@ -9122,7 +9125,7 @@
         <v>-3007</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E516" s="14"/>
     </row>
@@ -9131,7 +9134,7 @@
         <v>-3008</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E517" s="14"/>
     </row>
@@ -9140,7 +9143,7 @@
         <v>-3009</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E518" s="14"/>
     </row>
@@ -9149,7 +9152,7 @@
         <v>-3010</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E519" s="14"/>
     </row>
@@ -9158,7 +9161,7 @@
         <v>-3011</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E520" s="14"/>
     </row>
@@ -9167,7 +9170,7 @@
         <v>-3012</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E521" s="14"/>
     </row>
@@ -9176,54 +9179,54 @@
         <v>-3013</v>
       </c>
       <c r="D522" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E522" s="14"/>
+    </row>
+    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C523" s="43">
+        <v>-3014</v>
+      </c>
+      <c r="D523" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="E522" s="14"/>
-    </row>
-    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="39">
-        <v>-3014</v>
-      </c>
-      <c r="D523" s="42" t="s">
+      <c r="E523" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="E523" s="9" t="s">
+    </row>
+    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C524" s="44"/>
+      <c r="D524" s="47"/>
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C525" s="45"/>
+      <c r="D525" s="48"/>
+      <c r="E525" s="11" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="40"/>
-      <c r="D524" s="43"/>
-      <c r="E524" s="10"/>
-    </row>
-    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="41"/>
-      <c r="D525" s="44"/>
-      <c r="E525" s="11" t="s">
+    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C526" s="43">
+        <v>-3015</v>
+      </c>
+      <c r="D526" s="46" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="39">
-        <v>-3015</v>
-      </c>
-      <c r="D526" s="42" t="s">
+      <c r="E526" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="E526" s="9" t="s">
+    </row>
+    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C527" s="44"/>
+      <c r="D527" s="47"/>
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C528" s="45"/>
+      <c r="D528" s="48"/>
+      <c r="E528" s="11" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="40"/>
-      <c r="D527" s="43"/>
-      <c r="E527" s="10"/>
-    </row>
-    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="41"/>
-      <c r="D528" s="44"/>
-      <c r="E528" s="11" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9231,10 +9234,10 @@
         <v>-3016</v>
       </c>
       <c r="D529" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E529" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="E529" s="8" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9242,10 +9245,10 @@
         <v>-3017</v>
       </c>
       <c r="D530" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E530" s="8" t="s">
         <v>746</v>
-      </c>
-      <c r="E530" s="8" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9253,10 +9256,10 @@
         <v>-3100</v>
       </c>
       <c r="D531" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="E531" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="E531" s="8" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -9264,10 +9267,10 @@
         <v>-3101</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9275,10 +9278,10 @@
         <v>-3102</v>
       </c>
       <c r="D533" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="E533" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="E533" s="8" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9286,344 +9289,344 @@
         <v>-3103</v>
       </c>
       <c r="D534" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="E534" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="E534" s="8" t="s">
+    </row>
+    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C535" s="43">
+        <v>-3104</v>
+      </c>
+      <c r="D535" s="46" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C535" s="39">
-        <v>-3104</v>
-      </c>
-      <c r="D535" s="42" t="s">
+      <c r="E535" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="E535" s="9" t="s">
+    </row>
+    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C536" s="44"/>
+      <c r="D536" s="47"/>
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C537" s="44"/>
+      <c r="D537" s="47"/>
+      <c r="E537" s="12" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="40"/>
-      <c r="D536" s="43"/>
-      <c r="E536" s="10"/>
-    </row>
-    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="40"/>
-      <c r="D537" s="43"/>
-      <c r="E537" s="12" t="s">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C538" s="44"/>
+      <c r="D538" s="47"/>
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C539" s="44"/>
+      <c r="D539" s="47"/>
+      <c r="E539" s="12" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="40"/>
-      <c r="D538" s="43"/>
-      <c r="E538" s="10"/>
-    </row>
-    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="40"/>
-      <c r="D539" s="43"/>
-      <c r="E539" s="12" t="s">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C540" s="44"/>
+      <c r="D540" s="47"/>
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C541" s="44"/>
+      <c r="D541" s="47"/>
+      <c r="E541" s="12" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="40"/>
-      <c r="D540" s="43"/>
-      <c r="E540" s="10"/>
-    </row>
-    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="40"/>
-      <c r="D541" s="43"/>
-      <c r="E541" s="12" t="s">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C542" s="44"/>
+      <c r="D542" s="47"/>
+      <c r="E542" s="12"/>
+    </row>
+    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C543" s="45"/>
+      <c r="D543" s="48"/>
+      <c r="E543" s="15" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="40"/>
-      <c r="D542" s="43"/>
-      <c r="E542" s="12"/>
-    </row>
-    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="41"/>
-      <c r="D543" s="44"/>
-      <c r="E543" s="15" t="s">
+    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C544" s="43">
+        <v>-3105</v>
+      </c>
+      <c r="D544" s="46" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C544" s="39">
-        <v>-3105</v>
-      </c>
-      <c r="D544" s="42" t="s">
+      <c r="E544" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="E544" s="9" t="s">
+    </row>
+    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C545" s="44"/>
+      <c r="D545" s="47"/>
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C546" s="44"/>
+      <c r="D546" s="47"/>
+      <c r="E546" s="12" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="40"/>
-      <c r="D545" s="43"/>
-      <c r="E545" s="10"/>
-    </row>
-    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="40"/>
-      <c r="D546" s="43"/>
-      <c r="E546" s="12" t="s">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C547" s="44"/>
+      <c r="D547" s="47"/>
+      <c r="E547" s="12"/>
+    </row>
+    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C548" s="45"/>
+      <c r="D548" s="48"/>
+      <c r="E548" s="15" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="40"/>
-      <c r="D547" s="43"/>
-      <c r="E547" s="12"/>
-    </row>
-    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="41"/>
-      <c r="D548" s="44"/>
-      <c r="E548" s="15" t="s">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C549" s="43">
+        <v>-3106</v>
+      </c>
+      <c r="D549" s="46" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C549" s="39">
-        <v>-3106</v>
-      </c>
-      <c r="D549" s="42" t="s">
+      <c r="E549" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="E549" s="9" t="s">
+    </row>
+    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C550" s="44"/>
+      <c r="D550" s="47"/>
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C551" s="44"/>
+      <c r="D551" s="47"/>
+      <c r="E551" s="12" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="40"/>
-      <c r="D550" s="43"/>
-      <c r="E550" s="10"/>
-    </row>
-    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C551" s="40"/>
-      <c r="D551" s="43"/>
-      <c r="E551" s="12" t="s">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C552" s="44"/>
+      <c r="D552" s="47"/>
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C553" s="44"/>
+      <c r="D553" s="47"/>
+      <c r="E553" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="40"/>
-      <c r="D552" s="43"/>
-      <c r="E552" s="10"/>
-    </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="40"/>
-      <c r="D553" s="43"/>
-      <c r="E553" s="12" t="s">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C554" s="44"/>
+      <c r="D554" s="47"/>
+      <c r="E554" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="40"/>
-      <c r="D554" s="43"/>
-      <c r="E554" s="12" t="s">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C555" s="44"/>
+      <c r="D555" s="47"/>
+      <c r="E555" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="40"/>
-      <c r="D555" s="43"/>
-      <c r="E555" s="12" t="s">
+    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C556" s="44"/>
+      <c r="D556" s="47"/>
+      <c r="E556" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="40"/>
-      <c r="D556" s="43"/>
-      <c r="E556" s="12" t="s">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C557" s="44"/>
+      <c r="D557" s="47"/>
+      <c r="E557" s="12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="40"/>
-      <c r="D557" s="43"/>
-      <c r="E557" s="12" t="s">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C558" s="44"/>
+      <c r="D558" s="47"/>
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C559" s="44"/>
+      <c r="D559" s="47"/>
+      <c r="E559" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="40"/>
-      <c r="D558" s="43"/>
-      <c r="E558" s="10"/>
-    </row>
-    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="40"/>
-      <c r="D559" s="43"/>
-      <c r="E559" s="12" t="s">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C560" s="44"/>
+      <c r="D560" s="47"/>
+      <c r="E560" s="12"/>
+    </row>
+    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C561" s="44"/>
+      <c r="D561" s="47"/>
+      <c r="E561" s="16" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="40"/>
-      <c r="D560" s="43"/>
-      <c r="E560" s="12"/>
-    </row>
-    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="40"/>
-      <c r="D561" s="43"/>
-      <c r="E561" s="16" t="s">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C562" s="44"/>
+      <c r="D562" s="47"/>
+      <c r="E562" s="16" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="40"/>
-      <c r="D562" s="43"/>
-      <c r="E562" s="16" t="s">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C563" s="44"/>
+      <c r="D563" s="47"/>
+      <c r="E563" s="16" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="40"/>
-      <c r="D563" s="43"/>
-      <c r="E563" s="16" t="s">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C564" s="44"/>
+      <c r="D564" s="47"/>
+      <c r="E564" s="16" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="40"/>
-      <c r="D564" s="43"/>
-      <c r="E564" s="16" t="s">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C565" s="44"/>
+      <c r="D565" s="47"/>
+      <c r="E565" s="16" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="40"/>
-      <c r="D565" s="43"/>
-      <c r="E565" s="16" t="s">
+    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C566" s="44"/>
+      <c r="D566" s="47"/>
+      <c r="E566" s="16" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="40"/>
-      <c r="D566" s="43"/>
-      <c r="E566" s="16" t="s">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C567" s="44"/>
+      <c r="D567" s="47"/>
+      <c r="E567" s="16" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="40"/>
-      <c r="D567" s="43"/>
-      <c r="E567" s="16" t="s">
+    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C568" s="45"/>
+      <c r="D568" s="48"/>
+      <c r="E568" s="15" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="41"/>
-      <c r="D568" s="44"/>
-      <c r="E568" s="15" t="s">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C569" s="43">
+        <v>-3107</v>
+      </c>
+      <c r="D569" s="46" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C569" s="39">
-        <v>-3107</v>
-      </c>
-      <c r="D569" s="42" t="s">
+      <c r="E569" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="E569" s="9" t="s">
+    </row>
+    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C570" s="44"/>
+      <c r="D570" s="47"/>
+      <c r="E570" s="12"/>
+    </row>
+    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C571" s="45"/>
+      <c r="D571" s="48"/>
+      <c r="E571" s="15" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="40"/>
-      <c r="D570" s="43"/>
-      <c r="E570" s="12"/>
-    </row>
-    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="41"/>
-      <c r="D571" s="44"/>
-      <c r="E571" s="15" t="s">
+    <row r="572" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C572" s="43">
+        <v>-3108</v>
+      </c>
+      <c r="D572" s="46" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="572" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C572" s="39">
-        <v>-3108</v>
-      </c>
-      <c r="D572" s="42" t="s">
+      <c r="E572" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="E572" s="9" t="s">
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C573" s="44"/>
+      <c r="D573" s="47"/>
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C574" s="45"/>
+      <c r="D574" s="48"/>
+      <c r="E574" s="15" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="40"/>
-      <c r="D573" s="43"/>
-      <c r="E573" s="12"/>
-    </row>
-    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="41"/>
-      <c r="D574" s="44"/>
-      <c r="E574" s="15" t="s">
+    <row r="575" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C575" s="43">
+        <v>-3109</v>
+      </c>
+      <c r="D575" s="46" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="575" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C575" s="39">
-        <v>-3109</v>
-      </c>
-      <c r="D575" s="42" t="s">
+      <c r="E575" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="E575" s="9" t="s">
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C576" s="44"/>
+      <c r="D576" s="47"/>
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C577" s="45"/>
+      <c r="D577" s="48"/>
+      <c r="E577" s="15" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="40"/>
-      <c r="D576" s="43"/>
-      <c r="E576" s="12"/>
-    </row>
-    <row r="577" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="41"/>
-      <c r="D577" s="44"/>
-      <c r="E577" s="15" t="s">
+    <row r="578" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C578" s="43">
+        <v>-3110</v>
+      </c>
+      <c r="D578" s="46" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="578" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C578" s="39">
-        <v>-3110</v>
-      </c>
-      <c r="D578" s="42" t="s">
+      <c r="E578" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="E578" s="9" t="s">
+    </row>
+    <row r="579" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C579" s="44"/>
+      <c r="D579" s="47"/>
+      <c r="E579" s="10"/>
+    </row>
+    <row r="580" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C580" s="44"/>
+      <c r="D580" s="47"/>
+      <c r="E580" s="12" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="40"/>
-      <c r="D579" s="43"/>
-      <c r="E579" s="10"/>
-    </row>
-    <row r="580" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C580" s="40"/>
-      <c r="D580" s="43"/>
-      <c r="E580" s="12" t="s">
+    <row r="581" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C581" s="44"/>
+      <c r="D581" s="47"/>
+      <c r="E581" s="12"/>
+    </row>
+    <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C582" s="45"/>
+      <c r="D582" s="48"/>
+      <c r="E582" s="15" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="40"/>
-      <c r="D581" s="43"/>
-      <c r="E581" s="12"/>
-    </row>
-    <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="41"/>
-      <c r="D582" s="44"/>
-      <c r="E582" s="15" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9631,150 +9634,150 @@
         <v>-3111</v>
       </c>
       <c r="D583" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E583" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="E583" s="8" t="s">
+    </row>
+    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C584" s="43">
+        <v>-3112</v>
+      </c>
+      <c r="D584" s="46" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="39">
-        <v>-3112</v>
-      </c>
-      <c r="D584" s="42" t="s">
+      <c r="E584" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="E584" s="9" t="s">
+    </row>
+    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C585" s="44"/>
+      <c r="D585" s="47"/>
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C586" s="45"/>
+      <c r="D586" s="48"/>
+      <c r="E586" s="11" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="40"/>
-      <c r="D585" s="43"/>
-      <c r="E585" s="10"/>
-    </row>
-    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="41"/>
-      <c r="D586" s="44"/>
-      <c r="E586" s="11" t="s">
+    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C587" s="43">
+        <v>-3113</v>
+      </c>
+      <c r="D587" s="46" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="39">
-        <v>-3113</v>
-      </c>
-      <c r="D587" s="42" t="s">
+      <c r="E587" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="E587" s="9" t="s">
+    </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C588" s="44"/>
+      <c r="D588" s="47"/>
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C589" s="44"/>
+      <c r="D589" s="47"/>
+      <c r="E589" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="40"/>
-      <c r="D588" s="43"/>
-      <c r="E588" s="10"/>
-    </row>
-    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="40"/>
-      <c r="D589" s="43"/>
-      <c r="E589" s="12" t="s">
+    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C590" s="44"/>
+      <c r="D590" s="47"/>
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C591" s="44"/>
+      <c r="D591" s="47"/>
+      <c r="E591" s="12" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="40"/>
-      <c r="D590" s="43"/>
-      <c r="E590" s="10"/>
-    </row>
-    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="40"/>
-      <c r="D591" s="43"/>
-      <c r="E591" s="12" t="s">
+    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C592" s="44"/>
+      <c r="D592" s="47"/>
+      <c r="E592" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="40"/>
-      <c r="D592" s="43"/>
-      <c r="E592" s="12" t="s">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C593" s="44"/>
+      <c r="D593" s="47"/>
+      <c r="E593" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="40"/>
-      <c r="D593" s="43"/>
-      <c r="E593" s="12" t="s">
+    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C594" s="44"/>
+      <c r="D594" s="47"/>
+      <c r="E594" s="12" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="40"/>
-      <c r="D594" s="43"/>
-      <c r="E594" s="12" t="s">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C595" s="44"/>
+      <c r="D595" s="47"/>
+      <c r="E595" s="12" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="40"/>
-      <c r="D595" s="43"/>
-      <c r="E595" s="12" t="s">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C596" s="44"/>
+      <c r="D596" s="47"/>
+      <c r="E596" s="12" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="40"/>
-      <c r="D596" s="43"/>
-      <c r="E596" s="12" t="s">
+    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C597" s="44"/>
+      <c r="D597" s="47"/>
+      <c r="E597" s="12" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="40"/>
-      <c r="D597" s="43"/>
-      <c r="E597" s="12" t="s">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C598" s="44"/>
+      <c r="D598" s="47"/>
+      <c r="E598" s="12" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="40"/>
-      <c r="D598" s="43"/>
-      <c r="E598" s="12" t="s">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C599" s="44"/>
+      <c r="D599" s="47"/>
+      <c r="E599" s="12" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="40"/>
-      <c r="D599" s="43"/>
-      <c r="E599" s="12" t="s">
+    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C600" s="44"/>
+      <c r="D600" s="47"/>
+      <c r="E600" s="12" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="40"/>
-      <c r="D600" s="43"/>
-      <c r="E600" s="12" t="s">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C601" s="44"/>
+      <c r="D601" s="47"/>
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C602" s="44"/>
+      <c r="D602" s="47"/>
+      <c r="E602" s="12" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="40"/>
-      <c r="D601" s="43"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="40"/>
-      <c r="D602" s="43"/>
-      <c r="E602" s="12" t="s">
+    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C603" s="45"/>
+      <c r="D603" s="48"/>
+      <c r="E603" s="11" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="41"/>
-      <c r="D603" s="44"/>
-      <c r="E603" s="11" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9782,33 +9785,33 @@
         <v>-3114</v>
       </c>
       <c r="D604" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="E604" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="E604" s="8" t="s">
+    </row>
+    <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C605" s="43">
+        <v>-3115</v>
+      </c>
+      <c r="D605" s="46" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="39">
-        <v>-3115</v>
-      </c>
-      <c r="D605" s="42" t="s">
+      <c r="E605" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="E605" s="9" t="s">
+    </row>
+    <row r="606" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C606" s="44"/>
+      <c r="D606" s="47"/>
+      <c r="E606" s="10"/>
+    </row>
+    <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C607" s="45"/>
+      <c r="D607" s="48"/>
+      <c r="E607" s="11" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="40"/>
-      <c r="D606" s="43"/>
-      <c r="E606" s="10"/>
-    </row>
-    <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="41"/>
-      <c r="D607" s="44"/>
-      <c r="E607" s="11" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="608" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9816,50 +9819,50 @@
         <v>-3116</v>
       </c>
       <c r="D608" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E608" s="14"/>
+    </row>
+    <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C609" s="43">
+        <v>-3117</v>
+      </c>
+      <c r="D609" s="46" t="s">
         <v>820</v>
       </c>
-      <c r="E608" s="14"/>
-    </row>
-    <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="39">
-        <v>-3117</v>
-      </c>
-      <c r="D609" s="42" t="s">
+      <c r="E609" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="E609" s="9" t="s">
+    </row>
+    <row r="610" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C610" s="44"/>
+      <c r="D610" s="47"/>
+      <c r="E610" s="10"/>
+    </row>
+    <row r="611" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C611" s="44"/>
+      <c r="D611" s="47"/>
+      <c r="E611" s="12" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="40"/>
-      <c r="D610" s="43"/>
-      <c r="E610" s="10"/>
-    </row>
-    <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="40"/>
-      <c r="D611" s="43"/>
-      <c r="E611" s="12" t="s">
+    <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C612" s="44"/>
+      <c r="D612" s="47"/>
+      <c r="E612" s="12" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="40"/>
-      <c r="D612" s="43"/>
-      <c r="E612" s="12" t="s">
+    <row r="613" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C613" s="44"/>
+      <c r="D613" s="47"/>
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C614" s="45"/>
+      <c r="D614" s="48"/>
+      <c r="E614" s="11" t="s">
         <v>824</v>
-      </c>
-    </row>
-    <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="40"/>
-      <c r="D613" s="43"/>
-      <c r="E613" s="10"/>
-    </row>
-    <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="41"/>
-      <c r="D614" s="44"/>
-      <c r="E614" s="11" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9867,10 +9870,10 @@
         <v>-3118</v>
       </c>
       <c r="D615" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="E615" s="8" t="s">
         <v>826</v>
-      </c>
-      <c r="E615" s="8" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9878,147 +9881,147 @@
         <v>-3119</v>
       </c>
       <c r="D616" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E616" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="E616" s="8" t="s">
+    </row>
+    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C617" s="43">
+        <v>-3120</v>
+      </c>
+      <c r="D617" s="46" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="39">
-        <v>-3120</v>
-      </c>
-      <c r="D617" s="42" t="s">
+      <c r="E617" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="E617" s="9" t="s">
+    </row>
+    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C618" s="44"/>
+      <c r="D618" s="47"/>
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C619" s="44"/>
+      <c r="D619" s="47"/>
+      <c r="E619" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="40"/>
-      <c r="D618" s="43"/>
-      <c r="E618" s="10"/>
-    </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="40"/>
-      <c r="D619" s="43"/>
-      <c r="E619" s="12" t="s">
+    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C620" s="44"/>
+      <c r="D620" s="47"/>
+      <c r="E620" s="12" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="40"/>
-      <c r="D620" s="43"/>
-      <c r="E620" s="12" t="s">
+    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C621" s="44"/>
+      <c r="D621" s="47"/>
+      <c r="E621" s="12" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="40"/>
-      <c r="D621" s="43"/>
-      <c r="E621" s="12" t="s">
+    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C622" s="44"/>
+      <c r="D622" s="47"/>
+      <c r="E622" s="12" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="40"/>
-      <c r="D622" s="43"/>
-      <c r="E622" s="12" t="s">
+    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C623" s="45"/>
+      <c r="D623" s="48"/>
+      <c r="E623" s="11" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="41"/>
-      <c r="D623" s="44"/>
-      <c r="E623" s="11" t="s">
+    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C624" s="43">
+        <v>-3121</v>
+      </c>
+      <c r="D624" s="46" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="39">
-        <v>-3121</v>
-      </c>
-      <c r="D624" s="42" t="s">
+      <c r="E624" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="E624" s="9" t="s">
+    </row>
+    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C625" s="44"/>
+      <c r="D625" s="47"/>
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C626" s="44"/>
+      <c r="D626" s="47"/>
+      <c r="E626" s="12" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="40"/>
-      <c r="D625" s="43"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="40"/>
-      <c r="D626" s="43"/>
-      <c r="E626" s="12" t="s">
+    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C627" s="44"/>
+      <c r="D627" s="47"/>
+      <c r="E627" s="12" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="40"/>
-      <c r="D627" s="43"/>
-      <c r="E627" s="12" t="s">
+    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C628" s="44"/>
+      <c r="D628" s="47"/>
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C629" s="45"/>
+      <c r="D629" s="48"/>
+      <c r="E629" s="11" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="40"/>
-      <c r="D628" s="43"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="41"/>
-      <c r="D629" s="44"/>
-      <c r="E629" s="11" t="s">
+    <row r="630" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C630" s="43">
+        <v>-3122</v>
+      </c>
+      <c r="D630" s="46" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="630" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C630" s="39">
-        <v>-3122</v>
-      </c>
-      <c r="D630" s="42" t="s">
+      <c r="E630" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="E630" s="9" t="s">
+    </row>
+    <row r="631" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C631" s="44"/>
+      <c r="D631" s="47"/>
+      <c r="E631" s="10"/>
+    </row>
+    <row r="632" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C632" s="44"/>
+      <c r="D632" s="47"/>
+      <c r="E632" s="12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="631" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C631" s="40"/>
-      <c r="D631" s="43"/>
-      <c r="E631" s="10"/>
-    </row>
-    <row r="632" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C632" s="40"/>
-      <c r="D632" s="43"/>
-      <c r="E632" s="12" t="s">
+    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C633" s="44"/>
+      <c r="D633" s="47"/>
+      <c r="E633" s="12" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="40"/>
-      <c r="D633" s="43"/>
-      <c r="E633" s="12" t="s">
+    <row r="634" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C634" s="44"/>
+      <c r="D634" s="47"/>
+      <c r="E634" s="12" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="634" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C634" s="40"/>
-      <c r="D634" s="43"/>
-      <c r="E634" s="12" t="s">
+    <row r="635" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C635" s="45"/>
+      <c r="D635" s="48"/>
+      <c r="E635" s="11" t="s">
         <v>846</v>
-      </c>
-    </row>
-    <row r="635" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C635" s="41"/>
-      <c r="D635" s="44"/>
-      <c r="E635" s="11" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10026,33 +10029,33 @@
         <v>-3123</v>
       </c>
       <c r="D636" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E636" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="E636" s="8" t="s">
+    </row>
+    <row r="637" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C637" s="43">
+        <v>-3124</v>
+      </c>
+      <c r="D637" s="46" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="637" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C637" s="39">
-        <v>-3124</v>
-      </c>
-      <c r="D637" s="42" t="s">
+      <c r="E637" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="E637" s="9" t="s">
+    </row>
+    <row r="638" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C638" s="44"/>
+      <c r="D638" s="47"/>
+      <c r="E638" s="10"/>
+    </row>
+    <row r="639" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C639" s="45"/>
+      <c r="D639" s="48"/>
+      <c r="E639" s="11" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="638" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C638" s="40"/>
-      <c r="D638" s="43"/>
-      <c r="E638" s="10"/>
-    </row>
-    <row r="639" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C639" s="41"/>
-      <c r="D639" s="44"/>
-      <c r="E639" s="11" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="640" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10060,64 +10063,64 @@
         <v>-3125</v>
       </c>
       <c r="D640" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E640" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="E640" s="8" t="s">
+    </row>
+    <row r="641" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C641" s="43">
+        <v>-3126</v>
+      </c>
+      <c r="D641" s="46" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="641" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C641" s="39">
-        <v>-3126</v>
-      </c>
-      <c r="D641" s="42" t="s">
+      <c r="E641" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="E641" s="9" t="s">
+    </row>
+    <row r="642" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C642" s="44"/>
+      <c r="D642" s="47"/>
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C643" s="44"/>
+      <c r="D643" s="47"/>
+      <c r="E643" s="12" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="40"/>
-      <c r="D642" s="43"/>
-      <c r="E642" s="10"/>
-    </row>
-    <row r="643" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C643" s="40"/>
-      <c r="D643" s="43"/>
-      <c r="E643" s="12" t="s">
+    <row r="644" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C644" s="44"/>
+      <c r="D644" s="47"/>
+      <c r="E644" s="12" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="644" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C644" s="40"/>
-      <c r="D644" s="43"/>
-      <c r="E644" s="12" t="s">
+    <row r="645" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C645" s="44"/>
+      <c r="D645" s="47"/>
+      <c r="E645" s="10"/>
+    </row>
+    <row r="646" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C646" s="44"/>
+      <c r="D646" s="47"/>
+      <c r="E646" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="645" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C645" s="40"/>
-      <c r="D645" s="43"/>
-      <c r="E645" s="10"/>
-    </row>
-    <row r="646" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C646" s="40"/>
-      <c r="D646" s="43"/>
-      <c r="E646" s="12" t="s">
+    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C647" s="44"/>
+      <c r="D647" s="47"/>
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C648" s="45"/>
+      <c r="D648" s="48"/>
+      <c r="E648" s="11" t="s">
         <v>859</v>
-      </c>
-    </row>
-    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="40"/>
-      <c r="D647" s="43"/>
-      <c r="E647" s="10"/>
-    </row>
-    <row r="648" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C648" s="41"/>
-      <c r="D648" s="44"/>
-      <c r="E648" s="11" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="649" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10125,10 +10128,10 @@
         <v>-3127</v>
       </c>
       <c r="D649" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E649" s="8" t="s">
         <v>861</v>
-      </c>
-      <c r="E649" s="8" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="650" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10136,92 +10139,92 @@
         <v>-3128</v>
       </c>
       <c r="D650" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E650" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="E650" s="8" t="s">
+    </row>
+    <row r="651" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C651" s="43">
+        <v>-3129</v>
+      </c>
+      <c r="D651" s="46" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="651" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C651" s="39">
-        <v>-3129</v>
-      </c>
-      <c r="D651" s="42" t="s">
+      <c r="E651" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="E651" s="9" t="s">
+    </row>
+    <row r="652" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C652" s="44"/>
+      <c r="D652" s="47"/>
+      <c r="E652" s="10"/>
+    </row>
+    <row r="653" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C653" s="44"/>
+      <c r="D653" s="47"/>
+      <c r="E653" s="12" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="652" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C652" s="40"/>
-      <c r="D652" s="43"/>
-      <c r="E652" s="10"/>
-    </row>
-    <row r="653" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C653" s="40"/>
-      <c r="D653" s="43"/>
-      <c r="E653" s="12" t="s">
+    <row r="654" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C654" s="44"/>
+      <c r="D654" s="47"/>
+      <c r="E654" s="10"/>
+    </row>
+    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C655" s="44"/>
+      <c r="D655" s="47"/>
+      <c r="E655" s="12" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="654" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C654" s="40"/>
-      <c r="D654" s="43"/>
-      <c r="E654" s="10"/>
-    </row>
-    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="40"/>
-      <c r="D655" s="43"/>
-      <c r="E655" s="12" t="s">
+    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C656" s="44"/>
+      <c r="D656" s="47"/>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C657" s="44"/>
+      <c r="D657" s="47"/>
+      <c r="E657" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="40"/>
-      <c r="D656" s="43"/>
-      <c r="E656" s="10"/>
-    </row>
-    <row r="657" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C657" s="40"/>
-      <c r="D657" s="43"/>
-      <c r="E657" s="12" t="s">
+    <row r="658" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C658" s="44"/>
+      <c r="D658" s="47"/>
+      <c r="E658" s="10"/>
+    </row>
+    <row r="659" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C659" s="45"/>
+      <c r="D659" s="48"/>
+      <c r="E659" s="11" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="658" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C658" s="40"/>
-      <c r="D658" s="43"/>
-      <c r="E658" s="10"/>
-    </row>
-    <row r="659" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C659" s="41"/>
-      <c r="D659" s="44"/>
-      <c r="E659" s="11" t="s">
+    <row r="660" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C660" s="43">
+        <v>-3130</v>
+      </c>
+      <c r="D660" s="46" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="660" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C660" s="39">
-        <v>-3130</v>
-      </c>
-      <c r="D660" s="42" t="s">
+      <c r="E660" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="E660" s="9" t="s">
+    </row>
+    <row r="661" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C661" s="44"/>
+      <c r="D661" s="47"/>
+      <c r="E661" s="10"/>
+    </row>
+    <row r="662" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C662" s="45"/>
+      <c r="D662" s="48"/>
+      <c r="E662" s="11" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="661" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C661" s="40"/>
-      <c r="D661" s="43"/>
-      <c r="E661" s="10"/>
-    </row>
-    <row r="662" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C662" s="41"/>
-      <c r="D662" s="44"/>
-      <c r="E662" s="11" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="663" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10229,10 +10232,10 @@
         <v>-3131</v>
       </c>
       <c r="D663" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E663" s="8" t="s">
         <v>874</v>
-      </c>
-      <c r="E663" s="8" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="664" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10240,10 +10243,10 @@
         <v>-3132</v>
       </c>
       <c r="D664" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E664" s="8" t="s">
         <v>876</v>
-      </c>
-      <c r="E664" s="8" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="665" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10251,45 +10254,45 @@
         <v>-3133</v>
       </c>
       <c r="D665" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="E665" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="E665" s="8" t="s">
+    </row>
+    <row r="666" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C666" s="43">
+        <v>-3134</v>
+      </c>
+      <c r="D666" s="46" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="666" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C666" s="39">
-        <v>-3134</v>
-      </c>
-      <c r="D666" s="42" t="s">
+      <c r="E666" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="E666" s="9" t="s">
+    </row>
+    <row r="667" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C667" s="44"/>
+      <c r="D667" s="47"/>
+      <c r="E667" s="10"/>
+    </row>
+    <row r="668" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C668" s="44"/>
+      <c r="D668" s="47"/>
+      <c r="E668" s="12" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="667" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C667" s="40"/>
-      <c r="D667" s="43"/>
-      <c r="E667" s="10"/>
-    </row>
-    <row r="668" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C668" s="40"/>
-      <c r="D668" s="43"/>
-      <c r="E668" s="12" t="s">
+    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C669" s="44"/>
+      <c r="D669" s="47"/>
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C670" s="45"/>
+      <c r="D670" s="48"/>
+      <c r="E670" s="11" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="40"/>
-      <c r="D669" s="43"/>
-      <c r="E669" s="10"/>
-    </row>
-    <row r="670" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C670" s="41"/>
-      <c r="D670" s="44"/>
-      <c r="E670" s="11" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10297,10 +10300,10 @@
         <v>-3135</v>
       </c>
       <c r="D671" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E671" s="8" t="s">
         <v>884</v>
-      </c>
-      <c r="E671" s="8" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10308,283 +10311,283 @@
         <v>-3136</v>
       </c>
       <c r="D672" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="E672" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="E672" s="8" t="s">
+    </row>
+    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C673" s="43">
+        <v>-3137</v>
+      </c>
+      <c r="D673" s="46" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="39">
-        <v>-3137</v>
-      </c>
-      <c r="D673" s="42" t="s">
+      <c r="E673" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="E673" s="9" t="s">
+    </row>
+    <row r="674" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C674" s="44"/>
+      <c r="D674" s="47"/>
+      <c r="E674" s="10"/>
+    </row>
+    <row r="675" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C675" s="44"/>
+      <c r="D675" s="47"/>
+      <c r="E675" s="12" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="674" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C674" s="40"/>
-      <c r="D674" s="43"/>
-      <c r="E674" s="10"/>
-    </row>
-    <row r="675" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C675" s="40"/>
-      <c r="D675" s="43"/>
-      <c r="E675" s="12" t="s">
+    <row r="676" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C676" s="45"/>
+      <c r="D676" s="48"/>
+      <c r="E676" s="11" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="676" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="41"/>
-      <c r="D676" s="44"/>
-      <c r="E676" s="11" t="s">
+    <row r="677" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C677" s="43">
+        <v>-3138</v>
+      </c>
+      <c r="D677" s="46" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="677" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C677" s="39">
-        <v>-3138</v>
-      </c>
-      <c r="D677" s="42" t="s">
+      <c r="E677" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="E677" s="9" t="s">
+    </row>
+    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C678" s="44"/>
+      <c r="D678" s="47"/>
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C679" s="44"/>
+      <c r="D679" s="47"/>
+      <c r="E679" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="40"/>
-      <c r="D678" s="43"/>
-      <c r="E678" s="10"/>
-    </row>
-    <row r="679" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C679" s="40"/>
-      <c r="D679" s="43"/>
-      <c r="E679" s="12" t="s">
+    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C680" s="44"/>
+      <c r="D680" s="47"/>
+      <c r="E680" s="10"/>
+    </row>
+    <row r="681" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C681" s="45"/>
+      <c r="D681" s="48"/>
+      <c r="E681" s="11" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="40"/>
-      <c r="D680" s="43"/>
-      <c r="E680" s="10"/>
-    </row>
-    <row r="681" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C681" s="41"/>
-      <c r="D681" s="44"/>
-      <c r="E681" s="11" t="s">
+    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C682" s="43">
+        <v>-3139</v>
+      </c>
+      <c r="D682" s="46" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="39">
-        <v>-3139</v>
-      </c>
-      <c r="D682" s="42" t="s">
+      <c r="E682" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="E682" s="9" t="s">
+    </row>
+    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C683" s="44"/>
+      <c r="D683" s="47"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C684" s="44"/>
+      <c r="D684" s="47"/>
+      <c r="E684" s="12" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="40"/>
-      <c r="D683" s="43"/>
-      <c r="E683" s="10"/>
-    </row>
-    <row r="684" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C684" s="40"/>
-      <c r="D684" s="43"/>
-      <c r="E684" s="12" t="s">
+    <row r="685" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C685" s="44"/>
+      <c r="D685" s="47"/>
+      <c r="E685" s="12" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="685" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C685" s="40"/>
-      <c r="D685" s="43"/>
-      <c r="E685" s="12" t="s">
+    <row r="686" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C686" s="44"/>
+      <c r="D686" s="47"/>
+      <c r="E686" s="12" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="686" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C686" s="40"/>
-      <c r="D686" s="43"/>
-      <c r="E686" s="12" t="s">
+    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C687" s="44"/>
+      <c r="D687" s="47"/>
+      <c r="E687" s="12" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="40"/>
-      <c r="D687" s="43"/>
-      <c r="E687" s="12" t="s">
+    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C688" s="44"/>
+      <c r="D688" s="47"/>
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C689" s="45"/>
+      <c r="D689" s="48"/>
+      <c r="E689" s="11" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="40"/>
-      <c r="D688" s="43"/>
-      <c r="E688" s="10"/>
-    </row>
-    <row r="689" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="41"/>
-      <c r="D689" s="44"/>
-      <c r="E689" s="11" t="s">
+    <row r="690" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C690" s="43">
+        <v>-3140</v>
+      </c>
+      <c r="D690" s="46" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="690" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C690" s="39">
-        <v>-3140</v>
-      </c>
-      <c r="D690" s="42" t="s">
+      <c r="E690" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="E690" s="9" t="s">
+    </row>
+    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C691" s="44"/>
+      <c r="D691" s="47"/>
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C692" s="44"/>
+      <c r="D692" s="47"/>
+      <c r="E692" s="12" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="40"/>
-      <c r="D691" s="43"/>
-      <c r="E691" s="10"/>
-    </row>
-    <row r="692" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C692" s="40"/>
-      <c r="D692" s="43"/>
-      <c r="E692" s="12" t="s">
+    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C693" s="44"/>
+      <c r="D693" s="47"/>
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C694" s="45"/>
+      <c r="D694" s="48"/>
+      <c r="E694" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C695" s="43">
+        <v>-3141</v>
+      </c>
+      <c r="D695" s="46" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="40"/>
-      <c r="D693" s="43"/>
-      <c r="E693" s="10"/>
-    </row>
-    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="41"/>
-      <c r="D694" s="44"/>
-      <c r="E694" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="39">
-        <v>-3141</v>
-      </c>
-      <c r="D695" s="42" t="s">
+      <c r="E695" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="E695" s="9" t="s">
+    </row>
+    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C696" s="44"/>
+      <c r="D696" s="47"/>
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C697" s="44"/>
+      <c r="D697" s="47"/>
+      <c r="E697" s="12" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="40"/>
-      <c r="D696" s="43"/>
-      <c r="E696" s="10"/>
-    </row>
-    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="40"/>
-      <c r="D697" s="43"/>
-      <c r="E697" s="12" t="s">
+    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C698" s="44"/>
+      <c r="D698" s="47"/>
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C699" s="45"/>
+      <c r="D699" s="48"/>
+      <c r="E699" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C700" s="43">
+        <v>-3142</v>
+      </c>
+      <c r="D700" s="46" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="40"/>
-      <c r="D698" s="43"/>
-      <c r="E698" s="10"/>
-    </row>
-    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="41"/>
-      <c r="D699" s="44"/>
-      <c r="E699" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="700" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C700" s="39">
-        <v>-3142</v>
-      </c>
-      <c r="D700" s="42" t="s">
+      <c r="E700" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="E700" s="9" t="s">
+    </row>
+    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C701" s="44"/>
+      <c r="D701" s="47"/>
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C702" s="44"/>
+      <c r="D702" s="47"/>
+      <c r="E702" s="12" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="40"/>
-      <c r="D701" s="43"/>
-      <c r="E701" s="10"/>
-    </row>
-    <row r="702" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C702" s="40"/>
-      <c r="D702" s="43"/>
-      <c r="E702" s="12" t="s">
+    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C703" s="44"/>
+      <c r="D703" s="47"/>
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C704" s="45"/>
+      <c r="D704" s="48"/>
+      <c r="E704" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="705" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C705" s="43">
+        <v>-3143</v>
+      </c>
+      <c r="D705" s="46" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="40"/>
-      <c r="D703" s="43"/>
-      <c r="E703" s="10"/>
-    </row>
-    <row r="704" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C704" s="41"/>
-      <c r="D704" s="44"/>
-      <c r="E704" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="705" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C705" s="39">
-        <v>-3143</v>
-      </c>
-      <c r="D705" s="42" t="s">
+      <c r="E705" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="E705" s="9" t="s">
+    </row>
+    <row r="706" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C706" s="44"/>
+      <c r="D706" s="47"/>
+      <c r="E706" s="10"/>
+    </row>
+    <row r="707" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C707" s="44"/>
+      <c r="D707" s="47"/>
+      <c r="E707" s="12" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="706" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C706" s="40"/>
-      <c r="D706" s="43"/>
-      <c r="E706" s="10"/>
-    </row>
-    <row r="707" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C707" s="40"/>
-      <c r="D707" s="43"/>
-      <c r="E707" s="12" t="s">
+    <row r="708" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C708" s="44"/>
+      <c r="D708" s="47"/>
+      <c r="E708" s="10"/>
+    </row>
+    <row r="709" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C709" s="44"/>
+      <c r="D709" s="47"/>
+      <c r="E709" s="12" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="708" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C708" s="40"/>
-      <c r="D708" s="43"/>
-      <c r="E708" s="10"/>
-    </row>
-    <row r="709" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C709" s="40"/>
-      <c r="D709" s="43"/>
-      <c r="E709" s="12" t="s">
+    <row r="710" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C710" s="44"/>
+      <c r="D710" s="47"/>
+      <c r="E710" s="10"/>
+    </row>
+    <row r="711" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C711" s="45"/>
+      <c r="D711" s="48"/>
+      <c r="E711" s="11" t="s">
         <v>915</v>
-      </c>
-    </row>
-    <row r="710" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C710" s="40"/>
-      <c r="D710" s="43"/>
-      <c r="E710" s="10"/>
-    </row>
-    <row r="711" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C711" s="41"/>
-      <c r="D711" s="44"/>
-      <c r="E711" s="11" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="712" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -10592,10 +10595,10 @@
         <v>-3144</v>
       </c>
       <c r="D712" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="E712" s="8" t="s">
         <v>917</v>
-      </c>
-      <c r="E712" s="8" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="713" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10603,10 +10606,10 @@
         <v>-3145</v>
       </c>
       <c r="D713" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="E713" s="8" t="s">
         <v>919</v>
-      </c>
-      <c r="E713" s="8" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="714" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10614,249 +10617,389 @@
         <v>-3146</v>
       </c>
       <c r="D714" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="E714" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="E714" s="20" t="s">
+    </row>
+    <row r="715" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C715" s="43">
+        <v>-3147</v>
+      </c>
+      <c r="D715" s="46" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="715" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C715" s="39">
-        <v>-3147</v>
-      </c>
-      <c r="D715" s="42" t="s">
+      <c r="E715" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="E715" s="21" t="s">
+    </row>
+    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C716" s="44"/>
+      <c r="D716" s="47"/>
+      <c r="E716" s="22"/>
+    </row>
+    <row r="717" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C717" s="44"/>
+      <c r="D717" s="47"/>
+      <c r="E717" s="23" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="40"/>
-      <c r="D716" s="43"/>
-      <c r="E716" s="22"/>
-    </row>
-    <row r="717" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C717" s="40"/>
-      <c r="D717" s="43"/>
-      <c r="E717" s="23" t="s">
+    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C718" s="44"/>
+      <c r="D718" s="47"/>
+      <c r="E718" s="22"/>
+    </row>
+    <row r="719" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C719" s="44"/>
+      <c r="D719" s="47"/>
+      <c r="E719" s="23" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="40"/>
-      <c r="D718" s="43"/>
-      <c r="E718" s="22"/>
-    </row>
-    <row r="719" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C719" s="40"/>
-      <c r="D719" s="43"/>
-      <c r="E719" s="23" t="s">
+    <row r="720" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C720" s="44"/>
+      <c r="D720" s="47"/>
+      <c r="E720" s="23" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="720" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C720" s="40"/>
-      <c r="D720" s="43"/>
-      <c r="E720" s="23" t="s">
+    <row r="721" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C721" s="44"/>
+      <c r="D721" s="47"/>
+      <c r="E721" s="23" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="721" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C721" s="40"/>
-      <c r="D721" s="43"/>
-      <c r="E721" s="23" t="s">
+    <row r="722" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C722" s="44"/>
+      <c r="D722" s="47"/>
+      <c r="E722" s="23" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="722" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C722" s="40"/>
-      <c r="D722" s="43"/>
-      <c r="E722" s="23" t="s">
+    <row r="723" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C723" s="44"/>
+      <c r="D723" s="47"/>
+      <c r="E723" s="23" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="723" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C723" s="40"/>
-      <c r="D723" s="43"/>
-      <c r="E723" s="23" t="s">
+    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C724" s="45"/>
+      <c r="D724" s="48"/>
+      <c r="E724" s="24" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="41"/>
-      <c r="D724" s="44"/>
-      <c r="E724" s="24" t="s">
+    <row r="725" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C725" s="39" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="725" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C725" s="51" t="s">
+      <c r="D725" s="41" t="s">
         <v>932</v>
       </c>
-      <c r="D725" s="53" t="s">
+      <c r="E725" s="25" t="s">
         <v>933</v>
       </c>
-      <c r="E725" s="25" t="s">
+    </row>
+    <row r="726" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C726" s="40"/>
+      <c r="D726" s="42"/>
+      <c r="E726" s="26" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="726" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C726" s="52"/>
-      <c r="D726" s="54"/>
-      <c r="E726" s="26" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="727" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C727" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="D727" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="D727" s="26" t="s">
+      <c r="E727" s="26" t="s">
         <v>937</v>
       </c>
-      <c r="E727" s="26" t="s">
+    </row>
+    <row r="728" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C728" s="39" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="728" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C728" s="51" t="s">
+      <c r="D728" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="D728" s="53" t="s">
+      <c r="E728" s="28" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="729" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C729" s="40"/>
+      <c r="D729" s="42"/>
+      <c r="E729" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="E728" s="28" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="729" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C729" s="52"/>
-      <c r="D729" s="54"/>
-      <c r="E729" s="26" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C730" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="D730" s="26" t="s">
         <v>942</v>
       </c>
-      <c r="D730" s="26" t="s">
+      <c r="E730" s="26" t="s">
         <v>943</v>
-      </c>
-      <c r="E730" s="26" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="D731" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="D731" s="26" t="s">
+      <c r="E731" s="26" t="s">
         <v>946</v>
-      </c>
-      <c r="E731" s="26" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="732" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C732" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="D732" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="D732" s="26" t="s">
+      <c r="E732" s="26" t="s">
         <v>949</v>
-      </c>
-      <c r="E732" s="26" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="733" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C733" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="D733" s="26" t="s">
         <v>951</v>
       </c>
-      <c r="D733" s="26" t="s">
+      <c r="E733" s="26" t="s">
         <v>952</v>
       </c>
-      <c r="E733" s="26" t="s">
+    </row>
+    <row r="734" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C734" s="39" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="734" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C734" s="51" t="s">
+      <c r="D734" s="28" t="s">
         <v>954</v>
       </c>
-      <c r="D734" s="28" t="s">
+      <c r="E734" s="41" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="735" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C735" s="40"/>
+      <c r="D735" s="26" t="s">
         <v>955</v>
       </c>
-      <c r="E734" s="53" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="735" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C735" s="52"/>
-      <c r="D735" s="26" t="s">
-        <v>956</v>
-      </c>
-      <c r="E735" s="54"/>
+      <c r="E735" s="42"/>
     </row>
     <row r="736" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C736" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="D736" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="D736" s="26" t="s">
+      <c r="E736" s="26" t="s">
         <v>959</v>
-      </c>
-      <c r="E736" s="26" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="737" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C737" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="D737" s="26" t="s">
         <v>961</v>
       </c>
-      <c r="D737" s="26" t="s">
+      <c r="E737" s="26" t="s">
         <v>962</v>
-      </c>
-      <c r="E737" s="26" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="738" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C738" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="D738" s="26" t="s">
         <v>964</v>
       </c>
-      <c r="D738" s="26" t="s">
+      <c r="E738" s="26" t="s">
         <v>965</v>
-      </c>
-      <c r="E738" s="26" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="739" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C739" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="D739" s="26" t="s">
         <v>967</v>
       </c>
-      <c r="D739" s="26" t="s">
+      <c r="E739" s="26" t="s">
         <v>968</v>
-      </c>
-      <c r="E739" s="26" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="740" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C740" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="D740" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="D740" s="26" t="s">
+      <c r="E740" s="26" t="s">
         <v>971</v>
-      </c>
-      <c r="E740" s="26" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="741" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C637:C639"/>
+    <mergeCell ref="D637:D639"/>
+    <mergeCell ref="C641:C648"/>
+    <mergeCell ref="D641:D648"/>
+    <mergeCell ref="C651:C659"/>
+    <mergeCell ref="D651:D659"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C630:C635"/>
+    <mergeCell ref="D630:D635"/>
+    <mergeCell ref="C677:C681"/>
+    <mergeCell ref="D677:D681"/>
+    <mergeCell ref="C682:C689"/>
+    <mergeCell ref="D682:D689"/>
+    <mergeCell ref="C690:C694"/>
+    <mergeCell ref="D690:D694"/>
+    <mergeCell ref="C660:C662"/>
+    <mergeCell ref="D660:D662"/>
+    <mergeCell ref="C666:C670"/>
+    <mergeCell ref="D666:D670"/>
+    <mergeCell ref="C673:C676"/>
+    <mergeCell ref="D673:D676"/>
     <mergeCell ref="C734:C735"/>
     <mergeCell ref="E734:E735"/>
     <mergeCell ref="C715:C724"/>
@@ -10871,146 +11014,6 @@
     <mergeCell ref="D700:D704"/>
     <mergeCell ref="C705:C711"/>
     <mergeCell ref="D705:D711"/>
-    <mergeCell ref="C677:C681"/>
-    <mergeCell ref="D677:D681"/>
-    <mergeCell ref="C682:C689"/>
-    <mergeCell ref="D682:D689"/>
-    <mergeCell ref="C690:C694"/>
-    <mergeCell ref="D690:D694"/>
-    <mergeCell ref="C660:C662"/>
-    <mergeCell ref="D660:D662"/>
-    <mergeCell ref="C666:C670"/>
-    <mergeCell ref="D666:D670"/>
-    <mergeCell ref="C673:C676"/>
-    <mergeCell ref="D673:D676"/>
-    <mergeCell ref="C637:C639"/>
-    <mergeCell ref="D637:D639"/>
-    <mergeCell ref="C641:C648"/>
-    <mergeCell ref="D641:D648"/>
-    <mergeCell ref="C651:C659"/>
-    <mergeCell ref="D651:D659"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C630:C635"/>
-    <mergeCell ref="D630:D635"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1011">
   <si>
     <t>코드</t>
   </si>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t xml:space="preserve">Device full </t>
-  </si>
-  <si>
-    <t>You have attempted to write data to a device that is full. No more data can be written until some of the existing data or files are deleted.</t>
   </si>
   <si>
     <t xml:space="preserve">MCP not recognized </t>
@@ -2548,31 +2545,10 @@
     <t>Amplifier over-voltage</t>
   </si>
   <si>
-    <t xml:space="preserve">This error is generated by the FPGA firmware when it detects that the DC bus voltage is too high. The limit on the bus voltage is a function of the controller model being utilized. For the G1xxxA/B controllers, the maximum voltage is approximately 59.5 VDC. For the G3xxx and G2xxxB/C series controllers, the maximum voltage is approximately 445 VDC. Whenever a motor decelerates, it typically pumps power back into the motor power supply and the voltage will rise above its nominal value. For example, if the nominal bus voltage is 330V, it is not unusual to see the voltage rise into the high 300's when a large motor is decelerating. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). If this problem persists, it may indicate that the motor power supply must be changed or augmented to include more capacity to dump or absorb more power when the robot is decelerating. </t>
-  </si>
-  <si>
-    <t>DC 버스 전압이 너무 높게 감지되면 발생한다. DataID 12684를 통해 전압 값을 알 수 잇다.</t>
-  </si>
-  <si>
     <t>Amplifier under-voltage</t>
   </si>
   <si>
-    <t xml:space="preserve">This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
-  </si>
-  <si>
-    <t>DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능하다.</t>
-  </si>
-  <si>
     <t>Amplifier fault</t>
-  </si>
-  <si>
-    <t>This is a generic message indicating that the amplifier hardware has detected a significant problem and has shut down. For example, output motor current has exceeded the rated limits of the hardware, or the input power to the amplifier has failed while the amplifier was enabled. Frequently, a separate amplifier-related error message is also displayed that provides details about the specific problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the amplifiers are configured properly, the motors are wired correctly, and the current loop tuning is correct. If this error occurs when an E-STOP is asserted, verify that the "Delay after setting brakes" (DataID 260) is longer than or equal to the "E-Stop delay" (DataID 267). Normally, DataID 260 should be at least 0.1 seconds shorter than DataID 267. </t>
-  </si>
-  <si>
-    <t>이 에러는 엠플리파이어 하드웨어가 상당한 문제가 발생하고 종료되었을 때 나타나는 일반적인 메시지다.</t>
   </si>
   <si>
     <t>Brake fault</t>
@@ -2767,21 +2743,6 @@
     <t>Soft envelope error</t>
   </si>
   <si>
-    <t>The position error of an axis has exceeded the value set in the "Soft envelope error limit" (DataID 10302). This is a safety precaution to ensure that each axis does not deviate too much from its intended position. This error may indicate that the following has occurred:</t>
-  </si>
-  <si>
-    <t>1. An axis has been commanded to accelerated too quickly or move too fast and does not have the power to perform the operation.</t>
-  </si>
-  <si>
-    <t>2. The axis has gone unstable due to a hardware failure or some other error.</t>
-  </si>
-  <si>
-    <t>3. An axis may have crashed into an obstacle and is unable to move to the specified position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. The "Software envelope error limit" (DataID 10302) may be set to too small of a value. </t>
-  </si>
-  <si>
     <t>Cannot switch serial encoder mode</t>
   </si>
   <si>
@@ -2824,15 +2785,9 @@
     <t>Encoder battery low</t>
   </si>
   <si>
-    <t>Many serial absolute encoders require a connection to an external battery. If the battery voltage is too low, this error is issued. When this error is generated, the encoder is still operational and its internal data, e.g. multi-turn value, will still be valid. However, the battery should be replaced as soon as possible before the internal data is lost.</t>
-  </si>
-  <si>
     <t>Encoder battery down</t>
   </si>
   <si>
-    <t>Many serial absolute encoders require a connection to an external battery. If the battery is dead, this error is issued. When this error occurs, the encoder's internal multi-turn data is no longer valid. The battery must be replaced and the factory setup for the encoder must be executed again.</t>
-  </si>
-  <si>
     <t>Invalid encoder multi-turn data</t>
   </si>
   <si>
@@ -2875,15 +2830,9 @@
     <t>Amplifier fault, DC bus stuck</t>
   </si>
   <si>
-    <t>This error is generated if an amplifier is in a fault state and the user tries to re-enable motor power while the DC bus voltage is still not below 18VDC. If an amplifier fault has occurred, the high power relay to the motor power supply must be disengaged before motor power is re-enabled.</t>
-  </si>
-  <si>
     <t>Encoder data or accel/decel limit error</t>
   </si>
   <si>
-    <t>This error indicates that either invalid position data has been received from a serial encoder or a serial encoder's position reading changed by too large of a value in a very short period of time. When this occurs, the encoder will be disabled from further operation. To reset this error and restart the encoder's operation, use the "Reset" function in "Absolute Encoder Diagnostics" page of the web interface.</t>
-  </si>
-  <si>
     <t>If the mechanism is expected to operate at very high accelerations and decelerations, increase the limit used by this test by reducing the value defined by the "Min. accel time to 5000 RPM, msec" DataID 10252.</t>
   </si>
   <si>
@@ -2948,12 +2897,6 @@
   </si>
   <si>
     <t xml:space="preserve">Encoder communication error </t>
-  </si>
-  <si>
-    <t>The controller hardware has failed to establish communication with a serial encoder or communication is loss after the encoder is initialized. The servo code may also issue an "Encoder not ready" error (-3139) depending upon the failure situation.</t>
-  </si>
-  <si>
-    <t>In addition to issuing this error, the "Serial encoder communication error" bit (bit 26) of the "Encoder software status word" (DataID 12200) will be set to 1. If the communication error is detected during normal synchronized operation, the "Serial encoder ready" bit (bit 2) of the status word will be set to 0.</t>
   </si>
   <si>
     <t xml:space="preserve">Encoder overheated </t>
@@ -3029,34 +2972,7 @@
     <t>Earlier encoder error inhibiting power</t>
   </si>
   <si>
-    <t xml:space="preserve">An attempt to enable motor power failed because a severe encoder error previously occurred. Consequently, the encoder is not operational and permitting motor power to be enabled could result in the motor being unstable. Typically, the encoder in question is a serial absolute or incremental type and is either not communicating properly or must be reset. Please go to the following web page to view the serial encoder status and to clear any error conditions: Setup &gt; Hardware Tuning and Diagnostics &gt; Absolute Encoder. </t>
-  </si>
-  <si>
     <t>Abnormal Envelope Error</t>
-  </si>
-  <si>
-    <t>This error indicates a more severe instance of the condition signaled by the "Hard envelope error" (-3100).  Like the "Hard" error, this error indicates that there was a significant difference between an axis' commanded position and its actual position.  And, like the "Hard" error, this error is generated when the value of the "Position tracking error, mcnt" (DataID 12320) for an axis exceeds its "Hard envelope error limit, mcnt" (DataID 10303) for a sufficient period of time.</t>
-  </si>
-  <si>
-    <t>However, the "Abnormal" error is generated in place of the "Hard" error when the command velocity is lower than 33% of the Manual mode speed limit (DataID 10209). So, the "Abnormal" error indicates that a significant position error occurred when an axis was not supposed to be moving fast.  This error normally indicates a collision occurred when the robot was moving at a slow speed or one of the following motor configuration parameters are incorrect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Encoder sign (DataID 10202)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Torque sign (DataID 10609)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Commutation sign (DataID 10650)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hard envelope error (DataID 10303)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Commutation offset (DataID 10775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Commutation position at zero index (16653)</t>
   </si>
   <si>
     <t>E01</t>
@@ -3521,6 +3437,173 @@
 도어 인터락 에러 발생 추정됨 
 로드포트 도어 열리고 다운 상태에서 도어 다운 센서 시그널이 감지 되고 있는 상태 에서만  
 GET , PUT 동작이 가능 함 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어기 내부 에러로그 남기는 파일 용량 다 차면 발생 가능성이 있음(현재 미사용 기능)
+ftp://192.168.0.1 접속 후 NVRAM 폴더 -&gt; 'file1' 파일 지우고 컨트롤러 재부팅
+현재 미사용 기능이라 파일 지워도 무방함.
+You have attempted to write data to a device that is full. No more data can be written until some of the existing data or files are deleted.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DC bus 전압이 너무 높게 감지되면 발생.
+해당 알람이 발생했을 경우 제조사 문의 필요
+This error is generated by the FPGA firmware when it detects that the DC bus voltage is too high. The limit on the bus voltage is a function of the controller model being utilized. For the G1xxxA/B controllers, the maximum voltage is approximately 59.5 VDC. For the G3xxx and G2xxxB/C series controllers, the maximum voltage is approximately 445 VDC. Whenever a motor decelerates, it typically pumps power back into the motor power supply and the voltage will rise above its nominal value. For example, if the nominal bus voltage is 330V, it is not unusual to see the voltage rise into the high 300's when a large motor is decelerating. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). If this problem persists, it may indicate that the motor power supply must be changed or augmented to include more capacity to dump or absorb more power when the robot is decelerating. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능.
+1. 서플라이 이상
+제어기 내부의 서플라이 교체  ( 현장교체 불가 , 반출 수리 필요 ) 
+2. 세이프티 모듈 오작동
+이전 Servo Off 동작 시 세이프티 모듈이 On 되어 전원이 차단된 상태로 EMO 버튼을 
+눌렀다 해제 시킨 후 DRT 동작을 수행 
+제어기 Power ON/OFF후 Servo ON 실행 
+This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제어기 Amp 하드웨어 이상 감지
+ERROR 발생 축 확인 ( TP또는 Wabpage에서 에러 발생 해당 축 확인) 
+제어기~ 트랙~ 로봇部 Motor, Encoder 케이블 커넥터 리커넥션 진행 
+해당 축 Motor커넥터 리커넥션 진행( 커넥터부 Pin상태 확인) 
+-&gt; Motor 커넥터 pin(암,수) 들어가거나 구부러진 pin이 있는지 상태 확인 
+해당 축 Motor UVW상간 저항 측정( 저항 측정 시 동일하게 나오면 모터는 정상) 
+제어기 교체 진행( Data Backup 진행/ 제어기 교체후 재 다운로드 진행 함) 
+-&gt; 현재까지 제어기부~로봇까지 리커넥션/ 모터 교체 / 제어기 교체 이력 있음
+Motor 출력 라인 합선 
+모터 커네터 파손 이나 단락 확인
+제어기 Amp 하드웨어 이상
+제어기 교체 
+This is a generic message indicating that the amplifier hardware has detected a significant problem and has shut down. For example, output motor current has exceeded the rated limits of the hardware, or the input power to the amplifier has failed while the amplifier was enabled. Frequently, a separate amplifier-related error message is also displayed that provides details about the specific problem.
+Verify that the amplifiers are configured properly, the motors are wired correctly, and the current loop tuning is correct. If this error occurs when an E-STOP is asserted, verify that the "Delay after setting brakes" (DataID 260) is longer than or equal to the "E-Stop delay" (DataID 267). Normally, DataID 260 should be at least 0.1 seconds shorter than DataID 267. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">동작 중 위치 오차에 의한 에러
+하드웨어 컨디션이 출하 당시와 달라 동작 중 위치오차가 리밋을 벗어남
+간섭 확인 및 동작 상태 확인
+PID 게인이 현재 하드웨어 컨디션과 달라 발생 가능성 있음.
+케이블 및 제어기의 전기적인 이상 
+발생 축 확인후 해당 축 엔코더 커넥터 위주로 케이블 점검
+The position error of an axis has exceeded the value set in the "Soft envelope error limit" (DataID 10302). This is a safety precaution to ensure that each axis does not deviate too much from its intended position. This error may indicate that the following has occurred:
+1. An axis has been commanded to accelerated too quickly or move too fast and does not have the power to perform the operation.
+2. The axis has gone unstable due to a hardware failure or some other error.
+3. An axis may have crashed into an obstacle and is unable to move to the specified position.
+4. The "Software envelope error limit" (DataID 10302) may be set to too small of a value. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>저속(speed 33%)에서 동작 중 위치 오차가 발생했을 경우 발생.
+하드웨어 컨디션이 출하 당시와 달라 동작 중 위치오차가 리밋을 벗어남
+간섭 확인 및 동작 상태 확인
+PID 게인이 현재 하드웨어 컨디션과 달라 발생 가능성 있음.
+케이블 및 제어기의 전기적인 이상 
+발생 축 확인후 해당 축 엔코더 커넥터 위주로 케이블 점검
+This error indicates a more severe instance of the condition signaled by the "Hard envelope error" (-3100).  Like the "Hard" error, this error indicates that there was a significant difference between an axis' commanded position and its actual position.  And, like the "Hard" error, this error is generated when the value of the "Position tracking error, mcnt" (DataID 12320) for an axis exceeds its "Hard envelope error limit, mcnt" (DataID 10303) for a sufficient period of time.
+However, the "Abnormal" error is generated in place of the "Hard" error when the command velocity is lower than 33% of the Manual mode speed limit (DataID 10209). So, the "Abnormal" error indicates that a significant position error occurred when an axis was not supposed to be moving fast.  This error normally indicates a collision occurred when the robot was moving at a slow speed or one of the following motor configuration parameters are incorrect.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 베터리 전압 낮음 에러
+엔코더 베터리 방전
+로봇 제어기 및 엔코더에 전원이 들어가 있는 상태로  
+엔코더 베터리 교체(제어기 전원이 켜져 있어야 하나 Servo On 되어 있을 필요 는 없음) 
+엔코더 베터리 케이블 접촉 불량 및 단선
+로봇 제어기 및 엔코더에 전원이 들어가 있는 상태로  
+엔코더 베터리 케이블 점검 (제어기 전원이 켜져 있어야 하나 Servo On 되어 있 을 필요는 없음)  
+ABS 밧데리 모델  
+SB-AA11 3.6V Tekcell
+Many serial absolute encoders require a connection to an external battery. If the battery voltage is too low, this error is issued. When this error is generated, the encoder is still operational and its internal data, e.g. multi-turn value, will still be valid. However, the battery should be replaced as soon as possible before the internal data is lost.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 베터리 공급 차단으로 원점 위치 잃어버림
+엔코더 베터리 방전
+엔코더 베터리 교체
+TP 에서 Shift+mode-&gt;비밀번호 801을 눌러 RT1-Encoder 에러 확인 메뉴에 진 입 후 에러가 발생한 축들에 
+대하여 F4를 눌러 RESET을 수행한다.  
+에러 클리어 후 TP-SETUP의 ZERO DEGREE SET 메뉴에서 로봇 원점 초기화 
+엔코더 베터리 케이블 접촉 불량 및 단선
+엔코더 베터리 케이블 점검  
+TP 에서 Shift+mode-&gt;비밀번호 801을 눌러 RT1-Encoder 에러 확인 메뉴에 진 입 후 에러가 
+발생한 축들에 대하여 F4를 눌러 RESET을 수행한다.  
+에러 클리어 후 TP-SETUP의 ZERO DEGREE SET 메뉴에서 로봇 원점 초기화  
+엔코더 커넥터 분리 후 상태 확인
+엔코더 커넥터 탈착 점검시 제어기 전원 OFF 실시  
+엔코더 커넥터 분리시 원점 데이터 지워짐 으로 원점 재 세팅 필요 
+Many serial absolute encoders require a connection to an external battery. If the battery is dead, this error is issued. When this error occurs, the encoder's internal multi-turn data is no longer valid. The battery must be replaced and the factory setup for the encoder must be executed again.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servo on –Servo Off사이 시간 짧음
+EMO 를 이용하여 Servo Off -&gt; 1분 이상 대기 후 Servo On
+그래도 알람 해제가 안될 경우 로봇앤드디자인 문의 제어기 교체 필요
+This error is generated if an amplifier is in a fault state and the user tries to re-enable motor power while the DC bus voltage is still not below 18VDC. If an amplifier fault has occurred, the high power relay to the motor power supply must be disengaged before motor power is re-enabled.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터의 엔코더 값이 순간적으로 급변함.
+모터 엔코더 노이즈가 심할 때 발생.  
+모터 엔코더 케이블 점검. 
+모터 엔코더 커넥터 탈착 점검시 제어기 전원 OFF 실시  
+모터 엔코더 커넥터 분리시 원점 데이터 지워짐 으로 원점 재 세팅 필요 
+This error indicates that either invalid position data has been received from a serial encoder or a serial encoder's position reading changed by too large of a value in a very short period of time. When this occurs, the encoder will be disabled from further operation. To reset this error and restart the encoder's operation, use the "Reset" function in "Absolute Encoder Diagnostics" page of the web interface.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 재 세팅 방법 (Zero degree set)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 세팅 (zero degree set)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 세팅 방법 
+Factory Zero Setting 정의 - 로봇의 각 축은 ABS Servo 모터로 구성되어 있습니다.  - Encoder 는 위치는 베터리를 통해 저장됩니다. 
+ - 베터리 교환 및 모터 교환으로 인해서 모터의 Teaching 값을 재사용하기 위해서 Factory Zero Setting 을  
+실시합니다.  
+각 모터의 Negative Sensor 를 이용하여 모터의 최초 원점을 자동으로 인식하게 하는 기능으로 Sensor  
+위치가 변경되지 않는 한 동일한 위치를 어느 정도 보장합니다.  
+Factory Zero Setting 방법  
+Main 화면에서 Setting으로 들어간 후 각 축을 단계 별로 진행합니다. 
+메인화면에서 F5 : SET UP -&gt; F1 : ZERO DEGREE SET 을 선택합니다.  
+TP 에서 F5 -&gt; F1 버튼을 누르면 됩니다.  
+PASSWORD : + 801  
+선택을 하면 PASSWORD 화면이 나오는데 801 을 입력하고 ENT 버튼을 눌러 메뉴 진입 합니다.
+&lt;축 번호&gt; -ZERO DEGREE SET- AXIS : 1     NAME : T-AXIS  &lt; PRESS START &gt;  
+TP 에서 숫자를 변경하여 축을 선택할 수 있습니다. 축 별 번호는 아래를 참고합니다.  
+AXIS : 1 -&gt; T – AXIS  
+AXIS : 2 -&gt; Z – AXIS  
+AXIS : 3 -&gt; R- AXIS  
+AXIS : 4 -&gt; L- AXIS  
+AXIS : 5 -&gt; V – AXIS 
+축 선택 후 START 버튼을 눌러 원점 재 세팅을 합니다.
+원점 재 세팅 시 로봇 위치는 로봇앤드디자인에 문의 바랍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엔코더 알람 발생
+엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
+엔코더 커넥터 핀 점검
+모터 상간 저항 확인
+An attempt to enable motor power failed because a severe encoder error previously occurred. Consequently, the encoder is not operational and permitting motor power to be enabled could result in the motor being unstable. Typically, the encoder in question is a serial absolute or incremental type and is either not communicating properly or must be reset. Please go to the following web page to view the serial encoder status and to clear any error conditions: Setup &gt; Hardware Tuning and Diagnostics &gt; Absolute Encoder. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔코더 알람 발생
+엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
+엔코더 커넥터 핀 점검
+모터 상간 저항 확인
+The controller hardware has failed to establish communication with a serial encoder or communication is loss after the encoder is initialized. The servo code may also issue an "Encoder not ready" error (-3139) depending upon the failure situation.
+In addition to issuing this error, the "Serial encoder communication error" bit (bit 26) of the "Encoder software status word" (DataID 12200) will be set to 1. If the communication error is detected during normal synchronized operation, the "Serial encoder ready" bit (bit 2) of the status word will be set to 0.
+This is a severe error and requires the encoder to be re-initialization and/or power cycled.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3762,7 +3845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3880,6 +3963,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3927,6 +4013,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4208,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E741"/>
+  <dimension ref="C1:E739"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="E690" sqref="E688:E690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4223,13 +4318,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
       <c r="D1" t="s">
-        <v>973</v>
+        <v>945</v>
       </c>
       <c r="E1" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4237,10 +4332,10 @@
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4262,7 +4357,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1022</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4273,7 +4368,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>979</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4284,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1005</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4292,10 +4387,10 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>980</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4306,7 +4401,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4314,10 +4409,10 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4328,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4339,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4350,7 +4445,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4361,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4372,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>987</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4383,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4394,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>989</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4405,7 +4500,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4416,7 +4511,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4438,7 +4533,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4446,10 +4541,10 @@
         <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4457,10 +4552,10 @@
         <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>996</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4468,10 +4563,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1000</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4479,10 +4574,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1001</v>
+        <v>973</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1002</v>
+        <v>974</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4493,7 +4588,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1003</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4504,7 +4599,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1008</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4526,7 +4621,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4537,7 +4632,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4548,7 +4643,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4559,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4570,7 +4665,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4581,7 +4676,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1012</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4592,7 +4687,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4603,7 +4698,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1015</v>
+        <v>987</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4614,7 +4709,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1014</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4625,7 +4720,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1016</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4636,7 +4731,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1017</v>
+        <v>989</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4647,7 +4742,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1018</v>
+        <v>990</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4827,10 +4922,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="49">
+      <c r="C56" s="50">
         <v>1061</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="53" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4838,15 +4933,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="50"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -4870,7 +4965,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>978</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4947,7 +5042,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1021</v>
+        <v>993</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4969,7 +5064,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
     </row>
     <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5050,10 +5145,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="43">
+      <c r="C77" s="44">
         <v>-208</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="47" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -5061,13 +5156,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="44"/>
-      <c r="D78" s="47"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="45"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -5095,10 +5190,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="43">
+      <c r="C82" s="44">
         <v>-211</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="47" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -5106,153 +5201,153 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="44"/>
-      <c r="D83" s="47"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="44"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="48"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="44"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="48"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="44"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="44"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="44"/>
-      <c r="D89" s="47"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="45"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="43">
+      <c r="C91" s="44">
         <v>-212</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="47" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>1020</v>
+        <v>992</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="44"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="48"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="44"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="48"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="44"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="48"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="48"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="44"/>
-      <c r="D96" s="47"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="48"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="44"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="44"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="44"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="48"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="48"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="44"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="44"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="48"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="44"/>
-      <c r="D103" s="47"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="48"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="45"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -5286,7 +5381,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="47" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5297,7 +5392,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="47"/>
+      <c r="E108" s="48"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -5306,7 +5401,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="49"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -5572,7 +5667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="7">
         <v>-323</v>
       </c>
@@ -5580,7 +5675,7 @@
         <v>186</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>187</v>
+        <v>995</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5588,10 +5683,10 @@
         <v>-324</v>
       </c>
       <c r="D135" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="136" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5599,10 +5694,10 @@
         <v>-325</v>
       </c>
       <c r="D136" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="137" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5610,10 +5705,10 @@
         <v>-326</v>
       </c>
       <c r="D137" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="138" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5621,10 +5716,10 @@
         <v>-500</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="139" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5632,10 +5727,10 @@
         <v>-501</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="140" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5643,10 +5738,10 @@
         <v>-502</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="141" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5654,10 +5749,10 @@
         <v>-503</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5665,10 +5760,10 @@
         <v>-504</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="143" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5676,10 +5771,10 @@
         <v>-505</v>
       </c>
       <c r="D143" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="144" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5687,10 +5782,10 @@
         <v>-506</v>
       </c>
       <c r="D144" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="145" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -5698,10 +5793,10 @@
         <v>-507</v>
       </c>
       <c r="D145" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="146" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5709,10 +5804,10 @@
         <v>-508</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="147" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5720,10 +5815,10 @@
         <v>-509</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="148" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5731,10 +5826,10 @@
         <v>-510</v>
       </c>
       <c r="D148" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="149" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5742,10 +5837,10 @@
         <v>-511</v>
       </c>
       <c r="D149" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="150" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5753,10 +5848,10 @@
         <v>-512</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="151" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5764,10 +5859,10 @@
         <v>-513</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E151" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="152" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5775,10 +5870,10 @@
         <v>-514</v>
       </c>
       <c r="D152" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="153" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5786,10 +5881,10 @@
         <v>-515</v>
       </c>
       <c r="D153" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="154" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5797,10 +5892,10 @@
         <v>-516</v>
       </c>
       <c r="D154" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="155" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5808,10 +5903,10 @@
         <v>-517</v>
       </c>
       <c r="D155" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E155" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="156" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5819,10 +5914,10 @@
         <v>-518</v>
       </c>
       <c r="D156" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="157" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5830,10 +5925,10 @@
         <v>-519</v>
       </c>
       <c r="D157" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E157" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="158" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5841,10 +5936,10 @@
         <v>-520</v>
       </c>
       <c r="D158" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E158" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="159" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5852,10 +5947,10 @@
         <v>-521</v>
       </c>
       <c r="D159" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="160" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5863,10 +5958,10 @@
         <v>-522</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="161" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5874,10 +5969,10 @@
         <v>-523</v>
       </c>
       <c r="D161" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E161" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="162" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5885,10 +5980,10 @@
         <v>-524</v>
       </c>
       <c r="D162" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E162" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="163" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5896,10 +5991,10 @@
         <v>-525</v>
       </c>
       <c r="D163" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="164" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5907,10 +6002,10 @@
         <v>-526</v>
       </c>
       <c r="D164" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E164" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="165" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5918,10 +6013,10 @@
         <v>-700</v>
       </c>
       <c r="D165" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E165" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="166" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5929,10 +6024,10 @@
         <v>-702</v>
       </c>
       <c r="D166" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E166" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="167" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5940,10 +6035,10 @@
         <v>-704</v>
       </c>
       <c r="D167" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="168" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5951,10 +6046,10 @@
         <v>-705</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E168" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="169" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5962,10 +6057,10 @@
         <v>-706</v>
       </c>
       <c r="D169" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="170" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5973,10 +6068,10 @@
         <v>-707</v>
       </c>
       <c r="D170" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="171" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -5984,10 +6079,10 @@
         <v>-708</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E171" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="172" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5995,10 +6090,10 @@
         <v>-709</v>
       </c>
       <c r="D172" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E172" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="173" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6006,10 +6101,10 @@
         <v>-710</v>
       </c>
       <c r="D173" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E173" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="174" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -6017,10 +6112,10 @@
         <v>-711</v>
       </c>
       <c r="D174" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E174" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="175" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6028,10 +6123,10 @@
         <v>-712</v>
       </c>
       <c r="D175" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E175" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="176" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6039,10 +6134,10 @@
         <v>-713</v>
       </c>
       <c r="D176" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E176" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6050,10 +6145,10 @@
         <v>-714</v>
       </c>
       <c r="D177" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E177" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6061,10 +6156,10 @@
         <v>-715</v>
       </c>
       <c r="D178" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="179" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6072,10 +6167,10 @@
         <v>-716</v>
       </c>
       <c r="D179" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6083,10 +6178,10 @@
         <v>-717</v>
       </c>
       <c r="D180" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E180" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6094,10 +6189,10 @@
         <v>-718</v>
       </c>
       <c r="D181" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E181" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6105,10 +6200,10 @@
         <v>-719</v>
       </c>
       <c r="D182" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="183" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6116,7 +6211,7 @@
         <v>-720</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E183" s="14"/>
     </row>
@@ -6125,7 +6220,7 @@
         <v>-721</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E184" s="14"/>
     </row>
@@ -6134,7 +6229,7 @@
         <v>-722</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E185" s="14"/>
     </row>
@@ -6143,7 +6238,7 @@
         <v>-723</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E186" s="14"/>
     </row>
@@ -6152,7 +6247,7 @@
         <v>-724</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E187" s="14"/>
     </row>
@@ -6161,7 +6256,7 @@
         <v>-725</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E188" s="14"/>
     </row>
@@ -6170,7 +6265,7 @@
         <v>-726</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E189" s="14"/>
     </row>
@@ -6179,7 +6274,7 @@
         <v>-727</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E190" s="14"/>
     </row>
@@ -6188,7 +6283,7 @@
         <v>-728</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E191" s="14"/>
     </row>
@@ -6197,7 +6292,7 @@
         <v>-729</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E192" s="14"/>
     </row>
@@ -6206,7 +6301,7 @@
         <v>-730</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E193" s="14"/>
     </row>
@@ -6215,10 +6310,10 @@
         <v>-731</v>
       </c>
       <c r="D194" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="195" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6226,10 +6321,10 @@
         <v>-732</v>
       </c>
       <c r="D195" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E195" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="196" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6237,7 +6332,7 @@
         <v>-733</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E196" s="14"/>
     </row>
@@ -6246,7 +6341,7 @@
         <v>-734</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E197" s="14"/>
     </row>
@@ -6255,10 +6350,10 @@
         <v>-735</v>
       </c>
       <c r="D198" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="199" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6266,10 +6361,10 @@
         <v>-736</v>
       </c>
       <c r="D199" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="200" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6277,7 +6372,7 @@
         <v>-737</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E200" s="14"/>
     </row>
@@ -6286,7 +6381,7 @@
         <v>-738</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E201" s="14"/>
     </row>
@@ -6295,7 +6390,7 @@
         <v>-739</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E202" s="14"/>
     </row>
@@ -6304,7 +6399,7 @@
         <v>-740</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E203" s="14"/>
     </row>
@@ -6313,7 +6408,7 @@
         <v>-741</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E204" s="14"/>
     </row>
@@ -6322,7 +6417,7 @@
         <v>-742</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E205" s="14"/>
     </row>
@@ -6331,7 +6426,7 @@
         <v>-743</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E206" s="14"/>
     </row>
@@ -6340,7 +6435,7 @@
         <v>-744</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E207" s="14"/>
     </row>
@@ -6349,7 +6444,7 @@
         <v>-745</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E208" s="14"/>
     </row>
@@ -6358,7 +6453,7 @@
         <v>-746</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E209" s="14"/>
     </row>
@@ -6367,7 +6462,7 @@
         <v>-747</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E210" s="14"/>
     </row>
@@ -6376,10 +6471,10 @@
         <v>-748</v>
       </c>
       <c r="D211" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="212" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6387,7 +6482,7 @@
         <v>-749</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E212" s="14"/>
     </row>
@@ -6396,7 +6491,7 @@
         <v>-750</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E213" s="14"/>
     </row>
@@ -6405,7 +6500,7 @@
         <v>-751</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E214" s="14"/>
     </row>
@@ -6414,10 +6509,10 @@
         <v>-752</v>
       </c>
       <c r="D215" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="216" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6425,7 +6520,7 @@
         <v>-753</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E216" s="14"/>
     </row>
@@ -6434,7 +6529,7 @@
         <v>-754</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E217" s="14"/>
     </row>
@@ -6443,7 +6538,7 @@
         <v>-755</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E218" s="14"/>
     </row>
@@ -6452,7 +6547,7 @@
         <v>-756</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E219" s="14"/>
     </row>
@@ -6461,10 +6556,10 @@
         <v>-757</v>
       </c>
       <c r="D220" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E220" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="221" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6472,7 +6567,7 @@
         <v>-758</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E221" s="14"/>
     </row>
@@ -6481,7 +6576,7 @@
         <v>-759</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E222" s="14"/>
     </row>
@@ -6490,7 +6585,7 @@
         <v>-760</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E223" s="14"/>
     </row>
@@ -6499,7 +6594,7 @@
         <v>-761</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E224" s="14"/>
     </row>
@@ -6508,10 +6603,10 @@
         <v>-762</v>
       </c>
       <c r="D225" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="226" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6519,10 +6614,10 @@
         <v>-763</v>
       </c>
       <c r="D226" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E226" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="227" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6530,7 +6625,7 @@
         <v>-764</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E227" s="14"/>
     </row>
@@ -6539,7 +6634,7 @@
         <v>-765</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E228" s="14"/>
     </row>
@@ -6548,7 +6643,7 @@
         <v>-766</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E229" s="14"/>
     </row>
@@ -6557,7 +6652,7 @@
         <v>-767</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E230" s="14"/>
     </row>
@@ -6566,7 +6661,7 @@
         <v>-768</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E231" s="14"/>
     </row>
@@ -6575,10 +6670,10 @@
         <v>-769</v>
       </c>
       <c r="D232" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E232" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6586,10 +6681,10 @@
         <v>-770</v>
       </c>
       <c r="D233" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="234" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6597,7 +6692,7 @@
         <v>-771</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E234" s="14"/>
     </row>
@@ -6606,7 +6701,7 @@
         <v>-772</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E235" s="14"/>
     </row>
@@ -6615,7 +6710,7 @@
         <v>-773</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E236" s="14"/>
     </row>
@@ -6624,10 +6719,10 @@
         <v>-774</v>
       </c>
       <c r="D237" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E237" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="238" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6635,33 +6730,33 @@
         <v>-775</v>
       </c>
       <c r="D238" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E238" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E238" s="8" t="s">
+    </row>
+    <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C239" s="44">
+        <v>-776</v>
+      </c>
+      <c r="D239" s="47" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="43">
-        <v>-776</v>
-      </c>
-      <c r="D239" s="46" t="s">
+      <c r="E239" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E239" s="9" t="s">
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C240" s="45"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C241" s="46"/>
+      <c r="D241" s="49"/>
+      <c r="E241" s="11" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="44"/>
-      <c r="D240" s="47"/>
-      <c r="E240" s="10"/>
-    </row>
-    <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="45"/>
-      <c r="D241" s="48"/>
-      <c r="E241" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="242" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6669,7 +6764,7 @@
         <v>-778</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E242" s="14"/>
     </row>
@@ -6678,7 +6773,7 @@
         <v>-779</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E243" s="14"/>
     </row>
@@ -6687,7 +6782,7 @@
         <v>-780</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E244" s="14"/>
     </row>
@@ -6696,10 +6791,10 @@
         <v>-781</v>
       </c>
       <c r="D245" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="246" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6707,10 +6802,10 @@
         <v>-782</v>
       </c>
       <c r="D246" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E246" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="247" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6718,10 +6813,10 @@
         <v>-783</v>
       </c>
       <c r="D247" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E247" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="248" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6729,10 +6824,10 @@
         <v>-784</v>
       </c>
       <c r="D248" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="E248" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="249" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6740,10 +6835,10 @@
         <v>-785</v>
       </c>
       <c r="D249" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="250" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6751,10 +6846,10 @@
         <v>-786</v>
       </c>
       <c r="D250" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E250" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="E250" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="251" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6762,10 +6857,10 @@
         <v>-787</v>
       </c>
       <c r="D251" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E251" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="252" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6773,10 +6868,10 @@
         <v>-788</v>
       </c>
       <c r="D252" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E252" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="253" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6784,10 +6879,10 @@
         <v>-789</v>
       </c>
       <c r="D253" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E253" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="E253" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="254" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6795,10 +6890,10 @@
         <v>-790</v>
       </c>
       <c r="D254" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E254" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="E254" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="255" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6806,10 +6901,10 @@
         <v>-791</v>
       </c>
       <c r="D255" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E255" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="256" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6817,10 +6912,10 @@
         <v>-792</v>
       </c>
       <c r="D256" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E256" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="257" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6828,10 +6923,10 @@
         <v>-793</v>
       </c>
       <c r="D257" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E257" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="E257" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="258" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -6839,10 +6934,10 @@
         <v>-794</v>
       </c>
       <c r="D258" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E258" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="259" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6850,10 +6945,10 @@
         <v>-795</v>
       </c>
       <c r="D259" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E259" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="260" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6861,10 +6956,10 @@
         <v>-796</v>
       </c>
       <c r="D260" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E260" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E260" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="261" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6872,10 +6967,10 @@
         <v>-797</v>
       </c>
       <c r="D261" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E261" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="262" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6883,10 +6978,10 @@
         <v>-798</v>
       </c>
       <c r="D262" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="263" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6894,10 +6989,10 @@
         <v>-799</v>
       </c>
       <c r="D263" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E263" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="264" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6905,10 +7000,10 @@
         <v>-800</v>
       </c>
       <c r="D264" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E264" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="265" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6916,10 +7011,10 @@
         <v>-801</v>
       </c>
       <c r="D265" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E265" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="E265" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="266" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6927,10 +7022,10 @@
         <v>-802</v>
       </c>
       <c r="D266" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E266" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="267" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6938,10 +7033,10 @@
         <v>-803</v>
       </c>
       <c r="D267" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E267" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="268" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6949,10 +7044,10 @@
         <v>-804</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6960,10 +7055,10 @@
         <v>-805</v>
       </c>
       <c r="D269" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="270" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6971,10 +7066,10 @@
         <v>-806</v>
       </c>
       <c r="D270" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E270" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="271" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6982,10 +7077,10 @@
         <v>-807</v>
       </c>
       <c r="D271" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E271" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="272" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6993,10 +7088,10 @@
         <v>-808</v>
       </c>
       <c r="D272" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E272" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="273" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7004,10 +7099,10 @@
         <v>-809</v>
       </c>
       <c r="D273" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E273" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="274" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7015,37 +7110,37 @@
         <v>-810</v>
       </c>
       <c r="D274" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E274" s="8" t="s">
+    </row>
+    <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C275" s="44">
+        <v>-811</v>
+      </c>
+      <c r="D275" s="47" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="43">
-        <v>-811</v>
-      </c>
-      <c r="D275" s="46" t="s">
+      <c r="E275" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="E275" s="46" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="45"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
+      <c r="C276" s="46"/>
+      <c r="D276" s="49"/>
+      <c r="E276" s="49"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
         <v>-812</v>
       </c>
       <c r="D277" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="278" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7053,10 +7148,10 @@
         <v>-1000</v>
       </c>
       <c r="D278" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E278" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="279" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7064,56 +7159,56 @@
         <v>-1001</v>
       </c>
       <c r="D279" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E279" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E279" s="8" t="s">
+    </row>
+    <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C280" s="44">
+        <v>-1002</v>
+      </c>
+      <c r="D280" s="47" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="43">
-        <v>-1002</v>
-      </c>
-      <c r="D280" s="46" t="s">
+      <c r="E280" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E280" s="9" t="s">
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C281" s="45"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="12"/>
+    </row>
+    <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C282" s="46"/>
+      <c r="D282" s="49"/>
+      <c r="E282" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="44"/>
-      <c r="D281" s="47"/>
-      <c r="E281" s="12"/>
-    </row>
-    <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="45"/>
-      <c r="D282" s="48"/>
-      <c r="E282" s="15" t="s">
+    <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C283" s="44">
+        <v>-1003</v>
+      </c>
+      <c r="D283" s="47" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="43">
-        <v>-1003</v>
-      </c>
-      <c r="D283" s="46" t="s">
+      <c r="E283" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E283" s="9" t="s">
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C284" s="45"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C285" s="46"/>
+      <c r="D285" s="49"/>
+      <c r="E285" s="15" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="44"/>
-      <c r="D284" s="47"/>
-      <c r="E284" s="12"/>
-    </row>
-    <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="45"/>
-      <c r="D285" s="48"/>
-      <c r="E285" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="286" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7121,204 +7216,204 @@
         <v>-1004</v>
       </c>
       <c r="D286" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E286" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E286" s="8" t="s">
+    </row>
+    <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C287" s="44">
+        <v>-1005</v>
+      </c>
+      <c r="D287" s="47" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="43">
-        <v>-1005</v>
-      </c>
-      <c r="D287" s="46" t="s">
+      <c r="E287" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="E287" s="9" t="s">
+    </row>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C288" s="45"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C289" s="46"/>
+      <c r="D289" s="49"/>
+      <c r="E289" s="15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="44"/>
-      <c r="D288" s="47"/>
-      <c r="E288" s="12"/>
-    </row>
-    <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="45"/>
-      <c r="D289" s="48"/>
-      <c r="E289" s="15" t="s">
+    <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C290" s="44">
+        <v>-1006</v>
+      </c>
+      <c r="D290" s="47" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="43">
-        <v>-1006</v>
-      </c>
-      <c r="D290" s="46" t="s">
+      <c r="E290" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E290" s="9" t="s">
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C291" s="45"/>
+      <c r="D291" s="48"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C292" s="45"/>
+      <c r="D292" s="48"/>
+      <c r="E292" s="16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="44"/>
-      <c r="D291" s="47"/>
-      <c r="E291" s="12"/>
-    </row>
-    <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="44"/>
-      <c r="D292" s="47"/>
-      <c r="E292" s="16" t="s">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C293" s="45"/>
+      <c r="D293" s="48"/>
+      <c r="E293" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="44"/>
-      <c r="D293" s="47"/>
-      <c r="E293" s="16" t="s">
+    <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C294" s="46"/>
+      <c r="D294" s="49"/>
+      <c r="E294" s="15" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="45"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="15" t="s">
+    <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C295" s="44">
+        <v>-1007</v>
+      </c>
+      <c r="D295" s="47" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="43">
-        <v>-1007</v>
-      </c>
-      <c r="D295" s="46" t="s">
+      <c r="E295" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E295" s="17" t="s">
+    </row>
+    <row r="296" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C296" s="45"/>
+      <c r="D296" s="48"/>
+      <c r="E296" s="18"/>
+    </row>
+    <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C297" s="45"/>
+      <c r="D297" s="48"/>
+      <c r="E297" s="19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="44"/>
-      <c r="D296" s="47"/>
-      <c r="E296" s="18"/>
-    </row>
-    <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="44"/>
-      <c r="D297" s="47"/>
-      <c r="E297" s="19" t="s">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C298" s="45"/>
+      <c r="D298" s="48"/>
+      <c r="E298" s="19"/>
+    </row>
+    <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C299" s="45"/>
+      <c r="D299" s="48"/>
+      <c r="E299" s="16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="44"/>
-      <c r="D298" s="47"/>
-      <c r="E298" s="19"/>
-    </row>
-    <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="44"/>
-      <c r="D299" s="47"/>
-      <c r="E299" s="16" t="s">
+    <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C300" s="46"/>
+      <c r="D300" s="49"/>
+      <c r="E300" s="15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="45"/>
-      <c r="D300" s="48"/>
-      <c r="E300" s="15" t="s">
+    <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C301" s="44">
+        <v>-1008</v>
+      </c>
+      <c r="D301" s="47" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
-        <v>-1008</v>
-      </c>
-      <c r="D301" s="46" t="s">
+      <c r="E301" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E301" s="9" t="s">
+    </row>
+    <row r="302" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C302" s="45"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="12"/>
+    </row>
+    <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C303" s="46"/>
+      <c r="D303" s="49"/>
+      <c r="E303" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="44"/>
-      <c r="D302" s="47"/>
-      <c r="E302" s="12"/>
-    </row>
-    <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="45"/>
-      <c r="D303" s="48"/>
-      <c r="E303" s="15" t="s">
+    <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C304" s="44">
+        <v>-1009</v>
+      </c>
+      <c r="D304" s="47" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="43">
-        <v>-1009</v>
-      </c>
-      <c r="D304" s="46" t="s">
+      <c r="E304" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E304" s="9" t="s">
+    </row>
+    <row r="305" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C305" s="45"/>
+      <c r="D305" s="48"/>
+      <c r="E305" s="12"/>
+    </row>
+    <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C306" s="46"/>
+      <c r="D306" s="49"/>
+      <c r="E306" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="44"/>
-      <c r="D305" s="47"/>
-      <c r="E305" s="12"/>
-    </row>
-    <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="45"/>
-      <c r="D306" s="48"/>
-      <c r="E306" s="15" t="s">
+    <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C307" s="44">
+        <v>-1010</v>
+      </c>
+      <c r="D307" s="47" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="43">
-        <v>-1010</v>
-      </c>
-      <c r="D307" s="46" t="s">
+      <c r="E307" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E307" s="9" t="s">
+    </row>
+    <row r="308" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C308" s="45"/>
+      <c r="D308" s="48"/>
+      <c r="E308" s="12"/>
+    </row>
+    <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C309" s="46"/>
+      <c r="D309" s="49"/>
+      <c r="E309" s="15" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="44"/>
-      <c r="D308" s="47"/>
-      <c r="E308" s="12"/>
-    </row>
-    <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="45"/>
-      <c r="D309" s="48"/>
-      <c r="E309" s="15" t="s">
+    <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C310" s="44">
+        <v>-1011</v>
+      </c>
+      <c r="D310" s="47" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="43">
-        <v>-1011</v>
-      </c>
-      <c r="D310" s="46" t="s">
+      <c r="E310" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E310" s="9" t="s">
+    </row>
+    <row r="311" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C311" s="45"/>
+      <c r="D311" s="48"/>
+      <c r="E311" s="12"/>
+    </row>
+    <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C312" s="46"/>
+      <c r="D312" s="49"/>
+      <c r="E312" s="15" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="44"/>
-      <c r="D311" s="47"/>
-      <c r="E311" s="12"/>
-    </row>
-    <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="45"/>
-      <c r="D312" s="48"/>
-      <c r="E312" s="15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="313" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -7326,63 +7421,63 @@
         <v>-1012</v>
       </c>
       <c r="D313" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C314" s="44">
+        <v>-1013</v>
+      </c>
+      <c r="D314" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="E313" s="9" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="43">
-        <v>-1013</v>
-      </c>
-      <c r="D314" s="46" t="s">
+      <c r="E314" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="E314" s="9" t="s">
+    </row>
+    <row r="315" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C315" s="45"/>
+      <c r="D315" s="48"/>
+      <c r="E315" s="12"/>
+    </row>
+    <row r="316" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C316" s="45"/>
+      <c r="D316" s="48"/>
+      <c r="E316" s="16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="44"/>
-      <c r="D315" s="47"/>
-      <c r="E315" s="12"/>
-    </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="44"/>
-      <c r="D316" s="47"/>
-      <c r="E316" s="16" t="s">
+    <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C317" s="46"/>
+      <c r="D317" s="49"/>
+      <c r="E317" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="45"/>
-      <c r="D317" s="48"/>
-      <c r="E317" s="15" t="s">
+    <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C318" s="44">
+        <v>-1014</v>
+      </c>
+      <c r="D318" s="47" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
-        <v>-1014</v>
-      </c>
-      <c r="D318" s="46" t="s">
+      <c r="E318" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E318" s="9" t="s">
+    </row>
+    <row r="319" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C319" s="45"/>
+      <c r="D319" s="48"/>
+      <c r="E319" s="12"/>
+    </row>
+    <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C320" s="46"/>
+      <c r="D320" s="49"/>
+      <c r="E320" s="15" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="44"/>
-      <c r="D319" s="47"/>
-      <c r="E319" s="12"/>
-    </row>
-    <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="45"/>
-      <c r="D320" s="48"/>
-      <c r="E320" s="15" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7390,40 +7485,40 @@
         <v>-1015</v>
       </c>
       <c r="D321" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E321" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E321" s="8" t="s">
+    </row>
+    <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C322" s="44">
+        <v>-1016</v>
+      </c>
+      <c r="D322" s="47" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="43">
-        <v>-1016</v>
-      </c>
-      <c r="D322" s="46" t="s">
+      <c r="E322" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E322" s="9" t="s">
+    </row>
+    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C323" s="45"/>
+      <c r="D323" s="48"/>
+      <c r="E323" s="10"/>
+    </row>
+    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C324" s="45"/>
+      <c r="D324" s="48"/>
+      <c r="E324" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="44"/>
-      <c r="D323" s="47"/>
-      <c r="E323" s="10"/>
-    </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="44"/>
-      <c r="D324" s="47"/>
-      <c r="E324" s="12" t="s">
+    <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C325" s="46"/>
+      <c r="D325" s="49"/>
+      <c r="E325" s="11" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="45"/>
-      <c r="D325" s="48"/>
-      <c r="E325" s="11" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="326" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7431,10 +7526,10 @@
         <v>-1017</v>
       </c>
       <c r="D326" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E326" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="327" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7442,91 +7537,91 @@
         <v>-1018</v>
       </c>
       <c r="D327" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E327" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E327" s="8" t="s">
+    </row>
+    <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C328" s="44">
+        <v>-1019</v>
+      </c>
+      <c r="D328" s="47" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="43">
-        <v>-1019</v>
-      </c>
-      <c r="D328" s="46" t="s">
+      <c r="E328" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E328" s="9" t="s">
+    </row>
+    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C329" s="45"/>
+      <c r="D329" s="48"/>
+      <c r="E329" s="10"/>
+    </row>
+    <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C330" s="46"/>
+      <c r="D330" s="49"/>
+      <c r="E330" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="44"/>
-      <c r="D329" s="47"/>
-      <c r="E329" s="10"/>
-    </row>
-    <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="45"/>
-      <c r="D330" s="48"/>
-      <c r="E330" s="11" t="s">
+    <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C331" s="44">
+        <v>-1020</v>
+      </c>
+      <c r="D331" s="47" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="43">
-        <v>-1020</v>
-      </c>
-      <c r="D331" s="46" t="s">
+      <c r="E331" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E331" s="9" t="s">
+    </row>
+    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C332" s="45"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="10"/>
+    </row>
+    <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C333" s="45"/>
+      <c r="D333" s="48"/>
+      <c r="E333" s="12" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="44"/>
-      <c r="D332" s="47"/>
-      <c r="E332" s="10"/>
-    </row>
-    <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="44"/>
-      <c r="D333" s="47"/>
-      <c r="E333" s="12" t="s">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C334" s="45"/>
+      <c r="D334" s="48"/>
+      <c r="E334" s="10"/>
+    </row>
+    <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C335" s="46"/>
+      <c r="D335" s="49"/>
+      <c r="E335" s="11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="44"/>
-      <c r="D334" s="47"/>
-      <c r="E334" s="10"/>
-    </row>
-    <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="45"/>
-      <c r="D335" s="48"/>
-      <c r="E335" s="11" t="s">
+    <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C336" s="44">
+        <v>-1021</v>
+      </c>
+      <c r="D336" s="47" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C336" s="43">
-        <v>-1021</v>
-      </c>
-      <c r="D336" s="46" t="s">
+      <c r="E336" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E336" s="9" t="s">
+    </row>
+    <row r="337" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C337" s="45"/>
+      <c r="D337" s="48"/>
+      <c r="E337" s="12"/>
+    </row>
+    <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C338" s="46"/>
+      <c r="D338" s="49"/>
+      <c r="E338" s="15" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="44"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="12"/>
-    </row>
-    <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="45"/>
-      <c r="D338" s="48"/>
-      <c r="E338" s="15" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7534,10 +7629,10 @@
         <v>-1022</v>
       </c>
       <c r="D339" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E339" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="E339" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="340" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7545,10 +7640,10 @@
         <v>-1023</v>
       </c>
       <c r="D340" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E340" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="341" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7556,10 +7651,10 @@
         <v>-1024</v>
       </c>
       <c r="D341" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E341" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="342" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -7567,54 +7662,54 @@
         <v>-1025</v>
       </c>
       <c r="D342" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E342" s="8" t="s">
+    </row>
+    <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C343" s="44">
+        <v>-1026</v>
+      </c>
+      <c r="D343" s="47" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C343" s="43">
-        <v>-1026</v>
-      </c>
-      <c r="D343" s="46" t="s">
+      <c r="E343" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E343" s="9" t="s">
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C344" s="45"/>
+      <c r="D344" s="48"/>
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C345" s="45"/>
+      <c r="D345" s="48"/>
+      <c r="E345" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="44"/>
-      <c r="D344" s="47"/>
-      <c r="E344" s="10"/>
-    </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="44"/>
-      <c r="D345" s="47"/>
-      <c r="E345" s="12" t="s">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C346" s="45"/>
+      <c r="D346" s="48"/>
+      <c r="E346" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="44"/>
-      <c r="D346" s="47"/>
-      <c r="E346" s="12" t="s">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C347" s="45"/>
+      <c r="D347" s="48"/>
+      <c r="E347" s="12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="44"/>
-      <c r="D347" s="47"/>
-      <c r="E347" s="12" t="s">
+    <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C348" s="46"/>
+      <c r="D348" s="49"/>
+      <c r="E348" s="11" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="45"/>
-      <c r="D348" s="48"/>
-      <c r="E348" s="11" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="349" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -7622,136 +7717,136 @@
         <v>-1027</v>
       </c>
       <c r="D349" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E349" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="E349" s="8" t="s">
+    </row>
+    <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C350" s="44">
+        <v>-1028</v>
+      </c>
+      <c r="D350" s="47" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C350" s="43">
-        <v>-1028</v>
-      </c>
-      <c r="D350" s="46" t="s">
+      <c r="E350" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E350" s="9" t="s">
+    </row>
+    <row r="351" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C351" s="45"/>
+      <c r="D351" s="48"/>
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C352" s="45"/>
+      <c r="D352" s="48"/>
+      <c r="E352" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="44"/>
-      <c r="D351" s="47"/>
-      <c r="E351" s="10"/>
-    </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="44"/>
-      <c r="D352" s="47"/>
-      <c r="E352" s="12" t="s">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C353" s="45"/>
+      <c r="D353" s="48"/>
+      <c r="E353" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="44"/>
-      <c r="D353" s="47"/>
-      <c r="E353" s="12" t="s">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C354" s="45"/>
+      <c r="D354" s="48"/>
+      <c r="E354" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="44"/>
-      <c r="D354" s="47"/>
-      <c r="E354" s="12" t="s">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C355" s="45"/>
+      <c r="D355" s="48"/>
+      <c r="E355" s="12"/>
+    </row>
+    <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C356" s="46"/>
+      <c r="D356" s="49"/>
+      <c r="E356" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="44"/>
-      <c r="D355" s="47"/>
-      <c r="E355" s="12"/>
-    </row>
-    <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="45"/>
-      <c r="D356" s="48"/>
-      <c r="E356" s="15" t="s">
+    <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C357" s="44">
+        <v>-1029</v>
+      </c>
+      <c r="D357" s="47" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="43">
-        <v>-1029</v>
-      </c>
-      <c r="D357" s="46" t="s">
+      <c r="E357" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E357" s="9" t="s">
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C358" s="45"/>
+      <c r="D358" s="48"/>
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C359" s="45"/>
+      <c r="D359" s="48"/>
+      <c r="E359" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="44"/>
-      <c r="D358" s="47"/>
-      <c r="E358" s="10"/>
-    </row>
-    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="44"/>
-      <c r="D359" s="47"/>
-      <c r="E359" s="12" t="s">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C360" s="45"/>
+      <c r="D360" s="48"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C361" s="45"/>
+      <c r="D361" s="48"/>
+      <c r="E361" s="16" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="44"/>
-      <c r="D360" s="47"/>
-      <c r="E360" s="12"/>
-    </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="44"/>
-      <c r="D361" s="47"/>
-      <c r="E361" s="16" t="s">
+    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C362" s="46"/>
+      <c r="D362" s="49"/>
+      <c r="E362" s="15" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="45"/>
-      <c r="D362" s="48"/>
-      <c r="E362" s="15" t="s">
+    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C363" s="44">
+        <v>-1030</v>
+      </c>
+      <c r="D363" s="47" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="43">
-        <v>-1030</v>
-      </c>
-      <c r="D363" s="46" t="s">
+      <c r="E363" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E363" s="9" t="s">
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C364" s="45"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C365" s="45"/>
+      <c r="D365" s="48"/>
+      <c r="E365" s="12" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="44"/>
-      <c r="D364" s="47"/>
-      <c r="E364" s="10"/>
-    </row>
-    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="44"/>
-      <c r="D365" s="47"/>
-      <c r="E365" s="12" t="s">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C366" s="45"/>
+      <c r="D366" s="48"/>
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C367" s="46"/>
+      <c r="D367" s="49"/>
+      <c r="E367" s="11" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="44"/>
-      <c r="D366" s="47"/>
-      <c r="E366" s="10"/>
-    </row>
-    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="45"/>
-      <c r="D367" s="48"/>
-      <c r="E367" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="368" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7759,10 +7854,10 @@
         <v>-1031</v>
       </c>
       <c r="D368" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E368" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="E368" s="8" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="369" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7770,217 +7865,217 @@
         <v>-1032</v>
       </c>
       <c r="D369" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E369" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="E369" s="8" t="s">
+    </row>
+    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C370" s="44">
+        <v>-1033</v>
+      </c>
+      <c r="D370" s="47" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="43">
-        <v>-1033</v>
-      </c>
-      <c r="D370" s="46" t="s">
+      <c r="E370" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E370" s="9" t="s">
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C371" s="45"/>
+      <c r="D371" s="48"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C372" s="46"/>
+      <c r="D372" s="49"/>
+      <c r="E372" s="15" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="44"/>
-      <c r="D371" s="47"/>
-      <c r="E371" s="12"/>
-    </row>
-    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="45"/>
-      <c r="D372" s="48"/>
-      <c r="E372" s="15" t="s">
+    <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C373" s="44">
+        <v>-1034</v>
+      </c>
+      <c r="D373" s="47" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C373" s="43">
-        <v>-1034</v>
-      </c>
-      <c r="D373" s="46" t="s">
+      <c r="E373" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E373" s="9" t="s">
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C374" s="45"/>
+      <c r="D374" s="48"/>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C375" s="46"/>
+      <c r="D375" s="49"/>
+      <c r="E375" s="15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="44"/>
-      <c r="D374" s="47"/>
-      <c r="E374" s="12"/>
-    </row>
-    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="45"/>
-      <c r="D375" s="48"/>
-      <c r="E375" s="15" t="s">
+    <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C376" s="44">
+        <v>-1035</v>
+      </c>
+      <c r="D376" s="47" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C376" s="43">
-        <v>-1035</v>
-      </c>
-      <c r="D376" s="46" t="s">
+      <c r="E376" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E376" s="9" t="s">
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C377" s="45"/>
+      <c r="D377" s="48"/>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C378" s="46"/>
+      <c r="D378" s="49"/>
+      <c r="E378" s="15" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="44"/>
-      <c r="D377" s="47"/>
-      <c r="E377" s="12"/>
-    </row>
-    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="45"/>
-      <c r="D378" s="48"/>
-      <c r="E378" s="15" t="s">
+    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C379" s="44">
+        <v>-1036</v>
+      </c>
+      <c r="D379" s="47" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="43">
-        <v>-1036</v>
-      </c>
-      <c r="D379" s="46" t="s">
+      <c r="E379" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E379" s="9" t="s">
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C380" s="45"/>
+      <c r="D380" s="48"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C381" s="46"/>
+      <c r="D381" s="49"/>
+      <c r="E381" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="44"/>
-      <c r="D380" s="47"/>
-      <c r="E380" s="12"/>
-    </row>
-    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="45"/>
-      <c r="D381" s="48"/>
-      <c r="E381" s="15" t="s">
+    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C382" s="44">
+        <v>-1037</v>
+      </c>
+      <c r="D382" s="47" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="43">
-        <v>-1037</v>
-      </c>
-      <c r="D382" s="46" t="s">
+      <c r="E382" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="E382" s="9" t="s">
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C383" s="45"/>
+      <c r="D383" s="48"/>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C384" s="46"/>
+      <c r="D384" s="49"/>
+      <c r="E384" s="15" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="44"/>
-      <c r="D383" s="47"/>
-      <c r="E383" s="12"/>
-    </row>
-    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="45"/>
-      <c r="D384" s="48"/>
-      <c r="E384" s="15" t="s">
+    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C385" s="44">
+        <v>-1038</v>
+      </c>
+      <c r="D385" s="47" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="43">
-        <v>-1038</v>
-      </c>
-      <c r="D385" s="46" t="s">
+      <c r="E385" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="E385" s="9" t="s">
+    </row>
+    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C386" s="45"/>
+      <c r="D386" s="48"/>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C387" s="46"/>
+      <c r="D387" s="49"/>
+      <c r="E387" s="15" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="44"/>
-      <c r="D386" s="47"/>
-      <c r="E386" s="12"/>
-    </row>
-    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="45"/>
-      <c r="D387" s="48"/>
-      <c r="E387" s="15" t="s">
+    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C388" s="44">
+        <v>-1039</v>
+      </c>
+      <c r="D388" s="47" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="43">
-        <v>-1039</v>
-      </c>
-      <c r="D388" s="46" t="s">
+      <c r="E388" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="E388" s="9" t="s">
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C389" s="45"/>
+      <c r="D389" s="48"/>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C390" s="46"/>
+      <c r="D390" s="49"/>
+      <c r="E390" s="15" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="44"/>
-      <c r="D389" s="47"/>
-      <c r="E389" s="12"/>
-    </row>
-    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="45"/>
-      <c r="D390" s="48"/>
-      <c r="E390" s="15" t="s">
+    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C391" s="44">
+        <v>-1040</v>
+      </c>
+      <c r="D391" s="47" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="43">
-        <v>-1040</v>
-      </c>
-      <c r="D391" s="46" t="s">
+      <c r="E391" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="E391" s="9" t="s">
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C392" s="45"/>
+      <c r="D392" s="48"/>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C393" s="46"/>
+      <c r="D393" s="49"/>
+      <c r="E393" s="15" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="44"/>
-      <c r="D392" s="47"/>
-      <c r="E392" s="12"/>
-    </row>
-    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="45"/>
-      <c r="D393" s="48"/>
-      <c r="E393" s="15" t="s">
+    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C394" s="44">
+        <v>-1041</v>
+      </c>
+      <c r="D394" s="47" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="43">
-        <v>-1041</v>
-      </c>
-      <c r="D394" s="46" t="s">
+      <c r="E394" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="E394" s="9" t="s">
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C395" s="45"/>
+      <c r="D395" s="48"/>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C396" s="46"/>
+      <c r="D396" s="49"/>
+      <c r="E396" s="15" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="44"/>
-      <c r="D395" s="47"/>
-      <c r="E395" s="12"/>
-    </row>
-    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="45"/>
-      <c r="D396" s="48"/>
-      <c r="E396" s="15" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="397" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -7988,45 +8083,45 @@
         <v>-1042</v>
       </c>
       <c r="D397" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="E397" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E397" s="8" t="s">
+    </row>
+    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C398" s="44">
+        <v>-1043</v>
+      </c>
+      <c r="D398" s="47" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="43">
-        <v>-1043</v>
-      </c>
-      <c r="D398" s="46" t="s">
+      <c r="E398" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E398" s="9" t="s">
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C399" s="45"/>
+      <c r="D399" s="48"/>
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C400" s="45"/>
+      <c r="D400" s="48"/>
+      <c r="E400" s="12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="44"/>
-      <c r="D399" s="47"/>
-      <c r="E399" s="10"/>
-    </row>
-    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="44"/>
-      <c r="D400" s="47"/>
-      <c r="E400" s="12" t="s">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C401" s="45"/>
+      <c r="D401" s="48"/>
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C402" s="46"/>
+      <c r="D402" s="49"/>
+      <c r="E402" s="11" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="44"/>
-      <c r="D401" s="47"/>
-      <c r="E401" s="10"/>
-    </row>
-    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="45"/>
-      <c r="D402" s="48"/>
-      <c r="E402" s="11" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="403" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8034,77 +8129,77 @@
         <v>-1044</v>
       </c>
       <c r="D403" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E403" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="E403" s="8" t="s">
+    </row>
+    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C404" s="44">
+        <v>-1045</v>
+      </c>
+      <c r="D404" s="47" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="43">
-        <v>-1045</v>
-      </c>
-      <c r="D404" s="46" t="s">
+      <c r="E404" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="E404" s="9" t="s">
+    </row>
+    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C405" s="45"/>
+      <c r="D405" s="48"/>
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C406" s="45"/>
+      <c r="D406" s="48"/>
+      <c r="E406" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="44"/>
-      <c r="D405" s="47"/>
-      <c r="E405" s="10"/>
-    </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="44"/>
-      <c r="D406" s="47"/>
-      <c r="E406" s="12" t="s">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C407" s="45"/>
+      <c r="D407" s="48"/>
+      <c r="E407" s="12" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="44"/>
-      <c r="D407" s="47"/>
-      <c r="E407" s="12" t="s">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C408" s="45"/>
+      <c r="D408" s="48"/>
+      <c r="E408" s="12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="44"/>
-      <c r="D408" s="47"/>
-      <c r="E408" s="12" t="s">
+    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C409" s="46"/>
+      <c r="D409" s="49"/>
+      <c r="E409" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="45"/>
-      <c r="D409" s="48"/>
-      <c r="E409" s="11" t="s">
+    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C410" s="44">
+        <v>-1046</v>
+      </c>
+      <c r="D410" s="47" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="43">
-        <v>-1046</v>
-      </c>
-      <c r="D410" s="46" t="s">
+      <c r="E410" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="E410" s="9" t="s">
+    </row>
+    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C411" s="45"/>
+      <c r="D411" s="48"/>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C412" s="46"/>
+      <c r="D412" s="49"/>
+      <c r="E412" s="15" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="44"/>
-      <c r="D411" s="47"/>
-      <c r="E411" s="12"/>
-    </row>
-    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="45"/>
-      <c r="D412" s="48"/>
-      <c r="E412" s="15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="413" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8112,10 +8207,10 @@
         <v>-1047</v>
       </c>
       <c r="D413" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E413" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="E413" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="414" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8123,10 +8218,10 @@
         <v>-1048</v>
       </c>
       <c r="D414" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E414" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="E414" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="415" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8134,10 +8229,10 @@
         <v>-1049</v>
       </c>
       <c r="D415" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E415" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="E415" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="416" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8145,86 +8240,86 @@
         <v>-1050</v>
       </c>
       <c r="D416" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E416" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="E416" s="8" t="s">
+    </row>
+    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C417" s="44">
+        <v>-1051</v>
+      </c>
+      <c r="D417" s="47" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="43">
-        <v>-1051</v>
-      </c>
-      <c r="D417" s="46" t="s">
+      <c r="E417" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="E417" s="9" t="s">
+    </row>
+    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C418" s="45"/>
+      <c r="D418" s="48"/>
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C419" s="45"/>
+      <c r="D419" s="48"/>
+      <c r="E419" s="12" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="44"/>
-      <c r="D418" s="47"/>
-      <c r="E418" s="10"/>
-    </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="44"/>
-      <c r="D419" s="47"/>
-      <c r="E419" s="12" t="s">
+    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C420" s="46"/>
+      <c r="D420" s="49"/>
+      <c r="E420" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="45"/>
-      <c r="D420" s="48"/>
-      <c r="E420" s="11" t="s">
+    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C421" s="44">
+        <v>-1052</v>
+      </c>
+      <c r="D421" s="47" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
-        <v>-1052</v>
-      </c>
-      <c r="D421" s="46" t="s">
+      <c r="E421" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="E421" s="9" t="s">
+    </row>
+    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C422" s="45"/>
+      <c r="D422" s="48"/>
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C423" s="46"/>
+      <c r="D423" s="49"/>
+      <c r="E423" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="44"/>
-      <c r="D422" s="47"/>
-      <c r="E422" s="10"/>
-    </row>
-    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="45"/>
-      <c r="D423" s="48"/>
-      <c r="E423" s="11" t="s">
+    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C424" s="44">
+        <v>-1053</v>
+      </c>
+      <c r="D424" s="47" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="43">
-        <v>-1053</v>
-      </c>
-      <c r="D424" s="46" t="s">
+      <c r="E424" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="E424" s="9" t="s">
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C425" s="45"/>
+      <c r="D425" s="48"/>
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C426" s="46"/>
+      <c r="D426" s="49"/>
+      <c r="E426" s="11" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="44"/>
-      <c r="D425" s="47"/>
-      <c r="E425" s="10"/>
-    </row>
-    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="45"/>
-      <c r="D426" s="48"/>
-      <c r="E426" s="11" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="427" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8232,63 +8327,63 @@
         <v>-1054</v>
       </c>
       <c r="D427" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E427" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="E427" s="8" t="s">
+    </row>
+    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C428" s="44">
+        <v>-1055</v>
+      </c>
+      <c r="D428" s="47" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
-        <v>-1055</v>
-      </c>
-      <c r="D428" s="46" t="s">
+      <c r="E428" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="E428" s="9" t="s">
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C429" s="45"/>
+      <c r="D429" s="48"/>
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C430" s="45"/>
+      <c r="D430" s="48"/>
+      <c r="E430" s="12" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="44"/>
-      <c r="D429" s="47"/>
-      <c r="E429" s="10"/>
-    </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="44"/>
-      <c r="D430" s="47"/>
-      <c r="E430" s="12" t="s">
+    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C431" s="46"/>
+      <c r="D431" s="49"/>
+      <c r="E431" s="11" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="45"/>
-      <c r="D431" s="48"/>
-      <c r="E431" s="11" t="s">
+    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C432" s="44">
+        <v>-1056</v>
+      </c>
+      <c r="D432" s="47" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
-        <v>-1056</v>
-      </c>
-      <c r="D432" s="46" t="s">
+      <c r="E432" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="E432" s="9" t="s">
+    </row>
+    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C433" s="45"/>
+      <c r="D433" s="48"/>
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C434" s="46"/>
+      <c r="D434" s="49"/>
+      <c r="E434" s="11" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="44"/>
-      <c r="D433" s="47"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="45"/>
-      <c r="D434" s="48"/>
-      <c r="E434" s="11" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="435" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8296,10 +8391,10 @@
         <v>-1057</v>
       </c>
       <c r="D435" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E435" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="E435" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="436" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8307,10 +8402,10 @@
         <v>-1058</v>
       </c>
       <c r="D436" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E436" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="E436" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="437" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8318,10 +8413,10 @@
         <v>-1059</v>
       </c>
       <c r="D437" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E437" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="E437" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="438" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8329,10 +8424,10 @@
         <v>-1500</v>
       </c>
       <c r="D438" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E438" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="E438" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="439" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8340,10 +8435,10 @@
         <v>-1501</v>
       </c>
       <c r="D439" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E439" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="440" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8351,10 +8446,10 @@
         <v>-1502</v>
       </c>
       <c r="D440" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E440" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="E440" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="441" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8362,10 +8457,10 @@
         <v>-1505</v>
       </c>
       <c r="D441" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E441" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="E441" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="442" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8373,10 +8468,10 @@
         <v>-1507</v>
       </c>
       <c r="D442" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E442" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="E442" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="443" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8384,10 +8479,10 @@
         <v>-1509</v>
       </c>
       <c r="D443" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E443" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="E443" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="444" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8395,10 +8490,10 @@
         <v>-1510</v>
       </c>
       <c r="D444" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E444" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="445" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8406,10 +8501,10 @@
         <v>-1511</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E445" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="446" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8417,10 +8512,10 @@
         <v>-1512</v>
       </c>
       <c r="D446" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E446" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="E446" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="447" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8428,10 +8523,10 @@
         <v>-1514</v>
       </c>
       <c r="D447" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E447" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="E447" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="448" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8439,10 +8534,10 @@
         <v>-1515</v>
       </c>
       <c r="D448" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E448" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="E448" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="449" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8450,10 +8545,10 @@
         <v>-1516</v>
       </c>
       <c r="D449" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E449" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="E449" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="450" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8461,7 +8556,7 @@
         <v>-1517</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E450" s="14"/>
     </row>
@@ -8470,7 +8565,7 @@
         <v>-1518</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E451" s="14"/>
     </row>
@@ -8479,7 +8574,7 @@
         <v>-1519</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E452" s="14"/>
     </row>
@@ -8488,7 +8583,7 @@
         <v>-1520</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E453" s="14"/>
     </row>
@@ -8497,7 +8592,7 @@
         <v>-1521</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E454" s="14"/>
     </row>
@@ -8506,10 +8601,10 @@
         <v>-1522</v>
       </c>
       <c r="D455" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E455" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="E455" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="456" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8517,10 +8612,10 @@
         <v>-1523</v>
       </c>
       <c r="D456" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E456" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="E456" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="457" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8528,10 +8623,10 @@
         <v>-1524</v>
       </c>
       <c r="D457" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E457" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="E457" s="8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="458" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8539,10 +8634,10 @@
         <v>-1550</v>
       </c>
       <c r="D458" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E458" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="E458" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="459" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8550,10 +8645,10 @@
         <v>-1551</v>
       </c>
       <c r="D459" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E459" s="8" t="s">
         <v>635</v>
-      </c>
-      <c r="E459" s="8" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="460" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8561,10 +8656,10 @@
         <v>-1552</v>
       </c>
       <c r="D460" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E460" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="E460" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="461" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8572,10 +8667,10 @@
         <v>-1553</v>
       </c>
       <c r="D461" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E461" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="E461" s="8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="462" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8583,10 +8678,10 @@
         <v>-1554</v>
       </c>
       <c r="D462" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E462" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="E462" s="8" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="463" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8594,10 +8689,10 @@
         <v>-1555</v>
       </c>
       <c r="D463" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E463" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="E463" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="464" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8605,10 +8700,10 @@
         <v>-1556</v>
       </c>
       <c r="D464" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E464" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="E464" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="465" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8616,10 +8711,10 @@
         <v>-1558</v>
       </c>
       <c r="D465" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E465" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="E465" s="8" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="466" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8627,10 +8722,10 @@
         <v>-1560</v>
       </c>
       <c r="D466" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E466" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="E466" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="467" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8638,35 +8733,35 @@
         <v>-1561</v>
       </c>
       <c r="D467" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E467" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E467" s="8" t="s">
+    </row>
+    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C468" s="44">
+        <v>-1600</v>
+      </c>
+      <c r="D468" s="47" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="43">
-        <v>-1600</v>
-      </c>
-      <c r="D468" s="46" t="s">
+      <c r="E468" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="E468" s="9" t="s">
+    </row>
+    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C469" s="45"/>
+      <c r="D469" s="48"/>
+      <c r="E469" s="12" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="44"/>
-      <c r="D469" s="47"/>
-      <c r="E469" s="12" t="s">
+    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C470" s="46"/>
+      <c r="D470" s="49"/>
+      <c r="E470" s="11" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="45"/>
-      <c r="D470" s="48"/>
-      <c r="E470" s="11" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="471" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8674,10 +8769,10 @@
         <v>-1601</v>
       </c>
       <c r="D471" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E471" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="E471" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="472" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8685,10 +8780,10 @@
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E472" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="E472" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8696,10 +8791,10 @@
         <v>-1603</v>
       </c>
       <c r="D473" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E473" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="E473" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8707,10 +8802,10 @@
         <v>-1604</v>
       </c>
       <c r="D474" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E474" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="E474" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8718,10 +8813,10 @@
         <v>-1605</v>
       </c>
       <c r="D475" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E475" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="E475" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8729,10 +8824,10 @@
         <v>-1606</v>
       </c>
       <c r="D476" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E476" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="E476" s="8" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8740,10 +8835,10 @@
         <v>-1607</v>
       </c>
       <c r="D477" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E477" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="E477" s="8" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8751,57 +8846,57 @@
         <v>-1609</v>
       </c>
       <c r="D478" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E478" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="E478" s="8" t="s">
+    </row>
+    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C479" s="44">
+        <v>-1610</v>
+      </c>
+      <c r="D479" s="47" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
-        <v>-1610</v>
-      </c>
-      <c r="D479" s="46" t="s">
+      <c r="E479" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E479" s="9" t="s">
+    </row>
+    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C480" s="45"/>
+      <c r="D480" s="48"/>
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C481" s="45"/>
+      <c r="D481" s="48"/>
+      <c r="E481" s="12" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="44"/>
-      <c r="D480" s="47"/>
-      <c r="E480" s="10"/>
-    </row>
-    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="44"/>
-      <c r="D481" s="47"/>
-      <c r="E481" s="12" t="s">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C482" s="45"/>
+      <c r="D482" s="48"/>
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C483" s="45"/>
+      <c r="D483" s="48"/>
+      <c r="E483" s="12" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="44"/>
-      <c r="D482" s="47"/>
-      <c r="E482" s="10"/>
-    </row>
-    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="44"/>
-      <c r="D483" s="47"/>
-      <c r="E483" s="12" t="s">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C484" s="45"/>
+      <c r="D484" s="48"/>
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C485" s="46"/>
+      <c r="D485" s="49"/>
+      <c r="E485" s="11" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="44"/>
-      <c r="D484" s="47"/>
-      <c r="E484" s="10"/>
-    </row>
-    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="45"/>
-      <c r="D485" s="48"/>
-      <c r="E485" s="11" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8809,10 +8904,10 @@
         <v>-1611</v>
       </c>
       <c r="D486" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="E486" s="8" t="s">
         <v>678</v>
-      </c>
-      <c r="E486" s="8" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8820,10 +8915,10 @@
         <v>-1612</v>
       </c>
       <c r="D487" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E487" s="8" t="s">
         <v>680</v>
-      </c>
-      <c r="E487" s="8" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8831,10 +8926,10 @@
         <v>-1613</v>
       </c>
       <c r="D488" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E488" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="E488" s="8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8842,10 +8937,10 @@
         <v>-1614</v>
       </c>
       <c r="D489" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E489" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="E489" s="8" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8853,10 +8948,10 @@
         <v>-1615</v>
       </c>
       <c r="D490" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E490" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="E490" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8864,10 +8959,10 @@
         <v>-1616</v>
       </c>
       <c r="D491" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E491" s="8" t="s">
         <v>688</v>
-      </c>
-      <c r="E491" s="8" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="492" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8875,10 +8970,10 @@
         <v>-1617</v>
       </c>
       <c r="D492" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E492" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="E492" s="8" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8886,10 +8981,10 @@
         <v>-1700</v>
       </c>
       <c r="D493" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E493" s="8" t="s">
         <v>692</v>
-      </c>
-      <c r="E493" s="8" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8897,10 +8992,10 @@
         <v>-1701</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8908,10 +9003,10 @@
         <v>-1702</v>
       </c>
       <c r="D495" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="E495" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="E495" s="8" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8919,10 +9014,10 @@
         <v>-1703</v>
       </c>
       <c r="D496" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E496" s="8" t="s">
         <v>697</v>
-      </c>
-      <c r="E496" s="8" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="497" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8930,10 +9025,10 @@
         <v>-1704</v>
       </c>
       <c r="D497" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E497" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="E497" s="8" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="498" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8941,10 +9036,10 @@
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E498" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="E498" s="8" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8952,10 +9047,10 @@
         <v>-1706</v>
       </c>
       <c r="D499" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E499" s="8" t="s">
         <v>703</v>
-      </c>
-      <c r="E499" s="8" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8963,10 +9058,10 @@
         <v>-1707</v>
       </c>
       <c r="D500" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E500" s="8" t="s">
         <v>705</v>
-      </c>
-      <c r="E500" s="8" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8974,10 +9069,10 @@
         <v>-1708</v>
       </c>
       <c r="D501" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E501" s="8" t="s">
         <v>707</v>
-      </c>
-      <c r="E501" s="8" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="502" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8985,10 +9080,10 @@
         <v>-1709</v>
       </c>
       <c r="D502" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E502" s="8" t="s">
         <v>709</v>
-      </c>
-      <c r="E502" s="8" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8996,10 +9091,10 @@
         <v>-1710</v>
       </c>
       <c r="D503" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E503" s="8" t="s">
         <v>711</v>
-      </c>
-      <c r="E503" s="8" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9007,10 +9102,10 @@
         <v>-1720</v>
       </c>
       <c r="D504" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E504" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="E504" s="8" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9018,10 +9113,10 @@
         <v>-1730</v>
       </c>
       <c r="D505" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E505" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="E505" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9029,10 +9124,10 @@
         <v>-1731</v>
       </c>
       <c r="D506" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E506" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="E506" s="8" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9040,10 +9135,10 @@
         <v>-1732</v>
       </c>
       <c r="D507" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E507" s="8" t="s">
         <v>719</v>
-      </c>
-      <c r="E507" s="8" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9051,10 +9146,10 @@
         <v>-1740</v>
       </c>
       <c r="D508" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E508" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="E508" s="8" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="509" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9062,7 +9157,7 @@
         <v>-3000</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E509" s="14"/>
     </row>
@@ -9071,7 +9166,7 @@
         <v>-3001</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E510" s="14"/>
     </row>
@@ -9080,7 +9175,7 @@
         <v>-3002</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E511" s="14"/>
     </row>
@@ -9089,7 +9184,7 @@
         <v>-3003</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E512" s="14"/>
     </row>
@@ -9098,7 +9193,7 @@
         <v>-3004</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E513" s="14"/>
     </row>
@@ -9107,7 +9202,7 @@
         <v>-3005</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E514" s="14"/>
     </row>
@@ -9116,7 +9211,7 @@
         <v>-3006</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E515" s="14"/>
     </row>
@@ -9125,7 +9220,7 @@
         <v>-3007</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E516" s="14"/>
     </row>
@@ -9134,7 +9229,7 @@
         <v>-3008</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E517" s="14"/>
     </row>
@@ -9143,7 +9238,7 @@
         <v>-3009</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E518" s="14"/>
     </row>
@@ -9152,7 +9247,7 @@
         <v>-3010</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E519" s="14"/>
     </row>
@@ -9161,7 +9256,7 @@
         <v>-3011</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E520" s="14"/>
     </row>
@@ -9170,7 +9265,7 @@
         <v>-3012</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E521" s="14"/>
     </row>
@@ -9179,54 +9274,54 @@
         <v>-3013</v>
       </c>
       <c r="D522" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E522" s="14"/>
+    </row>
+    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C523" s="44">
+        <v>-3014</v>
+      </c>
+      <c r="D523" s="47" t="s">
         <v>736</v>
       </c>
-      <c r="E522" s="14"/>
-    </row>
-    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="43">
-        <v>-3014</v>
-      </c>
-      <c r="D523" s="46" t="s">
+      <c r="E523" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="E523" s="9" t="s">
+    </row>
+    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C524" s="45"/>
+      <c r="D524" s="48"/>
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C525" s="46"/>
+      <c r="D525" s="49"/>
+      <c r="E525" s="11" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="44"/>
-      <c r="D524" s="47"/>
-      <c r="E524" s="10"/>
-    </row>
-    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="45"/>
-      <c r="D525" s="48"/>
-      <c r="E525" s="11" t="s">
+    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C526" s="44">
+        <v>-3015</v>
+      </c>
+      <c r="D526" s="47" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="43">
-        <v>-3015</v>
-      </c>
-      <c r="D526" s="46" t="s">
+      <c r="E526" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="E526" s="9" t="s">
+    </row>
+    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C527" s="45"/>
+      <c r="D527" s="48"/>
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C528" s="46"/>
+      <c r="D528" s="49"/>
+      <c r="E528" s="11" t="s">
         <v>741</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="44"/>
-      <c r="D527" s="47"/>
-      <c r="E527" s="10"/>
-    </row>
-    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="45"/>
-      <c r="D528" s="48"/>
-      <c r="E528" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9234,10 +9329,10 @@
         <v>-3016</v>
       </c>
       <c r="D529" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E529" s="8" t="s">
         <v>743</v>
-      </c>
-      <c r="E529" s="8" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9245,10 +9340,10 @@
         <v>-3017</v>
       </c>
       <c r="D530" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="E530" s="8" t="s">
         <v>745</v>
-      </c>
-      <c r="E530" s="8" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9256,10 +9351,10 @@
         <v>-3100</v>
       </c>
       <c r="D531" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E531" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="E531" s="8" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -9267,10 +9362,10 @@
         <v>-3101</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9278,10 +9373,10 @@
         <v>-3102</v>
       </c>
       <c r="D533" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E533" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="E533" s="8" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9289,495 +9384,487 @@
         <v>-3103</v>
       </c>
       <c r="D534" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E534" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="E534" s="8" t="s">
+    </row>
+    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C535" s="44">
+        <v>-3104</v>
+      </c>
+      <c r="D535" s="47" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C535" s="43">
-        <v>-3104</v>
-      </c>
-      <c r="D535" s="46" t="s">
+      <c r="E535" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="E535" s="9" t="s">
+    </row>
+    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C536" s="45"/>
+      <c r="D536" s="48"/>
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C537" s="45"/>
+      <c r="D537" s="48"/>
+      <c r="E537" s="12" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="44"/>
-      <c r="D536" s="47"/>
-      <c r="E536" s="10"/>
-    </row>
-    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="44"/>
-      <c r="D537" s="47"/>
-      <c r="E537" s="12" t="s">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C538" s="45"/>
+      <c r="D538" s="48"/>
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C539" s="45"/>
+      <c r="D539" s="48"/>
+      <c r="E539" s="12" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="44"/>
-      <c r="D538" s="47"/>
-      <c r="E538" s="10"/>
-    </row>
-    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="44"/>
-      <c r="D539" s="47"/>
-      <c r="E539" s="12" t="s">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C540" s="45"/>
+      <c r="D540" s="48"/>
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C541" s="45"/>
+      <c r="D541" s="48"/>
+      <c r="E541" s="12" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="44"/>
-      <c r="D540" s="47"/>
-      <c r="E540" s="10"/>
-    </row>
-    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="44"/>
-      <c r="D541" s="47"/>
-      <c r="E541" s="12" t="s">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C542" s="45"/>
+      <c r="D542" s="48"/>
+      <c r="E542" s="12"/>
+    </row>
+    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C543" s="46"/>
+      <c r="D543" s="49"/>
+      <c r="E543" s="15" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="44"/>
-      <c r="D542" s="47"/>
-      <c r="E542" s="12"/>
-    </row>
-    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="45"/>
-      <c r="D543" s="48"/>
-      <c r="E543" s="15" t="s">
+    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C544" s="44">
+        <v>-3105</v>
+      </c>
+      <c r="D544" s="47" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C544" s="43">
-        <v>-3105</v>
-      </c>
-      <c r="D544" s="46" t="s">
+      <c r="E544" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="E544" s="9" t="s">
+    </row>
+    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C545" s="45"/>
+      <c r="D545" s="48"/>
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C546" s="45"/>
+      <c r="D546" s="48"/>
+      <c r="E546" s="12" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="44"/>
-      <c r="D545" s="47"/>
-      <c r="E545" s="10"/>
-    </row>
-    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="44"/>
-      <c r="D546" s="47"/>
-      <c r="E546" s="12" t="s">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C547" s="45"/>
+      <c r="D547" s="48"/>
+      <c r="E547" s="12"/>
+    </row>
+    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C548" s="46"/>
+      <c r="D548" s="49"/>
+      <c r="E548" s="15" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="44"/>
-      <c r="D547" s="47"/>
-      <c r="E547" s="12"/>
-    </row>
-    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="45"/>
-      <c r="D548" s="48"/>
-      <c r="E548" s="15" t="s">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C549" s="44">
+        <v>-3106</v>
+      </c>
+      <c r="D549" s="47" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C549" s="43">
-        <v>-3106</v>
-      </c>
-      <c r="D549" s="46" t="s">
+      <c r="E549" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="E549" s="9" t="s">
+    </row>
+    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C550" s="45"/>
+      <c r="D550" s="48"/>
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C551" s="45"/>
+      <c r="D551" s="48"/>
+      <c r="E551" s="12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="44"/>
-      <c r="D550" s="47"/>
-      <c r="E550" s="10"/>
-    </row>
-    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C551" s="44"/>
-      <c r="D551" s="47"/>
-      <c r="E551" s="12" t="s">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C552" s="45"/>
+      <c r="D552" s="48"/>
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C553" s="45"/>
+      <c r="D553" s="48"/>
+      <c r="E553" s="12" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="44"/>
-      <c r="D552" s="47"/>
-      <c r="E552" s="10"/>
-    </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="44"/>
-      <c r="D553" s="47"/>
-      <c r="E553" s="12" t="s">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C554" s="45"/>
+      <c r="D554" s="48"/>
+      <c r="E554" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="44"/>
-      <c r="D554" s="47"/>
-      <c r="E554" s="12" t="s">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C555" s="45"/>
+      <c r="D555" s="48"/>
+      <c r="E555" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="44"/>
-      <c r="D555" s="47"/>
-      <c r="E555" s="12" t="s">
+    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C556" s="45"/>
+      <c r="D556" s="48"/>
+      <c r="E556" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="44"/>
-      <c r="D556" s="47"/>
-      <c r="E556" s="12" t="s">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C557" s="45"/>
+      <c r="D557" s="48"/>
+      <c r="E557" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="44"/>
-      <c r="D557" s="47"/>
-      <c r="E557" s="12" t="s">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C558" s="45"/>
+      <c r="D558" s="48"/>
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C559" s="45"/>
+      <c r="D559" s="48"/>
+      <c r="E559" s="12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="44"/>
-      <c r="D558" s="47"/>
-      <c r="E558" s="10"/>
-    </row>
-    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="44"/>
-      <c r="D559" s="47"/>
-      <c r="E559" s="12" t="s">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C560" s="45"/>
+      <c r="D560" s="48"/>
+      <c r="E560" s="12"/>
+    </row>
+    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C561" s="45"/>
+      <c r="D561" s="48"/>
+      <c r="E561" s="16" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="44"/>
-      <c r="D560" s="47"/>
-      <c r="E560" s="12"/>
-    </row>
-    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="44"/>
-      <c r="D561" s="47"/>
-      <c r="E561" s="16" t="s">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C562" s="45"/>
+      <c r="D562" s="48"/>
+      <c r="E562" s="16" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="44"/>
-      <c r="D562" s="47"/>
-      <c r="E562" s="16" t="s">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C563" s="45"/>
+      <c r="D563" s="48"/>
+      <c r="E563" s="16" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="44"/>
-      <c r="D563" s="47"/>
-      <c r="E563" s="16" t="s">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C564" s="45"/>
+      <c r="D564" s="48"/>
+      <c r="E564" s="16" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="44"/>
-      <c r="D564" s="47"/>
-      <c r="E564" s="16" t="s">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C565" s="45"/>
+      <c r="D565" s="48"/>
+      <c r="E565" s="16" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="44"/>
-      <c r="D565" s="47"/>
-      <c r="E565" s="16" t="s">
+    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C566" s="45"/>
+      <c r="D566" s="48"/>
+      <c r="E566" s="16" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="44"/>
-      <c r="D566" s="47"/>
-      <c r="E566" s="16" t="s">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C567" s="45"/>
+      <c r="D567" s="48"/>
+      <c r="E567" s="16" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="44"/>
-      <c r="D567" s="47"/>
-      <c r="E567" s="16" t="s">
+    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C568" s="46"/>
+      <c r="D568" s="49"/>
+      <c r="E568" s="15" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="45"/>
-      <c r="D568" s="48"/>
-      <c r="E568" s="15" t="s">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C569" s="44">
+        <v>-3107</v>
+      </c>
+      <c r="D569" s="47" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C569" s="43">
-        <v>-3107</v>
-      </c>
-      <c r="D569" s="46" t="s">
+      <c r="E569" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="E569" s="9" t="s">
+    </row>
+    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C570" s="45"/>
+      <c r="D570" s="48"/>
+      <c r="E570" s="12"/>
+    </row>
+    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C571" s="46"/>
+      <c r="D571" s="49"/>
+      <c r="E571" s="15" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="44"/>
-      <c r="D570" s="47"/>
-      <c r="E570" s="12"/>
-    </row>
-    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="45"/>
-      <c r="D571" s="48"/>
-      <c r="E571" s="15" t="s">
+    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
+      <c r="C572" s="44">
+        <v>-3108</v>
+      </c>
+      <c r="D572" s="47" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="572" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C572" s="43">
-        <v>-3108</v>
-      </c>
-      <c r="D572" s="46" t="s">
+      <c r="E572" s="9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C573" s="45"/>
+      <c r="D573" s="48"/>
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C574" s="46"/>
+      <c r="D574" s="49"/>
+      <c r="E574" s="15"/>
+    </row>
+    <row r="575" spans="3:5" ht="234" x14ac:dyDescent="0.4">
+      <c r="C575" s="44">
+        <v>-3109</v>
+      </c>
+      <c r="D575" s="47" t="s">
         <v>784</v>
       </c>
-      <c r="E572" s="9" t="s">
+      <c r="E575" s="9" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C576" s="45"/>
+      <c r="D576" s="48"/>
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C577" s="46"/>
+      <c r="D577" s="49"/>
+      <c r="E577" s="15"/>
+    </row>
+    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
+      <c r="C578" s="44">
+        <v>-3110</v>
+      </c>
+      <c r="D578" s="47" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="44"/>
-      <c r="D573" s="47"/>
-      <c r="E573" s="12"/>
-    </row>
-    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="45"/>
-      <c r="D574" s="48"/>
-      <c r="E574" s="15" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="575" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C575" s="43">
-        <v>-3109</v>
-      </c>
-      <c r="D575" s="46" t="s">
-        <v>787</v>
-      </c>
-      <c r="E575" s="9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="44"/>
-      <c r="D576" s="47"/>
-      <c r="E576" s="12"/>
-    </row>
-    <row r="577" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="45"/>
-      <c r="D577" s="48"/>
-      <c r="E577" s="15" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="578" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C578" s="43">
-        <v>-3110</v>
-      </c>
-      <c r="D578" s="46" t="s">
-        <v>790</v>
-      </c>
       <c r="E578" s="9" t="s">
-        <v>791</v>
+        <v>998</v>
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="44"/>
-      <c r="D579" s="47"/>
+      <c r="C579" s="45"/>
+      <c r="D579" s="48"/>
       <c r="E579" s="10"/>
     </row>
-    <row r="580" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C580" s="44"/>
-      <c r="D580" s="47"/>
-      <c r="E580" s="12" t="s">
-        <v>792</v>
-      </c>
+    <row r="580" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C580" s="45"/>
+      <c r="D580" s="48"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="44"/>
-      <c r="D581" s="47"/>
+      <c r="C581" s="45"/>
+      <c r="D581" s="48"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="45"/>
-      <c r="D582" s="48"/>
-      <c r="E582" s="15" t="s">
-        <v>793</v>
-      </c>
+      <c r="C582" s="46"/>
+      <c r="D582" s="49"/>
+      <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C583" s="7">
         <v>-3111</v>
       </c>
       <c r="D583" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E583" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C584" s="44">
+        <v>-3112</v>
+      </c>
+      <c r="D584" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="E584" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C585" s="45"/>
+      <c r="D585" s="48"/>
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C586" s="46"/>
+      <c r="D586" s="49"/>
+      <c r="E586" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C587" s="44">
+        <v>-3113</v>
+      </c>
+      <c r="D587" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="E587" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C588" s="45"/>
+      <c r="D588" s="48"/>
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C589" s="45"/>
+      <c r="D589" s="48"/>
+      <c r="E589" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C590" s="45"/>
+      <c r="D590" s="48"/>
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C591" s="45"/>
+      <c r="D591" s="48"/>
+      <c r="E591" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="E583" s="8" t="s">
+    </row>
+    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C592" s="45"/>
+      <c r="D592" s="48"/>
+      <c r="E592" s="12" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="43">
-        <v>-3112</v>
-      </c>
-      <c r="D584" s="46" t="s">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C593" s="45"/>
+      <c r="D593" s="48"/>
+      <c r="E593" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="E584" s="9" t="s">
+    </row>
+    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C594" s="45"/>
+      <c r="D594" s="48"/>
+      <c r="E594" s="12" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="44"/>
-      <c r="D585" s="47"/>
-      <c r="E585" s="10"/>
-    </row>
-    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="45"/>
-      <c r="D586" s="48"/>
-      <c r="E586" s="11" t="s">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C595" s="45"/>
+      <c r="D595" s="48"/>
+      <c r="E595" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="43">
-        <v>-3113</v>
-      </c>
-      <c r="D587" s="46" t="s">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C596" s="45"/>
+      <c r="D596" s="48"/>
+      <c r="E596" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="E587" s="9" t="s">
+    </row>
+    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C597" s="45"/>
+      <c r="D597" s="48"/>
+      <c r="E597" s="12" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="44"/>
-      <c r="D588" s="47"/>
-      <c r="E588" s="10"/>
-    </row>
-    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="44"/>
-      <c r="D589" s="47"/>
-      <c r="E589" s="12" t="s">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C598" s="45"/>
+      <c r="D598" s="48"/>
+      <c r="E598" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="44"/>
-      <c r="D590" s="47"/>
-      <c r="E590" s="10"/>
-    </row>
-    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="44"/>
-      <c r="D591" s="47"/>
-      <c r="E591" s="12" t="s">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C599" s="45"/>
+      <c r="D599" s="48"/>
+      <c r="E599" s="12" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="44"/>
-      <c r="D592" s="47"/>
-      <c r="E592" s="12" t="s">
+    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C600" s="45"/>
+      <c r="D600" s="48"/>
+      <c r="E600" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="44"/>
-      <c r="D593" s="47"/>
-      <c r="E593" s="12" t="s">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C601" s="45"/>
+      <c r="D601" s="48"/>
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C602" s="45"/>
+      <c r="D602" s="48"/>
+      <c r="E602" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="44"/>
-      <c r="D594" s="47"/>
-      <c r="E594" s="12" t="s">
+    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C603" s="46"/>
+      <c r="D603" s="49"/>
+      <c r="E603" s="11" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="44"/>
-      <c r="D595" s="47"/>
-      <c r="E595" s="12" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="44"/>
-      <c r="D596" s="47"/>
-      <c r="E596" s="12" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="44"/>
-      <c r="D597" s="47"/>
-      <c r="E597" s="12" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="44"/>
-      <c r="D598" s="47"/>
-      <c r="E598" s="12" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="44"/>
-      <c r="D599" s="47"/>
-      <c r="E599" s="12" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="44"/>
-      <c r="D600" s="47"/>
-      <c r="E600" s="12" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="44"/>
-      <c r="D601" s="47"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="44"/>
-      <c r="D602" s="47"/>
-      <c r="E602" s="12" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="45"/>
-      <c r="D603" s="48"/>
-      <c r="E603" s="11" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9785,33 +9872,33 @@
         <v>-3114</v>
       </c>
       <c r="D604" s="8" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E604" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="43">
+      <c r="C605" s="44">
         <v>-3115</v>
       </c>
-      <c r="D605" s="46" t="s">
-        <v>816</v>
+      <c r="D605" s="47" t="s">
+        <v>808</v>
       </c>
       <c r="E605" s="9" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="44"/>
-      <c r="D606" s="47"/>
+      <c r="C606" s="45"/>
+      <c r="D606" s="48"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="45"/>
-      <c r="D607" s="48"/>
+      <c r="C607" s="46"/>
+      <c r="D607" s="49"/>
       <c r="E607" s="11" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="608" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9819,50 +9906,50 @@
         <v>-3116</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="43">
+      <c r="C609" s="44">
         <v>-3117</v>
       </c>
-      <c r="D609" s="46" t="s">
-        <v>820</v>
+      <c r="D609" s="47" t="s">
+        <v>812</v>
       </c>
       <c r="E609" s="9" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="44"/>
-      <c r="D610" s="47"/>
+      <c r="C610" s="45"/>
+      <c r="D610" s="48"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="44"/>
-      <c r="D611" s="47"/>
+      <c r="C611" s="45"/>
+      <c r="D611" s="48"/>
       <c r="E611" s="12" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="44"/>
-      <c r="D612" s="47"/>
+      <c r="C612" s="45"/>
+      <c r="D612" s="48"/>
       <c r="E612" s="12" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="44"/>
-      <c r="D613" s="47"/>
+      <c r="C613" s="45"/>
+      <c r="D613" s="48"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="45"/>
-      <c r="D614" s="48"/>
+      <c r="C614" s="46"/>
+      <c r="D614" s="49"/>
       <c r="E614" s="11" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9870,10 +9957,10 @@
         <v>-3118</v>
       </c>
       <c r="D615" s="8" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E615" s="8" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9881,985 +9968,950 @@
         <v>-3119</v>
       </c>
       <c r="D616" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E616" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C617" s="44">
+        <v>-3120</v>
+      </c>
+      <c r="D617" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="E617" s="9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C618" s="45"/>
+      <c r="D618" s="48"/>
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C619" s="45"/>
+      <c r="D619" s="48"/>
+      <c r="E619" s="12" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C620" s="45"/>
+      <c r="D620" s="48"/>
+      <c r="E620" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C621" s="45"/>
+      <c r="D621" s="48"/>
+      <c r="E621" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C622" s="45"/>
+      <c r="D622" s="48"/>
+      <c r="E622" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C623" s="46"/>
+      <c r="D623" s="49"/>
+      <c r="E623" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="E616" s="8" t="s">
+    </row>
+    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C624" s="44">
+        <v>-3121</v>
+      </c>
+      <c r="D624" s="47" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="43">
-        <v>-3120</v>
-      </c>
-      <c r="D617" s="46" t="s">
+      <c r="E624" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="E617" s="9" t="s">
+    </row>
+    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C625" s="45"/>
+      <c r="D625" s="48"/>
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C626" s="45"/>
+      <c r="D626" s="48"/>
+      <c r="E626" s="12" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="44"/>
-      <c r="D618" s="47"/>
-      <c r="E618" s="10"/>
-    </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="44"/>
-      <c r="D619" s="47"/>
-      <c r="E619" s="12" t="s">
+    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C627" s="45"/>
+      <c r="D627" s="48"/>
+      <c r="E627" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="44"/>
-      <c r="D620" s="47"/>
-      <c r="E620" s="12" t="s">
+    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C628" s="45"/>
+      <c r="D628" s="48"/>
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C629" s="46"/>
+      <c r="D629" s="49"/>
+      <c r="E629" s="11" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="44"/>
-      <c r="D621" s="47"/>
-      <c r="E621" s="12" t="s">
+    <row r="630" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C630" s="39">
+        <v>-3122</v>
+      </c>
+      <c r="D630" s="37" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="44"/>
-      <c r="D622" s="47"/>
-      <c r="E622" s="12" t="s">
+      <c r="E630" s="9" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="631" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C631" s="7">
+        <v>-3123</v>
+      </c>
+      <c r="D631" s="8" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="45"/>
-      <c r="D623" s="48"/>
-      <c r="E623" s="11" t="s">
+      <c r="E631" s="8" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="43">
-        <v>-3121</v>
-      </c>
-      <c r="D624" s="46" t="s">
+    <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C632" s="44">
+        <v>-3124</v>
+      </c>
+      <c r="D632" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="E624" s="9" t="s">
+      <c r="E632" s="9" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="44"/>
-      <c r="D625" s="47"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="44"/>
-      <c r="D626" s="47"/>
-      <c r="E626" s="12" t="s">
+    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C633" s="45"/>
+      <c r="D633" s="48"/>
+      <c r="E633" s="10"/>
+    </row>
+    <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C634" s="46"/>
+      <c r="D634" s="49"/>
+      <c r="E634" s="11" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="44"/>
-      <c r="D627" s="47"/>
-      <c r="E627" s="12" t="s">
+    <row r="635" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C635" s="7">
+        <v>-3125</v>
+      </c>
+      <c r="D635" s="8" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="44"/>
-      <c r="D628" s="47"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="45"/>
-      <c r="D629" s="48"/>
-      <c r="E629" s="11" t="s">
+      <c r="E635" s="8" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="630" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C630" s="43">
-        <v>-3122</v>
-      </c>
-      <c r="D630" s="46" t="s">
+    <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C636" s="44">
+        <v>-3126</v>
+      </c>
+      <c r="D636" s="47" t="s">
         <v>841</v>
       </c>
-      <c r="E630" s="9" t="s">
+      <c r="E636" s="9" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="631" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C631" s="44"/>
-      <c r="D631" s="47"/>
-      <c r="E631" s="10"/>
-    </row>
-    <row r="632" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C632" s="44"/>
-      <c r="D632" s="47"/>
-      <c r="E632" s="12" t="s">
+    <row r="637" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C637" s="45"/>
+      <c r="D637" s="48"/>
+      <c r="E637" s="10"/>
+    </row>
+    <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C638" s="45"/>
+      <c r="D638" s="48"/>
+      <c r="E638" s="12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="44"/>
-      <c r="D633" s="47"/>
-      <c r="E633" s="12" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="634" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C634" s="44"/>
-      <c r="D634" s="47"/>
-      <c r="E634" s="12" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="635" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C635" s="45"/>
-      <c r="D635" s="48"/>
-      <c r="E635" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="636" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C636" s="7">
-        <v>-3123</v>
-      </c>
-      <c r="D636" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="E636" s="8" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="637" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C637" s="43">
-        <v>-3124</v>
-      </c>
-      <c r="D637" s="46" t="s">
-        <v>849</v>
-      </c>
-      <c r="E637" s="9" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="638" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C638" s="44"/>
-      <c r="D638" s="47"/>
-      <c r="E638" s="10"/>
-    </row>
-    <row r="639" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C639" s="45"/>
       <c r="D639" s="48"/>
-      <c r="E639" s="11" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="640" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C640" s="7">
-        <v>-3125</v>
-      </c>
-      <c r="D640" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="E640" s="8" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="641" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C641" s="43">
-        <v>-3126</v>
-      </c>
-      <c r="D641" s="46" t="s">
-        <v>854</v>
-      </c>
-      <c r="E641" s="9" t="s">
-        <v>855</v>
+      <c r="E639" s="12" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="640" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C640" s="45"/>
+      <c r="D640" s="48"/>
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C641" s="45"/>
+      <c r="D641" s="48"/>
+      <c r="E641" s="12" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="44"/>
-      <c r="D642" s="47"/>
+      <c r="C642" s="45"/>
+      <c r="D642" s="48"/>
       <c r="E642" s="10"/>
     </row>
-    <row r="643" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C643" s="44"/>
-      <c r="D643" s="47"/>
-      <c r="E643" s="12" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="644" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C644" s="44"/>
-      <c r="D644" s="47"/>
-      <c r="E644" s="12" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="645" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C645" s="44"/>
-      <c r="D645" s="47"/>
-      <c r="E645" s="10"/>
-    </row>
-    <row r="646" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C646" s="44"/>
-      <c r="D646" s="47"/>
-      <c r="E646" s="12" t="s">
-        <v>858</v>
+    <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C643" s="46"/>
+      <c r="D643" s="49"/>
+      <c r="E643" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="644" spans="3:5" ht="250.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C644" s="7">
+        <v>-3127</v>
+      </c>
+      <c r="D644" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E644" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="645" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C645" s="7">
+        <v>-3128</v>
+      </c>
+      <c r="D645" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="E645" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C646" s="44">
+        <v>-3129</v>
+      </c>
+      <c r="D646" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="E646" s="9" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="44"/>
-      <c r="D647" s="47"/>
+      <c r="C647" s="45"/>
+      <c r="D647" s="48"/>
       <c r="E647" s="10"/>
     </row>
-    <row r="648" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C648" s="45"/>
       <c r="D648" s="48"/>
-      <c r="E648" s="11" t="s">
+      <c r="E648" s="12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="649" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C649" s="45"/>
+      <c r="D649" s="48"/>
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C650" s="45"/>
+      <c r="D650" s="48"/>
+      <c r="E650" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="651" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C651" s="45"/>
+      <c r="D651" s="48"/>
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C652" s="45"/>
+      <c r="D652" s="48"/>
+      <c r="E652" s="12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="653" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C653" s="45"/>
+      <c r="D653" s="48"/>
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C654" s="46"/>
+      <c r="D654" s="49"/>
+      <c r="E654" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C655" s="44">
+        <v>-3130</v>
+      </c>
+      <c r="D655" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="E655" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C656" s="45"/>
+      <c r="D656" s="48"/>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C657" s="46"/>
+      <c r="D657" s="49"/>
+      <c r="E657" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="658" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C658" s="7">
+        <v>-3131</v>
+      </c>
+      <c r="D658" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E658" s="8" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="649" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C649" s="7">
-        <v>-3127</v>
-      </c>
-      <c r="D649" s="8" t="s">
+    <row r="659" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C659" s="7">
+        <v>-3132</v>
+      </c>
+      <c r="D659" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="E649" s="8" t="s">
+      <c r="E659" s="8" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="650" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C650" s="7">
-        <v>-3128</v>
-      </c>
-      <c r="D650" s="8" t="s">
+    <row r="660" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C660" s="7">
+        <v>-3133</v>
+      </c>
+      <c r="D660" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="E650" s="8" t="s">
+      <c r="E660" s="8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
+      <c r="C661" s="44">
+        <v>-3134</v>
+      </c>
+      <c r="D661" s="47" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="651" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C651" s="43">
-        <v>-3129</v>
-      </c>
-      <c r="D651" s="46" t="s">
-        <v>864</v>
-      </c>
-      <c r="E651" s="9" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="652" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C652" s="44"/>
-      <c r="D652" s="47"/>
-      <c r="E652" s="10"/>
-    </row>
-    <row r="653" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C653" s="44"/>
-      <c r="D653" s="47"/>
-      <c r="E653" s="12" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="654" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C654" s="44"/>
-      <c r="D654" s="47"/>
-      <c r="E654" s="10"/>
-    </row>
-    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="44"/>
-      <c r="D655" s="47"/>
-      <c r="E655" s="12" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="44"/>
-      <c r="D656" s="47"/>
-      <c r="E656" s="10"/>
-    </row>
-    <row r="657" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C657" s="44"/>
-      <c r="D657" s="47"/>
-      <c r="E657" s="12" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="658" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C658" s="44"/>
-      <c r="D658" s="47"/>
-      <c r="E658" s="10"/>
-    </row>
-    <row r="659" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C659" s="45"/>
-      <c r="D659" s="48"/>
-      <c r="E659" s="11" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="660" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C660" s="43">
-        <v>-3130</v>
-      </c>
-      <c r="D660" s="46" t="s">
-        <v>870</v>
-      </c>
-      <c r="E660" s="9" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="661" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C661" s="44"/>
-      <c r="D661" s="47"/>
-      <c r="E661" s="10"/>
-    </row>
-    <row r="662" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E661" s="9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="662" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C662" s="45"/>
       <c r="D662" s="48"/>
-      <c r="E662" s="11" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="663" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C663" s="7">
-        <v>-3131</v>
-      </c>
-      <c r="D663" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="E663" s="8" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="664" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C664" s="7">
-        <v>-3132</v>
-      </c>
-      <c r="D664" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="E664" s="8" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="665" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="7">
-        <v>-3133</v>
-      </c>
-      <c r="D665" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="E665" s="8" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="666" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C666" s="43">
-        <v>-3134</v>
-      </c>
-      <c r="D666" s="46" t="s">
-        <v>879</v>
-      </c>
-      <c r="E666" s="9" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="667" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C667" s="44"/>
-      <c r="D667" s="47"/>
-      <c r="E667" s="10"/>
-    </row>
-    <row r="668" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C668" s="44"/>
-      <c r="D668" s="47"/>
-      <c r="E668" s="12" t="s">
-        <v>881</v>
+      <c r="E662" s="10"/>
+    </row>
+    <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C663" s="45"/>
+      <c r="D663" s="48"/>
+      <c r="E663" s="12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="664" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C664" s="45"/>
+      <c r="D664" s="48"/>
+      <c r="E664" s="10"/>
+    </row>
+    <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C665" s="46"/>
+      <c r="D665" s="49"/>
+      <c r="E665" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="666" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C666" s="7">
+        <v>-3135</v>
+      </c>
+      <c r="D666" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E666" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="667" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C667" s="7">
+        <v>-3136</v>
+      </c>
+      <c r="D667" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="E667" s="8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C668" s="44">
+        <v>-3137</v>
+      </c>
+      <c r="D668" s="47" t="s">
+        <v>870</v>
+      </c>
+      <c r="E668" s="9" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="44"/>
-      <c r="D669" s="47"/>
+      <c r="C669" s="45"/>
+      <c r="D669" s="48"/>
       <c r="E669" s="10"/>
     </row>
-    <row r="670" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C670" s="45"/>
       <c r="D670" s="48"/>
-      <c r="E670" s="11" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="671" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="7">
-        <v>-3135</v>
-      </c>
-      <c r="D671" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E671" s="8" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="672" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C672" s="7">
-        <v>-3136</v>
-      </c>
-      <c r="D672" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="E672" s="8" t="s">
-        <v>886</v>
+      <c r="E670" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C671" s="46"/>
+      <c r="D671" s="49"/>
+      <c r="E671" s="11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C672" s="44">
+        <v>-3138</v>
+      </c>
+      <c r="D672" s="47" t="s">
+        <v>874</v>
+      </c>
+      <c r="E672" s="9" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="43">
-        <v>-3137</v>
-      </c>
-      <c r="D673" s="46" t="s">
-        <v>887</v>
-      </c>
-      <c r="E673" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="674" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C674" s="44"/>
-      <c r="D674" s="47"/>
-      <c r="E674" s="10"/>
-    </row>
-    <row r="675" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C675" s="44"/>
-      <c r="D675" s="47"/>
-      <c r="E675" s="12" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="676" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="45"/>
-      <c r="D676" s="48"/>
+      <c r="C673" s="45"/>
+      <c r="D673" s="48"/>
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C674" s="45"/>
+      <c r="D674" s="48"/>
+      <c r="E674" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="675" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C675" s="45"/>
+      <c r="D675" s="48"/>
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C676" s="46"/>
+      <c r="D676" s="49"/>
       <c r="E676" s="11" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="677" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C677" s="43">
-        <v>-3138</v>
-      </c>
-      <c r="D677" s="46" t="s">
-        <v>891</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C677" s="44">
+        <v>-3139</v>
+      </c>
+      <c r="D677" s="47" t="s">
+        <v>878</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="44"/>
-      <c r="D678" s="47"/>
+      <c r="C678" s="45"/>
+      <c r="D678" s="48"/>
       <c r="E678" s="10"/>
     </row>
-    <row r="679" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C679" s="44"/>
-      <c r="D679" s="47"/>
+    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C679" s="45"/>
+      <c r="D679" s="48"/>
       <c r="E679" s="12" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="44"/>
-      <c r="D680" s="47"/>
-      <c r="E680" s="10"/>
-    </row>
-    <row r="681" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C680" s="45"/>
+      <c r="D680" s="48"/>
+      <c r="E680" s="12" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C681" s="45"/>
       <c r="D681" s="48"/>
-      <c r="E681" s="11" t="s">
+      <c r="E681" s="12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C682" s="45"/>
+      <c r="D682" s="48"/>
+      <c r="E682" s="12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C683" s="45"/>
+      <c r="D683" s="48"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C684" s="46"/>
+      <c r="D684" s="49"/>
+      <c r="E684" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
+      <c r="C685" s="44">
+        <v>-3140</v>
+      </c>
+      <c r="D685" s="47" t="s">
+        <v>885</v>
+      </c>
+      <c r="E685" s="9" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="686" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C686" s="45"/>
+      <c r="D686" s="48"/>
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C687" s="45"/>
+      <c r="D687" s="48"/>
+      <c r="E687" s="12"/>
+    </row>
+    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C688" s="45"/>
+      <c r="D688" s="48"/>
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C689" s="46"/>
+      <c r="D689" s="49"/>
+      <c r="E689" s="11"/>
+    </row>
+    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C690" s="44">
+        <v>-3141</v>
+      </c>
+      <c r="D690" s="47" t="s">
+        <v>886</v>
+      </c>
+      <c r="E690" s="9" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C691" s="45"/>
+      <c r="D691" s="48"/>
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C692" s="45"/>
+      <c r="D692" s="48"/>
+      <c r="E692" s="12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C693" s="45"/>
+      <c r="D693" s="48"/>
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C694" s="46"/>
+      <c r="D694" s="49"/>
+      <c r="E694" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C695" s="44">
+        <v>-3142</v>
+      </c>
+      <c r="D695" s="47" t="s">
+        <v>889</v>
+      </c>
+      <c r="E695" s="9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C696" s="45"/>
+      <c r="D696" s="48"/>
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C697" s="45"/>
+      <c r="D697" s="48"/>
+      <c r="E697" s="12" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C698" s="45"/>
+      <c r="D698" s="48"/>
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C699" s="46"/>
+      <c r="D699" s="49"/>
+      <c r="E699" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C700" s="44">
+        <v>-3143</v>
+      </c>
+      <c r="D700" s="47" t="s">
+        <v>892</v>
+      </c>
+      <c r="E700" s="9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C701" s="45"/>
+      <c r="D701" s="48"/>
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C702" s="45"/>
+      <c r="D702" s="48"/>
+      <c r="E702" s="12" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="43">
-        <v>-3139</v>
-      </c>
-      <c r="D682" s="46" t="s">
-        <v>895</v>
-      </c>
-      <c r="E682" s="9" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="44"/>
-      <c r="D683" s="47"/>
-      <c r="E683" s="10"/>
-    </row>
-    <row r="684" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C684" s="44"/>
-      <c r="D684" s="47"/>
-      <c r="E684" s="12" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="685" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C685" s="44"/>
-      <c r="D685" s="47"/>
-      <c r="E685" s="12" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="686" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C686" s="44"/>
-      <c r="D686" s="47"/>
-      <c r="E686" s="12" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="44"/>
-      <c r="D687" s="47"/>
-      <c r="E687" s="12" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="44"/>
-      <c r="D688" s="47"/>
-      <c r="E688" s="10"/>
-    </row>
-    <row r="689" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="45"/>
-      <c r="D689" s="48"/>
-      <c r="E689" s="11" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="690" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C690" s="43">
-        <v>-3140</v>
-      </c>
-      <c r="D690" s="46" t="s">
-        <v>902</v>
-      </c>
-      <c r="E690" s="9" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="44"/>
-      <c r="D691" s="47"/>
-      <c r="E691" s="10"/>
-    </row>
-    <row r="692" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C692" s="44"/>
-      <c r="D692" s="47"/>
-      <c r="E692" s="12" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="44"/>
-      <c r="D693" s="47"/>
-      <c r="E693" s="10"/>
-    </row>
-    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="45"/>
-      <c r="D694" s="48"/>
-      <c r="E694" s="11" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="43">
-        <v>-3141</v>
-      </c>
-      <c r="D695" s="46" t="s">
-        <v>905</v>
-      </c>
-      <c r="E695" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="44"/>
-      <c r="D696" s="47"/>
-      <c r="E696" s="10"/>
-    </row>
-    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="44"/>
-      <c r="D697" s="47"/>
-      <c r="E697" s="12" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="44"/>
-      <c r="D698" s="47"/>
-      <c r="E698" s="10"/>
-    </row>
-    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="45"/>
-      <c r="D699" s="48"/>
-      <c r="E699" s="11" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="700" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C700" s="43">
-        <v>-3142</v>
-      </c>
-      <c r="D700" s="46" t="s">
-        <v>908</v>
-      </c>
-      <c r="E700" s="9" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="44"/>
-      <c r="D701" s="47"/>
-      <c r="E701" s="10"/>
-    </row>
-    <row r="702" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C702" s="44"/>
-      <c r="D702" s="47"/>
-      <c r="E702" s="12" t="s">
-        <v>910</v>
-      </c>
-    </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="44"/>
-      <c r="D703" s="47"/>
+      <c r="C703" s="45"/>
+      <c r="D703" s="48"/>
       <c r="E703" s="10"/>
     </row>
-    <row r="704" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C704" s="45"/>
       <c r="D704" s="48"/>
-      <c r="E704" s="11" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="705" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C705" s="43">
-        <v>-3143</v>
-      </c>
-      <c r="D705" s="46" t="s">
-        <v>911</v>
-      </c>
-      <c r="E705" s="9" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="706" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C706" s="44"/>
-      <c r="D706" s="47"/>
-      <c r="E706" s="10"/>
-    </row>
-    <row r="707" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C707" s="44"/>
-      <c r="D707" s="47"/>
-      <c r="E707" s="12" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="708" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C708" s="44"/>
-      <c r="D708" s="47"/>
-      <c r="E708" s="10"/>
-    </row>
-    <row r="709" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C709" s="44"/>
-      <c r="D709" s="47"/>
-      <c r="E709" s="12" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="710" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C710" s="44"/>
-      <c r="D710" s="47"/>
-      <c r="E710" s="10"/>
-    </row>
-    <row r="711" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E704" s="12" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C705" s="45"/>
+      <c r="D705" s="48"/>
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C706" s="46"/>
+      <c r="D706" s="49"/>
+      <c r="E706" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="707" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C707" s="7">
+        <v>-3144</v>
+      </c>
+      <c r="D707" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="E707" s="8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="708" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C708" s="7">
+        <v>-3145</v>
+      </c>
+      <c r="D708" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E708" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="709" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C709" s="7">
+        <v>-3146</v>
+      </c>
+      <c r="D709" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="E709" s="20" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
+      <c r="C710" s="44">
+        <v>-3147</v>
+      </c>
+      <c r="D710" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="E710" s="21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="711" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C711" s="45"/>
       <c r="D711" s="48"/>
-      <c r="E711" s="11" t="s">
+      <c r="E711" s="22"/>
+    </row>
+    <row r="712" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C712" s="45"/>
+      <c r="D712" s="48"/>
+      <c r="E712" s="23"/>
+    </row>
+    <row r="713" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C713" s="45"/>
+      <c r="D713" s="48"/>
+      <c r="E713" s="22"/>
+    </row>
+    <row r="714" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C714" s="45"/>
+      <c r="D714" s="48"/>
+      <c r="E714" s="23"/>
+    </row>
+    <row r="715" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C715" s="45"/>
+      <c r="D715" s="48"/>
+      <c r="E715" s="23"/>
+    </row>
+    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C716" s="45"/>
+      <c r="D716" s="48"/>
+      <c r="E716" s="23"/>
+    </row>
+    <row r="717" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C717" s="45"/>
+      <c r="D717" s="48"/>
+      <c r="E717" s="23"/>
+    </row>
+    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C718" s="45"/>
+      <c r="D718" s="48"/>
+      <c r="E718" s="23"/>
+    </row>
+    <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C719" s="46"/>
+      <c r="D719" s="49"/>
+      <c r="E719" s="24"/>
+    </row>
+    <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C720" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="D720" s="42" t="s">
+        <v>904</v>
+      </c>
+      <c r="E720" s="25" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C721" s="41"/>
+      <c r="D721" s="43"/>
+      <c r="E721" s="26" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="722" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C722" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="D722" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="E722" s="26" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C723" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="D723" s="42" t="s">
+        <v>911</v>
+      </c>
+      <c r="E723" s="28" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C724" s="41"/>
+      <c r="D724" s="43"/>
+      <c r="E724" s="26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="725" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C725" s="27" t="s">
+        <v>913</v>
+      </c>
+      <c r="D725" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="E725" s="26" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="712" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C712" s="7">
-        <v>-3144</v>
-      </c>
-      <c r="D712" s="8" t="s">
+    <row r="726" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C726" s="27" t="s">
         <v>916</v>
       </c>
-      <c r="E712" s="8" t="s">
+      <c r="D726" s="26" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="713" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C713" s="7">
-        <v>-3145</v>
-      </c>
-      <c r="D713" s="8" t="s">
+      <c r="E726" s="26" t="s">
         <v>918</v>
-      </c>
-      <c r="E713" s="8" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="714" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C714" s="7">
-        <v>-3146</v>
-      </c>
-      <c r="D714" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="E714" s="20" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="715" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C715" s="43">
-        <v>-3147</v>
-      </c>
-      <c r="D715" s="46" t="s">
-        <v>922</v>
-      </c>
-      <c r="E715" s="21" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="44"/>
-      <c r="D716" s="47"/>
-      <c r="E716" s="22"/>
-    </row>
-    <row r="717" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C717" s="44"/>
-      <c r="D717" s="47"/>
-      <c r="E717" s="23" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="44"/>
-      <c r="D718" s="47"/>
-      <c r="E718" s="22"/>
-    </row>
-    <row r="719" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C719" s="44"/>
-      <c r="D719" s="47"/>
-      <c r="E719" s="23" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="720" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C720" s="44"/>
-      <c r="D720" s="47"/>
-      <c r="E720" s="23" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="721" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C721" s="44"/>
-      <c r="D721" s="47"/>
-      <c r="E721" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="722" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C722" s="44"/>
-      <c r="D722" s="47"/>
-      <c r="E722" s="23" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="723" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C723" s="44"/>
-      <c r="D723" s="47"/>
-      <c r="E723" s="23" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="45"/>
-      <c r="D724" s="48"/>
-      <c r="E724" s="24" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="725" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C725" s="39" t="s">
-        <v>931</v>
-      </c>
-      <c r="D725" s="41" t="s">
-        <v>932</v>
-      </c>
-      <c r="E725" s="25" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="726" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C726" s="40"/>
-      <c r="D726" s="42"/>
-      <c r="E726" s="26" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="727" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C727" s="27" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="D727" s="26" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E727" s="26" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="728" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C728" s="39" t="s">
-        <v>938</v>
-      </c>
-      <c r="D728" s="41" t="s">
-        <v>939</v>
-      </c>
-      <c r="E728" s="28" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="729" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C729" s="40"/>
-      <c r="D729" s="42"/>
-      <c r="E729" s="26" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="730" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="27" t="s">
-        <v>941</v>
-      </c>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="728" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C728" s="27" t="s">
+        <v>922</v>
+      </c>
+      <c r="D728" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="E728" s="26" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C729" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="D729" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="E729" s="42" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C730" s="41"/>
       <c r="D730" s="26" t="s">
-        <v>942</v>
-      </c>
-      <c r="E730" s="26" t="s">
-        <v>943</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="E730" s="43"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="D731" s="26" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E731" s="26" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
     </row>
     <row r="732" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C732" s="27" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D732" s="26" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="E732" s="26" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="733" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C733" s="27" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="D733" s="26" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="E733" s="26" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="734" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C734" s="39" t="s">
-        <v>953</v>
-      </c>
-      <c r="D734" s="28" t="s">
-        <v>954</v>
-      </c>
-      <c r="E734" s="41" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="735" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C735" s="40"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="734" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C734" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="D734" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="E734" s="26" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="735" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C735" s="27" t="s">
+        <v>941</v>
+      </c>
       <c r="D735" s="26" t="s">
-        <v>955</v>
-      </c>
-      <c r="E735" s="42"/>
-    </row>
-    <row r="736" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C736" s="27" t="s">
-        <v>957</v>
-      </c>
-      <c r="D736" s="26" t="s">
-        <v>958</v>
-      </c>
-      <c r="E736" s="26" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="737" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C737" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="D737" s="26" t="s">
-        <v>961</v>
-      </c>
-      <c r="E737" s="26" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="738" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C738" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="D738" s="26" t="s">
-        <v>964</v>
-      </c>
-      <c r="E738" s="26" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="739" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C739" s="27" t="s">
-        <v>966</v>
-      </c>
-      <c r="D739" s="26" t="s">
-        <v>967</v>
-      </c>
-      <c r="E739" s="26" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="740" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C740" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="D740" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="E740" s="26" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="741" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>942</v>
+      </c>
+      <c r="E735" s="26" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="738" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C738" s="58" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="739" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C739" s="56" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D739" s="57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E739" s="33" t="s">
+        <v>1008</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="152">
     <mergeCell ref="C82:C90"/>
     <mergeCell ref="D82:D90"/>
     <mergeCell ref="C91:C104"/>
@@ -10976,44 +11028,42 @@
     <mergeCell ref="D578:D582"/>
     <mergeCell ref="C584:C586"/>
     <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C637:C639"/>
-    <mergeCell ref="D637:D639"/>
-    <mergeCell ref="C641:C648"/>
-    <mergeCell ref="D641:D648"/>
-    <mergeCell ref="C651:C659"/>
-    <mergeCell ref="D651:D659"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
     <mergeCell ref="C617:C623"/>
     <mergeCell ref="D617:D623"/>
     <mergeCell ref="C624:C629"/>
     <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C630:C635"/>
-    <mergeCell ref="D630:D635"/>
-    <mergeCell ref="C677:C681"/>
-    <mergeCell ref="D677:D681"/>
-    <mergeCell ref="C682:C689"/>
-    <mergeCell ref="D682:D689"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
+    <mergeCell ref="C729:C730"/>
+    <mergeCell ref="E729:E730"/>
+    <mergeCell ref="C710:C719"/>
+    <mergeCell ref="D710:D719"/>
+    <mergeCell ref="C720:C721"/>
+    <mergeCell ref="D720:D721"/>
+    <mergeCell ref="C723:C724"/>
+    <mergeCell ref="D723:D724"/>
     <mergeCell ref="C690:C694"/>
     <mergeCell ref="D690:D694"/>
-    <mergeCell ref="C660:C662"/>
-    <mergeCell ref="D660:D662"/>
-    <mergeCell ref="C666:C670"/>
-    <mergeCell ref="D666:D670"/>
-    <mergeCell ref="C673:C676"/>
-    <mergeCell ref="D673:D676"/>
-    <mergeCell ref="C734:C735"/>
-    <mergeCell ref="E734:E735"/>
-    <mergeCell ref="C715:C724"/>
-    <mergeCell ref="D715:D724"/>
-    <mergeCell ref="C725:C726"/>
-    <mergeCell ref="D725:D726"/>
-    <mergeCell ref="C728:C729"/>
-    <mergeCell ref="D728:D729"/>
     <mergeCell ref="C695:C699"/>
     <mergeCell ref="D695:D699"/>
-    <mergeCell ref="C700:C704"/>
-    <mergeCell ref="D700:D704"/>
-    <mergeCell ref="C705:C711"/>
-    <mergeCell ref="D705:D711"/>
+    <mergeCell ref="C700:C706"/>
+    <mergeCell ref="D700:D706"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -3553,15 +3553,29 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>원점 재 세팅 방법 (Zero degree set)</t>
+    <t>SOP</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>원점 세팅 (zero degree set)</t>
+    <t xml:space="preserve">엔코더 알람 발생
+엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
+엔코더 커넥터 핀 점검
+모터 상간 저항 확인
+An attempt to enable motor power failed because a severe encoder error previously occurred. Consequently, the encoder is not operational and permitting motor power to be enabled could result in the motor being unstable. Typically, the encoder in question is a serial absolute or incremental type and is either not communicating properly or must be reset. Please go to the following web page to view the serial encoder status and to clear any error conditions: Setup &gt; Hardware Tuning and Diagnostics &gt; Absolute Encoder. </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SOP</t>
+    <t>엔코더 알람 발생
+엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
+엔코더 커넥터 핀 점검
+모터 상간 저항 확인
+The controller hardware has failed to establish communication with a serial encoder or communication is loss after the encoder is initialized. The servo code may also issue an "Encoder not ready" error (-3139) depending upon the failure situation.
+In addition to issuing this error, the "Serial encoder communication error" bit (bit 26) of the "Encoder software status word" (DataID 12200) will be set to 1. If the communication error is detected during normal synchronized operation, the "Serial encoder ready" bit (bit 2) of the status word will be set to 0.
+This is a severe error and requires the encoder to be re-initialization and/or power cycled.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 재 세팅 방법</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3589,21 +3603,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">엔코더 알람 발생
-엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
-엔코더 커넥터 핀 점검
-모터 상간 저항 확인
-An attempt to enable motor power failed because a severe encoder error previously occurred. Consequently, the encoder is not operational and permitting motor power to be enabled could result in the motor being unstable. Typically, the encoder in question is a serial absolute or incremental type and is either not communicating properly or must be reset. Please go to the following web page to view the serial encoder status and to clear any error conditions: Setup &gt; Hardware Tuning and Diagnostics &gt; Absolute Encoder. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔코더 알람 발생
-엔코더 라인 점검. (로봇 - 컨트롤러 엔코더 케이블)
-엔코더 커넥터 핀 점검
-모터 상간 저항 확인
-The controller hardware has failed to establish communication with a serial encoder or communication is loss after the encoder is initialized. The servo code may also issue an "Encoder not ready" error (-3139) depending upon the failure situation.
-In addition to issuing this error, the "Serial encoder communication error" bit (bit 26) of the "Encoder software status word" (DataID 12200) will be set to 1. If the communication error is detected during normal synchronized operation, the "Serial encoder ready" bit (bit 2) of the status word will be set to 0.
-This is a severe error and requires the encoder to be re-initialization and/or power cycled.</t>
+    <t>원점</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3966,17 +3966,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4014,14 +4011,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4305,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="E690" sqref="E688:E690"/>
+    <sheetView tabSelected="1" topLeftCell="A733" workbookViewId="0">
+      <selection activeCell="C739" sqref="C739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4922,10 +4922,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="50">
+      <c r="C56" s="49">
         <v>1061</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4933,15 +4933,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="51"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="52"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -5145,10 +5145,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="44">
+      <c r="C77" s="43">
         <v>-208</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -5156,13 +5156,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="45"/>
-      <c r="D78" s="48"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="46"/>
-      <c r="D79" s="49"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -5190,10 +5190,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="44">
+      <c r="C82" s="43">
         <v>-211</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -5201,64 +5201,64 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="45"/>
-      <c r="D83" s="48"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="45"/>
-      <c r="D84" s="48"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="45"/>
-      <c r="D85" s="48"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="45"/>
-      <c r="D86" s="48"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="45"/>
-      <c r="D87" s="48"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="45"/>
-      <c r="D88" s="48"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="45"/>
-      <c r="D89" s="48"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="46"/>
-      <c r="D90" s="49"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="44">
+      <c r="C91" s="43">
         <v>-212</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D91" s="46" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
@@ -5266,88 +5266,88 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="45"/>
-      <c r="D92" s="48"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="45"/>
-      <c r="D93" s="48"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="45"/>
-      <c r="D94" s="48"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="45"/>
-      <c r="D95" s="48"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="45"/>
-      <c r="D96" s="48"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="45"/>
-      <c r="D97" s="48"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="45"/>
-      <c r="D98" s="48"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="45"/>
-      <c r="D99" s="48"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="45"/>
-      <c r="D100" s="48"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="45"/>
-      <c r="D101" s="48"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="45"/>
-      <c r="D102" s="48"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="45"/>
-      <c r="D103" s="48"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="46"/>
-      <c r="D104" s="49"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="47" t="s">
+      <c r="E107" s="46" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="48"/>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -5401,7 +5401,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="49"/>
+      <c r="E109" s="48"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -6737,10 +6737,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="44">
+      <c r="C239" s="43">
         <v>-776</v>
       </c>
-      <c r="D239" s="47" t="s">
+      <c r="D239" s="46" t="s">
         <v>352</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -6748,13 +6748,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="45"/>
-      <c r="D240" s="48"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="47"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="46"/>
-      <c r="D241" s="49"/>
+      <c r="C241" s="45"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="11" t="s">
         <v>354</v>
       </c>
@@ -7117,20 +7117,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="44">
+      <c r="C275" s="43">
         <v>-811</v>
       </c>
-      <c r="D275" s="47" t="s">
+      <c r="D275" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="E275" s="47" t="s">
+      <c r="E275" s="46" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="46"/>
-      <c r="D276" s="49"/>
-      <c r="E276" s="49"/>
+      <c r="C276" s="45"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -7166,10 +7166,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="44">
+      <c r="C280" s="43">
         <v>-1002</v>
       </c>
-      <c r="D280" s="47" t="s">
+      <c r="D280" s="46" t="s">
         <v>425</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -7177,22 +7177,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="45"/>
-      <c r="D281" s="48"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="46"/>
-      <c r="D282" s="49"/>
+      <c r="C282" s="45"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="15" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="44">
+      <c r="C283" s="43">
         <v>-1003</v>
       </c>
-      <c r="D283" s="47" t="s">
+      <c r="D283" s="46" t="s">
         <v>428</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -7200,13 +7200,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="45"/>
-      <c r="D284" s="48"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="47"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="46"/>
-      <c r="D285" s="49"/>
+      <c r="C285" s="45"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="15" t="s">
         <v>430</v>
       </c>
@@ -7223,10 +7223,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="44">
+      <c r="C287" s="43">
         <v>-1005</v>
       </c>
-      <c r="D287" s="47" t="s">
+      <c r="D287" s="46" t="s">
         <v>433</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -7234,22 +7234,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="45"/>
-      <c r="D288" s="48"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="46"/>
-      <c r="D289" s="49"/>
+      <c r="C289" s="45"/>
+      <c r="D289" s="48"/>
       <c r="E289" s="15" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="44">
+      <c r="C290" s="43">
         <v>-1006</v>
       </c>
-      <c r="D290" s="47" t="s">
+      <c r="D290" s="46" t="s">
         <v>436</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -7257,36 +7257,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="45"/>
-      <c r="D291" s="48"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="45"/>
-      <c r="D292" s="48"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="45"/>
-      <c r="D293" s="48"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="16" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="46"/>
-      <c r="D294" s="49"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="15" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="44">
+      <c r="C295" s="43">
         <v>-1007</v>
       </c>
-      <c r="D295" s="47" t="s">
+      <c r="D295" s="46" t="s">
         <v>441</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -7294,41 +7294,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="45"/>
-      <c r="D296" s="48"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="47"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="45"/>
-      <c r="D297" s="48"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="47"/>
       <c r="E297" s="19" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="45"/>
-      <c r="D298" s="48"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="45"/>
-      <c r="D299" s="48"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="16" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="46"/>
-      <c r="D300" s="49"/>
+      <c r="C300" s="45"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="15" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="44">
+      <c r="C301" s="43">
         <v>-1008</v>
       </c>
-      <c r="D301" s="47" t="s">
+      <c r="D301" s="46" t="s">
         <v>446</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -7336,22 +7336,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="45"/>
-      <c r="D302" s="48"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="46"/>
-      <c r="D303" s="49"/>
+      <c r="C303" s="45"/>
+      <c r="D303" s="48"/>
       <c r="E303" s="15" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="44">
+      <c r="C304" s="43">
         <v>-1009</v>
       </c>
-      <c r="D304" s="47" t="s">
+      <c r="D304" s="46" t="s">
         <v>449</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -7359,22 +7359,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="45"/>
-      <c r="D305" s="48"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="46"/>
-      <c r="D306" s="49"/>
+      <c r="C306" s="45"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="15" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="44">
+      <c r="C307" s="43">
         <v>-1010</v>
       </c>
-      <c r="D307" s="47" t="s">
+      <c r="D307" s="46" t="s">
         <v>452</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -7382,22 +7382,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="45"/>
-      <c r="D308" s="48"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="46"/>
-      <c r="D309" s="49"/>
+      <c r="C309" s="45"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="44">
+      <c r="C310" s="43">
         <v>-1011</v>
       </c>
-      <c r="D310" s="47" t="s">
+      <c r="D310" s="46" t="s">
         <v>455</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -7405,13 +7405,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="45"/>
-      <c r="D311" s="48"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="47"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="46"/>
-      <c r="D312" s="49"/>
+      <c r="C312" s="45"/>
+      <c r="D312" s="48"/>
       <c r="E312" s="15" t="s">
         <v>457</v>
       </c>
@@ -7428,10 +7428,10 @@
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="44">
+      <c r="C314" s="43">
         <v>-1013</v>
       </c>
-      <c r="D314" s="47" t="s">
+      <c r="D314" s="46" t="s">
         <v>459</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -7439,29 +7439,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="45"/>
-      <c r="D315" s="48"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="45"/>
-      <c r="D316" s="48"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="16" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="46"/>
-      <c r="D317" s="49"/>
+      <c r="C317" s="45"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C318" s="44">
+      <c r="C318" s="43">
         <v>-1014</v>
       </c>
-      <c r="D318" s="47" t="s">
+      <c r="D318" s="46" t="s">
         <v>463</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -7469,13 +7469,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="45"/>
-      <c r="D319" s="48"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="46"/>
-      <c r="D320" s="49"/>
+      <c r="C320" s="45"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="15" t="s">
         <v>465</v>
       </c>
@@ -7492,10 +7492,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="44">
+      <c r="C322" s="43">
         <v>-1016</v>
       </c>
-      <c r="D322" s="47" t="s">
+      <c r="D322" s="46" t="s">
         <v>468</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -7503,20 +7503,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="45"/>
-      <c r="D323" s="48"/>
+      <c r="C323" s="44"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="45"/>
-      <c r="D324" s="48"/>
+      <c r="C324" s="44"/>
+      <c r="D324" s="47"/>
       <c r="E324" s="12" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="46"/>
-      <c r="D325" s="49"/>
+      <c r="C325" s="45"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="11" t="s">
         <v>471</v>
       </c>
@@ -7544,10 +7544,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="44">
+      <c r="C328" s="43">
         <v>-1019</v>
       </c>
-      <c r="D328" s="47" t="s">
+      <c r="D328" s="46" t="s">
         <v>476</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -7555,22 +7555,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="45"/>
-      <c r="D329" s="48"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="47"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="46"/>
-      <c r="D330" s="49"/>
+      <c r="C330" s="45"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="44">
+      <c r="C331" s="43">
         <v>-1020</v>
       </c>
-      <c r="D331" s="47" t="s">
+      <c r="D331" s="46" t="s">
         <v>479</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -7578,34 +7578,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="45"/>
-      <c r="D332" s="48"/>
+      <c r="C332" s="44"/>
+      <c r="D332" s="47"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="45"/>
-      <c r="D333" s="48"/>
+      <c r="C333" s="44"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="12" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="45"/>
-      <c r="D334" s="48"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="47"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="46"/>
-      <c r="D335" s="49"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="11" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C336" s="44">
+      <c r="C336" s="43">
         <v>-1021</v>
       </c>
-      <c r="D336" s="47" t="s">
+      <c r="D336" s="46" t="s">
         <v>483</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -7613,13 +7613,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="45"/>
-      <c r="D337" s="48"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="46"/>
-      <c r="D338" s="49"/>
+      <c r="C338" s="45"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="15" t="s">
         <v>485</v>
       </c>
@@ -7669,10 +7669,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C343" s="44">
+      <c r="C343" s="43">
         <v>-1026</v>
       </c>
-      <c r="D343" s="47" t="s">
+      <c r="D343" s="46" t="s">
         <v>494</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -7680,34 +7680,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="45"/>
-      <c r="D344" s="48"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="45"/>
-      <c r="D345" s="48"/>
+      <c r="C345" s="44"/>
+      <c r="D345" s="47"/>
       <c r="E345" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="45"/>
-      <c r="D346" s="48"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="47"/>
       <c r="E346" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="45"/>
-      <c r="D347" s="48"/>
+      <c r="C347" s="44"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="46"/>
-      <c r="D348" s="49"/>
+      <c r="C348" s="45"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="11" t="s">
         <v>499</v>
       </c>
@@ -7724,10 +7724,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C350" s="44">
+      <c r="C350" s="43">
         <v>-1028</v>
       </c>
-      <c r="D350" s="47" t="s">
+      <c r="D350" s="46" t="s">
         <v>502</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -7735,48 +7735,48 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="45"/>
-      <c r="D351" s="48"/>
+      <c r="C351" s="44"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="45"/>
-      <c r="D352" s="48"/>
+      <c r="C352" s="44"/>
+      <c r="D352" s="47"/>
       <c r="E352" s="12" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="45"/>
-      <c r="D353" s="48"/>
+      <c r="C353" s="44"/>
+      <c r="D353" s="47"/>
       <c r="E353" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="45"/>
-      <c r="D354" s="48"/>
+      <c r="C354" s="44"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="12" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="45"/>
-      <c r="D355" s="48"/>
+      <c r="C355" s="44"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="46"/>
-      <c r="D356" s="49"/>
+      <c r="C356" s="45"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="15" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="44">
+      <c r="C357" s="43">
         <v>-1029</v>
       </c>
-      <c r="D357" s="47" t="s">
+      <c r="D357" s="46" t="s">
         <v>508</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -7784,41 +7784,41 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="45"/>
-      <c r="D358" s="48"/>
+      <c r="C358" s="44"/>
+      <c r="D358" s="47"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="45"/>
-      <c r="D359" s="48"/>
+      <c r="C359" s="44"/>
+      <c r="D359" s="47"/>
       <c r="E359" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="45"/>
-      <c r="D360" s="48"/>
+      <c r="C360" s="44"/>
+      <c r="D360" s="47"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="45"/>
-      <c r="D361" s="48"/>
+      <c r="C361" s="44"/>
+      <c r="D361" s="47"/>
       <c r="E361" s="16" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="46"/>
-      <c r="D362" s="49"/>
+      <c r="C362" s="45"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="44">
+      <c r="C363" s="43">
         <v>-1030</v>
       </c>
-      <c r="D363" s="47" t="s">
+      <c r="D363" s="46" t="s">
         <v>513</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -7826,25 +7826,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="45"/>
-      <c r="D364" s="48"/>
+      <c r="C364" s="44"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="45"/>
-      <c r="D365" s="48"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="47"/>
       <c r="E365" s="12" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="45"/>
-      <c r="D366" s="48"/>
+      <c r="C366" s="44"/>
+      <c r="D366" s="47"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="46"/>
-      <c r="D367" s="49"/>
+      <c r="C367" s="45"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="11" t="s">
         <v>516</v>
       </c>
@@ -7872,10 +7872,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="44">
+      <c r="C370" s="43">
         <v>-1033</v>
       </c>
-      <c r="D370" s="47" t="s">
+      <c r="D370" s="46" t="s">
         <v>521</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -7883,22 +7883,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="45"/>
-      <c r="D371" s="48"/>
+      <c r="C371" s="44"/>
+      <c r="D371" s="47"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="46"/>
-      <c r="D372" s="49"/>
+      <c r="C372" s="45"/>
+      <c r="D372" s="48"/>
       <c r="E372" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C373" s="44">
+      <c r="C373" s="43">
         <v>-1034</v>
       </c>
-      <c r="D373" s="47" t="s">
+      <c r="D373" s="46" t="s">
         <v>524</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -7906,22 +7906,22 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="45"/>
-      <c r="D374" s="48"/>
+      <c r="C374" s="44"/>
+      <c r="D374" s="47"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="46"/>
-      <c r="D375" s="49"/>
+      <c r="C375" s="45"/>
+      <c r="D375" s="48"/>
       <c r="E375" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C376" s="44">
+      <c r="C376" s="43">
         <v>-1035</v>
       </c>
-      <c r="D376" s="47" t="s">
+      <c r="D376" s="46" t="s">
         <v>527</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -7929,22 +7929,22 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="45"/>
-      <c r="D377" s="48"/>
+      <c r="C377" s="44"/>
+      <c r="D377" s="47"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="46"/>
-      <c r="D378" s="49"/>
+      <c r="C378" s="45"/>
+      <c r="D378" s="48"/>
       <c r="E378" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="44">
+      <c r="C379" s="43">
         <v>-1036</v>
       </c>
-      <c r="D379" s="47" t="s">
+      <c r="D379" s="46" t="s">
         <v>530</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -7952,22 +7952,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="45"/>
-      <c r="D380" s="48"/>
+      <c r="C380" s="44"/>
+      <c r="D380" s="47"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="46"/>
-      <c r="D381" s="49"/>
+      <c r="C381" s="45"/>
+      <c r="D381" s="48"/>
       <c r="E381" s="15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="44">
+      <c r="C382" s="43">
         <v>-1037</v>
       </c>
-      <c r="D382" s="47" t="s">
+      <c r="D382" s="46" t="s">
         <v>533</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -7975,22 +7975,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="45"/>
-      <c r="D383" s="48"/>
+      <c r="C383" s="44"/>
+      <c r="D383" s="47"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="46"/>
-      <c r="D384" s="49"/>
+      <c r="C384" s="45"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="44">
+      <c r="C385" s="43">
         <v>-1038</v>
       </c>
-      <c r="D385" s="47" t="s">
+      <c r="D385" s="46" t="s">
         <v>536</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -7998,22 +7998,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="45"/>
-      <c r="D386" s="48"/>
+      <c r="C386" s="44"/>
+      <c r="D386" s="47"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="46"/>
-      <c r="D387" s="49"/>
+      <c r="C387" s="45"/>
+      <c r="D387" s="48"/>
       <c r="E387" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="44">
+      <c r="C388" s="43">
         <v>-1039</v>
       </c>
-      <c r="D388" s="47" t="s">
+      <c r="D388" s="46" t="s">
         <v>539</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -8021,22 +8021,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="45"/>
-      <c r="D389" s="48"/>
+      <c r="C389" s="44"/>
+      <c r="D389" s="47"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="46"/>
-      <c r="D390" s="49"/>
+      <c r="C390" s="45"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="44">
+      <c r="C391" s="43">
         <v>-1040</v>
       </c>
-      <c r="D391" s="47" t="s">
+      <c r="D391" s="46" t="s">
         <v>542</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -8044,22 +8044,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="45"/>
-      <c r="D392" s="48"/>
+      <c r="C392" s="44"/>
+      <c r="D392" s="47"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="46"/>
-      <c r="D393" s="49"/>
+      <c r="C393" s="45"/>
+      <c r="D393" s="48"/>
       <c r="E393" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="44">
+      <c r="C394" s="43">
         <v>-1041</v>
       </c>
-      <c r="D394" s="47" t="s">
+      <c r="D394" s="46" t="s">
         <v>545</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -8067,13 +8067,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="45"/>
-      <c r="D395" s="48"/>
+      <c r="C395" s="44"/>
+      <c r="D395" s="47"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="46"/>
-      <c r="D396" s="49"/>
+      <c r="C396" s="45"/>
+      <c r="D396" s="48"/>
       <c r="E396" s="15" t="s">
         <v>547</v>
       </c>
@@ -8090,10 +8090,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="44">
+      <c r="C398" s="43">
         <v>-1043</v>
       </c>
-      <c r="D398" s="47" t="s">
+      <c r="D398" s="46" t="s">
         <v>550</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -8101,25 +8101,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="45"/>
-      <c r="D399" s="48"/>
+      <c r="C399" s="44"/>
+      <c r="D399" s="47"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="45"/>
-      <c r="D400" s="48"/>
+      <c r="C400" s="44"/>
+      <c r="D400" s="47"/>
       <c r="E400" s="12" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="45"/>
-      <c r="D401" s="48"/>
+      <c r="C401" s="44"/>
+      <c r="D401" s="47"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="46"/>
-      <c r="D402" s="49"/>
+      <c r="C402" s="45"/>
+      <c r="D402" s="48"/>
       <c r="E402" s="11" t="s">
         <v>553</v>
       </c>
@@ -8136,10 +8136,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="44">
+      <c r="C404" s="43">
         <v>-1045</v>
       </c>
-      <c r="D404" s="47" t="s">
+      <c r="D404" s="46" t="s">
         <v>556</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -8147,43 +8147,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="45"/>
-      <c r="D405" s="48"/>
+      <c r="C405" s="44"/>
+      <c r="D405" s="47"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="45"/>
-      <c r="D406" s="48"/>
+      <c r="C406" s="44"/>
+      <c r="D406" s="47"/>
       <c r="E406" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="45"/>
-      <c r="D407" s="48"/>
+      <c r="C407" s="44"/>
+      <c r="D407" s="47"/>
       <c r="E407" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="45"/>
-      <c r="D408" s="48"/>
+      <c r="C408" s="44"/>
+      <c r="D408" s="47"/>
       <c r="E408" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="46"/>
-      <c r="D409" s="49"/>
+      <c r="C409" s="45"/>
+      <c r="D409" s="48"/>
       <c r="E409" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="44">
+      <c r="C410" s="43">
         <v>-1046</v>
       </c>
-      <c r="D410" s="47" t="s">
+      <c r="D410" s="46" t="s">
         <v>562</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -8191,13 +8191,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="45"/>
-      <c r="D411" s="48"/>
+      <c r="C411" s="44"/>
+      <c r="D411" s="47"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="46"/>
-      <c r="D412" s="49"/>
+      <c r="C412" s="45"/>
+      <c r="D412" s="48"/>
       <c r="E412" s="15" t="s">
         <v>564</v>
       </c>
@@ -8247,10 +8247,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="44">
+      <c r="C417" s="43">
         <v>-1051</v>
       </c>
-      <c r="D417" s="47" t="s">
+      <c r="D417" s="46" t="s">
         <v>573</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -8258,29 +8258,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="45"/>
-      <c r="D418" s="48"/>
+      <c r="C418" s="44"/>
+      <c r="D418" s="47"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="45"/>
-      <c r="D419" s="48"/>
+      <c r="C419" s="44"/>
+      <c r="D419" s="47"/>
       <c r="E419" s="12" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="46"/>
-      <c r="D420" s="49"/>
+      <c r="C420" s="45"/>
+      <c r="D420" s="48"/>
       <c r="E420" s="11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="44">
+      <c r="C421" s="43">
         <v>-1052</v>
       </c>
-      <c r="D421" s="47" t="s">
+      <c r="D421" s="46" t="s">
         <v>577</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -8288,22 +8288,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="45"/>
-      <c r="D422" s="48"/>
+      <c r="C422" s="44"/>
+      <c r="D422" s="47"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="46"/>
-      <c r="D423" s="49"/>
+      <c r="C423" s="45"/>
+      <c r="D423" s="48"/>
       <c r="E423" s="11" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="44">
+      <c r="C424" s="43">
         <v>-1053</v>
       </c>
-      <c r="D424" s="47" t="s">
+      <c r="D424" s="46" t="s">
         <v>580</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -8311,13 +8311,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="45"/>
-      <c r="D425" s="48"/>
+      <c r="C425" s="44"/>
+      <c r="D425" s="47"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="46"/>
-      <c r="D426" s="49"/>
+      <c r="C426" s="45"/>
+      <c r="D426" s="48"/>
       <c r="E426" s="11" t="s">
         <v>582</v>
       </c>
@@ -8334,10 +8334,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="44">
+      <c r="C428" s="43">
         <v>-1055</v>
       </c>
-      <c r="D428" s="47" t="s">
+      <c r="D428" s="46" t="s">
         <v>585</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -8345,29 +8345,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="45"/>
-      <c r="D429" s="48"/>
+      <c r="C429" s="44"/>
+      <c r="D429" s="47"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="45"/>
-      <c r="D430" s="48"/>
+      <c r="C430" s="44"/>
+      <c r="D430" s="47"/>
       <c r="E430" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="46"/>
-      <c r="D431" s="49"/>
+      <c r="C431" s="45"/>
+      <c r="D431" s="48"/>
       <c r="E431" s="11" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="44">
+      <c r="C432" s="43">
         <v>-1056</v>
       </c>
-      <c r="D432" s="47" t="s">
+      <c r="D432" s="46" t="s">
         <v>589</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -8375,13 +8375,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="45"/>
-      <c r="D433" s="48"/>
+      <c r="C433" s="44"/>
+      <c r="D433" s="47"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="46"/>
-      <c r="D434" s="49"/>
+      <c r="C434" s="45"/>
+      <c r="D434" s="48"/>
       <c r="E434" s="11" t="s">
         <v>591</v>
       </c>
@@ -8740,10 +8740,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="44">
+      <c r="C468" s="43">
         <v>-1600</v>
       </c>
-      <c r="D468" s="47" t="s">
+      <c r="D468" s="46" t="s">
         <v>652</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -8751,15 +8751,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="45"/>
-      <c r="D469" s="48"/>
+      <c r="C469" s="44"/>
+      <c r="D469" s="47"/>
       <c r="E469" s="12" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="46"/>
-      <c r="D470" s="49"/>
+      <c r="C470" s="45"/>
+      <c r="D470" s="48"/>
       <c r="E470" s="11" t="s">
         <v>655</v>
       </c>
@@ -8853,10 +8853,10 @@
       </c>
     </row>
     <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="44">
+      <c r="C479" s="43">
         <v>-1610</v>
       </c>
-      <c r="D479" s="47" t="s">
+      <c r="D479" s="46" t="s">
         <v>672</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -8864,37 +8864,37 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="45"/>
-      <c r="D480" s="48"/>
+      <c r="C480" s="44"/>
+      <c r="D480" s="47"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="45"/>
-      <c r="D481" s="48"/>
+      <c r="C481" s="44"/>
+      <c r="D481" s="47"/>
       <c r="E481" s="12" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="45"/>
-      <c r="D482" s="48"/>
+      <c r="C482" s="44"/>
+      <c r="D482" s="47"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="45"/>
-      <c r="D483" s="48"/>
+      <c r="C483" s="44"/>
+      <c r="D483" s="47"/>
       <c r="E483" s="12" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="45"/>
-      <c r="D484" s="48"/>
+      <c r="C484" s="44"/>
+      <c r="D484" s="47"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="46"/>
-      <c r="D485" s="49"/>
+      <c r="C485" s="45"/>
+      <c r="D485" s="48"/>
       <c r="E485" s="11" t="s">
         <v>676</v>
       </c>
@@ -9279,10 +9279,10 @@
       <c r="E522" s="14"/>
     </row>
     <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="44">
+      <c r="C523" s="43">
         <v>-3014</v>
       </c>
-      <c r="D523" s="47" t="s">
+      <c r="D523" s="46" t="s">
         <v>736</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -9290,22 +9290,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="45"/>
-      <c r="D524" s="48"/>
+      <c r="C524" s="44"/>
+      <c r="D524" s="47"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="46"/>
-      <c r="D525" s="49"/>
+      <c r="C525" s="45"/>
+      <c r="D525" s="48"/>
       <c r="E525" s="11" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="44">
+      <c r="C526" s="43">
         <v>-3015</v>
       </c>
-      <c r="D526" s="47" t="s">
+      <c r="D526" s="46" t="s">
         <v>739</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -9313,13 +9313,13 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="45"/>
-      <c r="D527" s="48"/>
+      <c r="C527" s="44"/>
+      <c r="D527" s="47"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="46"/>
-      <c r="D528" s="49"/>
+      <c r="C528" s="45"/>
+      <c r="D528" s="48"/>
       <c r="E528" s="11" t="s">
         <v>741</v>
       </c>
@@ -9391,10 +9391,10 @@
       </c>
     </row>
     <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C535" s="44">
+      <c r="C535" s="43">
         <v>-3104</v>
       </c>
-      <c r="D535" s="47" t="s">
+      <c r="D535" s="46" t="s">
         <v>753</v>
       </c>
       <c r="E535" s="9" t="s">
@@ -9402,58 +9402,58 @@
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="45"/>
-      <c r="D536" s="48"/>
+      <c r="C536" s="44"/>
+      <c r="D536" s="47"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="45"/>
-      <c r="D537" s="48"/>
+      <c r="C537" s="44"/>
+      <c r="D537" s="47"/>
       <c r="E537" s="12" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="45"/>
-      <c r="D538" s="48"/>
+      <c r="C538" s="44"/>
+      <c r="D538" s="47"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="45"/>
-      <c r="D539" s="48"/>
+      <c r="C539" s="44"/>
+      <c r="D539" s="47"/>
       <c r="E539" s="12" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="45"/>
-      <c r="D540" s="48"/>
+      <c r="C540" s="44"/>
+      <c r="D540" s="47"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="45"/>
-      <c r="D541" s="48"/>
+      <c r="C541" s="44"/>
+      <c r="D541" s="47"/>
       <c r="E541" s="12" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="45"/>
-      <c r="D542" s="48"/>
+      <c r="C542" s="44"/>
+      <c r="D542" s="47"/>
       <c r="E542" s="12"/>
     </row>
     <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="46"/>
-      <c r="D543" s="49"/>
+      <c r="C543" s="45"/>
+      <c r="D543" s="48"/>
       <c r="E543" s="15" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C544" s="44">
+      <c r="C544" s="43">
         <v>-3105</v>
       </c>
-      <c r="D544" s="47" t="s">
+      <c r="D544" s="46" t="s">
         <v>759</v>
       </c>
       <c r="E544" s="9" t="s">
@@ -9461,34 +9461,34 @@
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="45"/>
-      <c r="D545" s="48"/>
+      <c r="C545" s="44"/>
+      <c r="D545" s="47"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="45"/>
-      <c r="D546" s="48"/>
+      <c r="C546" s="44"/>
+      <c r="D546" s="47"/>
       <c r="E546" s="12" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="45"/>
-      <c r="D547" s="48"/>
+      <c r="C547" s="44"/>
+      <c r="D547" s="47"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="46"/>
-      <c r="D548" s="49"/>
+      <c r="C548" s="45"/>
+      <c r="D548" s="48"/>
       <c r="E548" s="15" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="549" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C549" s="44">
+      <c r="C549" s="43">
         <v>-3106</v>
       </c>
-      <c r="D549" s="47" t="s">
+      <c r="D549" s="46" t="s">
         <v>763</v>
       </c>
       <c r="E549" s="9" t="s">
@@ -9496,135 +9496,135 @@
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="45"/>
-      <c r="D550" s="48"/>
+      <c r="C550" s="44"/>
+      <c r="D550" s="47"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C551" s="45"/>
-      <c r="D551" s="48"/>
+      <c r="C551" s="44"/>
+      <c r="D551" s="47"/>
       <c r="E551" s="12" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="45"/>
-      <c r="D552" s="48"/>
+      <c r="C552" s="44"/>
+      <c r="D552" s="47"/>
       <c r="E552" s="10"/>
     </row>
     <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="45"/>
-      <c r="D553" s="48"/>
+      <c r="C553" s="44"/>
+      <c r="D553" s="47"/>
       <c r="E553" s="12" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="45"/>
-      <c r="D554" s="48"/>
+      <c r="C554" s="44"/>
+      <c r="D554" s="47"/>
       <c r="E554" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="45"/>
-      <c r="D555" s="48"/>
+      <c r="C555" s="44"/>
+      <c r="D555" s="47"/>
       <c r="E555" s="12" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="45"/>
-      <c r="D556" s="48"/>
+      <c r="C556" s="44"/>
+      <c r="D556" s="47"/>
       <c r="E556" s="12" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="45"/>
-      <c r="D557" s="48"/>
+      <c r="C557" s="44"/>
+      <c r="D557" s="47"/>
       <c r="E557" s="12" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="45"/>
-      <c r="D558" s="48"/>
+      <c r="C558" s="44"/>
+      <c r="D558" s="47"/>
       <c r="E558" s="10"/>
     </row>
     <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="45"/>
-      <c r="D559" s="48"/>
+      <c r="C559" s="44"/>
+      <c r="D559" s="47"/>
       <c r="E559" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="45"/>
-      <c r="D560" s="48"/>
+      <c r="C560" s="44"/>
+      <c r="D560" s="47"/>
       <c r="E560" s="12"/>
     </row>
     <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="45"/>
-      <c r="D561" s="48"/>
+      <c r="C561" s="44"/>
+      <c r="D561" s="47"/>
       <c r="E561" s="16" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="45"/>
-      <c r="D562" s="48"/>
+      <c r="C562" s="44"/>
+      <c r="D562" s="47"/>
       <c r="E562" s="16" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="45"/>
-      <c r="D563" s="48"/>
+      <c r="C563" s="44"/>
+      <c r="D563" s="47"/>
       <c r="E563" s="16" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="45"/>
-      <c r="D564" s="48"/>
+      <c r="C564" s="44"/>
+      <c r="D564" s="47"/>
       <c r="E564" s="16" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="45"/>
-      <c r="D565" s="48"/>
+      <c r="C565" s="44"/>
+      <c r="D565" s="47"/>
       <c r="E565" s="16" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="45"/>
-      <c r="D566" s="48"/>
+      <c r="C566" s="44"/>
+      <c r="D566" s="47"/>
       <c r="E566" s="16" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="45"/>
-      <c r="D567" s="48"/>
+      <c r="C567" s="44"/>
+      <c r="D567" s="47"/>
       <c r="E567" s="16" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="46"/>
-      <c r="D568" s="49"/>
+      <c r="C568" s="45"/>
+      <c r="D568" s="48"/>
       <c r="E568" s="15" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="569" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C569" s="44">
+      <c r="C569" s="43">
         <v>-3107</v>
       </c>
-      <c r="D569" s="47" t="s">
+      <c r="D569" s="46" t="s">
         <v>780</v>
       </c>
       <c r="E569" s="9" t="s">
@@ -9632,22 +9632,22 @@
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="45"/>
-      <c r="D570" s="48"/>
+      <c r="C570" s="44"/>
+      <c r="D570" s="47"/>
       <c r="E570" s="12"/>
     </row>
     <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="46"/>
-      <c r="D571" s="49"/>
+      <c r="C571" s="45"/>
+      <c r="D571" s="48"/>
       <c r="E571" s="15" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="44">
+      <c r="C572" s="43">
         <v>-3108</v>
       </c>
-      <c r="D572" s="47" t="s">
+      <c r="D572" s="46" t="s">
         <v>783</v>
       </c>
       <c r="E572" s="9" t="s">
@@ -9655,20 +9655,20 @@
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="45"/>
-      <c r="D573" s="48"/>
+      <c r="C573" s="44"/>
+      <c r="D573" s="47"/>
       <c r="E573" s="12"/>
     </row>
     <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="46"/>
-      <c r="D574" s="49"/>
+      <c r="C574" s="45"/>
+      <c r="D574" s="48"/>
       <c r="E574" s="15"/>
     </row>
     <row r="575" spans="3:5" ht="234" x14ac:dyDescent="0.4">
-      <c r="C575" s="44">
+      <c r="C575" s="43">
         <v>-3109</v>
       </c>
-      <c r="D575" s="47" t="s">
+      <c r="D575" s="46" t="s">
         <v>784</v>
       </c>
       <c r="E575" s="9" t="s">
@@ -9676,20 +9676,20 @@
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="45"/>
-      <c r="D576" s="48"/>
+      <c r="C576" s="44"/>
+      <c r="D576" s="47"/>
       <c r="E576" s="12"/>
     </row>
     <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="46"/>
-      <c r="D577" s="49"/>
+      <c r="C577" s="45"/>
+      <c r="D577" s="48"/>
       <c r="E577" s="15"/>
     </row>
     <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="44">
+      <c r="C578" s="43">
         <v>-3110</v>
       </c>
-      <c r="D578" s="47" t="s">
+      <c r="D578" s="46" t="s">
         <v>785</v>
       </c>
       <c r="E578" s="9" t="s">
@@ -9697,23 +9697,23 @@
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="45"/>
-      <c r="D579" s="48"/>
+      <c r="C579" s="44"/>
+      <c r="D579" s="47"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="45"/>
-      <c r="D580" s="48"/>
+      <c r="C580" s="44"/>
+      <c r="D580" s="47"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="45"/>
-      <c r="D581" s="48"/>
+      <c r="C581" s="44"/>
+      <c r="D581" s="47"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="46"/>
-      <c r="D582" s="49"/>
+      <c r="C582" s="45"/>
+      <c r="D582" s="48"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9728,10 +9728,10 @@
       </c>
     </row>
     <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="44">
+      <c r="C584" s="43">
         <v>-3112</v>
       </c>
-      <c r="D584" s="47" t="s">
+      <c r="D584" s="46" t="s">
         <v>788</v>
       </c>
       <c r="E584" s="9" t="s">
@@ -9739,22 +9739,22 @@
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="45"/>
-      <c r="D585" s="48"/>
+      <c r="C585" s="44"/>
+      <c r="D585" s="47"/>
       <c r="E585" s="10"/>
     </row>
     <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="46"/>
-      <c r="D586" s="49"/>
+      <c r="C586" s="45"/>
+      <c r="D586" s="48"/>
       <c r="E586" s="11" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="44">
+      <c r="C587" s="43">
         <v>-3113</v>
       </c>
-      <c r="D587" s="47" t="s">
+      <c r="D587" s="46" t="s">
         <v>791</v>
       </c>
       <c r="E587" s="9" t="s">
@@ -9762,107 +9762,107 @@
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="45"/>
-      <c r="D588" s="48"/>
+      <c r="C588" s="44"/>
+      <c r="D588" s="47"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="45"/>
-      <c r="D589" s="48"/>
+      <c r="C589" s="44"/>
+      <c r="D589" s="47"/>
       <c r="E589" s="12" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="45"/>
-      <c r="D590" s="48"/>
+      <c r="C590" s="44"/>
+      <c r="D590" s="47"/>
       <c r="E590" s="10"/>
     </row>
     <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="45"/>
-      <c r="D591" s="48"/>
+      <c r="C591" s="44"/>
+      <c r="D591" s="47"/>
       <c r="E591" s="12" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="45"/>
-      <c r="D592" s="48"/>
+      <c r="C592" s="44"/>
+      <c r="D592" s="47"/>
       <c r="E592" s="12" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="45"/>
-      <c r="D593" s="48"/>
+      <c r="C593" s="44"/>
+      <c r="D593" s="47"/>
       <c r="E593" s="12" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="45"/>
-      <c r="D594" s="48"/>
+      <c r="C594" s="44"/>
+      <c r="D594" s="47"/>
       <c r="E594" s="12" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="45"/>
-      <c r="D595" s="48"/>
+      <c r="C595" s="44"/>
+      <c r="D595" s="47"/>
       <c r="E595" s="12" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="45"/>
-      <c r="D596" s="48"/>
+      <c r="C596" s="44"/>
+      <c r="D596" s="47"/>
       <c r="E596" s="12" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="45"/>
-      <c r="D597" s="48"/>
+      <c r="C597" s="44"/>
+      <c r="D597" s="47"/>
       <c r="E597" s="12" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="45"/>
-      <c r="D598" s="48"/>
+      <c r="C598" s="44"/>
+      <c r="D598" s="47"/>
       <c r="E598" s="12" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="45"/>
-      <c r="D599" s="48"/>
+      <c r="C599" s="44"/>
+      <c r="D599" s="47"/>
       <c r="E599" s="12" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="45"/>
-      <c r="D600" s="48"/>
+      <c r="C600" s="44"/>
+      <c r="D600" s="47"/>
       <c r="E600" s="12" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="45"/>
-      <c r="D601" s="48"/>
+      <c r="C601" s="44"/>
+      <c r="D601" s="47"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="45"/>
-      <c r="D602" s="48"/>
+      <c r="C602" s="44"/>
+      <c r="D602" s="47"/>
       <c r="E602" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="46"/>
-      <c r="D603" s="49"/>
+      <c r="C603" s="45"/>
+      <c r="D603" s="48"/>
       <c r="E603" s="11" t="s">
         <v>805</v>
       </c>
@@ -9879,10 +9879,10 @@
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="44">
+      <c r="C605" s="43">
         <v>-3115</v>
       </c>
-      <c r="D605" s="47" t="s">
+      <c r="D605" s="46" t="s">
         <v>808</v>
       </c>
       <c r="E605" s="9" t="s">
@@ -9890,13 +9890,13 @@
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="45"/>
-      <c r="D606" s="48"/>
+      <c r="C606" s="44"/>
+      <c r="D606" s="47"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="46"/>
-      <c r="D607" s="49"/>
+      <c r="C607" s="45"/>
+      <c r="D607" s="48"/>
       <c r="E607" s="11" t="s">
         <v>810</v>
       </c>
@@ -9911,10 +9911,10 @@
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="44">
+      <c r="C609" s="43">
         <v>-3117</v>
       </c>
-      <c r="D609" s="47" t="s">
+      <c r="D609" s="46" t="s">
         <v>812</v>
       </c>
       <c r="E609" s="9" t="s">
@@ -9922,32 +9922,32 @@
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="45"/>
-      <c r="D610" s="48"/>
+      <c r="C610" s="44"/>
+      <c r="D610" s="47"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="45"/>
-      <c r="D611" s="48"/>
+      <c r="C611" s="44"/>
+      <c r="D611" s="47"/>
       <c r="E611" s="12" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="45"/>
-      <c r="D612" s="48"/>
+      <c r="C612" s="44"/>
+      <c r="D612" s="47"/>
       <c r="E612" s="12" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="45"/>
-      <c r="D613" s="48"/>
+      <c r="C613" s="44"/>
+      <c r="D613" s="47"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="46"/>
-      <c r="D614" s="49"/>
+      <c r="C614" s="45"/>
+      <c r="D614" s="48"/>
       <c r="E614" s="11" t="s">
         <v>816</v>
       </c>
@@ -9975,10 +9975,10 @@
       </c>
     </row>
     <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="44">
+      <c r="C617" s="43">
         <v>-3120</v>
       </c>
-      <c r="D617" s="47" t="s">
+      <c r="D617" s="46" t="s">
         <v>821</v>
       </c>
       <c r="E617" s="9" t="s">
@@ -9986,50 +9986,50 @@
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="45"/>
-      <c r="D618" s="48"/>
+      <c r="C618" s="44"/>
+      <c r="D618" s="47"/>
       <c r="E618" s="10"/>
     </row>
     <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="45"/>
-      <c r="D619" s="48"/>
+      <c r="C619" s="44"/>
+      <c r="D619" s="47"/>
       <c r="E619" s="12" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="45"/>
-      <c r="D620" s="48"/>
+      <c r="C620" s="44"/>
+      <c r="D620" s="47"/>
       <c r="E620" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="45"/>
-      <c r="D621" s="48"/>
+      <c r="C621" s="44"/>
+      <c r="D621" s="47"/>
       <c r="E621" s="12" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="45"/>
-      <c r="D622" s="48"/>
+      <c r="C622" s="44"/>
+      <c r="D622" s="47"/>
       <c r="E622" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="46"/>
-      <c r="D623" s="49"/>
+      <c r="C623" s="45"/>
+      <c r="D623" s="48"/>
       <c r="E623" s="11" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="44">
+      <c r="C624" s="43">
         <v>-3121</v>
       </c>
-      <c r="D624" s="47" t="s">
+      <c r="D624" s="46" t="s">
         <v>828</v>
       </c>
       <c r="E624" s="9" t="s">
@@ -10037,32 +10037,32 @@
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="45"/>
-      <c r="D625" s="48"/>
+      <c r="C625" s="44"/>
+      <c r="D625" s="47"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="45"/>
-      <c r="D626" s="48"/>
+      <c r="C626" s="44"/>
+      <c r="D626" s="47"/>
       <c r="E626" s="12" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="45"/>
-      <c r="D627" s="48"/>
+      <c r="C627" s="44"/>
+      <c r="D627" s="47"/>
       <c r="E627" s="12" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="45"/>
-      <c r="D628" s="48"/>
+      <c r="C628" s="44"/>
+      <c r="D628" s="47"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="46"/>
-      <c r="D629" s="49"/>
+      <c r="C629" s="45"/>
+      <c r="D629" s="48"/>
       <c r="E629" s="11" t="s">
         <v>832</v>
       </c>
@@ -10090,10 +10090,10 @@
       </c>
     </row>
     <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="44">
+      <c r="C632" s="43">
         <v>-3124</v>
       </c>
-      <c r="D632" s="47" t="s">
+      <c r="D632" s="46" t="s">
         <v>836</v>
       </c>
       <c r="E632" s="9" t="s">
@@ -10101,13 +10101,13 @@
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="45"/>
-      <c r="D633" s="48"/>
+      <c r="C633" s="44"/>
+      <c r="D633" s="47"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="46"/>
-      <c r="D634" s="49"/>
+      <c r="C634" s="45"/>
+      <c r="D634" s="48"/>
       <c r="E634" s="11" t="s">
         <v>838</v>
       </c>
@@ -10124,10 +10124,10 @@
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="44">
+      <c r="C636" s="43">
         <v>-3126</v>
       </c>
-      <c r="D636" s="47" t="s">
+      <c r="D636" s="46" t="s">
         <v>841</v>
       </c>
       <c r="E636" s="9" t="s">
@@ -10135,44 +10135,44 @@
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="45"/>
-      <c r="D637" s="48"/>
+      <c r="C637" s="44"/>
+      <c r="D637" s="47"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="45"/>
-      <c r="D638" s="48"/>
+      <c r="C638" s="44"/>
+      <c r="D638" s="47"/>
       <c r="E638" s="12" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="45"/>
-      <c r="D639" s="48"/>
+      <c r="C639" s="44"/>
+      <c r="D639" s="47"/>
       <c r="E639" s="12" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="45"/>
-      <c r="D640" s="48"/>
+      <c r="C640" s="44"/>
+      <c r="D640" s="47"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="45"/>
-      <c r="D641" s="48"/>
+      <c r="C641" s="44"/>
+      <c r="D641" s="47"/>
       <c r="E641" s="12" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="45"/>
-      <c r="D642" s="48"/>
+      <c r="C642" s="44"/>
+      <c r="D642" s="47"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="46"/>
-      <c r="D643" s="49"/>
+      <c r="C643" s="45"/>
+      <c r="D643" s="48"/>
       <c r="E643" s="11" t="s">
         <v>846</v>
       </c>
@@ -10200,10 +10200,10 @@
       </c>
     </row>
     <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="44">
+      <c r="C646" s="43">
         <v>-3129</v>
       </c>
-      <c r="D646" s="47" t="s">
+      <c r="D646" s="46" t="s">
         <v>849</v>
       </c>
       <c r="E646" s="9" t="s">
@@ -10211,58 +10211,58 @@
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="45"/>
-      <c r="D647" s="48"/>
+      <c r="C647" s="44"/>
+      <c r="D647" s="47"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="45"/>
-      <c r="D648" s="48"/>
+      <c r="C648" s="44"/>
+      <c r="D648" s="47"/>
       <c r="E648" s="12" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="45"/>
-      <c r="D649" s="48"/>
+      <c r="C649" s="44"/>
+      <c r="D649" s="47"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="45"/>
-      <c r="D650" s="48"/>
+      <c r="C650" s="44"/>
+      <c r="D650" s="47"/>
       <c r="E650" s="12" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="45"/>
-      <c r="D651" s="48"/>
+      <c r="C651" s="44"/>
+      <c r="D651" s="47"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="45"/>
-      <c r="D652" s="48"/>
+      <c r="C652" s="44"/>
+      <c r="D652" s="47"/>
       <c r="E652" s="12" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="45"/>
-      <c r="D653" s="48"/>
+      <c r="C653" s="44"/>
+      <c r="D653" s="47"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="46"/>
-      <c r="D654" s="49"/>
+      <c r="C654" s="45"/>
+      <c r="D654" s="48"/>
       <c r="E654" s="11" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="44">
+      <c r="C655" s="43">
         <v>-3130</v>
       </c>
-      <c r="D655" s="47" t="s">
+      <c r="D655" s="46" t="s">
         <v>855</v>
       </c>
       <c r="E655" s="9" t="s">
@@ -10270,13 +10270,13 @@
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="45"/>
-      <c r="D656" s="48"/>
+      <c r="C656" s="44"/>
+      <c r="D656" s="47"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="46"/>
-      <c r="D657" s="49"/>
+      <c r="C657" s="45"/>
+      <c r="D657" s="48"/>
       <c r="E657" s="11" t="s">
         <v>857</v>
       </c>
@@ -10315,10 +10315,10 @@
       </c>
     </row>
     <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="44">
+      <c r="C661" s="43">
         <v>-3134</v>
       </c>
-      <c r="D661" s="47" t="s">
+      <c r="D661" s="46" t="s">
         <v>863</v>
       </c>
       <c r="E661" s="9" t="s">
@@ -10326,25 +10326,25 @@
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="45"/>
-      <c r="D662" s="48"/>
+      <c r="C662" s="44"/>
+      <c r="D662" s="47"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="45"/>
-      <c r="D663" s="48"/>
+      <c r="C663" s="44"/>
+      <c r="D663" s="47"/>
       <c r="E663" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="45"/>
-      <c r="D664" s="48"/>
+      <c r="C664" s="44"/>
+      <c r="D664" s="47"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="46"/>
-      <c r="D665" s="49"/>
+      <c r="C665" s="45"/>
+      <c r="D665" s="48"/>
       <c r="E665" s="11" t="s">
         <v>865</v>
       </c>
@@ -10372,10 +10372,10 @@
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="44">
+      <c r="C668" s="43">
         <v>-3137</v>
       </c>
-      <c r="D668" s="47" t="s">
+      <c r="D668" s="46" t="s">
         <v>870</v>
       </c>
       <c r="E668" s="9" t="s">
@@ -10383,29 +10383,29 @@
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="45"/>
-      <c r="D669" s="48"/>
+      <c r="C669" s="44"/>
+      <c r="D669" s="47"/>
       <c r="E669" s="10"/>
     </row>
     <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="45"/>
-      <c r="D670" s="48"/>
+      <c r="C670" s="44"/>
+      <c r="D670" s="47"/>
       <c r="E670" s="12" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="46"/>
-      <c r="D671" s="49"/>
+      <c r="C671" s="45"/>
+      <c r="D671" s="48"/>
       <c r="E671" s="11" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="44">
+      <c r="C672" s="43">
         <v>-3138</v>
       </c>
-      <c r="D672" s="47" t="s">
+      <c r="D672" s="46" t="s">
         <v>874</v>
       </c>
       <c r="E672" s="9" t="s">
@@ -10413,34 +10413,34 @@
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="45"/>
-      <c r="D673" s="48"/>
+      <c r="C673" s="44"/>
+      <c r="D673" s="47"/>
       <c r="E673" s="10"/>
     </row>
     <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="45"/>
-      <c r="D674" s="48"/>
+      <c r="C674" s="44"/>
+      <c r="D674" s="47"/>
       <c r="E674" s="12" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="45"/>
-      <c r="D675" s="48"/>
+      <c r="C675" s="44"/>
+      <c r="D675" s="47"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="46"/>
-      <c r="D676" s="49"/>
+      <c r="C676" s="45"/>
+      <c r="D676" s="48"/>
       <c r="E676" s="11" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="44">
+      <c r="C677" s="43">
         <v>-3139</v>
       </c>
-      <c r="D677" s="47" t="s">
+      <c r="D677" s="46" t="s">
         <v>878</v>
       </c>
       <c r="E677" s="9" t="s">
@@ -10448,86 +10448,86 @@
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="45"/>
-      <c r="D678" s="48"/>
+      <c r="C678" s="44"/>
+      <c r="D678" s="47"/>
       <c r="E678" s="10"/>
     </row>
     <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="45"/>
-      <c r="D679" s="48"/>
+      <c r="C679" s="44"/>
+      <c r="D679" s="47"/>
       <c r="E679" s="12" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="45"/>
-      <c r="D680" s="48"/>
+      <c r="C680" s="44"/>
+      <c r="D680" s="47"/>
       <c r="E680" s="12" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="45"/>
-      <c r="D681" s="48"/>
+      <c r="C681" s="44"/>
+      <c r="D681" s="47"/>
       <c r="E681" s="12" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="45"/>
-      <c r="D682" s="48"/>
+      <c r="C682" s="44"/>
+      <c r="D682" s="47"/>
       <c r="E682" s="12" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="45"/>
-      <c r="D683" s="48"/>
+      <c r="C683" s="44"/>
+      <c r="D683" s="47"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="46"/>
-      <c r="D684" s="49"/>
+      <c r="C684" s="45"/>
+      <c r="D684" s="48"/>
       <c r="E684" s="11" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="44">
+      <c r="C685" s="43">
         <v>-3140</v>
       </c>
-      <c r="D685" s="47" t="s">
+      <c r="D685" s="46" t="s">
         <v>885</v>
       </c>
       <c r="E685" s="9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="45"/>
-      <c r="D686" s="48"/>
+      <c r="C686" s="44"/>
+      <c r="D686" s="47"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="45"/>
-      <c r="D687" s="48"/>
+      <c r="C687" s="44"/>
+      <c r="D687" s="47"/>
       <c r="E687" s="12"/>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="45"/>
-      <c r="D688" s="48"/>
+      <c r="C688" s="44"/>
+      <c r="D688" s="47"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="46"/>
-      <c r="D689" s="49"/>
+      <c r="C689" s="45"/>
+      <c r="D689" s="48"/>
       <c r="E689" s="11"/>
     </row>
     <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="44">
+      <c r="C690" s="43">
         <v>-3141</v>
       </c>
-      <c r="D690" s="47" t="s">
+      <c r="D690" s="46" t="s">
         <v>886</v>
       </c>
       <c r="E690" s="9" t="s">
@@ -10535,34 +10535,34 @@
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="45"/>
-      <c r="D691" s="48"/>
+      <c r="C691" s="44"/>
+      <c r="D691" s="47"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="45"/>
-      <c r="D692" s="48"/>
+      <c r="C692" s="44"/>
+      <c r="D692" s="47"/>
       <c r="E692" s="12" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="45"/>
-      <c r="D693" s="48"/>
+      <c r="C693" s="44"/>
+      <c r="D693" s="47"/>
       <c r="E693" s="10"/>
     </row>
     <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="46"/>
-      <c r="D694" s="49"/>
+      <c r="C694" s="45"/>
+      <c r="D694" s="48"/>
       <c r="E694" s="11" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="44">
+      <c r="C695" s="43">
         <v>-3142</v>
       </c>
-      <c r="D695" s="47" t="s">
+      <c r="D695" s="46" t="s">
         <v>889</v>
       </c>
       <c r="E695" s="9" t="s">
@@ -10570,34 +10570,34 @@
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="45"/>
-      <c r="D696" s="48"/>
+      <c r="C696" s="44"/>
+      <c r="D696" s="47"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="45"/>
-      <c r="D697" s="48"/>
+      <c r="C697" s="44"/>
+      <c r="D697" s="47"/>
       <c r="E697" s="12" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="45"/>
-      <c r="D698" s="48"/>
+      <c r="C698" s="44"/>
+      <c r="D698" s="47"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="46"/>
-      <c r="D699" s="49"/>
+      <c r="C699" s="45"/>
+      <c r="D699" s="48"/>
       <c r="E699" s="11" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="44">
+      <c r="C700" s="43">
         <v>-3143</v>
       </c>
-      <c r="D700" s="47" t="s">
+      <c r="D700" s="46" t="s">
         <v>892</v>
       </c>
       <c r="E700" s="9" t="s">
@@ -10605,37 +10605,37 @@
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="45"/>
-      <c r="D701" s="48"/>
+      <c r="C701" s="44"/>
+      <c r="D701" s="47"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="45"/>
-      <c r="D702" s="48"/>
+      <c r="C702" s="44"/>
+      <c r="D702" s="47"/>
       <c r="E702" s="12" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="45"/>
-      <c r="D703" s="48"/>
+      <c r="C703" s="44"/>
+      <c r="D703" s="47"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="45"/>
-      <c r="D704" s="48"/>
+      <c r="C704" s="44"/>
+      <c r="D704" s="47"/>
       <c r="E704" s="12" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="45"/>
-      <c r="D705" s="48"/>
+      <c r="C705" s="44"/>
+      <c r="D705" s="47"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="46"/>
-      <c r="D706" s="49"/>
+      <c r="C706" s="45"/>
+      <c r="D706" s="48"/>
       <c r="E706" s="11" t="s">
         <v>896</v>
       </c>
@@ -10670,14 +10670,14 @@
         <v>901</v>
       </c>
       <c r="E709" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="44">
+      <c r="C710" s="43">
         <v>-3147</v>
       </c>
-      <c r="D710" s="47" t="s">
+      <c r="D710" s="46" t="s">
         <v>902</v>
       </c>
       <c r="E710" s="21" t="s">
@@ -10685,55 +10685,55 @@
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="45"/>
-      <c r="D711" s="48"/>
+      <c r="C711" s="44"/>
+      <c r="D711" s="47"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="45"/>
-      <c r="D712" s="48"/>
+      <c r="C712" s="44"/>
+      <c r="D712" s="47"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="45"/>
-      <c r="D713" s="48"/>
+      <c r="C713" s="44"/>
+      <c r="D713" s="47"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="45"/>
-      <c r="D714" s="48"/>
+      <c r="C714" s="44"/>
+      <c r="D714" s="47"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="45"/>
-      <c r="D715" s="48"/>
+      <c r="C715" s="44"/>
+      <c r="D715" s="47"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="45"/>
-      <c r="D716" s="48"/>
+      <c r="C716" s="44"/>
+      <c r="D716" s="47"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="45"/>
-      <c r="D717" s="48"/>
+      <c r="C717" s="44"/>
+      <c r="D717" s="47"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="45"/>
-      <c r="D718" s="48"/>
+      <c r="C718" s="44"/>
+      <c r="D718" s="47"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="46"/>
-      <c r="D719" s="49"/>
+      <c r="C719" s="45"/>
+      <c r="D719" s="48"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="40" t="s">
+      <c r="C720" s="55" t="s">
         <v>903</v>
       </c>
-      <c r="D720" s="42" t="s">
+      <c r="D720" s="57" t="s">
         <v>904</v>
       </c>
       <c r="E720" s="25" t="s">
@@ -10741,8 +10741,8 @@
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="41"/>
-      <c r="D721" s="43"/>
+      <c r="C721" s="56"/>
+      <c r="D721" s="58"/>
       <c r="E721" s="26" t="s">
         <v>906</v>
       </c>
@@ -10759,10 +10759,10 @@
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="40" t="s">
+      <c r="C723" s="55" t="s">
         <v>910</v>
       </c>
-      <c r="D723" s="42" t="s">
+      <c r="D723" s="57" t="s">
         <v>911</v>
       </c>
       <c r="E723" s="28" t="s">
@@ -10770,8 +10770,8 @@
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="41"/>
-      <c r="D724" s="43"/>
+      <c r="C724" s="56"/>
+      <c r="D724" s="58"/>
       <c r="E724" s="26" t="s">
         <v>912</v>
       </c>
@@ -10821,22 +10821,22 @@
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="40" t="s">
+      <c r="C729" s="55" t="s">
         <v>925</v>
       </c>
       <c r="D729" s="28" t="s">
         <v>926</v>
       </c>
-      <c r="E729" s="42" t="s">
+      <c r="E729" s="57" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="41"/>
+      <c r="C730" s="56"/>
       <c r="D730" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="E730" s="43"/>
+      <c r="E730" s="58"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
@@ -10895,161 +10895,23 @@
     </row>
     <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="738" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C738" s="58" t="s">
-        <v>1007</v>
+      <c r="C738" s="42" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="739" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C739" s="56" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D739" s="57" t="s">
-        <v>1005</v>
+      <c r="C739" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D739" s="41" t="s">
+        <v>1008</v>
       </c>
       <c r="E739" s="33" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -11064,6 +10926,144 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -2142,12 +2142,6 @@
     <t xml:space="preserve">When the system was restarted, the "Software Reset" switch on the MCIM Selector Switch was set to the ON state. This forced the system to read in the default configuration files (*.PAC) instead of the standard files. This feature should be used if a configuration files becomes corrupted or a setting inadvertently make the system unusable. </t>
   </si>
   <si>
-    <t>External E-STOP</t>
-  </si>
-  <si>
-    <t>A front panel E-Stop loop ("ESTOP_L 1" or "ESTOP_L 2") has been broken and the status signal "External ESTOP_L" is asserted, indicating that external equipment is the source of the E-Stop.</t>
-  </si>
-  <si>
     <t>Watchdog timer expired</t>
   </si>
   <si>
@@ -3604,6 +3598,25 @@
   </si>
   <si>
     <t>원점</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>External E-STOP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>004 알람이랑 동일.
+EMO 시그널 인가되었을 경우 알람 발생
+외부 E-Stop신호감지. 외부에서 E-Stop신호가 들어오는지를 확인 후 클리어
+Switch 접점  
+EMO 스위치 눌림 확인 
+EMO 스위치 시계 방향으로 돌려서 EMO 스위치 해제 
+티칭펜던트 뒷면 데드맨 스위치 ( 1단 ) 유지 상태에서 펜던트(TP) CLR 키 눌러 EMO 해제
+장비 에서 보내 EMO Signal Input 불량  ( 장비 외부 신호 때문에 에러 발생 )
+제어기 유저 EMO 커넥터 1,2번점퍼 , 4,5번 점퍼 하여서 004 에러 해제 테스트  
+점퍼 해서 004 에러 해제 된다면 외부 EMO 시그널 장비 쪽 점검
+Control Box EM-STOP S/W 눌림 확인
+A front panel E-Stop loop ("ESTOP_L 1" or "ESTOP_L 2") has been broken and the status signal "External ESTOP_L" is asserted, indicating that external equipment is the source of the E-Stop.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3975,6 +3988,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4010,18 +4035,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4305,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A733" workbookViewId="0">
-      <selection activeCell="C739" sqref="C739"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="E472" sqref="E472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4318,13 +4331,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E1" t="s">
         <v>944</v>
-      </c>
-      <c r="D1" t="s">
-        <v>945</v>
-      </c>
-      <c r="E1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4332,10 +4345,10 @@
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4357,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4368,7 +4381,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4379,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4387,10 +4400,10 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4401,7 +4414,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4409,10 +4422,10 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4423,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4434,7 +4447,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4445,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4456,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4467,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4478,7 +4491,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4489,7 +4502,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4500,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4511,7 +4524,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4533,7 +4546,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4541,10 +4554,10 @@
         <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4552,10 +4565,10 @@
         <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4563,10 +4576,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4574,10 +4587,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4588,7 +4601,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4599,7 +4612,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4621,7 +4634,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4632,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4643,7 +4656,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4654,7 +4667,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4665,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4676,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4687,7 +4700,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4698,7 +4711,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4709,7 +4722,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4720,7 +4733,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4731,7 +4744,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4742,7 +4755,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4922,10 +4935,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="49">
+      <c r="C56" s="53">
         <v>1061</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4933,15 +4946,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="50"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5042,7 +5055,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5064,7 +5077,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5145,10 +5158,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="43">
+      <c r="C77" s="47">
         <v>-208</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -5156,13 +5169,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="44"/>
-      <c r="D78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="45"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -5190,10 +5203,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="43">
+      <c r="C82" s="47">
         <v>-211</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="50" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -5201,153 +5214,153 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="44"/>
-      <c r="D83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="44"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="51"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="44"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="44"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="51"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="44"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="44"/>
-      <c r="D89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="45"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="43">
+      <c r="C91" s="47">
         <v>-212</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="50" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="44"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="44"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="44"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="51"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="44"/>
-      <c r="D96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="44"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="44"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="44"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="44"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="44"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="44"/>
-      <c r="D103" s="47"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="45"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -5381,7 +5394,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5392,7 +5405,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="47"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -5401,7 +5414,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="52"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -5675,7 +5688,7 @@
         <v>186</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6737,10 +6750,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="43">
+      <c r="C239" s="47">
         <v>-776</v>
       </c>
-      <c r="D239" s="46" t="s">
+      <c r="D239" s="50" t="s">
         <v>352</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -6748,13 +6761,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="44"/>
-      <c r="D240" s="47"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="51"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="45"/>
-      <c r="D241" s="48"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="11" t="s">
         <v>354</v>
       </c>
@@ -7117,20 +7130,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="43">
+      <c r="C275" s="47">
         <v>-811</v>
       </c>
-      <c r="D275" s="46" t="s">
+      <c r="D275" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="50" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="45"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -7166,10 +7179,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="43">
+      <c r="C280" s="47">
         <v>-1002</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="50" t="s">
         <v>425</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -7177,22 +7190,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="44"/>
-      <c r="D281" s="47"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="51"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="45"/>
-      <c r="D282" s="48"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="52"/>
       <c r="E282" s="15" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="43">
+      <c r="C283" s="47">
         <v>-1003</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="50" t="s">
         <v>428</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -7200,13 +7213,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="44"/>
-      <c r="D284" s="47"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="51"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="45"/>
-      <c r="D285" s="48"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="52"/>
       <c r="E285" s="15" t="s">
         <v>430</v>
       </c>
@@ -7223,10 +7236,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="43">
+      <c r="C287" s="47">
         <v>-1005</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="50" t="s">
         <v>433</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -7234,22 +7247,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="44"/>
-      <c r="D288" s="47"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="51"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="45"/>
-      <c r="D289" s="48"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="52"/>
       <c r="E289" s="15" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="43">
+      <c r="C290" s="47">
         <v>-1006</v>
       </c>
-      <c r="D290" s="46" t="s">
+      <c r="D290" s="50" t="s">
         <v>436</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -7257,36 +7270,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="44"/>
-      <c r="D291" s="47"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="51"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="44"/>
-      <c r="D292" s="47"/>
+      <c r="C292" s="48"/>
+      <c r="D292" s="51"/>
       <c r="E292" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="44"/>
-      <c r="D293" s="47"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="51"/>
       <c r="E293" s="16" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="45"/>
-      <c r="D294" s="48"/>
+      <c r="C294" s="49"/>
+      <c r="D294" s="52"/>
       <c r="E294" s="15" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="43">
+      <c r="C295" s="47">
         <v>-1007</v>
       </c>
-      <c r="D295" s="46" t="s">
+      <c r="D295" s="50" t="s">
         <v>441</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -7294,41 +7307,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="44"/>
-      <c r="D296" s="47"/>
+      <c r="C296" s="48"/>
+      <c r="D296" s="51"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="44"/>
-      <c r="D297" s="47"/>
+      <c r="C297" s="48"/>
+      <c r="D297" s="51"/>
       <c r="E297" s="19" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="44"/>
-      <c r="D298" s="47"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="51"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="44"/>
-      <c r="D299" s="47"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="51"/>
       <c r="E299" s="16" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="45"/>
-      <c r="D300" s="48"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="52"/>
       <c r="E300" s="15" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
+      <c r="C301" s="47">
         <v>-1008</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="50" t="s">
         <v>446</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -7336,22 +7349,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="44"/>
-      <c r="D302" s="47"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="51"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="45"/>
-      <c r="D303" s="48"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="52"/>
       <c r="E303" s="15" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="43">
+      <c r="C304" s="47">
         <v>-1009</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="50" t="s">
         <v>449</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -7359,22 +7372,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="44"/>
-      <c r="D305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="51"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="45"/>
-      <c r="D306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="52"/>
       <c r="E306" s="15" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="43">
+      <c r="C307" s="47">
         <v>-1010</v>
       </c>
-      <c r="D307" s="46" t="s">
+      <c r="D307" s="50" t="s">
         <v>452</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -7382,22 +7395,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="44"/>
-      <c r="D308" s="47"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="51"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="45"/>
-      <c r="D309" s="48"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="52"/>
       <c r="E309" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="43">
+      <c r="C310" s="47">
         <v>-1011</v>
       </c>
-      <c r="D310" s="46" t="s">
+      <c r="D310" s="50" t="s">
         <v>455</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -7405,13 +7418,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="44"/>
-      <c r="D311" s="47"/>
+      <c r="C311" s="48"/>
+      <c r="D311" s="51"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="45"/>
-      <c r="D312" s="48"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="52"/>
       <c r="E312" s="15" t="s">
         <v>457</v>
       </c>
@@ -7424,14 +7437,14 @@
         <v>458</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="43">
+      <c r="C314" s="47">
         <v>-1013</v>
       </c>
-      <c r="D314" s="46" t="s">
+      <c r="D314" s="50" t="s">
         <v>459</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -7439,29 +7452,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="44"/>
-      <c r="D315" s="47"/>
+      <c r="C315" s="48"/>
+      <c r="D315" s="51"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="44"/>
-      <c r="D316" s="47"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="51"/>
       <c r="E316" s="16" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="45"/>
-      <c r="D317" s="48"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="52"/>
       <c r="E317" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
+      <c r="C318" s="47">
         <v>-1014</v>
       </c>
-      <c r="D318" s="46" t="s">
+      <c r="D318" s="50" t="s">
         <v>463</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -7469,13 +7482,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="44"/>
-      <c r="D319" s="47"/>
+      <c r="C319" s="48"/>
+      <c r="D319" s="51"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="45"/>
-      <c r="D320" s="48"/>
+      <c r="C320" s="49"/>
+      <c r="D320" s="52"/>
       <c r="E320" s="15" t="s">
         <v>465</v>
       </c>
@@ -7492,10 +7505,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="43">
+      <c r="C322" s="47">
         <v>-1016</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="50" t="s">
         <v>468</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -7503,20 +7516,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="44"/>
-      <c r="D323" s="47"/>
+      <c r="C323" s="48"/>
+      <c r="D323" s="51"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="44"/>
-      <c r="D324" s="47"/>
+      <c r="C324" s="48"/>
+      <c r="D324" s="51"/>
       <c r="E324" s="12" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="45"/>
-      <c r="D325" s="48"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="52"/>
       <c r="E325" s="11" t="s">
         <v>471</v>
       </c>
@@ -7544,10 +7557,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="43">
+      <c r="C328" s="47">
         <v>-1019</v>
       </c>
-      <c r="D328" s="46" t="s">
+      <c r="D328" s="50" t="s">
         <v>476</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -7555,22 +7568,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="44"/>
-      <c r="D329" s="47"/>
+      <c r="C329" s="48"/>
+      <c r="D329" s="51"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="45"/>
-      <c r="D330" s="48"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="52"/>
       <c r="E330" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="43">
+      <c r="C331" s="47">
         <v>-1020</v>
       </c>
-      <c r="D331" s="46" t="s">
+      <c r="D331" s="50" t="s">
         <v>479</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -7578,34 +7591,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="44"/>
-      <c r="D332" s="47"/>
+      <c r="C332" s="48"/>
+      <c r="D332" s="51"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="44"/>
-      <c r="D333" s="47"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="51"/>
       <c r="E333" s="12" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="44"/>
-      <c r="D334" s="47"/>
+      <c r="C334" s="48"/>
+      <c r="D334" s="51"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="45"/>
-      <c r="D335" s="48"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="52"/>
       <c r="E335" s="11" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C336" s="43">
+      <c r="C336" s="47">
         <v>-1021</v>
       </c>
-      <c r="D336" s="46" t="s">
+      <c r="D336" s="50" t="s">
         <v>483</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -7613,13 +7626,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="44"/>
-      <c r="D337" s="47"/>
+      <c r="C337" s="48"/>
+      <c r="D337" s="51"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="45"/>
-      <c r="D338" s="48"/>
+      <c r="C338" s="49"/>
+      <c r="D338" s="52"/>
       <c r="E338" s="15" t="s">
         <v>485</v>
       </c>
@@ -7669,10 +7682,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C343" s="43">
+      <c r="C343" s="47">
         <v>-1026</v>
       </c>
-      <c r="D343" s="46" t="s">
+      <c r="D343" s="50" t="s">
         <v>494</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -7680,34 +7693,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="44"/>
-      <c r="D344" s="47"/>
+      <c r="C344" s="48"/>
+      <c r="D344" s="51"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="44"/>
-      <c r="D345" s="47"/>
+      <c r="C345" s="48"/>
+      <c r="D345" s="51"/>
       <c r="E345" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="44"/>
-      <c r="D346" s="47"/>
+      <c r="C346" s="48"/>
+      <c r="D346" s="51"/>
       <c r="E346" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="44"/>
-      <c r="D347" s="47"/>
+      <c r="C347" s="48"/>
+      <c r="D347" s="51"/>
       <c r="E347" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="45"/>
-      <c r="D348" s="48"/>
+      <c r="C348" s="49"/>
+      <c r="D348" s="52"/>
       <c r="E348" s="11" t="s">
         <v>499</v>
       </c>
@@ -7724,10 +7737,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C350" s="43">
+      <c r="C350" s="47">
         <v>-1028</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="50" t="s">
         <v>502</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -7735,48 +7748,48 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="44"/>
-      <c r="D351" s="47"/>
+      <c r="C351" s="48"/>
+      <c r="D351" s="51"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="44"/>
-      <c r="D352" s="47"/>
+      <c r="C352" s="48"/>
+      <c r="D352" s="51"/>
       <c r="E352" s="12" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="44"/>
-      <c r="D353" s="47"/>
+      <c r="C353" s="48"/>
+      <c r="D353" s="51"/>
       <c r="E353" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="44"/>
-      <c r="D354" s="47"/>
+      <c r="C354" s="48"/>
+      <c r="D354" s="51"/>
       <c r="E354" s="12" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="44"/>
-      <c r="D355" s="47"/>
+      <c r="C355" s="48"/>
+      <c r="D355" s="51"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="45"/>
-      <c r="D356" s="48"/>
+      <c r="C356" s="49"/>
+      <c r="D356" s="52"/>
       <c r="E356" s="15" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="43">
+      <c r="C357" s="47">
         <v>-1029</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="50" t="s">
         <v>508</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -7784,41 +7797,41 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="44"/>
-      <c r="D358" s="47"/>
+      <c r="C358" s="48"/>
+      <c r="D358" s="51"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="44"/>
-      <c r="D359" s="47"/>
+      <c r="C359" s="48"/>
+      <c r="D359" s="51"/>
       <c r="E359" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="44"/>
-      <c r="D360" s="47"/>
+      <c r="C360" s="48"/>
+      <c r="D360" s="51"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="44"/>
-      <c r="D361" s="47"/>
+      <c r="C361" s="48"/>
+      <c r="D361" s="51"/>
       <c r="E361" s="16" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="45"/>
-      <c r="D362" s="48"/>
+      <c r="C362" s="49"/>
+      <c r="D362" s="52"/>
       <c r="E362" s="15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="43">
+      <c r="C363" s="47">
         <v>-1030</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="50" t="s">
         <v>513</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -7826,25 +7839,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="44"/>
-      <c r="D364" s="47"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="51"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="44"/>
-      <c r="D365" s="47"/>
+      <c r="C365" s="48"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="12" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="44"/>
-      <c r="D366" s="47"/>
+      <c r="C366" s="48"/>
+      <c r="D366" s="51"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="45"/>
-      <c r="D367" s="48"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="52"/>
       <c r="E367" s="11" t="s">
         <v>516</v>
       </c>
@@ -7872,10 +7885,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="43">
+      <c r="C370" s="47">
         <v>-1033</v>
       </c>
-      <c r="D370" s="46" t="s">
+      <c r="D370" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -7883,22 +7896,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="44"/>
-      <c r="D371" s="47"/>
+      <c r="C371" s="48"/>
+      <c r="D371" s="51"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="45"/>
-      <c r="D372" s="48"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="52"/>
       <c r="E372" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C373" s="43">
+      <c r="C373" s="47">
         <v>-1034</v>
       </c>
-      <c r="D373" s="46" t="s">
+      <c r="D373" s="50" t="s">
         <v>524</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -7906,22 +7919,22 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="44"/>
-      <c r="D374" s="47"/>
+      <c r="C374" s="48"/>
+      <c r="D374" s="51"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="45"/>
-      <c r="D375" s="48"/>
+      <c r="C375" s="49"/>
+      <c r="D375" s="52"/>
       <c r="E375" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C376" s="43">
+      <c r="C376" s="47">
         <v>-1035</v>
       </c>
-      <c r="D376" s="46" t="s">
+      <c r="D376" s="50" t="s">
         <v>527</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -7929,22 +7942,22 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="44"/>
-      <c r="D377" s="47"/>
+      <c r="C377" s="48"/>
+      <c r="D377" s="51"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="45"/>
-      <c r="D378" s="48"/>
+      <c r="C378" s="49"/>
+      <c r="D378" s="52"/>
       <c r="E378" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="43">
+      <c r="C379" s="47">
         <v>-1036</v>
       </c>
-      <c r="D379" s="46" t="s">
+      <c r="D379" s="50" t="s">
         <v>530</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -7952,22 +7965,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="44"/>
-      <c r="D380" s="47"/>
+      <c r="C380" s="48"/>
+      <c r="D380" s="51"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="45"/>
-      <c r="D381" s="48"/>
+      <c r="C381" s="49"/>
+      <c r="D381" s="52"/>
       <c r="E381" s="15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="43">
+      <c r="C382" s="47">
         <v>-1037</v>
       </c>
-      <c r="D382" s="46" t="s">
+      <c r="D382" s="50" t="s">
         <v>533</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -7975,22 +7988,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="44"/>
-      <c r="D383" s="47"/>
+      <c r="C383" s="48"/>
+      <c r="D383" s="51"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="45"/>
-      <c r="D384" s="48"/>
+      <c r="C384" s="49"/>
+      <c r="D384" s="52"/>
       <c r="E384" s="15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="43">
+      <c r="C385" s="47">
         <v>-1038</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="50" t="s">
         <v>536</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -7998,22 +8011,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="44"/>
-      <c r="D386" s="47"/>
+      <c r="C386" s="48"/>
+      <c r="D386" s="51"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="45"/>
-      <c r="D387" s="48"/>
+      <c r="C387" s="49"/>
+      <c r="D387" s="52"/>
       <c r="E387" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="43">
+      <c r="C388" s="47">
         <v>-1039</v>
       </c>
-      <c r="D388" s="46" t="s">
+      <c r="D388" s="50" t="s">
         <v>539</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -8021,22 +8034,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="44"/>
-      <c r="D389" s="47"/>
+      <c r="C389" s="48"/>
+      <c r="D389" s="51"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="45"/>
-      <c r="D390" s="48"/>
+      <c r="C390" s="49"/>
+      <c r="D390" s="52"/>
       <c r="E390" s="15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="43">
+      <c r="C391" s="47">
         <v>-1040</v>
       </c>
-      <c r="D391" s="46" t="s">
+      <c r="D391" s="50" t="s">
         <v>542</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -8044,22 +8057,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="44"/>
-      <c r="D392" s="47"/>
+      <c r="C392" s="48"/>
+      <c r="D392" s="51"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="45"/>
-      <c r="D393" s="48"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="52"/>
       <c r="E393" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="43">
+      <c r="C394" s="47">
         <v>-1041</v>
       </c>
-      <c r="D394" s="46" t="s">
+      <c r="D394" s="50" t="s">
         <v>545</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -8067,13 +8080,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="44"/>
-      <c r="D395" s="47"/>
+      <c r="C395" s="48"/>
+      <c r="D395" s="51"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="45"/>
-      <c r="D396" s="48"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="52"/>
       <c r="E396" s="15" t="s">
         <v>547</v>
       </c>
@@ -8090,10 +8103,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="43">
+      <c r="C398" s="47">
         <v>-1043</v>
       </c>
-      <c r="D398" s="46" t="s">
+      <c r="D398" s="50" t="s">
         <v>550</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -8101,25 +8114,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="44"/>
-      <c r="D399" s="47"/>
+      <c r="C399" s="48"/>
+      <c r="D399" s="51"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="44"/>
-      <c r="D400" s="47"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="51"/>
       <c r="E400" s="12" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="44"/>
-      <c r="D401" s="47"/>
+      <c r="C401" s="48"/>
+      <c r="D401" s="51"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="45"/>
-      <c r="D402" s="48"/>
+      <c r="C402" s="49"/>
+      <c r="D402" s="52"/>
       <c r="E402" s="11" t="s">
         <v>553</v>
       </c>
@@ -8136,10 +8149,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="43">
+      <c r="C404" s="47">
         <v>-1045</v>
       </c>
-      <c r="D404" s="46" t="s">
+      <c r="D404" s="50" t="s">
         <v>556</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -8147,43 +8160,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="44"/>
-      <c r="D405" s="47"/>
+      <c r="C405" s="48"/>
+      <c r="D405" s="51"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="44"/>
-      <c r="D406" s="47"/>
+      <c r="C406" s="48"/>
+      <c r="D406" s="51"/>
       <c r="E406" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="44"/>
-      <c r="D407" s="47"/>
+      <c r="C407" s="48"/>
+      <c r="D407" s="51"/>
       <c r="E407" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="44"/>
-      <c r="D408" s="47"/>
+      <c r="C408" s="48"/>
+      <c r="D408" s="51"/>
       <c r="E408" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="45"/>
-      <c r="D409" s="48"/>
+      <c r="C409" s="49"/>
+      <c r="D409" s="52"/>
       <c r="E409" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="43">
+      <c r="C410" s="47">
         <v>-1046</v>
       </c>
-      <c r="D410" s="46" t="s">
+      <c r="D410" s="50" t="s">
         <v>562</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -8191,13 +8204,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="44"/>
-      <c r="D411" s="47"/>
+      <c r="C411" s="48"/>
+      <c r="D411" s="51"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="45"/>
-      <c r="D412" s="48"/>
+      <c r="C412" s="49"/>
+      <c r="D412" s="52"/>
       <c r="E412" s="15" t="s">
         <v>564</v>
       </c>
@@ -8247,10 +8260,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="43">
+      <c r="C417" s="47">
         <v>-1051</v>
       </c>
-      <c r="D417" s="46" t="s">
+      <c r="D417" s="50" t="s">
         <v>573</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -8258,29 +8271,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="44"/>
-      <c r="D418" s="47"/>
+      <c r="C418" s="48"/>
+      <c r="D418" s="51"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="44"/>
-      <c r="D419" s="47"/>
+      <c r="C419" s="48"/>
+      <c r="D419" s="51"/>
       <c r="E419" s="12" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="45"/>
-      <c r="D420" s="48"/>
+      <c r="C420" s="49"/>
+      <c r="D420" s="52"/>
       <c r="E420" s="11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
+      <c r="C421" s="47">
         <v>-1052</v>
       </c>
-      <c r="D421" s="46" t="s">
+      <c r="D421" s="50" t="s">
         <v>577</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -8288,22 +8301,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="44"/>
-      <c r="D422" s="47"/>
+      <c r="C422" s="48"/>
+      <c r="D422" s="51"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="45"/>
-      <c r="D423" s="48"/>
+      <c r="C423" s="49"/>
+      <c r="D423" s="52"/>
       <c r="E423" s="11" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="43">
+      <c r="C424" s="47">
         <v>-1053</v>
       </c>
-      <c r="D424" s="46" t="s">
+      <c r="D424" s="50" t="s">
         <v>580</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -8311,13 +8324,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="44"/>
-      <c r="D425" s="47"/>
+      <c r="C425" s="48"/>
+      <c r="D425" s="51"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="45"/>
-      <c r="D426" s="48"/>
+      <c r="C426" s="49"/>
+      <c r="D426" s="52"/>
       <c r="E426" s="11" t="s">
         <v>582</v>
       </c>
@@ -8334,10 +8347,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
+      <c r="C428" s="47">
         <v>-1055</v>
       </c>
-      <c r="D428" s="46" t="s">
+      <c r="D428" s="50" t="s">
         <v>585</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -8345,29 +8358,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="44"/>
-      <c r="D429" s="47"/>
+      <c r="C429" s="48"/>
+      <c r="D429" s="51"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="44"/>
-      <c r="D430" s="47"/>
+      <c r="C430" s="48"/>
+      <c r="D430" s="51"/>
       <c r="E430" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="45"/>
-      <c r="D431" s="48"/>
+      <c r="C431" s="49"/>
+      <c r="D431" s="52"/>
       <c r="E431" s="11" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
+      <c r="C432" s="47">
         <v>-1056</v>
       </c>
-      <c r="D432" s="46" t="s">
+      <c r="D432" s="50" t="s">
         <v>589</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -8375,13 +8388,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="44"/>
-      <c r="D433" s="47"/>
+      <c r="C433" s="48"/>
+      <c r="D433" s="51"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="45"/>
-      <c r="D434" s="48"/>
+      <c r="C434" s="49"/>
+      <c r="D434" s="52"/>
       <c r="E434" s="11" t="s">
         <v>591</v>
       </c>
@@ -8740,10 +8753,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="43">
+      <c r="C468" s="47">
         <v>-1600</v>
       </c>
-      <c r="D468" s="46" t="s">
+      <c r="D468" s="50" t="s">
         <v>652</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -8751,15 +8764,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="44"/>
-      <c r="D469" s="47"/>
+      <c r="C469" s="48"/>
+      <c r="D469" s="51"/>
       <c r="E469" s="12" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="45"/>
-      <c r="D470" s="48"/>
+      <c r="C470" s="49"/>
+      <c r="D470" s="52"/>
       <c r="E470" s="11" t="s">
         <v>655</v>
       </c>
@@ -8775,15 +8788,15 @@
         <v>657</v>
       </c>
     </row>
-    <row r="472" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C472" s="7">
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>658</v>
+        <v>1009</v>
       </c>
       <c r="E472" s="8" t="s">
-        <v>659</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8791,10 +8804,10 @@
         <v>-1603</v>
       </c>
       <c r="D473" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E473" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8802,10 +8815,10 @@
         <v>-1604</v>
       </c>
       <c r="D474" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E474" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8813,10 +8826,10 @@
         <v>-1605</v>
       </c>
       <c r="D475" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E475" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8824,10 +8837,10 @@
         <v>-1606</v>
       </c>
       <c r="D476" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E476" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8835,10 +8848,10 @@
         <v>-1607</v>
       </c>
       <c r="D477" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E477" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8846,57 +8859,57 @@
         <v>-1609</v>
       </c>
       <c r="D478" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E478" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C479" s="47">
+        <v>-1610</v>
+      </c>
+      <c r="D479" s="50" t="s">
         <v>670</v>
       </c>
-      <c r="E478" s="8" t="s">
+      <c r="E479" s="9" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
-        <v>-1610</v>
-      </c>
-      <c r="D479" s="46" t="s">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C480" s="48"/>
+      <c r="D480" s="51"/>
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C481" s="48"/>
+      <c r="D481" s="51"/>
+      <c r="E481" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="E479" s="9" t="s">
+    </row>
+    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C482" s="48"/>
+      <c r="D482" s="51"/>
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C483" s="48"/>
+      <c r="D483" s="51"/>
+      <c r="E483" s="12" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="44"/>
-      <c r="D480" s="47"/>
-      <c r="E480" s="10"/>
-    </row>
-    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="44"/>
-      <c r="D481" s="47"/>
-      <c r="E481" s="12" t="s">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C484" s="48"/>
+      <c r="D484" s="51"/>
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C485" s="49"/>
+      <c r="D485" s="52"/>
+      <c r="E485" s="11" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="44"/>
-      <c r="D482" s="47"/>
-      <c r="E482" s="10"/>
-    </row>
-    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="44"/>
-      <c r="D483" s="47"/>
-      <c r="E483" s="12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="44"/>
-      <c r="D484" s="47"/>
-      <c r="E484" s="10"/>
-    </row>
-    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="45"/>
-      <c r="D485" s="48"/>
-      <c r="E485" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8904,10 +8917,10 @@
         <v>-1611</v>
       </c>
       <c r="D486" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E486" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8915,10 +8928,10 @@
         <v>-1612</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E487" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8926,10 +8939,10 @@
         <v>-1613</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E488" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8937,10 +8950,10 @@
         <v>-1614</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E489" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8948,10 +8961,10 @@
         <v>-1615</v>
       </c>
       <c r="D490" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E490" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8959,10 +8972,10 @@
         <v>-1616</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E491" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="492" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8970,10 +8983,10 @@
         <v>-1617</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E492" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8981,10 +8994,10 @@
         <v>-1700</v>
       </c>
       <c r="D493" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E493" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8992,10 +9005,10 @@
         <v>-1701</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9003,10 +9016,10 @@
         <v>-1702</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E495" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9014,10 +9027,10 @@
         <v>-1703</v>
       </c>
       <c r="D496" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E496" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="497" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9025,10 +9038,10 @@
         <v>-1704</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E497" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="498" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9036,10 +9049,10 @@
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9047,10 +9060,10 @@
         <v>-1706</v>
       </c>
       <c r="D499" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E499" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9058,10 +9071,10 @@
         <v>-1707</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9069,10 +9082,10 @@
         <v>-1708</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E501" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="502" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9080,10 +9093,10 @@
         <v>-1709</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E502" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9091,10 +9104,10 @@
         <v>-1710</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E503" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9102,10 +9115,10 @@
         <v>-1720</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9113,10 +9126,10 @@
         <v>-1730</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9124,10 +9137,10 @@
         <v>-1731</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E506" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9135,10 +9148,10 @@
         <v>-1732</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E507" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9146,10 +9159,10 @@
         <v>-1740</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E508" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="509" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9157,7 +9170,7 @@
         <v>-3000</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E509" s="14"/>
     </row>
@@ -9166,7 +9179,7 @@
         <v>-3001</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E510" s="14"/>
     </row>
@@ -9175,7 +9188,7 @@
         <v>-3002</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E511" s="14"/>
     </row>
@@ -9184,7 +9197,7 @@
         <v>-3003</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E512" s="14"/>
     </row>
@@ -9193,7 +9206,7 @@
         <v>-3004</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E513" s="14"/>
     </row>
@@ -9202,7 +9215,7 @@
         <v>-3005</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E514" s="14"/>
     </row>
@@ -9211,7 +9224,7 @@
         <v>-3006</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E515" s="14"/>
     </row>
@@ -9220,7 +9233,7 @@
         <v>-3007</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E516" s="14"/>
     </row>
@@ -9229,7 +9242,7 @@
         <v>-3008</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E517" s="14"/>
     </row>
@@ -9238,7 +9251,7 @@
         <v>-3009</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E518" s="14"/>
     </row>
@@ -9247,7 +9260,7 @@
         <v>-3010</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E519" s="14"/>
     </row>
@@ -9256,7 +9269,7 @@
         <v>-3011</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E520" s="14"/>
     </row>
@@ -9265,7 +9278,7 @@
         <v>-3012</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E521" s="14"/>
     </row>
@@ -9274,54 +9287,54 @@
         <v>-3013</v>
       </c>
       <c r="D522" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E522" s="14"/>
+    </row>
+    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C523" s="47">
+        <v>-3014</v>
+      </c>
+      <c r="D523" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="E523" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="E522" s="14"/>
-    </row>
-    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="43">
-        <v>-3014</v>
-      </c>
-      <c r="D523" s="46" t="s">
+    </row>
+    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C524" s="48"/>
+      <c r="D524" s="51"/>
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C525" s="49"/>
+      <c r="D525" s="52"/>
+      <c r="E525" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="E523" s="9" t="s">
+    </row>
+    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C526" s="47">
+        <v>-3015</v>
+      </c>
+      <c r="D526" s="50" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="44"/>
-      <c r="D524" s="47"/>
-      <c r="E524" s="10"/>
-    </row>
-    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="45"/>
-      <c r="D525" s="48"/>
-      <c r="E525" s="11" t="s">
+      <c r="E526" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="43">
-        <v>-3015</v>
-      </c>
-      <c r="D526" s="46" t="s">
+    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C527" s="48"/>
+      <c r="D527" s="51"/>
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C528" s="49"/>
+      <c r="D528" s="52"/>
+      <c r="E528" s="11" t="s">
         <v>739</v>
-      </c>
-      <c r="E526" s="9" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="44"/>
-      <c r="D527" s="47"/>
-      <c r="E527" s="10"/>
-    </row>
-    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="45"/>
-      <c r="D528" s="48"/>
-      <c r="E528" s="11" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9329,10 +9342,10 @@
         <v>-3016</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E529" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9340,10 +9353,10 @@
         <v>-3017</v>
       </c>
       <c r="D530" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E530" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9351,10 +9364,10 @@
         <v>-3100</v>
       </c>
       <c r="D531" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E531" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -9362,10 +9375,10 @@
         <v>-3101</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9373,10 +9386,10 @@
         <v>-3102</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E533" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9384,336 +9397,336 @@
         <v>-3103</v>
       </c>
       <c r="D534" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E534" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C535" s="47">
+        <v>-3104</v>
+      </c>
+      <c r="D535" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="E534" s="8" t="s">
+      <c r="E535" s="9" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C535" s="43">
-        <v>-3104</v>
-      </c>
-      <c r="D535" s="46" t="s">
+    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C536" s="48"/>
+      <c r="D536" s="51"/>
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C537" s="48"/>
+      <c r="D537" s="51"/>
+      <c r="E537" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="E535" s="9" t="s">
+    </row>
+    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C538" s="48"/>
+      <c r="D538" s="51"/>
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C539" s="48"/>
+      <c r="D539" s="51"/>
+      <c r="E539" s="12" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="44"/>
-      <c r="D536" s="47"/>
-      <c r="E536" s="10"/>
-    </row>
-    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="44"/>
-      <c r="D537" s="47"/>
-      <c r="E537" s="12" t="s">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C540" s="48"/>
+      <c r="D540" s="51"/>
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C541" s="48"/>
+      <c r="D541" s="51"/>
+      <c r="E541" s="12" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="44"/>
-      <c r="D538" s="47"/>
-      <c r="E538" s="10"/>
-    </row>
-    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="44"/>
-      <c r="D539" s="47"/>
-      <c r="E539" s="12" t="s">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C542" s="48"/>
+      <c r="D542" s="51"/>
+      <c r="E542" s="12"/>
+    </row>
+    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C543" s="49"/>
+      <c r="D543" s="52"/>
+      <c r="E543" s="15" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="44"/>
-      <c r="D540" s="47"/>
-      <c r="E540" s="10"/>
-    </row>
-    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="44"/>
-      <c r="D541" s="47"/>
-      <c r="E541" s="12" t="s">
+    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C544" s="47">
+        <v>-3105</v>
+      </c>
+      <c r="D544" s="50" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="44"/>
-      <c r="D542" s="47"/>
-      <c r="E542" s="12"/>
-    </row>
-    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="45"/>
-      <c r="D543" s="48"/>
-      <c r="E543" s="15" t="s">
+      <c r="E544" s="9" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C544" s="43">
-        <v>-3105</v>
-      </c>
-      <c r="D544" s="46" t="s">
+    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C545" s="48"/>
+      <c r="D545" s="51"/>
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C546" s="48"/>
+      <c r="D546" s="51"/>
+      <c r="E546" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="E544" s="9" t="s">
+    </row>
+    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C547" s="48"/>
+      <c r="D547" s="51"/>
+      <c r="E547" s="12"/>
+    </row>
+    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C548" s="49"/>
+      <c r="D548" s="52"/>
+      <c r="E548" s="15" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="44"/>
-      <c r="D545" s="47"/>
-      <c r="E545" s="10"/>
-    </row>
-    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="44"/>
-      <c r="D546" s="47"/>
-      <c r="E546" s="12" t="s">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C549" s="47">
+        <v>-3106</v>
+      </c>
+      <c r="D549" s="50" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="44"/>
-      <c r="D547" s="47"/>
-      <c r="E547" s="12"/>
-    </row>
-    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="45"/>
-      <c r="D548" s="48"/>
-      <c r="E548" s="15" t="s">
+      <c r="E549" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C549" s="43">
-        <v>-3106</v>
-      </c>
-      <c r="D549" s="46" t="s">
+    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C550" s="48"/>
+      <c r="D550" s="51"/>
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C551" s="48"/>
+      <c r="D551" s="51"/>
+      <c r="E551" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="E549" s="9" t="s">
+    </row>
+    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C552" s="48"/>
+      <c r="D552" s="51"/>
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C553" s="48"/>
+      <c r="D553" s="51"/>
+      <c r="E553" s="12" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="44"/>
-      <c r="D550" s="47"/>
-      <c r="E550" s="10"/>
-    </row>
-    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C551" s="44"/>
-      <c r="D551" s="47"/>
-      <c r="E551" s="12" t="s">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C554" s="48"/>
+      <c r="D554" s="51"/>
+      <c r="E554" s="12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="44"/>
-      <c r="D552" s="47"/>
-      <c r="E552" s="10"/>
-    </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="44"/>
-      <c r="D553" s="47"/>
-      <c r="E553" s="12" t="s">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C555" s="48"/>
+      <c r="D555" s="51"/>
+      <c r="E555" s="12" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="44"/>
-      <c r="D554" s="47"/>
-      <c r="E554" s="12" t="s">
+    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C556" s="48"/>
+      <c r="D556" s="51"/>
+      <c r="E556" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="44"/>
-      <c r="D555" s="47"/>
-      <c r="E555" s="12" t="s">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C557" s="48"/>
+      <c r="D557" s="51"/>
+      <c r="E557" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="44"/>
-      <c r="D556" s="47"/>
-      <c r="E556" s="12" t="s">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C558" s="48"/>
+      <c r="D558" s="51"/>
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C559" s="48"/>
+      <c r="D559" s="51"/>
+      <c r="E559" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="44"/>
-      <c r="D557" s="47"/>
-      <c r="E557" s="12" t="s">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C560" s="48"/>
+      <c r="D560" s="51"/>
+      <c r="E560" s="12"/>
+    </row>
+    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C561" s="48"/>
+      <c r="D561" s="51"/>
+      <c r="E561" s="16" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="44"/>
-      <c r="D558" s="47"/>
-      <c r="E558" s="10"/>
-    </row>
-    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="44"/>
-      <c r="D559" s="47"/>
-      <c r="E559" s="12" t="s">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C562" s="48"/>
+      <c r="D562" s="51"/>
+      <c r="E562" s="16" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="44"/>
-      <c r="D560" s="47"/>
-      <c r="E560" s="12"/>
-    </row>
-    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="44"/>
-      <c r="D561" s="47"/>
-      <c r="E561" s="16" t="s">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C563" s="48"/>
+      <c r="D563" s="51"/>
+      <c r="E563" s="16" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="44"/>
-      <c r="D562" s="47"/>
-      <c r="E562" s="16" t="s">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C564" s="48"/>
+      <c r="D564" s="51"/>
+      <c r="E564" s="16" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="44"/>
-      <c r="D563" s="47"/>
-      <c r="E563" s="16" t="s">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C565" s="48"/>
+      <c r="D565" s="51"/>
+      <c r="E565" s="16" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="44"/>
-      <c r="D564" s="47"/>
-      <c r="E564" s="16" t="s">
+    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C566" s="48"/>
+      <c r="D566" s="51"/>
+      <c r="E566" s="16" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="44"/>
-      <c r="D565" s="47"/>
-      <c r="E565" s="16" t="s">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C567" s="48"/>
+      <c r="D567" s="51"/>
+      <c r="E567" s="16" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="44"/>
-      <c r="D566" s="47"/>
-      <c r="E566" s="16" t="s">
+    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C568" s="49"/>
+      <c r="D568" s="52"/>
+      <c r="E568" s="15" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="44"/>
-      <c r="D567" s="47"/>
-      <c r="E567" s="16" t="s">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C569" s="47">
+        <v>-3107</v>
+      </c>
+      <c r="D569" s="50" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="45"/>
-      <c r="D568" s="48"/>
-      <c r="E568" s="15" t="s">
+      <c r="E569" s="9" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C569" s="43">
-        <v>-3107</v>
-      </c>
-      <c r="D569" s="46" t="s">
+    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C570" s="48"/>
+      <c r="D570" s="51"/>
+      <c r="E570" s="12"/>
+    </row>
+    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C571" s="49"/>
+      <c r="D571" s="52"/>
+      <c r="E571" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="E569" s="9" t="s">
+    </row>
+    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
+      <c r="C572" s="47">
+        <v>-3108</v>
+      </c>
+      <c r="D572" s="50" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="44"/>
-      <c r="D570" s="47"/>
-      <c r="E570" s="12"/>
-    </row>
-    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="45"/>
-      <c r="D571" s="48"/>
-      <c r="E571" s="15" t="s">
+      <c r="E572" s="9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C573" s="48"/>
+      <c r="D573" s="51"/>
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C574" s="49"/>
+      <c r="D574" s="52"/>
+      <c r="E574" s="15"/>
+    </row>
+    <row r="575" spans="3:5" ht="234" x14ac:dyDescent="0.4">
+      <c r="C575" s="47">
+        <v>-3109</v>
+      </c>
+      <c r="D575" s="50" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="43">
-        <v>-3108</v>
-      </c>
-      <c r="D572" s="46" t="s">
+      <c r="E575" s="9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C576" s="48"/>
+      <c r="D576" s="51"/>
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C577" s="49"/>
+      <c r="D577" s="52"/>
+      <c r="E577" s="15"/>
+    </row>
+    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
+      <c r="C578" s="47">
+        <v>-3110</v>
+      </c>
+      <c r="D578" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="E572" s="9" t="s">
+      <c r="E578" s="9" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="44"/>
-      <c r="D573" s="47"/>
-      <c r="E573" s="12"/>
-    </row>
-    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="45"/>
-      <c r="D574" s="48"/>
-      <c r="E574" s="15"/>
-    </row>
-    <row r="575" spans="3:5" ht="234" x14ac:dyDescent="0.4">
-      <c r="C575" s="43">
-        <v>-3109</v>
-      </c>
-      <c r="D575" s="46" t="s">
-        <v>784</v>
-      </c>
-      <c r="E575" s="9" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="44"/>
-      <c r="D576" s="47"/>
-      <c r="E576" s="12"/>
-    </row>
-    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="45"/>
-      <c r="D577" s="48"/>
-      <c r="E577" s="15"/>
-    </row>
-    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="43">
-        <v>-3110</v>
-      </c>
-      <c r="D578" s="46" t="s">
-        <v>785</v>
-      </c>
-      <c r="E578" s="9" t="s">
-        <v>998</v>
-      </c>
-    </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="44"/>
-      <c r="D579" s="47"/>
+      <c r="C579" s="48"/>
+      <c r="D579" s="51"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="44"/>
-      <c r="D580" s="47"/>
+      <c r="C580" s="48"/>
+      <c r="D580" s="51"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="44"/>
-      <c r="D581" s="47"/>
+      <c r="C581" s="48"/>
+      <c r="D581" s="51"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="45"/>
-      <c r="D582" s="48"/>
+      <c r="C582" s="49"/>
+      <c r="D582" s="52"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9721,150 +9734,150 @@
         <v>-3111</v>
       </c>
       <c r="D583" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E583" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C584" s="47">
+        <v>-3112</v>
+      </c>
+      <c r="D584" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="E583" s="8" t="s">
+      <c r="E584" s="9" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="43">
-        <v>-3112</v>
-      </c>
-      <c r="D584" s="46" t="s">
+    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C585" s="48"/>
+      <c r="D585" s="51"/>
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C586" s="49"/>
+      <c r="D586" s="52"/>
+      <c r="E586" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E584" s="9" t="s">
+    </row>
+    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C587" s="47">
+        <v>-3113</v>
+      </c>
+      <c r="D587" s="50" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="44"/>
-      <c r="D585" s="47"/>
-      <c r="E585" s="10"/>
-    </row>
-    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="45"/>
-      <c r="D586" s="48"/>
-      <c r="E586" s="11" t="s">
+      <c r="E587" s="9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="43">
-        <v>-3113</v>
-      </c>
-      <c r="D587" s="46" t="s">
+    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C588" s="48"/>
+      <c r="D588" s="51"/>
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C589" s="48"/>
+      <c r="D589" s="51"/>
+      <c r="E589" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="E587" s="9" t="s">
+    </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C590" s="48"/>
+      <c r="D590" s="51"/>
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C591" s="48"/>
+      <c r="D591" s="51"/>
+      <c r="E591" s="12" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="44"/>
-      <c r="D588" s="47"/>
-      <c r="E588" s="10"/>
-    </row>
-    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="44"/>
-      <c r="D589" s="47"/>
-      <c r="E589" s="12" t="s">
+    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C592" s="48"/>
+      <c r="D592" s="51"/>
+      <c r="E592" s="12" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="44"/>
-      <c r="D590" s="47"/>
-      <c r="E590" s="10"/>
-    </row>
-    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="44"/>
-      <c r="D591" s="47"/>
-      <c r="E591" s="12" t="s">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C593" s="48"/>
+      <c r="D593" s="51"/>
+      <c r="E593" s="12" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="44"/>
-      <c r="D592" s="47"/>
-      <c r="E592" s="12" t="s">
+    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C594" s="48"/>
+      <c r="D594" s="51"/>
+      <c r="E594" s="12" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="44"/>
-      <c r="D593" s="47"/>
-      <c r="E593" s="12" t="s">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C595" s="48"/>
+      <c r="D595" s="51"/>
+      <c r="E595" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="44"/>
-      <c r="D594" s="47"/>
-      <c r="E594" s="12" t="s">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C596" s="48"/>
+      <c r="D596" s="51"/>
+      <c r="E596" s="12" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="44"/>
-      <c r="D595" s="47"/>
-      <c r="E595" s="12" t="s">
+    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C597" s="48"/>
+      <c r="D597" s="51"/>
+      <c r="E597" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="44"/>
-      <c r="D596" s="47"/>
-      <c r="E596" s="12" t="s">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C598" s="48"/>
+      <c r="D598" s="51"/>
+      <c r="E598" s="12" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="44"/>
-      <c r="D597" s="47"/>
-      <c r="E597" s="12" t="s">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C599" s="48"/>
+      <c r="D599" s="51"/>
+      <c r="E599" s="12" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="44"/>
-      <c r="D598" s="47"/>
-      <c r="E598" s="12" t="s">
+    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C600" s="48"/>
+      <c r="D600" s="51"/>
+      <c r="E600" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="44"/>
-      <c r="D599" s="47"/>
-      <c r="E599" s="12" t="s">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C601" s="48"/>
+      <c r="D601" s="51"/>
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C602" s="48"/>
+      <c r="D602" s="51"/>
+      <c r="E602" s="12" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="44"/>
-      <c r="D600" s="47"/>
-      <c r="E600" s="12" t="s">
+    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C603" s="49"/>
+      <c r="D603" s="52"/>
+      <c r="E603" s="11" t="s">
         <v>803</v>
-      </c>
-    </row>
-    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="44"/>
-      <c r="D601" s="47"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="44"/>
-      <c r="D602" s="47"/>
-      <c r="E602" s="12" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="45"/>
-      <c r="D603" s="48"/>
-      <c r="E603" s="11" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9872,33 +9885,33 @@
         <v>-3114</v>
       </c>
       <c r="D604" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E604" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C605" s="47">
+        <v>-3115</v>
+      </c>
+      <c r="D605" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="E604" s="8" t="s">
+      <c r="E605" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="43">
-        <v>-3115</v>
-      </c>
-      <c r="D605" s="46" t="s">
+    <row r="606" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C606" s="48"/>
+      <c r="D606" s="51"/>
+      <c r="E606" s="10"/>
+    </row>
+    <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C607" s="49"/>
+      <c r="D607" s="52"/>
+      <c r="E607" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="E605" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="44"/>
-      <c r="D606" s="47"/>
-      <c r="E606" s="10"/>
-    </row>
-    <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="45"/>
-      <c r="D607" s="48"/>
-      <c r="E607" s="11" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="608" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9906,50 +9919,50 @@
         <v>-3116</v>
       </c>
       <c r="D608" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E608" s="14"/>
+    </row>
+    <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C609" s="47">
+        <v>-3117</v>
+      </c>
+      <c r="D609" s="50" t="s">
+        <v>810</v>
+      </c>
+      <c r="E609" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="E608" s="14"/>
-    </row>
-    <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="43">
-        <v>-3117</v>
-      </c>
-      <c r="D609" s="46" t="s">
+    </row>
+    <row r="610" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C610" s="48"/>
+      <c r="D610" s="51"/>
+      <c r="E610" s="10"/>
+    </row>
+    <row r="611" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C611" s="48"/>
+      <c r="D611" s="51"/>
+      <c r="E611" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="E609" s="9" t="s">
+    </row>
+    <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C612" s="48"/>
+      <c r="D612" s="51"/>
+      <c r="E612" s="12" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="44"/>
-      <c r="D610" s="47"/>
-      <c r="E610" s="10"/>
-    </row>
-    <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="44"/>
-      <c r="D611" s="47"/>
-      <c r="E611" s="12" t="s">
+    <row r="613" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C613" s="48"/>
+      <c r="D613" s="51"/>
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C614" s="49"/>
+      <c r="D614" s="52"/>
+      <c r="E614" s="11" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="44"/>
-      <c r="D612" s="47"/>
-      <c r="E612" s="12" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="44"/>
-      <c r="D613" s="47"/>
-      <c r="E613" s="10"/>
-    </row>
-    <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="45"/>
-      <c r="D614" s="48"/>
-      <c r="E614" s="11" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9957,10 +9970,10 @@
         <v>-3118</v>
       </c>
       <c r="D615" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E615" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9968,103 +9981,103 @@
         <v>-3119</v>
       </c>
       <c r="D616" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E616" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C617" s="47">
+        <v>-3120</v>
+      </c>
+      <c r="D617" s="50" t="s">
         <v>819</v>
       </c>
-      <c r="E616" s="8" t="s">
+      <c r="E617" s="9" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="43">
-        <v>-3120</v>
-      </c>
-      <c r="D617" s="46" t="s">
+    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C618" s="48"/>
+      <c r="D618" s="51"/>
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C619" s="48"/>
+      <c r="D619" s="51"/>
+      <c r="E619" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="E617" s="9" t="s">
+    </row>
+    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C620" s="48"/>
+      <c r="D620" s="51"/>
+      <c r="E620" s="12" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="44"/>
-      <c r="D618" s="47"/>
-      <c r="E618" s="10"/>
-    </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="44"/>
-      <c r="D619" s="47"/>
-      <c r="E619" s="12" t="s">
+    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C621" s="48"/>
+      <c r="D621" s="51"/>
+      <c r="E621" s="12" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="44"/>
-      <c r="D620" s="47"/>
-      <c r="E620" s="12" t="s">
+    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C622" s="48"/>
+      <c r="D622" s="51"/>
+      <c r="E622" s="12" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="44"/>
-      <c r="D621" s="47"/>
-      <c r="E621" s="12" t="s">
+    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C623" s="49"/>
+      <c r="D623" s="52"/>
+      <c r="E623" s="11" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="44"/>
-      <c r="D622" s="47"/>
-      <c r="E622" s="12" t="s">
+    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C624" s="47">
+        <v>-3121</v>
+      </c>
+      <c r="D624" s="50" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="45"/>
-      <c r="D623" s="48"/>
-      <c r="E623" s="11" t="s">
+      <c r="E624" s="9" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="43">
-        <v>-3121</v>
-      </c>
-      <c r="D624" s="46" t="s">
+    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C625" s="48"/>
+      <c r="D625" s="51"/>
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C626" s="48"/>
+      <c r="D626" s="51"/>
+      <c r="E626" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="E624" s="9" t="s">
+    </row>
+    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C627" s="48"/>
+      <c r="D627" s="51"/>
+      <c r="E627" s="12" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="44"/>
-      <c r="D625" s="47"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="44"/>
-      <c r="D626" s="47"/>
-      <c r="E626" s="12" t="s">
+    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C628" s="48"/>
+      <c r="D628" s="51"/>
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C629" s="49"/>
+      <c r="D629" s="52"/>
+      <c r="E629" s="11" t="s">
         <v>830</v>
-      </c>
-    </row>
-    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="44"/>
-      <c r="D627" s="47"/>
-      <c r="E627" s="12" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="44"/>
-      <c r="D628" s="47"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="45"/>
-      <c r="D629" s="48"/>
-      <c r="E629" s="11" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="630" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
@@ -10072,10 +10085,10 @@
         <v>-3122</v>
       </c>
       <c r="D630" s="37" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E630" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="631" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10083,33 +10096,33 @@
         <v>-3123</v>
       </c>
       <c r="D631" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E631" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C632" s="47">
+        <v>-3124</v>
+      </c>
+      <c r="D632" s="50" t="s">
         <v>834</v>
       </c>
-      <c r="E631" s="8" t="s">
+      <c r="E632" s="9" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="43">
-        <v>-3124</v>
-      </c>
-      <c r="D632" s="46" t="s">
+    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C633" s="48"/>
+      <c r="D633" s="51"/>
+      <c r="E633" s="10"/>
+    </row>
+    <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C634" s="49"/>
+      <c r="D634" s="52"/>
+      <c r="E634" s="11" t="s">
         <v>836</v>
-      </c>
-      <c r="E632" s="9" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="44"/>
-      <c r="D633" s="47"/>
-      <c r="E633" s="10"/>
-    </row>
-    <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="45"/>
-      <c r="D634" s="48"/>
-      <c r="E634" s="11" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="635" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10117,64 +10130,64 @@
         <v>-3125</v>
       </c>
       <c r="D635" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E635" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C636" s="47">
+        <v>-3126</v>
+      </c>
+      <c r="D636" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="E635" s="8" t="s">
+      <c r="E636" s="9" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="43">
-        <v>-3126</v>
-      </c>
-      <c r="D636" s="46" t="s">
+    <row r="637" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C637" s="48"/>
+      <c r="D637" s="51"/>
+      <c r="E637" s="10"/>
+    </row>
+    <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C638" s="48"/>
+      <c r="D638" s="51"/>
+      <c r="E638" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="E636" s="9" t="s">
+    </row>
+    <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C639" s="48"/>
+      <c r="D639" s="51"/>
+      <c r="E639" s="12" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="44"/>
-      <c r="D637" s="47"/>
-      <c r="E637" s="10"/>
-    </row>
-    <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="44"/>
-      <c r="D638" s="47"/>
-      <c r="E638" s="12" t="s">
+    <row r="640" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C640" s="48"/>
+      <c r="D640" s="51"/>
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C641" s="48"/>
+      <c r="D641" s="51"/>
+      <c r="E641" s="12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="44"/>
-      <c r="D639" s="47"/>
-      <c r="E639" s="12" t="s">
+    <row r="642" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C642" s="48"/>
+      <c r="D642" s="51"/>
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C643" s="49"/>
+      <c r="D643" s="52"/>
+      <c r="E643" s="11" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="44"/>
-      <c r="D640" s="47"/>
-      <c r="E640" s="10"/>
-    </row>
-    <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="44"/>
-      <c r="D641" s="47"/>
-      <c r="E641" s="12" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="44"/>
-      <c r="D642" s="47"/>
-      <c r="E642" s="10"/>
-    </row>
-    <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="45"/>
-      <c r="D643" s="48"/>
-      <c r="E643" s="11" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="644" spans="3:5" ht="250.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10182,10 +10195,10 @@
         <v>-3127</v>
       </c>
       <c r="D644" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E644" s="8" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="645" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10193,92 +10206,92 @@
         <v>-3128</v>
       </c>
       <c r="D645" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E645" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C646" s="47">
+        <v>-3129</v>
+      </c>
+      <c r="D646" s="50" t="s">
+        <v>847</v>
+      </c>
+      <c r="E646" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="E645" s="8" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="43">
-        <v>-3129</v>
-      </c>
-      <c r="D646" s="46" t="s">
+    </row>
+    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C647" s="48"/>
+      <c r="D647" s="51"/>
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C648" s="48"/>
+      <c r="D648" s="51"/>
+      <c r="E648" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="E646" s="9" t="s">
+    </row>
+    <row r="649" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C649" s="48"/>
+      <c r="D649" s="51"/>
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C650" s="48"/>
+      <c r="D650" s="51"/>
+      <c r="E650" s="12" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="44"/>
-      <c r="D647" s="47"/>
-      <c r="E647" s="10"/>
-    </row>
-    <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="44"/>
-      <c r="D648" s="47"/>
-      <c r="E648" s="12" t="s">
+    <row r="651" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C651" s="48"/>
+      <c r="D651" s="51"/>
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C652" s="48"/>
+      <c r="D652" s="51"/>
+      <c r="E652" s="12" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="44"/>
-      <c r="D649" s="47"/>
-      <c r="E649" s="10"/>
-    </row>
-    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="44"/>
-      <c r="D650" s="47"/>
-      <c r="E650" s="12" t="s">
+    <row r="653" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C653" s="48"/>
+      <c r="D653" s="51"/>
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C654" s="49"/>
+      <c r="D654" s="52"/>
+      <c r="E654" s="11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="44"/>
-      <c r="D651" s="47"/>
-      <c r="E651" s="10"/>
-    </row>
-    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="44"/>
-      <c r="D652" s="47"/>
-      <c r="E652" s="12" t="s">
+    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C655" s="47">
+        <v>-3130</v>
+      </c>
+      <c r="D655" s="50" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="44"/>
-      <c r="D653" s="47"/>
-      <c r="E653" s="10"/>
-    </row>
-    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="45"/>
-      <c r="D654" s="48"/>
-      <c r="E654" s="11" t="s">
+      <c r="E655" s="9" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="43">
-        <v>-3130</v>
-      </c>
-      <c r="D655" s="46" t="s">
+    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C656" s="48"/>
+      <c r="D656" s="51"/>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C657" s="49"/>
+      <c r="D657" s="52"/>
+      <c r="E657" s="11" t="s">
         <v>855</v>
-      </c>
-      <c r="E655" s="9" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="44"/>
-      <c r="D656" s="47"/>
-      <c r="E656" s="10"/>
-    </row>
-    <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="45"/>
-      <c r="D657" s="48"/>
-      <c r="E657" s="11" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="658" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10286,10 +10299,10 @@
         <v>-3131</v>
       </c>
       <c r="D658" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E658" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="659" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10297,10 +10310,10 @@
         <v>-3132</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E659" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="660" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10308,45 +10321,45 @@
         <v>-3133</v>
       </c>
       <c r="D660" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E660" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
+      <c r="C661" s="47">
+        <v>-3134</v>
+      </c>
+      <c r="D661" s="50" t="s">
+        <v>861</v>
+      </c>
+      <c r="E661" s="9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="662" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C662" s="48"/>
+      <c r="D662" s="51"/>
+      <c r="E662" s="10"/>
+    </row>
+    <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C663" s="48"/>
+      <c r="D663" s="51"/>
+      <c r="E663" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="E660" s="8" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="43">
-        <v>-3134</v>
-      </c>
-      <c r="D661" s="46" t="s">
+    </row>
+    <row r="664" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C664" s="48"/>
+      <c r="D664" s="51"/>
+      <c r="E664" s="10"/>
+    </row>
+    <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C665" s="49"/>
+      <c r="D665" s="52"/>
+      <c r="E665" s="11" t="s">
         <v>863</v>
-      </c>
-      <c r="E661" s="9" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="44"/>
-      <c r="D662" s="47"/>
-      <c r="E662" s="10"/>
-    </row>
-    <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="44"/>
-      <c r="D663" s="47"/>
-      <c r="E663" s="12" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="44"/>
-      <c r="D664" s="47"/>
-      <c r="E664" s="10"/>
-    </row>
-    <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="45"/>
-      <c r="D665" s="48"/>
-      <c r="E665" s="11" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="666" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10354,10 +10367,10 @@
         <v>-3135</v>
       </c>
       <c r="D666" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E666" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="667" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10365,279 +10378,279 @@
         <v>-3136</v>
       </c>
       <c r="D667" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E667" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C668" s="47">
+        <v>-3137</v>
+      </c>
+      <c r="D668" s="50" t="s">
         <v>868</v>
       </c>
-      <c r="E667" s="8" t="s">
+      <c r="E668" s="9" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="43">
-        <v>-3137</v>
-      </c>
-      <c r="D668" s="46" t="s">
+    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C669" s="48"/>
+      <c r="D669" s="51"/>
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C670" s="48"/>
+      <c r="D670" s="51"/>
+      <c r="E670" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="E668" s="9" t="s">
+    </row>
+    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C671" s="49"/>
+      <c r="D671" s="52"/>
+      <c r="E671" s="11" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="44"/>
-      <c r="D669" s="47"/>
-      <c r="E669" s="10"/>
-    </row>
-    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="44"/>
-      <c r="D670" s="47"/>
-      <c r="E670" s="12" t="s">
+    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C672" s="47">
+        <v>-3138</v>
+      </c>
+      <c r="D672" s="50" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="45"/>
-      <c r="D671" s="48"/>
-      <c r="E671" s="11" t="s">
+      <c r="E672" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="43">
-        <v>-3138</v>
-      </c>
-      <c r="D672" s="46" t="s">
+    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C673" s="48"/>
+      <c r="D673" s="51"/>
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C674" s="48"/>
+      <c r="D674" s="51"/>
+      <c r="E674" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="E672" s="9" t="s">
+    </row>
+    <row r="675" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C675" s="48"/>
+      <c r="D675" s="51"/>
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C676" s="49"/>
+      <c r="D676" s="52"/>
+      <c r="E676" s="11" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="44"/>
-      <c r="D673" s="47"/>
-      <c r="E673" s="10"/>
-    </row>
-    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="44"/>
-      <c r="D674" s="47"/>
-      <c r="E674" s="12" t="s">
+    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C677" s="47">
+        <v>-3139</v>
+      </c>
+      <c r="D677" s="50" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="44"/>
-      <c r="D675" s="47"/>
-      <c r="E675" s="10"/>
-    </row>
-    <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="45"/>
-      <c r="D676" s="48"/>
-      <c r="E676" s="11" t="s">
+      <c r="E677" s="9" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="43">
-        <v>-3139</v>
-      </c>
-      <c r="D677" s="46" t="s">
+    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C678" s="48"/>
+      <c r="D678" s="51"/>
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C679" s="48"/>
+      <c r="D679" s="51"/>
+      <c r="E679" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="E677" s="9" t="s">
+    </row>
+    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C680" s="48"/>
+      <c r="D680" s="51"/>
+      <c r="E680" s="12" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="44"/>
-      <c r="D678" s="47"/>
-      <c r="E678" s="10"/>
-    </row>
-    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="44"/>
-      <c r="D679" s="47"/>
-      <c r="E679" s="12" t="s">
+    <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C681" s="48"/>
+      <c r="D681" s="51"/>
+      <c r="E681" s="12" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="44"/>
-      <c r="D680" s="47"/>
-      <c r="E680" s="12" t="s">
+    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C682" s="48"/>
+      <c r="D682" s="51"/>
+      <c r="E682" s="12" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="44"/>
-      <c r="D681" s="47"/>
-      <c r="E681" s="12" t="s">
+    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C683" s="48"/>
+      <c r="D683" s="51"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C684" s="49"/>
+      <c r="D684" s="52"/>
+      <c r="E684" s="11" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="44"/>
-      <c r="D682" s="47"/>
-      <c r="E682" s="12" t="s">
+    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
+      <c r="C685" s="47">
+        <v>-3140</v>
+      </c>
+      <c r="D685" s="50" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="44"/>
-      <c r="D683" s="47"/>
-      <c r="E683" s="10"/>
-    </row>
-    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="45"/>
-      <c r="D684" s="48"/>
-      <c r="E684" s="11" t="s">
+      <c r="E685" s="9" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="686" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C686" s="48"/>
+      <c r="D686" s="51"/>
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C687" s="48"/>
+      <c r="D687" s="51"/>
+      <c r="E687" s="12"/>
+    </row>
+    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C688" s="48"/>
+      <c r="D688" s="51"/>
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C689" s="49"/>
+      <c r="D689" s="52"/>
+      <c r="E689" s="11"/>
+    </row>
+    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C690" s="47">
+        <v>-3141</v>
+      </c>
+      <c r="D690" s="50" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="43">
-        <v>-3140</v>
-      </c>
-      <c r="D685" s="46" t="s">
+      <c r="E690" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="E685" s="9" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="44"/>
-      <c r="D686" s="47"/>
-      <c r="E686" s="10"/>
-    </row>
-    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="44"/>
-      <c r="D687" s="47"/>
-      <c r="E687" s="12"/>
-    </row>
-    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="44"/>
-      <c r="D688" s="47"/>
-      <c r="E688" s="10"/>
-    </row>
-    <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="45"/>
-      <c r="D689" s="48"/>
-      <c r="E689" s="11"/>
-    </row>
-    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="43">
-        <v>-3141</v>
-      </c>
-      <c r="D690" s="46" t="s">
+    </row>
+    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C691" s="48"/>
+      <c r="D691" s="51"/>
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C692" s="48"/>
+      <c r="D692" s="51"/>
+      <c r="E692" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="E690" s="9" t="s">
+    </row>
+    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C693" s="48"/>
+      <c r="D693" s="51"/>
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C694" s="49"/>
+      <c r="D694" s="52"/>
+      <c r="E694" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C695" s="47">
+        <v>-3142</v>
+      </c>
+      <c r="D695" s="50" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="44"/>
-      <c r="D691" s="47"/>
-      <c r="E691" s="10"/>
-    </row>
-    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="44"/>
-      <c r="D692" s="47"/>
-      <c r="E692" s="12" t="s">
+      <c r="E695" s="9" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="44"/>
-      <c r="D693" s="47"/>
-      <c r="E693" s="10"/>
-    </row>
-    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="45"/>
-      <c r="D694" s="48"/>
-      <c r="E694" s="11" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="43">
-        <v>-3142</v>
-      </c>
-      <c r="D695" s="46" t="s">
+    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C696" s="48"/>
+      <c r="D696" s="51"/>
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C697" s="48"/>
+      <c r="D697" s="51"/>
+      <c r="E697" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="E695" s="9" t="s">
+    </row>
+    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C698" s="48"/>
+      <c r="D698" s="51"/>
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C699" s="49"/>
+      <c r="D699" s="52"/>
+      <c r="E699" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C700" s="47">
+        <v>-3143</v>
+      </c>
+      <c r="D700" s="50" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="44"/>
-      <c r="D696" s="47"/>
-      <c r="E696" s="10"/>
-    </row>
-    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="44"/>
-      <c r="D697" s="47"/>
-      <c r="E697" s="12" t="s">
+      <c r="E700" s="9" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="44"/>
-      <c r="D698" s="47"/>
-      <c r="E698" s="10"/>
-    </row>
-    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="45"/>
-      <c r="D699" s="48"/>
-      <c r="E699" s="11" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="43">
-        <v>-3143</v>
-      </c>
-      <c r="D700" s="46" t="s">
+    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C701" s="48"/>
+      <c r="D701" s="51"/>
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C702" s="48"/>
+      <c r="D702" s="51"/>
+      <c r="E702" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="E700" s="9" t="s">
+    </row>
+    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C703" s="48"/>
+      <c r="D703" s="51"/>
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C704" s="48"/>
+      <c r="D704" s="51"/>
+      <c r="E704" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="44"/>
-      <c r="D701" s="47"/>
-      <c r="E701" s="10"/>
-    </row>
-    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="44"/>
-      <c r="D702" s="47"/>
-      <c r="E702" s="12" t="s">
+    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C705" s="48"/>
+      <c r="D705" s="51"/>
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C706" s="49"/>
+      <c r="D706" s="52"/>
+      <c r="E706" s="11" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="44"/>
-      <c r="D703" s="47"/>
-      <c r="E703" s="10"/>
-    </row>
-    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="44"/>
-      <c r="D704" s="47"/>
-      <c r="E704" s="12" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="44"/>
-      <c r="D705" s="47"/>
-      <c r="E705" s="10"/>
-    </row>
-    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="45"/>
-      <c r="D706" s="48"/>
-      <c r="E706" s="11" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="707" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -10645,10 +10658,10 @@
         <v>-3144</v>
       </c>
       <c r="D707" s="8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E707" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="708" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10656,10 +10669,10 @@
         <v>-3145</v>
       </c>
       <c r="D708" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E708" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="709" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -10667,251 +10680,389 @@
         <v>-3146</v>
       </c>
       <c r="D709" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E709" s="20" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
+      <c r="C710" s="47">
+        <v>-3147</v>
+      </c>
+      <c r="D710" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="E710" s="21" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="711" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C711" s="48"/>
+      <c r="D711" s="51"/>
+      <c r="E711" s="22"/>
+    </row>
+    <row r="712" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C712" s="48"/>
+      <c r="D712" s="51"/>
+      <c r="E712" s="23"/>
+    </row>
+    <row r="713" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C713" s="48"/>
+      <c r="D713" s="51"/>
+      <c r="E713" s="22"/>
+    </row>
+    <row r="714" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C714" s="48"/>
+      <c r="D714" s="51"/>
+      <c r="E714" s="23"/>
+    </row>
+    <row r="715" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C715" s="48"/>
+      <c r="D715" s="51"/>
+      <c r="E715" s="23"/>
+    </row>
+    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C716" s="48"/>
+      <c r="D716" s="51"/>
+      <c r="E716" s="23"/>
+    </row>
+    <row r="717" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C717" s="48"/>
+      <c r="D717" s="51"/>
+      <c r="E717" s="23"/>
+    </row>
+    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C718" s="48"/>
+      <c r="D718" s="51"/>
+      <c r="E718" s="23"/>
+    </row>
+    <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C719" s="49"/>
+      <c r="D719" s="52"/>
+      <c r="E719" s="24"/>
+    </row>
+    <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C720" s="43" t="s">
         <v>901</v>
       </c>
-      <c r="E709" s="20" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="43">
-        <v>-3147</v>
-      </c>
-      <c r="D710" s="46" t="s">
+      <c r="D720" s="45" t="s">
         <v>902</v>
       </c>
-      <c r="E710" s="21" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="44"/>
-      <c r="D711" s="47"/>
-      <c r="E711" s="22"/>
-    </row>
-    <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="44"/>
-      <c r="D712" s="47"/>
-      <c r="E712" s="23"/>
-    </row>
-    <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="44"/>
-      <c r="D713" s="47"/>
-      <c r="E713" s="22"/>
-    </row>
-    <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="44"/>
-      <c r="D714" s="47"/>
-      <c r="E714" s="23"/>
-    </row>
-    <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="44"/>
-      <c r="D715" s="47"/>
-      <c r="E715" s="23"/>
-    </row>
-    <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="44"/>
-      <c r="D716" s="47"/>
-      <c r="E716" s="23"/>
-    </row>
-    <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="44"/>
-      <c r="D717" s="47"/>
-      <c r="E717" s="23"/>
-    </row>
-    <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="44"/>
-      <c r="D718" s="47"/>
-      <c r="E718" s="23"/>
-    </row>
-    <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="45"/>
-      <c r="D719" s="48"/>
-      <c r="E719" s="24"/>
-    </row>
-    <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="55" t="s">
+      <c r="E720" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="D720" s="57" t="s">
+    </row>
+    <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C721" s="44"/>
+      <c r="D721" s="46"/>
+      <c r="E721" s="26" t="s">
         <v>904</v>
-      </c>
-      <c r="E720" s="25" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="56"/>
-      <c r="D721" s="58"/>
-      <c r="E721" s="26" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="722" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C722" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="D722" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="E722" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="D722" s="26" t="s">
+    </row>
+    <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C723" s="43" t="s">
         <v>908</v>
       </c>
-      <c r="E722" s="26" t="s">
+      <c r="D723" s="45" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="55" t="s">
+      <c r="E723" s="28" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C724" s="44"/>
+      <c r="D724" s="46"/>
+      <c r="E724" s="26" t="s">
         <v>910</v>
-      </c>
-      <c r="D723" s="57" t="s">
-        <v>911</v>
-      </c>
-      <c r="E723" s="28" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="56"/>
-      <c r="D724" s="58"/>
-      <c r="E724" s="26" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="725" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C725" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="D725" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="E725" s="26" t="s">
         <v>913</v>
-      </c>
-      <c r="D725" s="26" t="s">
-        <v>914</v>
-      </c>
-      <c r="E725" s="26" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="726" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C726" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="D726" s="26" t="s">
+        <v>915</v>
+      </c>
+      <c r="E726" s="26" t="s">
         <v>916</v>
-      </c>
-      <c r="D726" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="E726" s="26" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="727" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C727" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="D727" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="E727" s="26" t="s">
         <v>919</v>
-      </c>
-      <c r="D727" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="E727" s="26" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="728" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C728" s="27" t="s">
+        <v>920</v>
+      </c>
+      <c r="D728" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="E728" s="26" t="s">
         <v>922</v>
       </c>
-      <c r="D728" s="26" t="s">
+    </row>
+    <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C729" s="43" t="s">
         <v>923</v>
       </c>
-      <c r="E728" s="26" t="s">
+      <c r="D729" s="28" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="55" t="s">
+      <c r="E729" s="45" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C730" s="44"/>
+      <c r="D730" s="26" t="s">
         <v>925</v>
       </c>
-      <c r="D729" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="E729" s="57" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="56"/>
-      <c r="D730" s="26" t="s">
-        <v>927</v>
-      </c>
-      <c r="E730" s="58"/>
+      <c r="E730" s="46"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="D731" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="E731" s="26" t="s">
         <v>929</v>
-      </c>
-      <c r="D731" s="26" t="s">
-        <v>930</v>
-      </c>
-      <c r="E731" s="26" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="732" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C732" s="27" t="s">
+        <v>930</v>
+      </c>
+      <c r="D732" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="E732" s="26" t="s">
         <v>932</v>
-      </c>
-      <c r="D732" s="26" t="s">
-        <v>933</v>
-      </c>
-      <c r="E732" s="26" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="733" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C733" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="D733" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="E733" s="26" t="s">
         <v>935</v>
-      </c>
-      <c r="D733" s="26" t="s">
-        <v>936</v>
-      </c>
-      <c r="E733" s="26" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="734" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C734" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="D734" s="26" t="s">
+        <v>937</v>
+      </c>
+      <c r="E734" s="26" t="s">
         <v>938</v>
-      </c>
-      <c r="D734" s="26" t="s">
-        <v>939</v>
-      </c>
-      <c r="E734" s="26" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="735" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C735" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="D735" s="26" t="s">
+        <v>940</v>
+      </c>
+      <c r="E735" s="26" t="s">
         <v>941</v>
-      </c>
-      <c r="D735" s="26" t="s">
-        <v>942</v>
-      </c>
-      <c r="E735" s="26" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="738" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C738" s="42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="739" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C739" s="40" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D739" s="41" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E739" s="33" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -10926,144 +11077,6 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1007">
   <si>
     <t>코드</t>
   </si>
@@ -1025,13 +1025,7 @@
     <t>Location not a Cartesian type</t>
   </si>
   <si>
-    <t xml:space="preserve">A property or a method of a Location object requires a Cartesian type value, but the Location is an Angles type instead. For example, it is invalid to reference the "X" property of a Location defined as an Angles type. </t>
-  </si>
-  <si>
     <t>Location not an angles type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A property or a method of a Location object requires an Angles type value, but the Location is a Cartesian type instead. For example, it is invalid to reference the "Angle" property of a Location defined as a Cartesian type. </t>
   </si>
   <si>
     <t>Invalid procedure overload</t>
@@ -1535,12 +1529,6 @@
     <t>Time out during nulling</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of a program generated motion, if the axes of the robot take too long to achieve the "InRange" constraint limits, this error message will be generated and program execution will be terminated. This may indicate that the InRange limit has been set too tightly or that the robot may not be able to get to the specified final position due to an obstruction. </t>
-  </si>
-  <si>
-    <t>모터가 정밀하게 목표 위치에 도달하는 데 너무 오랜 시간이 걸림. 제한이 너무 타이트하게 설정되어 있는지 혹은 이동간에 장애물이 있는지 점검. 혹은 게인 값을 조정한다.</t>
-  </si>
-  <si>
     <t>Invalid roll over spec</t>
   </si>
   <si>
@@ -1595,12 +1583,6 @@
     <t>Robot not homed</t>
   </si>
   <si>
-    <t>An operation was invoked that requires that the robot's motors be homed. If a robot is equipped with incremental encoders, when the controller is restarted, the system does not have any knowledge of where each axes is located in the workspace. Homing establishes a repeatable "zero" position for each axis. The robot can be homed by pressing a button on the web Operator Control Panel, the web Virtual Manual Control Panel or via a program instruction.</t>
-  </si>
-  <si>
-    <t>GPL에서 지원하는 홈 동작이 이루어 지지 않음. ORG (홈 명령)을 수행해야 한다.</t>
-  </si>
-  <si>
     <t>Invalid homing parameter</t>
   </si>
   <si>
@@ -1626,9 +1608,6 @@
   </si>
   <si>
     <t>Timeout enabling amp</t>
-  </si>
-  <si>
-    <t>Robot power has been turned off during the robot power-on sequence because one or more power amplifiers have not become ready within the timeout period. Please try the following procedures:</t>
   </si>
   <si>
     <t>1. Check the System Messages on the web interface Operator Control Panel for additional errors that may indicate a hardware failure.</t>
@@ -1677,9 +1656,6 @@
     <t>Hard E-STOP</t>
   </si>
   <si>
-    <t>A hard E-Stop condition has been detected. Any robot motion in progress is stopped rapidly and robot power is turned off. One the following has occurred:</t>
-  </si>
-  <si>
     <t>1. A front panel E-Stop loop ("ESTOP_L 1" or "ESTOP_L 2") has been broken.</t>
   </si>
   <si>
@@ -1689,9 +1665,6 @@
     <t>3. The parameter database item "Hard E-Stop" (DataID 243) has been set to TRUE.</t>
   </si>
   <si>
-    <t>하드 E-STOP이 감지됨. 외부적인 신호를 점검.(대부분의 원인은 외부적인 신호) Input 신호가 감지(DataID 244)를 점검. 매개변수 데이터베이스 항목 중 하드 E-중지(DataID 243)이 True로 설정되었다.</t>
-  </si>
-  <si>
     <t>Asynchronous error</t>
   </si>
   <si>
@@ -1743,19 +1716,7 @@
     <t>Negative overtravel</t>
   </si>
   <si>
-    <t>This is generated when the optional negative travel limit hardware switch has been tripped. This error indicates that a specified axis it outside of its permitted range-of-motion.</t>
-  </si>
-  <si>
-    <t>지정된 축이 움직일 수 있는 범위를 초과하여 하드웨어 -Limit스위치가 감지되었을 때 발생</t>
-  </si>
-  <si>
     <t>Positive overtravel</t>
-  </si>
-  <si>
-    <t>This is generated when the optional positive travel limit hardware switch has been tripped. This error indicates that a specified axis it outside of its permitted range-of-motion.</t>
-  </si>
-  <si>
-    <t>지정된 축이 움직일 수 있는 범위를 초과하여 하드웨어 +Limit스위치가 감지되었을 때 발생</t>
   </si>
   <si>
     <t>Kinematics not installed</t>
@@ -2449,9 +2410,6 @@
     <t>Motor duty cycle exceeded</t>
   </si>
   <si>
-    <t>Duty cycle testing is intended to prevent a motor from being damaged due to overheating. The overheating estimate is computed based upon the average power that is supplied to a motor by an amplifier over a period of time.</t>
-  </si>
-  <si>
     <t>The duty cycle criteria is defined by the "Rated motor current" (DataID 10611), "Duty cycle limit in terms of rated torque" (DataID 10623), "Duty cycle exceeded duration" (DataID 10622) and "Duty cycle SPR filter pole" (DataID 10621).</t>
   </si>
   <si>
@@ -2467,15 +2425,9 @@
     <t>Motor stalled</t>
   </si>
   <si>
-    <t>This error indicates that the torque/current for a motor has been saturated at the peak value as defined by the "Rated motor current" (DataID 10611) * "AUTO mode max motor current %" (DataID 10613) for "Motor stalled check duration" (DataID 10617) seconds.</t>
-  </si>
-  <si>
     <t>This is different than the conventional definition of having a motor not moving for a period of time with the torque/current continuously above a specified level.</t>
   </si>
   <si>
-    <t>모터가 어떠한 외부 요인으로 움직이지 않을 때 발생한다.</t>
-  </si>
-  <si>
     <t>Axis over-speed</t>
   </si>
   <si>
@@ -2528,9 +2480,6 @@
   </si>
   <si>
     <t>Amplifier over-current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This error is generated if the FPGA firmware detects that the output motor current has exceeded the specified current limits for too long a time. </t>
   </si>
   <si>
     <t>FPGA 펌웨어는 출력 모터 전류가 너무 긴 시간 동안 지정된 전류 제한을 초과했음을 감지 했을 경우 발생한다.</t>
@@ -3298,16 +3247,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>모터 과부하 알람.
-정위치까지 도달하지 못하고 출력 제한 시간이 초과됨.
-간섭 확인이나 모터 출력에 이상 없는지 확인
-트랙축(직교 타입)일 경우 상단, 하단의 LM 얼라인이 안맞거나 위아래 레벨이 안맞아서 발생하는 경우도 있음.
-This error indicates that the sum of the servo feedback terms ("Compensator output torque" (DataID 12304) minus the sum of the "Dynamic feedforward torque" (DataID 12337) and the "Filtered feedforward torque" (DataID 12331)) has either saturated the maximum specified torque for an axis or the "Max positive/negative torque limit for PID feedback" (10351,10352) for more than the time specified the "PID output saturation duration limit" (DataID 10369), which is set to 200 msec by default.
-This error is generated if the limits are set too low or the axis has been over-driven or the axis has collided with an obstacle or some other unexpected error has occurred.
-This check reduces the time that an axis is over-driven or that it drives into an obstacle.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Handling 하고자 하는 대상 station 이 로봇 Handling 이 가능한 상태인지 확인  
 Door 가 열려 있는지 확인 
 도어 다운 센서 들어 와 있는지 확인   
@@ -3402,12 +3341,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>This indicates that the specified robot axes are either beyond or were attempted to be moved beyond their software limits, i.e. outside of their permitted ranges of travel.
-This error is also generated if you attempt to set the minimum and maximum soft and hard joint limits to inconsistent values. If you are narrowing the limits, you should set the new soft limits first and then change the hard limits. If you attempt to make both changes at the same time with the web interface, the system will process the new hard limits first, determine that they violate the old soft limits, and generate this error message. 
-로봇의 움직이고자 하는 좌표가 Soft-Limit(허용 작업영역) 범위를 벗어남 티칭 또는 Offset 설정 오류수행하고자 한 동작에 관련된 티칭 포인트 및 Offset 설정값 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>A required software license is not installed on your controller. The name of the missing license is shown after this error message. The license names include:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3605,6 +3538,87 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>모터가 어떠한 외부 요인으로 움직이지 않을 때 발생한다.
+해당 축 서보 오프 후 동작 여부 확인
+Z축일 경우 브레이크 풀리는 소리 혹은 조그 동작으로 정상 동작 여부 확인
+This error indicates that the torque/current for a motor has been saturated at the peak value as defined by the "Rated motor current" (DataID 10611) * "AUTO mode max motor current %" (DataID 10613) for "Motor stalled check duration" (DataID 10617) seconds.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 과부하 알람.
+정위치까지 도달하지 못하고 출력 제한 시간이 초과됨.
+간섭 확인이나 모터 출력에 이상 없는지 확인
+트랙축(직교 타입)일 경우 상단, 하단의 LM 얼라인이 안맞거나 위아래 레벨이 안맞아서 발생하는 경우도 있음.
+This error indicates that the sum of the servo feedback terms ("Compensator output torque" (DataID 12304) minus the sum of the "Dynamic feedforward torque" (DataID 12337) and the "Filtered feedforward torque" (DataID 12331)) has either saturated the maximum specified torque for an axis or the "Max positive/negative torque limit for PID feedback" (10351,10352) for more than the time specified the "PID output saturation duration limit" (DataID 10369), which is set to 200 msec by default.
+This error is generated if the limits are set too low or the axis has been over-driven or the axis has collided with an obstacle or some other unexpected error has occurred.
+This check reduces the time that an axis is over-driven or that it drives into an obstacle.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모터 출력 과전류 알람.
+해당 알람 발생 시 제조사 문의 필요
+This error is generated if the FPGA firmware detects that the output motor current has exceeded the specified current limits for too long a time. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 과부하 알람
+해당 축 서보 오프 후 동작 여부 확인
+Z축일 경우 브레이크 풀리는 소리 혹은 조그 동작으로 정상 동작 여부 확인
+동작 중 간섭 여부 확인
+트랙축(직교 타입)일 경우 상단, 하단의 LM 얼라인이 안맞거나 위아래 레벨이 안맞아서 발생하는 경우도 있음.
+과부하, 브레이크 풀리지 않음 등이 원인으로 발생
+구리스 상태 및 간섭, Z축의 경우 서보 온 시 브레이크가 풀리는지 확인
+Duty cycle testing is intended to prevent a motor from being damaged due to overheating. The overheating estimate is computed based upon the average power that is supplied to a motor by an amplifier over a period of time.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저장된 티칭 포인트가 월드 좌표여야 하나 모터 좌표로 저장되어 있음.
+티칭 포인트 확인
+A property or a method of a Location object requires a Cartesian type value, but the Location is an Angles type instead. For example, it is invalid to reference the "X" property of a Location defined as an Angles type. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저장된 티칭 포인트가 모터 좌표여야 하나 월드 좌표로 저장되어 있음.
+티칭 포인트 확인
+A property or a method of a Location object requires an Angles type value, but the Location is a Cartesian type instead. For example, it is invalid to reference the "Angle" property of a Location defined as a Cartesian type. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생한 에러코드 ‘Invailid array index’는 매핑 결과, 슬롯 인덱스가 음수로 계산되어 발생하는 에러. (슬롯 인덱스는 0또는 1 이상의 양수여야함)
+ - 해당 에러의 발생 원인 Mapping Calibration값과 Mapping 결과 값이 기준 값 이상으로 다를 경우 나타나는 경우.
+           1. Mapping Calibration이 제대로 진행되지 않음
+           2. Calibration 이후 FOUP이나 웨이퍼의 위치가 변경됨
+- Mapping Calibration 재 수행.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로봇의 움직이고자 하는 좌표가 Soft-Limit(허용 작업영역) 범위를 벗어남 티칭 또는 Offset 설정 오류수행하고자 한 동작에 관련된 티칭 포인트 및 Offset 설정값 확인
+This indicates that the specified robot axes are either beyond or were attempted to be moved beyond their software limits, i.e. outside of their permitted ranges of travel.
+This error is also generated if you attempt to set the minimum and maximum soft and hard joint limits to inconsistent values. If you are narrowing the limits, you should set the new soft limits first and then change the hard limits. If you attempt to make both changes at the same time with the web interface, the system will process the new hard limits first, determine that they violate the old soft limits, and generate this error message. 
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모터가 정밀하게 목표 위치에 도달하는 데 너무 오랜 시간이 걸림. 제한이 너무 타이트하게 설정되어 있는지 혹은 이동간에 장애물이 있는지 점검. 혹은 게인 값을 조정한다.
+At the end of a program generated motion, if the axes of the robot take too long to achieve the "InRange" constraint limits, this error message will be generated and program execution will be terminated. This may indicate that the InRange limit has been set too tightly or that the robot may not be able to get to the specified final position due to an obstruction. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPL에서 지원하는 홈 동작이 이루어 지지 않음. ORG (홈 명령)을 수행해야 한다.
+An operation was invoked that requires that the robot's motors be homed. If a robot is equipped with incremental encoders, when the controller is restarted, the system does not have any knowledge of where each axes is located in the workspace. Homing establishes a repeatable "zero" position for each axis. The robot can be homed by pressing a button on the web Operator Control Panel, the web Virtual Manual Control Panel or via a program instruction.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 출력 이상. 모터 커넥터 연결 확인. (로봇 - 제어기)
+엔코더 커넥터 정상 연결 확인.
+Robot power has been turned off during the robot power-on sequence because one or more power amplifiers have not become ready within the timeout period. Please try the following procedures:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드 E-STOP이 감지됨. 외부적인 신호를 점검.(대부분의 원인은 외부적인 신호) Input 신호가 감지(DataID 244)를 점검. 매개변수 데이터베이스 항목 중 하드 E-중지(DataID 243)이 True로 설정되었다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>004 알람이랑 동일.
 EMO 시그널 인가되었을 경우 알람 발생
 외부 E-Stop신호감지. 외부에서 E-Stop신호가 들어오는지를 확인 후 클리어
@@ -3617,6 +3631,35 @@
 점퍼 해서 004 에러 해제 된다면 외부 EMO 시그널 장비 쪽 점검
 Control Box EM-STOP S/W 눌림 확인
 A front panel E-Stop loop ("ESTOP_L 1" or "ESTOP_L 2") has been broken and the status signal "External ESTOP_L" is asserted, indicating that external equipment is the source of the E-Stop.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>004 알람이랑 동일.
+EMO 시그널 인가되었을 경우 알람 발생
+외부 E-Stop신호감지. 외부에서 E-Stop신호가 들어오는지를 확인 후 클리어
+Switch 접점  
+EMO 스위치 눌림 확인 
+EMO 스위치 시계 방향으로 돌려서 EMO 스위치 해제 
+티칭펜던트 뒷면 데드맨 스위치 ( 1단 ) 유지 상태에서 펜던트(TP) CLR 키 눌러 EMO 해제
+장비 에서 보내 EMO Signal Input 불량  ( 장비 외부 신호 때문에 에러 발생 )
+제어기 유저 EMO 커넥터 1,2번점퍼 , 4,5번 점퍼 하여서 004 에러 해제 테스트  
+점퍼 해서 004 에러 해제 된다면 외부 EMO 시그널 장비 쪽 점검
+Control Box EM-STOP S/W 눌림 확인
+A hard E-Stop condition has been detected. Any robot motion in progress is stopped rapidly and robot power is turned off. One the following has occurred:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 축이 움직일 수 있는 범위를 초과하여 하드웨어 +Limit스위치가 감지되었을 때 발생
+리밋 센서가 감지 되지 않는 위치라면 센서 노이즈로 인한 간헐적 발생.
+센서 점검 및 해당 센서 케이블 점검
+This is generated when the optional positive travel limit hardware switch has been tripped. This error indicates that a specified axis it outside of its permitted range-of-motion.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 축이 움직일 수 있는 범위를 초과하여 하드웨어 -Limit스위치가 감지되었을 때 발생
+리밋 센서가 감지 되지 않는 위치라면 센서 노이즈로 인한 간헐적 발생.
+센서 점검 및 해당 센서 케이블 점검
+This is generated when the optional negative travel limit hardware switch has been tripped. This error indicates that a specified axis it outside of its permitted range-of-motion.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3974,9 +4017,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3986,6 +4026,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4318,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="E472" sqref="E472"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="E377" sqref="E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4331,13 +4374,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="D1" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="E1" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4345,10 +4388,10 @@
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4370,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4381,7 +4424,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4392,7 +4435,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4400,10 +4443,10 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4414,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4422,10 +4465,10 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4436,7 +4479,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4447,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4458,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4469,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4480,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4491,7 +4534,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4502,7 +4545,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4513,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4524,7 +4567,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4546,7 +4589,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4554,10 +4597,10 @@
         <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4565,10 +4608,10 @@
         <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4576,10 +4619,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4587,10 +4630,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4601,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4612,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4634,7 +4677,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4645,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4656,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4667,7 +4710,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4678,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>981</v>
+        <v>963</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4689,7 +4732,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4700,7 +4743,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4711,7 +4754,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4722,7 +4765,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4733,7 +4776,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4744,7 +4787,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4755,7 +4798,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4978,7 +5021,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5055,7 +5098,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5077,7 +5120,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
     </row>
     <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5275,7 +5318,7 @@
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
@@ -5688,7 +5731,7 @@
         <v>186</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6611,7 +6654,7 @@
       </c>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C225" s="7">
         <v>-762</v>
       </c>
@@ -6619,18 +6662,18 @@
         <v>332</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C226" s="7">
         <v>-763</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>335</v>
+        <v>996</v>
       </c>
     </row>
     <row r="227" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6638,7 +6681,7 @@
         <v>-764</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E227" s="14"/>
     </row>
@@ -6647,7 +6690,7 @@
         <v>-765</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E228" s="14"/>
     </row>
@@ -6656,25 +6699,27 @@
         <v>-766</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C230" s="7">
         <v>-767</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E230" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="E230" s="14" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="231" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C231" s="7">
         <v>-768</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E231" s="14"/>
     </row>
@@ -6683,10 +6728,10 @@
         <v>-769</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6694,10 +6739,10 @@
         <v>-770</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6705,7 +6750,7 @@
         <v>-771</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E234" s="14"/>
     </row>
@@ -6714,7 +6759,7 @@
         <v>-772</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E235" s="14"/>
     </row>
@@ -6723,7 +6768,7 @@
         <v>-773</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E236" s="14"/>
     </row>
@@ -6732,10 +6777,10 @@
         <v>-774</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="238" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6743,10 +6788,10 @@
         <v>-775</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -6754,10 +6799,10 @@
         <v>-776</v>
       </c>
       <c r="D239" s="50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
@@ -6769,7 +6814,7 @@
       <c r="C241" s="49"/>
       <c r="D241" s="52"/>
       <c r="E241" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="242" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6777,7 +6822,7 @@
         <v>-778</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E242" s="14"/>
     </row>
@@ -6786,7 +6831,7 @@
         <v>-779</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E243" s="14"/>
     </row>
@@ -6795,7 +6840,7 @@
         <v>-780</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E244" s="14"/>
     </row>
@@ -6804,10 +6849,10 @@
         <v>-781</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6815,10 +6860,10 @@
         <v>-782</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="247" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6826,10 +6871,10 @@
         <v>-783</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="248" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6837,10 +6882,10 @@
         <v>-784</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="249" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6848,10 +6893,10 @@
         <v>-785</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6859,10 +6904,10 @@
         <v>-786</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="251" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6870,10 +6915,10 @@
         <v>-787</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="252" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6881,10 +6926,10 @@
         <v>-788</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6892,10 +6937,10 @@
         <v>-789</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6903,10 +6948,10 @@
         <v>-790</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6914,10 +6959,10 @@
         <v>-791</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6925,10 +6970,10 @@
         <v>-792</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6936,10 +6981,10 @@
         <v>-793</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="258" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -6947,10 +6992,10 @@
         <v>-794</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6958,10 +7003,10 @@
         <v>-795</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="260" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6969,10 +7014,10 @@
         <v>-796</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="261" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -6980,10 +7025,10 @@
         <v>-797</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6991,10 +7036,10 @@
         <v>-798</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="263" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7002,10 +7047,10 @@
         <v>-799</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="264" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7013,10 +7058,10 @@
         <v>-800</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="265" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7024,10 +7069,10 @@
         <v>-801</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="266" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7035,10 +7080,10 @@
         <v>-802</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7046,10 +7091,10 @@
         <v>-803</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7057,10 +7102,10 @@
         <v>-804</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7068,10 +7113,10 @@
         <v>-805</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="270" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7079,10 +7124,10 @@
         <v>-806</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7090,10 +7135,10 @@
         <v>-807</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="272" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7101,10 +7146,10 @@
         <v>-808</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="273" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7112,10 +7157,10 @@
         <v>-809</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="274" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7123,10 +7168,10 @@
         <v>-810</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -7134,10 +7179,10 @@
         <v>-811</v>
       </c>
       <c r="D275" s="50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E275" s="50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7150,10 +7195,10 @@
         <v>-812</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="278" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7161,10 +7206,10 @@
         <v>-1000</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7172,10 +7217,10 @@
         <v>-1001</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7183,10 +7228,10 @@
         <v>-1002</v>
       </c>
       <c r="D280" s="50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
@@ -7198,7 +7243,7 @@
       <c r="C282" s="49"/>
       <c r="D282" s="52"/>
       <c r="E282" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7206,10 +7251,10 @@
         <v>-1003</v>
       </c>
       <c r="D283" s="50" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
@@ -7221,7 +7266,7 @@
       <c r="C285" s="49"/>
       <c r="D285" s="52"/>
       <c r="E285" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7229,10 +7274,10 @@
         <v>-1004</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7240,10 +7285,10 @@
         <v>-1005</v>
       </c>
       <c r="D287" s="50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
@@ -7255,7 +7300,7 @@
       <c r="C289" s="49"/>
       <c r="D289" s="52"/>
       <c r="E289" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -7263,10 +7308,10 @@
         <v>-1006</v>
       </c>
       <c r="D290" s="50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
@@ -7278,21 +7323,21 @@
       <c r="C292" s="48"/>
       <c r="D292" s="51"/>
       <c r="E292" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C293" s="48"/>
       <c r="D293" s="51"/>
       <c r="E293" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C294" s="49"/>
       <c r="D294" s="52"/>
       <c r="E294" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7300,10 +7345,10 @@
         <v>-1007</v>
       </c>
       <c r="D295" s="50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
@@ -7315,7 +7360,7 @@
       <c r="C297" s="48"/>
       <c r="D297" s="51"/>
       <c r="E297" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
@@ -7327,14 +7372,14 @@
       <c r="C299" s="48"/>
       <c r="D299" s="51"/>
       <c r="E299" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C300" s="49"/>
       <c r="D300" s="52"/>
       <c r="E300" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7342,10 +7387,10 @@
         <v>-1008</v>
       </c>
       <c r="D301" s="50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
@@ -7357,7 +7402,7 @@
       <c r="C303" s="49"/>
       <c r="D303" s="52"/>
       <c r="E303" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -7365,10 +7410,10 @@
         <v>-1009</v>
       </c>
       <c r="D304" s="50" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
@@ -7380,7 +7425,7 @@
       <c r="C306" s="49"/>
       <c r="D306" s="52"/>
       <c r="E306" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -7388,10 +7433,10 @@
         <v>-1010</v>
       </c>
       <c r="D307" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
@@ -7403,7 +7448,7 @@
       <c r="C309" s="49"/>
       <c r="D309" s="52"/>
       <c r="E309" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
@@ -7411,10 +7456,10 @@
         <v>-1011</v>
       </c>
       <c r="D310" s="50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
@@ -7426,18 +7471,18 @@
       <c r="C312" s="49"/>
       <c r="D312" s="52"/>
       <c r="E312" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="313" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C313" s="38">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="313" spans="3:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C313" s="42">
         <v>-1012</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
@@ -7445,10 +7490,10 @@
         <v>-1013</v>
       </c>
       <c r="D314" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
@@ -7460,25 +7505,25 @@
       <c r="C316" s="48"/>
       <c r="D316" s="51"/>
       <c r="E316" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C317" s="49"/>
       <c r="D317" s="52"/>
       <c r="E317" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="318" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="318" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
       <c r="C318" s="47">
         <v>-1014</v>
       </c>
       <c r="D318" s="50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>464</v>
+        <v>999</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
@@ -7486,22 +7531,20 @@
       <c r="D319" s="51"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C320" s="49"/>
       <c r="D320" s="52"/>
-      <c r="E320" s="15" t="s">
-        <v>465</v>
-      </c>
+      <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C321" s="7">
         <v>-1015</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7509,10 +7552,10 @@
         <v>-1016</v>
       </c>
       <c r="D322" s="50" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
@@ -7524,14 +7567,14 @@
       <c r="C324" s="48"/>
       <c r="D324" s="51"/>
       <c r="E324" s="12" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C325" s="49"/>
       <c r="D325" s="52"/>
       <c r="E325" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="326" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7539,10 +7582,10 @@
         <v>-1017</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="327" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7550,10 +7593,10 @@
         <v>-1018</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -7561,10 +7604,10 @@
         <v>-1019</v>
       </c>
       <c r="D328" s="50" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
@@ -7576,7 +7619,7 @@
       <c r="C330" s="49"/>
       <c r="D330" s="52"/>
       <c r="E330" s="11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7584,10 +7627,10 @@
         <v>-1020</v>
       </c>
       <c r="D331" s="50" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
@@ -7599,7 +7642,7 @@
       <c r="C333" s="48"/>
       <c r="D333" s="51"/>
       <c r="E333" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
@@ -7611,18 +7654,18 @@
       <c r="C335" s="49"/>
       <c r="D335" s="52"/>
       <c r="E335" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="336" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
       <c r="C336" s="47">
         <v>-1021</v>
       </c>
       <c r="D336" s="50" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>484</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
@@ -7633,19 +7676,17 @@
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C338" s="49"/>
       <c r="D338" s="52"/>
-      <c r="E338" s="15" t="s">
-        <v>485</v>
-      </c>
+      <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C339" s="7">
         <v>-1022</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7653,10 +7694,10 @@
         <v>-1023</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="341" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7664,10 +7705,10 @@
         <v>-1024</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="342" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -7675,21 +7716,21 @@
         <v>-1025</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="343" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="343" spans="3:5" ht="78" x14ac:dyDescent="0.4">
       <c r="C343" s="47">
         <v>-1026</v>
       </c>
       <c r="D343" s="50" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>495</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
@@ -7701,28 +7742,28 @@
       <c r="C345" s="48"/>
       <c r="D345" s="51"/>
       <c r="E345" s="12" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C346" s="48"/>
       <c r="D346" s="51"/>
       <c r="E346" s="12" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C347" s="48"/>
       <c r="D347" s="51"/>
       <c r="E347" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C348" s="49"/>
       <c r="D348" s="52"/>
       <c r="E348" s="11" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -7730,21 +7771,21 @@
         <v>-1027</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="350" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="350" spans="3:5" ht="312" x14ac:dyDescent="0.4">
       <c r="C350" s="47">
         <v>-1028</v>
       </c>
       <c r="D350" s="50" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>503</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
@@ -7756,21 +7797,21 @@
       <c r="C352" s="48"/>
       <c r="D352" s="51"/>
       <c r="E352" s="12" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C353" s="48"/>
       <c r="D353" s="51"/>
       <c r="E353" s="12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C354" s="48"/>
       <c r="D354" s="51"/>
       <c r="E354" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
@@ -7782,7 +7823,7 @@
       <c r="C356" s="49"/>
       <c r="D356" s="52"/>
       <c r="E356" s="15" t="s">
-        <v>507</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7790,10 +7831,10 @@
         <v>-1029</v>
       </c>
       <c r="D357" s="50" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
@@ -7805,7 +7846,7 @@
       <c r="C359" s="48"/>
       <c r="D359" s="51"/>
       <c r="E359" s="12" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
@@ -7817,14 +7858,14 @@
       <c r="C361" s="48"/>
       <c r="D361" s="51"/>
       <c r="E361" s="16" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C362" s="49"/>
       <c r="D362" s="52"/>
       <c r="E362" s="15" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -7832,10 +7873,10 @@
         <v>-1030</v>
       </c>
       <c r="D363" s="50" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
@@ -7847,7 +7888,7 @@
       <c r="C365" s="48"/>
       <c r="D365" s="51"/>
       <c r="E365" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
@@ -7859,7 +7900,7 @@
       <c r="C367" s="49"/>
       <c r="D367" s="52"/>
       <c r="E367" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="368" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7867,10 +7908,10 @@
         <v>-1031</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="369" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7878,10 +7919,10 @@
         <v>-1032</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
@@ -7889,10 +7930,10 @@
         <v>-1033</v>
       </c>
       <c r="D370" s="50" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
@@ -7904,18 +7945,18 @@
       <c r="C372" s="49"/>
       <c r="D372" s="52"/>
       <c r="E372" s="15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="373" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
       <c r="C373" s="47">
         <v>-1034</v>
       </c>
       <c r="D373" s="50" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>525</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
@@ -7926,19 +7967,17 @@
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C375" s="49"/>
       <c r="D375" s="52"/>
-      <c r="E375" s="15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="376" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
       <c r="C376" s="47">
         <v>-1035</v>
       </c>
       <c r="D376" s="50" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>528</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
@@ -7949,19 +7988,17 @@
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C378" s="49"/>
       <c r="D378" s="52"/>
-      <c r="E378" s="15" t="s">
-        <v>529</v>
-      </c>
+      <c r="E378" s="15"/>
     </row>
     <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
       <c r="C379" s="47">
         <v>-1036</v>
       </c>
       <c r="D379" s="50" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
@@ -7973,7 +8010,7 @@
       <c r="C381" s="49"/>
       <c r="D381" s="52"/>
       <c r="E381" s="15" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
@@ -7981,10 +8018,10 @@
         <v>-1037</v>
       </c>
       <c r="D382" s="50" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
@@ -7996,7 +8033,7 @@
       <c r="C384" s="49"/>
       <c r="D384" s="52"/>
       <c r="E384" s="15" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8004,10 +8041,10 @@
         <v>-1038</v>
       </c>
       <c r="D385" s="50" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
@@ -8019,7 +8056,7 @@
       <c r="C387" s="49"/>
       <c r="D387" s="52"/>
       <c r="E387" s="15" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
@@ -8027,10 +8064,10 @@
         <v>-1039</v>
       </c>
       <c r="D388" s="50" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E388" s="9" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
@@ -8042,7 +8079,7 @@
       <c r="C390" s="49"/>
       <c r="D390" s="52"/>
       <c r="E390" s="15" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -8050,10 +8087,10 @@
         <v>-1040</v>
       </c>
       <c r="D391" s="50" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
@@ -8065,7 +8102,7 @@
       <c r="C393" s="49"/>
       <c r="D393" s="52"/>
       <c r="E393" s="15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8073,10 +8110,10 @@
         <v>-1041</v>
       </c>
       <c r="D394" s="50" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
@@ -8088,7 +8125,7 @@
       <c r="C396" s="49"/>
       <c r="D396" s="52"/>
       <c r="E396" s="15" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="397" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8096,10 +8133,10 @@
         <v>-1042</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8107,10 +8144,10 @@
         <v>-1043</v>
       </c>
       <c r="D398" s="50" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E398" s="9" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
@@ -8122,7 +8159,7 @@
       <c r="C400" s="48"/>
       <c r="D400" s="51"/>
       <c r="E400" s="12" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
@@ -8134,7 +8171,7 @@
       <c r="C402" s="49"/>
       <c r="D402" s="52"/>
       <c r="E402" s="11" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="403" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8142,10 +8179,10 @@
         <v>-1044</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8153,10 +8190,10 @@
         <v>-1045</v>
       </c>
       <c r="D404" s="50" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
@@ -8168,28 +8205,28 @@
       <c r="C406" s="48"/>
       <c r="D406" s="51"/>
       <c r="E406" s="12" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C407" s="48"/>
       <c r="D407" s="51"/>
       <c r="E407" s="12" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C408" s="48"/>
       <c r="D408" s="51"/>
       <c r="E408" s="12" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C409" s="49"/>
       <c r="D409" s="52"/>
       <c r="E409" s="11" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8197,10 +8234,10 @@
         <v>-1046</v>
       </c>
       <c r="D410" s="50" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E410" s="9" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
@@ -8212,7 +8249,7 @@
       <c r="C412" s="49"/>
       <c r="D412" s="52"/>
       <c r="E412" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="413" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8220,10 +8257,10 @@
         <v>-1047</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8231,10 +8268,10 @@
         <v>-1048</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="415" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8242,10 +8279,10 @@
         <v>-1049</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="416" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8253,10 +8290,10 @@
         <v>-1050</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8264,10 +8301,10 @@
         <v>-1051</v>
       </c>
       <c r="D417" s="50" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E417" s="9" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
@@ -8279,14 +8316,14 @@
       <c r="C419" s="48"/>
       <c r="D419" s="51"/>
       <c r="E419" s="12" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C420" s="49"/>
       <c r="D420" s="52"/>
       <c r="E420" s="11" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8294,10 +8331,10 @@
         <v>-1052</v>
       </c>
       <c r="D421" s="50" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E421" s="9" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
@@ -8309,7 +8346,7 @@
       <c r="C423" s="49"/>
       <c r="D423" s="52"/>
       <c r="E423" s="11" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8317,10 +8354,10 @@
         <v>-1053</v>
       </c>
       <c r="D424" s="50" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E424" s="9" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
@@ -8332,7 +8369,7 @@
       <c r="C426" s="49"/>
       <c r="D426" s="52"/>
       <c r="E426" s="11" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="427" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8340,10 +8377,10 @@
         <v>-1054</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E427" s="8" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8351,10 +8388,10 @@
         <v>-1055</v>
       </c>
       <c r="D428" s="50" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E428" s="9" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
@@ -8366,14 +8403,14 @@
       <c r="C430" s="48"/>
       <c r="D430" s="51"/>
       <c r="E430" s="12" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C431" s="49"/>
       <c r="D431" s="52"/>
       <c r="E431" s="11" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8381,10 +8418,10 @@
         <v>-1056</v>
       </c>
       <c r="D432" s="50" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E432" s="9" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
@@ -8396,7 +8433,7 @@
       <c r="C434" s="49"/>
       <c r="D434" s="52"/>
       <c r="E434" s="11" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="435" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8404,10 +8441,10 @@
         <v>-1057</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E435" s="8" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="436" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8415,10 +8452,10 @@
         <v>-1058</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="437" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8426,10 +8463,10 @@
         <v>-1059</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="438" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8437,10 +8474,10 @@
         <v>-1500</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8448,10 +8485,10 @@
         <v>-1501</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E439" s="8" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="440" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8459,10 +8496,10 @@
         <v>-1502</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E440" s="8" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="441" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8470,10 +8507,10 @@
         <v>-1505</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E441" s="8" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="442" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8481,10 +8518,10 @@
         <v>-1507</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="443" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8492,10 +8529,10 @@
         <v>-1509</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="444" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8503,10 +8540,10 @@
         <v>-1510</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="E444" s="8" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="445" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8514,10 +8551,10 @@
         <v>-1511</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="E445" s="8" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="446" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8525,10 +8562,10 @@
         <v>-1512</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E446" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="447" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8536,10 +8573,10 @@
         <v>-1514</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E447" s="8" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="448" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8547,10 +8584,10 @@
         <v>-1515</v>
       </c>
       <c r="D448" s="8" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E448" s="8" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="449" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8558,10 +8595,10 @@
         <v>-1516</v>
       </c>
       <c r="D449" s="8" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E449" s="8" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="450" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8569,7 +8606,7 @@
         <v>-1517</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E450" s="14"/>
     </row>
@@ -8578,7 +8615,7 @@
         <v>-1518</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E451" s="14"/>
     </row>
@@ -8587,7 +8624,7 @@
         <v>-1519</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E452" s="14"/>
     </row>
@@ -8596,7 +8633,7 @@
         <v>-1520</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E453" s="14"/>
     </row>
@@ -8605,7 +8642,7 @@
         <v>-1521</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E454" s="14"/>
     </row>
@@ -8614,10 +8651,10 @@
         <v>-1522</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="456" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8625,10 +8662,10 @@
         <v>-1523</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="457" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8636,10 +8673,10 @@
         <v>-1524</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E457" s="8" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="458" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8647,10 +8684,10 @@
         <v>-1550</v>
       </c>
       <c r="D458" s="8" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E458" s="8" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="459" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8658,10 +8695,10 @@
         <v>-1551</v>
       </c>
       <c r="D459" s="8" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E459" s="8" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="460" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8669,10 +8706,10 @@
         <v>-1552</v>
       </c>
       <c r="D460" s="8" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E460" s="8" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="461" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8680,10 +8717,10 @@
         <v>-1553</v>
       </c>
       <c r="D461" s="8" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="462" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8691,10 +8728,10 @@
         <v>-1554</v>
       </c>
       <c r="D462" s="8" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="E462" s="8" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="463" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8702,10 +8739,10 @@
         <v>-1555</v>
       </c>
       <c r="D463" s="8" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="E463" s="8" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="464" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8713,10 +8750,10 @@
         <v>-1556</v>
       </c>
       <c r="D464" s="8" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E464" s="8" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="465" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8724,10 +8761,10 @@
         <v>-1558</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E465" s="8" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="466" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8735,10 +8772,10 @@
         <v>-1560</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E466" s="8" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="467" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8746,10 +8783,10 @@
         <v>-1561</v>
       </c>
       <c r="D467" s="8" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="E467" s="8" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
@@ -8757,24 +8794,24 @@
         <v>-1600</v>
       </c>
       <c r="D468" s="50" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="E468" s="9" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C469" s="48"/>
       <c r="D469" s="51"/>
       <c r="E469" s="12" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C470" s="49"/>
       <c r="D470" s="52"/>
       <c r="E470" s="11" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="471" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8782,10 +8819,10 @@
         <v>-1601</v>
       </c>
       <c r="D471" s="8" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="472" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
@@ -8793,10 +8830,10 @@
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="E472" s="8" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8804,10 +8841,10 @@
         <v>-1603</v>
       </c>
       <c r="D473" s="8" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E473" s="8" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8815,10 +8852,10 @@
         <v>-1604</v>
       </c>
       <c r="D474" s="8" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E474" s="8" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8826,10 +8863,10 @@
         <v>-1605</v>
       </c>
       <c r="D475" s="8" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E475" s="8" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8837,10 +8874,10 @@
         <v>-1606</v>
       </c>
       <c r="D476" s="8" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E476" s="8" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8848,10 +8885,10 @@
         <v>-1607</v>
       </c>
       <c r="D477" s="8" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E477" s="8" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8859,10 +8896,10 @@
         <v>-1609</v>
       </c>
       <c r="D478" s="8" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="E478" s="8" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -8870,10 +8907,10 @@
         <v>-1610</v>
       </c>
       <c r="D479" s="50" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E479" s="9" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
@@ -8885,7 +8922,7 @@
       <c r="C481" s="48"/>
       <c r="D481" s="51"/>
       <c r="E481" s="12" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
@@ -8897,7 +8934,7 @@
       <c r="C483" s="48"/>
       <c r="D483" s="51"/>
       <c r="E483" s="12" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
@@ -8909,7 +8946,7 @@
       <c r="C485" s="49"/>
       <c r="D485" s="52"/>
       <c r="E485" s="11" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8917,10 +8954,10 @@
         <v>-1611</v>
       </c>
       <c r="D486" s="8" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="E486" s="8" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8928,10 +8965,10 @@
         <v>-1612</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="E487" s="8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8939,10 +8976,10 @@
         <v>-1613</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="E488" s="8" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8950,10 +8987,10 @@
         <v>-1614</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E489" s="8" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8961,10 +8998,10 @@
         <v>-1615</v>
       </c>
       <c r="D490" s="8" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="E490" s="8" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8972,10 +9009,10 @@
         <v>-1616</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="E491" s="8" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="492" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -8983,10 +9020,10 @@
         <v>-1617</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="E492" s="8" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8994,10 +9031,10 @@
         <v>-1700</v>
       </c>
       <c r="D493" s="8" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="E493" s="8" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9005,10 +9042,10 @@
         <v>-1701</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9016,10 +9053,10 @@
         <v>-1702</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="E495" s="8" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9027,10 +9064,10 @@
         <v>-1703</v>
       </c>
       <c r="D496" s="8" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="E496" s="8" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="497" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9038,10 +9075,10 @@
         <v>-1704</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E497" s="8" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="498" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9049,10 +9086,10 @@
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9060,10 +9097,10 @@
         <v>-1706</v>
       </c>
       <c r="D499" s="8" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E499" s="8" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9071,10 +9108,10 @@
         <v>-1707</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9082,10 +9119,10 @@
         <v>-1708</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E501" s="8" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="502" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9093,10 +9130,10 @@
         <v>-1709</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="E502" s="8" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9104,10 +9141,10 @@
         <v>-1710</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="E503" s="8" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9115,10 +9152,10 @@
         <v>-1720</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9126,10 +9163,10 @@
         <v>-1730</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9137,10 +9174,10 @@
         <v>-1731</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="E506" s="8" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9148,10 +9185,10 @@
         <v>-1732</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="E507" s="8" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9159,10 +9196,10 @@
         <v>-1740</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="E508" s="8" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="509" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9170,7 +9207,7 @@
         <v>-3000</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E509" s="14"/>
     </row>
@@ -9179,7 +9216,7 @@
         <v>-3001</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="E510" s="14"/>
     </row>
@@ -9188,7 +9225,7 @@
         <v>-3002</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="E511" s="14"/>
     </row>
@@ -9197,7 +9234,7 @@
         <v>-3003</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E512" s="14"/>
     </row>
@@ -9206,7 +9243,7 @@
         <v>-3004</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E513" s="14"/>
     </row>
@@ -9215,7 +9252,7 @@
         <v>-3005</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="E514" s="14"/>
     </row>
@@ -9224,7 +9261,7 @@
         <v>-3006</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E515" s="14"/>
     </row>
@@ -9233,7 +9270,7 @@
         <v>-3007</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="E516" s="14"/>
     </row>
@@ -9242,7 +9279,7 @@
         <v>-3008</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E517" s="14"/>
     </row>
@@ -9251,7 +9288,7 @@
         <v>-3009</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="E518" s="14"/>
     </row>
@@ -9260,7 +9297,7 @@
         <v>-3010</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E519" s="14"/>
     </row>
@@ -9269,7 +9306,7 @@
         <v>-3011</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="E520" s="14"/>
     </row>
@@ -9278,7 +9315,7 @@
         <v>-3012</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E521" s="14"/>
     </row>
@@ -9287,7 +9324,7 @@
         <v>-3013</v>
       </c>
       <c r="D522" s="8" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E522" s="14"/>
     </row>
@@ -9296,10 +9333,10 @@
         <v>-3014</v>
       </c>
       <c r="D523" s="50" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E523" s="9" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
@@ -9311,7 +9348,7 @@
       <c r="C525" s="49"/>
       <c r="D525" s="52"/>
       <c r="E525" s="11" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -9319,10 +9356,10 @@
         <v>-3015</v>
       </c>
       <c r="D526" s="50" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E526" s="9" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
@@ -9334,7 +9371,7 @@
       <c r="C528" s="49"/>
       <c r="D528" s="52"/>
       <c r="E528" s="11" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9342,10 +9379,10 @@
         <v>-3016</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="E529" s="8" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9353,10 +9390,10 @@
         <v>-3017</v>
       </c>
       <c r="D530" s="8" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="E530" s="8" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9364,10 +9401,10 @@
         <v>-3100</v>
       </c>
       <c r="D531" s="8" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E531" s="8" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -9375,10 +9412,10 @@
         <v>-3101</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9386,10 +9423,10 @@
         <v>-3102</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E533" s="8" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9397,21 +9434,21 @@
         <v>-3103</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E534" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="535" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
       <c r="C535" s="47">
         <v>-3104</v>
       </c>
       <c r="D535" s="50" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>752</v>
+        <v>994</v>
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
@@ -9423,7 +9460,7 @@
       <c r="C537" s="48"/>
       <c r="D537" s="51"/>
       <c r="E537" s="12" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
@@ -9435,7 +9472,7 @@
       <c r="C539" s="48"/>
       <c r="D539" s="51"/>
       <c r="E539" s="12" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
@@ -9447,7 +9484,7 @@
       <c r="C541" s="48"/>
       <c r="D541" s="51"/>
       <c r="E541" s="12" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
@@ -9459,18 +9496,18 @@
       <c r="C543" s="49"/>
       <c r="D543" s="52"/>
       <c r="E543" s="15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="544" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
       <c r="C544" s="47">
         <v>-3105</v>
       </c>
       <c r="D544" s="50" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="E544" s="9" t="s">
-        <v>758</v>
+        <v>991</v>
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
@@ -9482,7 +9519,7 @@
       <c r="C546" s="48"/>
       <c r="D546" s="51"/>
       <c r="E546" s="12" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
@@ -9493,19 +9530,17 @@
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C548" s="49"/>
       <c r="D548" s="52"/>
-      <c r="E548" s="15" t="s">
-        <v>760</v>
-      </c>
+      <c r="E548" s="15"/>
     </row>
     <row r="549" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C549" s="47">
         <v>-3106</v>
       </c>
       <c r="D549" s="50" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E549" s="9" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
@@ -9517,7 +9552,7 @@
       <c r="C551" s="48"/>
       <c r="D551" s="51"/>
       <c r="E551" s="12" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
@@ -9529,35 +9564,35 @@
       <c r="C553" s="48"/>
       <c r="D553" s="51"/>
       <c r="E553" s="12" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C554" s="48"/>
       <c r="D554" s="51"/>
       <c r="E554" s="12" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="555" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C555" s="48"/>
       <c r="D555" s="51"/>
       <c r="E555" s="12" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C556" s="48"/>
       <c r="D556" s="51"/>
       <c r="E556" s="12" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C557" s="48"/>
       <c r="D557" s="51"/>
       <c r="E557" s="12" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
@@ -9569,7 +9604,7 @@
       <c r="C559" s="48"/>
       <c r="D559" s="51"/>
       <c r="E559" s="12" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
@@ -9581,67 +9616,67 @@
       <c r="C561" s="48"/>
       <c r="D561" s="51"/>
       <c r="E561" s="16" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C562" s="48"/>
       <c r="D562" s="51"/>
       <c r="E562" s="16" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C563" s="48"/>
       <c r="D563" s="51"/>
       <c r="E563" s="16" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C564" s="48"/>
       <c r="D564" s="51"/>
       <c r="E564" s="16" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C565" s="48"/>
       <c r="D565" s="51"/>
       <c r="E565" s="16" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C566" s="48"/>
       <c r="D566" s="51"/>
       <c r="E566" s="16" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C567" s="48"/>
       <c r="D567" s="51"/>
       <c r="E567" s="16" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C568" s="49"/>
       <c r="D568" s="52"/>
       <c r="E568" s="15" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.4">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
       <c r="C569" s="47">
         <v>-3107</v>
       </c>
       <c r="D569" s="50" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E569" s="9" t="s">
-        <v>779</v>
+        <v>993</v>
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
@@ -9653,7 +9688,7 @@
       <c r="C571" s="49"/>
       <c r="D571" s="52"/>
       <c r="E571" s="15" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
     </row>
     <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
@@ -9661,10 +9696,10 @@
         <v>-3108</v>
       </c>
       <c r="D572" s="50" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="E572" s="9" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.4">
@@ -9682,10 +9717,10 @@
         <v>-3109</v>
       </c>
       <c r="D575" s="50" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="E575" s="9" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.4">
@@ -9703,10 +9738,10 @@
         <v>-3110</v>
       </c>
       <c r="D578" s="50" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="E578" s="9" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
@@ -9734,10 +9769,10 @@
         <v>-3111</v>
       </c>
       <c r="D583" s="8" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="E583" s="8" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
     </row>
     <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
@@ -9745,10 +9780,10 @@
         <v>-3112</v>
       </c>
       <c r="D584" s="50" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="E584" s="9" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
@@ -9760,7 +9795,7 @@
       <c r="C586" s="49"/>
       <c r="D586" s="52"/>
       <c r="E586" s="11" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
     </row>
     <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -9768,10 +9803,10 @@
         <v>-3113</v>
       </c>
       <c r="D587" s="50" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="E587" s="9" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
@@ -9783,7 +9818,7 @@
       <c r="C589" s="48"/>
       <c r="D589" s="51"/>
       <c r="E589" s="12" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
@@ -9795,70 +9830,70 @@
       <c r="C591" s="48"/>
       <c r="D591" s="51"/>
       <c r="E591" s="12" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
     </row>
     <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C592" s="48"/>
       <c r="D592" s="51"/>
       <c r="E592" s="12" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="593" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C593" s="48"/>
       <c r="D593" s="51"/>
       <c r="E593" s="12" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C594" s="48"/>
       <c r="D594" s="51"/>
       <c r="E594" s="12" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C595" s="48"/>
       <c r="D595" s="51"/>
       <c r="E595" s="12" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C596" s="48"/>
       <c r="D596" s="51"/>
       <c r="E596" s="12" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C597" s="48"/>
       <c r="D597" s="51"/>
       <c r="E597" s="12" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C598" s="48"/>
       <c r="D598" s="51"/>
       <c r="E598" s="12" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C599" s="48"/>
       <c r="D599" s="51"/>
       <c r="E599" s="12" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C600" s="48"/>
       <c r="D600" s="51"/>
       <c r="E600" s="12" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
@@ -9870,14 +9905,14 @@
       <c r="C602" s="48"/>
       <c r="D602" s="51"/>
       <c r="E602" s="12" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C603" s="49"/>
       <c r="D603" s="52"/>
       <c r="E603" s="11" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9885,10 +9920,10 @@
         <v>-3114</v>
       </c>
       <c r="D604" s="8" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="E604" s="8" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
@@ -9896,10 +9931,10 @@
         <v>-3115</v>
       </c>
       <c r="D605" s="50" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="E605" s="9" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
@@ -9911,7 +9946,7 @@
       <c r="C607" s="49"/>
       <c r="D607" s="52"/>
       <c r="E607" s="11" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="608" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9919,7 +9954,7 @@
         <v>-3116</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="E608" s="14"/>
     </row>
@@ -9928,10 +9963,10 @@
         <v>-3117</v>
       </c>
       <c r="D609" s="50" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E609" s="9" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
@@ -9943,14 +9978,14 @@
       <c r="C611" s="48"/>
       <c r="D611" s="51"/>
       <c r="E611" s="12" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C612" s="48"/>
       <c r="D612" s="51"/>
       <c r="E612" s="12" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
@@ -9962,7 +9997,7 @@
       <c r="C614" s="49"/>
       <c r="D614" s="52"/>
       <c r="E614" s="11" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
     </row>
     <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9970,10 +10005,10 @@
         <v>-3118</v>
       </c>
       <c r="D615" s="8" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E615" s="8" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
     </row>
     <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9981,10 +10016,10 @@
         <v>-3119</v>
       </c>
       <c r="D616" s="8" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="E616" s="8" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
     </row>
     <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -9992,10 +10027,10 @@
         <v>-3120</v>
       </c>
       <c r="D617" s="50" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="E617" s="9" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
@@ -10007,35 +10042,35 @@
       <c r="C619" s="48"/>
       <c r="D619" s="51"/>
       <c r="E619" s="12" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
     </row>
     <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C620" s="48"/>
       <c r="D620" s="51"/>
       <c r="E620" s="12" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C621" s="48"/>
       <c r="D621" s="51"/>
       <c r="E621" s="12" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
     </row>
     <row r="622" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C622" s="48"/>
       <c r="D622" s="51"/>
       <c r="E622" s="12" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C623" s="49"/>
       <c r="D623" s="52"/>
       <c r="E623" s="11" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
     </row>
     <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10043,10 +10078,10 @@
         <v>-3121</v>
       </c>
       <c r="D624" s="50" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="E624" s="9" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
@@ -10058,14 +10093,14 @@
       <c r="C626" s="48"/>
       <c r="D626" s="51"/>
       <c r="E626" s="12" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
     </row>
     <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C627" s="48"/>
       <c r="D627" s="51"/>
       <c r="E627" s="12" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
@@ -10077,18 +10112,18 @@
       <c r="C629" s="49"/>
       <c r="D629" s="52"/>
       <c r="E629" s="11" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="630" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C630" s="39">
+      <c r="C630" s="38">
         <v>-3122</v>
       </c>
       <c r="D630" s="37" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="E630" s="9" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
     </row>
     <row r="631" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10096,10 +10131,10 @@
         <v>-3123</v>
       </c>
       <c r="D631" s="8" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="E631" s="8" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
@@ -10107,10 +10142,10 @@
         <v>-3124</v>
       </c>
       <c r="D632" s="50" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="E632" s="9" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
@@ -10122,7 +10157,7 @@
       <c r="C634" s="49"/>
       <c r="D634" s="52"/>
       <c r="E634" s="11" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="635" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10130,10 +10165,10 @@
         <v>-3125</v>
       </c>
       <c r="D635" s="8" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="E635" s="8" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10141,10 +10176,10 @@
         <v>-3126</v>
       </c>
       <c r="D636" s="50" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="E636" s="9" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
@@ -10156,14 +10191,14 @@
       <c r="C638" s="48"/>
       <c r="D638" s="51"/>
       <c r="E638" s="12" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C639" s="48"/>
       <c r="D639" s="51"/>
       <c r="E639" s="12" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
@@ -10175,7 +10210,7 @@
       <c r="C641" s="48"/>
       <c r="D641" s="51"/>
       <c r="E641" s="12" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
@@ -10187,7 +10222,7 @@
       <c r="C643" s="49"/>
       <c r="D643" s="52"/>
       <c r="E643" s="11" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="644" spans="3:5" ht="250.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10195,10 +10230,10 @@
         <v>-3127</v>
       </c>
       <c r="D644" s="8" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="E644" s="8" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
     </row>
     <row r="645" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10206,10 +10241,10 @@
         <v>-3128</v>
       </c>
       <c r="D645" s="8" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="E645" s="8" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
     </row>
     <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10217,10 +10252,10 @@
         <v>-3129</v>
       </c>
       <c r="D646" s="50" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="E646" s="9" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
@@ -10232,7 +10267,7 @@
       <c r="C648" s="48"/>
       <c r="D648" s="51"/>
       <c r="E648" s="12" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
@@ -10244,7 +10279,7 @@
       <c r="C650" s="48"/>
       <c r="D650" s="51"/>
       <c r="E650" s="12" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
@@ -10256,7 +10291,7 @@
       <c r="C652" s="48"/>
       <c r="D652" s="51"/>
       <c r="E652" s="12" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
@@ -10268,7 +10303,7 @@
       <c r="C654" s="49"/>
       <c r="D654" s="52"/>
       <c r="E654" s="11" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10276,10 +10311,10 @@
         <v>-3130</v>
       </c>
       <c r="D655" s="50" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="E655" s="9" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
@@ -10291,7 +10326,7 @@
       <c r="C657" s="49"/>
       <c r="D657" s="52"/>
       <c r="E657" s="11" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="658" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10299,10 +10334,10 @@
         <v>-3131</v>
       </c>
       <c r="D658" s="8" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="E658" s="8" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="659" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10310,10 +10345,10 @@
         <v>-3132</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E659" s="8" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="660" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10321,10 +10356,10 @@
         <v>-3133</v>
       </c>
       <c r="D660" s="8" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="E660" s="8" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
     </row>
     <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
@@ -10332,10 +10367,10 @@
         <v>-3134</v>
       </c>
       <c r="D661" s="50" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="E661" s="9" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
@@ -10347,7 +10382,7 @@
       <c r="C663" s="48"/>
       <c r="D663" s="51"/>
       <c r="E663" s="12" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
@@ -10359,7 +10394,7 @@
       <c r="C665" s="49"/>
       <c r="D665" s="52"/>
       <c r="E665" s="11" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="666" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10367,10 +10402,10 @@
         <v>-3135</v>
       </c>
       <c r="D666" s="8" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="E666" s="8" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
     </row>
     <row r="667" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10378,10 +10413,10 @@
         <v>-3136</v>
       </c>
       <c r="D667" s="8" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="E667" s="8" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
@@ -10389,10 +10424,10 @@
         <v>-3137</v>
       </c>
       <c r="D668" s="50" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="E668" s="9" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
@@ -10404,14 +10439,14 @@
       <c r="C670" s="48"/>
       <c r="D670" s="51"/>
       <c r="E670" s="12" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C671" s="49"/>
       <c r="D671" s="52"/>
       <c r="E671" s="11" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10419,10 +10454,10 @@
         <v>-3138</v>
       </c>
       <c r="D672" s="50" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="E672" s="9" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
@@ -10434,7 +10469,7 @@
       <c r="C674" s="48"/>
       <c r="D674" s="51"/>
       <c r="E674" s="12" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
@@ -10446,7 +10481,7 @@
       <c r="C676" s="49"/>
       <c r="D676" s="52"/>
       <c r="E676" s="11" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
     </row>
     <row r="677" spans="3:5" x14ac:dyDescent="0.4">
@@ -10454,10 +10489,10 @@
         <v>-3139</v>
       </c>
       <c r="D677" s="50" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
@@ -10469,28 +10504,28 @@
       <c r="C679" s="48"/>
       <c r="D679" s="51"/>
       <c r="E679" s="12" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C680" s="48"/>
       <c r="D680" s="51"/>
       <c r="E680" s="12" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C681" s="48"/>
       <c r="D681" s="51"/>
       <c r="E681" s="12" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="682" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C682" s="48"/>
       <c r="D682" s="51"/>
       <c r="E682" s="12" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
@@ -10502,7 +10537,7 @@
       <c r="C684" s="49"/>
       <c r="D684" s="52"/>
       <c r="E684" s="11" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
     </row>
     <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
@@ -10510,10 +10545,10 @@
         <v>-3140</v>
       </c>
       <c r="D685" s="50" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="E685" s="9" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
@@ -10541,10 +10576,10 @@
         <v>-3141</v>
       </c>
       <c r="D690" s="50" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E690" s="9" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
@@ -10556,7 +10591,7 @@
       <c r="C692" s="48"/>
       <c r="D692" s="51"/>
       <c r="E692" s="12" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
@@ -10568,7 +10603,7 @@
       <c r="C694" s="49"/>
       <c r="D694" s="52"/>
       <c r="E694" s="11" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
@@ -10576,10 +10611,10 @@
         <v>-3142</v>
       </c>
       <c r="D695" s="50" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="E695" s="9" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
@@ -10591,7 +10626,7 @@
       <c r="C697" s="48"/>
       <c r="D697" s="51"/>
       <c r="E697" s="12" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
@@ -10603,7 +10638,7 @@
       <c r="C699" s="49"/>
       <c r="D699" s="52"/>
       <c r="E699" s="11" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
@@ -10611,10 +10646,10 @@
         <v>-3143</v>
       </c>
       <c r="D700" s="50" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="E700" s="9" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
@@ -10626,7 +10661,7 @@
       <c r="C702" s="48"/>
       <c r="D702" s="51"/>
       <c r="E702" s="12" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
@@ -10638,7 +10673,7 @@
       <c r="C704" s="48"/>
       <c r="D704" s="51"/>
       <c r="E704" s="12" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
@@ -10650,7 +10685,7 @@
       <c r="C706" s="49"/>
       <c r="D706" s="52"/>
       <c r="E706" s="11" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
     </row>
     <row r="707" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -10658,10 +10693,10 @@
         <v>-3144</v>
       </c>
       <c r="D707" s="8" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="E707" s="8" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="708" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10669,10 +10704,10 @@
         <v>-3145</v>
       </c>
       <c r="D708" s="8" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="E708" s="8" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
     </row>
     <row r="709" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -10680,10 +10715,10 @@
         <v>-3146</v>
       </c>
       <c r="D709" s="8" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="E709" s="20" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
     </row>
     <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
@@ -10691,10 +10726,10 @@
         <v>-3147</v>
       </c>
       <c r="D710" s="50" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="E710" s="21" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
@@ -10744,183 +10779,183 @@
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C720" s="43" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="D720" s="45" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="E720" s="25" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C721" s="44"/>
       <c r="D721" s="46"/>
       <c r="E721" s="26" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
     </row>
     <row r="722" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C722" s="27" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="D722" s="26" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="E722" s="26" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C723" s="43" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="D723" s="45" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="E723" s="28" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C724" s="44"/>
       <c r="D724" s="46"/>
       <c r="E724" s="26" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
     </row>
     <row r="725" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C725" s="27" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="D725" s="26" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="E725" s="26" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
     </row>
     <row r="726" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C726" s="27" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="D726" s="26" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="E726" s="26" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
     </row>
     <row r="727" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C727" s="27" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="D727" s="26" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="E727" s="26" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
     </row>
     <row r="728" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C728" s="27" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="D728" s="26" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="E728" s="26" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C729" s="43" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="D729" s="28" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="E729" s="45" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C730" s="44"/>
       <c r="D730" s="26" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="E730" s="46"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D731" s="26" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="E731" s="26" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
     </row>
     <row r="732" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C732" s="27" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="D732" s="26" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="E732" s="26" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
     </row>
     <row r="733" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C733" s="27" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="D733" s="26" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="E733" s="26" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
     </row>
     <row r="734" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C734" s="27" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="D734" s="26" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="E734" s="26" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="735" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C735" s="27" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="D735" s="26" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="E735" s="26" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
     </row>
     <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="738" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C738" s="42" t="s">
-        <v>1003</v>
+      <c r="C738" s="41" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="739" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C739" s="40" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D739" s="41" t="s">
-        <v>1006</v>
+      <c r="C739" s="39" t="s">
+        <v>989</v>
+      </c>
+      <c r="D739" s="40" t="s">
+        <v>987</v>
       </c>
       <c r="E739" s="33" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1006">
   <si>
     <t>코드</t>
   </si>
@@ -1668,9 +1668,6 @@
     <t>Asynchronous error</t>
   </si>
   <si>
-    <t>An error signal from the servos or trajectory generator has been received by GPL, but no specific error code has been received. The error log entry immediately following this one normally indicates the actual error.</t>
-  </si>
-  <si>
     <t>Error signaling within the motion subsystem is a two-step process. When an error is first detected, a signal is sent to GPL immediately so that a controlled deceleration sequence can begin. This first signal generates a -1029 error code. Several milliseconds later, a more specific error code is sent to identify the source of the error. This second error code overwrites the -1029 error. Error -1029 is only seen if the error log is sampled after the initial error signal is received and before the specific error code is received.</t>
   </si>
   <si>
@@ -1713,9 +1710,6 @@
     <t>Cartesian좌표 값이 유효하지 않음.</t>
   </si>
   <si>
-    <t>Negative overtravel</t>
-  </si>
-  <si>
     <t>Positive overtravel</t>
   </si>
   <si>
@@ -2193,34 +2187,6 @@
     <t>CPU overheating</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Either the master or a slave CPU board temperature has exceeded its maximum temperature of 90 degrees Celsius. See </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CPU temperature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (DataID 126) for the current temperature of all CPUs. If the temperature does not fall below 90 degrees, the controller will switch off in 5 minutes and the controller must be restarted. Normally this error is followed by the generic error -1610 "Controller overheating". Ensure there is good air circulation around the controller and check that the fans are not blocked. The Installation section of the controller hardware manuals provide guidelines for ventilating and cooling controllers. </t>
-    </r>
-  </si>
-  <si>
     <t>Cannot get local host name</t>
   </si>
   <si>
@@ -2248,18 +2214,9 @@
     <t>The IP address specified cannot be accessed.</t>
   </si>
   <si>
-    <t>Network timeout</t>
-  </si>
-  <si>
-    <t>A network operation did not complete within the allowed time period. Depending on the operation, the connection may or may not be closed.</t>
-  </si>
-  <si>
     <t>Already connected</t>
   </si>
   <si>
-    <t>An attempt was made to connect a socket to an IP Address and port when there is already a connection.</t>
-  </si>
-  <si>
     <t>Socket not open</t>
   </si>
   <si>
@@ -2429,12 +2386,6 @@
   </si>
   <si>
     <t>Axis over-speed</t>
-  </si>
-  <si>
-    <t>This error is generated when power is enabled or during normal running if the system detects that an axis has violated a speed limit.</t>
-  </si>
-  <si>
-    <t>If this occurs when power is enabled, it indicates that the axis has violated the speed limit defined by "Special power-up speed limit" (DataID 10210). The possible causes for this error are as follows:</t>
   </si>
   <si>
     <t>1. The motor torque sign is negated and the axis is attempting to run away at high speed.</t>
@@ -3380,17 +3331,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능.
-1. 서플라이 이상
-제어기 내부의 서플라이 교체  ( 현장교체 불가 , 반출 수리 필요 ) 
-2. 세이프티 모듈 오작동
-이전 Servo Off 동작 시 세이프티 모듈이 On 되어 전원이 차단된 상태로 EMO 버튼을 
-눌렀다 해제 시킨 후 DRT 동작을 수행 
-제어기 Power ON/OFF후 Servo ON 실행 
-This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">제어기 Amp 하드웨어 이상 감지
 ERROR 발생 축 확인 ( TP또는 Wabpage에서 에러 발생 해당 축 확인) 
 제어기~ 트랙~ 로봇部 Motor, Encoder 케이블 커넥터 리커넥션 진행 
@@ -3660,6 +3600,109 @@
 리밋 센서가 감지 되지 않는 위치라면 센서 노이즈로 인한 간헐적 발생.
 센서 점검 및 해당 센서 케이블 점검
 This is generated when the optional negative travel limit hardware switch has been tripped. This error indicates that a specified axis it outside of its permitted range-of-motion.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative overtravel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>An attempt was made to connect a socket to an IP Address and port when there is already a connection.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network timeout</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WTR 컨트롤러 Fan이 동작하지 않아 내부 CPU 과열
+주변 환경에 의한 컨트롤러 온도 상승으로 CPU 과열
+Either the master or a slave CPU board temperature has exceeded its maximum temperature of 90 degrees Celsius. See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU temperature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DataID 126) for the current temperature of all CPUs. If the temperature does not fall below 90 degrees, the controller will switch off in 5 minutes and the controller must be restarted. Normally this error is followed by the generic error -1610 "Controller overheating". Ensure there is good air circulation around the controller and check that the fans are not blocked. The Installation section of the controller hardware manuals provide guidelines for ventilating and cooling controllers. </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTR 제어기 내부 IO 보드와 마스터 보드간의 이더넷 통신이 끊겼을 경우 발생.
+1. 마스터 보드 IP(기본 출하) : 192.168.0.1
+2. IO 보드 IP(기본 출하) : 192.168.0.11
+타 장비 IP와 겹치는 IP가 있는지 확인.
+제어기 상단 커버 오픈 후 마스터 보드 - IO 보드간 랜선 재 체결
+제어기 재부팅
+Controller 교체를 진행했거나, 타 장비의 백업을 다운로드 했을 경우 IO 보드의 IP 설정 확인 필요 (제조사 문의 필요)
+A network operation did not complete within the allowed time period. Depending on the operation, the connection may or may not be closed.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능.
+1. 서플라이 이상
+제어기 내부의 서플라이 교체  ( 현장교체 불가 , 반출 수리 필요 ) 
+2. 세이프티 모듈 오작동
+이전 Servo Off 동작 시 세이프티 모듈이 On 되어 전원이 차단된 상태로 EMO 버튼을 
+눌렀다 해제 시킨 후 DRT 동작을 수행 
+제어기 Power ON/OFF후 Servo ON 실행 
+3. WTR 제어기 내부 IO 보드와 마스터 보드간의 이더넷 통신이 끊겼을 경우 발생.
+마스터 보드 IP(기본 출하) : 192.168.0.1
+IO 보드 IP(기본 출하) : 192.168.0.11
+타 장비 IP와 겹치는 IP가 있는지 확인.
+제어기 상단 커버 오픈 후 마스터 보드 - IO 보드간 랜선 재 체결
+제어기 재부팅
+This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 이상으로 동작 불가
+Z축 모터 
+출력이나 브레이크 케이블 가능성
+티칭 펜던트로 서보온까지 된다면
+1. Z축 모터 출력이 나감
+2. 브레이크 해제
+정상 상황이라면 위 두가지가 둘다 정상 동작.
+1. Z축 모터 출력 불량
+2. 브레이크 해제
+해당 경우라면 서보온 하자마자 알람과 동시에 서보 오프됨.
+1. Z축 모터 출력 정상
+2. 브레이크 안풀림
+해당 경우라면 서보온은 가능. 조그나, ORG 동작 시 • -1043: 비동기 소프트 오류 (Asynchronous soft error) ORG
+An error signal from the servos or trajectory generator has been received by GPL, but no specific error code has been received. The error log entry immediately following this one normally indicates the actual error.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔코더 값이 순간적으로 급변함.
+노이즈로 인한 엔코더 데이터가 급변할 가능성이 있음.
+모터 – 모터, 엔코더 라인 케이블 – 컨트롤러
+T축 모터 
+상간 저항 확인
+커넥터 핀 상태 확인
+모터 엔코더 케이블
+케이블 꺾임 확인
+커넥터 핀 상태 확인
+컨트롤러 1:1 Swap 후 현상 확인
+This error is generated when power is enabled or during normal running if the system detects that an axis has violated a speed limit.
+If this occurs when power is enabled, it indicates that the axis has violated the speed limit defined by "Special power-up speed limit" (DataID 10210). The possible causes for this error are as follows:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4031,18 +4074,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4078,6 +4109,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4361,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="E377" sqref="E377"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="E578" sqref="E578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4374,13 +4417,13 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D1" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E1" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4388,10 +4431,10 @@
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4413,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4424,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4435,7 +4478,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4443,10 +4486,10 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4457,7 +4500,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4465,10 +4508,10 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="204" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4479,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4490,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4501,7 +4544,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4512,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4523,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4534,7 +4577,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4545,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4556,7 +4599,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4567,7 +4610,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4589,7 +4632,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4597,10 +4640,10 @@
         <v>215</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4608,10 +4651,10 @@
         <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4619,10 +4662,10 @@
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4630,10 +4673,10 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4644,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4655,7 +4698,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4677,7 +4720,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4688,7 +4731,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4699,7 +4742,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4710,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4721,7 +4764,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4732,7 +4775,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4743,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4754,7 +4797,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4765,7 +4808,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4776,7 +4819,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4787,7 +4830,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4798,7 +4841,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4978,10 +5021,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="53">
+      <c r="C56" s="49">
         <v>1061</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4989,15 +5032,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="54"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="55"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -5021,7 +5064,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5098,7 +5141,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5120,7 +5163,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5201,10 +5244,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="47">
+      <c r="C77" s="43">
         <v>-208</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -5212,13 +5255,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="48"/>
-      <c r="D78" s="51"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="49"/>
-      <c r="D79" s="52"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -5246,10 +5289,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="47">
+      <c r="C82" s="43">
         <v>-211</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -5257,153 +5300,153 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="48"/>
-      <c r="D83" s="51"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="48"/>
-      <c r="D85" s="51"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="48"/>
-      <c r="D87" s="51"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="48"/>
-      <c r="D88" s="51"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="48"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="49"/>
-      <c r="D90" s="52"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="47">
+      <c r="C91" s="43">
         <v>-212</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="46" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="48"/>
-      <c r="D92" s="51"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="48"/>
-      <c r="D93" s="51"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="48"/>
-      <c r="D94" s="51"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="48"/>
-      <c r="D95" s="51"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="48"/>
-      <c r="D96" s="51"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="48"/>
-      <c r="D97" s="51"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="48"/>
-      <c r="D98" s="51"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="48"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="48"/>
-      <c r="D100" s="51"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="48"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="48"/>
-      <c r="D102" s="51"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="48"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="49"/>
-      <c r="D104" s="52"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -5437,7 +5480,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5448,7 +5491,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -5457,7 +5500,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="52"/>
+      <c r="E109" s="48"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -5731,7 +5774,7 @@
         <v>186</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -6662,7 +6705,7 @@
         <v>332</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="226" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -6673,7 +6716,7 @@
         <v>333</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="227" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6711,7 +6754,7 @@
         <v>337</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="231" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6795,10 +6838,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="47">
+      <c r="C239" s="43">
         <v>-776</v>
       </c>
-      <c r="D239" s="50" t="s">
+      <c r="D239" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -6806,13 +6849,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="48"/>
-      <c r="D240" s="51"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="47"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="49"/>
-      <c r="D241" s="52"/>
+      <c r="C241" s="45"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -7175,20 +7218,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="47">
+      <c r="C275" s="43">
         <v>-811</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="50" t="s">
+      <c r="E275" s="46" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="49"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
+      <c r="C276" s="45"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -7224,10 +7267,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="47">
+      <c r="C280" s="43">
         <v>-1002</v>
       </c>
-      <c r="D280" s="50" t="s">
+      <c r="D280" s="46" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -7235,22 +7278,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="48"/>
-      <c r="D281" s="51"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="49"/>
-      <c r="D282" s="52"/>
+      <c r="C282" s="45"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="47">
+      <c r="C283" s="43">
         <v>-1003</v>
       </c>
-      <c r="D283" s="50" t="s">
+      <c r="D283" s="46" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -7258,13 +7301,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="48"/>
-      <c r="D284" s="51"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="47"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="49"/>
-      <c r="D285" s="52"/>
+      <c r="C285" s="45"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
@@ -7281,10 +7324,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="47">
+      <c r="C287" s="43">
         <v>-1005</v>
       </c>
-      <c r="D287" s="50" t="s">
+      <c r="D287" s="46" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -7292,22 +7335,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="48"/>
-      <c r="D288" s="51"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="49"/>
-      <c r="D289" s="52"/>
+      <c r="C289" s="45"/>
+      <c r="D289" s="48"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="47">
+      <c r="C290" s="43">
         <v>-1006</v>
       </c>
-      <c r="D290" s="50" t="s">
+      <c r="D290" s="46" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -7315,36 +7358,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="48"/>
-      <c r="D291" s="51"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="48"/>
-      <c r="D292" s="51"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="48"/>
-      <c r="D293" s="51"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="49"/>
-      <c r="D294" s="52"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="47">
+      <c r="C295" s="43">
         <v>-1007</v>
       </c>
-      <c r="D295" s="50" t="s">
+      <c r="D295" s="46" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -7352,41 +7395,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="48"/>
-      <c r="D296" s="51"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="47"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="48"/>
-      <c r="D297" s="51"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="47"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="48"/>
-      <c r="D298" s="51"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="48"/>
-      <c r="D299" s="51"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="49"/>
-      <c r="D300" s="52"/>
+      <c r="C300" s="45"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="47">
+      <c r="C301" s="43">
         <v>-1008</v>
       </c>
-      <c r="D301" s="50" t="s">
+      <c r="D301" s="46" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -7394,22 +7437,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="48"/>
-      <c r="D302" s="51"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="49"/>
-      <c r="D303" s="52"/>
+      <c r="C303" s="45"/>
+      <c r="D303" s="48"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="47">
+      <c r="C304" s="43">
         <v>-1009</v>
       </c>
-      <c r="D304" s="50" t="s">
+      <c r="D304" s="46" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -7417,22 +7460,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="48"/>
-      <c r="D305" s="51"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="49"/>
-      <c r="D306" s="52"/>
+      <c r="C306" s="45"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="47">
+      <c r="C307" s="43">
         <v>-1010</v>
       </c>
-      <c r="D307" s="50" t="s">
+      <c r="D307" s="46" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -7440,22 +7483,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="48"/>
-      <c r="D308" s="51"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="49"/>
-      <c r="D309" s="52"/>
+      <c r="C309" s="45"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="47">
+      <c r="C310" s="43">
         <v>-1011</v>
       </c>
-      <c r="D310" s="50" t="s">
+      <c r="D310" s="46" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -7463,13 +7506,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="48"/>
-      <c r="D311" s="51"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="47"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="49"/>
-      <c r="D312" s="52"/>
+      <c r="C312" s="45"/>
+      <c r="D312" s="48"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
@@ -7482,14 +7525,14 @@
         <v>456</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="47">
+      <c r="C314" s="43">
         <v>-1013</v>
       </c>
-      <c r="D314" s="50" t="s">
+      <c r="D314" s="46" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -7497,43 +7540,43 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="48"/>
-      <c r="D315" s="51"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="48"/>
-      <c r="D316" s="51"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="49"/>
-      <c r="D317" s="52"/>
+      <c r="C317" s="45"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C318" s="47">
+      <c r="C318" s="43">
         <v>-1014</v>
       </c>
-      <c r="D318" s="50" t="s">
+      <c r="D318" s="46" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="48"/>
-      <c r="D319" s="51"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="49"/>
-      <c r="D320" s="52"/>
+      <c r="C320" s="45"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7548,10 +7591,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="47">
+      <c r="C322" s="43">
         <v>-1016</v>
       </c>
-      <c r="D322" s="50" t="s">
+      <c r="D322" s="46" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -7559,20 +7602,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="48"/>
-      <c r="D323" s="51"/>
+      <c r="C323" s="44"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="48"/>
-      <c r="D324" s="51"/>
+      <c r="C324" s="44"/>
+      <c r="D324" s="47"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="49"/>
-      <c r="D325" s="52"/>
+      <c r="C325" s="45"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
@@ -7600,10 +7643,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="47">
+      <c r="C328" s="43">
         <v>-1019</v>
       </c>
-      <c r="D328" s="50" t="s">
+      <c r="D328" s="46" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -7611,22 +7654,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="48"/>
-      <c r="D329" s="51"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="47"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="49"/>
-      <c r="D330" s="52"/>
+      <c r="C330" s="45"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="47">
+      <c r="C331" s="43">
         <v>-1020</v>
       </c>
-      <c r="D331" s="50" t="s">
+      <c r="D331" s="46" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -7634,48 +7677,48 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="48"/>
-      <c r="D332" s="51"/>
+      <c r="C332" s="44"/>
+      <c r="D332" s="47"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="48"/>
-      <c r="D333" s="51"/>
+      <c r="C333" s="44"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="48"/>
-      <c r="D334" s="51"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="47"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="49"/>
-      <c r="D335" s="52"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C336" s="47">
+      <c r="C336" s="43">
         <v>-1021</v>
       </c>
-      <c r="D336" s="50" t="s">
+      <c r="D336" s="46" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="48"/>
-      <c r="D337" s="51"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="49"/>
-      <c r="D338" s="52"/>
+      <c r="C338" s="45"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -7723,45 +7766,45 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C343" s="47">
+      <c r="C343" s="43">
         <v>-1026</v>
       </c>
-      <c r="D343" s="50" t="s">
+      <c r="D343" s="46" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="48"/>
-      <c r="D344" s="51"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="48"/>
-      <c r="D345" s="51"/>
+      <c r="C345" s="44"/>
+      <c r="D345" s="47"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="48"/>
-      <c r="D346" s="51"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="47"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="48"/>
-      <c r="D347" s="51"/>
+      <c r="C347" s="44"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="49"/>
-      <c r="D348" s="52"/>
+      <c r="C348" s="45"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
@@ -7778,129 +7821,129 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="312" x14ac:dyDescent="0.4">
-      <c r="C350" s="47">
+      <c r="C350" s="43">
         <v>-1028</v>
       </c>
-      <c r="D350" s="50" t="s">
+      <c r="D350" s="46" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="48"/>
-      <c r="D351" s="51"/>
+      <c r="C351" s="44"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="48"/>
-      <c r="D352" s="51"/>
+      <c r="C352" s="44"/>
+      <c r="D352" s="47"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="48"/>
-      <c r="D353" s="51"/>
+      <c r="C353" s="44"/>
+      <c r="D353" s="47"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="48"/>
-      <c r="D354" s="51"/>
+      <c r="C354" s="44"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="48"/>
-      <c r="D355" s="51"/>
+      <c r="C355" s="44"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="49"/>
-      <c r="D356" s="52"/>
+      <c r="C356" s="45"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="15" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="357" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="47">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
+      <c r="C357" s="43">
         <v>-1029</v>
       </c>
-      <c r="D357" s="50" t="s">
+      <c r="D357" s="46" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C358" s="44"/>
+      <c r="D358" s="47"/>
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C359" s="44"/>
+      <c r="D359" s="47"/>
+      <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="48"/>
-      <c r="D358" s="51"/>
-      <c r="E358" s="10"/>
-    </row>
-    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="48"/>
-      <c r="D359" s="51"/>
-      <c r="E359" s="12" t="s">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C360" s="44"/>
+      <c r="D360" s="47"/>
+      <c r="E360" s="12"/>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C361" s="44"/>
+      <c r="D361" s="47"/>
+      <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="48"/>
-      <c r="D360" s="51"/>
-      <c r="E360" s="12"/>
-    </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="48"/>
-      <c r="D361" s="51"/>
-      <c r="E361" s="16" t="s">
+    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C362" s="45"/>
+      <c r="D362" s="48"/>
+      <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="49"/>
-      <c r="D362" s="52"/>
-      <c r="E362" s="15" t="s">
+    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C363" s="43">
+        <v>-1030</v>
+      </c>
+      <c r="D363" s="46" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="47">
-        <v>-1030</v>
-      </c>
-      <c r="D363" s="50" t="s">
+      <c r="E363" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E363" s="9" t="s">
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C364" s="44"/>
+      <c r="D364" s="47"/>
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C365" s="44"/>
+      <c r="D365" s="47"/>
+      <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="48"/>
-      <c r="D364" s="51"/>
-      <c r="E364" s="10"/>
-    </row>
-    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="48"/>
-      <c r="D365" s="51"/>
-      <c r="E365" s="12" t="s">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C366" s="44"/>
+      <c r="D366" s="47"/>
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C367" s="45"/>
+      <c r="D367" s="48"/>
+      <c r="E367" s="11" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="48"/>
-      <c r="D366" s="51"/>
-      <c r="E366" s="10"/>
-    </row>
-    <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="49"/>
-      <c r="D367" s="52"/>
-      <c r="E367" s="11" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="368" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7908,10 +7951,10 @@
         <v>-1031</v>
       </c>
       <c r="D368" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E368" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="E368" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="369" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -7919,213 +7962,213 @@
         <v>-1032</v>
       </c>
       <c r="D369" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E369" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E369" s="8" t="s">
+    </row>
+    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C370" s="43">
+        <v>-1033</v>
+      </c>
+      <c r="D370" s="46" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="47">
-        <v>-1033</v>
-      </c>
-      <c r="D370" s="50" t="s">
+      <c r="E370" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E370" s="9" t="s">
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C371" s="44"/>
+      <c r="D371" s="47"/>
+      <c r="E371" s="12"/>
+    </row>
+    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C372" s="45"/>
+      <c r="D372" s="48"/>
+      <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="48"/>
-      <c r="D371" s="51"/>
-      <c r="E371" s="12"/>
-    </row>
-    <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="49"/>
-      <c r="D372" s="52"/>
-      <c r="E372" s="15" t="s">
+    <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C373" s="43">
+        <v>-1034</v>
+      </c>
+      <c r="D373" s="46" t="s">
+        <v>998</v>
+      </c>
+      <c r="E373" s="9" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C374" s="44"/>
+      <c r="D374" s="47"/>
+      <c r="E374" s="12"/>
+    </row>
+    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C375" s="45"/>
+      <c r="D375" s="48"/>
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C376" s="43">
+        <v>-1035</v>
+      </c>
+      <c r="D376" s="46" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C373" s="47">
-        <v>-1034</v>
-      </c>
-      <c r="D373" s="50" t="s">
+      <c r="E376" s="9" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C377" s="44"/>
+      <c r="D377" s="47"/>
+      <c r="E377" s="12"/>
+    </row>
+    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C378" s="45"/>
+      <c r="D378" s="48"/>
+      <c r="E378" s="15"/>
+    </row>
+    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C379" s="43">
+        <v>-1036</v>
+      </c>
+      <c r="D379" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="E373" s="9" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="48"/>
-      <c r="D374" s="51"/>
-      <c r="E374" s="12"/>
-    </row>
-    <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="49"/>
-      <c r="D375" s="52"/>
-      <c r="E375" s="15"/>
-    </row>
-    <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C376" s="47">
-        <v>-1035</v>
-      </c>
-      <c r="D376" s="50" t="s">
+      <c r="E379" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E376" s="9" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="48"/>
-      <c r="D377" s="51"/>
-      <c r="E377" s="12"/>
-    </row>
-    <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="49"/>
-      <c r="D378" s="52"/>
-      <c r="E378" s="15"/>
-    </row>
-    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="47">
-        <v>-1036</v>
-      </c>
-      <c r="D379" s="50" t="s">
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C380" s="44"/>
+      <c r="D380" s="47"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C381" s="45"/>
+      <c r="D381" s="48"/>
+      <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="E379" s="9" t="s">
+    </row>
+    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C382" s="43">
+        <v>-1037</v>
+      </c>
+      <c r="D382" s="46" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="48"/>
-      <c r="D380" s="51"/>
-      <c r="E380" s="12"/>
-    </row>
-    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="49"/>
-      <c r="D381" s="52"/>
-      <c r="E381" s="15" t="s">
+      <c r="E382" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="47">
-        <v>-1037</v>
-      </c>
-      <c r="D382" s="50" t="s">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C383" s="44"/>
+      <c r="D383" s="47"/>
+      <c r="E383" s="12"/>
+    </row>
+    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C384" s="45"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="E382" s="9" t="s">
+    </row>
+    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C385" s="43">
+        <v>-1038</v>
+      </c>
+      <c r="D385" s="46" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="48"/>
-      <c r="D383" s="51"/>
-      <c r="E383" s="12"/>
-    </row>
-    <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="49"/>
-      <c r="D384" s="52"/>
-      <c r="E384" s="15" t="s">
+      <c r="E385" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="47">
-        <v>-1038</v>
-      </c>
-      <c r="D385" s="50" t="s">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C386" s="44"/>
+      <c r="D386" s="47"/>
+      <c r="E386" s="12"/>
+    </row>
+    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C387" s="45"/>
+      <c r="D387" s="48"/>
+      <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="E385" s="9" t="s">
+    </row>
+    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C388" s="43">
+        <v>-1039</v>
+      </c>
+      <c r="D388" s="46" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="48"/>
-      <c r="D386" s="51"/>
-      <c r="E386" s="12"/>
-    </row>
-    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="49"/>
-      <c r="D387" s="52"/>
-      <c r="E387" s="15" t="s">
+      <c r="E388" s="9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="47">
-        <v>-1039</v>
-      </c>
-      <c r="D388" s="50" t="s">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C389" s="44"/>
+      <c r="D389" s="47"/>
+      <c r="E389" s="12"/>
+    </row>
+    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C390" s="45"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="E388" s="9" t="s">
+    </row>
+    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C391" s="43">
+        <v>-1040</v>
+      </c>
+      <c r="D391" s="46" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="48"/>
-      <c r="D389" s="51"/>
-      <c r="E389" s="12"/>
-    </row>
-    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="49"/>
-      <c r="D390" s="52"/>
-      <c r="E390" s="15" t="s">
+      <c r="E391" s="9" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="47">
-        <v>-1040</v>
-      </c>
-      <c r="D391" s="50" t="s">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C392" s="44"/>
+      <c r="D392" s="47"/>
+      <c r="E392" s="12"/>
+    </row>
+    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C393" s="45"/>
+      <c r="D393" s="48"/>
+      <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="E391" s="9" t="s">
+    </row>
+    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C394" s="43">
+        <v>-1041</v>
+      </c>
+      <c r="D394" s="46" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="48"/>
-      <c r="D392" s="51"/>
-      <c r="E392" s="12"/>
-    </row>
-    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="49"/>
-      <c r="D393" s="52"/>
-      <c r="E393" s="15" t="s">
+      <c r="E394" s="9" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="47">
-        <v>-1041</v>
-      </c>
-      <c r="D394" s="50" t="s">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C395" s="44"/>
+      <c r="D395" s="47"/>
+      <c r="E395" s="12"/>
+    </row>
+    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C396" s="45"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="E394" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="48"/>
-      <c r="D395" s="51"/>
-      <c r="E395" s="12"/>
-    </row>
-    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="49"/>
-      <c r="D396" s="52"/>
-      <c r="E396" s="15" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="397" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8133,45 +8176,45 @@
         <v>-1042</v>
       </c>
       <c r="D397" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C398" s="43">
+        <v>-1043</v>
+      </c>
+      <c r="D398" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="E397" s="8" t="s">
+      <c r="E398" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="47">
-        <v>-1043</v>
-      </c>
-      <c r="D398" s="50" t="s">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C399" s="44"/>
+      <c r="D399" s="47"/>
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C400" s="44"/>
+      <c r="D400" s="47"/>
+      <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="E398" s="9" t="s">
+    </row>
+    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C401" s="44"/>
+      <c r="D401" s="47"/>
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C402" s="45"/>
+      <c r="D402" s="48"/>
+      <c r="E402" s="11" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="48"/>
-      <c r="D399" s="51"/>
-      <c r="E399" s="10"/>
-    </row>
-    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="48"/>
-      <c r="D400" s="51"/>
-      <c r="E400" s="12" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="48"/>
-      <c r="D401" s="51"/>
-      <c r="E401" s="10"/>
-    </row>
-    <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="49"/>
-      <c r="D402" s="52"/>
-      <c r="E402" s="11" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="403" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8179,77 +8222,77 @@
         <v>-1044</v>
       </c>
       <c r="D403" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C404" s="43">
+        <v>-1045</v>
+      </c>
+      <c r="D404" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="E403" s="8" t="s">
+      <c r="E404" s="9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="47">
-        <v>-1045</v>
-      </c>
-      <c r="D404" s="50" t="s">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C405" s="44"/>
+      <c r="D405" s="47"/>
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C406" s="44"/>
+      <c r="D406" s="47"/>
+      <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E404" s="9" t="s">
+    </row>
+    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C407" s="44"/>
+      <c r="D407" s="47"/>
+      <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="48"/>
-      <c r="D405" s="51"/>
-      <c r="E405" s="10"/>
-    </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="48"/>
-      <c r="D406" s="51"/>
-      <c r="E406" s="12" t="s">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C408" s="44"/>
+      <c r="D408" s="47"/>
+      <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="48"/>
-      <c r="D407" s="51"/>
-      <c r="E407" s="12" t="s">
+    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C409" s="45"/>
+      <c r="D409" s="48"/>
+      <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="48"/>
-      <c r="D408" s="51"/>
-      <c r="E408" s="12" t="s">
+    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C410" s="43">
+        <v>-1046</v>
+      </c>
+      <c r="D410" s="46" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="49"/>
-      <c r="D409" s="52"/>
-      <c r="E409" s="11" t="s">
+      <c r="E410" s="9" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="47">
-        <v>-1046</v>
-      </c>
-      <c r="D410" s="50" t="s">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C411" s="44"/>
+      <c r="D411" s="47"/>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C412" s="45"/>
+      <c r="D412" s="48"/>
+      <c r="E412" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="E410" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="48"/>
-      <c r="D411" s="51"/>
-      <c r="E411" s="12"/>
-    </row>
-    <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="49"/>
-      <c r="D412" s="52"/>
-      <c r="E412" s="15" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="413" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8257,10 +8300,10 @@
         <v>-1047</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="414" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8268,10 +8311,10 @@
         <v>-1048</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8279,10 +8322,10 @@
         <v>-1049</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="416" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8290,86 +8333,86 @@
         <v>-1050</v>
       </c>
       <c r="D416" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E416" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C417" s="43">
+        <v>-1051</v>
+      </c>
+      <c r="D417" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E416" s="8" t="s">
+      <c r="E417" s="9" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="47">
-        <v>-1051</v>
-      </c>
-      <c r="D417" s="50" t="s">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C418" s="44"/>
+      <c r="D418" s="47"/>
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C419" s="44"/>
+      <c r="D419" s="47"/>
+      <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="E417" s="9" t="s">
+    </row>
+    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C420" s="45"/>
+      <c r="D420" s="48"/>
+      <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="48"/>
-      <c r="D418" s="51"/>
-      <c r="E418" s="10"/>
-    </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="48"/>
-      <c r="D419" s="51"/>
-      <c r="E419" s="12" t="s">
+    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C421" s="43">
+        <v>-1052</v>
+      </c>
+      <c r="D421" s="46" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="49"/>
-      <c r="D420" s="52"/>
-      <c r="E420" s="11" t="s">
+      <c r="E421" s="9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="47">
-        <v>-1052</v>
-      </c>
-      <c r="D421" s="50" t="s">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C422" s="44"/>
+      <c r="D422" s="47"/>
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C423" s="45"/>
+      <c r="D423" s="48"/>
+      <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="E421" s="9" t="s">
+    </row>
+    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C424" s="43">
+        <v>-1053</v>
+      </c>
+      <c r="D424" s="46" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="48"/>
-      <c r="D422" s="51"/>
-      <c r="E422" s="10"/>
-    </row>
-    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="49"/>
-      <c r="D423" s="52"/>
-      <c r="E423" s="11" t="s">
+      <c r="E424" s="9" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="47">
-        <v>-1053</v>
-      </c>
-      <c r="D424" s="50" t="s">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C425" s="44"/>
+      <c r="D425" s="47"/>
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C426" s="45"/>
+      <c r="D426" s="48"/>
+      <c r="E426" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="E424" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="48"/>
-      <c r="D425" s="51"/>
-      <c r="E425" s="10"/>
-    </row>
-    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="49"/>
-      <c r="D426" s="52"/>
-      <c r="E426" s="11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="427" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8377,63 +8420,63 @@
         <v>-1054</v>
       </c>
       <c r="D427" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C428" s="43">
+        <v>-1055</v>
+      </c>
+      <c r="D428" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="E427" s="8" t="s">
+      <c r="E428" s="9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="47">
-        <v>-1055</v>
-      </c>
-      <c r="D428" s="50" t="s">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C429" s="44"/>
+      <c r="D429" s="47"/>
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C430" s="44"/>
+      <c r="D430" s="47"/>
+      <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="E428" s="9" t="s">
+    </row>
+    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C431" s="45"/>
+      <c r="D431" s="48"/>
+      <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="48"/>
-      <c r="D429" s="51"/>
-      <c r="E429" s="10"/>
-    </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="48"/>
-      <c r="D430" s="51"/>
-      <c r="E430" s="12" t="s">
+    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C432" s="43">
+        <v>-1056</v>
+      </c>
+      <c r="D432" s="46" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="49"/>
-      <c r="D431" s="52"/>
-      <c r="E431" s="11" t="s">
+      <c r="E432" s="9" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="47">
-        <v>-1056</v>
-      </c>
-      <c r="D432" s="50" t="s">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C433" s="44"/>
+      <c r="D433" s="47"/>
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C434" s="45"/>
+      <c r="D434" s="48"/>
+      <c r="E434" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="E432" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="48"/>
-      <c r="D433" s="51"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="49"/>
-      <c r="D434" s="52"/>
-      <c r="E434" s="11" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="435" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8441,10 +8484,10 @@
         <v>-1057</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E435" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="436" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8452,10 +8495,10 @@
         <v>-1058</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="437" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8463,10 +8506,10 @@
         <v>-1059</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="438" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8474,10 +8517,10 @@
         <v>-1500</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="439" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8485,10 +8528,10 @@
         <v>-1501</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E439" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="440" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8496,10 +8539,10 @@
         <v>-1502</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E440" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="441" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8507,10 +8550,10 @@
         <v>-1505</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E441" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="442" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8518,10 +8561,10 @@
         <v>-1507</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="443" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8529,10 +8572,10 @@
         <v>-1509</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="444" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8540,10 +8583,10 @@
         <v>-1510</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E444" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="445" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8551,10 +8594,10 @@
         <v>-1511</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E445" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="446" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8562,10 +8605,10 @@
         <v>-1512</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E446" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="447" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8573,10 +8616,10 @@
         <v>-1514</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E447" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="448" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8584,10 +8627,10 @@
         <v>-1515</v>
       </c>
       <c r="D448" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E448" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="449" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8595,10 +8638,10 @@
         <v>-1516</v>
       </c>
       <c r="D449" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E449" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="450" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8606,7 +8649,7 @@
         <v>-1517</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E450" s="14"/>
     </row>
@@ -8615,7 +8658,7 @@
         <v>-1518</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E451" s="14"/>
     </row>
@@ -8624,7 +8667,7 @@
         <v>-1519</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E452" s="14"/>
     </row>
@@ -8633,7 +8676,7 @@
         <v>-1520</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E453" s="14"/>
     </row>
@@ -8642,7 +8685,7 @@
         <v>-1521</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E454" s="14"/>
     </row>
@@ -8651,10 +8694,10 @@
         <v>-1522</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="456" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8662,10 +8705,10 @@
         <v>-1523</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="457" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8673,10 +8716,10 @@
         <v>-1524</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E457" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="458" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8684,10 +8727,10 @@
         <v>-1550</v>
       </c>
       <c r="D458" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E458" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="459" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8695,10 +8738,10 @@
         <v>-1551</v>
       </c>
       <c r="D459" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E459" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="460" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8706,10 +8749,10 @@
         <v>-1552</v>
       </c>
       <c r="D460" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E460" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="461" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8717,10 +8760,10 @@
         <v>-1553</v>
       </c>
       <c r="D461" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="462" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8728,10 +8771,10 @@
         <v>-1554</v>
       </c>
       <c r="D462" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E462" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="463" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8739,10 +8782,10 @@
         <v>-1555</v>
       </c>
       <c r="D463" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E463" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="464" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8750,10 +8793,10 @@
         <v>-1556</v>
       </c>
       <c r="D464" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E464" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="465" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8761,10 +8804,10 @@
         <v>-1558</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E465" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="466" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8772,10 +8815,10 @@
         <v>-1560</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E466" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="467" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8783,35 +8826,35 @@
         <v>-1561</v>
       </c>
       <c r="D467" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C468" s="43">
+        <v>-1600</v>
+      </c>
+      <c r="D468" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="E467" s="8" t="s">
+      <c r="E468" s="9" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="47">
-        <v>-1600</v>
-      </c>
-      <c r="D468" s="50" t="s">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C469" s="44"/>
+      <c r="D469" s="47"/>
+      <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="E468" s="9" t="s">
+    </row>
+    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C470" s="45"/>
+      <c r="D470" s="48"/>
+      <c r="E470" s="11" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="48"/>
-      <c r="D469" s="51"/>
-      <c r="E469" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="49"/>
-      <c r="D470" s="52"/>
-      <c r="E470" s="11" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="471" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8819,10 +8862,10 @@
         <v>-1601</v>
       </c>
       <c r="D471" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="472" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
@@ -8830,10 +8873,10 @@
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="E472" s="8" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8841,10 +8884,10 @@
         <v>-1603</v>
       </c>
       <c r="D473" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E473" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8852,10 +8895,10 @@
         <v>-1604</v>
       </c>
       <c r="D474" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E474" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8863,10 +8906,10 @@
         <v>-1605</v>
       </c>
       <c r="D475" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E475" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8874,10 +8917,10 @@
         <v>-1606</v>
       </c>
       <c r="D476" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E476" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8885,10 +8928,10 @@
         <v>-1607</v>
       </c>
       <c r="D477" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E477" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8896,57 +8939,57 @@
         <v>-1609</v>
       </c>
       <c r="D478" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E478" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C479" s="43">
+        <v>-1610</v>
+      </c>
+      <c r="D479" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="E478" s="8" t="s">
+      <c r="E479" s="9" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="47">
-        <v>-1610</v>
-      </c>
-      <c r="D479" s="50" t="s">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C480" s="44"/>
+      <c r="D480" s="47"/>
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C481" s="44"/>
+      <c r="D481" s="47"/>
+      <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="E479" s="9" t="s">
+    </row>
+    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C482" s="44"/>
+      <c r="D482" s="47"/>
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C483" s="44"/>
+      <c r="D483" s="47"/>
+      <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="48"/>
-      <c r="D480" s="51"/>
-      <c r="E480" s="10"/>
-    </row>
-    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="48"/>
-      <c r="D481" s="51"/>
-      <c r="E481" s="12" t="s">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C484" s="44"/>
+      <c r="D484" s="47"/>
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C485" s="45"/>
+      <c r="D485" s="48"/>
+      <c r="E485" s="11" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="48"/>
-      <c r="D482" s="51"/>
-      <c r="E482" s="10"/>
-    </row>
-    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="48"/>
-      <c r="D483" s="51"/>
-      <c r="E483" s="12" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="48"/>
-      <c r="D484" s="51"/>
-      <c r="E484" s="10"/>
-    </row>
-    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="49"/>
-      <c r="D485" s="52"/>
-      <c r="E485" s="11" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -8954,10 +8997,10 @@
         <v>-1611</v>
       </c>
       <c r="D486" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E486" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8965,10 +9008,10 @@
         <v>-1612</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E487" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8976,10 +9019,10 @@
         <v>-1613</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E488" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -8987,10 +9030,10 @@
         <v>-1614</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E489" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -8998,10 +9041,10 @@
         <v>-1615</v>
       </c>
       <c r="D490" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E490" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9009,21 +9052,21 @@
         <v>-1616</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E491" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="492" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="492" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C492" s="7">
         <v>-1617</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E492" s="8" t="s">
-        <v>675</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9031,10 +9074,10 @@
         <v>-1700</v>
       </c>
       <c r="D493" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E493" s="8" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9042,10 +9085,10 @@
         <v>-1701</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9053,10 +9096,10 @@
         <v>-1702</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E495" s="8" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9064,10 +9107,10 @@
         <v>-1703</v>
       </c>
       <c r="D496" s="8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E496" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="497" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9075,21 +9118,21 @@
         <v>-1704</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E497" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="498" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="498" spans="3:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C498" s="7">
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>685</v>
+        <v>1000</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>686</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9097,10 +9140,10 @@
         <v>-1706</v>
       </c>
       <c r="D499" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E499" s="8" t="s">
-        <v>688</v>
+        <v>999</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9108,10 +9151,10 @@
         <v>-1707</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9119,10 +9162,10 @@
         <v>-1708</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E501" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="502" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9130,10 +9173,10 @@
         <v>-1709</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E502" s="8" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9141,10 +9184,10 @@
         <v>-1710</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E503" s="8" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9152,10 +9195,10 @@
         <v>-1720</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E504" s="8" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9163,10 +9206,10 @@
         <v>-1730</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9174,10 +9217,10 @@
         <v>-1731</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E506" s="8" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9185,10 +9228,10 @@
         <v>-1732</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E507" s="8" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9196,10 +9239,10 @@
         <v>-1740</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E508" s="8" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="509" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9207,7 +9250,7 @@
         <v>-3000</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E509" s="14"/>
     </row>
@@ -9216,7 +9259,7 @@
         <v>-3001</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E510" s="14"/>
     </row>
@@ -9225,7 +9268,7 @@
         <v>-3002</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E511" s="14"/>
     </row>
@@ -9234,7 +9277,7 @@
         <v>-3003</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E512" s="14"/>
     </row>
@@ -9243,7 +9286,7 @@
         <v>-3004</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E513" s="14"/>
     </row>
@@ -9252,7 +9295,7 @@
         <v>-3005</v>
       </c>
       <c r="D514" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E514" s="14"/>
     </row>
@@ -9261,7 +9304,7 @@
         <v>-3006</v>
       </c>
       <c r="D515" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E515" s="14"/>
     </row>
@@ -9270,7 +9313,7 @@
         <v>-3007</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E516" s="14"/>
     </row>
@@ -9279,7 +9322,7 @@
         <v>-3008</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E517" s="14"/>
     </row>
@@ -9288,7 +9331,7 @@
         <v>-3009</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E518" s="14"/>
     </row>
@@ -9297,7 +9340,7 @@
         <v>-3010</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E519" s="14"/>
     </row>
@@ -9306,7 +9349,7 @@
         <v>-3011</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E520" s="14"/>
     </row>
@@ -9315,7 +9358,7 @@
         <v>-3012</v>
       </c>
       <c r="D521" s="8" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E521" s="14"/>
     </row>
@@ -9324,54 +9367,54 @@
         <v>-3013</v>
       </c>
       <c r="D522" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E522" s="14"/>
+    </row>
+    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C523" s="43">
+        <v>-3014</v>
+      </c>
+      <c r="D523" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="E523" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C524" s="44"/>
+      <c r="D524" s="47"/>
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C525" s="45"/>
+      <c r="D525" s="48"/>
+      <c r="E525" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C526" s="43">
+        <v>-3015</v>
+      </c>
+      <c r="D526" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="E526" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C527" s="44"/>
+      <c r="D527" s="47"/>
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C528" s="45"/>
+      <c r="D528" s="48"/>
+      <c r="E528" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="E522" s="14"/>
-    </row>
-    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="47">
-        <v>-3014</v>
-      </c>
-      <c r="D523" s="50" t="s">
-        <v>721</v>
-      </c>
-      <c r="E523" s="9" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="48"/>
-      <c r="D524" s="51"/>
-      <c r="E524" s="10"/>
-    </row>
-    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="49"/>
-      <c r="D525" s="52"/>
-      <c r="E525" s="11" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="47">
-        <v>-3015</v>
-      </c>
-      <c r="D526" s="50" t="s">
-        <v>724</v>
-      </c>
-      <c r="E526" s="9" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="48"/>
-      <c r="D527" s="51"/>
-      <c r="E527" s="10"/>
-    </row>
-    <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="49"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="11" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9379,10 +9422,10 @@
         <v>-3016</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E529" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9390,10 +9433,10 @@
         <v>-3017</v>
       </c>
       <c r="D530" s="8" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E530" s="8" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9401,10 +9444,10 @@
         <v>-3100</v>
       </c>
       <c r="D531" s="8" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E531" s="8" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -9412,10 +9455,10 @@
         <v>-3101</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9423,10 +9466,10 @@
         <v>-3102</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E533" s="8" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9434,334 +9477,332 @@
         <v>-3103</v>
       </c>
       <c r="D534" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E534" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
+      <c r="C535" s="43">
+        <v>-3104</v>
+      </c>
+      <c r="D535" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="E535" s="9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C536" s="44"/>
+      <c r="D536" s="47"/>
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C537" s="44"/>
+      <c r="D537" s="47"/>
+      <c r="E537" s="12" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C538" s="44"/>
+      <c r="D538" s="47"/>
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C539" s="44"/>
+      <c r="D539" s="47"/>
+      <c r="E539" s="12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C540" s="44"/>
+      <c r="D540" s="47"/>
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C541" s="44"/>
+      <c r="D541" s="47"/>
+      <c r="E541" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C542" s="44"/>
+      <c r="D542" s="47"/>
+      <c r="E542" s="12"/>
+    </row>
+    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C543" s="45"/>
+      <c r="D543" s="48"/>
+      <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="E534" s="8" t="s">
+    </row>
+    <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C544" s="43">
+        <v>-3105</v>
+      </c>
+      <c r="D544" s="46" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C535" s="47">
-        <v>-3104</v>
-      </c>
-      <c r="D535" s="50" t="s">
+      <c r="E544" s="9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C545" s="44"/>
+      <c r="D545" s="47"/>
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C546" s="44"/>
+      <c r="D546" s="47"/>
+      <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="E535" s="9" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="48"/>
-      <c r="D536" s="51"/>
-      <c r="E536" s="10"/>
-    </row>
-    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="48"/>
-      <c r="D537" s="51"/>
-      <c r="E537" s="12" t="s">
+    </row>
+    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C547" s="44"/>
+      <c r="D547" s="47"/>
+      <c r="E547" s="12"/>
+    </row>
+    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C548" s="45"/>
+      <c r="D548" s="48"/>
+      <c r="E548" s="15"/>
+    </row>
+    <row r="549" spans="3:5" ht="280.8" x14ac:dyDescent="0.4">
+      <c r="C549" s="43">
+        <v>-3106</v>
+      </c>
+      <c r="D549" s="46" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="48"/>
-      <c r="D538" s="51"/>
-      <c r="E538" s="10"/>
-    </row>
-    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="48"/>
-      <c r="D539" s="51"/>
-      <c r="E539" s="12" t="s">
+      <c r="E549" s="9" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C550" s="44"/>
+      <c r="D550" s="47"/>
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C551" s="44"/>
+      <c r="D551" s="47"/>
+      <c r="E551" s="12"/>
+    </row>
+    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C552" s="44"/>
+      <c r="D552" s="47"/>
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C553" s="44"/>
+      <c r="D553" s="47"/>
+      <c r="E553" s="12" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="48"/>
-      <c r="D540" s="51"/>
-      <c r="E540" s="10"/>
-    </row>
-    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="48"/>
-      <c r="D541" s="51"/>
-      <c r="E541" s="12" t="s">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C554" s="44"/>
+      <c r="D554" s="47"/>
+      <c r="E554" s="12" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="48"/>
-      <c r="D542" s="51"/>
-      <c r="E542" s="12"/>
-    </row>
-    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="49"/>
-      <c r="D543" s="52"/>
-      <c r="E543" s="15" t="s">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C555" s="44"/>
+      <c r="D555" s="47"/>
+      <c r="E555" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C544" s="47">
-        <v>-3105</v>
-      </c>
-      <c r="D544" s="50" t="s">
+    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C556" s="44"/>
+      <c r="D556" s="47"/>
+      <c r="E556" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="E544" s="9" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="48"/>
-      <c r="D545" s="51"/>
-      <c r="E545" s="10"/>
-    </row>
-    <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="48"/>
-      <c r="D546" s="51"/>
-      <c r="E546" s="12" t="s">
+    </row>
+    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C557" s="44"/>
+      <c r="D557" s="47"/>
+      <c r="E557" s="12" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="48"/>
-      <c r="D547" s="51"/>
-      <c r="E547" s="12"/>
-    </row>
-    <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="49"/>
-      <c r="D548" s="52"/>
-      <c r="E548" s="15"/>
-    </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C549" s="47">
-        <v>-3106</v>
-      </c>
-      <c r="D549" s="50" t="s">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C558" s="44"/>
+      <c r="D558" s="47"/>
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C559" s="44"/>
+      <c r="D559" s="47"/>
+      <c r="E559" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="E549" s="9" t="s">
+    </row>
+    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C560" s="44"/>
+      <c r="D560" s="47"/>
+      <c r="E560" s="12"/>
+    </row>
+    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C561" s="44"/>
+      <c r="D561" s="47"/>
+      <c r="E561" s="16" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="48"/>
-      <c r="D550" s="51"/>
-      <c r="E550" s="10"/>
-    </row>
-    <row r="551" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C551" s="48"/>
-      <c r="D551" s="51"/>
-      <c r="E551" s="12" t="s">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C562" s="44"/>
+      <c r="D562" s="47"/>
+      <c r="E562" s="16" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="48"/>
-      <c r="D552" s="51"/>
-      <c r="E552" s="10"/>
-    </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="48"/>
-      <c r="D553" s="51"/>
-      <c r="E553" s="12" t="s">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C563" s="44"/>
+      <c r="D563" s="47"/>
+      <c r="E563" s="16" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="48"/>
-      <c r="D554" s="51"/>
-      <c r="E554" s="12" t="s">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C564" s="44"/>
+      <c r="D564" s="47"/>
+      <c r="E564" s="16" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="48"/>
-      <c r="D555" s="51"/>
-      <c r="E555" s="12" t="s">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C565" s="44"/>
+      <c r="D565" s="47"/>
+      <c r="E565" s="16" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="48"/>
-      <c r="D556" s="51"/>
-      <c r="E556" s="12" t="s">
+    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C566" s="44"/>
+      <c r="D566" s="47"/>
+      <c r="E566" s="16" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="48"/>
-      <c r="D557" s="51"/>
-      <c r="E557" s="12" t="s">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C567" s="44"/>
+      <c r="D567" s="47"/>
+      <c r="E567" s="16" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="48"/>
-      <c r="D558" s="51"/>
-      <c r="E558" s="10"/>
-    </row>
-    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="48"/>
-      <c r="D559" s="51"/>
-      <c r="E559" s="12" t="s">
+    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C568" s="45"/>
+      <c r="D568" s="48"/>
+      <c r="E568" s="15" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="48"/>
-      <c r="D560" s="51"/>
-      <c r="E560" s="12"/>
-    </row>
-    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="48"/>
-      <c r="D561" s="51"/>
-      <c r="E561" s="16" t="s">
+    <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C569" s="43">
+        <v>-3107</v>
+      </c>
+      <c r="D569" s="46" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="48"/>
-      <c r="D562" s="51"/>
-      <c r="E562" s="16" t="s">
+      <c r="E569" s="9" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C570" s="44"/>
+      <c r="D570" s="47"/>
+      <c r="E570" s="12"/>
+    </row>
+    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C571" s="45"/>
+      <c r="D571" s="48"/>
+      <c r="E571" s="15" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="48"/>
-      <c r="D563" s="51"/>
-      <c r="E563" s="16" t="s">
+    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
+      <c r="C572" s="43">
+        <v>-3108</v>
+      </c>
+      <c r="D572" s="46" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="48"/>
-      <c r="D564" s="51"/>
-      <c r="E564" s="16" t="s">
+      <c r="E572" s="9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C573" s="44"/>
+      <c r="D573" s="47"/>
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C574" s="45"/>
+      <c r="D574" s="48"/>
+      <c r="E574" s="15"/>
+    </row>
+    <row r="575" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
+      <c r="C575" s="43">
+        <v>-3109</v>
+      </c>
+      <c r="D575" s="46" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="48"/>
-      <c r="D565" s="51"/>
-      <c r="E565" s="16" t="s">
+      <c r="E575" s="9" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C576" s="44"/>
+      <c r="D576" s="47"/>
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C577" s="45"/>
+      <c r="D577" s="48"/>
+      <c r="E577" s="15"/>
+    </row>
+    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
+      <c r="C578" s="43">
+        <v>-3110</v>
+      </c>
+      <c r="D578" s="46" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="48"/>
-      <c r="D566" s="51"/>
-      <c r="E566" s="16" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="48"/>
-      <c r="D567" s="51"/>
-      <c r="E567" s="16" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="49"/>
-      <c r="D568" s="52"/>
-      <c r="E568" s="15" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C569" s="47">
-        <v>-3107</v>
-      </c>
-      <c r="D569" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="E569" s="9" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="48"/>
-      <c r="D570" s="51"/>
-      <c r="E570" s="12"/>
-    </row>
-    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="49"/>
-      <c r="D571" s="52"/>
-      <c r="E571" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="47">
-        <v>-3108</v>
-      </c>
-      <c r="D572" s="50" t="s">
-        <v>764</v>
-      </c>
-      <c r="E572" s="9" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="48"/>
-      <c r="D573" s="51"/>
-      <c r="E573" s="12"/>
-    </row>
-    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="49"/>
-      <c r="D574" s="52"/>
-      <c r="E574" s="15"/>
-    </row>
-    <row r="575" spans="3:5" ht="234" x14ac:dyDescent="0.4">
-      <c r="C575" s="47">
-        <v>-3109</v>
-      </c>
-      <c r="D575" s="50" t="s">
-        <v>765</v>
-      </c>
-      <c r="E575" s="9" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="48"/>
-      <c r="D576" s="51"/>
-      <c r="E576" s="12"/>
-    </row>
-    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="49"/>
-      <c r="D577" s="52"/>
-      <c r="E577" s="15"/>
-    </row>
-    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="47">
-        <v>-3110</v>
-      </c>
-      <c r="D578" s="50" t="s">
-        <v>766</v>
-      </c>
       <c r="E578" s="9" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="48"/>
-      <c r="D579" s="51"/>
+      <c r="C579" s="44"/>
+      <c r="D579" s="47"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="48"/>
-      <c r="D580" s="51"/>
+      <c r="C580" s="44"/>
+      <c r="D580" s="47"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="48"/>
-      <c r="D581" s="51"/>
+      <c r="C581" s="44"/>
+      <c r="D581" s="47"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="49"/>
-      <c r="D582" s="52"/>
+      <c r="C582" s="45"/>
+      <c r="D582" s="48"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -9769,150 +9810,150 @@
         <v>-3111</v>
       </c>
       <c r="D583" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="E583" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C584" s="43">
+        <v>-3112</v>
+      </c>
+      <c r="D584" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="E584" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C585" s="44"/>
+      <c r="D585" s="47"/>
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C586" s="45"/>
+      <c r="D586" s="48"/>
+      <c r="E586" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C587" s="43">
+        <v>-3113</v>
+      </c>
+      <c r="D587" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="E587" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C588" s="44"/>
+      <c r="D588" s="47"/>
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C589" s="44"/>
+      <c r="D589" s="47"/>
+      <c r="E589" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C590" s="44"/>
+      <c r="D590" s="47"/>
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C591" s="44"/>
+      <c r="D591" s="47"/>
+      <c r="E591" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="E583" s="8" t="s">
+    </row>
+    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C592" s="44"/>
+      <c r="D592" s="47"/>
+      <c r="E592" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="47">
-        <v>-3112</v>
-      </c>
-      <c r="D584" s="50" t="s">
+    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C593" s="44"/>
+      <c r="D593" s="47"/>
+      <c r="E593" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="E584" s="9" t="s">
+    </row>
+    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C594" s="44"/>
+      <c r="D594" s="47"/>
+      <c r="E594" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="48"/>
-      <c r="D585" s="51"/>
-      <c r="E585" s="10"/>
-    </row>
-    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="49"/>
-      <c r="D586" s="52"/>
-      <c r="E586" s="11" t="s">
+    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C595" s="44"/>
+      <c r="D595" s="47"/>
+      <c r="E595" s="12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="47">
-        <v>-3113</v>
-      </c>
-      <c r="D587" s="50" t="s">
+    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C596" s="44"/>
+      <c r="D596" s="47"/>
+      <c r="E596" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="E587" s="9" t="s">
+    </row>
+    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C597" s="44"/>
+      <c r="D597" s="47"/>
+      <c r="E597" s="12" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="48"/>
-      <c r="D588" s="51"/>
-      <c r="E588" s="10"/>
-    </row>
-    <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="48"/>
-      <c r="D589" s="51"/>
-      <c r="E589" s="12" t="s">
+    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C598" s="44"/>
+      <c r="D598" s="47"/>
+      <c r="E598" s="12" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="48"/>
-      <c r="D590" s="51"/>
-      <c r="E590" s="10"/>
-    </row>
-    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="48"/>
-      <c r="D591" s="51"/>
-      <c r="E591" s="12" t="s">
+    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C599" s="44"/>
+      <c r="D599" s="47"/>
+      <c r="E599" s="12" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="48"/>
-      <c r="D592" s="51"/>
-      <c r="E592" s="12" t="s">
+    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C600" s="44"/>
+      <c r="D600" s="47"/>
+      <c r="E600" s="12" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="48"/>
-      <c r="D593" s="51"/>
-      <c r="E593" s="12" t="s">
+    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C601" s="44"/>
+      <c r="D601" s="47"/>
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C602" s="44"/>
+      <c r="D602" s="47"/>
+      <c r="E602" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="48"/>
-      <c r="D594" s="51"/>
-      <c r="E594" s="12" t="s">
+    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C603" s="45"/>
+      <c r="D603" s="48"/>
+      <c r="E603" s="11" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="48"/>
-      <c r="D595" s="51"/>
-      <c r="E595" s="12" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="48"/>
-      <c r="D596" s="51"/>
-      <c r="E596" s="12" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="48"/>
-      <c r="D597" s="51"/>
-      <c r="E597" s="12" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="48"/>
-      <c r="D598" s="51"/>
-      <c r="E598" s="12" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="48"/>
-      <c r="D599" s="51"/>
-      <c r="E599" s="12" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="48"/>
-      <c r="D600" s="51"/>
-      <c r="E600" s="12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="48"/>
-      <c r="D601" s="51"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="48"/>
-      <c r="D602" s="51"/>
-      <c r="E602" s="12" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="49"/>
-      <c r="D603" s="52"/>
-      <c r="E603" s="11" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9920,33 +9961,33 @@
         <v>-3114</v>
       </c>
       <c r="D604" s="8" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E604" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="47">
+      <c r="C605" s="43">
         <v>-3115</v>
       </c>
-      <c r="D605" s="50" t="s">
-        <v>789</v>
+      <c r="D605" s="46" t="s">
+        <v>781</v>
       </c>
       <c r="E605" s="9" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="48"/>
-      <c r="D606" s="51"/>
+      <c r="C606" s="44"/>
+      <c r="D606" s="47"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="49"/>
-      <c r="D607" s="52"/>
+      <c r="C607" s="45"/>
+      <c r="D607" s="48"/>
       <c r="E607" s="11" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="608" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -9954,50 +9995,50 @@
         <v>-3116</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="47">
+      <c r="C609" s="43">
         <v>-3117</v>
       </c>
-      <c r="D609" s="50" t="s">
-        <v>793</v>
+      <c r="D609" s="46" t="s">
+        <v>785</v>
       </c>
       <c r="E609" s="9" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="48"/>
-      <c r="D610" s="51"/>
+      <c r="C610" s="44"/>
+      <c r="D610" s="47"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="48"/>
-      <c r="D611" s="51"/>
+      <c r="C611" s="44"/>
+      <c r="D611" s="47"/>
       <c r="E611" s="12" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="48"/>
-      <c r="D612" s="51"/>
+      <c r="C612" s="44"/>
+      <c r="D612" s="47"/>
       <c r="E612" s="12" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="48"/>
-      <c r="D613" s="51"/>
+      <c r="C613" s="44"/>
+      <c r="D613" s="47"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="49"/>
-      <c r="D614" s="52"/>
+      <c r="C614" s="45"/>
+      <c r="D614" s="48"/>
       <c r="E614" s="11" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10005,10 +10046,10 @@
         <v>-3118</v>
       </c>
       <c r="D615" s="8" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E615" s="8" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10016,103 +10057,103 @@
         <v>-3119</v>
       </c>
       <c r="D616" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E616" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C617" s="43">
+        <v>-3120</v>
+      </c>
+      <c r="D617" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="E617" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C618" s="44"/>
+      <c r="D618" s="47"/>
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C619" s="44"/>
+      <c r="D619" s="47"/>
+      <c r="E619" s="12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C620" s="44"/>
+      <c r="D620" s="47"/>
+      <c r="E620" s="12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C621" s="44"/>
+      <c r="D621" s="47"/>
+      <c r="E621" s="12" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C622" s="44"/>
+      <c r="D622" s="47"/>
+      <c r="E622" s="12" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C623" s="45"/>
+      <c r="D623" s="48"/>
+      <c r="E623" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="E616" s="8" t="s">
+    </row>
+    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C624" s="43">
+        <v>-3121</v>
+      </c>
+      <c r="D624" s="46" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="47">
-        <v>-3120</v>
-      </c>
-      <c r="D617" s="50" t="s">
+      <c r="E624" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="E617" s="9" t="s">
+    </row>
+    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C625" s="44"/>
+      <c r="D625" s="47"/>
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C626" s="44"/>
+      <c r="D626" s="47"/>
+      <c r="E626" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="48"/>
-      <c r="D618" s="51"/>
-      <c r="E618" s="10"/>
-    </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="48"/>
-      <c r="D619" s="51"/>
-      <c r="E619" s="12" t="s">
+    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C627" s="44"/>
+      <c r="D627" s="47"/>
+      <c r="E627" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="48"/>
-      <c r="D620" s="51"/>
-      <c r="E620" s="12" t="s">
+    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C628" s="44"/>
+      <c r="D628" s="47"/>
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C629" s="45"/>
+      <c r="D629" s="48"/>
+      <c r="E629" s="11" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="48"/>
-      <c r="D621" s="51"/>
-      <c r="E621" s="12" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="48"/>
-      <c r="D622" s="51"/>
-      <c r="E622" s="12" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="49"/>
-      <c r="D623" s="52"/>
-      <c r="E623" s="11" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="47">
-        <v>-3121</v>
-      </c>
-      <c r="D624" s="50" t="s">
-        <v>809</v>
-      </c>
-      <c r="E624" s="9" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="48"/>
-      <c r="D625" s="51"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="48"/>
-      <c r="D626" s="51"/>
-      <c r="E626" s="12" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="48"/>
-      <c r="D627" s="51"/>
-      <c r="E627" s="12" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="48"/>
-      <c r="D628" s="51"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="49"/>
-      <c r="D629" s="52"/>
-      <c r="E629" s="11" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="630" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
@@ -10120,10 +10161,10 @@
         <v>-3122</v>
       </c>
       <c r="D630" s="37" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E630" s="9" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="631" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10131,33 +10172,33 @@
         <v>-3123</v>
       </c>
       <c r="D631" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E631" s="8" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="47">
+      <c r="C632" s="43">
         <v>-3124</v>
       </c>
-      <c r="D632" s="50" t="s">
-        <v>817</v>
+      <c r="D632" s="46" t="s">
+        <v>809</v>
       </c>
       <c r="E632" s="9" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="48"/>
-      <c r="D633" s="51"/>
+      <c r="C633" s="44"/>
+      <c r="D633" s="47"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="49"/>
-      <c r="D634" s="52"/>
+      <c r="C634" s="45"/>
+      <c r="D634" s="48"/>
       <c r="E634" s="11" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="635" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10165,64 +10206,64 @@
         <v>-3125</v>
       </c>
       <c r="D635" s="8" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E635" s="8" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="47">
+      <c r="C636" s="43">
         <v>-3126</v>
       </c>
-      <c r="D636" s="50" t="s">
-        <v>822</v>
+      <c r="D636" s="46" t="s">
+        <v>814</v>
       </c>
       <c r="E636" s="9" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="48"/>
-      <c r="D637" s="51"/>
+      <c r="C637" s="44"/>
+      <c r="D637" s="47"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="48"/>
-      <c r="D638" s="51"/>
+      <c r="C638" s="44"/>
+      <c r="D638" s="47"/>
       <c r="E638" s="12" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="48"/>
-      <c r="D639" s="51"/>
+      <c r="C639" s="44"/>
+      <c r="D639" s="47"/>
       <c r="E639" s="12" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="48"/>
-      <c r="D640" s="51"/>
+      <c r="C640" s="44"/>
+      <c r="D640" s="47"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="48"/>
-      <c r="D641" s="51"/>
+      <c r="C641" s="44"/>
+      <c r="D641" s="47"/>
       <c r="E641" s="12" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="48"/>
-      <c r="D642" s="51"/>
+      <c r="C642" s="44"/>
+      <c r="D642" s="47"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="49"/>
-      <c r="D643" s="52"/>
+      <c r="C643" s="45"/>
+      <c r="D643" s="48"/>
       <c r="E643" s="11" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="644" spans="3:5" ht="250.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10230,10 +10271,10 @@
         <v>-3127</v>
       </c>
       <c r="D644" s="8" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E644" s="8" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="645" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10241,92 +10282,92 @@
         <v>-3128</v>
       </c>
       <c r="D645" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E645" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C646" s="43">
+        <v>-3129</v>
+      </c>
+      <c r="D646" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="E646" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C647" s="44"/>
+      <c r="D647" s="47"/>
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C648" s="44"/>
+      <c r="D648" s="47"/>
+      <c r="E648" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="649" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C649" s="44"/>
+      <c r="D649" s="47"/>
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C650" s="44"/>
+      <c r="D650" s="47"/>
+      <c r="E650" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="651" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C651" s="44"/>
+      <c r="D651" s="47"/>
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C652" s="44"/>
+      <c r="D652" s="47"/>
+      <c r="E652" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="653" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C653" s="44"/>
+      <c r="D653" s="47"/>
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C654" s="45"/>
+      <c r="D654" s="48"/>
+      <c r="E654" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C655" s="43">
+        <v>-3130</v>
+      </c>
+      <c r="D655" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E655" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="E645" s="8" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="47">
-        <v>-3129</v>
-      </c>
-      <c r="D646" s="50" t="s">
+    </row>
+    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C656" s="44"/>
+      <c r="D656" s="47"/>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C657" s="45"/>
+      <c r="D657" s="48"/>
+      <c r="E657" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="E646" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="48"/>
-      <c r="D647" s="51"/>
-      <c r="E647" s="10"/>
-    </row>
-    <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="48"/>
-      <c r="D648" s="51"/>
-      <c r="E648" s="12" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="48"/>
-      <c r="D649" s="51"/>
-      <c r="E649" s="10"/>
-    </row>
-    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="48"/>
-      <c r="D650" s="51"/>
-      <c r="E650" s="12" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="48"/>
-      <c r="D651" s="51"/>
-      <c r="E651" s="10"/>
-    </row>
-    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="48"/>
-      <c r="D652" s="51"/>
-      <c r="E652" s="12" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="48"/>
-      <c r="D653" s="51"/>
-      <c r="E653" s="10"/>
-    </row>
-    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="49"/>
-      <c r="D654" s="52"/>
-      <c r="E654" s="11" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="47">
-        <v>-3130</v>
-      </c>
-      <c r="D655" s="50" t="s">
-        <v>836</v>
-      </c>
-      <c r="E655" s="9" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="48"/>
-      <c r="D656" s="51"/>
-      <c r="E656" s="10"/>
-    </row>
-    <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="49"/>
-      <c r="D657" s="52"/>
-      <c r="E657" s="11" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="658" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10334,10 +10375,10 @@
         <v>-3131</v>
       </c>
       <c r="D658" s="8" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E658" s="8" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="659" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -10345,10 +10386,10 @@
         <v>-3132</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E659" s="8" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="660" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10356,45 +10397,45 @@
         <v>-3133</v>
       </c>
       <c r="D660" s="8" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E660" s="8" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="47">
+      <c r="C661" s="43">
         <v>-3134</v>
       </c>
-      <c r="D661" s="50" t="s">
-        <v>844</v>
+      <c r="D661" s="46" t="s">
+        <v>836</v>
       </c>
       <c r="E661" s="9" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="48"/>
-      <c r="D662" s="51"/>
+      <c r="C662" s="44"/>
+      <c r="D662" s="47"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="48"/>
-      <c r="D663" s="51"/>
+      <c r="C663" s="44"/>
+      <c r="D663" s="47"/>
       <c r="E663" s="12" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="48"/>
-      <c r="D664" s="51"/>
+      <c r="C664" s="44"/>
+      <c r="D664" s="47"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="49"/>
-      <c r="D665" s="52"/>
+      <c r="C665" s="45"/>
+      <c r="D665" s="48"/>
       <c r="E665" s="11" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="666" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -10402,10 +10443,10 @@
         <v>-3135</v>
       </c>
       <c r="D666" s="8" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E666" s="8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="667" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10413,279 +10454,279 @@
         <v>-3136</v>
       </c>
       <c r="D667" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E667" s="8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C668" s="43">
+        <v>-3137</v>
+      </c>
+      <c r="D668" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="E668" s="9" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C669" s="44"/>
+      <c r="D669" s="47"/>
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C670" s="44"/>
+      <c r="D670" s="47"/>
+      <c r="E670" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C671" s="45"/>
+      <c r="D671" s="48"/>
+      <c r="E671" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C672" s="43">
+        <v>-3138</v>
+      </c>
+      <c r="D672" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="E672" s="9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C673" s="44"/>
+      <c r="D673" s="47"/>
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C674" s="44"/>
+      <c r="D674" s="47"/>
+      <c r="E674" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="E667" s="8" t="s">
+    </row>
+    <row r="675" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C675" s="44"/>
+      <c r="D675" s="47"/>
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C676" s="45"/>
+      <c r="D676" s="48"/>
+      <c r="E676" s="11" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="47">
-        <v>-3137</v>
-      </c>
-      <c r="D668" s="50" t="s">
+    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C677" s="43">
+        <v>-3139</v>
+      </c>
+      <c r="D677" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="E668" s="9" t="s">
+      <c r="E677" s="9" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="48"/>
-      <c r="D669" s="51"/>
-      <c r="E669" s="10"/>
-    </row>
-    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="48"/>
-      <c r="D670" s="51"/>
-      <c r="E670" s="12" t="s">
+    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C678" s="44"/>
+      <c r="D678" s="47"/>
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C679" s="44"/>
+      <c r="D679" s="47"/>
+      <c r="E679" s="12" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="49"/>
-      <c r="D671" s="52"/>
-      <c r="E671" s="11" t="s">
+    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C680" s="44"/>
+      <c r="D680" s="47"/>
+      <c r="E680" s="12" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="47">
-        <v>-3138</v>
-      </c>
-      <c r="D672" s="50" t="s">
+    <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C681" s="44"/>
+      <c r="D681" s="47"/>
+      <c r="E681" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="E672" s="9" t="s">
+    </row>
+    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C682" s="44"/>
+      <c r="D682" s="47"/>
+      <c r="E682" s="12" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="48"/>
-      <c r="D673" s="51"/>
-      <c r="E673" s="10"/>
-    </row>
-    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="48"/>
-      <c r="D674" s="51"/>
-      <c r="E674" s="12" t="s">
+    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C683" s="44"/>
+      <c r="D683" s="47"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C684" s="45"/>
+      <c r="D684" s="48"/>
+      <c r="E684" s="11" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="48"/>
-      <c r="D675" s="51"/>
-      <c r="E675" s="10"/>
-    </row>
-    <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="49"/>
-      <c r="D676" s="52"/>
-      <c r="E676" s="11" t="s">
+    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
+      <c r="C685" s="43">
+        <v>-3140</v>
+      </c>
+      <c r="D685" s="46" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="47">
-        <v>-3139</v>
-      </c>
-      <c r="D677" s="50" t="s">
+      <c r="E685" s="9" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="686" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C686" s="44"/>
+      <c r="D686" s="47"/>
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C687" s="44"/>
+      <c r="D687" s="47"/>
+      <c r="E687" s="12"/>
+    </row>
+    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C688" s="44"/>
+      <c r="D688" s="47"/>
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C689" s="45"/>
+      <c r="D689" s="48"/>
+      <c r="E689" s="11"/>
+    </row>
+    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C690" s="43">
+        <v>-3141</v>
+      </c>
+      <c r="D690" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="E677" s="9" t="s">
+      <c r="E690" s="9" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="48"/>
-      <c r="D678" s="51"/>
-      <c r="E678" s="10"/>
-    </row>
-    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="48"/>
-      <c r="D679" s="51"/>
-      <c r="E679" s="12" t="s">
+    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C691" s="44"/>
+      <c r="D691" s="47"/>
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C692" s="44"/>
+      <c r="D692" s="47"/>
+      <c r="E692" s="12" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="48"/>
-      <c r="D680" s="51"/>
-      <c r="E680" s="12" t="s">
+    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C693" s="44"/>
+      <c r="D693" s="47"/>
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C694" s="45"/>
+      <c r="D694" s="48"/>
+      <c r="E694" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C695" s="43">
+        <v>-3142</v>
+      </c>
+      <c r="D695" s="46" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="48"/>
-      <c r="D681" s="51"/>
-      <c r="E681" s="12" t="s">
+      <c r="E695" s="9" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="48"/>
-      <c r="D682" s="51"/>
-      <c r="E682" s="12" t="s">
+    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C696" s="44"/>
+      <c r="D696" s="47"/>
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C697" s="44"/>
+      <c r="D697" s="47"/>
+      <c r="E697" s="12" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="48"/>
-      <c r="D683" s="51"/>
-      <c r="E683" s="10"/>
-    </row>
-    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="49"/>
-      <c r="D684" s="52"/>
-      <c r="E684" s="11" t="s">
+    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C698" s="44"/>
+      <c r="D698" s="47"/>
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C699" s="45"/>
+      <c r="D699" s="48"/>
+      <c r="E699" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C700" s="43">
+        <v>-3143</v>
+      </c>
+      <c r="D700" s="46" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="47">
-        <v>-3140</v>
-      </c>
-      <c r="D685" s="50" t="s">
+      <c r="E700" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="E685" s="9" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="48"/>
-      <c r="D686" s="51"/>
-      <c r="E686" s="10"/>
-    </row>
-    <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="48"/>
-      <c r="D687" s="51"/>
-      <c r="E687" s="12"/>
-    </row>
-    <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="48"/>
-      <c r="D688" s="51"/>
-      <c r="E688" s="10"/>
-    </row>
-    <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="49"/>
-      <c r="D689" s="52"/>
-      <c r="E689" s="11"/>
-    </row>
-    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="47">
-        <v>-3141</v>
-      </c>
-      <c r="D690" s="50" t="s">
+    </row>
+    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C701" s="44"/>
+      <c r="D701" s="47"/>
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C702" s="44"/>
+      <c r="D702" s="47"/>
+      <c r="E702" s="12" t="s">
         <v>867</v>
       </c>
-      <c r="E690" s="9" t="s">
+    </row>
+    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C703" s="44"/>
+      <c r="D703" s="47"/>
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C704" s="44"/>
+      <c r="D704" s="47"/>
+      <c r="E704" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="48"/>
-      <c r="D691" s="51"/>
-      <c r="E691" s="10"/>
-    </row>
-    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="48"/>
-      <c r="D692" s="51"/>
-      <c r="E692" s="12" t="s">
+    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C705" s="44"/>
+      <c r="D705" s="47"/>
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C706" s="45"/>
+      <c r="D706" s="48"/>
+      <c r="E706" s="11" t="s">
         <v>869</v>
-      </c>
-    </row>
-    <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="48"/>
-      <c r="D693" s="51"/>
-      <c r="E693" s="10"/>
-    </row>
-    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="49"/>
-      <c r="D694" s="52"/>
-      <c r="E694" s="11" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="47">
-        <v>-3142</v>
-      </c>
-      <c r="D695" s="50" t="s">
-        <v>870</v>
-      </c>
-      <c r="E695" s="9" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="48"/>
-      <c r="D696" s="51"/>
-      <c r="E696" s="10"/>
-    </row>
-    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="48"/>
-      <c r="D697" s="51"/>
-      <c r="E697" s="12" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="48"/>
-      <c r="D698" s="51"/>
-      <c r="E698" s="10"/>
-    </row>
-    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="49"/>
-      <c r="D699" s="52"/>
-      <c r="E699" s="11" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="47">
-        <v>-3143</v>
-      </c>
-      <c r="D700" s="50" t="s">
-        <v>873</v>
-      </c>
-      <c r="E700" s="9" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="48"/>
-      <c r="D701" s="51"/>
-      <c r="E701" s="10"/>
-    </row>
-    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="48"/>
-      <c r="D702" s="51"/>
-      <c r="E702" s="12" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="48"/>
-      <c r="D703" s="51"/>
-      <c r="E703" s="10"/>
-    </row>
-    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="48"/>
-      <c r="D704" s="51"/>
-      <c r="E704" s="12" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="48"/>
-      <c r="D705" s="51"/>
-      <c r="E705" s="10"/>
-    </row>
-    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="49"/>
-      <c r="D706" s="52"/>
-      <c r="E706" s="11" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="707" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -10693,10 +10734,10 @@
         <v>-3144</v>
       </c>
       <c r="D707" s="8" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E707" s="8" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="708" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -10704,10 +10745,10 @@
         <v>-3145</v>
       </c>
       <c r="D708" s="8" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E708" s="8" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="709" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -10715,389 +10756,251 @@
         <v>-3146</v>
       </c>
       <c r="D709" s="8" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="E709" s="20" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="47">
+      <c r="C710" s="43">
         <v>-3147</v>
       </c>
-      <c r="D710" s="50" t="s">
-        <v>883</v>
+      <c r="D710" s="46" t="s">
+        <v>875</v>
       </c>
       <c r="E710" s="21" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="48"/>
-      <c r="D711" s="51"/>
+      <c r="C711" s="44"/>
+      <c r="D711" s="47"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="48"/>
-      <c r="D712" s="51"/>
+      <c r="C712" s="44"/>
+      <c r="D712" s="47"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="48"/>
-      <c r="D713" s="51"/>
+      <c r="C713" s="44"/>
+      <c r="D713" s="47"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="48"/>
-      <c r="D714" s="51"/>
+      <c r="C714" s="44"/>
+      <c r="D714" s="47"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="48"/>
-      <c r="D715" s="51"/>
+      <c r="C715" s="44"/>
+      <c r="D715" s="47"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="48"/>
-      <c r="D716" s="51"/>
+      <c r="C716" s="44"/>
+      <c r="D716" s="47"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="48"/>
-      <c r="D717" s="51"/>
+      <c r="C717" s="44"/>
+      <c r="D717" s="47"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="48"/>
-      <c r="D718" s="51"/>
+      <c r="C718" s="44"/>
+      <c r="D718" s="47"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="49"/>
-      <c r="D719" s="52"/>
+      <c r="C719" s="45"/>
+      <c r="D719" s="48"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="43" t="s">
-        <v>884</v>
-      </c>
-      <c r="D720" s="45" t="s">
-        <v>885</v>
+      <c r="C720" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="D720" s="57" t="s">
+        <v>877</v>
       </c>
       <c r="E720" s="25" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="44"/>
-      <c r="D721" s="46"/>
+      <c r="C721" s="56"/>
+      <c r="D721" s="58"/>
       <c r="E721" s="26" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="722" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C722" s="27" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D722" s="26" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E722" s="26" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="43" t="s">
-        <v>891</v>
-      </c>
-      <c r="D723" s="45" t="s">
-        <v>892</v>
+      <c r="C723" s="55" t="s">
+        <v>883</v>
+      </c>
+      <c r="D723" s="57" t="s">
+        <v>884</v>
       </c>
       <c r="E723" s="28" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="44"/>
-      <c r="D724" s="46"/>
+      <c r="C724" s="56"/>
+      <c r="D724" s="58"/>
       <c r="E724" s="26" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="725" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C725" s="27" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D725" s="26" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E725" s="26" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="726" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C726" s="27" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D726" s="26" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E726" s="26" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="727" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C727" s="27" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D727" s="26" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E727" s="26" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="728" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C728" s="27" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D728" s="26" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E728" s="26" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="43" t="s">
-        <v>906</v>
+      <c r="C729" s="55" t="s">
+        <v>898</v>
       </c>
       <c r="D729" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="E729" s="45" t="s">
-        <v>909</v>
+        <v>899</v>
+      </c>
+      <c r="E729" s="57" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="44"/>
+      <c r="C730" s="56"/>
       <c r="D730" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="E730" s="46"/>
+        <v>900</v>
+      </c>
+      <c r="E730" s="58"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D731" s="26" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E731" s="26" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="732" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C732" s="27" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D732" s="26" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E732" s="26" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="733" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C733" s="27" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D733" s="26" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E733" s="26" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="734" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C734" s="27" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D734" s="26" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E734" s="26" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="735" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C735" s="27" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D735" s="26" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E735" s="26" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="738" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C738" s="41" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="739" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C739" s="39" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D739" s="40" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E739" s="33" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -11112,6 +11015,144 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1485">
   <si>
     <t>코드</t>
   </si>
@@ -3703,6 +3703,1617 @@
 컨트롤러 1:1 Swap 후 현상 확인
 This error is generated when power is enabled or during normal running if the system detects that an axis has violated a speed limit.
 If this occurs when power is enabled, it indicates that the axis has violated the speed limit defined by "Special power-up speed limit" (DataID 10210). The possible causes for this error are as follows:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주쓰는 ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	    </t>
+  </si>
+  <si>
+    <t>DI 2000</t>
+  </si>
+  <si>
+    <t>DI 2001</t>
+  </si>
+  <si>
+    <t>DI 2002</t>
+  </si>
+  <si>
+    <t>DI 2003</t>
+  </si>
+  <si>
+    <t>DI 2004</t>
+  </si>
+  <si>
+    <t>DI 2005</t>
+  </si>
+  <si>
+    <t>DI 2006</t>
+  </si>
+  <si>
+    <t>DI 2007</t>
+  </si>
+  <si>
+    <t>DI 2008</t>
+  </si>
+  <si>
+    <t>DI 2009</t>
+  </si>
+  <si>
+    <t>DI 2010</t>
+  </si>
+  <si>
+    <t>DI 2012</t>
+  </si>
+  <si>
+    <t>DI 2014</t>
+  </si>
+  <si>
+    <t>DI 2026</t>
+  </si>
+  <si>
+    <t>DI 2027</t>
+  </si>
+  <si>
+    <t>DI 2030</t>
+  </si>
+  <si>
+    <t>DI 2031</t>
+  </si>
+  <si>
+    <t>DI 2032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	   </t>
+  </si>
+  <si>
+    <t>DI 2101</t>
+  </si>
+  <si>
+    <t>DI 2102</t>
+  </si>
+  <si>
+    <t>DI 2103</t>
+  </si>
+  <si>
+    <t>DI 2104</t>
+  </si>
+  <si>
+    <t>DI 2105</t>
+  </si>
+  <si>
+    <t>DI 2107</t>
+  </si>
+  <si>
+    <t>DI 2109</t>
+  </si>
+  <si>
+    <t>DI 2110</t>
+  </si>
+  <si>
+    <t>DI 2111</t>
+  </si>
+  <si>
+    <t>DI 2112</t>
+  </si>
+  <si>
+    <t>DI 2202</t>
+  </si>
+  <si>
+    <t>DI 2300</t>
+  </si>
+  <si>
+    <t>DI 2302</t>
+  </si>
+  <si>
+    <t>DI 2303</t>
+  </si>
+  <si>
+    <t>DI 2304</t>
+  </si>
+  <si>
+    <t>DI 2305</t>
+  </si>
+  <si>
+    <t>DI 2600</t>
+  </si>
+  <si>
+    <t>DI 2601</t>
+  </si>
+  <si>
+    <t>DI 2700</t>
+  </si>
+  <si>
+    <t>DI 2701</t>
+  </si>
+  <si>
+    <t>DI 2702</t>
+  </si>
+  <si>
+    <t>DI 2703</t>
+  </si>
+  <si>
+    <t>DI 2704</t>
+  </si>
+  <si>
+    <t>DI 2705</t>
+  </si>
+  <si>
+    <t>DI 2706</t>
+  </si>
+  <si>
+    <t>DI 2707</t>
+  </si>
+  <si>
+    <t>DI 2708</t>
+  </si>
+  <si>
+    <t>DI 2709</t>
+  </si>
+  <si>
+    <t>DI 2710</t>
+  </si>
+  <si>
+    <t>DI 2711</t>
+  </si>
+  <si>
+    <t>DI 2712</t>
+  </si>
+  <si>
+    <t>DI 2713</t>
+  </si>
+  <si>
+    <t>DI 2720</t>
+  </si>
+  <si>
+    <t>DI 2721</t>
+  </si>
+  <si>
+    <t>DI 2722</t>
+  </si>
+  <si>
+    <t>DI 2740</t>
+  </si>
+  <si>
+    <t>DI 2801</t>
+  </si>
+  <si>
+    <t>DI 2802</t>
+  </si>
+  <si>
+    <t>DI 2803</t>
+  </si>
+  <si>
+    <t>DI 2804</t>
+  </si>
+  <si>
+    <t>DI 2805</t>
+  </si>
+  <si>
+    <t>DI 2807</t>
+  </si>
+  <si>
+    <t>DI 2809</t>
+  </si>
+  <si>
+    <t>DI 2810</t>
+  </si>
+  <si>
+    <t>DI 2811</t>
+  </si>
+  <si>
+    <t>DI 2812</t>
+  </si>
+  <si>
+    <t>DI 2813</t>
+  </si>
+  <si>
+    <t>DI 2814</t>
+  </si>
+  <si>
+    <t>DI 2815</t>
+  </si>
+  <si>
+    <t>DI 2820</t>
+  </si>
+  <si>
+    <t>DI 2821</t>
+  </si>
+  <si>
+    <t>DI 2822</t>
+  </si>
+  <si>
+    <t>DI 2823</t>
+  </si>
+  <si>
+    <t>DI 2824</t>
+  </si>
+  <si>
+    <t>DI 2825</t>
+  </si>
+  <si>
+    <t>DI 2826</t>
+  </si>
+  <si>
+    <t>DI 2828</t>
+  </si>
+  <si>
+    <t>DI 2829</t>
+  </si>
+  <si>
+    <t>DI 2830</t>
+  </si>
+  <si>
+    <t>DI 3524</t>
+  </si>
+  <si>
+    <t>DI 10008</t>
+  </si>
+  <si>
+    <t>DI 10012</t>
+  </si>
+  <si>
+    <t>DI 10020</t>
+  </si>
+  <si>
+    <t>DI 10021</t>
+  </si>
+  <si>
+    <t>DI 10025</t>
+  </si>
+  <si>
+    <t>DI 10026</t>
+  </si>
+  <si>
+    <t>DI 10027</t>
+  </si>
+  <si>
+    <t>DI 10028</t>
+  </si>
+  <si>
+    <t>DI 10029</t>
+  </si>
+  <si>
+    <t>DI 10030</t>
+  </si>
+  <si>
+    <t>DI 10049</t>
+  </si>
+  <si>
+    <t>DI 10104</t>
+  </si>
+  <si>
+    <t>DI 10105</t>
+  </si>
+  <si>
+    <t>DI 10106</t>
+  </si>
+  <si>
+    <t>DI 10107</t>
+  </si>
+  <si>
+    <t>DI 10108</t>
+  </si>
+  <si>
+    <t>DI 10122</t>
+  </si>
+  <si>
+    <t>DI 10123</t>
+  </si>
+  <si>
+    <t>DI 10124</t>
+  </si>
+  <si>
+    <t>DI 10200</t>
+  </si>
+  <si>
+    <t>DI 10202</t>
+  </si>
+  <si>
+    <t>DI 10203</t>
+  </si>
+  <si>
+    <t>DI 10204</t>
+  </si>
+  <si>
+    <t>DI 10206</t>
+  </si>
+  <si>
+    <t>DI 10207</t>
+  </si>
+  <si>
+    <t>DI 10208</t>
+  </si>
+  <si>
+    <t>DI 10209</t>
+  </si>
+  <si>
+    <t>DI 10210</t>
+  </si>
+  <si>
+    <t>DI 10211</t>
+  </si>
+  <si>
+    <t>DI 10212</t>
+  </si>
+  <si>
+    <t>DI 10213</t>
+  </si>
+  <si>
+    <t>DI 10216</t>
+  </si>
+  <si>
+    <t>DI 10217</t>
+  </si>
+  <si>
+    <t>DI 10251</t>
+  </si>
+  <si>
+    <t>DI 10252</t>
+  </si>
+  <si>
+    <t>DI 10257</t>
+  </si>
+  <si>
+    <t>DI 10258</t>
+  </si>
+  <si>
+    <t>DI 10259</t>
+  </si>
+  <si>
+    <t>DI 10290</t>
+  </si>
+  <si>
+    <t>DI 10300</t>
+  </si>
+  <si>
+    <t>DI 10302</t>
+  </si>
+  <si>
+    <t>DI 10303</t>
+  </si>
+  <si>
+    <t>DI 10304</t>
+  </si>
+  <si>
+    <t>DI 10305</t>
+  </si>
+  <si>
+    <t>DI 10320</t>
+  </si>
+  <si>
+    <t>DI 10321</t>
+  </si>
+  <si>
+    <t>DI 10322</t>
+  </si>
+  <si>
+    <t>DI 10324</t>
+  </si>
+  <si>
+    <t>DI 10325</t>
+  </si>
+  <si>
+    <t>DI 10326</t>
+  </si>
+  <si>
+    <t>DI 10327</t>
+  </si>
+  <si>
+    <t>DI 10328</t>
+  </si>
+  <si>
+    <t>DI 10329</t>
+  </si>
+  <si>
+    <t>DI 10330</t>
+  </si>
+  <si>
+    <t>DI 10331</t>
+  </si>
+  <si>
+    <t>DI 10332</t>
+  </si>
+  <si>
+    <t>DI 10333</t>
+  </si>
+  <si>
+    <t>DI 10334</t>
+  </si>
+  <si>
+    <t>DI 10335</t>
+  </si>
+  <si>
+    <t>DI 10336</t>
+  </si>
+  <si>
+    <t>DI 10337</t>
+  </si>
+  <si>
+    <t>DI 10338</t>
+  </si>
+  <si>
+    <t>DI 10339</t>
+  </si>
+  <si>
+    <t>DI 10340</t>
+  </si>
+  <si>
+    <t>DI 10341</t>
+  </si>
+  <si>
+    <t>DI 10342</t>
+  </si>
+  <si>
+    <t>DI 10343</t>
+  </si>
+  <si>
+    <t>DI 10344</t>
+  </si>
+  <si>
+    <t>DI 10345</t>
+  </si>
+  <si>
+    <t>DI 10346</t>
+  </si>
+  <si>
+    <t>DI 10347</t>
+  </si>
+  <si>
+    <t>DI 10348</t>
+  </si>
+  <si>
+    <t>DI 10349</t>
+  </si>
+  <si>
+    <t>DI 10351</t>
+  </si>
+  <si>
+    <t>DI 10352</t>
+  </si>
+  <si>
+    <t>DI 10353</t>
+  </si>
+  <si>
+    <t>DI 10354</t>
+  </si>
+  <si>
+    <t>DI 10355</t>
+  </si>
+  <si>
+    <t>DI 10356</t>
+  </si>
+  <si>
+    <t>DI 10357</t>
+  </si>
+  <si>
+    <t>DI 10358</t>
+  </si>
+  <si>
+    <t>DI 10359</t>
+  </si>
+  <si>
+    <t>DI 10360</t>
+  </si>
+  <si>
+    <t>DI 10361</t>
+  </si>
+  <si>
+    <t>DI 10362</t>
+  </si>
+  <si>
+    <t>DI 10363</t>
+  </si>
+  <si>
+    <t>DI 10364</t>
+  </si>
+  <si>
+    <t>DI 10365</t>
+  </si>
+  <si>
+    <t>DI 10366</t>
+  </si>
+  <si>
+    <t>DI 10367</t>
+  </si>
+  <si>
+    <t>DI 10368</t>
+  </si>
+  <si>
+    <t>DI 10369</t>
+  </si>
+  <si>
+    <t>DI 10370</t>
+  </si>
+  <si>
+    <t>DI 10371</t>
+  </si>
+  <si>
+    <t>DI 10373</t>
+  </si>
+  <si>
+    <t>DI 10374</t>
+  </si>
+  <si>
+    <t>DI 10420</t>
+  </si>
+  <si>
+    <t>DI 10425</t>
+  </si>
+  <si>
+    <t>DI 10426</t>
+  </si>
+  <si>
+    <t>DI 10440</t>
+  </si>
+  <si>
+    <t>DI 10480</t>
+  </si>
+  <si>
+    <t>DI 10601</t>
+  </si>
+  <si>
+    <t>DI 10606</t>
+  </si>
+  <si>
+    <t>DI 10607</t>
+  </si>
+  <si>
+    <t>DI 10609</t>
+  </si>
+  <si>
+    <t>DI 10610</t>
+  </si>
+  <si>
+    <t>DI 10611</t>
+  </si>
+  <si>
+    <t>DI 10613</t>
+  </si>
+  <si>
+    <t>DI 10615</t>
+  </si>
+  <si>
+    <t>DI 10617</t>
+  </si>
+  <si>
+    <t>DI 10621</t>
+  </si>
+  <si>
+    <t>DI 10622</t>
+  </si>
+  <si>
+    <t>DI 10623</t>
+  </si>
+  <si>
+    <t>DI 10625</t>
+  </si>
+  <si>
+    <t>DI 10627</t>
+  </si>
+  <si>
+    <t>DI 10628</t>
+  </si>
+  <si>
+    <t>DI 10629</t>
+  </si>
+  <si>
+    <t>DI 10630</t>
+  </si>
+  <si>
+    <t>DI 10650</t>
+  </si>
+  <si>
+    <t>DI 10651</t>
+  </si>
+  <si>
+    <t>DI 10652</t>
+  </si>
+  <si>
+    <t>DI 10653</t>
+  </si>
+  <si>
+    <t>DI 10656</t>
+  </si>
+  <si>
+    <t>DI 10657</t>
+  </si>
+  <si>
+    <t>DI 10658</t>
+  </si>
+  <si>
+    <t>DI 10667</t>
+  </si>
+  <si>
+    <t>DI 10668</t>
+  </si>
+  <si>
+    <t>DI 10669</t>
+  </si>
+  <si>
+    <t>DI 10670</t>
+  </si>
+  <si>
+    <t>DI 10671</t>
+  </si>
+  <si>
+    <t>DI 10672</t>
+  </si>
+  <si>
+    <t>DI 10673</t>
+  </si>
+  <si>
+    <t>DI 10674</t>
+  </si>
+  <si>
+    <t>DI 10683</t>
+  </si>
+  <si>
+    <t>DI 10684</t>
+  </si>
+  <si>
+    <t>DI 10695</t>
+  </si>
+  <si>
+    <t>DI 10700</t>
+  </si>
+  <si>
+    <t>DI 10704</t>
+  </si>
+  <si>
+    <t>DI 10705</t>
+  </si>
+  <si>
+    <t>DI 10706</t>
+  </si>
+  <si>
+    <t>DI 10707</t>
+  </si>
+  <si>
+    <t>DI 10708</t>
+  </si>
+  <si>
+    <t>DI 10709</t>
+  </si>
+  <si>
+    <t>DI 10710</t>
+  </si>
+  <si>
+    <t>DI 10712</t>
+  </si>
+  <si>
+    <t>DI 10713</t>
+  </si>
+  <si>
+    <t>DI 10714</t>
+  </si>
+  <si>
+    <t>DI 10727</t>
+  </si>
+  <si>
+    <t>DI 10728</t>
+  </si>
+  <si>
+    <t>DI 10729</t>
+  </si>
+  <si>
+    <t>DI 10730</t>
+  </si>
+  <si>
+    <t>DI 10731</t>
+  </si>
+  <si>
+    <t>DI 10732</t>
+  </si>
+  <si>
+    <t>DI 10733</t>
+  </si>
+  <si>
+    <t>DI 10734</t>
+  </si>
+  <si>
+    <t>DI 10735</t>
+  </si>
+  <si>
+    <t>DI 10744</t>
+  </si>
+  <si>
+    <t>DI 10745</t>
+  </si>
+  <si>
+    <t>DI 10746</t>
+  </si>
+  <si>
+    <t>DI 10747</t>
+  </si>
+  <si>
+    <t>DI 10748</t>
+  </si>
+  <si>
+    <t>DI 10749</t>
+  </si>
+  <si>
+    <t>DI 10750</t>
+  </si>
+  <si>
+    <t>DI 10751</t>
+  </si>
+  <si>
+    <t>DI 10752</t>
+  </si>
+  <si>
+    <t>DI 10753</t>
+  </si>
+  <si>
+    <t>DI 10754</t>
+  </si>
+  <si>
+    <t>DI 10755</t>
+  </si>
+  <si>
+    <t>DI 10756</t>
+  </si>
+  <si>
+    <t>DI 10760</t>
+  </si>
+  <si>
+    <t>DI 10761</t>
+  </si>
+  <si>
+    <t>DI 10762</t>
+  </si>
+  <si>
+    <t>DI 10763</t>
+  </si>
+  <si>
+    <t>DI 10764</t>
+  </si>
+  <si>
+    <t>DI 10769</t>
+  </si>
+  <si>
+    <t>DI 10770</t>
+  </si>
+  <si>
+    <t>DI 10771</t>
+  </si>
+  <si>
+    <t>DI 10772</t>
+  </si>
+  <si>
+    <t>DI 10773</t>
+  </si>
+  <si>
+    <t>DI 10774</t>
+  </si>
+  <si>
+    <t>DI 10775</t>
+  </si>
+  <si>
+    <t>DI 10776</t>
+  </si>
+  <si>
+    <t>DI 10777</t>
+  </si>
+  <si>
+    <t>DI 10778</t>
+  </si>
+  <si>
+    <t>DI 10779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of axes" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split axis mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot name" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axis mask" </t>
+  </si>
+  <si>
+    <t>Number of extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor linearity compensation" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot type special option flags" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot model number or version" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot model number or version #2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCU_Info" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor map nodes" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor name" </t>
+  </si>
+  <si>
+    <t>SpeedDAC output map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor disable mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced free mode mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot is collaborative" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced safety mode" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection override axis mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RapidDecel deceleration in %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto execute master/slave gear ratio" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto execute master/slave ramp time in sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable robot operation" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulate servo interface" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable servo command trace" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated encoder velocity in encoder counts/sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conveyor Tracking mode bits" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft overtravel" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RapidDecel mode" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity control AIN" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint to motor scale factors" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint roll over value in deg" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidirectional roll over" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vel Ctl inrange tolerance in deg/sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos Ctl inrange tolerance in mcnts" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nulling time out in sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vel Ctl inrange time in sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% joint speeds in (mm or deg)/sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Cartesian speeds in (mm or deg)/sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% joint accels in (mm or deg)/sec^2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Cartesian accels in (mm or deg)/sec^2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max %speed allowed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max %accel allowed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max %decel allowed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple %accel/%decel to %speed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default %speed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Cartesian rotation %speed" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default %accel" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default %decel" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default max accel ramp time in sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default max decel ramp time in sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min ramp time interpolation range (deg or mm)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min ramp time mid-pos (deg or mm)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min ramp time mid-pos value (sec)" </t>
+  </si>
+  <si>
+    <t>Certified safety zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot homed DOUT" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homing sequence" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homing method" </t>
+  </si>
+  <si>
+    <t>Homing speed 1</t>
+  </si>
+  <si>
+    <t>Homing speed 2</t>
+  </si>
+  <si>
+    <t>Motor homing accel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commutate during homing" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homing order" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal axis homing DOUT" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait to home axis DIN" </t>
+  </si>
+  <si>
+    <t>Timeout on home axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move to homing safe position" </t>
+  </si>
+  <si>
+    <t>Homing safe position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max joint jog speed as %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max world/tool jog speed as %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of change of jog speed in %/sec" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free mode inhibited axes mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free mode gravity comp motor mask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jog tick joint step as %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jog tick world/tool step as %" </t>
+  </si>
+  <si>
+    <t>Free mode friction compensation</t>
+  </si>
+  <si>
+    <t>Free mode friction deadband</t>
+  </si>
+  <si>
+    <t>Free mode friction rate of change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-range DOUT" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo board configuration code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use amp type from
+Axis capability bitmask" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position loop update rate
+Minor axis number (dual-loop)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder hardware channel number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplifier hardware channel number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplifier type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor commutation method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot initialized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axis configuration word </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home switch DIN signal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive overtravel DIN signal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative overtravel DIN signal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated DIN selection </t>
+  </si>
+  <si>
+    <t>Hardstop envelope limit
+Hardstop pos steady tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardstop back out distance
+Encoder software configuration" </t>
+  </si>
+  <si>
+    <t>Encoder sign
+Encoder counts for resolution calc</t>
+  </si>
+  <si>
+    <t>Encoder revs for resolution calc
+Encoder to motor scale factor</t>
+  </si>
+  <si>
+    <t>Motor velocity SPR filter pole
+Run-time speed limit</t>
+  </si>
+  <si>
+    <t>Manual mode speed limit
+Power sequence speed limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable dynamic slippage adjustment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual loop position slippage limit
+Minor to major encoder scale factor" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual loop speed slippage limit
+Filtered position tracking effort" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore encoder battery alarm during homing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min. accel time to 5000 RPM
+Encoder hardware filter config" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of single turn data bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc. serial encoder configuration bitmask </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of multi-turn data bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback compensator configuration </t>
+  </si>
+  <si>
+    <t>Soft envelope error limit
+Hard envelope error limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envelope error check duration
+Velocity feedback blending factor" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable clearing of integrator state flag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedforward type selection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity error type selection </t>
+  </si>
+  <si>
+    <t>Position in-tolerance duration
+Position in-tolerance prediction window</t>
+  </si>
+  <si>
+    <t>Velocity error SPR filter pole
+Accel error DPR filter pole</t>
+  </si>
+  <si>
+    <t>Feedforward SPR filter pole
+Torque output filter pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output filter damping ratio </t>
+  </si>
+  <si>
+    <t>Proportional gain
+Integral gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivative gain
+Integrator limit" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrator rate limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration feedforward gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity feedforward gain </t>
+  </si>
+  <si>
+    <t>Accel error gain
+Cross coupling gain</t>
+  </si>
+  <si>
+    <t>Integrator deadband
+Cross coupling error SPR filter pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position feedforward gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor neutral position
+Position adjustment coefficient 0" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position adjustment coefficient 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position adjustment coefficient 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction feedforward torque
+Feedforward torque rate limit" </t>
+  </si>
+  <si>
+    <t>Gravity compensation torque
+Max positive torque limit for PID feedback</t>
+  </si>
+  <si>
+    <t>Max negative torque limit for PID feedback
+Torque output filter pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output filter damping ratio #2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saved integrator torque preload
+Velocity error custom filter coefficient 0" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity error custom filter coefficient 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity error custom filter coefficient 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity error custom filter coefficient 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity error custom filter coefficient 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output filter pole
+Torque output filter damping ratio #3" </t>
+  </si>
+  <si>
+    <t>Kd gain schedule
+Kd gain schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output filter pole
+Torque output filter damping ratio #4" </t>
+  </si>
+  <si>
+    <t>Max torque limit for PID feedback after error
+Max torque limit for feedforward after error</t>
+  </si>
+  <si>
+    <t>PID output saturation duration limit
+Integrator clear rate limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction feedforward rate limit
+ DFF linear scale factor for Kt compensation" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFF offset scale factor for Kt compensation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory interpolation type selection </t>
+  </si>
+  <si>
+    <t>Position move to when disable robot power
+Time for the motion when disable power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC input torque command enable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master axis number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor type per CANopen spec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error block time configuration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brake pulse time configuration </t>
+  </si>
+  <si>
+    <t>Torque sign
+Amplifier PEAK(non-RMS) current</t>
+  </si>
+  <si>
+    <t>RMS rated motor current
+AUTO mode motor PEAK(non-RMS)/(RMS rated) current</t>
+  </si>
+  <si>
+    <t>MANUAL mode motor PEAK(non-RMS)/(RMS rated) current
+Motor stalled check duration</t>
+  </si>
+  <si>
+    <t>Duty cycle SPR filter pole
+Duty cycle exceeded duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duty cycle limit in terms of rated torque
+Auxiliary brake release DOUT signal" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output DAC offset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque output scale factor [0
+Auxiliary clear amp fault DOUT signal" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rated EtherCAT motor torque count </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commutation sign
+# of pole-pairs per motor revolution" </t>
+  </si>
+  <si>
+    <t>Commutation counts per electrical cycle
+Velocity for blending cogging compensation</t>
+  </si>
+  <si>
+    <t>Current loop proportional gain
+Current loop damping gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor back-EMF constant
+Disable low DC bus nominal voltage detection" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip DC bus check before enabling charge pump </t>
+  </si>
+  <si>
+    <t>Phase advance
+Phase advance gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum phase advance
+Motor cogging compensation gain" </t>
+  </si>
+  <si>
+    <t>Cogging compensation rate limit
+Dump circuit duty cycle limit</t>
+  </si>
+  <si>
+    <t>Current offset of phase 1
+Current offset of phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable auto phase offset adjustment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commutation reference setup config </t>
+  </si>
+  <si>
+    <t>PAF angle adjustment amount
+PAF angle fine adjustment amount</t>
+  </si>
+  <si>
+    <t>PAF duration time for twang ON
+PAF duration time for twang OFF</t>
+  </si>
+  <si>
+    <t>PAF duration time for brake release
+PAF duration time for brake engage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAF twang range convergence factor
+PAF twang torque %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAF verification twang torque % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAF twang torque offset % </t>
+  </si>
+  <si>
+    <t>Twang-ref duration for twang ON
+Twang-ref duration for twang OFF</t>
+  </si>
+  <si>
+    <t>Twang-ref delay time to release brake
+Twang-ref delay time to engage brake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of ramp steps to a twang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of twang-ref checks </t>
+  </si>
+  <si>
+    <t>Twang-ref check duration time
+Twang-ref check position tolerance limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twang-ref torque % </t>
+  </si>
+  <si>
+    <t>Hall sensor step 1 commutation pos
+Hall sensor step 2 commutation pos</t>
+  </si>
+  <si>
+    <t>Hall sensor step 3 commutation pos
+Hall sensor step 4 commutation pos</t>
+  </si>
+  <si>
+    <t>Hall sensor step 5 commutation pos
+Hall sensor step 6 commutation pos</t>
+  </si>
+  <si>
+    <t>Hall sensor step 1 nominal angle
+Hall sensor step 2 nominal angle</t>
+  </si>
+  <si>
+    <t>Hall sensor step 3 nominal angle
+Hall sensor step 4 nominal angle</t>
+  </si>
+  <si>
+    <t>Hall sensor step 5 nominal angle
+Hall sensor step 6 nominal angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog hall commutation phase angle
+Search ref torque limit %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search ref torque step % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min. angle move in binary search
+Axis load direction" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. drop allowed for loaded axis
+Search ref pre-load torque %" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search ref internal control </t>
+  </si>
+  <si>
+    <t>Search ref delay after current ON/OFF
+Search ref delay to release brake</t>
+  </si>
+  <si>
+    <t>Search ref delay to engage brake
+Search ref check duration</t>
+  </si>
+  <si>
+    <t>Commutation offset
+Search ref check angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search ref check tolerance % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search ref operation effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search ref auto adjust pre-load torque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of axes configured for a robot. The value ranges from 1 to the maximum permitted by the robot's kinematic module.  See "Max number of axes" (DataID 2022) and "Min number of axes" (DataID 2023) or the information contained in the Kinematic Library. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit mask that indicates any axes that are to be enabled as split-axes.  Split-axis control is a special control mode that drives pairs of motors in unison. This technique is commonly employed in gantry robots where two motors drive the opposite ends of the cross beam. These motors, often referred to as X and X’, together produce the X-axis motion for the gantry robot.
+A value of 1 indicates the first axis, a value of 2 indicates the second axis, a value of 4 indicates the third axis, a value of 5 indicates the first and third axes, etc.  (Prior to GPL 3.2, only the X-X' axes of the Enhanced XYZTheta kinematic module supported split-axis and DataID 2001 was a Boolean value.)
+This parameter cannot be enabled if the Split-axis capability is not built into the kinematic module. See "Robot type options" (DataID 2021) or the Kinematics Library to determine if this option is supported. 
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit mask for special simulation mode that permits individual motors to be ignored while still allowing a robot to operate as though all of the motors were fully functional.  Disabled motors can be connected to the controller or physically disconnected.  The operation of disabled motors is simulated in software by echoing the motor position setpoints back as the actual motor positions.
+A value of 1 indicates that the first motor is disabled, etc.  This bit mask is 0 by default. 
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This parameter can specify the deceleration rate when a RapidDecel event occurs. By default, the robot will be decelerated at this rate or the deceleration percentage set for the currently executing motion, whichever is greater.  This value is interpreted as a % of the "100% joint accels in (mm or deg)/sec^2" (DataID 2702).  For example, if this parameter is set to 200%, the robot will be decelerated at twice the values specified in DataID 2702.  See "RapidDecel Mode" (DataID 2112) for the setting that controls how this value is interpreted. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If set, tripping an over-travel limit switch generates a "soft E-stop" instead of a "hard E-stop" error.  A soft error will decelerate the robot but leave motor power enabled.  A hard error disables motor power. 
+This value is FALSE by default </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This parameter controls how the deceleration % is computed during a RapidDecel of any type (i.e. a RapidDecel command, a Soft E-Stop or an Hard E-Stop).  The actual deceleration % is computed from the setting of "RapidDecel deceleration in %" (DataID 2101) and the deceleration percentage set for the currently executing motion as follows:
+    0:   The deceleration will be the greater of DataID 2101 or the motion's specified deceleration.  With this setting, the motion will not overshoot its approximate end point.
+    1:   The deceleration will be the lesser of DataID 2101 or the motion's specified deceleration.   The motion may overshoot its end point in order to satisfy the deceleration %.
+    2:   The deceleration will be the value set by DataID 2101.  The motion may overshoot its end point in order to satisfy the deceleration %.
+    3:   The deceleration will be the value defined for the motion. The motion will not overshoot its approximate end point. 
+This value is set to 0 by default.
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기어비
+This is an array of scale factors that is used to convert joint positions to corresponding motor positions. For simple, uncoupled axes, there is a single scale factor for performing this conversion. For mechanically coupled motors, a square matrix of scale factors converts from joint positions to motor positions. For example, if a robot consists of 3 uncoupled axes, this array consists of 3 scale factors. As another example, if the robot consists of an X axis followed by a Y axis that is coupled to the X due to non-perpendicular followed by an uncoupled Z axis, this array will consist of a 2x2 matrix followed by a single scalar. The scale factors convert from units of degrees or millimeters to encoder counts.
+When any of the scale factors are changed, the robot is marked as "not homed" and a homing operation must be performed. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 위치 허용 오차
+This parameter array defines the tolerance band used to determine if all motors are within range of their target positions at the end of a position controlled motion. These values correspond to a Profile InRange value of 100% and are inversely scaled if the InRange value is not 100%. For example, if the InRange value is 1%, these motor counts are multiplied by 100. When all joints are within the scaled tolerance band at the end of a motion, the in-range flag is set. These parameters are in units of motor counts.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>For joint interpolated program controlled motions, these parameters specify the maximum speed that each joint will be commanded to achieve when the robot is instructed to move at its nominal, 100% speed setting. For rapid motions with light payloads, the programmer might specify a speed greater than 100%. For fine motions or for heavy payloads, a speed setting of 50% or less is often specified. These parameters are in units of millimeters/second or degrees/second.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Cartesian interpolated program controlled motions, these parameters specify the maximum speed for each of the primary Cartesian dimensions when the robot is instructed to move at its nominal, 100% speed setting. The first parameter always dictates the speed along the straight line Cartesian path from the starting position to the final position of the motion. The second and following parameters are a function of the specific kinematic module. Normally, the second and third parameters dictate rotations about some Cartesian coordinates. For rapid motions with light payloads, the programmer might specify a speed greater than 100%. For fine motions or for heavy payloads, a speed setting of 50% or less is often specified. These parameters are in units of millimeters/second or degrees/second.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>For joint interpolated program controlled motions, these parameters specify the maximum acceleration and deceleration that each joint will be commanded to achieve when the robot is instructed to move at its nominal, 100% acceleration and deceleration settings. These parameters are in units of millimeters/second^2 or degrees/second^2.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Cartesian interpolated program controlled motions, these parameters specify the maximum acceleration and deceleration for each of the primary Cartesian dimensions when the robot is instructed to move at its nominal, 100% acceleration and deceleration settings. Please see the description for the "100% Cartesian speeds" for an explanation of the elements in this parameter array. These parameters are in units of millimeters/second^2 or degrees/second^2.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026 "Motor disable mask" 
+2101 "RapidDecel deceleration in %" 
+2111 "Soft overtravel" 
+2112 "RapidDecel mode" 
+2300 "Joint to motor scale factors" 
+2305 "Pos Ctl inrange tolerance in mcnts" 
+2600 "Nulling time out in sec" 
+2700 "100% joint speeds in (mm or deg)/sec" 
+2701 "100% Cartesian speeds in (mm or deg)/sec" 
+2702 "100% joint accels in (mm or deg)/sec^2" 
+2703 "100% Cartesian accels in (mm or deg)/sec^2" 
+2708 "Default %speed" 
+2710 "Default %accel" 
+2711 "Default %decel" 
+2712 "Default max accel ramp time in sec" 
+2713 "Default max decel ramp time in sec"
+2802 "Homing sequence" 
+2803 "Homing method" 
+2804 "Homing speed 1
+2805 "Homing speed 2
+2807 "Motor homing accel
+2810 "Homing order" 
+2820 "Max joint jog speed as %" 
+2821 "Max world/tool jog speed as %" 
+2822 "Rate of change of jog speed in %/sec" 
+10026 "Encoder hardware channel number" 
+10027 "Encoder type" 
+10028 "Amplifier hardware channel number" 
+10029 "Amplifier type" 
+10030 "Motor commutation method" 
+10106 "Positive overtravel DIN signal" 
+10107 "Negative overtravel DIN signal" 
+10122 "Hardstop envelope limit
+10202 "Encoder sign
+10300 "Feedback compensator configuration" 
+10302 "Soft envelope error limit
+10303 "Hard envelope error limit
+10326 "Velocity error SPR filter pole
+10327 "Accel error DPR filter pole
+10328 "Feedforward SPR filter pole
+10329 "Torque output filter pole
+10330 "Torque output filter damping ratio" 
+10331 "Proportional gain = P 게인
+10332 "Integral gain = I 게인
+10333 "Derivative gain = D 게인
+10334 "Integrator limit" 
+10335 "Integrator rate limit" 
+10336 "Acceleration feedforward gain" 
+10337 "Velocity feedforward gain" 
+10338 "Accel error gain
+10347 "Friction feedforward torque
+10348 "Feedforward torque rate limit" 
+10349 "Gravity compensation torque
+10351 "Max positive torque limit for PID feedback
+10352 "Max negative torque limit for PID feedback
+10353 "Torque output filter pole
+10354 "Torque output filter damping ratio #2" 
+10361 "Torque output filter pole
+10362 "Torque output filter damping ratio #3" 
+10365 "Torque output filter pole
+10366 "Torque output filter damping ratio #4" 
+10367 "Max torque limit for PID feedback after error
+10368 "Max torque limit for feedforward after error
+10369 "PID output saturation duration limit
+10370 "Integrator clear rate limit
+10371 "Friction feedforward rate limit
+10609 "Torque sign
+10610 "Amplifier PEAK(non-RMS) current
+10611 "RMS rated motor current
+10613 "AUTO mode motor PEAK(non-RMS)/(RMS rated) current
+10615 "MANUAL mode motor PEAK(non-RMS)/(RMS rated) current
+10622 "Duty cycle exceeded duration
+10623 "Duty cycle limit in terms of rated torque
+10650 "Commutation sign
+10656 "Current loop proportional gain
+10657 "Current loop damping gain
+10695 "Disable auto phase offset adjustment" 
+10700 "Commutation reference setup config" 
+10775 "Commutation offset</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4402,10 +6013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E739"/>
+  <dimension ref="C1:E1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="E578" sqref="E578"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="E742" sqref="E742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10997,6 +12608,2035 @@
       </c>
       <c r="E739" s="33" t="s">
         <v>979</v>
+      </c>
+    </row>
+    <row r="741" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C741" s="41" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="742" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C742" s="39" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D742" s="40" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E742" s="33"/>
+    </row>
+    <row r="747" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C747" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="748" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C748" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="749" spans="3:5" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="C749" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E749" s="33" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="750" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C750" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="751" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C751" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="752" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C752" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="753" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C753" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="754" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C754" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="755" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C755" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="756" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C756" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="757" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C757" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="758" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C758" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="759" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C759" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="760" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C760" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="761" spans="3:5" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="C761" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E761" s="33" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="762" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C762" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="763" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C763" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="764" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C764" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="765" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C765" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="766" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C766" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="767" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C767" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="768" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C768" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="769" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C769" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="770" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C770" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="771" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C771" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="772" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C772" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="773" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C773" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="774" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C774" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="775" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C775" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E775" s="33" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="776" spans="3:5" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="C776" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E776" s="33" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="777" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C777" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="778" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C778" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="779" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C779" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="780" spans="3:5" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="C780" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E780" s="33" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="781" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C781" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="782" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C782" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="783" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C783" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="784" spans="3:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="C784" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E784" s="33" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="785" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C785" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="786" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C786" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="787" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C787" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="788" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C788" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="789" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C789" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="790" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C790" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="791" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C791" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="792" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C792" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="793" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C793" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="794" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C794" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="795" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C795" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="796" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C796" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="797" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C797" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="798" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C798" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="799" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C799" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="800" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C800" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="801" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C801" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="802" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C802" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="803" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C803" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="804" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C804" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="805" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C805" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="806" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C806" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="807" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C807" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="808" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C808" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="809" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C809" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="810" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C810" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="811" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C811" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="812" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C812" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="813" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C813" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="814" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C814" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="815" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C815" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="816" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C816" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="817" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C817" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="818" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C818" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="819" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C819" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="820" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C820" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="821" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C821" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="822" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C822" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="823" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C823" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="824" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C824" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="825" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C825" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="826" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C826" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="827" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C827" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="828" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C828" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="829" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C829" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="830" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C830" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="831" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C831" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="832" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C832" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="834" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C834" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="835" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C835" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D835" s="33" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="836" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C836" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D836" s="33" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="837" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C837" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="838" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C838" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="839" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C839" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="840" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C840" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="841" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C841" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="842" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C842" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="843" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C843" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="844" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C844" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="845" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C845" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="846" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C846" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="847" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C847" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="848" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C848" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="849" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C849" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D849" s="33" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="850" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C850" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D850" s="33" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="851" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C851" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D851" s="33" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="852" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C852" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D852" s="33" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="853" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C853" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D853" s="33" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="854" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C854" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D854" s="33" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="855" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C855" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="856" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C856" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D856" s="33" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="857" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C857" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D857" s="33" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="858" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C858" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="859" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C859" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D859" s="33" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="860" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C860" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="861" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C861" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="862" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C862" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="863" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C863" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="864" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C864" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="865" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C865" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D865" s="33" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="866" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C866" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D866" s="33" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="867" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C867" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="868" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C868" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="869" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C869" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="870" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C870" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D870" s="33" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="871" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C871" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D871" s="33" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="872" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C872" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D872" s="33" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="873" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C873" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="874" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C874" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D874" s="33" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="875" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C875" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D875" s="33" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="876" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C876" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="877" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C877" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="878" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C878" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="879" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C879" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D879" s="33" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="880" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C880" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D880" s="33" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="881" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C881" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="882" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C882" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D882" s="33" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="883" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C883" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="884" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C884" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="885" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C885" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D885" s="33" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="886" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C886" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D886" s="33" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="887" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C887" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D887" s="33" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="888" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C888" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="889" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C889" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D889" s="33" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="890" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C890" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="891" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C891" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="892" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C892" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="893" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C893" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="894" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C894" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D894" s="33" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="895" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C895" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D895" s="33" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="896" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C896" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D896" s="33" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="897" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C897" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D897" s="33" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="898" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C898" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D898" s="33" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="899" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C899" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D899" s="33" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="900" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C900" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="901" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C901" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="902" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C902" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="903" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C903" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D903" s="33" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="904" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C904" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="905" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C905" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="906" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C906" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="907" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C907" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="908" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C908" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="909" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C909" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="910" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C910" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D910" s="33" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="911" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C911" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D911" s="33" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="912" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C912" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D912" s="33" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="913" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C913" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D913" s="33" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="914" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C914" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D914" s="33" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="915" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C915" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="916" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C916" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D916" s="33" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="917" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C917" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="918" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C918" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D918" s="33" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="919" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C919" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D919" s="33" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="920" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C920" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D920" s="33" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="921" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C921" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D921" s="33" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="922" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C922" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="923" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C923" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D923" s="33" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="924" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C924" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D924" s="33" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="925" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C925" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D925" s="33" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="926" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C926" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D926" s="33" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="927" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C927" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="928" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C928" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="929" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C929" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="930" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C930" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D930" s="33" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="931" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C931" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D931" s="33" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="932" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C932" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D932" s="33" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="933" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C933" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D933" s="33" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="934" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C934" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="935" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C935" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="936" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C936" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D936" s="33" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="937" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C937" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D937" s="33" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="938" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C938" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="939" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C939" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="940" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C940" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D940" s="33" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="941" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C941" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="942" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C942" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D942" s="33" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="943" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C943" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D943" s="33" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="944" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C944" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D944" s="33" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="945" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C945" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D945" s="33" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="946" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C946" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D946" s="33" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="947" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C947" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D947" s="33" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="948" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C948" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D948" s="33" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="949" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C949" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="950" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C950" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D950" s="33" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="951" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C951" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D951" s="33" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="952" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C952" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="953" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C953" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D953" s="33" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="954" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C954" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D954" s="33" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="955" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C955" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D955" s="33" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="956" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C956" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="957" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C957" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="958" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C958" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="959" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C959" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="960" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C960" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C961" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C962" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C963" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C964" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C965" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C966" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C967" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C968" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C969" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C970" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C971" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C972" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C973" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C974" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C975" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C976" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C977" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C978" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C979" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C980" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C981" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C982" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C983" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C984" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C985" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C986" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C987" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C988" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="989" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C989" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="990" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C990" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="991" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C991" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C992" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C993" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C994" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C995" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C996" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C997" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="998" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C998" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="999" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C999" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1000" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1001" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1002" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1003" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1004" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1005" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1006" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1007" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1008" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1009" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1010" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1011" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1012" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1013" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1014" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1015" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1016" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1017" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1018" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1019" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1020" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1021" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1022" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1023" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C1024" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -3710,10 +3710,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>자주쓰는 ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DATA ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5314,6 +5310,10 @@
 10695 "Disable auto phase offset adjustment" 
 10700 "Commutation reference setup config" 
 10775 "Commutation offset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주쓰는 ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5685,6 +5685,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5720,18 +5732,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6015,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="E742" sqref="E742"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="C742" sqref="C742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6632,10 +6632,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="49">
+      <c r="C56" s="53">
         <v>1061</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -6643,15 +6643,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="50"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -6855,10 +6855,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="43">
+      <c r="C77" s="47">
         <v>-208</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -6866,13 +6866,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="44"/>
-      <c r="D78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="45"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -6900,10 +6900,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="43">
+      <c r="C82" s="47">
         <v>-211</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="50" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -6911,64 +6911,64 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="44"/>
-      <c r="D83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="44"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="51"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="44"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="44"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="51"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="44"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="44"/>
-      <c r="D89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="45"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="43">
+      <c r="C91" s="47">
         <v>-212</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="50" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
@@ -6976,88 +6976,88 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="44"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="44"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="44"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="51"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="44"/>
-      <c r="D96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="44"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="44"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="44"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="44"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="44"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="44"/>
-      <c r="D103" s="47"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="45"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="47"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -7111,7 +7111,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="52"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -8449,10 +8449,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="43">
+      <c r="C239" s="47">
         <v>-776</v>
       </c>
-      <c r="D239" s="46" t="s">
+      <c r="D239" s="50" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -8460,13 +8460,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="44"/>
-      <c r="D240" s="47"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="51"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="45"/>
-      <c r="D241" s="48"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -8829,20 +8829,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="43">
+      <c r="C275" s="47">
         <v>-811</v>
       </c>
-      <c r="D275" s="46" t="s">
+      <c r="D275" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="50" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="45"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -8878,10 +8878,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="43">
+      <c r="C280" s="47">
         <v>-1002</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="50" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -8889,22 +8889,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="44"/>
-      <c r="D281" s="47"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="51"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="45"/>
-      <c r="D282" s="48"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="52"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="43">
+      <c r="C283" s="47">
         <v>-1003</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="50" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -8912,13 +8912,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="44"/>
-      <c r="D284" s="47"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="51"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="45"/>
-      <c r="D285" s="48"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="52"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
@@ -8935,10 +8935,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="43">
+      <c r="C287" s="47">
         <v>-1005</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="50" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -8946,22 +8946,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="44"/>
-      <c r="D288" s="47"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="51"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="45"/>
-      <c r="D289" s="48"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="52"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="43">
+      <c r="C290" s="47">
         <v>-1006</v>
       </c>
-      <c r="D290" s="46" t="s">
+      <c r="D290" s="50" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -8969,36 +8969,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="44"/>
-      <c r="D291" s="47"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="51"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="44"/>
-      <c r="D292" s="47"/>
+      <c r="C292" s="48"/>
+      <c r="D292" s="51"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="44"/>
-      <c r="D293" s="47"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="51"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="45"/>
-      <c r="D294" s="48"/>
+      <c r="C294" s="49"/>
+      <c r="D294" s="52"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="43">
+      <c r="C295" s="47">
         <v>-1007</v>
       </c>
-      <c r="D295" s="46" t="s">
+      <c r="D295" s="50" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -9006,41 +9006,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="44"/>
-      <c r="D296" s="47"/>
+      <c r="C296" s="48"/>
+      <c r="D296" s="51"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="44"/>
-      <c r="D297" s="47"/>
+      <c r="C297" s="48"/>
+      <c r="D297" s="51"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="44"/>
-      <c r="D298" s="47"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="51"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="44"/>
-      <c r="D299" s="47"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="51"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="45"/>
-      <c r="D300" s="48"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="52"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
+      <c r="C301" s="47">
         <v>-1008</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="50" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -9048,22 +9048,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="44"/>
-      <c r="D302" s="47"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="51"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="45"/>
-      <c r="D303" s="48"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="52"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="43">
+      <c r="C304" s="47">
         <v>-1009</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="50" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -9071,22 +9071,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="44"/>
-      <c r="D305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="51"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="45"/>
-      <c r="D306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="52"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="43">
+      <c r="C307" s="47">
         <v>-1010</v>
       </c>
-      <c r="D307" s="46" t="s">
+      <c r="D307" s="50" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -9094,22 +9094,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="44"/>
-      <c r="D308" s="47"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="51"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="45"/>
-      <c r="D309" s="48"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="52"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="43">
+      <c r="C310" s="47">
         <v>-1011</v>
       </c>
-      <c r="D310" s="46" t="s">
+      <c r="D310" s="50" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -9117,13 +9117,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="44"/>
-      <c r="D311" s="47"/>
+      <c r="C311" s="48"/>
+      <c r="D311" s="51"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="45"/>
-      <c r="D312" s="48"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="52"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
@@ -9140,10 +9140,10 @@
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="43">
+      <c r="C314" s="47">
         <v>-1013</v>
       </c>
-      <c r="D314" s="46" t="s">
+      <c r="D314" s="50" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -9151,29 +9151,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="44"/>
-      <c r="D315" s="47"/>
+      <c r="C315" s="48"/>
+      <c r="D315" s="51"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="44"/>
-      <c r="D316" s="47"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="51"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="45"/>
-      <c r="D317" s="48"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="52"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
+      <c r="C318" s="47">
         <v>-1014</v>
       </c>
-      <c r="D318" s="46" t="s">
+      <c r="D318" s="50" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -9181,13 +9181,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="44"/>
-      <c r="D319" s="47"/>
+      <c r="C319" s="48"/>
+      <c r="D319" s="51"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="45"/>
-      <c r="D320" s="48"/>
+      <c r="C320" s="49"/>
+      <c r="D320" s="52"/>
       <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9202,10 +9202,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="43">
+      <c r="C322" s="47">
         <v>-1016</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="50" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -9213,20 +9213,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="44"/>
-      <c r="D323" s="47"/>
+      <c r="C323" s="48"/>
+      <c r="D323" s="51"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="44"/>
-      <c r="D324" s="47"/>
+      <c r="C324" s="48"/>
+      <c r="D324" s="51"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="45"/>
-      <c r="D325" s="48"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="52"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
@@ -9254,10 +9254,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="43">
+      <c r="C328" s="47">
         <v>-1019</v>
       </c>
-      <c r="D328" s="46" t="s">
+      <c r="D328" s="50" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9265,22 +9265,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="44"/>
-      <c r="D329" s="47"/>
+      <c r="C329" s="48"/>
+      <c r="D329" s="51"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="45"/>
-      <c r="D330" s="48"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="52"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="43">
+      <c r="C331" s="47">
         <v>-1020</v>
       </c>
-      <c r="D331" s="46" t="s">
+      <c r="D331" s="50" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -9288,34 +9288,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="44"/>
-      <c r="D332" s="47"/>
+      <c r="C332" s="48"/>
+      <c r="D332" s="51"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="44"/>
-      <c r="D333" s="47"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="51"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="44"/>
-      <c r="D334" s="47"/>
+      <c r="C334" s="48"/>
+      <c r="D334" s="51"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="45"/>
-      <c r="D335" s="48"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="52"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C336" s="43">
+      <c r="C336" s="47">
         <v>-1021</v>
       </c>
-      <c r="D336" s="46" t="s">
+      <c r="D336" s="50" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -9323,13 +9323,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="44"/>
-      <c r="D337" s="47"/>
+      <c r="C337" s="48"/>
+      <c r="D337" s="51"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="45"/>
-      <c r="D338" s="48"/>
+      <c r="C338" s="49"/>
+      <c r="D338" s="52"/>
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9377,10 +9377,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C343" s="43">
+      <c r="C343" s="47">
         <v>-1026</v>
       </c>
-      <c r="D343" s="46" t="s">
+      <c r="D343" s="50" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -9388,34 +9388,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="44"/>
-      <c r="D344" s="47"/>
+      <c r="C344" s="48"/>
+      <c r="D344" s="51"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="44"/>
-      <c r="D345" s="47"/>
+      <c r="C345" s="48"/>
+      <c r="D345" s="51"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="44"/>
-      <c r="D346" s="47"/>
+      <c r="C346" s="48"/>
+      <c r="D346" s="51"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="44"/>
-      <c r="D347" s="47"/>
+      <c r="C347" s="48"/>
+      <c r="D347" s="51"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="45"/>
-      <c r="D348" s="48"/>
+      <c r="C348" s="49"/>
+      <c r="D348" s="52"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
@@ -9432,10 +9432,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="312" x14ac:dyDescent="0.4">
-      <c r="C350" s="43">
+      <c r="C350" s="47">
         <v>-1028</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="50" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -9443,48 +9443,48 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="44"/>
-      <c r="D351" s="47"/>
+      <c r="C351" s="48"/>
+      <c r="D351" s="51"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="44"/>
-      <c r="D352" s="47"/>
+      <c r="C352" s="48"/>
+      <c r="D352" s="51"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="44"/>
-      <c r="D353" s="47"/>
+      <c r="C353" s="48"/>
+      <c r="D353" s="51"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="44"/>
-      <c r="D354" s="47"/>
+      <c r="C354" s="48"/>
+      <c r="D354" s="51"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="44"/>
-      <c r="D355" s="47"/>
+      <c r="C355" s="48"/>
+      <c r="D355" s="51"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="45"/>
-      <c r="D356" s="48"/>
+      <c r="C356" s="49"/>
+      <c r="D356" s="52"/>
       <c r="E356" s="15" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="43">
+      <c r="C357" s="47">
         <v>-1029</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="50" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -9492,41 +9492,41 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="44"/>
-      <c r="D358" s="47"/>
+      <c r="C358" s="48"/>
+      <c r="D358" s="51"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="44"/>
-      <c r="D359" s="47"/>
+      <c r="C359" s="48"/>
+      <c r="D359" s="51"/>
       <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="44"/>
-      <c r="D360" s="47"/>
+      <c r="C360" s="48"/>
+      <c r="D360" s="51"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="44"/>
-      <c r="D361" s="47"/>
+      <c r="C361" s="48"/>
+      <c r="D361" s="51"/>
       <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="45"/>
-      <c r="D362" s="48"/>
+      <c r="C362" s="49"/>
+      <c r="D362" s="52"/>
       <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="43">
+      <c r="C363" s="47">
         <v>-1030</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="50" t="s">
         <v>503</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -9534,25 +9534,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="44"/>
-      <c r="D364" s="47"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="51"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="44"/>
-      <c r="D365" s="47"/>
+      <c r="C365" s="48"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="44"/>
-      <c r="D366" s="47"/>
+      <c r="C366" s="48"/>
+      <c r="D366" s="51"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="45"/>
-      <c r="D367" s="48"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="52"/>
       <c r="E367" s="11" t="s">
         <v>506</v>
       </c>
@@ -9580,10 +9580,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="43">
+      <c r="C370" s="47">
         <v>-1033</v>
       </c>
-      <c r="D370" s="46" t="s">
+      <c r="D370" s="50" t="s">
         <v>511</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -9591,22 +9591,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="44"/>
-      <c r="D371" s="47"/>
+      <c r="C371" s="48"/>
+      <c r="D371" s="51"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="45"/>
-      <c r="D372" s="48"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="52"/>
       <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C373" s="43">
+      <c r="C373" s="47">
         <v>-1034</v>
       </c>
-      <c r="D373" s="46" t="s">
+      <c r="D373" s="50" t="s">
         <v>998</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -9614,20 +9614,20 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="44"/>
-      <c r="D374" s="47"/>
+      <c r="C374" s="48"/>
+      <c r="D374" s="51"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="45"/>
-      <c r="D375" s="48"/>
+      <c r="C375" s="49"/>
+      <c r="D375" s="52"/>
       <c r="E375" s="15"/>
     </row>
     <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C376" s="43">
+      <c r="C376" s="47">
         <v>-1035</v>
       </c>
-      <c r="D376" s="46" t="s">
+      <c r="D376" s="50" t="s">
         <v>514</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -9635,20 +9635,20 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="44"/>
-      <c r="D377" s="47"/>
+      <c r="C377" s="48"/>
+      <c r="D377" s="51"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="45"/>
-      <c r="D378" s="48"/>
+      <c r="C378" s="49"/>
+      <c r="D378" s="52"/>
       <c r="E378" s="15"/>
     </row>
     <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="43">
+      <c r="C379" s="47">
         <v>-1036</v>
       </c>
-      <c r="D379" s="46" t="s">
+      <c r="D379" s="50" t="s">
         <v>515</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -9656,22 +9656,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="44"/>
-      <c r="D380" s="47"/>
+      <c r="C380" s="48"/>
+      <c r="D380" s="51"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="45"/>
-      <c r="D381" s="48"/>
+      <c r="C381" s="49"/>
+      <c r="D381" s="52"/>
       <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="43">
+      <c r="C382" s="47">
         <v>-1037</v>
       </c>
-      <c r="D382" s="46" t="s">
+      <c r="D382" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -9679,22 +9679,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="44"/>
-      <c r="D383" s="47"/>
+      <c r="C383" s="48"/>
+      <c r="D383" s="51"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="45"/>
-      <c r="D384" s="48"/>
+      <c r="C384" s="49"/>
+      <c r="D384" s="52"/>
       <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="43">
+      <c r="C385" s="47">
         <v>-1038</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -9702,22 +9702,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="44"/>
-      <c r="D386" s="47"/>
+      <c r="C386" s="48"/>
+      <c r="D386" s="51"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="45"/>
-      <c r="D387" s="48"/>
+      <c r="C387" s="49"/>
+      <c r="D387" s="52"/>
       <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="43">
+      <c r="C388" s="47">
         <v>-1039</v>
       </c>
-      <c r="D388" s="46" t="s">
+      <c r="D388" s="50" t="s">
         <v>524</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -9725,22 +9725,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="44"/>
-      <c r="D389" s="47"/>
+      <c r="C389" s="48"/>
+      <c r="D389" s="51"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="45"/>
-      <c r="D390" s="48"/>
+      <c r="C390" s="49"/>
+      <c r="D390" s="52"/>
       <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="43">
+      <c r="C391" s="47">
         <v>-1040</v>
       </c>
-      <c r="D391" s="46" t="s">
+      <c r="D391" s="50" t="s">
         <v>527</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -9748,22 +9748,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="44"/>
-      <c r="D392" s="47"/>
+      <c r="C392" s="48"/>
+      <c r="D392" s="51"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="45"/>
-      <c r="D393" s="48"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="52"/>
       <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="43">
+      <c r="C394" s="47">
         <v>-1041</v>
       </c>
-      <c r="D394" s="46" t="s">
+      <c r="D394" s="50" t="s">
         <v>530</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -9771,13 +9771,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="44"/>
-      <c r="D395" s="47"/>
+      <c r="C395" s="48"/>
+      <c r="D395" s="51"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="45"/>
-      <c r="D396" s="48"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="52"/>
       <c r="E396" s="15" t="s">
         <v>532</v>
       </c>
@@ -9794,10 +9794,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="43">
+      <c r="C398" s="47">
         <v>-1043</v>
       </c>
-      <c r="D398" s="46" t="s">
+      <c r="D398" s="50" t="s">
         <v>535</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -9805,25 +9805,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="44"/>
-      <c r="D399" s="47"/>
+      <c r="C399" s="48"/>
+      <c r="D399" s="51"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="44"/>
-      <c r="D400" s="47"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="51"/>
       <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="44"/>
-      <c r="D401" s="47"/>
+      <c r="C401" s="48"/>
+      <c r="D401" s="51"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="45"/>
-      <c r="D402" s="48"/>
+      <c r="C402" s="49"/>
+      <c r="D402" s="52"/>
       <c r="E402" s="11" t="s">
         <v>538</v>
       </c>
@@ -9840,10 +9840,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="43">
+      <c r="C404" s="47">
         <v>-1045</v>
       </c>
-      <c r="D404" s="46" t="s">
+      <c r="D404" s="50" t="s">
         <v>541</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -9851,43 +9851,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="44"/>
-      <c r="D405" s="47"/>
+      <c r="C405" s="48"/>
+      <c r="D405" s="51"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="44"/>
-      <c r="D406" s="47"/>
+      <c r="C406" s="48"/>
+      <c r="D406" s="51"/>
       <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="44"/>
-      <c r="D407" s="47"/>
+      <c r="C407" s="48"/>
+      <c r="D407" s="51"/>
       <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="44"/>
-      <c r="D408" s="47"/>
+      <c r="C408" s="48"/>
+      <c r="D408" s="51"/>
       <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="45"/>
-      <c r="D409" s="48"/>
+      <c r="C409" s="49"/>
+      <c r="D409" s="52"/>
       <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="43">
+      <c r="C410" s="47">
         <v>-1046</v>
       </c>
-      <c r="D410" s="46" t="s">
+      <c r="D410" s="50" t="s">
         <v>547</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -9895,13 +9895,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="44"/>
-      <c r="D411" s="47"/>
+      <c r="C411" s="48"/>
+      <c r="D411" s="51"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="45"/>
-      <c r="D412" s="48"/>
+      <c r="C412" s="49"/>
+      <c r="D412" s="52"/>
       <c r="E412" s="15" t="s">
         <v>549</v>
       </c>
@@ -9951,10 +9951,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="43">
+      <c r="C417" s="47">
         <v>-1051</v>
       </c>
-      <c r="D417" s="46" t="s">
+      <c r="D417" s="50" t="s">
         <v>558</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -9962,29 +9962,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="44"/>
-      <c r="D418" s="47"/>
+      <c r="C418" s="48"/>
+      <c r="D418" s="51"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="44"/>
-      <c r="D419" s="47"/>
+      <c r="C419" s="48"/>
+      <c r="D419" s="51"/>
       <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="45"/>
-      <c r="D420" s="48"/>
+      <c r="C420" s="49"/>
+      <c r="D420" s="52"/>
       <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
+      <c r="C421" s="47">
         <v>-1052</v>
       </c>
-      <c r="D421" s="46" t="s">
+      <c r="D421" s="50" t="s">
         <v>562</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -9992,22 +9992,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="44"/>
-      <c r="D422" s="47"/>
+      <c r="C422" s="48"/>
+      <c r="D422" s="51"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="45"/>
-      <c r="D423" s="48"/>
+      <c r="C423" s="49"/>
+      <c r="D423" s="52"/>
       <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="43">
+      <c r="C424" s="47">
         <v>-1053</v>
       </c>
-      <c r="D424" s="46" t="s">
+      <c r="D424" s="50" t="s">
         <v>565</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -10015,13 +10015,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="44"/>
-      <c r="D425" s="47"/>
+      <c r="C425" s="48"/>
+      <c r="D425" s="51"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="45"/>
-      <c r="D426" s="48"/>
+      <c r="C426" s="49"/>
+      <c r="D426" s="52"/>
       <c r="E426" s="11" t="s">
         <v>567</v>
       </c>
@@ -10038,10 +10038,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
+      <c r="C428" s="47">
         <v>-1055</v>
       </c>
-      <c r="D428" s="46" t="s">
+      <c r="D428" s="50" t="s">
         <v>570</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -10049,29 +10049,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="44"/>
-      <c r="D429" s="47"/>
+      <c r="C429" s="48"/>
+      <c r="D429" s="51"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="44"/>
-      <c r="D430" s="47"/>
+      <c r="C430" s="48"/>
+      <c r="D430" s="51"/>
       <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="45"/>
-      <c r="D431" s="48"/>
+      <c r="C431" s="49"/>
+      <c r="D431" s="52"/>
       <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
+      <c r="C432" s="47">
         <v>-1056</v>
       </c>
-      <c r="D432" s="46" t="s">
+      <c r="D432" s="50" t="s">
         <v>574</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -10079,13 +10079,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="44"/>
-      <c r="D433" s="47"/>
+      <c r="C433" s="48"/>
+      <c r="D433" s="51"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="45"/>
-      <c r="D434" s="48"/>
+      <c r="C434" s="49"/>
+      <c r="D434" s="52"/>
       <c r="E434" s="11" t="s">
         <v>576</v>
       </c>
@@ -10444,10 +10444,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="43">
+      <c r="C468" s="47">
         <v>-1600</v>
       </c>
-      <c r="D468" s="46" t="s">
+      <c r="D468" s="50" t="s">
         <v>637</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -10455,15 +10455,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="44"/>
-      <c r="D469" s="47"/>
+      <c r="C469" s="48"/>
+      <c r="D469" s="51"/>
       <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="45"/>
-      <c r="D470" s="48"/>
+      <c r="C470" s="49"/>
+      <c r="D470" s="52"/>
       <c r="E470" s="11" t="s">
         <v>640</v>
       </c>
@@ -10557,10 +10557,10 @@
       </c>
     </row>
     <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
+      <c r="C479" s="47">
         <v>-1610</v>
       </c>
-      <c r="D479" s="46" t="s">
+      <c r="D479" s="50" t="s">
         <v>655</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -10568,37 +10568,37 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="44"/>
-      <c r="D480" s="47"/>
+      <c r="C480" s="48"/>
+      <c r="D480" s="51"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="44"/>
-      <c r="D481" s="47"/>
+      <c r="C481" s="48"/>
+      <c r="D481" s="51"/>
       <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="44"/>
-      <c r="D482" s="47"/>
+      <c r="C482" s="48"/>
+      <c r="D482" s="51"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="44"/>
-      <c r="D483" s="47"/>
+      <c r="C483" s="48"/>
+      <c r="D483" s="51"/>
       <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="44"/>
-      <c r="D484" s="47"/>
+      <c r="C484" s="48"/>
+      <c r="D484" s="51"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="45"/>
-      <c r="D485" s="48"/>
+      <c r="C485" s="49"/>
+      <c r="D485" s="52"/>
       <c r="E485" s="11" t="s">
         <v>659</v>
       </c>
@@ -10983,10 +10983,10 @@
       <c r="E522" s="14"/>
     </row>
     <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="43">
+      <c r="C523" s="47">
         <v>-3014</v>
       </c>
-      <c r="D523" s="46" t="s">
+      <c r="D523" s="50" t="s">
         <v>715</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -10994,22 +10994,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="44"/>
-      <c r="D524" s="47"/>
+      <c r="C524" s="48"/>
+      <c r="D524" s="51"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="45"/>
-      <c r="D525" s="48"/>
+      <c r="C525" s="49"/>
+      <c r="D525" s="52"/>
       <c r="E525" s="11" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="43">
+      <c r="C526" s="47">
         <v>-3015</v>
       </c>
-      <c r="D526" s="46" t="s">
+      <c r="D526" s="50" t="s">
         <v>718</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -11017,13 +11017,13 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="44"/>
-      <c r="D527" s="47"/>
+      <c r="C527" s="48"/>
+      <c r="D527" s="51"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="45"/>
-      <c r="D528" s="48"/>
+      <c r="C528" s="49"/>
+      <c r="D528" s="52"/>
       <c r="E528" s="11" t="s">
         <v>720</v>
       </c>
@@ -11095,10 +11095,10 @@
       </c>
     </row>
     <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C535" s="43">
+      <c r="C535" s="47">
         <v>-3104</v>
       </c>
-      <c r="D535" s="46" t="s">
+      <c r="D535" s="50" t="s">
         <v>732</v>
       </c>
       <c r="E535" s="9" t="s">
@@ -11106,58 +11106,58 @@
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="44"/>
-      <c r="D536" s="47"/>
+      <c r="C536" s="48"/>
+      <c r="D536" s="51"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="44"/>
-      <c r="D537" s="47"/>
+      <c r="C537" s="48"/>
+      <c r="D537" s="51"/>
       <c r="E537" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="44"/>
-      <c r="D538" s="47"/>
+      <c r="C538" s="48"/>
+      <c r="D538" s="51"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="44"/>
-      <c r="D539" s="47"/>
+      <c r="C539" s="48"/>
+      <c r="D539" s="51"/>
       <c r="E539" s="12" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="44"/>
-      <c r="D540" s="47"/>
+      <c r="C540" s="48"/>
+      <c r="D540" s="51"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="44"/>
-      <c r="D541" s="47"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="51"/>
       <c r="E541" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="44"/>
-      <c r="D542" s="47"/>
+      <c r="C542" s="48"/>
+      <c r="D542" s="51"/>
       <c r="E542" s="12"/>
     </row>
     <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="45"/>
-      <c r="D543" s="48"/>
+      <c r="C543" s="49"/>
+      <c r="D543" s="52"/>
       <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C544" s="43">
+      <c r="C544" s="47">
         <v>-3105</v>
       </c>
-      <c r="D544" s="46" t="s">
+      <c r="D544" s="50" t="s">
         <v>737</v>
       </c>
       <c r="E544" s="9" t="s">
@@ -11165,32 +11165,32 @@
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="44"/>
-      <c r="D545" s="47"/>
+      <c r="C545" s="48"/>
+      <c r="D545" s="51"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="44"/>
-      <c r="D546" s="47"/>
+      <c r="C546" s="48"/>
+      <c r="D546" s="51"/>
       <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="44"/>
-      <c r="D547" s="47"/>
+      <c r="C547" s="48"/>
+      <c r="D547" s="51"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="45"/>
-      <c r="D548" s="48"/>
+      <c r="C548" s="49"/>
+      <c r="D548" s="52"/>
       <c r="E548" s="15"/>
     </row>
     <row r="549" spans="3:5" ht="280.8" x14ac:dyDescent="0.4">
-      <c r="C549" s="43">
+      <c r="C549" s="47">
         <v>-3106</v>
       </c>
-      <c r="D549" s="46" t="s">
+      <c r="D549" s="50" t="s">
         <v>739</v>
       </c>
       <c r="E549" s="9" t="s">
@@ -11198,133 +11198,133 @@
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="44"/>
-      <c r="D550" s="47"/>
+      <c r="C550" s="48"/>
+      <c r="D550" s="51"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C551" s="44"/>
-      <c r="D551" s="47"/>
+      <c r="C551" s="48"/>
+      <c r="D551" s="51"/>
       <c r="E551" s="12"/>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="44"/>
-      <c r="D552" s="47"/>
+      <c r="C552" s="48"/>
+      <c r="D552" s="51"/>
       <c r="E552" s="10"/>
     </row>
     <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="44"/>
-      <c r="D553" s="47"/>
+      <c r="C553" s="48"/>
+      <c r="D553" s="51"/>
       <c r="E553" s="12" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="44"/>
-      <c r="D554" s="47"/>
+      <c r="C554" s="48"/>
+      <c r="D554" s="51"/>
       <c r="E554" s="12" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="44"/>
-      <c r="D555" s="47"/>
+      <c r="C555" s="48"/>
+      <c r="D555" s="51"/>
       <c r="E555" s="12" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="44"/>
-      <c r="D556" s="47"/>
+      <c r="C556" s="48"/>
+      <c r="D556" s="51"/>
       <c r="E556" s="12" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="44"/>
-      <c r="D557" s="47"/>
+      <c r="C557" s="48"/>
+      <c r="D557" s="51"/>
       <c r="E557" s="12" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="44"/>
-      <c r="D558" s="47"/>
+      <c r="C558" s="48"/>
+      <c r="D558" s="51"/>
       <c r="E558" s="10"/>
     </row>
     <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="44"/>
-      <c r="D559" s="47"/>
+      <c r="C559" s="48"/>
+      <c r="D559" s="51"/>
       <c r="E559" s="12" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="44"/>
-      <c r="D560" s="47"/>
+      <c r="C560" s="48"/>
+      <c r="D560" s="51"/>
       <c r="E560" s="12"/>
     </row>
     <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="44"/>
-      <c r="D561" s="47"/>
+      <c r="C561" s="48"/>
+      <c r="D561" s="51"/>
       <c r="E561" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="44"/>
-      <c r="D562" s="47"/>
+      <c r="C562" s="48"/>
+      <c r="D562" s="51"/>
       <c r="E562" s="16" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="44"/>
-      <c r="D563" s="47"/>
+      <c r="C563" s="48"/>
+      <c r="D563" s="51"/>
       <c r="E563" s="16" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="44"/>
-      <c r="D564" s="47"/>
+      <c r="C564" s="48"/>
+      <c r="D564" s="51"/>
       <c r="E564" s="16" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="44"/>
-      <c r="D565" s="47"/>
+      <c r="C565" s="48"/>
+      <c r="D565" s="51"/>
       <c r="E565" s="16" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="44"/>
-      <c r="D566" s="47"/>
+      <c r="C566" s="48"/>
+      <c r="D566" s="51"/>
       <c r="E566" s="16" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="44"/>
-      <c r="D567" s="47"/>
+      <c r="C567" s="48"/>
+      <c r="D567" s="51"/>
       <c r="E567" s="16" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="45"/>
-      <c r="D568" s="48"/>
+      <c r="C568" s="49"/>
+      <c r="D568" s="52"/>
       <c r="E568" s="15" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C569" s="43">
+      <c r="C569" s="47">
         <v>-3107</v>
       </c>
-      <c r="D569" s="46" t="s">
+      <c r="D569" s="50" t="s">
         <v>754</v>
       </c>
       <c r="E569" s="9" t="s">
@@ -11332,22 +11332,22 @@
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="44"/>
-      <c r="D570" s="47"/>
+      <c r="C570" s="48"/>
+      <c r="D570" s="51"/>
       <c r="E570" s="12"/>
     </row>
     <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="45"/>
-      <c r="D571" s="48"/>
+      <c r="C571" s="49"/>
+      <c r="D571" s="52"/>
       <c r="E571" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="43">
+      <c r="C572" s="47">
         <v>-3108</v>
       </c>
-      <c r="D572" s="46" t="s">
+      <c r="D572" s="50" t="s">
         <v>756</v>
       </c>
       <c r="E572" s="9" t="s">
@@ -11355,20 +11355,20 @@
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="44"/>
-      <c r="D573" s="47"/>
+      <c r="C573" s="48"/>
+      <c r="D573" s="51"/>
       <c r="E573" s="12"/>
     </row>
     <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="45"/>
-      <c r="D574" s="48"/>
+      <c r="C574" s="49"/>
+      <c r="D574" s="52"/>
       <c r="E574" s="15"/>
     </row>
     <row r="575" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
-      <c r="C575" s="43">
+      <c r="C575" s="47">
         <v>-3109</v>
       </c>
-      <c r="D575" s="46" t="s">
+      <c r="D575" s="50" t="s">
         <v>757</v>
       </c>
       <c r="E575" s="9" t="s">
@@ -11376,20 +11376,20 @@
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="44"/>
-      <c r="D576" s="47"/>
+      <c r="C576" s="48"/>
+      <c r="D576" s="51"/>
       <c r="E576" s="12"/>
     </row>
     <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="45"/>
-      <c r="D577" s="48"/>
+      <c r="C577" s="49"/>
+      <c r="D577" s="52"/>
       <c r="E577" s="15"/>
     </row>
     <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="43">
+      <c r="C578" s="47">
         <v>-3110</v>
       </c>
-      <c r="D578" s="46" t="s">
+      <c r="D578" s="50" t="s">
         <v>758</v>
       </c>
       <c r="E578" s="9" t="s">
@@ -11397,23 +11397,23 @@
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="44"/>
-      <c r="D579" s="47"/>
+      <c r="C579" s="48"/>
+      <c r="D579" s="51"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="44"/>
-      <c r="D580" s="47"/>
+      <c r="C580" s="48"/>
+      <c r="D580" s="51"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="44"/>
-      <c r="D581" s="47"/>
+      <c r="C581" s="48"/>
+      <c r="D581" s="51"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="45"/>
-      <c r="D582" s="48"/>
+      <c r="C582" s="49"/>
+      <c r="D582" s="52"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -11428,10 +11428,10 @@
       </c>
     </row>
     <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="43">
+      <c r="C584" s="47">
         <v>-3112</v>
       </c>
-      <c r="D584" s="46" t="s">
+      <c r="D584" s="50" t="s">
         <v>761</v>
       </c>
       <c r="E584" s="9" t="s">
@@ -11439,22 +11439,22 @@
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="44"/>
-      <c r="D585" s="47"/>
+      <c r="C585" s="48"/>
+      <c r="D585" s="51"/>
       <c r="E585" s="10"/>
     </row>
     <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="45"/>
-      <c r="D586" s="48"/>
+      <c r="C586" s="49"/>
+      <c r="D586" s="52"/>
       <c r="E586" s="11" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="43">
+      <c r="C587" s="47">
         <v>-3113</v>
       </c>
-      <c r="D587" s="46" t="s">
+      <c r="D587" s="50" t="s">
         <v>764</v>
       </c>
       <c r="E587" s="9" t="s">
@@ -11462,107 +11462,107 @@
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="44"/>
-      <c r="D588" s="47"/>
+      <c r="C588" s="48"/>
+      <c r="D588" s="51"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="44"/>
-      <c r="D589" s="47"/>
+      <c r="C589" s="48"/>
+      <c r="D589" s="51"/>
       <c r="E589" s="12" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="44"/>
-      <c r="D590" s="47"/>
+      <c r="C590" s="48"/>
+      <c r="D590" s="51"/>
       <c r="E590" s="10"/>
     </row>
     <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="44"/>
-      <c r="D591" s="47"/>
+      <c r="C591" s="48"/>
+      <c r="D591" s="51"/>
       <c r="E591" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="44"/>
-      <c r="D592" s="47"/>
+      <c r="C592" s="48"/>
+      <c r="D592" s="51"/>
       <c r="E592" s="12" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="44"/>
-      <c r="D593" s="47"/>
+      <c r="C593" s="48"/>
+      <c r="D593" s="51"/>
       <c r="E593" s="12" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="44"/>
-      <c r="D594" s="47"/>
+      <c r="C594" s="48"/>
+      <c r="D594" s="51"/>
       <c r="E594" s="12" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="44"/>
-      <c r="D595" s="47"/>
+      <c r="C595" s="48"/>
+      <c r="D595" s="51"/>
       <c r="E595" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="44"/>
-      <c r="D596" s="47"/>
+      <c r="C596" s="48"/>
+      <c r="D596" s="51"/>
       <c r="E596" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="44"/>
-      <c r="D597" s="47"/>
+      <c r="C597" s="48"/>
+      <c r="D597" s="51"/>
       <c r="E597" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="44"/>
-      <c r="D598" s="47"/>
+      <c r="C598" s="48"/>
+      <c r="D598" s="51"/>
       <c r="E598" s="12" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="44"/>
-      <c r="D599" s="47"/>
+      <c r="C599" s="48"/>
+      <c r="D599" s="51"/>
       <c r="E599" s="12" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="44"/>
-      <c r="D600" s="47"/>
+      <c r="C600" s="48"/>
+      <c r="D600" s="51"/>
       <c r="E600" s="12" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="44"/>
-      <c r="D601" s="47"/>
+      <c r="C601" s="48"/>
+      <c r="D601" s="51"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="44"/>
-      <c r="D602" s="47"/>
+      <c r="C602" s="48"/>
+      <c r="D602" s="51"/>
       <c r="E602" s="12" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="45"/>
-      <c r="D603" s="48"/>
+      <c r="C603" s="49"/>
+      <c r="D603" s="52"/>
       <c r="E603" s="11" t="s">
         <v>778</v>
       </c>
@@ -11579,10 +11579,10 @@
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="43">
+      <c r="C605" s="47">
         <v>-3115</v>
       </c>
-      <c r="D605" s="46" t="s">
+      <c r="D605" s="50" t="s">
         <v>781</v>
       </c>
       <c r="E605" s="9" t="s">
@@ -11590,13 +11590,13 @@
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="44"/>
-      <c r="D606" s="47"/>
+      <c r="C606" s="48"/>
+      <c r="D606" s="51"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="45"/>
-      <c r="D607" s="48"/>
+      <c r="C607" s="49"/>
+      <c r="D607" s="52"/>
       <c r="E607" s="11" t="s">
         <v>783</v>
       </c>
@@ -11611,10 +11611,10 @@
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="43">
+      <c r="C609" s="47">
         <v>-3117</v>
       </c>
-      <c r="D609" s="46" t="s">
+      <c r="D609" s="50" t="s">
         <v>785</v>
       </c>
       <c r="E609" s="9" t="s">
@@ -11622,32 +11622,32 @@
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="44"/>
-      <c r="D610" s="47"/>
+      <c r="C610" s="48"/>
+      <c r="D610" s="51"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="44"/>
-      <c r="D611" s="47"/>
+      <c r="C611" s="48"/>
+      <c r="D611" s="51"/>
       <c r="E611" s="12" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="44"/>
-      <c r="D612" s="47"/>
+      <c r="C612" s="48"/>
+      <c r="D612" s="51"/>
       <c r="E612" s="12" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="44"/>
-      <c r="D613" s="47"/>
+      <c r="C613" s="48"/>
+      <c r="D613" s="51"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="45"/>
-      <c r="D614" s="48"/>
+      <c r="C614" s="49"/>
+      <c r="D614" s="52"/>
       <c r="E614" s="11" t="s">
         <v>789</v>
       </c>
@@ -11675,10 +11675,10 @@
       </c>
     </row>
     <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="43">
+      <c r="C617" s="47">
         <v>-3120</v>
       </c>
-      <c r="D617" s="46" t="s">
+      <c r="D617" s="50" t="s">
         <v>794</v>
       </c>
       <c r="E617" s="9" t="s">
@@ -11686,50 +11686,50 @@
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="44"/>
-      <c r="D618" s="47"/>
+      <c r="C618" s="48"/>
+      <c r="D618" s="51"/>
       <c r="E618" s="10"/>
     </row>
     <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="44"/>
-      <c r="D619" s="47"/>
+      <c r="C619" s="48"/>
+      <c r="D619" s="51"/>
       <c r="E619" s="12" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="44"/>
-      <c r="D620" s="47"/>
+      <c r="C620" s="48"/>
+      <c r="D620" s="51"/>
       <c r="E620" s="12" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="44"/>
-      <c r="D621" s="47"/>
+      <c r="C621" s="48"/>
+      <c r="D621" s="51"/>
       <c r="E621" s="12" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="44"/>
-      <c r="D622" s="47"/>
+      <c r="C622" s="48"/>
+      <c r="D622" s="51"/>
       <c r="E622" s="12" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="45"/>
-      <c r="D623" s="48"/>
+      <c r="C623" s="49"/>
+      <c r="D623" s="52"/>
       <c r="E623" s="11" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="43">
+      <c r="C624" s="47">
         <v>-3121</v>
       </c>
-      <c r="D624" s="46" t="s">
+      <c r="D624" s="50" t="s">
         <v>801</v>
       </c>
       <c r="E624" s="9" t="s">
@@ -11737,32 +11737,32 @@
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="44"/>
-      <c r="D625" s="47"/>
+      <c r="C625" s="48"/>
+      <c r="D625" s="51"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="44"/>
-      <c r="D626" s="47"/>
+      <c r="C626" s="48"/>
+      <c r="D626" s="51"/>
       <c r="E626" s="12" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="44"/>
-      <c r="D627" s="47"/>
+      <c r="C627" s="48"/>
+      <c r="D627" s="51"/>
       <c r="E627" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="44"/>
-      <c r="D628" s="47"/>
+      <c r="C628" s="48"/>
+      <c r="D628" s="51"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="45"/>
-      <c r="D629" s="48"/>
+      <c r="C629" s="49"/>
+      <c r="D629" s="52"/>
       <c r="E629" s="11" t="s">
         <v>805</v>
       </c>
@@ -11790,10 +11790,10 @@
       </c>
     </row>
     <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="43">
+      <c r="C632" s="47">
         <v>-3124</v>
       </c>
-      <c r="D632" s="46" t="s">
+      <c r="D632" s="50" t="s">
         <v>809</v>
       </c>
       <c r="E632" s="9" t="s">
@@ -11801,13 +11801,13 @@
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="44"/>
-      <c r="D633" s="47"/>
+      <c r="C633" s="48"/>
+      <c r="D633" s="51"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="45"/>
-      <c r="D634" s="48"/>
+      <c r="C634" s="49"/>
+      <c r="D634" s="52"/>
       <c r="E634" s="11" t="s">
         <v>811</v>
       </c>
@@ -11824,10 +11824,10 @@
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="43">
+      <c r="C636" s="47">
         <v>-3126</v>
       </c>
-      <c r="D636" s="46" t="s">
+      <c r="D636" s="50" t="s">
         <v>814</v>
       </c>
       <c r="E636" s="9" t="s">
@@ -11835,44 +11835,44 @@
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="44"/>
-      <c r="D637" s="47"/>
+      <c r="C637" s="48"/>
+      <c r="D637" s="51"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="44"/>
-      <c r="D638" s="47"/>
+      <c r="C638" s="48"/>
+      <c r="D638" s="51"/>
       <c r="E638" s="12" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="44"/>
-      <c r="D639" s="47"/>
+      <c r="C639" s="48"/>
+      <c r="D639" s="51"/>
       <c r="E639" s="12" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="44"/>
-      <c r="D640" s="47"/>
+      <c r="C640" s="48"/>
+      <c r="D640" s="51"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="44"/>
-      <c r="D641" s="47"/>
+      <c r="C641" s="48"/>
+      <c r="D641" s="51"/>
       <c r="E641" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="44"/>
-      <c r="D642" s="47"/>
+      <c r="C642" s="48"/>
+      <c r="D642" s="51"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="45"/>
-      <c r="D643" s="48"/>
+      <c r="C643" s="49"/>
+      <c r="D643" s="52"/>
       <c r="E643" s="11" t="s">
         <v>819</v>
       </c>
@@ -11900,10 +11900,10 @@
       </c>
     </row>
     <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="43">
+      <c r="C646" s="47">
         <v>-3129</v>
       </c>
-      <c r="D646" s="46" t="s">
+      <c r="D646" s="50" t="s">
         <v>822</v>
       </c>
       <c r="E646" s="9" t="s">
@@ -11911,58 +11911,58 @@
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="44"/>
-      <c r="D647" s="47"/>
+      <c r="C647" s="48"/>
+      <c r="D647" s="51"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="44"/>
-      <c r="D648" s="47"/>
+      <c r="C648" s="48"/>
+      <c r="D648" s="51"/>
       <c r="E648" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="44"/>
-      <c r="D649" s="47"/>
+      <c r="C649" s="48"/>
+      <c r="D649" s="51"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="44"/>
-      <c r="D650" s="47"/>
+      <c r="C650" s="48"/>
+      <c r="D650" s="51"/>
       <c r="E650" s="12" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="44"/>
-      <c r="D651" s="47"/>
+      <c r="C651" s="48"/>
+      <c r="D651" s="51"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="44"/>
-      <c r="D652" s="47"/>
+      <c r="C652" s="48"/>
+      <c r="D652" s="51"/>
       <c r="E652" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="44"/>
-      <c r="D653" s="47"/>
+      <c r="C653" s="48"/>
+      <c r="D653" s="51"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="45"/>
-      <c r="D654" s="48"/>
+      <c r="C654" s="49"/>
+      <c r="D654" s="52"/>
       <c r="E654" s="11" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="43">
+      <c r="C655" s="47">
         <v>-3130</v>
       </c>
-      <c r="D655" s="46" t="s">
+      <c r="D655" s="50" t="s">
         <v>828</v>
       </c>
       <c r="E655" s="9" t="s">
@@ -11970,13 +11970,13 @@
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="44"/>
-      <c r="D656" s="47"/>
+      <c r="C656" s="48"/>
+      <c r="D656" s="51"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="45"/>
-      <c r="D657" s="48"/>
+      <c r="C657" s="49"/>
+      <c r="D657" s="52"/>
       <c r="E657" s="11" t="s">
         <v>830</v>
       </c>
@@ -12015,10 +12015,10 @@
       </c>
     </row>
     <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="43">
+      <c r="C661" s="47">
         <v>-3134</v>
       </c>
-      <c r="D661" s="46" t="s">
+      <c r="D661" s="50" t="s">
         <v>836</v>
       </c>
       <c r="E661" s="9" t="s">
@@ -12026,25 +12026,25 @@
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="44"/>
-      <c r="D662" s="47"/>
+      <c r="C662" s="48"/>
+      <c r="D662" s="51"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="44"/>
-      <c r="D663" s="47"/>
+      <c r="C663" s="48"/>
+      <c r="D663" s="51"/>
       <c r="E663" s="12" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="44"/>
-      <c r="D664" s="47"/>
+      <c r="C664" s="48"/>
+      <c r="D664" s="51"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="45"/>
-      <c r="D665" s="48"/>
+      <c r="C665" s="49"/>
+      <c r="D665" s="52"/>
       <c r="E665" s="11" t="s">
         <v>838</v>
       </c>
@@ -12072,10 +12072,10 @@
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="43">
+      <c r="C668" s="47">
         <v>-3137</v>
       </c>
-      <c r="D668" s="46" t="s">
+      <c r="D668" s="50" t="s">
         <v>843</v>
       </c>
       <c r="E668" s="9" t="s">
@@ -12083,29 +12083,29 @@
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="44"/>
-      <c r="D669" s="47"/>
+      <c r="C669" s="48"/>
+      <c r="D669" s="51"/>
       <c r="E669" s="10"/>
     </row>
     <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="44"/>
-      <c r="D670" s="47"/>
+      <c r="C670" s="48"/>
+      <c r="D670" s="51"/>
       <c r="E670" s="12" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="45"/>
-      <c r="D671" s="48"/>
+      <c r="C671" s="49"/>
+      <c r="D671" s="52"/>
       <c r="E671" s="11" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="43">
+      <c r="C672" s="47">
         <v>-3138</v>
       </c>
-      <c r="D672" s="46" t="s">
+      <c r="D672" s="50" t="s">
         <v>847</v>
       </c>
       <c r="E672" s="9" t="s">
@@ -12113,34 +12113,34 @@
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="44"/>
-      <c r="D673" s="47"/>
+      <c r="C673" s="48"/>
+      <c r="D673" s="51"/>
       <c r="E673" s="10"/>
     </row>
     <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="44"/>
-      <c r="D674" s="47"/>
+      <c r="C674" s="48"/>
+      <c r="D674" s="51"/>
       <c r="E674" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="44"/>
-      <c r="D675" s="47"/>
+      <c r="C675" s="48"/>
+      <c r="D675" s="51"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="45"/>
-      <c r="D676" s="48"/>
+      <c r="C676" s="49"/>
+      <c r="D676" s="52"/>
       <c r="E676" s="11" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="43">
+      <c r="C677" s="47">
         <v>-3139</v>
       </c>
-      <c r="D677" s="46" t="s">
+      <c r="D677" s="50" t="s">
         <v>851</v>
       </c>
       <c r="E677" s="9" t="s">
@@ -12148,55 +12148,55 @@
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="44"/>
-      <c r="D678" s="47"/>
+      <c r="C678" s="48"/>
+      <c r="D678" s="51"/>
       <c r="E678" s="10"/>
     </row>
     <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="44"/>
-      <c r="D679" s="47"/>
+      <c r="C679" s="48"/>
+      <c r="D679" s="51"/>
       <c r="E679" s="12" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="44"/>
-      <c r="D680" s="47"/>
+      <c r="C680" s="48"/>
+      <c r="D680" s="51"/>
       <c r="E680" s="12" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="44"/>
-      <c r="D681" s="47"/>
+      <c r="C681" s="48"/>
+      <c r="D681" s="51"/>
       <c r="E681" s="12" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="44"/>
-      <c r="D682" s="47"/>
+      <c r="C682" s="48"/>
+      <c r="D682" s="51"/>
       <c r="E682" s="12" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="44"/>
-      <c r="D683" s="47"/>
+      <c r="C683" s="48"/>
+      <c r="D683" s="51"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="45"/>
-      <c r="D684" s="48"/>
+      <c r="C684" s="49"/>
+      <c r="D684" s="52"/>
       <c r="E684" s="11" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="43">
+      <c r="C685" s="47">
         <v>-3140</v>
       </c>
-      <c r="D685" s="46" t="s">
+      <c r="D685" s="50" t="s">
         <v>858</v>
       </c>
       <c r="E685" s="9" t="s">
@@ -12204,30 +12204,30 @@
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="44"/>
-      <c r="D686" s="47"/>
+      <c r="C686" s="48"/>
+      <c r="D686" s="51"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="44"/>
-      <c r="D687" s="47"/>
+      <c r="C687" s="48"/>
+      <c r="D687" s="51"/>
       <c r="E687" s="12"/>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="44"/>
-      <c r="D688" s="47"/>
+      <c r="C688" s="48"/>
+      <c r="D688" s="51"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="45"/>
-      <c r="D689" s="48"/>
+      <c r="C689" s="49"/>
+      <c r="D689" s="52"/>
       <c r="E689" s="11"/>
     </row>
     <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="43">
+      <c r="C690" s="47">
         <v>-3141</v>
       </c>
-      <c r="D690" s="46" t="s">
+      <c r="D690" s="50" t="s">
         <v>859</v>
       </c>
       <c r="E690" s="9" t="s">
@@ -12235,34 +12235,34 @@
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="44"/>
-      <c r="D691" s="47"/>
+      <c r="C691" s="48"/>
+      <c r="D691" s="51"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="44"/>
-      <c r="D692" s="47"/>
+      <c r="C692" s="48"/>
+      <c r="D692" s="51"/>
       <c r="E692" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="44"/>
-      <c r="D693" s="47"/>
+      <c r="C693" s="48"/>
+      <c r="D693" s="51"/>
       <c r="E693" s="10"/>
     </row>
     <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="45"/>
-      <c r="D694" s="48"/>
+      <c r="C694" s="49"/>
+      <c r="D694" s="52"/>
       <c r="E694" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="43">
+      <c r="C695" s="47">
         <v>-3142</v>
       </c>
-      <c r="D695" s="46" t="s">
+      <c r="D695" s="50" t="s">
         <v>862</v>
       </c>
       <c r="E695" s="9" t="s">
@@ -12270,34 +12270,34 @@
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="44"/>
-      <c r="D696" s="47"/>
+      <c r="C696" s="48"/>
+      <c r="D696" s="51"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="44"/>
-      <c r="D697" s="47"/>
+      <c r="C697" s="48"/>
+      <c r="D697" s="51"/>
       <c r="E697" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="44"/>
-      <c r="D698" s="47"/>
+      <c r="C698" s="48"/>
+      <c r="D698" s="51"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="45"/>
-      <c r="D699" s="48"/>
+      <c r="C699" s="49"/>
+      <c r="D699" s="52"/>
       <c r="E699" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="43">
+      <c r="C700" s="47">
         <v>-3143</v>
       </c>
-      <c r="D700" s="46" t="s">
+      <c r="D700" s="50" t="s">
         <v>865</v>
       </c>
       <c r="E700" s="9" t="s">
@@ -12305,37 +12305,37 @@
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="44"/>
-      <c r="D701" s="47"/>
+      <c r="C701" s="48"/>
+      <c r="D701" s="51"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="44"/>
-      <c r="D702" s="47"/>
+      <c r="C702" s="48"/>
+      <c r="D702" s="51"/>
       <c r="E702" s="12" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="44"/>
-      <c r="D703" s="47"/>
+      <c r="C703" s="48"/>
+      <c r="D703" s="51"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="44"/>
-      <c r="D704" s="47"/>
+      <c r="C704" s="48"/>
+      <c r="D704" s="51"/>
       <c r="E704" s="12" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="44"/>
-      <c r="D705" s="47"/>
+      <c r="C705" s="48"/>
+      <c r="D705" s="51"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="45"/>
-      <c r="D706" s="48"/>
+      <c r="C706" s="49"/>
+      <c r="D706" s="52"/>
       <c r="E706" s="11" t="s">
         <v>869</v>
       </c>
@@ -12374,10 +12374,10 @@
       </c>
     </row>
     <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="43">
+      <c r="C710" s="47">
         <v>-3147</v>
       </c>
-      <c r="D710" s="46" t="s">
+      <c r="D710" s="50" t="s">
         <v>875</v>
       </c>
       <c r="E710" s="21" t="s">
@@ -12385,55 +12385,55 @@
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="44"/>
-      <c r="D711" s="47"/>
+      <c r="C711" s="48"/>
+      <c r="D711" s="51"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="44"/>
-      <c r="D712" s="47"/>
+      <c r="C712" s="48"/>
+      <c r="D712" s="51"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="44"/>
-      <c r="D713" s="47"/>
+      <c r="C713" s="48"/>
+      <c r="D713" s="51"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="44"/>
-      <c r="D714" s="47"/>
+      <c r="C714" s="48"/>
+      <c r="D714" s="51"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="44"/>
-      <c r="D715" s="47"/>
+      <c r="C715" s="48"/>
+      <c r="D715" s="51"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="44"/>
-      <c r="D716" s="47"/>
+      <c r="C716" s="48"/>
+      <c r="D716" s="51"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="44"/>
-      <c r="D717" s="47"/>
+      <c r="C717" s="48"/>
+      <c r="D717" s="51"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="44"/>
-      <c r="D718" s="47"/>
+      <c r="C718" s="48"/>
+      <c r="D718" s="51"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="45"/>
-      <c r="D719" s="48"/>
+      <c r="C719" s="49"/>
+      <c r="D719" s="52"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="55" t="s">
+      <c r="C720" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="D720" s="57" t="s">
+      <c r="D720" s="45" t="s">
         <v>877</v>
       </c>
       <c r="E720" s="25" t="s">
@@ -12441,8 +12441,8 @@
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="56"/>
-      <c r="D721" s="58"/>
+      <c r="C721" s="44"/>
+      <c r="D721" s="46"/>
       <c r="E721" s="26" t="s">
         <v>879</v>
       </c>
@@ -12459,10 +12459,10 @@
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="55" t="s">
+      <c r="C723" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="D723" s="57" t="s">
+      <c r="D723" s="45" t="s">
         <v>884</v>
       </c>
       <c r="E723" s="28" t="s">
@@ -12470,8 +12470,8 @@
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="56"/>
-      <c r="D724" s="58"/>
+      <c r="C724" s="44"/>
+      <c r="D724" s="46"/>
       <c r="E724" s="26" t="s">
         <v>885</v>
       </c>
@@ -12521,22 +12521,22 @@
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="55" t="s">
+      <c r="C729" s="43" t="s">
         <v>898</v>
       </c>
       <c r="D729" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="E729" s="57" t="s">
+      <c r="E729" s="45" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="56"/>
+      <c r="C730" s="44"/>
       <c r="D730" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="E730" s="58"/>
+      <c r="E730" s="46"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
@@ -12617,2030 +12617,2168 @@
     </row>
     <row r="742" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C742" s="39" t="s">
-        <v>1007</v>
+        <v>1484</v>
       </c>
       <c r="D742" s="40" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E742" s="33"/>
     </row>
     <row r="747" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C747" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="748" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C748" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D748" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E748" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="749" spans="3:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="C749" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D749" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E749" s="33" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="750" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C750" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D750" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="751" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C751" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D751" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="752" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C752" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D752" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="753" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C753" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D753" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="754" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C754" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D754" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="755" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C755" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D755" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="756" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C756" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D756" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="757" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C757" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D757" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="758" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C758" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D758" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="759" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C759" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D759" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="760" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C760" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D760" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="761" spans="3:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="C761" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D761" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E761" s="33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="762" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C762" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D762" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="763" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C763" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D763" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="764" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C764" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D764" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="765" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C765" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D765" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="766" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C766" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="767" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C767" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D767" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E767" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="768" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C768" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D768" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="769" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C769" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D769" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="770" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C770" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D770" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="771" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C771" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D771" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="772" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C772" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D772" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="773" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C773" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D773" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="774" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C774" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D774" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="775" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C775" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D775" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E775" s="33" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="776" spans="3:5" ht="243.6" x14ac:dyDescent="0.4">
       <c r="C776" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D776" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E776" s="33" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="777" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C777" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="778" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C778" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D778" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="779" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C779" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="780" spans="3:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="C780" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D780" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E780" s="33" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="781" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C781" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D781" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="782" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C782" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D782" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="783" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C783" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D783" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="784" spans="3:5" ht="87" x14ac:dyDescent="0.4">
       <c r="C784" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D784" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E784" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="785" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C785" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="786" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C786" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D786" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="787" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C787" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D787" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="788" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C788" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="789" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C789" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D789" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E789" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="790" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C790" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D790" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E790" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="791" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C791" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D791" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E791" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="792" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C792" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D792" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E792" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="793" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C793" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D793" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="794" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C794" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D794" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="795" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C795" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D795" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="796" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C796" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D796" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="797" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C797" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D797" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="798" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C798" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D798" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="799" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C799" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D799" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="800" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C800" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D800" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C801" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D801" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C802" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D802" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C803" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D803" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C804" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D804" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C805" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D805" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C806" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D806" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C807" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="808" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C808" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D808" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C809" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D809" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C810" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D810" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C811" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D811" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C812" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D812" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C813" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D813" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C814" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D814" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C815" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D815" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C816" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D816" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="817" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C817" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D817" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="818" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C818" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D818" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="819" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C819" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D819" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="820" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C820" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D820" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="821" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C821" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D821" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="822" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C822" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D822" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="823" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C823" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D823" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="824" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C824" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D824" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="825" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C825" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D825" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="826" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C826" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D826" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="827" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C827" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D827" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="828" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C828" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D828" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="829" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C829" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D829" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="830" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C830" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D830" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="831" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C831" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="832" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C832" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D832" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="834" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C834" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="835" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C835" t="s">
         <v>1089</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D835" s="33" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="835" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C835" t="s">
+    <row r="836" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C836" t="s">
         <v>1090</v>
       </c>
-      <c r="D835" s="33" t="s">
+      <c r="D836" s="33" t="s">
         <v>1353</v>
-      </c>
-    </row>
-    <row r="836" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C836" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D836" s="33" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="837" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C837" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D837" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="838" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C838" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D838" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="839" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C839" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D839" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="840" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C840" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D840" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="841" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C841" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D841" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C842" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D842" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="843" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C843" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="844" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C844" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D844" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="845" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C845" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D845" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="846" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C846" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D846" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="847" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C847" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D847" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="848" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C848" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="849" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C849" t="s">
         <v>1102</v>
       </c>
-      <c r="D848" t="s">
+      <c r="D849" s="33" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="849" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C849" t="s">
+    <row r="850" spans="3:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="C850" t="s">
         <v>1103</v>
       </c>
-      <c r="D849" s="33" t="s">
+      <c r="D850" s="33" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="850" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C850" t="s">
+    <row r="851" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C851" t="s">
         <v>1104</v>
       </c>
-      <c r="D850" s="33" t="s">
+      <c r="D851" s="33" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="851" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C851" t="s">
+    <row r="852" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C852" t="s">
         <v>1105</v>
       </c>
-      <c r="D851" s="33" t="s">
+      <c r="D852" s="33" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="852" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C852" t="s">
+    <row r="853" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C853" t="s">
         <v>1106</v>
       </c>
-      <c r="D852" s="33" t="s">
+      <c r="D853" s="33" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="853" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C853" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D853" s="33" t="s">
+    <row r="854" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C854" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D854" s="33" t="s">
         <v>1370</v>
-      </c>
-    </row>
-    <row r="854" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C854" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D854" s="33" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="855" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C855" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="856" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C856" t="s">
         <v>1108</v>
       </c>
-      <c r="D855" t="s">
+      <c r="D856" s="33" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="856" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C856" t="s">
+    <row r="857" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C857" t="s">
         <v>1109</v>
       </c>
-      <c r="D856" s="33" t="s">
+      <c r="D857" s="33" t="s">
         <v>1373</v>
-      </c>
-    </row>
-    <row r="857" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C857" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D857" s="33" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="858" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C858" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="859" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C859" t="s">
         <v>1111</v>
       </c>
-      <c r="D858" t="s">
+      <c r="D859" s="33" t="s">
         <v>1375</v>
-      </c>
-    </row>
-    <row r="859" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C859" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D859" s="33" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="860" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C860" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D860" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="861" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C861" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D861" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="862" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C862" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D862" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="863" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C863" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="864" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C864" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="865" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C865" t="s">
         <v>1117</v>
       </c>
-      <c r="D864" t="s">
+      <c r="D865" s="33" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="865" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C865" t="s">
+    <row r="866" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C866" t="s">
         <v>1118</v>
       </c>
-      <c r="D865" s="33" t="s">
+      <c r="D866" s="33" t="s">
         <v>1381</v>
-      </c>
-    </row>
-    <row r="866" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C866" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D866" s="33" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="867" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C867" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D867" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="868" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C868" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D868" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="869" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C869" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="870" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C870" t="s">
         <v>1122</v>
       </c>
-      <c r="D869" t="s">
+      <c r="D870" s="33" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="870" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C870" t="s">
+    <row r="871" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C871" t="s">
         <v>1123</v>
       </c>
-      <c r="D870" s="33" t="s">
+      <c r="D871" s="33" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="871" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C871" t="s">
+    <row r="872" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C872" t="s">
         <v>1124</v>
       </c>
-      <c r="D871" s="33" t="s">
+      <c r="D872" s="33" t="s">
         <v>1387</v>
-      </c>
-    </row>
-    <row r="872" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C872" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D872" s="33" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="873" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C873" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="874" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C874" t="s">
         <v>1126</v>
       </c>
-      <c r="D873" t="s">
+      <c r="D874" s="33" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="874" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C874" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D874" s="33" t="s">
+    <row r="875" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C875" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D875" s="33" t="s">
         <v>1390</v>
-      </c>
-    </row>
-    <row r="875" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C875" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D875" s="33" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="876" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C876" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D876" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="877" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C877" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D877" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="878" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C878" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="879" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C879" t="s">
         <v>1130</v>
       </c>
-      <c r="D878" t="s">
+      <c r="D879" s="33" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="879" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C879" t="s">
+    <row r="880" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C880" t="s">
         <v>1131</v>
       </c>
-      <c r="D879" s="33" t="s">
+      <c r="D880" s="33" t="s">
         <v>1395</v>
-      </c>
-    </row>
-    <row r="880" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C880" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D880" s="33" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="881" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C881" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="882" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C882" t="s">
         <v>1133</v>
       </c>
-      <c r="D881" t="s">
+      <c r="D882" s="33" t="s">
         <v>1397</v>
-      </c>
-    </row>
-    <row r="882" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C882" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D882" s="33" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="883" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C883" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D883" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="884" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C884" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="885" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C885" t="s">
         <v>1136</v>
       </c>
-      <c r="D884" t="s">
+      <c r="D885" s="33" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="885" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C885" t="s">
+    <row r="886" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C886" t="s">
         <v>1137</v>
       </c>
-      <c r="D885" s="33" t="s">
+      <c r="D886" s="33" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="886" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C886" t="s">
+    <row r="887" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C887" t="s">
         <v>1138</v>
       </c>
-      <c r="D886" s="33" t="s">
+      <c r="D887" s="33" t="s">
         <v>1402</v>
-      </c>
-    </row>
-    <row r="887" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C887" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D887" s="33" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="888" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C888" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="889" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C889" t="s">
         <v>1140</v>
       </c>
-      <c r="D888" t="s">
+      <c r="D889" s="33" t="s">
         <v>1404</v>
-      </c>
-    </row>
-    <row r="889" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C889" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D889" s="33" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="890" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C890" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D890" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="891" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C891" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D891" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="892" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C892" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D892" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="893" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C893" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="894" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C894" t="s">
         <v>1145</v>
       </c>
-      <c r="D893" t="s">
+      <c r="D894" s="33" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="894" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C894" t="s">
+    <row r="895" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C895" t="s">
         <v>1146</v>
       </c>
-      <c r="D894" s="33" t="s">
+      <c r="D895" s="33" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="895" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C895" t="s">
+    <row r="896" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C896" t="s">
         <v>1147</v>
       </c>
-      <c r="D895" s="33" t="s">
+      <c r="D896" s="33" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="896" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C896" t="s">
+    <row r="897" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C897" t="s">
         <v>1148</v>
       </c>
-      <c r="D896" s="33" t="s">
+      <c r="D897" s="33" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="897" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C897" t="s">
+    <row r="898" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C898" t="s">
         <v>1149</v>
       </c>
-      <c r="D897" s="33" t="s">
+      <c r="D898" s="33" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="898" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C898" t="s">
+    <row r="899" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C899" t="s">
         <v>1150</v>
       </c>
-      <c r="D898" s="33" t="s">
+      <c r="D899" s="33" t="s">
         <v>1414</v>
-      </c>
-    </row>
-    <row r="899" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C899" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D899" s="33" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="900" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C900" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D900" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="901" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C901" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="902" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C902" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="903" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C903" t="s">
         <v>1154</v>
       </c>
-      <c r="D902" t="s">
+      <c r="D903" s="33" t="s">
         <v>1417</v>
-      </c>
-    </row>
-    <row r="903" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C903" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D903" s="33" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="904" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C904" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D904" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="905" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C905" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D905" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="906" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C906" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="907" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C907" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D907" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="908" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C908" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D908" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="909" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C909" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="910" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C910" t="s">
         <v>1161</v>
       </c>
-      <c r="D909" t="s">
+      <c r="D910" s="33" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="910" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C910" t="s">
+    <row r="911" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C911" t="s">
         <v>1162</v>
       </c>
-      <c r="D910" s="33" t="s">
+      <c r="D911" s="33" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="911" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C911" t="s">
+    <row r="912" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C912" t="s">
         <v>1163</v>
       </c>
-      <c r="D911" s="33" t="s">
+      <c r="D912" s="33" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="912" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C912" t="s">
+    <row r="913" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C913" t="s">
         <v>1164</v>
       </c>
-      <c r="D912" s="33" t="s">
+      <c r="D913" s="33" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="913" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C913" t="s">
+    <row r="914" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C914" t="s">
         <v>1165</v>
       </c>
-      <c r="D913" s="33" t="s">
+      <c r="D914" s="33" t="s">
         <v>1427</v>
-      </c>
-    </row>
-    <row r="914" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C914" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D914" s="33" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="915" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C915" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="916" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C916" t="s">
         <v>1167</v>
       </c>
-      <c r="D915" t="s">
+      <c r="D916" s="33" t="s">
         <v>1429</v>
-      </c>
-    </row>
-    <row r="916" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C916" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D916" s="33" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="917" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C917" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="918" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C918" t="s">
         <v>1169</v>
       </c>
-      <c r="D917" t="s">
+      <c r="D918" s="33" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="918" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C918" t="s">
+    <row r="919" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C919" t="s">
         <v>1170</v>
       </c>
-      <c r="D918" s="33" t="s">
+      <c r="D919" s="33" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="919" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C919" t="s">
+    <row r="920" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C920" t="s">
         <v>1171</v>
       </c>
-      <c r="D919" s="33" t="s">
+      <c r="D920" s="33" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="920" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C920" t="s">
+    <row r="921" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C921" t="s">
         <v>1172</v>
       </c>
-      <c r="D920" s="33" t="s">
+      <c r="D921" s="33" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="921" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C921" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D921" s="33" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="922" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C922" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="923" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C923" t="s">
         <v>1174</v>
       </c>
-      <c r="D922" t="s">
+      <c r="D923" s="33" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="923" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C923" t="s">
+    <row r="924" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C924" t="s">
         <v>1175</v>
       </c>
-      <c r="D923" s="33" t="s">
+      <c r="D924" s="33" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="924" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C924" t="s">
+    <row r="925" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C925" t="s">
         <v>1176</v>
       </c>
-      <c r="D924" s="33" t="s">
+      <c r="D925" s="33" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="925" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C925" t="s">
+    <row r="926" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C926" t="s">
         <v>1177</v>
       </c>
-      <c r="D925" s="33" t="s">
+      <c r="D926" s="33" t="s">
         <v>1439</v>
-      </c>
-    </row>
-    <row r="926" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C926" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D926" s="33" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="927" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C927" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D927" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="928" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C928" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="929" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C929" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="930" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C930" t="s">
         <v>1181</v>
       </c>
-      <c r="D929" t="s">
+      <c r="D930" s="33" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="930" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C930" t="s">
+    <row r="931" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C931" t="s">
         <v>1182</v>
       </c>
-      <c r="D930" s="33" t="s">
+      <c r="D931" s="33" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="931" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C931" t="s">
+    <row r="932" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C932" t="s">
         <v>1183</v>
       </c>
-      <c r="D931" s="33" t="s">
+      <c r="D932" s="33" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="932" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C932" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D932" s="33" t="s">
+    <row r="933" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C933" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D933" s="33" t="s">
         <v>1445</v>
-      </c>
-    </row>
-    <row r="933" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C933" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D933" s="33" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="934" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C934" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D934" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="935" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C935" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="936" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C936" t="s">
         <v>1186</v>
       </c>
-      <c r="D935" t="s">
+      <c r="D936" s="33" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="936" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C936" t="s">
+    <row r="937" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C937" t="s">
         <v>1187</v>
       </c>
-      <c r="D936" s="33" t="s">
+      <c r="D937" s="33" t="s">
         <v>1449</v>
-      </c>
-    </row>
-    <row r="937" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C937" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D937" s="33" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="938" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C938" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D938" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="939" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C939" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D939" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="940" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C940" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D940" s="33" t="s">
         <v>1452</v>
-      </c>
-    </row>
-    <row r="940" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C940" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D940" s="33" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="941" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C941" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="942" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C942" t="s">
         <v>1191</v>
       </c>
-      <c r="D941" t="s">
+      <c r="D942" s="33" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="942" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C942" t="s">
+    <row r="943" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C943" t="s">
         <v>1192</v>
       </c>
-      <c r="D942" s="33" t="s">
+      <c r="D943" s="33" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="943" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C943" t="s">
+    <row r="944" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C944" t="s">
         <v>1193</v>
       </c>
-      <c r="D943" s="33" t="s">
+      <c r="D944" s="33" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="944" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C944" t="s">
+    <row r="945" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C945" t="s">
         <v>1194</v>
       </c>
-      <c r="D944" s="33" t="s">
+      <c r="D945" s="33" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="945" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C945" t="s">
+    <row r="946" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C946" t="s">
         <v>1195</v>
       </c>
-      <c r="D945" s="33" t="s">
+      <c r="D946" s="33" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="946" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C946" t="s">
+    <row r="947" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C947" t="s">
         <v>1196</v>
       </c>
-      <c r="D946" s="33" t="s">
+      <c r="D947" s="33" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="947" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C947" t="s">
+    <row r="948" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C948" t="s">
         <v>1197</v>
       </c>
-      <c r="D947" s="33" t="s">
+      <c r="D948" s="33" t="s">
         <v>1460</v>
-      </c>
-    </row>
-    <row r="948" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C948" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D948" s="33" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C949" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="950" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C950" t="s">
         <v>1199</v>
       </c>
-      <c r="D949" t="s">
+      <c r="D950" s="33" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="950" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C950" t="s">
+    <row r="951" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C951" t="s">
         <v>1200</v>
       </c>
-      <c r="D950" s="33" t="s">
+      <c r="D951" s="33" t="s">
         <v>1463</v>
-      </c>
-    </row>
-    <row r="951" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C951" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D951" s="33" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C952" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="953" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C953" t="s">
         <v>1202</v>
       </c>
-      <c r="D952" t="s">
+      <c r="D953" s="33" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="953" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C953" t="s">
+    <row r="954" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C954" t="s">
         <v>1203</v>
       </c>
-      <c r="D953" s="33" t="s">
+      <c r="D954" s="33" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="954" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C954" t="s">
+    <row r="955" spans="3:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C955" t="s">
         <v>1204</v>
       </c>
-      <c r="D954" s="33" t="s">
+      <c r="D955" s="33" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="955" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C955" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D955" s="33" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C956" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D956" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C957" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D957" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C958" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D958" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="959" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C959" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C960" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="961" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C961" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="962" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C962" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C963" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C964" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C965" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C966" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C967" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C968" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="969" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C969" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="970" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C970" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="971" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C971" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="972" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C972" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="973" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C973" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="974" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C974" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="975" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C975" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="976" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C976" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="977" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C977" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="978" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C978" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="979" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C979" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="980" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C980" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="981" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C981" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C982" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="983" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C983" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="984" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C984" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="985" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C985" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="986" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C986" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="987" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C987" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="988" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C988" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="989" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C989" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="990" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C990" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="991" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C991" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="992" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C992" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="993" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C993" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="994" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C994" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="995" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C995" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="996" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C996" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="997" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C997" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="998" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C998" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="999" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C999" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1000" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1000" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1001" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1001" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1002" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1002" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1003" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1003" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1004" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1004" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1005" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1005" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1006" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1006" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1007" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1007" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1008" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1008" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1009" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1009" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1010" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1010" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1011" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1011" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1012" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1012" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1013" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1013" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1014" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1014" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1015" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1015" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1016" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1016" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1017" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1017" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1018" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1018" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1019" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1019" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1020" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1020" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1021" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1021" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1022" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1022" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1023" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1023" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1024" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C1024" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -14655,144 +14793,6 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -3657,23 +3657,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능.
-1. 서플라이 이상
-제어기 내부의 서플라이 교체  ( 현장교체 불가 , 반출 수리 필요 ) 
-2. 세이프티 모듈 오작동
-이전 Servo Off 동작 시 세이프티 모듈이 On 되어 전원이 차단된 상태로 EMO 버튼을 
-눌렀다 해제 시킨 후 DRT 동작을 수행 
-제어기 Power ON/OFF후 Servo ON 실행 
-3. WTR 제어기 내부 IO 보드와 마스터 보드간의 이더넷 통신이 끊겼을 경우 발생.
-마스터 보드 IP(기본 출하) : 192.168.0.1
-IO 보드 IP(기본 출하) : 192.168.0.11
-타 장비 IP와 겹치는 IP가 있는지 확인.
-제어기 상단 커버 오픈 후 마스터 보드 - IO 보드간 랜선 재 체결
-제어기 재부팅
-This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>하드웨어 이상으로 동작 불가
 Z축 모터 
 출력이나 브레이크 케이블 가능성
@@ -5423,6 +5406,24 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DC 모터 버스가 너무 낮게 하락할 경우 발생. 버스 전압이 10v 이상 상승하지 않는 경우 발생할 수 있다. 이 오류가 지속되면 모터 파워 서플라이 퓨즈를 점검. DataID 12684(Raw DC bus voltage, volt)를 통해 모니터링이 가능.
+1. 서플라이 이상
+1-1) Power Relay Board 내부 FUSE 점검
+1-2) 제어기 내부의 서플라이 교체  ( 현장교체 불가 , 반출 수리 필요 ) 
+2. 세이프티 모듈 오작동
+이전 Servo Off 동작 시 세이프티 모듈이 On 되어 전원이 차단된 상태로 EMO 버튼을 
+눌렀다 해제 시킨 후 DRT 동작을 수행 
+제어기 Power ON/OFF후 Servo ON 실행 
+3. WTR 제어기 내부 IO 보드와 마스터 보드간의 이더넷 통신이 끊겼을 경우 발생.
+마스터 보드 IP(기본 출하) : 192.168.0.1
+IO 보드 IP(기본 출하) : 192.168.0.11
+타 장비 IP와 겹치는 IP가 있는지 확인.
+제어기 상단 커버 오픈 후 마스터 보드 - IO 보드간 랜선 재 체결
+제어기 재부팅
+This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5794,6 +5795,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5829,18 +5842,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6124,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
-      <selection activeCell="E739" sqref="E739"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="E575" sqref="E575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6741,10 +6742,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="49">
+      <c r="C56" s="53">
         <v>1061</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -6752,15 +6753,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="50"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -6964,10 +6965,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="43">
+      <c r="C77" s="47">
         <v>-208</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -6975,13 +6976,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="44"/>
-      <c r="D78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="45"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -7009,10 +7010,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="43">
+      <c r="C82" s="47">
         <v>-211</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="50" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -7020,64 +7021,64 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="44"/>
-      <c r="D83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="44"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="51"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="44"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="44"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="51"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="44"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="44"/>
-      <c r="D89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="45"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="43">
+      <c r="C91" s="47">
         <v>-212</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="50" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
@@ -7085,88 +7086,88 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="44"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="44"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="44"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="51"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="44"/>
-      <c r="D96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="44"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="44"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="44"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="44"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="44"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="44"/>
-      <c r="D103" s="47"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="45"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -7200,7 +7201,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7211,7 +7212,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="47"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -7220,7 +7221,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="52"/>
     </row>
     <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -8558,10 +8559,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="43">
+      <c r="C239" s="47">
         <v>-776</v>
       </c>
-      <c r="D239" s="46" t="s">
+      <c r="D239" s="50" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -8569,13 +8570,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="44"/>
-      <c r="D240" s="47"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="51"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="45"/>
-      <c r="D241" s="48"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -8938,20 +8939,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="43">
+      <c r="C275" s="47">
         <v>-811</v>
       </c>
-      <c r="D275" s="46" t="s">
+      <c r="D275" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="50" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="45"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
     </row>
     <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -8987,10 +8988,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="43">
+      <c r="C280" s="47">
         <v>-1002</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="50" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -8998,22 +8999,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="44"/>
-      <c r="D281" s="47"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="51"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="45"/>
-      <c r="D282" s="48"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="52"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="43">
+      <c r="C283" s="47">
         <v>-1003</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="50" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -9021,13 +9022,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="44"/>
-      <c r="D284" s="47"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="51"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="45"/>
-      <c r="D285" s="48"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="52"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
@@ -9044,10 +9045,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="43">
+      <c r="C287" s="47">
         <v>-1005</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="50" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -9055,22 +9056,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="44"/>
-      <c r="D288" s="47"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="51"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="45"/>
-      <c r="D289" s="48"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="52"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="43">
+      <c r="C290" s="47">
         <v>-1006</v>
       </c>
-      <c r="D290" s="46" t="s">
+      <c r="D290" s="50" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -9078,36 +9079,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="44"/>
-      <c r="D291" s="47"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="51"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="44"/>
-      <c r="D292" s="47"/>
+      <c r="C292" s="48"/>
+      <c r="D292" s="51"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="44"/>
-      <c r="D293" s="47"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="51"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="45"/>
-      <c r="D294" s="48"/>
+      <c r="C294" s="49"/>
+      <c r="D294" s="52"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="43">
+      <c r="C295" s="47">
         <v>-1007</v>
       </c>
-      <c r="D295" s="46" t="s">
+      <c r="D295" s="50" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -9115,41 +9116,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="44"/>
-      <c r="D296" s="47"/>
+      <c r="C296" s="48"/>
+      <c r="D296" s="51"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="44"/>
-      <c r="D297" s="47"/>
+      <c r="C297" s="48"/>
+      <c r="D297" s="51"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="44"/>
-      <c r="D298" s="47"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="51"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="44"/>
-      <c r="D299" s="47"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="51"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="45"/>
-      <c r="D300" s="48"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="52"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
+      <c r="C301" s="47">
         <v>-1008</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="50" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -9157,22 +9158,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="44"/>
-      <c r="D302" s="47"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="51"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="45"/>
-      <c r="D303" s="48"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="52"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="43">
+      <c r="C304" s="47">
         <v>-1009</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="50" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -9180,22 +9181,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="44"/>
-      <c r="D305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="51"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="45"/>
-      <c r="D306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="52"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="43">
+      <c r="C307" s="47">
         <v>-1010</v>
       </c>
-      <c r="D307" s="46" t="s">
+      <c r="D307" s="50" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -9203,22 +9204,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="44"/>
-      <c r="D308" s="47"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="51"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="45"/>
-      <c r="D309" s="48"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="52"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="43">
+      <c r="C310" s="47">
         <v>-1011</v>
       </c>
-      <c r="D310" s="46" t="s">
+      <c r="D310" s="50" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -9226,13 +9227,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="44"/>
-      <c r="D311" s="47"/>
+      <c r="C311" s="48"/>
+      <c r="D311" s="51"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="45"/>
-      <c r="D312" s="48"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="52"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
@@ -9249,10 +9250,10 @@
       </c>
     </row>
     <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="43">
+      <c r="C314" s="47">
         <v>-1013</v>
       </c>
-      <c r="D314" s="46" t="s">
+      <c r="D314" s="50" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -9260,29 +9261,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="44"/>
-      <c r="D315" s="47"/>
+      <c r="C315" s="48"/>
+      <c r="D315" s="51"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="44"/>
-      <c r="D316" s="47"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="51"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="45"/>
-      <c r="D317" s="48"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="52"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
+      <c r="C318" s="47">
         <v>-1014</v>
       </c>
-      <c r="D318" s="46" t="s">
+      <c r="D318" s="50" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -9290,13 +9291,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="44"/>
-      <c r="D319" s="47"/>
+      <c r="C319" s="48"/>
+      <c r="D319" s="51"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="45"/>
-      <c r="D320" s="48"/>
+      <c r="C320" s="49"/>
+      <c r="D320" s="52"/>
       <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9311,10 +9312,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="43">
+      <c r="C322" s="47">
         <v>-1016</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="50" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -9322,20 +9323,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="44"/>
-      <c r="D323" s="47"/>
+      <c r="C323" s="48"/>
+      <c r="D323" s="51"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="44"/>
-      <c r="D324" s="47"/>
+      <c r="C324" s="48"/>
+      <c r="D324" s="51"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="45"/>
-      <c r="D325" s="48"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="52"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
@@ -9363,10 +9364,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="43">
+      <c r="C328" s="47">
         <v>-1019</v>
       </c>
-      <c r="D328" s="46" t="s">
+      <c r="D328" s="50" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9374,22 +9375,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="44"/>
-      <c r="D329" s="47"/>
+      <c r="C329" s="48"/>
+      <c r="D329" s="51"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="45"/>
-      <c r="D330" s="48"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="52"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="43">
+      <c r="C331" s="47">
         <v>-1020</v>
       </c>
-      <c r="D331" s="46" t="s">
+      <c r="D331" s="50" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -9397,34 +9398,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="44"/>
-      <c r="D332" s="47"/>
+      <c r="C332" s="48"/>
+      <c r="D332" s="51"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="44"/>
-      <c r="D333" s="47"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="51"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="44"/>
-      <c r="D334" s="47"/>
+      <c r="C334" s="48"/>
+      <c r="D334" s="51"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="45"/>
-      <c r="D335" s="48"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="52"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C336" s="43">
+      <c r="C336" s="47">
         <v>-1021</v>
       </c>
-      <c r="D336" s="46" t="s">
+      <c r="D336" s="50" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -9432,13 +9433,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="44"/>
-      <c r="D337" s="47"/>
+      <c r="C337" s="48"/>
+      <c r="D337" s="51"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="45"/>
-      <c r="D338" s="48"/>
+      <c r="C338" s="49"/>
+      <c r="D338" s="52"/>
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -9486,10 +9487,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C343" s="43">
+      <c r="C343" s="47">
         <v>-1026</v>
       </c>
-      <c r="D343" s="46" t="s">
+      <c r="D343" s="50" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -9497,34 +9498,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="44"/>
-      <c r="D344" s="47"/>
+      <c r="C344" s="48"/>
+      <c r="D344" s="51"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="44"/>
-      <c r="D345" s="47"/>
+      <c r="C345" s="48"/>
+      <c r="D345" s="51"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="44"/>
-      <c r="D346" s="47"/>
+      <c r="C346" s="48"/>
+      <c r="D346" s="51"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="44"/>
-      <c r="D347" s="47"/>
+      <c r="C347" s="48"/>
+      <c r="D347" s="51"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="45"/>
-      <c r="D348" s="48"/>
+      <c r="C348" s="49"/>
+      <c r="D348" s="52"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
@@ -9541,10 +9542,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="312" x14ac:dyDescent="0.4">
-      <c r="C350" s="43">
+      <c r="C350" s="47">
         <v>-1028</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="50" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -9552,90 +9553,90 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="44"/>
-      <c r="D351" s="47"/>
+      <c r="C351" s="48"/>
+      <c r="D351" s="51"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="44"/>
-      <c r="D352" s="47"/>
+      <c r="C352" s="48"/>
+      <c r="D352" s="51"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="44"/>
-      <c r="D353" s="47"/>
+      <c r="C353" s="48"/>
+      <c r="D353" s="51"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="44"/>
-      <c r="D354" s="47"/>
+      <c r="C354" s="48"/>
+      <c r="D354" s="51"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="44"/>
-      <c r="D355" s="47"/>
+      <c r="C355" s="48"/>
+      <c r="D355" s="51"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="45"/>
-      <c r="D356" s="48"/>
+      <c r="C356" s="49"/>
+      <c r="D356" s="52"/>
       <c r="E356" s="15" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="43">
+      <c r="C357" s="47">
         <v>-1029</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="50" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="44"/>
-      <c r="D358" s="47"/>
+      <c r="C358" s="48"/>
+      <c r="D358" s="51"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="44"/>
-      <c r="D359" s="47"/>
+      <c r="C359" s="48"/>
+      <c r="D359" s="51"/>
       <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="44"/>
-      <c r="D360" s="47"/>
+      <c r="C360" s="48"/>
+      <c r="D360" s="51"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="44"/>
-      <c r="D361" s="47"/>
+      <c r="C361" s="48"/>
+      <c r="D361" s="51"/>
       <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="45"/>
-      <c r="D362" s="48"/>
+      <c r="C362" s="49"/>
+      <c r="D362" s="52"/>
       <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="43">
+      <c r="C363" s="47">
         <v>-1030</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="50" t="s">
         <v>503</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -9643,25 +9644,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="44"/>
-      <c r="D364" s="47"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="51"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="44"/>
-      <c r="D365" s="47"/>
+      <c r="C365" s="48"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="44"/>
-      <c r="D366" s="47"/>
+      <c r="C366" s="48"/>
+      <c r="D366" s="51"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="45"/>
-      <c r="D367" s="48"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="52"/>
       <c r="E367" s="11" t="s">
         <v>506</v>
       </c>
@@ -9689,10 +9690,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="43">
+      <c r="C370" s="47">
         <v>-1033</v>
       </c>
-      <c r="D370" s="46" t="s">
+      <c r="D370" s="50" t="s">
         <v>511</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -9700,22 +9701,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="44"/>
-      <c r="D371" s="47"/>
+      <c r="C371" s="48"/>
+      <c r="D371" s="51"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="45"/>
-      <c r="D372" s="48"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="52"/>
       <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C373" s="43">
+      <c r="C373" s="47">
         <v>-1034</v>
       </c>
-      <c r="D373" s="46" t="s">
+      <c r="D373" s="50" t="s">
         <v>998</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -9723,20 +9724,20 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="44"/>
-      <c r="D374" s="47"/>
+      <c r="C374" s="48"/>
+      <c r="D374" s="51"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="45"/>
-      <c r="D375" s="48"/>
+      <c r="C375" s="49"/>
+      <c r="D375" s="52"/>
       <c r="E375" s="15"/>
     </row>
     <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C376" s="43">
+      <c r="C376" s="47">
         <v>-1035</v>
       </c>
-      <c r="D376" s="46" t="s">
+      <c r="D376" s="50" t="s">
         <v>514</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -9744,20 +9745,20 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="44"/>
-      <c r="D377" s="47"/>
+      <c r="C377" s="48"/>
+      <c r="D377" s="51"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="45"/>
-      <c r="D378" s="48"/>
+      <c r="C378" s="49"/>
+      <c r="D378" s="52"/>
       <c r="E378" s="15"/>
     </row>
     <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="43">
+      <c r="C379" s="47">
         <v>-1036</v>
       </c>
-      <c r="D379" s="46" t="s">
+      <c r="D379" s="50" t="s">
         <v>515</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -9765,22 +9766,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="44"/>
-      <c r="D380" s="47"/>
+      <c r="C380" s="48"/>
+      <c r="D380" s="51"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="45"/>
-      <c r="D381" s="48"/>
+      <c r="C381" s="49"/>
+      <c r="D381" s="52"/>
       <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="43">
+      <c r="C382" s="47">
         <v>-1037</v>
       </c>
-      <c r="D382" s="46" t="s">
+      <c r="D382" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -9788,22 +9789,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="44"/>
-      <c r="D383" s="47"/>
+      <c r="C383" s="48"/>
+      <c r="D383" s="51"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="45"/>
-      <c r="D384" s="48"/>
+      <c r="C384" s="49"/>
+      <c r="D384" s="52"/>
       <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="43">
+      <c r="C385" s="47">
         <v>-1038</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -9811,22 +9812,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="44"/>
-      <c r="D386" s="47"/>
+      <c r="C386" s="48"/>
+      <c r="D386" s="51"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="45"/>
-      <c r="D387" s="48"/>
+      <c r="C387" s="49"/>
+      <c r="D387" s="52"/>
       <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="43">
+      <c r="C388" s="47">
         <v>-1039</v>
       </c>
-      <c r="D388" s="46" t="s">
+      <c r="D388" s="50" t="s">
         <v>524</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -9834,22 +9835,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="44"/>
-      <c r="D389" s="47"/>
+      <c r="C389" s="48"/>
+      <c r="D389" s="51"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="45"/>
-      <c r="D390" s="48"/>
+      <c r="C390" s="49"/>
+      <c r="D390" s="52"/>
       <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="43">
+      <c r="C391" s="47">
         <v>-1040</v>
       </c>
-      <c r="D391" s="46" t="s">
+      <c r="D391" s="50" t="s">
         <v>527</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -9857,22 +9858,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="44"/>
-      <c r="D392" s="47"/>
+      <c r="C392" s="48"/>
+      <c r="D392" s="51"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="45"/>
-      <c r="D393" s="48"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="52"/>
       <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="43">
+      <c r="C394" s="47">
         <v>-1041</v>
       </c>
-      <c r="D394" s="46" t="s">
+      <c r="D394" s="50" t="s">
         <v>530</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -9880,13 +9881,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="44"/>
-      <c r="D395" s="47"/>
+      <c r="C395" s="48"/>
+      <c r="D395" s="51"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="45"/>
-      <c r="D396" s="48"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="52"/>
       <c r="E396" s="15" t="s">
         <v>532</v>
       </c>
@@ -9903,10 +9904,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="43">
+      <c r="C398" s="47">
         <v>-1043</v>
       </c>
-      <c r="D398" s="46" t="s">
+      <c r="D398" s="50" t="s">
         <v>535</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -9914,25 +9915,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="44"/>
-      <c r="D399" s="47"/>
+      <c r="C399" s="48"/>
+      <c r="D399" s="51"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="44"/>
-      <c r="D400" s="47"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="51"/>
       <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="44"/>
-      <c r="D401" s="47"/>
+      <c r="C401" s="48"/>
+      <c r="D401" s="51"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="45"/>
-      <c r="D402" s="48"/>
+      <c r="C402" s="49"/>
+      <c r="D402" s="52"/>
       <c r="E402" s="11" t="s">
         <v>538</v>
       </c>
@@ -9949,10 +9950,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="43">
+      <c r="C404" s="47">
         <v>-1045</v>
       </c>
-      <c r="D404" s="46" t="s">
+      <c r="D404" s="50" t="s">
         <v>541</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -9960,43 +9961,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="44"/>
-      <c r="D405" s="47"/>
+      <c r="C405" s="48"/>
+      <c r="D405" s="51"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="44"/>
-      <c r="D406" s="47"/>
+      <c r="C406" s="48"/>
+      <c r="D406" s="51"/>
       <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="44"/>
-      <c r="D407" s="47"/>
+      <c r="C407" s="48"/>
+      <c r="D407" s="51"/>
       <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="44"/>
-      <c r="D408" s="47"/>
+      <c r="C408" s="48"/>
+      <c r="D408" s="51"/>
       <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="45"/>
-      <c r="D409" s="48"/>
+      <c r="C409" s="49"/>
+      <c r="D409" s="52"/>
       <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="43">
+      <c r="C410" s="47">
         <v>-1046</v>
       </c>
-      <c r="D410" s="46" t="s">
+      <c r="D410" s="50" t="s">
         <v>547</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -10004,13 +10005,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="44"/>
-      <c r="D411" s="47"/>
+      <c r="C411" s="48"/>
+      <c r="D411" s="51"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="45"/>
-      <c r="D412" s="48"/>
+      <c r="C412" s="49"/>
+      <c r="D412" s="52"/>
       <c r="E412" s="15" t="s">
         <v>549</v>
       </c>
@@ -10060,10 +10061,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="43">
+      <c r="C417" s="47">
         <v>-1051</v>
       </c>
-      <c r="D417" s="46" t="s">
+      <c r="D417" s="50" t="s">
         <v>558</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -10071,29 +10072,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="44"/>
-      <c r="D418" s="47"/>
+      <c r="C418" s="48"/>
+      <c r="D418" s="51"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="44"/>
-      <c r="D419" s="47"/>
+      <c r="C419" s="48"/>
+      <c r="D419" s="51"/>
       <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="45"/>
-      <c r="D420" s="48"/>
+      <c r="C420" s="49"/>
+      <c r="D420" s="52"/>
       <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
+      <c r="C421" s="47">
         <v>-1052</v>
       </c>
-      <c r="D421" s="46" t="s">
+      <c r="D421" s="50" t="s">
         <v>562</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -10101,22 +10102,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="44"/>
-      <c r="D422" s="47"/>
+      <c r="C422" s="48"/>
+      <c r="D422" s="51"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="45"/>
-      <c r="D423" s="48"/>
+      <c r="C423" s="49"/>
+      <c r="D423" s="52"/>
       <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="43">
+      <c r="C424" s="47">
         <v>-1053</v>
       </c>
-      <c r="D424" s="46" t="s">
+      <c r="D424" s="50" t="s">
         <v>565</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -10124,13 +10125,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="44"/>
-      <c r="D425" s="47"/>
+      <c r="C425" s="48"/>
+      <c r="D425" s="51"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="45"/>
-      <c r="D426" s="48"/>
+      <c r="C426" s="49"/>
+      <c r="D426" s="52"/>
       <c r="E426" s="11" t="s">
         <v>567</v>
       </c>
@@ -10147,10 +10148,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
+      <c r="C428" s="47">
         <v>-1055</v>
       </c>
-      <c r="D428" s="46" t="s">
+      <c r="D428" s="50" t="s">
         <v>570</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -10158,29 +10159,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="44"/>
-      <c r="D429" s="47"/>
+      <c r="C429" s="48"/>
+      <c r="D429" s="51"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="44"/>
-      <c r="D430" s="47"/>
+      <c r="C430" s="48"/>
+      <c r="D430" s="51"/>
       <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="45"/>
-      <c r="D431" s="48"/>
+      <c r="C431" s="49"/>
+      <c r="D431" s="52"/>
       <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
+      <c r="C432" s="47">
         <v>-1056</v>
       </c>
-      <c r="D432" s="46" t="s">
+      <c r="D432" s="50" t="s">
         <v>574</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -10188,13 +10189,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="44"/>
-      <c r="D433" s="47"/>
+      <c r="C433" s="48"/>
+      <c r="D433" s="51"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="45"/>
-      <c r="D434" s="48"/>
+      <c r="C434" s="49"/>
+      <c r="D434" s="52"/>
       <c r="E434" s="11" t="s">
         <v>576</v>
       </c>
@@ -10553,10 +10554,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="43">
+      <c r="C468" s="47">
         <v>-1600</v>
       </c>
-      <c r="D468" s="46" t="s">
+      <c r="D468" s="50" t="s">
         <v>637</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -10564,15 +10565,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="44"/>
-      <c r="D469" s="47"/>
+      <c r="C469" s="48"/>
+      <c r="D469" s="51"/>
       <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="45"/>
-      <c r="D470" s="48"/>
+      <c r="C470" s="49"/>
+      <c r="D470" s="52"/>
       <c r="E470" s="11" t="s">
         <v>640</v>
       </c>
@@ -10666,10 +10667,10 @@
       </c>
     </row>
     <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
+      <c r="C479" s="47">
         <v>-1610</v>
       </c>
-      <c r="D479" s="46" t="s">
+      <c r="D479" s="50" t="s">
         <v>655</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -10677,37 +10678,37 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="44"/>
-      <c r="D480" s="47"/>
+      <c r="C480" s="48"/>
+      <c r="D480" s="51"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="44"/>
-      <c r="D481" s="47"/>
+      <c r="C481" s="48"/>
+      <c r="D481" s="51"/>
       <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="44"/>
-      <c r="D482" s="47"/>
+      <c r="C482" s="48"/>
+      <c r="D482" s="51"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="44"/>
-      <c r="D483" s="47"/>
+      <c r="C483" s="48"/>
+      <c r="D483" s="51"/>
       <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="44"/>
-      <c r="D484" s="47"/>
+      <c r="C484" s="48"/>
+      <c r="D484" s="51"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="45"/>
-      <c r="D485" s="48"/>
+      <c r="C485" s="49"/>
+      <c r="D485" s="52"/>
       <c r="E485" s="11" t="s">
         <v>659</v>
       </c>
@@ -11092,10 +11093,10 @@
       <c r="E522" s="14"/>
     </row>
     <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="43">
+      <c r="C523" s="47">
         <v>-3014</v>
       </c>
-      <c r="D523" s="46" t="s">
+      <c r="D523" s="50" t="s">
         <v>715</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -11103,22 +11104,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="44"/>
-      <c r="D524" s="47"/>
+      <c r="C524" s="48"/>
+      <c r="D524" s="51"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="45"/>
-      <c r="D525" s="48"/>
+      <c r="C525" s="49"/>
+      <c r="D525" s="52"/>
       <c r="E525" s="11" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="43">
+      <c r="C526" s="47">
         <v>-3015</v>
       </c>
-      <c r="D526" s="46" t="s">
+      <c r="D526" s="50" t="s">
         <v>718</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -11126,13 +11127,13 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="44"/>
-      <c r="D527" s="47"/>
+      <c r="C527" s="48"/>
+      <c r="D527" s="51"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="45"/>
-      <c r="D528" s="48"/>
+      <c r="C528" s="49"/>
+      <c r="D528" s="52"/>
       <c r="E528" s="11" t="s">
         <v>720</v>
       </c>
@@ -11204,10 +11205,10 @@
       </c>
     </row>
     <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C535" s="43">
+      <c r="C535" s="47">
         <v>-3104</v>
       </c>
-      <c r="D535" s="46" t="s">
+      <c r="D535" s="50" t="s">
         <v>732</v>
       </c>
       <c r="E535" s="9" t="s">
@@ -11215,58 +11216,58 @@
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="44"/>
-      <c r="D536" s="47"/>
+      <c r="C536" s="48"/>
+      <c r="D536" s="51"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="44"/>
-      <c r="D537" s="47"/>
+      <c r="C537" s="48"/>
+      <c r="D537" s="51"/>
       <c r="E537" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="44"/>
-      <c r="D538" s="47"/>
+      <c r="C538" s="48"/>
+      <c r="D538" s="51"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="44"/>
-      <c r="D539" s="47"/>
+      <c r="C539" s="48"/>
+      <c r="D539" s="51"/>
       <c r="E539" s="12" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="44"/>
-      <c r="D540" s="47"/>
+      <c r="C540" s="48"/>
+      <c r="D540" s="51"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="44"/>
-      <c r="D541" s="47"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="51"/>
       <c r="E541" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="44"/>
-      <c r="D542" s="47"/>
+      <c r="C542" s="48"/>
+      <c r="D542" s="51"/>
       <c r="E542" s="12"/>
     </row>
     <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="45"/>
-      <c r="D543" s="48"/>
+      <c r="C543" s="49"/>
+      <c r="D543" s="52"/>
       <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C544" s="43">
+      <c r="C544" s="47">
         <v>-3105</v>
       </c>
-      <c r="D544" s="46" t="s">
+      <c r="D544" s="50" t="s">
         <v>737</v>
       </c>
       <c r="E544" s="9" t="s">
@@ -11274,166 +11275,166 @@
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="44"/>
-      <c r="D545" s="47"/>
+      <c r="C545" s="48"/>
+      <c r="D545" s="51"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="44"/>
-      <c r="D546" s="47"/>
+      <c r="C546" s="48"/>
+      <c r="D546" s="51"/>
       <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="44"/>
-      <c r="D547" s="47"/>
+      <c r="C547" s="48"/>
+      <c r="D547" s="51"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="45"/>
-      <c r="D548" s="48"/>
+      <c r="C548" s="49"/>
+      <c r="D548" s="52"/>
       <c r="E548" s="15"/>
     </row>
     <row r="549" spans="3:5" ht="280.8" x14ac:dyDescent="0.4">
-      <c r="C549" s="43">
+      <c r="C549" s="47">
         <v>-3106</v>
       </c>
-      <c r="D549" s="46" t="s">
+      <c r="D549" s="50" t="s">
         <v>739</v>
       </c>
       <c r="E549" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="44"/>
-      <c r="D550" s="47"/>
+      <c r="C550" s="48"/>
+      <c r="D550" s="51"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C551" s="44"/>
-      <c r="D551" s="47"/>
+      <c r="C551" s="48"/>
+      <c r="D551" s="51"/>
       <c r="E551" s="12"/>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="44"/>
-      <c r="D552" s="47"/>
+      <c r="C552" s="48"/>
+      <c r="D552" s="51"/>
       <c r="E552" s="10"/>
     </row>
     <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="44"/>
-      <c r="D553" s="47"/>
+      <c r="C553" s="48"/>
+      <c r="D553" s="51"/>
       <c r="E553" s="12" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="44"/>
-      <c r="D554" s="47"/>
+      <c r="C554" s="48"/>
+      <c r="D554" s="51"/>
       <c r="E554" s="12" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="44"/>
-      <c r="D555" s="47"/>
+      <c r="C555" s="48"/>
+      <c r="D555" s="51"/>
       <c r="E555" s="12" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="44"/>
-      <c r="D556" s="47"/>
+      <c r="C556" s="48"/>
+      <c r="D556" s="51"/>
       <c r="E556" s="12" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="44"/>
-      <c r="D557" s="47"/>
+      <c r="C557" s="48"/>
+      <c r="D557" s="51"/>
       <c r="E557" s="12" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="44"/>
-      <c r="D558" s="47"/>
+      <c r="C558" s="48"/>
+      <c r="D558" s="51"/>
       <c r="E558" s="10"/>
     </row>
     <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="44"/>
-      <c r="D559" s="47"/>
+      <c r="C559" s="48"/>
+      <c r="D559" s="51"/>
       <c r="E559" s="12" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="44"/>
-      <c r="D560" s="47"/>
+      <c r="C560" s="48"/>
+      <c r="D560" s="51"/>
       <c r="E560" s="12"/>
     </row>
     <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="44"/>
-      <c r="D561" s="47"/>
+      <c r="C561" s="48"/>
+      <c r="D561" s="51"/>
       <c r="E561" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="44"/>
-      <c r="D562" s="47"/>
+      <c r="C562" s="48"/>
+      <c r="D562" s="51"/>
       <c r="E562" s="16" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="44"/>
-      <c r="D563" s="47"/>
+      <c r="C563" s="48"/>
+      <c r="D563" s="51"/>
       <c r="E563" s="16" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="44"/>
-      <c r="D564" s="47"/>
+      <c r="C564" s="48"/>
+      <c r="D564" s="51"/>
       <c r="E564" s="16" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="44"/>
-      <c r="D565" s="47"/>
+      <c r="C565" s="48"/>
+      <c r="D565" s="51"/>
       <c r="E565" s="16" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="44"/>
-      <c r="D566" s="47"/>
+      <c r="C566" s="48"/>
+      <c r="D566" s="51"/>
       <c r="E566" s="16" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="44"/>
-      <c r="D567" s="47"/>
+      <c r="C567" s="48"/>
+      <c r="D567" s="51"/>
       <c r="E567" s="16" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="45"/>
-      <c r="D568" s="48"/>
+      <c r="C568" s="49"/>
+      <c r="D568" s="52"/>
       <c r="E568" s="15" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C569" s="43">
+      <c r="C569" s="47">
         <v>-3107</v>
       </c>
-      <c r="D569" s="46" t="s">
+      <c r="D569" s="50" t="s">
         <v>754</v>
       </c>
       <c r="E569" s="9" t="s">
@@ -11441,22 +11442,22 @@
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="44"/>
-      <c r="D570" s="47"/>
+      <c r="C570" s="48"/>
+      <c r="D570" s="51"/>
       <c r="E570" s="12"/>
     </row>
     <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="45"/>
-      <c r="D571" s="48"/>
+      <c r="C571" s="49"/>
+      <c r="D571" s="52"/>
       <c r="E571" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="43">
+      <c r="C572" s="47">
         <v>-3108</v>
       </c>
-      <c r="D572" s="46" t="s">
+      <c r="D572" s="50" t="s">
         <v>756</v>
       </c>
       <c r="E572" s="9" t="s">
@@ -11464,41 +11465,41 @@
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="44"/>
-      <c r="D573" s="47"/>
+      <c r="C573" s="48"/>
+      <c r="D573" s="51"/>
       <c r="E573" s="12"/>
     </row>
     <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="45"/>
-      <c r="D574" s="48"/>
+      <c r="C574" s="49"/>
+      <c r="D574" s="52"/>
       <c r="E574" s="15"/>
     </row>
-    <row r="575" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
-      <c r="C575" s="43">
+    <row r="575" spans="3:5" ht="358.8" x14ac:dyDescent="0.4">
+      <c r="C575" s="47">
         <v>-3109</v>
       </c>
-      <c r="D575" s="46" t="s">
+      <c r="D575" s="50" t="s">
         <v>757</v>
       </c>
       <c r="E575" s="9" t="s">
-        <v>1003</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="44"/>
-      <c r="D576" s="47"/>
+      <c r="C576" s="48"/>
+      <c r="D576" s="51"/>
       <c r="E576" s="12"/>
     </row>
     <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="45"/>
-      <c r="D577" s="48"/>
+      <c r="C577" s="49"/>
+      <c r="D577" s="52"/>
       <c r="E577" s="15"/>
     </row>
     <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="43">
+      <c r="C578" s="47">
         <v>-3110</v>
       </c>
-      <c r="D578" s="46" t="s">
+      <c r="D578" s="50" t="s">
         <v>758</v>
       </c>
       <c r="E578" s="9" t="s">
@@ -11506,23 +11507,23 @@
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="44"/>
-      <c r="D579" s="47"/>
+      <c r="C579" s="48"/>
+      <c r="D579" s="51"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="44"/>
-      <c r="D580" s="47"/>
+      <c r="C580" s="48"/>
+      <c r="D580" s="51"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="44"/>
-      <c r="D581" s="47"/>
+      <c r="C581" s="48"/>
+      <c r="D581" s="51"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="45"/>
-      <c r="D582" s="48"/>
+      <c r="C582" s="49"/>
+      <c r="D582" s="52"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -11537,10 +11538,10 @@
       </c>
     </row>
     <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="43">
+      <c r="C584" s="47">
         <v>-3112</v>
       </c>
-      <c r="D584" s="46" t="s">
+      <c r="D584" s="50" t="s">
         <v>761</v>
       </c>
       <c r="E584" s="9" t="s">
@@ -11548,22 +11549,22 @@
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="44"/>
-      <c r="D585" s="47"/>
+      <c r="C585" s="48"/>
+      <c r="D585" s="51"/>
       <c r="E585" s="10"/>
     </row>
     <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="45"/>
-      <c r="D586" s="48"/>
+      <c r="C586" s="49"/>
+      <c r="D586" s="52"/>
       <c r="E586" s="11" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="43">
+      <c r="C587" s="47">
         <v>-3113</v>
       </c>
-      <c r="D587" s="46" t="s">
+      <c r="D587" s="50" t="s">
         <v>764</v>
       </c>
       <c r="E587" s="9" t="s">
@@ -11571,107 +11572,107 @@
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="44"/>
-      <c r="D588" s="47"/>
+      <c r="C588" s="48"/>
+      <c r="D588" s="51"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="44"/>
-      <c r="D589" s="47"/>
+      <c r="C589" s="48"/>
+      <c r="D589" s="51"/>
       <c r="E589" s="12" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="44"/>
-      <c r="D590" s="47"/>
+      <c r="C590" s="48"/>
+      <c r="D590" s="51"/>
       <c r="E590" s="10"/>
     </row>
     <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="44"/>
-      <c r="D591" s="47"/>
+      <c r="C591" s="48"/>
+      <c r="D591" s="51"/>
       <c r="E591" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="44"/>
-      <c r="D592" s="47"/>
+      <c r="C592" s="48"/>
+      <c r="D592" s="51"/>
       <c r="E592" s="12" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="44"/>
-      <c r="D593" s="47"/>
+      <c r="C593" s="48"/>
+      <c r="D593" s="51"/>
       <c r="E593" s="12" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="44"/>
-      <c r="D594" s="47"/>
+      <c r="C594" s="48"/>
+      <c r="D594" s="51"/>
       <c r="E594" s="12" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="44"/>
-      <c r="D595" s="47"/>
+      <c r="C595" s="48"/>
+      <c r="D595" s="51"/>
       <c r="E595" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="44"/>
-      <c r="D596" s="47"/>
+      <c r="C596" s="48"/>
+      <c r="D596" s="51"/>
       <c r="E596" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="44"/>
-      <c r="D597" s="47"/>
+      <c r="C597" s="48"/>
+      <c r="D597" s="51"/>
       <c r="E597" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="44"/>
-      <c r="D598" s="47"/>
+      <c r="C598" s="48"/>
+      <c r="D598" s="51"/>
       <c r="E598" s="12" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="44"/>
-      <c r="D599" s="47"/>
+      <c r="C599" s="48"/>
+      <c r="D599" s="51"/>
       <c r="E599" s="12" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="44"/>
-      <c r="D600" s="47"/>
+      <c r="C600" s="48"/>
+      <c r="D600" s="51"/>
       <c r="E600" s="12" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="44"/>
-      <c r="D601" s="47"/>
+      <c r="C601" s="48"/>
+      <c r="D601" s="51"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="44"/>
-      <c r="D602" s="47"/>
+      <c r="C602" s="48"/>
+      <c r="D602" s="51"/>
       <c r="E602" s="12" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="45"/>
-      <c r="D603" s="48"/>
+      <c r="C603" s="49"/>
+      <c r="D603" s="52"/>
       <c r="E603" s="11" t="s">
         <v>778</v>
       </c>
@@ -11688,10 +11689,10 @@
       </c>
     </row>
     <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="43">
+      <c r="C605" s="47">
         <v>-3115</v>
       </c>
-      <c r="D605" s="46" t="s">
+      <c r="D605" s="50" t="s">
         <v>781</v>
       </c>
       <c r="E605" s="9" t="s">
@@ -11699,13 +11700,13 @@
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="44"/>
-      <c r="D606" s="47"/>
+      <c r="C606" s="48"/>
+      <c r="D606" s="51"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="45"/>
-      <c r="D607" s="48"/>
+      <c r="C607" s="49"/>
+      <c r="D607" s="52"/>
       <c r="E607" s="11" t="s">
         <v>783</v>
       </c>
@@ -11720,10 +11721,10 @@
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="43">
+      <c r="C609" s="47">
         <v>-3117</v>
       </c>
-      <c r="D609" s="46" t="s">
+      <c r="D609" s="50" t="s">
         <v>785</v>
       </c>
       <c r="E609" s="9" t="s">
@@ -11731,32 +11732,32 @@
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="44"/>
-      <c r="D610" s="47"/>
+      <c r="C610" s="48"/>
+      <c r="D610" s="51"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="44"/>
-      <c r="D611" s="47"/>
+      <c r="C611" s="48"/>
+      <c r="D611" s="51"/>
       <c r="E611" s="12" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="44"/>
-      <c r="D612" s="47"/>
+      <c r="C612" s="48"/>
+      <c r="D612" s="51"/>
       <c r="E612" s="12" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="44"/>
-      <c r="D613" s="47"/>
+      <c r="C613" s="48"/>
+      <c r="D613" s="51"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="45"/>
-      <c r="D614" s="48"/>
+      <c r="C614" s="49"/>
+      <c r="D614" s="52"/>
       <c r="E614" s="11" t="s">
         <v>789</v>
       </c>
@@ -11784,10 +11785,10 @@
       </c>
     </row>
     <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="43">
+      <c r="C617" s="47">
         <v>-3120</v>
       </c>
-      <c r="D617" s="46" t="s">
+      <c r="D617" s="50" t="s">
         <v>794</v>
       </c>
       <c r="E617" s="9" t="s">
@@ -11795,50 +11796,50 @@
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="44"/>
-      <c r="D618" s="47"/>
+      <c r="C618" s="48"/>
+      <c r="D618" s="51"/>
       <c r="E618" s="10"/>
     </row>
     <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="44"/>
-      <c r="D619" s="47"/>
+      <c r="C619" s="48"/>
+      <c r="D619" s="51"/>
       <c r="E619" s="12" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="44"/>
-      <c r="D620" s="47"/>
+      <c r="C620" s="48"/>
+      <c r="D620" s="51"/>
       <c r="E620" s="12" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="44"/>
-      <c r="D621" s="47"/>
+      <c r="C621" s="48"/>
+      <c r="D621" s="51"/>
       <c r="E621" s="12" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="44"/>
-      <c r="D622" s="47"/>
+      <c r="C622" s="48"/>
+      <c r="D622" s="51"/>
       <c r="E622" s="12" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="45"/>
-      <c r="D623" s="48"/>
+      <c r="C623" s="49"/>
+      <c r="D623" s="52"/>
       <c r="E623" s="11" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="43">
+      <c r="C624" s="47">
         <v>-3121</v>
       </c>
-      <c r="D624" s="46" t="s">
+      <c r="D624" s="50" t="s">
         <v>801</v>
       </c>
       <c r="E624" s="9" t="s">
@@ -11846,32 +11847,32 @@
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="44"/>
-      <c r="D625" s="47"/>
+      <c r="C625" s="48"/>
+      <c r="D625" s="51"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="44"/>
-      <c r="D626" s="47"/>
+      <c r="C626" s="48"/>
+      <c r="D626" s="51"/>
       <c r="E626" s="12" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="44"/>
-      <c r="D627" s="47"/>
+      <c r="C627" s="48"/>
+      <c r="D627" s="51"/>
       <c r="E627" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="44"/>
-      <c r="D628" s="47"/>
+      <c r="C628" s="48"/>
+      <c r="D628" s="51"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="45"/>
-      <c r="D629" s="48"/>
+      <c r="C629" s="49"/>
+      <c r="D629" s="52"/>
       <c r="E629" s="11" t="s">
         <v>805</v>
       </c>
@@ -11899,10 +11900,10 @@
       </c>
     </row>
     <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="43">
+      <c r="C632" s="47">
         <v>-3124</v>
       </c>
-      <c r="D632" s="46" t="s">
+      <c r="D632" s="50" t="s">
         <v>809</v>
       </c>
       <c r="E632" s="9" t="s">
@@ -11910,13 +11911,13 @@
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="44"/>
-      <c r="D633" s="47"/>
+      <c r="C633" s="48"/>
+      <c r="D633" s="51"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="45"/>
-      <c r="D634" s="48"/>
+      <c r="C634" s="49"/>
+      <c r="D634" s="52"/>
       <c r="E634" s="11" t="s">
         <v>811</v>
       </c>
@@ -11933,10 +11934,10 @@
       </c>
     </row>
     <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="43">
+      <c r="C636" s="47">
         <v>-3126</v>
       </c>
-      <c r="D636" s="46" t="s">
+      <c r="D636" s="50" t="s">
         <v>814</v>
       </c>
       <c r="E636" s="9" t="s">
@@ -11944,44 +11945,44 @@
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="44"/>
-      <c r="D637" s="47"/>
+      <c r="C637" s="48"/>
+      <c r="D637" s="51"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="44"/>
-      <c r="D638" s="47"/>
+      <c r="C638" s="48"/>
+      <c r="D638" s="51"/>
       <c r="E638" s="12" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="44"/>
-      <c r="D639" s="47"/>
+      <c r="C639" s="48"/>
+      <c r="D639" s="51"/>
       <c r="E639" s="12" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="44"/>
-      <c r="D640" s="47"/>
+      <c r="C640" s="48"/>
+      <c r="D640" s="51"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="44"/>
-      <c r="D641" s="47"/>
+      <c r="C641" s="48"/>
+      <c r="D641" s="51"/>
       <c r="E641" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="44"/>
-      <c r="D642" s="47"/>
+      <c r="C642" s="48"/>
+      <c r="D642" s="51"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="45"/>
-      <c r="D643" s="48"/>
+      <c r="C643" s="49"/>
+      <c r="D643" s="52"/>
       <c r="E643" s="11" t="s">
         <v>819</v>
       </c>
@@ -12009,10 +12010,10 @@
       </c>
     </row>
     <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="43">
+      <c r="C646" s="47">
         <v>-3129</v>
       </c>
-      <c r="D646" s="46" t="s">
+      <c r="D646" s="50" t="s">
         <v>822</v>
       </c>
       <c r="E646" s="9" t="s">
@@ -12020,58 +12021,58 @@
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="44"/>
-      <c r="D647" s="47"/>
+      <c r="C647" s="48"/>
+      <c r="D647" s="51"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="44"/>
-      <c r="D648" s="47"/>
+      <c r="C648" s="48"/>
+      <c r="D648" s="51"/>
       <c r="E648" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="44"/>
-      <c r="D649" s="47"/>
+      <c r="C649" s="48"/>
+      <c r="D649" s="51"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="44"/>
-      <c r="D650" s="47"/>
+      <c r="C650" s="48"/>
+      <c r="D650" s="51"/>
       <c r="E650" s="12" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="44"/>
-      <c r="D651" s="47"/>
+      <c r="C651" s="48"/>
+      <c r="D651" s="51"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="44"/>
-      <c r="D652" s="47"/>
+      <c r="C652" s="48"/>
+      <c r="D652" s="51"/>
       <c r="E652" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="44"/>
-      <c r="D653" s="47"/>
+      <c r="C653" s="48"/>
+      <c r="D653" s="51"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="45"/>
-      <c r="D654" s="48"/>
+      <c r="C654" s="49"/>
+      <c r="D654" s="52"/>
       <c r="E654" s="11" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="43">
+      <c r="C655" s="47">
         <v>-3130</v>
       </c>
-      <c r="D655" s="46" t="s">
+      <c r="D655" s="50" t="s">
         <v>828</v>
       </c>
       <c r="E655" s="9" t="s">
@@ -12079,13 +12080,13 @@
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="44"/>
-      <c r="D656" s="47"/>
+      <c r="C656" s="48"/>
+      <c r="D656" s="51"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="45"/>
-      <c r="D657" s="48"/>
+      <c r="C657" s="49"/>
+      <c r="D657" s="52"/>
       <c r="E657" s="11" t="s">
         <v>830</v>
       </c>
@@ -12124,10 +12125,10 @@
       </c>
     </row>
     <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="43">
+      <c r="C661" s="47">
         <v>-3134</v>
       </c>
-      <c r="D661" s="46" t="s">
+      <c r="D661" s="50" t="s">
         <v>836</v>
       </c>
       <c r="E661" s="9" t="s">
@@ -12135,25 +12136,25 @@
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="44"/>
-      <c r="D662" s="47"/>
+      <c r="C662" s="48"/>
+      <c r="D662" s="51"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="44"/>
-      <c r="D663" s="47"/>
+      <c r="C663" s="48"/>
+      <c r="D663" s="51"/>
       <c r="E663" s="12" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="44"/>
-      <c r="D664" s="47"/>
+      <c r="C664" s="48"/>
+      <c r="D664" s="51"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="45"/>
-      <c r="D665" s="48"/>
+      <c r="C665" s="49"/>
+      <c r="D665" s="52"/>
       <c r="E665" s="11" t="s">
         <v>838</v>
       </c>
@@ -12181,10 +12182,10 @@
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="43">
+      <c r="C668" s="47">
         <v>-3137</v>
       </c>
-      <c r="D668" s="46" t="s">
+      <c r="D668" s="50" t="s">
         <v>843</v>
       </c>
       <c r="E668" s="9" t="s">
@@ -12192,29 +12193,29 @@
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="44"/>
-      <c r="D669" s="47"/>
+      <c r="C669" s="48"/>
+      <c r="D669" s="51"/>
       <c r="E669" s="10"/>
     </row>
     <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="44"/>
-      <c r="D670" s="47"/>
+      <c r="C670" s="48"/>
+      <c r="D670" s="51"/>
       <c r="E670" s="12" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="45"/>
-      <c r="D671" s="48"/>
+      <c r="C671" s="49"/>
+      <c r="D671" s="52"/>
       <c r="E671" s="11" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="43">
+      <c r="C672" s="47">
         <v>-3138</v>
       </c>
-      <c r="D672" s="46" t="s">
+      <c r="D672" s="50" t="s">
         <v>847</v>
       </c>
       <c r="E672" s="9" t="s">
@@ -12222,34 +12223,34 @@
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="44"/>
-      <c r="D673" s="47"/>
+      <c r="C673" s="48"/>
+      <c r="D673" s="51"/>
       <c r="E673" s="10"/>
     </row>
     <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="44"/>
-      <c r="D674" s="47"/>
+      <c r="C674" s="48"/>
+      <c r="D674" s="51"/>
       <c r="E674" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="44"/>
-      <c r="D675" s="47"/>
+      <c r="C675" s="48"/>
+      <c r="D675" s="51"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="45"/>
-      <c r="D676" s="48"/>
+      <c r="C676" s="49"/>
+      <c r="D676" s="52"/>
       <c r="E676" s="11" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="43">
+      <c r="C677" s="47">
         <v>-3139</v>
       </c>
-      <c r="D677" s="46" t="s">
+      <c r="D677" s="50" t="s">
         <v>851</v>
       </c>
       <c r="E677" s="9" t="s">
@@ -12257,55 +12258,55 @@
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="44"/>
-      <c r="D678" s="47"/>
+      <c r="C678" s="48"/>
+      <c r="D678" s="51"/>
       <c r="E678" s="10"/>
     </row>
     <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="44"/>
-      <c r="D679" s="47"/>
+      <c r="C679" s="48"/>
+      <c r="D679" s="51"/>
       <c r="E679" s="12" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="44"/>
-      <c r="D680" s="47"/>
+      <c r="C680" s="48"/>
+      <c r="D680" s="51"/>
       <c r="E680" s="12" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="44"/>
-      <c r="D681" s="47"/>
+      <c r="C681" s="48"/>
+      <c r="D681" s="51"/>
       <c r="E681" s="12" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="44"/>
-      <c r="D682" s="47"/>
+      <c r="C682" s="48"/>
+      <c r="D682" s="51"/>
       <c r="E682" s="12" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="44"/>
-      <c r="D683" s="47"/>
+      <c r="C683" s="48"/>
+      <c r="D683" s="51"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="45"/>
-      <c r="D684" s="48"/>
+      <c r="C684" s="49"/>
+      <c r="D684" s="52"/>
       <c r="E684" s="11" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="43">
+      <c r="C685" s="47">
         <v>-3140</v>
       </c>
-      <c r="D685" s="46" t="s">
+      <c r="D685" s="50" t="s">
         <v>858</v>
       </c>
       <c r="E685" s="9" t="s">
@@ -12313,30 +12314,30 @@
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="44"/>
-      <c r="D686" s="47"/>
+      <c r="C686" s="48"/>
+      <c r="D686" s="51"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="44"/>
-      <c r="D687" s="47"/>
+      <c r="C687" s="48"/>
+      <c r="D687" s="51"/>
       <c r="E687" s="12"/>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="44"/>
-      <c r="D688" s="47"/>
+      <c r="C688" s="48"/>
+      <c r="D688" s="51"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="45"/>
-      <c r="D689" s="48"/>
+      <c r="C689" s="49"/>
+      <c r="D689" s="52"/>
       <c r="E689" s="11"/>
     </row>
     <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="43">
+      <c r="C690" s="47">
         <v>-3141</v>
       </c>
-      <c r="D690" s="46" t="s">
+      <c r="D690" s="50" t="s">
         <v>859</v>
       </c>
       <c r="E690" s="9" t="s">
@@ -12344,34 +12345,34 @@
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="44"/>
-      <c r="D691" s="47"/>
+      <c r="C691" s="48"/>
+      <c r="D691" s="51"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="44"/>
-      <c r="D692" s="47"/>
+      <c r="C692" s="48"/>
+      <c r="D692" s="51"/>
       <c r="E692" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="44"/>
-      <c r="D693" s="47"/>
+      <c r="C693" s="48"/>
+      <c r="D693" s="51"/>
       <c r="E693" s="10"/>
     </row>
     <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="45"/>
-      <c r="D694" s="48"/>
+      <c r="C694" s="49"/>
+      <c r="D694" s="52"/>
       <c r="E694" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="43">
+      <c r="C695" s="47">
         <v>-3142</v>
       </c>
-      <c r="D695" s="46" t="s">
+      <c r="D695" s="50" t="s">
         <v>862</v>
       </c>
       <c r="E695" s="9" t="s">
@@ -12379,34 +12380,34 @@
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="44"/>
-      <c r="D696" s="47"/>
+      <c r="C696" s="48"/>
+      <c r="D696" s="51"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="44"/>
-      <c r="D697" s="47"/>
+      <c r="C697" s="48"/>
+      <c r="D697" s="51"/>
       <c r="E697" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="44"/>
-      <c r="D698" s="47"/>
+      <c r="C698" s="48"/>
+      <c r="D698" s="51"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="45"/>
-      <c r="D699" s="48"/>
+      <c r="C699" s="49"/>
+      <c r="D699" s="52"/>
       <c r="E699" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="43">
+      <c r="C700" s="47">
         <v>-3143</v>
       </c>
-      <c r="D700" s="46" t="s">
+      <c r="D700" s="50" t="s">
         <v>865</v>
       </c>
       <c r="E700" s="9" t="s">
@@ -12414,37 +12415,37 @@
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="44"/>
-      <c r="D701" s="47"/>
+      <c r="C701" s="48"/>
+      <c r="D701" s="51"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="44"/>
-      <c r="D702" s="47"/>
+      <c r="C702" s="48"/>
+      <c r="D702" s="51"/>
       <c r="E702" s="12" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="44"/>
-      <c r="D703" s="47"/>
+      <c r="C703" s="48"/>
+      <c r="D703" s="51"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="44"/>
-      <c r="D704" s="47"/>
+      <c r="C704" s="48"/>
+      <c r="D704" s="51"/>
       <c r="E704" s="12" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="44"/>
-      <c r="D705" s="47"/>
+      <c r="C705" s="48"/>
+      <c r="D705" s="51"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="45"/>
-      <c r="D706" s="48"/>
+      <c r="C706" s="49"/>
+      <c r="D706" s="52"/>
       <c r="E706" s="11" t="s">
         <v>869</v>
       </c>
@@ -12483,10 +12484,10 @@
       </c>
     </row>
     <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="43">
+      <c r="C710" s="47">
         <v>-3147</v>
       </c>
-      <c r="D710" s="46" t="s">
+      <c r="D710" s="50" t="s">
         <v>875</v>
       </c>
       <c r="E710" s="21" t="s">
@@ -12494,55 +12495,55 @@
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="44"/>
-      <c r="D711" s="47"/>
+      <c r="C711" s="48"/>
+      <c r="D711" s="51"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="44"/>
-      <c r="D712" s="47"/>
+      <c r="C712" s="48"/>
+      <c r="D712" s="51"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="44"/>
-      <c r="D713" s="47"/>
+      <c r="C713" s="48"/>
+      <c r="D713" s="51"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="44"/>
-      <c r="D714" s="47"/>
+      <c r="C714" s="48"/>
+      <c r="D714" s="51"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="44"/>
-      <c r="D715" s="47"/>
+      <c r="C715" s="48"/>
+      <c r="D715" s="51"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="44"/>
-      <c r="D716" s="47"/>
+      <c r="C716" s="48"/>
+      <c r="D716" s="51"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="44"/>
-      <c r="D717" s="47"/>
+      <c r="C717" s="48"/>
+      <c r="D717" s="51"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="44"/>
-      <c r="D718" s="47"/>
+      <c r="C718" s="48"/>
+      <c r="D718" s="51"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="45"/>
-      <c r="D719" s="48"/>
+      <c r="C719" s="49"/>
+      <c r="D719" s="52"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="55" t="s">
+      <c r="C720" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="D720" s="57" t="s">
+      <c r="D720" s="45" t="s">
         <v>877</v>
       </c>
       <c r="E720" s="25" t="s">
@@ -12550,8 +12551,8 @@
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="56"/>
-      <c r="D721" s="58"/>
+      <c r="C721" s="44"/>
+      <c r="D721" s="46"/>
       <c r="E721" s="26" t="s">
         <v>879</v>
       </c>
@@ -12568,10 +12569,10 @@
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="55" t="s">
+      <c r="C723" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="D723" s="57" t="s">
+      <c r="D723" s="45" t="s">
         <v>884</v>
       </c>
       <c r="E723" s="28" t="s">
@@ -12579,8 +12580,8 @@
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="56"/>
-      <c r="D724" s="58"/>
+      <c r="C724" s="44"/>
+      <c r="D724" s="46"/>
       <c r="E724" s="26" t="s">
         <v>885</v>
       </c>
@@ -12630,22 +12631,22 @@
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="55" t="s">
+      <c r="C729" s="43" t="s">
         <v>898</v>
       </c>
       <c r="D729" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="E729" s="57" t="s">
+      <c r="E729" s="45" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="56"/>
+      <c r="C730" s="44"/>
       <c r="D730" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="E730" s="58"/>
+      <c r="E730" s="46"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
@@ -12723,2160 +12724,2298 @@
     </row>
     <row r="739" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C739" s="39" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D739" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E739" s="33"/>
     </row>
     <row r="740" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C740" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="741" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C741" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D741" t="s">
         <v>1020</v>
       </c>
-      <c r="D741" t="s">
-        <v>1021</v>
-      </c>
       <c r="E741" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="742" spans="3:5" ht="191.4" x14ac:dyDescent="0.4">
       <c r="C742" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D742" t="s">
         <v>1022</v>
       </c>
-      <c r="D742" t="s">
-        <v>1023</v>
-      </c>
       <c r="E742" s="33" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="743" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C743" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D743" t="s">
         <v>1024</v>
-      </c>
-      <c r="D743" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="744" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C744" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D744" t="s">
         <v>1026</v>
-      </c>
-      <c r="D744" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="745" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C745" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D745" t="s">
         <v>1028</v>
-      </c>
-      <c r="D745" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="746" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C746" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D746" t="s">
         <v>1030</v>
-      </c>
-      <c r="D746" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="747" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C747" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D747" t="s">
         <v>1032</v>
-      </c>
-      <c r="D747" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="748" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C748" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D748" t="s">
         <v>1034</v>
-      </c>
-      <c r="D748" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="749" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C749" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D749" t="s">
         <v>1036</v>
-      </c>
-      <c r="D749" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="750" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C750" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D750" t="s">
         <v>1038</v>
-      </c>
-      <c r="D750" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="751" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C751" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D751" t="s">
         <v>1040</v>
-      </c>
-      <c r="D751" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="752" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C752" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D752" t="s">
         <v>1042</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="753" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C753" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D753" t="s">
         <v>1044</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="754" spans="3:5" ht="104.4" x14ac:dyDescent="0.4">
       <c r="C754" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D754" t="s">
         <v>1046</v>
       </c>
-      <c r="D754" t="s">
-        <v>1047</v>
-      </c>
       <c r="E754" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="755" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C755" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D755" t="s">
         <v>1048</v>
-      </c>
-      <c r="D755" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="756" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C756" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D756" t="s">
         <v>1050</v>
-      </c>
-      <c r="D756" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="757" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C757" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D757" t="s">
         <v>1052</v>
-      </c>
-      <c r="D757" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="758" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C758" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D758" t="s">
         <v>1054</v>
-      </c>
-      <c r="D758" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="759" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C759" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D759" t="s">
         <v>1056</v>
-      </c>
-      <c r="D759" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="760" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C760" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D760" t="s">
         <v>1058</v>
       </c>
-      <c r="D760" t="s">
-        <v>1059</v>
-      </c>
       <c r="E760" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="761" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C761" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D761" t="s">
         <v>1060</v>
-      </c>
-      <c r="D761" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="762" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C762" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D762" t="s">
         <v>1062</v>
-      </c>
-      <c r="D762" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="763" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C763" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D763" t="s">
         <v>1064</v>
-      </c>
-      <c r="D763" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="764" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C764" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D764" t="s">
         <v>1066</v>
-      </c>
-      <c r="D764" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="765" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C765" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D765" t="s">
         <v>1068</v>
-      </c>
-      <c r="D765" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="766" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C766" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D766" t="s">
         <v>1070</v>
-      </c>
-      <c r="D766" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="767" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C767" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D767" t="s">
         <v>1072</v>
-      </c>
-      <c r="D767" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="768" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C768" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D768" t="s">
         <v>1074</v>
       </c>
-      <c r="D768" t="s">
-        <v>1075</v>
-      </c>
       <c r="E768" s="33" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="769" spans="3:5" ht="243.6" x14ac:dyDescent="0.4">
       <c r="C769" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D769" t="s">
         <v>1076</v>
       </c>
-      <c r="D769" t="s">
-        <v>1077</v>
-      </c>
       <c r="E769" s="33" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="770" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C770" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D770" t="s">
         <v>1078</v>
-      </c>
-      <c r="D770" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="771" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C771" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D771" t="s">
         <v>1080</v>
-      </c>
-      <c r="D771" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="772" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C772" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D772" t="s">
         <v>1082</v>
-      </c>
-      <c r="D772" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="773" spans="3:5" ht="156.6" x14ac:dyDescent="0.4">
       <c r="C773" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D773" t="s">
         <v>1084</v>
       </c>
-      <c r="D773" t="s">
-        <v>1085</v>
-      </c>
       <c r="E773" s="33" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="774" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C774" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D774" t="s">
         <v>1086</v>
-      </c>
-      <c r="D774" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="775" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C775" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D775" t="s">
         <v>1088</v>
-      </c>
-      <c r="D775" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="776" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C776" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D776" t="s">
         <v>1090</v>
-      </c>
-      <c r="D776" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="777" spans="3:5" ht="87" x14ac:dyDescent="0.4">
       <c r="C777" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D777" t="s">
         <v>1092</v>
       </c>
-      <c r="D777" t="s">
-        <v>1093</v>
-      </c>
       <c r="E777" s="33" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="778" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C778" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D778" t="s">
         <v>1094</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="779" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C779" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D779" t="s">
         <v>1096</v>
-      </c>
-      <c r="D779" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="780" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C780" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D780" t="s">
         <v>1098</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="781" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C781" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D781" t="s">
         <v>1100</v>
-      </c>
-      <c r="D781" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="782" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C782" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D782" t="s">
         <v>1102</v>
       </c>
-      <c r="D782" t="s">
-        <v>1103</v>
-      </c>
       <c r="E782" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="783" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C783" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D783" t="s">
         <v>1104</v>
       </c>
-      <c r="D783" t="s">
-        <v>1105</v>
-      </c>
       <c r="E783" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="784" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C784" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D784" t="s">
         <v>1106</v>
       </c>
-      <c r="D784" t="s">
-        <v>1107</v>
-      </c>
       <c r="E784" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="785" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C785" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D785" t="s">
         <v>1108</v>
       </c>
-      <c r="D785" t="s">
-        <v>1109</v>
-      </c>
       <c r="E785" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="786" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C786" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D786" t="s">
         <v>1110</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="787" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C787" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D787" t="s">
         <v>1112</v>
-      </c>
-      <c r="D787" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="788" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C788" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D788" t="s">
         <v>1114</v>
-      </c>
-      <c r="D788" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="789" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C789" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D789" t="s">
         <v>1116</v>
-      </c>
-      <c r="D789" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="790" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C790" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D790" t="s">
         <v>1118</v>
-      </c>
-      <c r="D790" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="791" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C791" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D791" t="s">
         <v>1120</v>
-      </c>
-      <c r="D791" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="792" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C792" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D792" t="s">
         <v>1122</v>
-      </c>
-      <c r="D792" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="793" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C793" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D793" t="s">
         <v>1124</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="794" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C794" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D794" t="s">
         <v>1126</v>
-      </c>
-      <c r="D794" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="795" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C795" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D795" t="s">
         <v>1128</v>
-      </c>
-      <c r="D795" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="796" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C796" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D796" t="s">
         <v>1130</v>
-      </c>
-      <c r="D796" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="797" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C797" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D797" t="s">
         <v>1132</v>
-      </c>
-      <c r="D797" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="798" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C798" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D798" t="s">
         <v>1134</v>
-      </c>
-      <c r="D798" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="799" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C799" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D799" t="s">
         <v>1136</v>
-      </c>
-      <c r="D799" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="800" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C800" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D800" t="s">
         <v>1138</v>
-      </c>
-      <c r="D800" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C801" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D801" t="s">
         <v>1140</v>
-      </c>
-      <c r="D801" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C802" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D802" t="s">
         <v>1142</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C803" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D803" t="s">
         <v>1144</v>
-      </c>
-      <c r="D803" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C804" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D804" t="s">
         <v>1146</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C805" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D805" t="s">
         <v>1148</v>
-      </c>
-      <c r="D805" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C806" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D806" t="s">
         <v>1150</v>
-      </c>
-      <c r="D806" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C807" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D807" t="s">
         <v>1152</v>
-      </c>
-      <c r="D807" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="808" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C808" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D808" t="s">
         <v>1154</v>
-      </c>
-      <c r="D808" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C809" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D809" t="s">
         <v>1156</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C810" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D810" t="s">
         <v>1158</v>
-      </c>
-      <c r="D810" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C811" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D811" t="s">
         <v>1160</v>
-      </c>
-      <c r="D811" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C812" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D812" t="s">
         <v>1162</v>
-      </c>
-      <c r="D812" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C813" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D813" t="s">
         <v>1164</v>
-      </c>
-      <c r="D813" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C814" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D814" t="s">
         <v>1166</v>
-      </c>
-      <c r="D814" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C815" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D815" t="s">
         <v>1168</v>
-      </c>
-      <c r="D815" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C816" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D816" t="s">
         <v>1170</v>
-      </c>
-      <c r="D816" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="817" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C817" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D817" t="s">
         <v>1172</v>
-      </c>
-      <c r="D817" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="818" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C818" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D818" t="s">
         <v>1174</v>
-      </c>
-      <c r="D818" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="819" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C819" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D819" t="s">
         <v>1176</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="820" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C820" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D820" t="s">
         <v>1178</v>
-      </c>
-      <c r="D820" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="821" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C821" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D821" t="s">
         <v>1180</v>
-      </c>
-      <c r="D821" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="822" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C822" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D822" t="s">
         <v>1182</v>
-      </c>
-      <c r="D822" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="823" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C823" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D823" t="s">
         <v>1184</v>
-      </c>
-      <c r="D823" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="824" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C824" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D824" t="s">
         <v>1186</v>
-      </c>
-      <c r="D824" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="825" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C825" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D825" t="s">
         <v>1188</v>
-      </c>
-      <c r="D825" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="826" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C826" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D826" t="s">
         <v>1190</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="827" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C827" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D827" t="s">
         <v>1192</v>
-      </c>
-      <c r="D827" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="828" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C828" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D828" t="s">
         <v>1194</v>
-      </c>
-      <c r="D828" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="829" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C829" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D829" t="s">
         <v>1196</v>
-      </c>
-      <c r="D829" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="830" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C830" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D830" t="s">
         <v>1198</v>
-      </c>
-      <c r="D830" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="831" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C831" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D831" t="s">
         <v>1200</v>
-      </c>
-      <c r="D831" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="832" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C832" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D832" t="s">
         <v>1202</v>
-      </c>
-      <c r="D832" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="833" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C833" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D833" t="s">
         <v>1204</v>
-      </c>
-      <c r="D833" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="834" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C834" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D834" t="s">
         <v>1206</v>
-      </c>
-      <c r="D834" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="835" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C835" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D835" t="s">
         <v>1208</v>
-      </c>
-      <c r="D835" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="836" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C836" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D836" t="s">
         <v>1210</v>
-      </c>
-      <c r="D836" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="837" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C837" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D837" t="s">
         <v>1212</v>
-      </c>
-      <c r="D837" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="838" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C838" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D838" t="s">
         <v>1214</v>
-      </c>
-      <c r="D838" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="839" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C839" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D839" t="s">
         <v>1216</v>
-      </c>
-      <c r="D839" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="840" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C840" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D840" t="s">
         <v>1218</v>
-      </c>
-      <c r="D840" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="841" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C841" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D841" t="s">
         <v>1220</v>
-      </c>
-      <c r="D841" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C842" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D842" t="s">
         <v>1222</v>
-      </c>
-      <c r="D842" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="843" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C843" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D843" t="s">
         <v>1224</v>
-      </c>
-      <c r="D843" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="844" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C844" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D844" t="s">
         <v>1226</v>
-      </c>
-      <c r="D844" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="845" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C845" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D845" t="s">
         <v>1228</v>
-      </c>
-      <c r="D845" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="846" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C846" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D846" t="s">
         <v>1230</v>
-      </c>
-      <c r="D846" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="847" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C847" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D847" t="s">
         <v>1232</v>
-      </c>
-      <c r="D847" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="848" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C848" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D848" t="s">
         <v>1234</v>
-      </c>
-      <c r="D848" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="849" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C849" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D849" t="s">
         <v>1236</v>
-      </c>
-      <c r="D849" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="850" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C850" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D850" t="s">
         <v>1238</v>
-      </c>
-      <c r="D850" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="851" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C851" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D851" t="s">
         <v>1240</v>
-      </c>
-      <c r="D851" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="852" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C852" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D852" t="s">
         <v>1242</v>
-      </c>
-      <c r="D852" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="853" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C853" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D853" t="s">
         <v>1244</v>
-      </c>
-      <c r="D853" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="854" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C854" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D854" t="s">
         <v>1246</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="855" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C855" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D855" t="s">
         <v>1248</v>
-      </c>
-      <c r="D855" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="856" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C856" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D856" t="s">
         <v>1250</v>
-      </c>
-      <c r="D856" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="857" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C857" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D857" t="s">
         <v>1252</v>
-      </c>
-      <c r="D857" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="858" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C858" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D858" t="s">
         <v>1254</v>
-      </c>
-      <c r="D858" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="859" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C859" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D859" t="s">
         <v>1256</v>
-      </c>
-      <c r="D859" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="860" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C860" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D860" t="s">
         <v>1258</v>
-      </c>
-      <c r="D860" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="861" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C861" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D861" t="s">
         <v>1260</v>
-      </c>
-      <c r="D861" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="862" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C862" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D862" t="s">
         <v>1262</v>
-      </c>
-      <c r="D862" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="863" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C863" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D863" t="s">
         <v>1264</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="864" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C864" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D864" t="s">
         <v>1266</v>
-      </c>
-      <c r="D864" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="865" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C865" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D865" t="s">
         <v>1268</v>
-      </c>
-      <c r="D865" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="866" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C866" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D866" t="s">
         <v>1270</v>
-      </c>
-      <c r="D866" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="867" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C867" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D867" t="s">
         <v>1272</v>
-      </c>
-      <c r="D867" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="868" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C868" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D868" t="s">
         <v>1274</v>
-      </c>
-      <c r="D868" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="869" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C869" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D869" t="s">
         <v>1276</v>
-      </c>
-      <c r="D869" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="870" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C870" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D870" t="s">
         <v>1278</v>
-      </c>
-      <c r="D870" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="871" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C871" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D871" t="s">
         <v>1280</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="872" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C872" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D872" t="s">
         <v>1282</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="873" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C873" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D873" t="s">
         <v>1284</v>
-      </c>
-      <c r="D873" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="874" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C874" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D874" t="s">
         <v>1286</v>
-      </c>
-      <c r="D874" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="875" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C875" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D875" t="s">
         <v>1288</v>
-      </c>
-      <c r="D875" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="876" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C876" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D876" t="s">
         <v>1290</v>
-      </c>
-      <c r="D876" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="877" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C877" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D877" t="s">
         <v>1292</v>
-      </c>
-      <c r="D877" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="878" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C878" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D878" t="s">
         <v>1294</v>
-      </c>
-      <c r="D878" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="879" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C879" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D879" t="s">
         <v>1296</v>
-      </c>
-      <c r="D879" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="880" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C880" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D880" t="s">
         <v>1298</v>
-      </c>
-      <c r="D880" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="881" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C881" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D881" t="s">
         <v>1300</v>
-      </c>
-      <c r="D881" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="882" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C882" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D882" t="s">
         <v>1302</v>
-      </c>
-      <c r="D882" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="883" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C883" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D883" t="s">
         <v>1304</v>
-      </c>
-      <c r="D883" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="884" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C884" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D884" t="s">
         <v>1306</v>
-      </c>
-      <c r="D884" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="885" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C885" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D885" t="s">
         <v>1308</v>
-      </c>
-      <c r="D885" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="886" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C886" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D886" t="s">
         <v>1310</v>
-      </c>
-      <c r="D886" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="887" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C887" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D887" t="s">
         <v>1312</v>
-      </c>
-      <c r="D887" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="888" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C888" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D888" t="s">
         <v>1314</v>
-      </c>
-      <c r="D888" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="889" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C889" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D889" t="s">
         <v>1316</v>
-      </c>
-      <c r="D889" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="890" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C890" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D890" t="s">
         <v>1318</v>
-      </c>
-      <c r="D890" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="891" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C891" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D891" t="s">
         <v>1320</v>
-      </c>
-      <c r="D891" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="892" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C892" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D892" t="s">
         <v>1322</v>
-      </c>
-      <c r="D892" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="893" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C893" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D893" t="s">
         <v>1324</v>
-      </c>
-      <c r="D893" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="894" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C894" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D894" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="895" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C895" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D895" t="s">
         <v>1327</v>
-      </c>
-      <c r="D895" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="896" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C896" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D896" t="s">
         <v>1329</v>
-      </c>
-      <c r="D896" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="897" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C897" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D897" t="s">
         <v>1331</v>
-      </c>
-      <c r="D897" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="898" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C898" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D898" t="s">
         <v>1333</v>
-      </c>
-      <c r="D898" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="899" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C899" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D899" t="s">
         <v>1335</v>
-      </c>
-      <c r="D899" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="900" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C900" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D900" t="s">
         <v>1337</v>
-      </c>
-      <c r="D900" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="901" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C901" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D901" t="s">
         <v>1339</v>
-      </c>
-      <c r="D901" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="902" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C902" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D902" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="903" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C903" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D903" t="s">
         <v>1342</v>
-      </c>
-      <c r="D903" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="904" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C904" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D904" t="s">
         <v>1344</v>
-      </c>
-      <c r="D904" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="905" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C905" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D905" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="906" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C906" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D906" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="907" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C907" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D907" t="s">
         <v>1348</v>
-      </c>
-      <c r="D907" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="908" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C908" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D908" t="s">
         <v>1350</v>
-      </c>
-      <c r="D908" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="909" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C909" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D909" t="s">
         <v>1352</v>
-      </c>
-      <c r="D909" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="910" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C910" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D910" t="s">
         <v>1354</v>
-      </c>
-      <c r="D910" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="911" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C911" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D911" t="s">
         <v>1356</v>
-      </c>
-      <c r="D911" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="912" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C912" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D912" t="s">
         <v>1358</v>
-      </c>
-      <c r="D912" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="913" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C913" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D913" t="s">
         <v>1360</v>
-      </c>
-      <c r="D913" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="914" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C914" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D914" t="s">
         <v>1362</v>
-      </c>
-      <c r="D914" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="915" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C915" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D915" t="s">
         <v>1364</v>
-      </c>
-      <c r="D915" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="916" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C916" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D916" t="s">
         <v>1366</v>
-      </c>
-      <c r="D916" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="917" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C917" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D917" t="s">
         <v>1368</v>
-      </c>
-      <c r="D917" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="918" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C918" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D918" t="s">
         <v>1370</v>
-      </c>
-      <c r="D918" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="919" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C919" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D919" t="s">
         <v>1372</v>
-      </c>
-      <c r="D919" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="920" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C920" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D920" t="s">
         <v>1374</v>
-      </c>
-      <c r="D920" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="921" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C921" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D921" t="s">
         <v>1376</v>
-      </c>
-      <c r="D921" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="922" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C922" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D922" t="s">
         <v>1378</v>
-      </c>
-      <c r="D922" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="923" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C923" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D923" t="s">
         <v>1380</v>
-      </c>
-      <c r="D923" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="924" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C924" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D924" t="s">
         <v>1382</v>
-      </c>
-      <c r="D924" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="925" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C925" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D925" t="s">
         <v>1384</v>
-      </c>
-      <c r="D925" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="926" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C926" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D926" t="s">
         <v>1386</v>
-      </c>
-      <c r="D926" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="927" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C927" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D927" t="s">
         <v>1388</v>
-      </c>
-      <c r="D927" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="928" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C928" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D928" t="s">
         <v>1390</v>
-      </c>
-      <c r="D928" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="929" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C929" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D929" t="s">
         <v>1392</v>
-      </c>
-      <c r="D929" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="930" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C930" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D930" t="s">
         <v>1394</v>
-      </c>
-      <c r="D930" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="931" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C931" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D931" t="s">
         <v>1396</v>
-      </c>
-      <c r="D931" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="932" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C932" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D932" t="s">
         <v>1398</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="933" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C933" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D933" t="s">
         <v>1400</v>
-      </c>
-      <c r="D933" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="934" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C934" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D934" t="s">
         <v>1402</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="935" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C935" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D935" t="s">
         <v>1404</v>
-      </c>
-      <c r="D935" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="936" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C936" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D936" t="s">
         <v>1406</v>
-      </c>
-      <c r="D936" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="937" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C937" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D937" t="s">
         <v>1408</v>
-      </c>
-      <c r="D937" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="938" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C938" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D938" t="s">
         <v>1410</v>
-      </c>
-      <c r="D938" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="939" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C939" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D939" t="s">
         <v>1412</v>
-      </c>
-      <c r="D939" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="940" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C940" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D940" t="s">
         <v>1414</v>
-      </c>
-      <c r="D940" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="941" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C941" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D941" t="s">
         <v>1416</v>
-      </c>
-      <c r="D941" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="942" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C942" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D942" t="s">
         <v>1418</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="943" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C943" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D943" t="s">
         <v>1420</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="944" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C944" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D944" t="s">
         <v>1422</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="945" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C945" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D945" t="s">
         <v>1424</v>
-      </c>
-      <c r="D945" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="946" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C946" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D946" t="s">
         <v>1426</v>
-      </c>
-      <c r="D946" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="947" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C947" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D947" t="s">
         <v>1428</v>
-      </c>
-      <c r="D947" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C948" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D948" t="s">
         <v>1430</v>
-      </c>
-      <c r="D948" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C949" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D949" t="s">
         <v>1432</v>
-      </c>
-      <c r="D949" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="950" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C950" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D950" t="s">
         <v>1434</v>
-      </c>
-      <c r="D950" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="951" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C951" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D951" t="s">
         <v>1436</v>
-      </c>
-      <c r="D951" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C952" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D952" t="s">
         <v>1438</v>
-      </c>
-      <c r="D952" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="953" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C953" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D953" t="s">
         <v>1440</v>
-      </c>
-      <c r="D953" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="954" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C954" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D954" t="s">
         <v>1442</v>
-      </c>
-      <c r="D954" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="955" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C955" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D955" t="s">
         <v>1444</v>
-      </c>
-      <c r="D955" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C956" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D956" t="s">
         <v>1446</v>
-      </c>
-      <c r="D956" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C957" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D957" t="s">
         <v>1448</v>
-      </c>
-      <c r="D957" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C958" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D958" t="s">
         <v>1450</v>
-      </c>
-      <c r="D958" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="959" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C959" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D959" t="s">
         <v>1452</v>
-      </c>
-      <c r="D959" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C960" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D960" t="s">
         <v>1454</v>
-      </c>
-      <c r="D960" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="961" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C961" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D961" t="s">
         <v>1456</v>
-      </c>
-      <c r="D961" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="962" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C962" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D962" t="s">
         <v>1458</v>
-      </c>
-      <c r="D962" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="963" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C963" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D963" t="s">
         <v>1460</v>
-      </c>
-      <c r="D963" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="964" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C964" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D964" t="s">
         <v>1462</v>
-      </c>
-      <c r="D964" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="965" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C965" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D965" t="s">
         <v>1464</v>
-      </c>
-      <c r="D965" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="966" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C966" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D966" t="s">
         <v>1466</v>
-      </c>
-      <c r="D966" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="967" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C967" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D967" t="s">
         <v>1468</v>
-      </c>
-      <c r="D967" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="968" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C968" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D968" t="s">
         <v>1470</v>
-      </c>
-      <c r="D968" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="969" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C969" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D969" t="s">
         <v>1472</v>
-      </c>
-      <c r="D969" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="970" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C970" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D970" t="s">
         <v>1474</v>
-      </c>
-      <c r="D970" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="971" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C971" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D971" t="s">
         <v>1476</v>
-      </c>
-      <c r="D971" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="972" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C972" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D972" t="s">
         <v>1478</v>
-      </c>
-      <c r="D972" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="973" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C973" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D973" t="s">
         <v>1480</v>
-      </c>
-      <c r="D973" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="974" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C974" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D974" t="s">
         <v>1482</v>
-      </c>
-      <c r="D974" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="975" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C975" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D975" t="s">
         <v>1484</v>
-      </c>
-      <c r="D975" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="976" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C976" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D976" t="s">
         <v>1486</v>
-      </c>
-      <c r="D976" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="977" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C977" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D977" t="s">
         <v>1488</v>
-      </c>
-      <c r="D977" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="978" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C978" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D978" t="s">
         <v>1490</v>
-      </c>
-      <c r="D978" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="979" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C979" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D979" t="s">
         <v>1492</v>
-      </c>
-      <c r="D979" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="980" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C980" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D980" t="s">
         <v>1494</v>
-      </c>
-      <c r="D980" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="981" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C981" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D981" t="s">
         <v>1496</v>
-      </c>
-      <c r="D981" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="982" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C982" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D982" t="s">
         <v>1498</v>
-      </c>
-      <c r="D982" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="983" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C983" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D983" t="s">
         <v>1500</v>
-      </c>
-      <c r="D983" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="984" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C984" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D984" t="s">
         <v>1502</v>
-      </c>
-      <c r="D984" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="985" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C985" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D985" t="s">
         <v>1504</v>
-      </c>
-      <c r="D985" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="986" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C986" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D986" t="s">
         <v>1506</v>
-      </c>
-      <c r="D986" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="987" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C987" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D987" t="s">
         <v>1508</v>
-      </c>
-      <c r="D987" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="988" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C988" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D988" t="s">
         <v>1510</v>
-      </c>
-      <c r="D988" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="989" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C989" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D989" t="s">
         <v>1512</v>
-      </c>
-      <c r="D989" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="990" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C990" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D990" t="s">
         <v>1514</v>
-      </c>
-      <c r="D990" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="991" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C991" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D991" t="s">
         <v>1516</v>
-      </c>
-      <c r="D991" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="992" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C992" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D992" t="s">
         <v>1518</v>
-      </c>
-      <c r="D992" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="993" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C993" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D993" t="s">
         <v>1520</v>
-      </c>
-      <c r="D993" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="994" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C994" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D994" t="s">
         <v>1522</v>
-      </c>
-      <c r="D994" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="995" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C995" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D995" t="s">
         <v>1524</v>
-      </c>
-      <c r="D995" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="996" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C996" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D996" t="s">
         <v>1526</v>
-      </c>
-      <c r="D996" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="997" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C997" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D997" t="s">
         <v>1528</v>
-      </c>
-      <c r="D997" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="998" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C998" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D998" t="s">
         <v>1530</v>
-      </c>
-      <c r="D998" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="999" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C999" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D999" t="s">
         <v>1532</v>
-      </c>
-      <c r="D999" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="1000" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C1000" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D1000" t="s">
         <v>1534</v>
-      </c>
-      <c r="D1000" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="1001" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C1001" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D1001" t="s">
         <v>1536</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="1002" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C1002" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D1002" t="s">
         <v>1538</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="1003" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C1003" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D1003" t="s">
         <v>1540</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>1541</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -14891,144 +15030,6 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1579">
   <si>
     <t>코드</t>
   </si>
@@ -3155,12 +3155,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>황준혁: 케이씨텍 CS팀하다가 로봇앤드디자인 영업팀으로 오더니 23년도인가 퇴사때림.
-이후 대전 한라 공조 간다고 뻥치다가 오로스 영업팀으로 간걸 들킴. (신장섭이 오로스 CS작업 하러갔는데 클린룸에서 황준혁이 교육 받고 있는걸 들켜서 'xx놈아' 시전)
-오로스는 현재 로봇앤드디자인이랑 거래 안함.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>오로스 황준혁</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3726,12 +3720,6 @@
     3:   The deceleration will be the value defined for the motion. The motion will not overshoot its approximate end point. 
 This value is set to 0 by default.
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기어비
-This is an array of scale factors that is used to convert joint positions to corresponding motor positions. For simple, uncoupled axes, there is a single scale factor for performing this conversion. For mechanically coupled motors, a square matrix of scale factors converts from joint positions to motor positions. For example, if a robot consists of 3 uncoupled axes, this array consists of 3 scale factors. As another example, if the robot consists of an X axis followed by a Y axis that is coupled to the X due to non-perpendicular followed by an uncoupled Z axis, this array will consist of a 2x2 matrix followed by a single scalar. The scale factors convert from units of degrees or millimeters to encoder counts.
-When any of the scale factors are changed, the robot is marked as "not homed" and a homing operation must be performed. </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5424,6 +5412,221 @@
 제어기 상단 커버 오픈 후 마스터 보드 - IO 보드간 랜선 재 체결
 제어기 재부팅
 This indicates that the DC motor bus has dropped too low. This can occur if the bus voltage does not rise above 10V when power is first enabled or if the bus voltage falls too far (typically 30%) below its nominal value at any time after power has been enabled. If this error persists, it could be due to a fuse on the Motor Power Supply being blown. To monitor the DC bus voltage, see "Raw DC bus voltage, volt" (DataID 12684). To see the current setting of the nominal voltage look at "Nominal DCbus voltage, volt" (DataID 12683). </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor Setup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6000제어기 모터 셋업
+모터 사양 상관없이 공통
+10775
+commutation offset 710000~720000
+50W, 100W 모터 셋업 시
+10611 rated current: 1.1
+10656 kp : 0.1
+10657 kd : 0.6
+200W
+rated current: 1.5
+kp 0.1
+kd 3
+400W
+rated current: 2.4
+kp 0.12
+kd 4
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000제어기 모터 셋업
+모터 사양 상관없이 공통
+10775
+commutation offset 710000~720000
+50W, 100W 모터 셋업 시
+10611 rated current: 1.1
+10656 kp : 0.05
+10657 kd : 0.4
+200W
+rated current: 1.5
+kp 0.05
+kd 1.4
+400W
+rated current: 2.4
+kp 0.05
+kd 3
+750W
+rated current: 4.1
+kp 0.05
+kd 1.4
+1kW
+rated current: 5.7
+kp 0.015
+kd 0.6
+--------------------------------------------------------------------</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an array of scale factors that is used to convert joint positions to corresponding motor positions. For simple, uncoupled axes, there is a single scale factor for performing this conversion. For mechanically coupled motors, a square matrix of scale factors converts from joint positions to motor positions. For example, if a robot consists of 3 uncoupled axes, this array consists of 3 scale factors. As another example, if the robot consists of an X axis followed by a Y axis that is coupled to the X due to non-perpendicular followed by an uncoupled Z axis, this array will consist of a 2x2 matrix followed by a single scalar. The scale factors convert from units of degrees or millimeters to encoder counts.
+When any of the scale factors are changed, the robot is marked as "not homed" and a homing operation must be performed. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 기어 및 엔코더 사양에 따라 변경되는 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 동작에 따른 Stady State 에러</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 속도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 가속도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 HardSotpper 감지 기준 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔코더 사양에 의해서 결정되는값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
+  </si>
+  <si>
+    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 숫자의 합으로 피드백 제어를 어떻게 할껀지 설정
+48: 표준
+64: 모션이 끝날때 I gain 적용. 적용 시 동작 끝나고 I gain으로 살짝 움직이는 경우가 있음
+128: 각 동작 중 I gain 값을 래치.
+최종 위치 오차를 빠르게 없앨 수 있음.
+중력 부하 받는 축에 유용
+512: 다음 동작이 시작될 때까지 friction ffwd 토크를 지우도록 동작을 지연함.
+"ffwd torque rate limit"(ID 10348)도 참조. 이것은 Friction ffwd가 0이 되어 모션 종료시 출력 토크의 갑작스런 변화를 줄이기 위해 사용할 수있는 독립적인 매개 변수.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>황준혁: 케이씨텍 CS팀하다가 로봇앤드디자인 영업팀으로 오더니 23년도인가 퇴사때림.
+이후 대전 한라 공조 간다고 뻥치다가 오로스 영업팀으로 간걸 들킴. (신장섭이 오로스 CS작업 하러갔는데 클린룸에서 황준혁이 교육 받고 있는걸 들켜서 'xx놈아' 시전)
+오로스는 현재 로봇앤드디자인이랑 거래 안함.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Stop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Motor Power Off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kd 보상에 사용되는 속도 오차에 대한 LowPass filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
+잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
+잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>높일 수록 오차 감소, 진동 증가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 계측이 불가한 경우 Kp(ID10331)와 비율이 유지되도록 설정값 조정, 임계값 까지 값을 올릴 수록 진동이 줄어드나, 
+임계값 이후로는 진동이 커짐, 임계값 근처에서는 하드웨어 변동에 민감하여, 로봇의 위치 구조에 따라 진동이 발생하므로, 임계값의 75% 이하 수준으로 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady State Error를 없에기 위한 게인, 10300번 설정을 112로 설정한 축(X1,X2)을 제외하면 높일 수록 진동이 늘어날 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 보상 Limit 너무 값이 낮을 경우 로봇 동작 완료 후 정위치가 틀어질 수 있음, 너무 높은 경우 정위치 도달을 위해 힘이 계속해서 올라갈 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 보상 변화율 Limit W축 제자리 에서 진동 발생시 설정 값 줄임, 정위치 찾아가는데 시간이 오래 걸릴 경우 설정값 UP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇의 관성 보상 설정값, 로봇 자체의 무게 Or 출력 효율에 변동이 없다면 변동되지 않음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성 마찰 보상 설정값// 구리스 점도 및 로봇의 온도에 따라 설정값이 변동될 수 있음,
+진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진 Or 눈에 보이지 않는 잔진동으로 인한 출력 에러가 있을 시 공진 보상 값, 적정값 이상 높게 설정하는 경우 제자리에서 진동이 발생됨
+공진이 발생하는 경우 Wafer가 없을 때 육안상 진동이 잘 보이지 않으나, 손으로 End Effector를 만졌을 때, Wafer를 올려 놓았을 때 진동이 확인됨
+A6 모터에서 0~0.04까지 안정적으로 사용이 가능하며(시험적으로 확인된 값), 해당 값 이상으로 공진 억제를 위해 값을 올릴 경우 제자리에서 진동이 발생할 수 있음
+10338 값이 높아 제자리에서 진동이 발생하는 경우 “ID 10327 Accel error DPR filter pole, Hz” 값을 조정하여 정지 상태에서 공진을 억제하거나 해당 설정값을 낮추어야 함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dry 마찰 보상값//실제 마찰 값보다 높을 경우 정크 동작이 발생할 수 있음, 
+적정값 값을 찾을 수 없다면 확실하게 낮은 값 또는 0으로 설정할 것을 권장, 진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마찰 및 관성 보상 Command Torque변화율 Limit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 축 중력 보상 설정값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
+마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
+마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID 출력 제한 Block 최대 시간, PID 출력 제한을 설정하는 경우 예측 값과 실 필요 출력 사이 차이가 PID Limit 값보다 큰 경우 PID Limit으로 값이 Block 되며, Block 된 시간이 Block최대 시간 이상 길어지는경우 에러가 발생함
+931 에러가 발생하는 경우 Limit 시간을 늘리고, 엔코더 좌표 및 실 End effector 위치가 목표 위치에 잘 도달해 있는지 확인, 만약 목표 위치에 잘 도달해 해당 위치를 유지한다면, 값을 늘려도 무관함, 
+구동력을 전달하는 기구요소에 벨트가 있는경우 벨트 장력 불균형 문제로 값을 늘려야 할수 있음 - 좌표값을 유지하지 못하거나, 좌표값은 맞으나, 실 End Effector 위치 틀어짐이 발생하는 경우 하드웨어 점검이 필수적임
+GPL 버전이 낮을 경우 내부 파라미터 고정값으로 설정이 불가함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 사양서 설정값, 모터 사양이 바뀔때만 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 사양서 설정값, 모터 파손 이슈가 있는 경우 모터 파손을 방지하기위해 모터 공칭 사양보다 낮게 설정할 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5795,18 +5998,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5842,6 +6033,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6123,17 +6326,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E1003"/>
+  <dimension ref="C1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="E575" sqref="E575"/>
+    <sheetView tabSelected="1" topLeftCell="A937" workbookViewId="0">
+      <selection activeCell="E949" sqref="E949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="35.296875" customWidth="1"/>
     <col min="4" max="4" width="52.8984375" customWidth="1"/>
-    <col min="5" max="5" width="113.796875" customWidth="1"/>
+    <col min="5" max="5" width="64.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.4">
@@ -6147,15 +6350,15 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:5" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2">
         <v>1022078788</v>
       </c>
       <c r="D2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>943</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6169,7 +6372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:5" ht="328.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
         <v>4</v>
       </c>
@@ -6177,7 +6380,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6191,7 +6394,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>194</v>
       </c>
@@ -6199,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="126" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6207,7 +6410,7 @@
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>925</v>
@@ -6229,7 +6432,7 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>929</v>
@@ -6257,7 +6460,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="172.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:5" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>206</v>
       </c>
@@ -6323,7 +6526,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:5" ht="94.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <v>212</v>
       </c>
@@ -6345,7 +6548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="141.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:5" ht="157.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <v>214</v>
       </c>
@@ -6386,7 +6589,7 @@
         <v>942</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6394,13 +6597,13 @@
         <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="297.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="3:5" ht="375.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <v>241</v>
       </c>
@@ -6408,7 +6611,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6419,7 +6622,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6433,7 +6636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <v>253</v>
       </c>
@@ -6441,7 +6644,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6452,7 +6655,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6477,7 +6680,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <v>1012</v>
       </c>
@@ -6485,7 +6688,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6496,7 +6699,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6507,7 +6710,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6518,10 +6721,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <v>1016</v>
       </c>
@@ -6529,7 +6732,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6540,10 +6743,10 @@
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <v>1021</v>
       </c>
@@ -6551,7 +6754,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6562,7 +6765,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6742,10 +6945,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="53">
+      <c r="C56" s="49">
         <v>1061</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -6753,15 +6956,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="54"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="55"/>
-      <c r="D58" s="58"/>
+    <row r="58" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -6862,7 +7065,7 @@
         <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6876,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C69" s="7">
         <v>-200</v>
       </c>
@@ -6887,7 +7090,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C70" s="7">
         <v>-201</v>
       </c>
@@ -6898,7 +7101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C71" s="7">
         <v>-202</v>
       </c>
@@ -6909,7 +7112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C72" s="7">
         <v>-203</v>
       </c>
@@ -6920,7 +7123,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C73" s="7">
         <v>-204</v>
       </c>
@@ -6931,7 +7134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C74" s="7">
         <v>-205</v>
       </c>
@@ -6942,7 +7145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C75" s="7">
         <v>-206</v>
       </c>
@@ -6953,7 +7156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C76" s="7">
         <v>-207</v>
       </c>
@@ -6965,10 +7168,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="47">
+      <c r="C77" s="43">
         <v>-208</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -6976,18 +7179,18 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="48"/>
-      <c r="D78" s="51"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="49"/>
-      <c r="D79" s="52"/>
+    <row r="79" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C80" s="7">
         <v>-209</v>
       </c>
@@ -6998,7 +7201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C81" s="7">
         <v>-210</v>
       </c>
@@ -7009,11 +7212,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C82" s="47">
+    <row r="82" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C82" s="43">
         <v>-211</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -7021,158 +7224,158 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="48"/>
-      <c r="D83" s="51"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="48"/>
-      <c r="D85" s="51"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C87" s="48"/>
-      <c r="D87" s="51"/>
+    <row r="87" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C87" s="44"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="48"/>
-      <c r="D88" s="51"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="48"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="49"/>
-      <c r="D90" s="52"/>
+    <row r="90" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="47">
+      <c r="C91" s="43">
         <v>-212</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="46" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="48"/>
-      <c r="D92" s="51"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="48"/>
-      <c r="D93" s="51"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="48"/>
-      <c r="D94" s="51"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="48"/>
-      <c r="D95" s="51"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="48"/>
-      <c r="D96" s="51"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="48"/>
-      <c r="D97" s="51"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="48"/>
-      <c r="D98" s="51"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="48"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="48"/>
-      <c r="D100" s="51"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="48"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="48"/>
-      <c r="D102" s="51"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="48"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="49"/>
-      <c r="D104" s="52"/>
+    <row r="104" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C105" s="7">
         <v>-213</v>
       </c>
@@ -7183,7 +7386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C106" s="7">
         <v>-214</v>
       </c>
@@ -7201,7 +7404,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7212,7 +7415,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -7221,9 +7424,9 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="52"/>
-    </row>
-    <row r="110" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E109" s="48"/>
+    </row>
+    <row r="110" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
         <v>-218</v>
       </c>
@@ -7234,7 +7437,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C111" s="7">
         <v>-219</v>
       </c>
@@ -7245,7 +7448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C112" s="7">
         <v>-220</v>
       </c>
@@ -7256,7 +7459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C113" s="7">
         <v>-221</v>
       </c>
@@ -7267,7 +7470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C114" s="7">
         <v>-222</v>
       </c>
@@ -7278,7 +7481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C115" s="7">
         <v>-300</v>
       </c>
@@ -7289,7 +7492,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C116" s="7">
         <v>-301</v>
       </c>
@@ -7300,7 +7503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C117" s="7">
         <v>-302</v>
       </c>
@@ -7311,7 +7514,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C118" s="7">
         <v>-303</v>
       </c>
@@ -7322,7 +7525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C119" s="7">
         <v>-304</v>
       </c>
@@ -7333,7 +7536,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C120" s="7">
         <v>-308</v>
       </c>
@@ -7344,7 +7547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C121" s="7">
         <v>-309</v>
       </c>
@@ -7355,7 +7558,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C122" s="7">
         <v>-310</v>
       </c>
@@ -7366,7 +7569,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C123" s="7">
         <v>-311</v>
       </c>
@@ -7377,7 +7580,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C124" s="7">
         <v>-312</v>
       </c>
@@ -7399,7 +7602,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C126" s="7">
         <v>-315</v>
       </c>
@@ -7410,7 +7613,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C127" s="7">
         <v>-316</v>
       </c>
@@ -7421,7 +7624,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C128" s="7">
         <v>-317</v>
       </c>
@@ -7443,7 +7646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C130" s="7">
         <v>-319</v>
       </c>
@@ -7454,7 +7657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C131" s="7">
         <v>-320</v>
       </c>
@@ -7465,7 +7668,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C132" s="7">
         <v>-321</v>
       </c>
@@ -7476,7 +7679,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C133" s="7">
         <v>-322</v>
       </c>
@@ -7487,7 +7690,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="7">
         <v>-323</v>
       </c>
@@ -7495,10 +7698,10 @@
         <v>186</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C135" s="7">
         <v>-324</v>
       </c>
@@ -7509,7 +7712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C136" s="7">
         <v>-325</v>
       </c>
@@ -7520,7 +7723,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C137" s="7">
         <v>-326</v>
       </c>
@@ -7531,7 +7734,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C138" s="7">
         <v>-500</v>
       </c>
@@ -7542,7 +7745,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C139" s="7">
         <v>-501</v>
       </c>
@@ -7553,7 +7756,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C140" s="7">
         <v>-502</v>
       </c>
@@ -7564,7 +7767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C141" s="7">
         <v>-503</v>
       </c>
@@ -7575,7 +7778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C142" s="7">
         <v>-504</v>
       </c>
@@ -7586,7 +7789,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C143" s="7">
         <v>-505</v>
       </c>
@@ -7597,7 +7800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="144" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C144" s="7">
         <v>-506</v>
       </c>
@@ -7608,7 +7811,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:5" ht="141" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C145" s="7">
         <v>-507</v>
       </c>
@@ -7619,7 +7822,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C146" s="7">
         <v>-508</v>
       </c>
@@ -7630,7 +7833,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C147" s="7">
         <v>-509</v>
       </c>
@@ -7652,7 +7855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C149" s="7">
         <v>-511</v>
       </c>
@@ -7663,7 +7866,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C150" s="7">
         <v>-512</v>
       </c>
@@ -7674,7 +7877,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C151" s="7">
         <v>-513</v>
       </c>
@@ -7696,7 +7899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="153" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C153" s="7">
         <v>-515</v>
       </c>
@@ -7707,7 +7910,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C154" s="7">
         <v>-516</v>
       </c>
@@ -7718,7 +7921,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C155" s="7">
         <v>-517</v>
       </c>
@@ -7729,7 +7932,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C156" s="7">
         <v>-518</v>
       </c>
@@ -7740,7 +7943,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C157" s="7">
         <v>-519</v>
       </c>
@@ -7751,7 +7954,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C158" s="7">
         <v>-520</v>
       </c>
@@ -7773,7 +7976,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C160" s="7">
         <v>-522</v>
       </c>
@@ -7784,7 +7987,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C161" s="7">
         <v>-523</v>
       </c>
@@ -7795,7 +7998,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C162" s="7">
         <v>-524</v>
       </c>
@@ -7806,7 +8009,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="163" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C163" s="7">
         <v>-525</v>
       </c>
@@ -7817,7 +8020,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="164" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C164" s="7">
         <v>-526</v>
       </c>
@@ -7828,7 +8031,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="165" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C165" s="7">
         <v>-700</v>
       </c>
@@ -7839,7 +8042,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C166" s="7">
         <v>-702</v>
       </c>
@@ -7850,7 +8053,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C167" s="7">
         <v>-704</v>
       </c>
@@ -7861,7 +8064,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="168" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C168" s="7">
         <v>-705</v>
       </c>
@@ -7872,7 +8075,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C169" s="7">
         <v>-706</v>
       </c>
@@ -7883,7 +8086,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C170" s="7">
         <v>-707</v>
       </c>
@@ -7894,7 +8097,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C171" s="7">
         <v>-708</v>
       </c>
@@ -7905,7 +8108,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="172" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C172" s="7">
         <v>-709</v>
       </c>
@@ -7916,7 +8119,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C173" s="7">
         <v>-710</v>
       </c>
@@ -7927,7 +8130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C174" s="7">
         <v>-711</v>
       </c>
@@ -7938,7 +8141,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C175" s="7">
         <v>-712</v>
       </c>
@@ -7960,7 +8163,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C177" s="7">
         <v>-714</v>
       </c>
@@ -7971,7 +8174,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="178" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C178" s="7">
         <v>-715</v>
       </c>
@@ -7982,7 +8185,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C179" s="7">
         <v>-716</v>
       </c>
@@ -7993,7 +8196,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C180" s="7">
         <v>-717</v>
       </c>
@@ -8004,7 +8207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="181" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C181" s="7">
         <v>-718</v>
       </c>
@@ -8015,7 +8218,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C182" s="7">
         <v>-719</v>
       </c>
@@ -8125,7 +8328,7 @@
       </c>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C194" s="7">
         <v>-731</v>
       </c>
@@ -8136,7 +8339,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="195" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C195" s="7">
         <v>-732</v>
       </c>
@@ -8165,7 +8368,7 @@
       </c>
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C198" s="7">
         <v>-735</v>
       </c>
@@ -8176,7 +8379,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="199" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C199" s="7">
         <v>-736</v>
       </c>
@@ -8286,7 +8489,7 @@
       </c>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C211" s="7">
         <v>-748</v>
       </c>
@@ -8324,7 +8527,7 @@
       </c>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C215" s="7">
         <v>-752</v>
       </c>
@@ -8371,7 +8574,7 @@
       </c>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C220" s="7">
         <v>-757</v>
       </c>
@@ -8418,7 +8621,7 @@
       </c>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C225" s="7">
         <v>-762</v>
       </c>
@@ -8426,10 +8629,10 @@
         <v>332</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C226" s="7">
         <v>-763</v>
       </c>
@@ -8437,7 +8640,7 @@
         <v>333</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="227" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8467,7 +8670,7 @@
       </c>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:5" ht="141" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C230" s="7">
         <v>-767</v>
       </c>
@@ -8475,7 +8678,7 @@
         <v>337</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="231" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8487,7 +8690,7 @@
       </c>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C232" s="7">
         <v>-769</v>
       </c>
@@ -8498,7 +8701,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="233" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C233" s="7">
         <v>-770</v>
       </c>
@@ -8547,7 +8750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="238" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C238" s="7">
         <v>-775</v>
       </c>
@@ -8558,11 +8761,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="239" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C239" s="47">
+    <row r="239" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C239" s="43">
         <v>-776</v>
       </c>
-      <c r="D239" s="50" t="s">
+      <c r="D239" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -8570,13 +8773,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="48"/>
-      <c r="D240" s="51"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="47"/>
       <c r="E240" s="10"/>
     </row>
-    <row r="241" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="49"/>
-      <c r="D241" s="52"/>
+    <row r="241" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C241" s="45"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -8608,7 +8811,7 @@
       </c>
       <c r="E244" s="14"/>
     </row>
-    <row r="245" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C245" s="7">
         <v>-781</v>
       </c>
@@ -8619,7 +8822,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="246" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C246" s="7">
         <v>-782</v>
       </c>
@@ -8630,7 +8833,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="247" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C247" s="7">
         <v>-783</v>
       </c>
@@ -8641,7 +8844,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C248" s="7">
         <v>-784</v>
       </c>
@@ -8652,7 +8855,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="249" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C249" s="7">
         <v>-785</v>
       </c>
@@ -8663,7 +8866,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C250" s="7">
         <v>-786</v>
       </c>
@@ -8674,7 +8877,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="251" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C251" s="7">
         <v>-787</v>
       </c>
@@ -8685,7 +8888,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="252" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C252" s="7">
         <v>-788</v>
       </c>
@@ -8696,7 +8899,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="253" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C253" s="7">
         <v>-789</v>
       </c>
@@ -8707,7 +8910,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="254" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C254" s="7">
         <v>-790</v>
       </c>
@@ -8718,7 +8921,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="255" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C255" s="7">
         <v>-791</v>
       </c>
@@ -8729,7 +8932,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="256" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C256" s="7">
         <v>-792</v>
       </c>
@@ -8740,7 +8943,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="257" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C257" s="7">
         <v>-793</v>
       </c>
@@ -8751,7 +8954,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="258" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C258" s="7">
         <v>-794</v>
       </c>
@@ -8762,7 +8965,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="259" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C259" s="7">
         <v>-795</v>
       </c>
@@ -8773,7 +8976,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C260" s="7">
         <v>-796</v>
       </c>
@@ -8784,7 +8987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="261" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C261" s="7">
         <v>-797</v>
       </c>
@@ -8795,7 +8998,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C262" s="7">
         <v>-798</v>
       </c>
@@ -8806,7 +9009,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C263" s="7">
         <v>-799</v>
       </c>
@@ -8817,7 +9020,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C264" s="7">
         <v>-800</v>
       </c>
@@ -8828,7 +9031,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="265" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C265" s="7">
         <v>-801</v>
       </c>
@@ -8839,7 +9042,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="266" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C266" s="7">
         <v>-802</v>
       </c>
@@ -8850,7 +9053,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="267" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C267" s="7">
         <v>-803</v>
       </c>
@@ -8861,7 +9064,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C268" s="7">
         <v>-804</v>
       </c>
@@ -8883,7 +9086,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="270" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C270" s="7">
         <v>-806</v>
       </c>
@@ -8894,7 +9097,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="271" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C271" s="7">
         <v>-807</v>
       </c>
@@ -8905,7 +9108,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="272" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C272" s="7">
         <v>-808</v>
       </c>
@@ -8927,7 +9130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C274" s="7">
         <v>-810</v>
       </c>
@@ -8939,22 +9142,22 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="47">
+      <c r="C275" s="43">
         <v>-811</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="50" t="s">
+      <c r="E275" s="46" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="49"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
-    </row>
-    <row r="277" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C276" s="45"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
+    </row>
+    <row r="277" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
         <v>-812</v>
       </c>
@@ -8965,7 +9168,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C278" s="7">
         <v>-1000</v>
       </c>
@@ -8976,7 +9179,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C279" s="7">
         <v>-1001</v>
       </c>
@@ -8987,11 +9190,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="280" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C280" s="47">
+    <row r="280" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C280" s="43">
         <v>-1002</v>
       </c>
-      <c r="D280" s="50" t="s">
+      <c r="D280" s="46" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -8999,22 +9202,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="48"/>
-      <c r="D281" s="51"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="49"/>
-      <c r="D282" s="52"/>
+    <row r="282" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C282" s="45"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="283" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C283" s="47">
+    <row r="283" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C283" s="43">
         <v>-1003</v>
       </c>
-      <c r="D283" s="50" t="s">
+      <c r="D283" s="46" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -9022,18 +9225,18 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="48"/>
-      <c r="D284" s="51"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="47"/>
       <c r="E284" s="12"/>
     </row>
-    <row r="285" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="49"/>
-      <c r="D285" s="52"/>
+    <row r="285" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C285" s="45"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="286" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C286" s="7">
         <v>-1004</v>
       </c>
@@ -9044,11 +9247,11 @@
         <v>430</v>
       </c>
     </row>
-    <row r="287" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C287" s="47">
+    <row r="287" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C287" s="43">
         <v>-1005</v>
       </c>
-      <c r="D287" s="50" t="s">
+      <c r="D287" s="46" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -9056,22 +9259,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="48"/>
-      <c r="D288" s="51"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="12"/>
     </row>
-    <row r="289" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="49"/>
-      <c r="D289" s="52"/>
+    <row r="289" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C289" s="45"/>
+      <c r="D289" s="48"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="290" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C290" s="47">
+    <row r="290" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C290" s="43">
         <v>-1006</v>
       </c>
-      <c r="D290" s="50" t="s">
+      <c r="D290" s="46" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -9079,36 +9282,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="48"/>
-      <c r="D291" s="51"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="48"/>
-      <c r="D292" s="51"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C293" s="48"/>
-      <c r="D293" s="51"/>
+    <row r="293" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C293" s="44"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="49"/>
-      <c r="D294" s="52"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="295" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C295" s="47">
+    <row r="295" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C295" s="43">
         <v>-1007</v>
       </c>
-      <c r="D295" s="50" t="s">
+      <c r="D295" s="46" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -9116,41 +9319,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="48"/>
-      <c r="D296" s="51"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="47"/>
       <c r="E296" s="18"/>
     </row>
-    <row r="297" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C297" s="48"/>
-      <c r="D297" s="51"/>
+    <row r="297" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C297" s="44"/>
+      <c r="D297" s="47"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="48"/>
-      <c r="D298" s="51"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="19"/>
     </row>
-    <row r="299" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C299" s="48"/>
-      <c r="D299" s="51"/>
+    <row r="299" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C299" s="44"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="49"/>
-      <c r="D300" s="52"/>
+      <c r="C300" s="45"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="301" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C301" s="47">
+    <row r="301" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C301" s="43">
         <v>-1008</v>
       </c>
-      <c r="D301" s="50" t="s">
+      <c r="D301" s="46" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -9158,22 +9361,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="48"/>
-      <c r="D302" s="51"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="49"/>
-      <c r="D303" s="52"/>
+    <row r="303" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C303" s="45"/>
+      <c r="D303" s="48"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="304" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C304" s="47">
+    <row r="304" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C304" s="43">
         <v>-1009</v>
       </c>
-      <c r="D304" s="50" t="s">
+      <c r="D304" s="46" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -9181,22 +9384,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="48"/>
-      <c r="D305" s="51"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="12"/>
     </row>
-    <row r="306" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="49"/>
-      <c r="D306" s="52"/>
+    <row r="306" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C306" s="45"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="307" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C307" s="47">
+    <row r="307" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C307" s="43">
         <v>-1010</v>
       </c>
-      <c r="D307" s="50" t="s">
+      <c r="D307" s="46" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -9204,22 +9407,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="48"/>
-      <c r="D308" s="51"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="49"/>
-      <c r="D309" s="52"/>
+      <c r="C309" s="45"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="310" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="47">
+    <row r="310" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
+      <c r="C310" s="43">
         <v>-1011</v>
       </c>
-      <c r="D310" s="50" t="s">
+      <c r="D310" s="46" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -9227,18 +9430,18 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="48"/>
-      <c r="D311" s="51"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="47"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="49"/>
-      <c r="D312" s="52"/>
+      <c r="C312" s="45"/>
+      <c r="D312" s="48"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="313" spans="3:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C313" s="42">
         <v>-1012</v>
       </c>
@@ -9246,14 +9449,14 @@
         <v>456</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="314" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C314" s="47">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="314" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C314" s="43">
         <v>-1013</v>
       </c>
-      <c r="D314" s="50" t="s">
+      <c r="D314" s="46" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -9261,46 +9464,46 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="48"/>
-      <c r="D315" s="51"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="48"/>
-      <c r="D316" s="51"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="49"/>
-      <c r="D317" s="52"/>
+      <c r="C317" s="45"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="318" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C318" s="47">
+    <row r="318" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C318" s="43">
         <v>-1014</v>
       </c>
-      <c r="D318" s="50" t="s">
+      <c r="D318" s="46" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="48"/>
-      <c r="D319" s="51"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="49"/>
-      <c r="D320" s="52"/>
+      <c r="C320" s="45"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="15"/>
     </row>
-    <row r="321" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C321" s="7">
         <v>-1015</v>
       </c>
@@ -9311,11 +9514,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="322" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C322" s="47">
+    <row r="322" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C322" s="43">
         <v>-1016</v>
       </c>
-      <c r="D322" s="50" t="s">
+      <c r="D322" s="46" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -9323,25 +9526,25 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="48"/>
-      <c r="D323" s="51"/>
+      <c r="C323" s="44"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="10"/>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C324" s="48"/>
-      <c r="D324" s="51"/>
+    <row r="324" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C324" s="44"/>
+      <c r="D324" s="47"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="325" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="49"/>
-      <c r="D325" s="52"/>
+    <row r="325" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C325" s="45"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="326" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C326" s="7">
         <v>-1017</v>
       </c>
@@ -9352,7 +9555,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="327" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C327" s="7">
         <v>-1018</v>
       </c>
@@ -9363,11 +9566,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="328" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C328" s="47">
+    <row r="328" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C328" s="43">
         <v>-1019</v>
       </c>
-      <c r="D328" s="50" t="s">
+      <c r="D328" s="46" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9375,22 +9578,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="48"/>
-      <c r="D329" s="51"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="47"/>
       <c r="E329" s="10"/>
     </row>
-    <row r="330" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="49"/>
-      <c r="D330" s="52"/>
+    <row r="330" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C330" s="45"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="331" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C331" s="47">
+    <row r="331" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C331" s="43">
         <v>-1020</v>
       </c>
-      <c r="D331" s="50" t="s">
+      <c r="D331" s="46" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -9398,51 +9601,51 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="48"/>
-      <c r="D332" s="51"/>
+      <c r="C332" s="44"/>
+      <c r="D332" s="47"/>
       <c r="E332" s="10"/>
     </row>
-    <row r="333" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="48"/>
-      <c r="D333" s="51"/>
+    <row r="333" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C333" s="44"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="48"/>
-      <c r="D334" s="51"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="47"/>
       <c r="E334" s="10"/>
     </row>
-    <row r="335" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="49"/>
-      <c r="D335" s="52"/>
+    <row r="335" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C335" s="45"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="336" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C336" s="47">
+    <row r="336" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
+      <c r="C336" s="43">
         <v>-1021</v>
       </c>
-      <c r="D336" s="50" t="s">
+      <c r="D336" s="46" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="48"/>
-      <c r="D337" s="51"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="49"/>
-      <c r="D338" s="52"/>
+      <c r="C338" s="45"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="15"/>
     </row>
-    <row r="339" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C339" s="7">
         <v>-1022</v>
       </c>
@@ -9453,7 +9656,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="340" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C340" s="7">
         <v>-1023</v>
       </c>
@@ -9464,7 +9667,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="341" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C341" s="7">
         <v>-1024</v>
       </c>
@@ -9475,7 +9678,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="342" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C342" s="7">
         <v>-1025</v>
       </c>
@@ -9486,51 +9689,51 @@
         <v>487</v>
       </c>
     </row>
-    <row r="343" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C343" s="47">
+    <row r="343" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C343" s="43">
         <v>-1026</v>
       </c>
-      <c r="D343" s="50" t="s">
+      <c r="D343" s="46" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="48"/>
-      <c r="D344" s="51"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="10"/>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C345" s="48"/>
-      <c r="D345" s="51"/>
+    <row r="345" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C345" s="44"/>
+      <c r="D345" s="47"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="48"/>
-      <c r="D346" s="51"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="47"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C347" s="48"/>
-      <c r="D347" s="51"/>
+    <row r="347" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C347" s="44"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="348" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="49"/>
-      <c r="D348" s="52"/>
+    <row r="348" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C348" s="45"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C349" s="7">
         <v>-1027</v>
       </c>
@@ -9541,102 +9744,102 @@
         <v>494</v>
       </c>
     </row>
-    <row r="350" spans="3:5" ht="312" x14ac:dyDescent="0.4">
-      <c r="C350" s="47">
+    <row r="350" spans="3:5" ht="327.60000000000002" x14ac:dyDescent="0.4">
+      <c r="C350" s="43">
         <v>-1028</v>
       </c>
-      <c r="D350" s="50" t="s">
+      <c r="D350" s="46" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="48"/>
-      <c r="D351" s="51"/>
+      <c r="C351" s="44"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="48"/>
-      <c r="D352" s="51"/>
+      <c r="C352" s="44"/>
+      <c r="D352" s="47"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C353" s="48"/>
-      <c r="D353" s="51"/>
+    <row r="353" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C353" s="44"/>
+      <c r="D353" s="47"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C354" s="48"/>
-      <c r="D354" s="51"/>
+    <row r="354" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C354" s="44"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="48"/>
-      <c r="D355" s="51"/>
+      <c r="C355" s="44"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="12"/>
     </row>
-    <row r="356" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="49"/>
-      <c r="D356" s="52"/>
+    <row r="356" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C356" s="45"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="15" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="357" spans="3:5" ht="343.2" x14ac:dyDescent="0.4">
-      <c r="C357" s="47">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5" ht="374.4" x14ac:dyDescent="0.4">
+      <c r="C357" s="43">
         <v>-1029</v>
       </c>
-      <c r="D357" s="50" t="s">
+      <c r="D357" s="46" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="48"/>
-      <c r="D358" s="51"/>
+      <c r="C358" s="44"/>
+      <c r="D358" s="47"/>
       <c r="E358" s="10"/>
     </row>
-    <row r="359" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="48"/>
-      <c r="D359" s="51"/>
+    <row r="359" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C359" s="44"/>
+      <c r="D359" s="47"/>
       <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="48"/>
-      <c r="D360" s="51"/>
+      <c r="C360" s="44"/>
+      <c r="D360" s="47"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="48"/>
-      <c r="D361" s="51"/>
+      <c r="C361" s="44"/>
+      <c r="D361" s="47"/>
       <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="49"/>
-      <c r="D362" s="52"/>
+      <c r="C362" s="45"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="363" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C363" s="47">
+    <row r="363" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C363" s="43">
         <v>-1030</v>
       </c>
-      <c r="D363" s="50" t="s">
+      <c r="D363" s="46" t="s">
         <v>503</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -9644,30 +9847,30 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="48"/>
-      <c r="D364" s="51"/>
+      <c r="C364" s="44"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="10"/>
     </row>
-    <row r="365" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C365" s="48"/>
-      <c r="D365" s="51"/>
+    <row r="365" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C365" s="44"/>
+      <c r="D365" s="47"/>
       <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="48"/>
-      <c r="D366" s="51"/>
+      <c r="C366" s="44"/>
+      <c r="D366" s="47"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="49"/>
-      <c r="D367" s="52"/>
+      <c r="C367" s="45"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="368" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C368" s="7">
         <v>-1031</v>
       </c>
@@ -9678,7 +9881,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="369" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C369" s="7">
         <v>-1032</v>
       </c>
@@ -9689,11 +9892,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="370" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C370" s="47">
+    <row r="370" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C370" s="43">
         <v>-1033</v>
       </c>
-      <c r="D370" s="50" t="s">
+      <c r="D370" s="46" t="s">
         <v>511</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -9701,64 +9904,64 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="48"/>
-      <c r="D371" s="51"/>
+      <c r="C371" s="44"/>
+      <c r="D371" s="47"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="49"/>
-      <c r="D372" s="52"/>
+      <c r="C372" s="45"/>
+      <c r="D372" s="48"/>
       <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="373" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C373" s="47">
+    <row r="373" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
+      <c r="C373" s="43">
         <v>-1034</v>
       </c>
-      <c r="D373" s="50" t="s">
-        <v>998</v>
+      <c r="D373" s="46" t="s">
+        <v>997</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="48"/>
-      <c r="D374" s="51"/>
+      <c r="C374" s="44"/>
+      <c r="D374" s="47"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="49"/>
-      <c r="D375" s="52"/>
+      <c r="C375" s="45"/>
+      <c r="D375" s="48"/>
       <c r="E375" s="15"/>
     </row>
-    <row r="376" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C376" s="47">
+    <row r="376" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
+      <c r="C376" s="43">
         <v>-1035</v>
       </c>
-      <c r="D376" s="50" t="s">
+      <c r="D376" s="46" t="s">
         <v>514</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="48"/>
-      <c r="D377" s="51"/>
+      <c r="C377" s="44"/>
+      <c r="D377" s="47"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="49"/>
-      <c r="D378" s="52"/>
+      <c r="C378" s="45"/>
+      <c r="D378" s="48"/>
       <c r="E378" s="15"/>
     </row>
-    <row r="379" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C379" s="47">
+    <row r="379" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C379" s="43">
         <v>-1036</v>
       </c>
-      <c r="D379" s="50" t="s">
+      <c r="D379" s="46" t="s">
         <v>515</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -9766,22 +9969,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="48"/>
-      <c r="D380" s="51"/>
+      <c r="C380" s="44"/>
+      <c r="D380" s="47"/>
       <c r="E380" s="12"/>
     </row>
-    <row r="381" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="49"/>
-      <c r="D381" s="52"/>
+    <row r="381" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C381" s="45"/>
+      <c r="D381" s="48"/>
       <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="382" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C382" s="47">
+    <row r="382" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C382" s="43">
         <v>-1037</v>
       </c>
-      <c r="D382" s="50" t="s">
+      <c r="D382" s="46" t="s">
         <v>518</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -9789,22 +9992,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="48"/>
-      <c r="D383" s="51"/>
+      <c r="C383" s="44"/>
+      <c r="D383" s="47"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="49"/>
-      <c r="D384" s="52"/>
+      <c r="C384" s="45"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="385" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C385" s="47">
+    <row r="385" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C385" s="43">
         <v>-1038</v>
       </c>
-      <c r="D385" s="50" t="s">
+      <c r="D385" s="46" t="s">
         <v>521</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -9812,22 +10015,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="48"/>
-      <c r="D386" s="51"/>
+      <c r="C386" s="44"/>
+      <c r="D386" s="47"/>
       <c r="E386" s="12"/>
     </row>
-    <row r="387" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="49"/>
-      <c r="D387" s="52"/>
+    <row r="387" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C387" s="45"/>
+      <c r="D387" s="48"/>
       <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="388" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C388" s="47">
+    <row r="388" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C388" s="43">
         <v>-1039</v>
       </c>
-      <c r="D388" s="50" t="s">
+      <c r="D388" s="46" t="s">
         <v>524</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -9835,22 +10038,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="48"/>
-      <c r="D389" s="51"/>
+      <c r="C389" s="44"/>
+      <c r="D389" s="47"/>
       <c r="E389" s="12"/>
     </row>
-    <row r="390" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="49"/>
-      <c r="D390" s="52"/>
+    <row r="390" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C390" s="45"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="391" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C391" s="47">
+    <row r="391" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C391" s="43">
         <v>-1040</v>
       </c>
-      <c r="D391" s="50" t="s">
+      <c r="D391" s="46" t="s">
         <v>527</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -9858,22 +10061,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="48"/>
-      <c r="D392" s="51"/>
+      <c r="C392" s="44"/>
+      <c r="D392" s="47"/>
       <c r="E392" s="12"/>
     </row>
-    <row r="393" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="49"/>
-      <c r="D393" s="52"/>
+    <row r="393" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C393" s="45"/>
+      <c r="D393" s="48"/>
       <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="394" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C394" s="47">
+    <row r="394" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C394" s="43">
         <v>-1041</v>
       </c>
-      <c r="D394" s="50" t="s">
+      <c r="D394" s="46" t="s">
         <v>530</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -9881,18 +10084,18 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="48"/>
-      <c r="D395" s="51"/>
+      <c r="C395" s="44"/>
+      <c r="D395" s="47"/>
       <c r="E395" s="12"/>
     </row>
-    <row r="396" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="49"/>
-      <c r="D396" s="52"/>
+    <row r="396" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C396" s="45"/>
+      <c r="D396" s="48"/>
       <c r="E396" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="397" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C397" s="7">
         <v>-1042</v>
       </c>
@@ -9903,11 +10106,11 @@
         <v>534</v>
       </c>
     </row>
-    <row r="398" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C398" s="47">
+    <row r="398" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C398" s="43">
         <v>-1043</v>
       </c>
-      <c r="D398" s="50" t="s">
+      <c r="D398" s="46" t="s">
         <v>535</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -9915,30 +10118,30 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="48"/>
-      <c r="D399" s="51"/>
+      <c r="C399" s="44"/>
+      <c r="D399" s="47"/>
       <c r="E399" s="10"/>
     </row>
-    <row r="400" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C400" s="48"/>
-      <c r="D400" s="51"/>
+    <row r="400" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
+      <c r="C400" s="44"/>
+      <c r="D400" s="47"/>
       <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="48"/>
-      <c r="D401" s="51"/>
+      <c r="C401" s="44"/>
+      <c r="D401" s="47"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="49"/>
-      <c r="D402" s="52"/>
+      <c r="C402" s="45"/>
+      <c r="D402" s="48"/>
       <c r="E402" s="11" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="403" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C403" s="7">
         <v>-1044</v>
       </c>
@@ -9950,10 +10153,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="47">
+      <c r="C404" s="43">
         <v>-1045</v>
       </c>
-      <c r="D404" s="50" t="s">
+      <c r="D404" s="46" t="s">
         <v>541</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -9961,43 +10164,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="48"/>
-      <c r="D405" s="51"/>
+      <c r="C405" s="44"/>
+      <c r="D405" s="47"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="48"/>
-      <c r="D406" s="51"/>
+      <c r="C406" s="44"/>
+      <c r="D406" s="47"/>
       <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="48"/>
-      <c r="D407" s="51"/>
+      <c r="C407" s="44"/>
+      <c r="D407" s="47"/>
       <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C408" s="48"/>
-      <c r="D408" s="51"/>
+    <row r="408" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C408" s="44"/>
+      <c r="D408" s="47"/>
       <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="49"/>
-      <c r="D409" s="52"/>
+      <c r="C409" s="45"/>
+      <c r="D409" s="48"/>
       <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="410" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C410" s="47">
+    <row r="410" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C410" s="43">
         <v>-1046</v>
       </c>
-      <c r="D410" s="50" t="s">
+      <c r="D410" s="46" t="s">
         <v>547</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -10005,18 +10208,18 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="48"/>
-      <c r="D411" s="51"/>
+      <c r="C411" s="44"/>
+      <c r="D411" s="47"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="49"/>
-      <c r="D412" s="52"/>
+      <c r="C412" s="45"/>
+      <c r="D412" s="48"/>
       <c r="E412" s="15" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="413" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C413" s="7">
         <v>-1047</v>
       </c>
@@ -10027,7 +10230,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="414" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C414" s="7">
         <v>-1048</v>
       </c>
@@ -10038,7 +10241,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="415" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C415" s="7">
         <v>-1049</v>
       </c>
@@ -10049,7 +10252,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="416" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C416" s="7">
         <v>-1050</v>
       </c>
@@ -10060,11 +10263,11 @@
         <v>557</v>
       </c>
     </row>
-    <row r="417" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C417" s="47">
+    <row r="417" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C417" s="43">
         <v>-1051</v>
       </c>
-      <c r="D417" s="50" t="s">
+      <c r="D417" s="46" t="s">
         <v>558</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -10072,29 +10275,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="48"/>
-      <c r="D418" s="51"/>
+      <c r="C418" s="44"/>
+      <c r="D418" s="47"/>
       <c r="E418" s="10"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C419" s="48"/>
-      <c r="D419" s="51"/>
+    <row r="419" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C419" s="44"/>
+      <c r="D419" s="47"/>
       <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="420" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="49"/>
-      <c r="D420" s="52"/>
+    <row r="420" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C420" s="45"/>
+      <c r="D420" s="48"/>
       <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="421" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C421" s="47">
+    <row r="421" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C421" s="43">
         <v>-1052</v>
       </c>
-      <c r="D421" s="50" t="s">
+      <c r="D421" s="46" t="s">
         <v>562</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -10102,22 +10305,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="48"/>
-      <c r="D422" s="51"/>
+      <c r="C422" s="44"/>
+      <c r="D422" s="47"/>
       <c r="E422" s="10"/>
     </row>
-    <row r="423" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="49"/>
-      <c r="D423" s="52"/>
+    <row r="423" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C423" s="45"/>
+      <c r="D423" s="48"/>
       <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="424" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C424" s="47">
+    <row r="424" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C424" s="43">
         <v>-1053</v>
       </c>
-      <c r="D424" s="50" t="s">
+      <c r="D424" s="46" t="s">
         <v>565</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -10125,18 +10328,18 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="48"/>
-      <c r="D425" s="51"/>
+      <c r="C425" s="44"/>
+      <c r="D425" s="47"/>
       <c r="E425" s="10"/>
     </row>
-    <row r="426" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="49"/>
-      <c r="D426" s="52"/>
+    <row r="426" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C426" s="45"/>
+      <c r="D426" s="48"/>
       <c r="E426" s="11" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="427" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C427" s="7">
         <v>-1054</v>
       </c>
@@ -10147,11 +10350,11 @@
         <v>569</v>
       </c>
     </row>
-    <row r="428" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C428" s="47">
+    <row r="428" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C428" s="43">
         <v>-1055</v>
       </c>
-      <c r="D428" s="50" t="s">
+      <c r="D428" s="46" t="s">
         <v>570</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -10159,29 +10362,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="48"/>
-      <c r="D429" s="51"/>
+      <c r="C429" s="44"/>
+      <c r="D429" s="47"/>
       <c r="E429" s="10"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C430" s="48"/>
-      <c r="D430" s="51"/>
+    <row r="430" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C430" s="44"/>
+      <c r="D430" s="47"/>
       <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="431" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="49"/>
-      <c r="D431" s="52"/>
+    <row r="431" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C431" s="45"/>
+      <c r="D431" s="48"/>
       <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="432" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C432" s="47">
+    <row r="432" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C432" s="43">
         <v>-1056</v>
       </c>
-      <c r="D432" s="50" t="s">
+      <c r="D432" s="46" t="s">
         <v>574</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -10189,18 +10392,18 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="48"/>
-      <c r="D433" s="51"/>
+      <c r="C433" s="44"/>
+      <c r="D433" s="47"/>
       <c r="E433" s="10"/>
     </row>
-    <row r="434" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="49"/>
-      <c r="D434" s="52"/>
+    <row r="434" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C434" s="45"/>
+      <c r="D434" s="48"/>
       <c r="E434" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="435" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C435" s="7">
         <v>-1057</v>
       </c>
@@ -10211,7 +10414,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="436" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C436" s="7">
         <v>-1058</v>
       </c>
@@ -10222,7 +10425,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="437" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C437" s="7">
         <v>-1059</v>
       </c>
@@ -10244,7 +10447,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="439" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C439" s="7">
         <v>-1501</v>
       </c>
@@ -10255,7 +10458,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="440" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C440" s="7">
         <v>-1502</v>
       </c>
@@ -10266,7 +10469,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="441" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C441" s="7">
         <v>-1505</v>
       </c>
@@ -10277,7 +10480,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="442" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C442" s="7">
         <v>-1507</v>
       </c>
@@ -10299,7 +10502,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="444" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C444" s="7">
         <v>-1510</v>
       </c>
@@ -10310,7 +10513,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="445" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C445" s="7">
         <v>-1511</v>
       </c>
@@ -10321,7 +10524,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="446" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C446" s="7">
         <v>-1512</v>
       </c>
@@ -10332,7 +10535,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="447" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C447" s="7">
         <v>-1514</v>
       </c>
@@ -10343,7 +10546,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="448" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C448" s="7">
         <v>-1515</v>
       </c>
@@ -10354,7 +10557,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="449" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C449" s="7">
         <v>-1516</v>
       </c>
@@ -10410,7 +10613,7 @@
       </c>
       <c r="E454" s="14"/>
     </row>
-    <row r="455" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C455" s="7">
         <v>-1522</v>
       </c>
@@ -10421,7 +10624,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="456" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C456" s="7">
         <v>-1523</v>
       </c>
@@ -10432,7 +10635,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="457" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C457" s="7">
         <v>-1524</v>
       </c>
@@ -10443,7 +10646,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="458" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C458" s="7">
         <v>-1550</v>
       </c>
@@ -10454,7 +10657,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="459" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C459" s="7">
         <v>-1551</v>
       </c>
@@ -10465,7 +10668,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="460" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C460" s="7">
         <v>-1552</v>
       </c>
@@ -10476,7 +10679,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="461" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C461" s="7">
         <v>-1553</v>
       </c>
@@ -10498,7 +10701,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="463" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C463" s="7">
         <v>-1555</v>
       </c>
@@ -10509,7 +10712,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="464" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C464" s="7">
         <v>-1556</v>
       </c>
@@ -10520,7 +10723,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="465" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C465" s="7">
         <v>-1558</v>
       </c>
@@ -10531,7 +10734,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="466" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C466" s="7">
         <v>-1560</v>
       </c>
@@ -10542,7 +10745,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="467" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C467" s="7">
         <v>-1561</v>
       </c>
@@ -10554,10 +10757,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="47">
+      <c r="C468" s="43">
         <v>-1600</v>
       </c>
-      <c r="D468" s="50" t="s">
+      <c r="D468" s="46" t="s">
         <v>637</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -10565,20 +10768,20 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="48"/>
-      <c r="D469" s="51"/>
+      <c r="C469" s="44"/>
+      <c r="D469" s="47"/>
       <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="470" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="49"/>
-      <c r="D470" s="52"/>
+    <row r="470" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C470" s="45"/>
+      <c r="D470" s="48"/>
       <c r="E470" s="11" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="471" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C471" s="7">
         <v>-1601</v>
       </c>
@@ -10589,18 +10792,18 @@
         <v>642</v>
       </c>
     </row>
-    <row r="472" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:5" ht="343.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C472" s="7">
         <v>-1602</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E472" s="8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="473" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="473" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C473" s="7">
         <v>-1603</v>
       </c>
@@ -10611,7 +10814,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="474" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C474" s="7">
         <v>-1604</v>
       </c>
@@ -10622,7 +10825,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="475" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C475" s="7">
         <v>-1605</v>
       </c>
@@ -10633,7 +10836,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="476" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C476" s="7">
         <v>-1606</v>
       </c>
@@ -10644,7 +10847,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="477" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C477" s="7">
         <v>-1607</v>
       </c>
@@ -10655,7 +10858,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="478" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C478" s="7">
         <v>-1609</v>
       </c>
@@ -10666,11 +10869,11 @@
         <v>654</v>
       </c>
     </row>
-    <row r="479" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C479" s="47">
+    <row r="479" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C479" s="43">
         <v>-1610</v>
       </c>
-      <c r="D479" s="50" t="s">
+      <c r="D479" s="46" t="s">
         <v>655</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -10678,42 +10881,42 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="48"/>
-      <c r="D480" s="51"/>
+      <c r="C480" s="44"/>
+      <c r="D480" s="47"/>
       <c r="E480" s="10"/>
     </row>
-    <row r="481" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C481" s="48"/>
-      <c r="D481" s="51"/>
+    <row r="481" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C481" s="44"/>
+      <c r="D481" s="47"/>
       <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="48"/>
-      <c r="D482" s="51"/>
+      <c r="C482" s="44"/>
+      <c r="D482" s="47"/>
       <c r="E482" s="10"/>
     </row>
-    <row r="483" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C483" s="48"/>
-      <c r="D483" s="51"/>
+    <row r="483" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C483" s="44"/>
+      <c r="D483" s="47"/>
       <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="48"/>
-      <c r="D484" s="51"/>
+      <c r="C484" s="44"/>
+      <c r="D484" s="47"/>
       <c r="E484" s="10"/>
     </row>
-    <row r="485" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="49"/>
-      <c r="D485" s="52"/>
+    <row r="485" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C485" s="45"/>
+      <c r="D485" s="48"/>
       <c r="E485" s="11" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="486" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C486" s="7">
         <v>-1611</v>
       </c>
@@ -10724,7 +10927,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="487" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C487" s="7">
         <v>-1612</v>
       </c>
@@ -10746,7 +10949,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="489" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C489" s="7">
         <v>-1614</v>
       </c>
@@ -10757,7 +10960,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="490" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C490" s="7">
         <v>-1615</v>
       </c>
@@ -10768,7 +10971,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="491" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C491" s="7">
         <v>-1616</v>
       </c>
@@ -10779,7 +10982,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="492" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="3:5" ht="172.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C492" s="7">
         <v>-1617</v>
       </c>
@@ -10787,10 +10990,10 @@
         <v>672</v>
       </c>
       <c r="E492" s="8" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="493" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="493" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C493" s="7">
         <v>-1700</v>
       </c>
@@ -10801,7 +11004,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="494" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C494" s="7">
         <v>-1701</v>
       </c>
@@ -10823,7 +11026,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="496" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C496" s="7">
         <v>-1703</v>
       </c>
@@ -10845,18 +11048,18 @@
         <v>681</v>
       </c>
     </row>
-    <row r="498" spans="3:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="3:5" ht="219" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C498" s="7">
         <v>-1705</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="499" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="499" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C499" s="7">
         <v>-1706</v>
       </c>
@@ -10864,7 +11067,7 @@
         <v>682</v>
       </c>
       <c r="E499" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="500" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -10878,7 +11081,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="501" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C501" s="7">
         <v>-1708</v>
       </c>
@@ -10900,7 +11103,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="503" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C503" s="7">
         <v>-1710</v>
       </c>
@@ -10911,7 +11114,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="504" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C504" s="7">
         <v>-1720</v>
       </c>
@@ -10922,7 +11125,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="505" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C505" s="7">
         <v>-1730</v>
       </c>
@@ -10933,7 +11136,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="506" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C506" s="7">
         <v>-1731</v>
       </c>
@@ -10944,7 +11147,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="507" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C507" s="7">
         <v>-1732</v>
       </c>
@@ -10955,7 +11158,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="508" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C508" s="7">
         <v>-1740</v>
       </c>
@@ -11092,11 +11295,11 @@
       </c>
       <c r="E522" s="14"/>
     </row>
-    <row r="523" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C523" s="47">
+    <row r="523" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C523" s="43">
         <v>-3014</v>
       </c>
-      <c r="D523" s="50" t="s">
+      <c r="D523" s="46" t="s">
         <v>715</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -11104,22 +11307,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="48"/>
-      <c r="D524" s="51"/>
+      <c r="C524" s="44"/>
+      <c r="D524" s="47"/>
       <c r="E524" s="10"/>
     </row>
-    <row r="525" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="49"/>
-      <c r="D525" s="52"/>
+    <row r="525" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C525" s="45"/>
+      <c r="D525" s="48"/>
       <c r="E525" s="11" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="526" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C526" s="47">
+    <row r="526" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C526" s="43">
         <v>-3015</v>
       </c>
-      <c r="D526" s="50" t="s">
+      <c r="D526" s="46" t="s">
         <v>718</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -11127,18 +11330,18 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="48"/>
-      <c r="D527" s="51"/>
+      <c r="C527" s="44"/>
+      <c r="D527" s="47"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="49"/>
-      <c r="D528" s="52"/>
+      <c r="C528" s="45"/>
+      <c r="D528" s="48"/>
       <c r="E528" s="11" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="529" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C529" s="7">
         <v>-3016</v>
       </c>
@@ -11149,7 +11352,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="530" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C530" s="7">
         <v>-3017</v>
       </c>
@@ -11160,7 +11363,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="531" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C531" s="7">
         <v>-3100</v>
       </c>
@@ -11171,7 +11374,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="532" spans="3:5" ht="234.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C532" s="34">
         <v>-3101</v>
       </c>
@@ -11179,10 +11382,10 @@
         <v>727</v>
       </c>
       <c r="E532" s="36" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="533" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="533" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C533" s="7">
         <v>-3102</v>
       </c>
@@ -11193,7 +11396,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="534" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C534" s="7">
         <v>-3103</v>
       </c>
@@ -11204,329 +11407,329 @@
         <v>731</v>
       </c>
     </row>
-    <row r="535" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C535" s="47">
+    <row r="535" spans="3:5" ht="249.6" x14ac:dyDescent="0.4">
+      <c r="C535" s="43">
         <v>-3104</v>
       </c>
-      <c r="D535" s="50" t="s">
+      <c r="D535" s="46" t="s">
         <v>732</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="48"/>
-      <c r="D536" s="51"/>
+      <c r="C536" s="44"/>
+      <c r="D536" s="47"/>
       <c r="E536" s="10"/>
     </row>
-    <row r="537" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C537" s="48"/>
-      <c r="D537" s="51"/>
+    <row r="537" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C537" s="44"/>
+      <c r="D537" s="47"/>
       <c r="E537" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="48"/>
-      <c r="D538" s="51"/>
+      <c r="C538" s="44"/>
+      <c r="D538" s="47"/>
       <c r="E538" s="10"/>
     </row>
-    <row r="539" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C539" s="48"/>
-      <c r="D539" s="51"/>
+    <row r="539" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C539" s="44"/>
+      <c r="D539" s="47"/>
       <c r="E539" s="12" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="48"/>
-      <c r="D540" s="51"/>
+      <c r="C540" s="44"/>
+      <c r="D540" s="47"/>
       <c r="E540" s="10"/>
     </row>
-    <row r="541" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C541" s="48"/>
-      <c r="D541" s="51"/>
+    <row r="541" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C541" s="44"/>
+      <c r="D541" s="47"/>
       <c r="E541" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="48"/>
-      <c r="D542" s="51"/>
+      <c r="C542" s="44"/>
+      <c r="D542" s="47"/>
       <c r="E542" s="12"/>
     </row>
-    <row r="543" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="49"/>
-      <c r="D543" s="52"/>
+    <row r="543" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C543" s="45"/>
+      <c r="D543" s="48"/>
       <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="544" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C544" s="47">
+    <row r="544" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
+      <c r="C544" s="43">
         <v>-3105</v>
       </c>
-      <c r="D544" s="50" t="s">
+      <c r="D544" s="46" t="s">
         <v>737</v>
       </c>
       <c r="E544" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="48"/>
-      <c r="D545" s="51"/>
+      <c r="C545" s="44"/>
+      <c r="D545" s="47"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="48"/>
-      <c r="D546" s="51"/>
+      <c r="C546" s="44"/>
+      <c r="D546" s="47"/>
       <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="48"/>
-      <c r="D547" s="51"/>
+      <c r="C547" s="44"/>
+      <c r="D547" s="47"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="49"/>
-      <c r="D548" s="52"/>
+      <c r="C548" s="45"/>
+      <c r="D548" s="48"/>
       <c r="E548" s="15"/>
     </row>
-    <row r="549" spans="3:5" ht="280.8" x14ac:dyDescent="0.4">
-      <c r="C549" s="47">
+    <row r="549" spans="3:5" ht="312" x14ac:dyDescent="0.4">
+      <c r="C549" s="43">
         <v>-3106</v>
       </c>
-      <c r="D549" s="50" t="s">
+      <c r="D549" s="46" t="s">
         <v>739</v>
       </c>
       <c r="E549" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="48"/>
-      <c r="D550" s="51"/>
+      <c r="C550" s="44"/>
+      <c r="D550" s="47"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C551" s="48"/>
-      <c r="D551" s="51"/>
+      <c r="C551" s="44"/>
+      <c r="D551" s="47"/>
       <c r="E551" s="12"/>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="48"/>
-      <c r="D552" s="51"/>
+      <c r="C552" s="44"/>
+      <c r="D552" s="47"/>
       <c r="E552" s="10"/>
     </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C553" s="48"/>
-      <c r="D553" s="51"/>
+    <row r="553" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C553" s="44"/>
+      <c r="D553" s="47"/>
       <c r="E553" s="12" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="48"/>
-      <c r="D554" s="51"/>
+      <c r="C554" s="44"/>
+      <c r="D554" s="47"/>
       <c r="E554" s="12" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C555" s="48"/>
-      <c r="D555" s="51"/>
+    <row r="555" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C555" s="44"/>
+      <c r="D555" s="47"/>
       <c r="E555" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="556" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C556" s="48"/>
-      <c r="D556" s="51"/>
+    <row r="556" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C556" s="44"/>
+      <c r="D556" s="47"/>
       <c r="E556" s="12" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="48"/>
-      <c r="D557" s="51"/>
+      <c r="C557" s="44"/>
+      <c r="D557" s="47"/>
       <c r="E557" s="12" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="48"/>
-      <c r="D558" s="51"/>
+      <c r="C558" s="44"/>
+      <c r="D558" s="47"/>
       <c r="E558" s="10"/>
     </row>
-    <row r="559" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C559" s="48"/>
-      <c r="D559" s="51"/>
+    <row r="559" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C559" s="44"/>
+      <c r="D559" s="47"/>
       <c r="E559" s="12" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="48"/>
-      <c r="D560" s="51"/>
+      <c r="C560" s="44"/>
+      <c r="D560" s="47"/>
       <c r="E560" s="12"/>
     </row>
-    <row r="561" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C561" s="48"/>
-      <c r="D561" s="51"/>
+    <row r="561" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C561" s="44"/>
+      <c r="D561" s="47"/>
       <c r="E561" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="48"/>
-      <c r="D562" s="51"/>
+      <c r="C562" s="44"/>
+      <c r="D562" s="47"/>
       <c r="E562" s="16" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="48"/>
-      <c r="D563" s="51"/>
+      <c r="C563" s="44"/>
+      <c r="D563" s="47"/>
       <c r="E563" s="16" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="48"/>
-      <c r="D564" s="51"/>
+      <c r="C564" s="44"/>
+      <c r="D564" s="47"/>
       <c r="E564" s="16" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="48"/>
-      <c r="D565" s="51"/>
+      <c r="C565" s="44"/>
+      <c r="D565" s="47"/>
       <c r="E565" s="16" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="566" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="48"/>
-      <c r="D566" s="51"/>
+    <row r="566" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C566" s="44"/>
+      <c r="D566" s="47"/>
       <c r="E566" s="16" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="48"/>
-      <c r="D567" s="51"/>
+      <c r="C567" s="44"/>
+      <c r="D567" s="47"/>
       <c r="E567" s="16" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="568" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="49"/>
-      <c r="D568" s="52"/>
+    <row r="568" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C568" s="45"/>
+      <c r="D568" s="48"/>
       <c r="E568" s="15" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="569" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C569" s="47">
+    <row r="569" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C569" s="43">
         <v>-3107</v>
       </c>
-      <c r="D569" s="50" t="s">
+      <c r="D569" s="46" t="s">
         <v>754</v>
       </c>
       <c r="E569" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="48"/>
-      <c r="D570" s="51"/>
+      <c r="C570" s="44"/>
+      <c r="D570" s="47"/>
       <c r="E570" s="12"/>
     </row>
-    <row r="571" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="49"/>
-      <c r="D571" s="52"/>
+    <row r="571" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C571" s="45"/>
+      <c r="D571" s="48"/>
       <c r="E571" s="15" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="572" spans="3:5" ht="156" x14ac:dyDescent="0.4">
-      <c r="C572" s="47">
+    <row r="572" spans="3:5" ht="234" x14ac:dyDescent="0.4">
+      <c r="C572" s="43">
         <v>-3108</v>
       </c>
-      <c r="D572" s="50" t="s">
+      <c r="D572" s="46" t="s">
         <v>756</v>
       </c>
       <c r="E572" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C573" s="44"/>
+      <c r="D573" s="47"/>
+      <c r="E573" s="12"/>
+    </row>
+    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C574" s="45"/>
+      <c r="D574" s="48"/>
+      <c r="E574" s="15"/>
+    </row>
+    <row r="575" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C575" s="43">
+        <v>-3109</v>
+      </c>
+      <c r="D575" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="E575" s="9" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C576" s="44"/>
+      <c r="D576" s="47"/>
+      <c r="E576" s="12"/>
+    </row>
+    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C577" s="45"/>
+      <c r="D577" s="48"/>
+      <c r="E577" s="15"/>
+    </row>
+    <row r="578" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C578" s="43">
+        <v>-3110</v>
+      </c>
+      <c r="D578" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="E578" s="9" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="48"/>
-      <c r="D573" s="51"/>
-      <c r="E573" s="12"/>
-    </row>
-    <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="49"/>
-      <c r="D574" s="52"/>
-      <c r="E574" s="15"/>
-    </row>
-    <row r="575" spans="3:5" ht="358.8" x14ac:dyDescent="0.4">
-      <c r="C575" s="47">
-        <v>-3109</v>
-      </c>
-      <c r="D575" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="E575" s="9" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="48"/>
-      <c r="D576" s="51"/>
-      <c r="E576" s="12"/>
-    </row>
-    <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="49"/>
-      <c r="D577" s="52"/>
-      <c r="E577" s="15"/>
-    </row>
-    <row r="578" spans="3:5" ht="405.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="47">
-        <v>-3110</v>
-      </c>
-      <c r="D578" s="50" t="s">
-        <v>758</v>
-      </c>
-      <c r="E578" s="9" t="s">
-        <v>968</v>
-      </c>
-    </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="48"/>
-      <c r="D579" s="51"/>
+      <c r="C579" s="44"/>
+      <c r="D579" s="47"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="48"/>
-      <c r="D580" s="51"/>
+      <c r="C580" s="44"/>
+      <c r="D580" s="47"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="48"/>
-      <c r="D581" s="51"/>
+      <c r="C581" s="44"/>
+      <c r="D581" s="47"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="49"/>
-      <c r="D582" s="52"/>
+      <c r="C582" s="45"/>
+      <c r="D582" s="48"/>
       <c r="E582" s="15"/>
     </row>
-    <row r="583" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C583" s="7">
         <v>-3111</v>
       </c>
@@ -11537,11 +11740,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="584" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C584" s="47">
+    <row r="584" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C584" s="43">
         <v>-3112</v>
       </c>
-      <c r="D584" s="50" t="s">
+      <c r="D584" s="46" t="s">
         <v>761</v>
       </c>
       <c r="E584" s="9" t="s">
@@ -11549,22 +11752,22 @@
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="48"/>
-      <c r="D585" s="51"/>
+      <c r="C585" s="44"/>
+      <c r="D585" s="47"/>
       <c r="E585" s="10"/>
     </row>
-    <row r="586" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="49"/>
-      <c r="D586" s="52"/>
+    <row r="586" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C586" s="45"/>
+      <c r="D586" s="48"/>
       <c r="E586" s="11" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="587" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C587" s="47">
+    <row r="587" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C587" s="43">
         <v>-3113</v>
       </c>
-      <c r="D587" s="50" t="s">
+      <c r="D587" s="46" t="s">
         <v>764</v>
       </c>
       <c r="E587" s="9" t="s">
@@ -11572,112 +11775,112 @@
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="48"/>
-      <c r="D588" s="51"/>
+      <c r="C588" s="44"/>
+      <c r="D588" s="47"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="48"/>
-      <c r="D589" s="51"/>
+      <c r="C589" s="44"/>
+      <c r="D589" s="47"/>
       <c r="E589" s="12" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="48"/>
-      <c r="D590" s="51"/>
+      <c r="C590" s="44"/>
+      <c r="D590" s="47"/>
       <c r="E590" s="10"/>
     </row>
-    <row r="591" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C591" s="48"/>
-      <c r="D591" s="51"/>
+    <row r="591" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C591" s="44"/>
+      <c r="D591" s="47"/>
       <c r="E591" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="592" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C592" s="48"/>
-      <c r="D592" s="51"/>
+    <row r="592" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C592" s="44"/>
+      <c r="D592" s="47"/>
       <c r="E592" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="593" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C593" s="48"/>
-      <c r="D593" s="51"/>
+    <row r="593" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C593" s="44"/>
+      <c r="D593" s="47"/>
       <c r="E593" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="594" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C594" s="48"/>
-      <c r="D594" s="51"/>
+    <row r="594" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C594" s="44"/>
+      <c r="D594" s="47"/>
       <c r="E594" s="12" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="48"/>
-      <c r="D595" s="51"/>
+      <c r="C595" s="44"/>
+      <c r="D595" s="47"/>
       <c r="E595" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="48"/>
-      <c r="D596" s="51"/>
+      <c r="C596" s="44"/>
+      <c r="D596" s="47"/>
       <c r="E596" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="48"/>
-      <c r="D597" s="51"/>
+      <c r="C597" s="44"/>
+      <c r="D597" s="47"/>
       <c r="E597" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="48"/>
-      <c r="D598" s="51"/>
+      <c r="C598" s="44"/>
+      <c r="D598" s="47"/>
       <c r="E598" s="12" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="48"/>
-      <c r="D599" s="51"/>
+      <c r="C599" s="44"/>
+      <c r="D599" s="47"/>
       <c r="E599" s="12" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="600" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C600" s="48"/>
-      <c r="D600" s="51"/>
+    <row r="600" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C600" s="44"/>
+      <c r="D600" s="47"/>
       <c r="E600" s="12" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="48"/>
-      <c r="D601" s="51"/>
+      <c r="C601" s="44"/>
+      <c r="D601" s="47"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="48"/>
-      <c r="D602" s="51"/>
+      <c r="C602" s="44"/>
+      <c r="D602" s="47"/>
       <c r="E602" s="12" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="49"/>
-      <c r="D603" s="52"/>
+      <c r="C603" s="45"/>
+      <c r="D603" s="48"/>
       <c r="E603" s="11" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="604" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C604" s="7">
         <v>-3114</v>
       </c>
@@ -11688,11 +11891,11 @@
         <v>780</v>
       </c>
     </row>
-    <row r="605" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C605" s="47">
+    <row r="605" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
+      <c r="C605" s="43">
         <v>-3115</v>
       </c>
-      <c r="D605" s="50" t="s">
+      <c r="D605" s="46" t="s">
         <v>781</v>
       </c>
       <c r="E605" s="9" t="s">
@@ -11700,13 +11903,13 @@
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="48"/>
-      <c r="D606" s="51"/>
+      <c r="C606" s="44"/>
+      <c r="D606" s="47"/>
       <c r="E606" s="10"/>
     </row>
-    <row r="607" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="49"/>
-      <c r="D607" s="52"/>
+    <row r="607" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C607" s="45"/>
+      <c r="D607" s="48"/>
       <c r="E607" s="11" t="s">
         <v>783</v>
       </c>
@@ -11720,11 +11923,11 @@
       </c>
       <c r="E608" s="14"/>
     </row>
-    <row r="609" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C609" s="47">
+    <row r="609" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C609" s="43">
         <v>-3117</v>
       </c>
-      <c r="D609" s="50" t="s">
+      <c r="D609" s="46" t="s">
         <v>785</v>
       </c>
       <c r="E609" s="9" t="s">
@@ -11732,37 +11935,37 @@
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="48"/>
-      <c r="D610" s="51"/>
+      <c r="C610" s="44"/>
+      <c r="D610" s="47"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="48"/>
-      <c r="D611" s="51"/>
+      <c r="C611" s="44"/>
+      <c r="D611" s="47"/>
       <c r="E611" s="12" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="612" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C612" s="48"/>
-      <c r="D612" s="51"/>
+    <row r="612" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C612" s="44"/>
+      <c r="D612" s="47"/>
       <c r="E612" s="12" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="48"/>
-      <c r="D613" s="51"/>
+      <c r="C613" s="44"/>
+      <c r="D613" s="47"/>
       <c r="E613" s="10"/>
     </row>
-    <row r="614" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="49"/>
-      <c r="D614" s="52"/>
+    <row r="614" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C614" s="45"/>
+      <c r="D614" s="48"/>
       <c r="E614" s="11" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="615" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C615" s="7">
         <v>-3118</v>
       </c>
@@ -11773,7 +11976,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="616" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C616" s="7">
         <v>-3119</v>
       </c>
@@ -11784,11 +11987,11 @@
         <v>793</v>
       </c>
     </row>
-    <row r="617" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C617" s="47">
+    <row r="617" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C617" s="43">
         <v>-3120</v>
       </c>
-      <c r="D617" s="50" t="s">
+      <c r="D617" s="46" t="s">
         <v>794</v>
       </c>
       <c r="E617" s="9" t="s">
@@ -11796,50 +11999,50 @@
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="48"/>
-      <c r="D618" s="51"/>
+      <c r="C618" s="44"/>
+      <c r="D618" s="47"/>
       <c r="E618" s="10"/>
     </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C619" s="48"/>
-      <c r="D619" s="51"/>
+    <row r="619" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C619" s="44"/>
+      <c r="D619" s="47"/>
       <c r="E619" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="620" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C620" s="48"/>
-      <c r="D620" s="51"/>
+    <row r="620" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C620" s="44"/>
+      <c r="D620" s="47"/>
       <c r="E620" s="12" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="621" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C621" s="48"/>
-      <c r="D621" s="51"/>
+    <row r="621" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C621" s="44"/>
+      <c r="D621" s="47"/>
       <c r="E621" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C622" s="48"/>
-      <c r="D622" s="51"/>
+    <row r="622" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C622" s="44"/>
+      <c r="D622" s="47"/>
       <c r="E622" s="12" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="49"/>
-      <c r="D623" s="52"/>
+      <c r="C623" s="45"/>
+      <c r="D623" s="48"/>
       <c r="E623" s="11" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="624" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C624" s="47">
+    <row r="624" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C624" s="43">
         <v>-3121</v>
       </c>
-      <c r="D624" s="50" t="s">
+      <c r="D624" s="46" t="s">
         <v>801</v>
       </c>
       <c r="E624" s="9" t="s">
@@ -11847,37 +12050,37 @@
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="48"/>
-      <c r="D625" s="51"/>
+      <c r="C625" s="44"/>
+      <c r="D625" s="47"/>
       <c r="E625" s="10"/>
     </row>
-    <row r="626" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C626" s="48"/>
-      <c r="D626" s="51"/>
+    <row r="626" spans="3:5" ht="78" x14ac:dyDescent="0.4">
+      <c r="C626" s="44"/>
+      <c r="D626" s="47"/>
       <c r="E626" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="627" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C627" s="48"/>
-      <c r="D627" s="51"/>
+    <row r="627" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C627" s="44"/>
+      <c r="D627" s="47"/>
       <c r="E627" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="48"/>
-      <c r="D628" s="51"/>
+      <c r="C628" s="44"/>
+      <c r="D628" s="47"/>
       <c r="E628" s="10"/>
     </row>
-    <row r="629" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="49"/>
-      <c r="D629" s="52"/>
+    <row r="629" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C629" s="45"/>
+      <c r="D629" s="48"/>
       <c r="E629" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="630" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="3:5" ht="390.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C630" s="38">
         <v>-3122</v>
       </c>
@@ -11885,10 +12088,10 @@
         <v>806</v>
       </c>
       <c r="E630" s="9" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="631" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="631" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C631" s="7">
         <v>-3123</v>
       </c>
@@ -11899,11 +12102,11 @@
         <v>808</v>
       </c>
     </row>
-    <row r="632" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C632" s="47">
+    <row r="632" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="C632" s="43">
         <v>-3124</v>
       </c>
-      <c r="D632" s="50" t="s">
+      <c r="D632" s="46" t="s">
         <v>809</v>
       </c>
       <c r="E632" s="9" t="s">
@@ -11911,18 +12114,18 @@
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="48"/>
-      <c r="D633" s="51"/>
+      <c r="C633" s="44"/>
+      <c r="D633" s="47"/>
       <c r="E633" s="10"/>
     </row>
-    <row r="634" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="49"/>
-      <c r="D634" s="52"/>
+    <row r="634" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C634" s="45"/>
+      <c r="D634" s="48"/>
       <c r="E634" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="635" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C635" s="7">
         <v>-3125</v>
       </c>
@@ -11933,11 +12136,11 @@
         <v>813</v>
       </c>
     </row>
-    <row r="636" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C636" s="47">
+    <row r="636" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C636" s="43">
         <v>-3126</v>
       </c>
-      <c r="D636" s="50" t="s">
+      <c r="D636" s="46" t="s">
         <v>814</v>
       </c>
       <c r="E636" s="9" t="s">
@@ -11945,49 +12148,49 @@
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="48"/>
-      <c r="D637" s="51"/>
+      <c r="C637" s="44"/>
+      <c r="D637" s="47"/>
       <c r="E637" s="10"/>
     </row>
-    <row r="638" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C638" s="48"/>
-      <c r="D638" s="51"/>
+    <row r="638" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C638" s="44"/>
+      <c r="D638" s="47"/>
       <c r="E638" s="12" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="639" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C639" s="48"/>
-      <c r="D639" s="51"/>
+    <row r="639" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C639" s="44"/>
+      <c r="D639" s="47"/>
       <c r="E639" s="12" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="48"/>
-      <c r="D640" s="51"/>
+      <c r="C640" s="44"/>
+      <c r="D640" s="47"/>
       <c r="E640" s="10"/>
     </row>
-    <row r="641" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C641" s="48"/>
-      <c r="D641" s="51"/>
+    <row r="641" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C641" s="44"/>
+      <c r="D641" s="47"/>
       <c r="E641" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="48"/>
-      <c r="D642" s="51"/>
+      <c r="C642" s="44"/>
+      <c r="D642" s="47"/>
       <c r="E642" s="10"/>
     </row>
-    <row r="643" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="49"/>
-      <c r="D643" s="52"/>
+    <row r="643" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C643" s="45"/>
+      <c r="D643" s="48"/>
       <c r="E643" s="11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="644" spans="3:5" ht="250.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="3:5" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C644" s="7">
         <v>-3127</v>
       </c>
@@ -11995,10 +12198,10 @@
         <v>820</v>
       </c>
       <c r="E644" s="8" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="645" spans="3:5" ht="328.2" thickBot="1" x14ac:dyDescent="0.45">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="645" spans="3:5" ht="375" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C645" s="7">
         <v>-3128</v>
       </c>
@@ -12006,14 +12209,14 @@
         <v>821</v>
       </c>
       <c r="E645" s="8" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="646" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C646" s="47">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="646" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C646" s="43">
         <v>-3129</v>
       </c>
-      <c r="D646" s="50" t="s">
+      <c r="D646" s="46" t="s">
         <v>822</v>
       </c>
       <c r="E646" s="9" t="s">
@@ -12021,58 +12224,58 @@
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="48"/>
-      <c r="D647" s="51"/>
+      <c r="C647" s="44"/>
+      <c r="D647" s="47"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="48"/>
-      <c r="D648" s="51"/>
+      <c r="C648" s="44"/>
+      <c r="D648" s="47"/>
       <c r="E648" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="48"/>
-      <c r="D649" s="51"/>
+      <c r="C649" s="44"/>
+      <c r="D649" s="47"/>
       <c r="E649" s="10"/>
     </row>
-    <row r="650" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C650" s="48"/>
-      <c r="D650" s="51"/>
+    <row r="650" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C650" s="44"/>
+      <c r="D650" s="47"/>
       <c r="E650" s="12" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="48"/>
-      <c r="D651" s="51"/>
+      <c r="C651" s="44"/>
+      <c r="D651" s="47"/>
       <c r="E651" s="10"/>
     </row>
-    <row r="652" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C652" s="48"/>
-      <c r="D652" s="51"/>
+    <row r="652" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C652" s="44"/>
+      <c r="D652" s="47"/>
       <c r="E652" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="48"/>
-      <c r="D653" s="51"/>
+      <c r="C653" s="44"/>
+      <c r="D653" s="47"/>
       <c r="E653" s="10"/>
     </row>
-    <row r="654" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="49"/>
-      <c r="D654" s="52"/>
+    <row r="654" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C654" s="45"/>
+      <c r="D654" s="48"/>
       <c r="E654" s="11" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="655" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C655" s="47">
+    <row r="655" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C655" s="43">
         <v>-3130</v>
       </c>
-      <c r="D655" s="50" t="s">
+      <c r="D655" s="46" t="s">
         <v>828</v>
       </c>
       <c r="E655" s="9" t="s">
@@ -12080,18 +12283,18 @@
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="48"/>
-      <c r="D656" s="51"/>
+      <c r="C656" s="44"/>
+      <c r="D656" s="47"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="49"/>
-      <c r="D657" s="52"/>
+      <c r="C657" s="45"/>
+      <c r="D657" s="48"/>
       <c r="E657" s="11" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="658" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C658" s="7">
         <v>-3131</v>
       </c>
@@ -12102,7 +12305,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="659" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C659" s="7">
         <v>-3132</v>
       </c>
@@ -12113,7 +12316,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="660" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="3:5" ht="141" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C660" s="7">
         <v>-3133</v>
       </c>
@@ -12121,45 +12324,45 @@
         <v>835</v>
       </c>
       <c r="E660" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
+      <c r="C661" s="43">
+        <v>-3134</v>
+      </c>
+      <c r="D661" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="E661" s="9" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="661" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C661" s="47">
-        <v>-3134</v>
-      </c>
-      <c r="D661" s="50" t="s">
-        <v>836</v>
-      </c>
-      <c r="E661" s="9" t="s">
-        <v>974</v>
-      </c>
-    </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="48"/>
-      <c r="D662" s="51"/>
+      <c r="C662" s="44"/>
+      <c r="D662" s="47"/>
       <c r="E662" s="10"/>
     </row>
-    <row r="663" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C663" s="48"/>
-      <c r="D663" s="51"/>
+    <row r="663" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C663" s="44"/>
+      <c r="D663" s="47"/>
       <c r="E663" s="12" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="48"/>
-      <c r="D664" s="51"/>
+      <c r="C664" s="44"/>
+      <c r="D664" s="47"/>
       <c r="E664" s="10"/>
     </row>
-    <row r="665" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="49"/>
-      <c r="D665" s="52"/>
+    <row r="665" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C665" s="45"/>
+      <c r="D665" s="48"/>
       <c r="E665" s="11" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="666" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C666" s="7">
         <v>-3135</v>
       </c>
@@ -12170,7 +12373,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="667" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C667" s="7">
         <v>-3136</v>
       </c>
@@ -12182,10 +12385,10 @@
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="47">
+      <c r="C668" s="43">
         <v>-3137</v>
       </c>
-      <c r="D668" s="50" t="s">
+      <c r="D668" s="46" t="s">
         <v>843</v>
       </c>
       <c r="E668" s="9" t="s">
@@ -12193,29 +12396,29 @@
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="48"/>
-      <c r="D669" s="51"/>
+      <c r="C669" s="44"/>
+      <c r="D669" s="47"/>
       <c r="E669" s="10"/>
     </row>
-    <row r="670" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C670" s="48"/>
-      <c r="D670" s="51"/>
+    <row r="670" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C670" s="44"/>
+      <c r="D670" s="47"/>
       <c r="E670" s="12" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="671" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="49"/>
-      <c r="D671" s="52"/>
+    <row r="671" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C671" s="45"/>
+      <c r="D671" s="48"/>
       <c r="E671" s="11" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="672" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C672" s="47">
+    <row r="672" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C672" s="43">
         <v>-3138</v>
       </c>
-      <c r="D672" s="50" t="s">
+      <c r="D672" s="46" t="s">
         <v>847</v>
       </c>
       <c r="E672" s="9" t="s">
@@ -12223,34 +12426,34 @@
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="48"/>
-      <c r="D673" s="51"/>
+      <c r="C673" s="44"/>
+      <c r="D673" s="47"/>
       <c r="E673" s="10"/>
     </row>
-    <row r="674" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C674" s="48"/>
-      <c r="D674" s="51"/>
+    <row r="674" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C674" s="44"/>
+      <c r="D674" s="47"/>
       <c r="E674" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="48"/>
-      <c r="D675" s="51"/>
+      <c r="C675" s="44"/>
+      <c r="D675" s="47"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="49"/>
-      <c r="D676" s="52"/>
+      <c r="C676" s="45"/>
+      <c r="D676" s="48"/>
       <c r="E676" s="11" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="677" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C677" s="47">
+    <row r="677" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C677" s="43">
         <v>-3139</v>
       </c>
-      <c r="D677" s="50" t="s">
+      <c r="D677" s="46" t="s">
         <v>851</v>
       </c>
       <c r="E677" s="9" t="s">
@@ -12258,86 +12461,86 @@
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="48"/>
-      <c r="D678" s="51"/>
+      <c r="C678" s="44"/>
+      <c r="D678" s="47"/>
       <c r="E678" s="10"/>
     </row>
-    <row r="679" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C679" s="48"/>
-      <c r="D679" s="51"/>
+    <row r="679" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C679" s="44"/>
+      <c r="D679" s="47"/>
       <c r="E679" s="12" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="48"/>
-      <c r="D680" s="51"/>
+      <c r="C680" s="44"/>
+      <c r="D680" s="47"/>
       <c r="E680" s="12" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="48"/>
-      <c r="D681" s="51"/>
+      <c r="C681" s="44"/>
+      <c r="D681" s="47"/>
       <c r="E681" s="12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="682" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C682" s="48"/>
-      <c r="D682" s="51"/>
+    <row r="682" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C682" s="44"/>
+      <c r="D682" s="47"/>
       <c r="E682" s="12" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="48"/>
-      <c r="D683" s="51"/>
+      <c r="C683" s="44"/>
+      <c r="D683" s="47"/>
       <c r="E683" s="10"/>
     </row>
-    <row r="684" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="49"/>
-      <c r="D684" s="52"/>
+    <row r="684" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C684" s="45"/>
+      <c r="D684" s="48"/>
       <c r="E684" s="11" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="685" spans="3:5" ht="202.8" x14ac:dyDescent="0.4">
-      <c r="C685" s="47">
+    <row r="685" spans="3:5" ht="265.2" x14ac:dyDescent="0.4">
+      <c r="C685" s="43">
         <v>-3140</v>
       </c>
-      <c r="D685" s="50" t="s">
+      <c r="D685" s="46" t="s">
         <v>858</v>
       </c>
       <c r="E685" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="48"/>
-      <c r="D686" s="51"/>
+      <c r="C686" s="44"/>
+      <c r="D686" s="47"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="48"/>
-      <c r="D687" s="51"/>
+      <c r="C687" s="44"/>
+      <c r="D687" s="47"/>
       <c r="E687" s="12"/>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="48"/>
-      <c r="D688" s="51"/>
+      <c r="C688" s="44"/>
+      <c r="D688" s="47"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="49"/>
-      <c r="D689" s="52"/>
+      <c r="C689" s="45"/>
+      <c r="D689" s="48"/>
       <c r="E689" s="11"/>
     </row>
-    <row r="690" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C690" s="47">
+    <row r="690" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C690" s="43">
         <v>-3141</v>
       </c>
-      <c r="D690" s="50" t="s">
+      <c r="D690" s="46" t="s">
         <v>859</v>
       </c>
       <c r="E690" s="9" t="s">
@@ -12345,34 +12548,34 @@
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="48"/>
-      <c r="D691" s="51"/>
+      <c r="C691" s="44"/>
+      <c r="D691" s="47"/>
       <c r="E691" s="10"/>
     </row>
-    <row r="692" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="48"/>
-      <c r="D692" s="51"/>
+    <row r="692" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C692" s="44"/>
+      <c r="D692" s="47"/>
       <c r="E692" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="48"/>
-      <c r="D693" s="51"/>
+      <c r="C693" s="44"/>
+      <c r="D693" s="47"/>
       <c r="E693" s="10"/>
     </row>
-    <row r="694" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="49"/>
-      <c r="D694" s="52"/>
+    <row r="694" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C694" s="45"/>
+      <c r="D694" s="48"/>
       <c r="E694" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="47">
+      <c r="C695" s="43">
         <v>-3142</v>
       </c>
-      <c r="D695" s="50" t="s">
+      <c r="D695" s="46" t="s">
         <v>862</v>
       </c>
       <c r="E695" s="9" t="s">
@@ -12380,34 +12583,34 @@
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="48"/>
-      <c r="D696" s="51"/>
+      <c r="C696" s="44"/>
+      <c r="D696" s="47"/>
       <c r="E696" s="10"/>
     </row>
-    <row r="697" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C697" s="48"/>
-      <c r="D697" s="51"/>
+    <row r="697" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C697" s="44"/>
+      <c r="D697" s="47"/>
       <c r="E697" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="48"/>
-      <c r="D698" s="51"/>
+      <c r="C698" s="44"/>
+      <c r="D698" s="47"/>
       <c r="E698" s="10"/>
     </row>
-    <row r="699" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="49"/>
-      <c r="D699" s="52"/>
+    <row r="699" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C699" s="45"/>
+      <c r="D699" s="48"/>
       <c r="E699" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="700" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C700" s="47">
+    <row r="700" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C700" s="43">
         <v>-3143</v>
       </c>
-      <c r="D700" s="50" t="s">
+      <c r="D700" s="46" t="s">
         <v>865</v>
       </c>
       <c r="E700" s="9" t="s">
@@ -12415,42 +12618,42 @@
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="48"/>
-      <c r="D701" s="51"/>
+      <c r="C701" s="44"/>
+      <c r="D701" s="47"/>
       <c r="E701" s="10"/>
     </row>
-    <row r="702" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C702" s="48"/>
-      <c r="D702" s="51"/>
+    <row r="702" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C702" s="44"/>
+      <c r="D702" s="47"/>
       <c r="E702" s="12" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="48"/>
-      <c r="D703" s="51"/>
+      <c r="C703" s="44"/>
+      <c r="D703" s="47"/>
       <c r="E703" s="10"/>
     </row>
-    <row r="704" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C704" s="48"/>
-      <c r="D704" s="51"/>
+    <row r="704" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="C704" s="44"/>
+      <c r="D704" s="47"/>
       <c r="E704" s="12" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="48"/>
-      <c r="D705" s="51"/>
+      <c r="C705" s="44"/>
+      <c r="D705" s="47"/>
       <c r="E705" s="10"/>
     </row>
-    <row r="706" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="49"/>
-      <c r="D706" s="52"/>
+    <row r="706" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C706" s="45"/>
+      <c r="D706" s="48"/>
       <c r="E706" s="11" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="707" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="3:5" ht="125.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C707" s="7">
         <v>-3144</v>
       </c>
@@ -12461,7 +12664,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="708" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="3:5" ht="109.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C708" s="7">
         <v>-3145</v>
       </c>
@@ -12472,7 +12675,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="709" spans="3:5" ht="156.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="3:5" ht="203.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C709" s="7">
         <v>-3146</v>
       </c>
@@ -12480,70 +12683,70 @@
         <v>874</v>
       </c>
       <c r="E709" s="20" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="710" spans="3:5" ht="296.39999999999998" x14ac:dyDescent="0.4">
-      <c r="C710" s="47">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="710" spans="3:5" ht="358.8" x14ac:dyDescent="0.4">
+      <c r="C710" s="43">
         <v>-3147</v>
       </c>
-      <c r="D710" s="50" t="s">
+      <c r="D710" s="46" t="s">
         <v>875</v>
       </c>
       <c r="E710" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="48"/>
-      <c r="D711" s="51"/>
+      <c r="C711" s="44"/>
+      <c r="D711" s="47"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="48"/>
-      <c r="D712" s="51"/>
+      <c r="C712" s="44"/>
+      <c r="D712" s="47"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="48"/>
-      <c r="D713" s="51"/>
+      <c r="C713" s="44"/>
+      <c r="D713" s="47"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="48"/>
-      <c r="D714" s="51"/>
+      <c r="C714" s="44"/>
+      <c r="D714" s="47"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="48"/>
-      <c r="D715" s="51"/>
+      <c r="C715" s="44"/>
+      <c r="D715" s="47"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="48"/>
-      <c r="D716" s="51"/>
+      <c r="C716" s="44"/>
+      <c r="D716" s="47"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="48"/>
-      <c r="D717" s="51"/>
+      <c r="C717" s="44"/>
+      <c r="D717" s="47"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="48"/>
-      <c r="D718" s="51"/>
+      <c r="C718" s="44"/>
+      <c r="D718" s="47"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="49"/>
-      <c r="D719" s="52"/>
+      <c r="C719" s="45"/>
+      <c r="D719" s="48"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="43" t="s">
+      <c r="C720" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="D720" s="45" t="s">
+      <c r="D720" s="57" t="s">
         <v>877</v>
       </c>
       <c r="E720" s="25" t="s">
@@ -12551,8 +12754,8 @@
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="44"/>
-      <c r="D721" s="46"/>
+      <c r="C721" s="56"/>
+      <c r="D721" s="58"/>
       <c r="E721" s="26" t="s">
         <v>879</v>
       </c>
@@ -12569,10 +12772,10 @@
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="43" t="s">
+      <c r="C723" s="55" t="s">
         <v>883</v>
       </c>
-      <c r="D723" s="45" t="s">
+      <c r="D723" s="57" t="s">
         <v>884</v>
       </c>
       <c r="E723" s="28" t="s">
@@ -12580,8 +12783,8 @@
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="44"/>
-      <c r="D724" s="46"/>
+      <c r="C724" s="56"/>
+      <c r="D724" s="58"/>
       <c r="E724" s="26" t="s">
         <v>885</v>
       </c>
@@ -12631,22 +12834,22 @@
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="43" t="s">
+      <c r="C729" s="55" t="s">
         <v>898</v>
       </c>
       <c r="D729" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="E729" s="45" t="s">
+      <c r="E729" s="57" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="44"/>
+      <c r="C730" s="56"/>
       <c r="D730" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="E730" s="46"/>
+      <c r="E730" s="58"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
@@ -12705,18 +12908,18 @@
     </row>
     <row r="736" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C736" s="41" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="737" spans="3:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C737" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D737" s="40" t="s">
+        <v>977</v>
+      </c>
+      <c r="E737" s="33" t="s">
         <v>978</v>
-      </c>
-      <c r="E737" s="33" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="738" spans="3:5" x14ac:dyDescent="0.4">
@@ -12724,2298 +12927,2275 @@
     </row>
     <row r="739" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C739" s="39" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D739" s="40" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E739" s="33"/>
     </row>
     <row r="740" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C740" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="741" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C741" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="742" spans="3:5" ht="261" x14ac:dyDescent="0.4">
+      <c r="C742" t="s">
         <v>1019</v>
       </c>
-      <c r="D741" t="s">
+      <c r="D742" t="s">
         <v>1020</v>
       </c>
-      <c r="E741" t="s">
+      <c r="E742" s="33" t="s">
         <v>1006</v>
-      </c>
-    </row>
-    <row r="742" spans="3:5" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="C742" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D742" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E742" s="33" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="743" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C743" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D743" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="744" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C744" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D744" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="745" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C745" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D745" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="746" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C746" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D746" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="747" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C747" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D747" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="748" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C748" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D748" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="749" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C749" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D749" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="750" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C750" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D750" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="751" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C751" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D751" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="752" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C752" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D752" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="753" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C753" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="754" spans="3:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="C754" t="s">
         <v>1043</v>
       </c>
-      <c r="D753" t="s">
+      <c r="D754" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="754" spans="3:5" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="C754" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1046</v>
-      </c>
       <c r="E754" s="33" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="755" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C755" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D755" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="756" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C756" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D756" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="757" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C757" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D757" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="758" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C758" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D758" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="759" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C759" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D759" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="760" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C760" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D760" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E760" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="761" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C761" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D761" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="762" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C762" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D762" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="763" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C763" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D763" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="764" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C764" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D764" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="765" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C765" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D765" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="766" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C766" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D766" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="767" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C767" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="768" spans="3:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="C768" t="s">
         <v>1071</v>
       </c>
-      <c r="D767" t="s">
+      <c r="D768" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="768" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="C768" t="s">
+      <c r="E768" s="33" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="769" spans="3:5" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="C769" t="s">
         <v>1073</v>
       </c>
-      <c r="D768" t="s">
+      <c r="D769" t="s">
         <v>1074</v>
       </c>
-      <c r="E768" s="33" t="s">
+      <c r="E769" s="33" t="s">
         <v>1010</v>
-      </c>
-    </row>
-    <row r="769" spans="3:5" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="C769" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D769" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E769" s="33" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="770" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C770" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D770" t="s">
-        <v>1078</v>
+        <v>1076</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="771" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C771" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D771" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="772" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C772" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="773" spans="3:5" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="C773" t="s">
         <v>1081</v>
       </c>
-      <c r="D772" t="s">
+      <c r="D773" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="773" spans="3:5" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="C773" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1084</v>
-      </c>
       <c r="E773" s="33" t="s">
-        <v>1012</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="774" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C774" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D774" t="s">
-        <v>1086</v>
+        <v>1084</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="775" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C775" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D775" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="776" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C776" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="777" spans="3:5" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="C777" t="s">
         <v>1089</v>
       </c>
-      <c r="D776" t="s">
+      <c r="D777" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="777" spans="3:5" ht="87" x14ac:dyDescent="0.4">
-      <c r="C777" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1092</v>
-      </c>
       <c r="E777" s="33" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="778" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C778" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D778" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="779" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C779" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D779" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="780" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C780" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D780" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="781" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C781" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D781" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="782" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C782" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D782" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E782" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="783" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C783" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D783" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E783" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="784" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C784" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D784" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E784" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="785" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C785" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D785" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E785" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="786" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C786" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D786" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="787" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C787" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D787" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="788" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C788" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D788" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="789" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C789" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D789" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="790" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C790" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D790" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="791" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C791" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D791" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="792" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C792" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D792" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="793" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C793" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D793" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="794" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C794" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D794" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="795" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C795" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D795" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="796" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C796" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D796" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="797" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C797" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D797" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="798" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C798" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D798" t="s">
-        <v>1134</v>
+        <v>1132</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="799" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C799" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D799" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="800" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C800" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D800" t="s">
-        <v>1138</v>
+        <v>1136</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C801" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D801" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C802" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D802" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C803" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D803" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C804" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D804" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C805" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D805" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C806" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D806" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C807" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D807" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="808" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C808" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D808" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C809" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D809" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C810" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D810" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C811" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D811" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C812" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D812" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C813" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D813" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C814" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D814" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C815" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D815" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C816" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D816" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="817" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C817" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D817" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="818" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C818" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D818" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="819" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C819" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D819" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="820" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C820" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D820" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="821" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C821" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D821" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="822" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C822" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D822" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="823" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C823" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D823" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="824" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C824" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D824" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="825" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C825" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D825" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="826" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C826" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D826" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="827" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C827" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D827" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="828" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C828" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D828" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="829" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C829" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D829" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="830" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C830" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D830" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="831" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C831" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D831" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="832" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C832" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="833" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C833" t="s">
         <v>1201</v>
       </c>
-      <c r="D832" t="s">
+      <c r="D833" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="833" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C833" t="s">
+    <row r="834" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C834" t="s">
         <v>1203</v>
       </c>
-      <c r="D833" t="s">
+      <c r="D834" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="834" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C834" t="s">
+    <row r="835" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C835" t="s">
         <v>1205</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D835" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="835" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C835" t="s">
+      <c r="E835" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="836" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C836" t="s">
         <v>1207</v>
       </c>
-      <c r="D835" t="s">
+      <c r="D836" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="836" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C836" t="s">
+    <row r="837" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C837" t="s">
         <v>1209</v>
       </c>
-      <c r="D836" t="s">
+      <c r="D837" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="837" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C837" t="s">
+    <row r="838" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C838" t="s">
         <v>1211</v>
       </c>
-      <c r="D837" t="s">
+      <c r="D838" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="838" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C838" t="s">
+    <row r="839" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C839" t="s">
         <v>1213</v>
       </c>
-      <c r="D838" t="s">
+      <c r="D839" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="839" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C839" t="s">
+    <row r="840" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C840" t="s">
         <v>1215</v>
       </c>
-      <c r="D839" t="s">
+      <c r="D840" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="840" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C840" t="s">
+      <c r="E840" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="841" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C841" t="s">
         <v>1217</v>
       </c>
-      <c r="D840" t="s">
+      <c r="D841" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="841" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C841" t="s">
+    <row r="842" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C842" t="s">
         <v>1219</v>
       </c>
-      <c r="D841" t="s">
+      <c r="D842" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="842" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C842" t="s">
+    <row r="843" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C843" t="s">
         <v>1221</v>
       </c>
-      <c r="D842" t="s">
+      <c r="D843" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="843" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C843" t="s">
+    <row r="844" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C844" t="s">
         <v>1223</v>
       </c>
-      <c r="D843" t="s">
+      <c r="D844" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="844" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C844" t="s">
+      <c r="E844" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="845" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C845" t="s">
         <v>1225</v>
       </c>
-      <c r="D844" t="s">
+      <c r="D845" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="845" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C845" t="s">
+      <c r="E845" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="846" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C846" t="s">
         <v>1227</v>
       </c>
-      <c r="D845" t="s">
+      <c r="D846" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="846" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C846" t="s">
+      <c r="E846" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="847" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C847" t="s">
         <v>1229</v>
       </c>
-      <c r="D846" t="s">
+      <c r="D847" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="847" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C847" t="s">
+    <row r="848" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C848" t="s">
         <v>1231</v>
       </c>
-      <c r="D847" t="s">
+      <c r="D848" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="848" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C848" t="s">
+    <row r="849" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C849" t="s">
         <v>1233</v>
       </c>
-      <c r="D848" t="s">
+      <c r="D849" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="849" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C849" t="s">
+    <row r="850" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C850" t="s">
         <v>1235</v>
       </c>
-      <c r="D849" t="s">
+      <c r="D850" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="850" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C850" t="s">
+    <row r="851" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C851" t="s">
         <v>1237</v>
       </c>
-      <c r="D850" t="s">
+      <c r="D851" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="851" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C851" t="s">
+    <row r="852" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C852" t="s">
         <v>1239</v>
       </c>
-      <c r="D851" t="s">
+      <c r="D852" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="852" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C852" t="s">
+    <row r="853" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C853" t="s">
         <v>1241</v>
       </c>
-      <c r="D852" t="s">
+      <c r="D853" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="853" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C853" t="s">
+    <row r="854" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C854" t="s">
         <v>1243</v>
       </c>
-      <c r="D853" t="s">
+      <c r="D854" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="854" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C854" t="s">
+    <row r="855" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C855" t="s">
         <v>1245</v>
       </c>
-      <c r="D854" t="s">
+      <c r="D855" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="855" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C855" t="s">
+    <row r="856" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C856" t="s">
         <v>1247</v>
       </c>
-      <c r="D855" t="s">
+      <c r="D856" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="856" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C856" t="s">
+    <row r="857" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C857" t="s">
         <v>1249</v>
       </c>
-      <c r="D856" t="s">
+      <c r="D857" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="857" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C857" t="s">
+    <row r="858" spans="3:5" ht="261" x14ac:dyDescent="0.4">
+      <c r="C858" t="s">
         <v>1251</v>
       </c>
-      <c r="D857" t="s">
+      <c r="D858" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="858" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C858" t="s">
+      <c r="E858" s="33" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="859" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C859" t="s">
         <v>1253</v>
       </c>
-      <c r="D858" t="s">
+      <c r="D859" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="859" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C859" t="s">
+      <c r="E859" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="860" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C860" t="s">
         <v>1255</v>
       </c>
-      <c r="D859" t="s">
+      <c r="D860" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="860" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C860" t="s">
+      <c r="E860" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="861" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C861" t="s">
         <v>1257</v>
       </c>
-      <c r="D860" t="s">
+      <c r="D861" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="861" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C861" t="s">
+    <row r="862" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C862" t="s">
         <v>1259</v>
       </c>
-      <c r="D861" t="s">
+      <c r="D862" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="862" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C862" t="s">
+    <row r="863" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C863" t="s">
         <v>1261</v>
       </c>
-      <c r="D862" t="s">
+      <c r="D863" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="863" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C863" t="s">
+    <row r="864" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C864" t="s">
         <v>1263</v>
       </c>
-      <c r="D863" t="s">
+      <c r="D864" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="864" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C864" t="s">
+    <row r="865" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C865" t="s">
         <v>1265</v>
       </c>
-      <c r="D864" t="s">
+      <c r="D865" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="865" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C865" t="s">
+    <row r="866" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C866" t="s">
         <v>1267</v>
       </c>
-      <c r="D865" t="s">
+      <c r="D866" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="866" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C866" t="s">
+    <row r="867" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C867" t="s">
         <v>1269</v>
       </c>
-      <c r="D866" t="s">
+      <c r="D867" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="867" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C867" t="s">
+    <row r="868" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C868" t="s">
         <v>1271</v>
       </c>
-      <c r="D867" t="s">
+      <c r="D868" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="868" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C868" t="s">
+      <c r="E868" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="869" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C869" t="s">
         <v>1273</v>
       </c>
-      <c r="D868" t="s">
+      <c r="D869" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="869" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C869" t="s">
+    <row r="870" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C870" t="s">
         <v>1275</v>
       </c>
-      <c r="D869" t="s">
+      <c r="D870" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="870" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C870" t="s">
+    <row r="871" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C871" t="s">
         <v>1277</v>
       </c>
-      <c r="D870" t="s">
+      <c r="D871" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="871" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C871" t="s">
+      <c r="E871" s="33" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="872" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C872" t="s">
         <v>1279</v>
       </c>
-      <c r="D871" t="s">
+      <c r="D872" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="872" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C872" t="s">
+      <c r="E872" s="33" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="873" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C873" t="s">
         <v>1281</v>
       </c>
-      <c r="D872" t="s">
+      <c r="D873" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="873" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C873" t="s">
+      <c r="E873" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="874" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C874" t="s">
         <v>1283</v>
       </c>
-      <c r="D873" t="s">
+      <c r="D874" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="874" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C874" t="s">
+      <c r="E874" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="875" spans="3:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C875" t="s">
         <v>1285</v>
       </c>
-      <c r="D874" t="s">
+      <c r="D875" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="875" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C875" t="s">
+      <c r="E875" s="33" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="876" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C876" t="s">
         <v>1287</v>
       </c>
-      <c r="D875" t="s">
+      <c r="D876" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="876" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C876" t="s">
+      <c r="E876" s="33" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="877" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C877" t="s">
         <v>1289</v>
       </c>
-      <c r="D876" t="s">
+      <c r="D877" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="877" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C877" t="s">
+      <c r="E877" s="33" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="878" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C878" t="s">
         <v>1291</v>
       </c>
-      <c r="D877" t="s">
+      <c r="D878" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="878" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C878" t="s">
+      <c r="E878" s="33" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="879" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C879" t="s">
         <v>1293</v>
       </c>
-      <c r="D878" t="s">
+      <c r="D879" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="879" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C879" t="s">
+      <c r="E879" s="33" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="880" spans="3:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="C880" t="s">
         <v>1295</v>
       </c>
-      <c r="D879" t="s">
+      <c r="D880" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="880" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C880" t="s">
+      <c r="E880" s="33" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="881" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C881" t="s">
         <v>1297</v>
       </c>
-      <c r="D880" t="s">
+      <c r="D881" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="881" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C881" t="s">
+    <row r="882" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C882" t="s">
         <v>1299</v>
       </c>
-      <c r="D881" t="s">
+      <c r="D882" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="882" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C882" t="s">
+    <row r="883" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C883" t="s">
         <v>1301</v>
       </c>
-      <c r="D882" t="s">
+      <c r="D883" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="883" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C883" t="s">
+    <row r="884" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C884" t="s">
         <v>1303</v>
       </c>
-      <c r="D883" t="s">
+      <c r="D884" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="884" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C884" t="s">
+    <row r="885" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C885" t="s">
         <v>1305</v>
       </c>
-      <c r="D884" t="s">
+      <c r="D885" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="885" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C885" t="s">
+    <row r="886" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C886" t="s">
         <v>1307</v>
       </c>
-      <c r="D885" t="s">
+      <c r="D886" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="886" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C886" t="s">
+    <row r="887" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C887" t="s">
         <v>1309</v>
       </c>
-      <c r="D886" t="s">
+      <c r="D887" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="887" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C887" t="s">
+    <row r="888" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C888" t="s">
         <v>1311</v>
       </c>
-      <c r="D887" t="s">
+      <c r="D888" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="888" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C888" t="s">
+    <row r="889" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="C889" t="s">
         <v>1313</v>
       </c>
-      <c r="D888" t="s">
+      <c r="D889" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="889" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C889" t="s">
+      <c r="E889" s="33" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="890" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C890" t="s">
         <v>1315</v>
       </c>
-      <c r="D889" t="s">
+      <c r="D890" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="890" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C890" t="s">
+      <c r="E890" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="891" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C891" t="s">
         <v>1317</v>
       </c>
-      <c r="D890" t="s">
+      <c r="D891" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="891" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C891" t="s">
+      <c r="E891" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="892" spans="3:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="C892" t="s">
         <v>1319</v>
       </c>
-      <c r="D891" t="s">
+      <c r="D892" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="892" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C892" t="s">
+      <c r="E892" s="33" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="893" spans="3:5" ht="87" x14ac:dyDescent="0.4">
+      <c r="C893" t="s">
         <v>1321</v>
       </c>
-      <c r="D892" t="s">
+      <c r="D893" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="893" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C893" t="s">
+      <c r="E893" s="33" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="894" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C894" t="s">
         <v>1323</v>
       </c>
-      <c r="D893" t="s">
+      <c r="D894" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="895" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C895" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="894" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C894" t="s">
+      <c r="D895" t="s">
         <v>1325</v>
       </c>
-      <c r="D894" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="895" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C895" t="s">
+    </row>
+    <row r="896" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C896" t="s">
         <v>1326</v>
       </c>
-      <c r="D895" t="s">
+      <c r="D896" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="896" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C896" t="s">
+    <row r="897" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C897" t="s">
         <v>1328</v>
       </c>
-      <c r="D896" t="s">
+      <c r="D897" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="897" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C897" t="s">
+    <row r="898" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C898" t="s">
         <v>1330</v>
       </c>
-      <c r="D897" t="s">
+      <c r="D898" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="898" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C898" t="s">
+    <row r="899" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C899" t="s">
         <v>1332</v>
       </c>
-      <c r="D898" t="s">
+      <c r="D899" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="899" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C899" t="s">
+    <row r="900" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C900" t="s">
         <v>1334</v>
       </c>
-      <c r="D899" t="s">
+      <c r="D900" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="900" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C900" t="s">
+    <row r="901" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C901" t="s">
         <v>1336</v>
       </c>
-      <c r="D900" t="s">
+      <c r="D901" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="901" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C901" t="s">
+    <row r="902" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C902" t="s">
         <v>1338</v>
       </c>
-      <c r="D901" t="s">
+      <c r="D902" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="903" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C903" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="902" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C902" t="s">
+      <c r="D903" t="s">
         <v>1340</v>
       </c>
-      <c r="D902" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="903" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C903" t="s">
+    </row>
+    <row r="904" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C904" t="s">
         <v>1341</v>
       </c>
-      <c r="D903" t="s">
+      <c r="D904" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="904" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C904" t="s">
+    <row r="905" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C905" t="s">
         <v>1343</v>
       </c>
-      <c r="D904" t="s">
+      <c r="D905" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="906" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C906" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="905" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C905" t="s">
+      <c r="D906" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="907" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C907" t="s">
         <v>1345</v>
       </c>
-      <c r="D905" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="906" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C906" t="s">
+      <c r="D907" t="s">
         <v>1346</v>
       </c>
-      <c r="D906" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="907" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C907" t="s">
+    </row>
+    <row r="908" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C908" t="s">
         <v>1347</v>
       </c>
-      <c r="D907" t="s">
+      <c r="D908" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="908" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C908" t="s">
+    <row r="909" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C909" t="s">
         <v>1349</v>
       </c>
-      <c r="D908" t="s">
+      <c r="D909" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="909" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C909" t="s">
+    <row r="910" spans="3:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="C910" t="s">
         <v>1351</v>
       </c>
-      <c r="D909" t="s">
+      <c r="D910" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="910" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C910" t="s">
+      <c r="E910" s="33" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="911" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C911" t="s">
         <v>1353</v>
       </c>
-      <c r="D910" t="s">
+      <c r="D911" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="911" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C911" t="s">
+    <row r="912" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C912" t="s">
         <v>1355</v>
       </c>
-      <c r="D911" t="s">
+      <c r="D912" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="912" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C912" t="s">
+    <row r="913" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C913" t="s">
         <v>1357</v>
       </c>
-      <c r="D912" t="s">
+      <c r="D913" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="913" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C913" t="s">
+    <row r="914" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C914" t="s">
         <v>1359</v>
       </c>
-      <c r="D913" t="s">
+      <c r="D914" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="914" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C914" t="s">
+    <row r="915" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C915" t="s">
         <v>1361</v>
       </c>
-      <c r="D914" t="s">
+      <c r="D915" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="915" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C915" t="s">
+    <row r="916" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C916" t="s">
         <v>1363</v>
       </c>
-      <c r="D915" t="s">
+      <c r="D916" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="916" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C916" t="s">
+    <row r="917" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C917" t="s">
         <v>1365</v>
       </c>
-      <c r="D916" t="s">
+      <c r="D917" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="917" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C917" t="s">
+    <row r="918" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C918" t="s">
         <v>1367</v>
       </c>
-      <c r="D917" t="s">
+      <c r="D918" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="918" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C918" t="s">
+    <row r="919" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C919" t="s">
         <v>1369</v>
       </c>
-      <c r="D918" t="s">
+      <c r="D919" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="919" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C919" t="s">
+    <row r="920" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C920" t="s">
         <v>1371</v>
       </c>
-      <c r="D919" t="s">
+      <c r="D920" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="920" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C920" t="s">
+    <row r="921" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C921" t="s">
         <v>1373</v>
       </c>
-      <c r="D920" t="s">
+      <c r="D921" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="921" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C921" t="s">
+    <row r="922" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C922" t="s">
         <v>1375</v>
       </c>
-      <c r="D921" t="s">
+      <c r="D922" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="922" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C922" t="s">
+    <row r="923" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C923" t="s">
         <v>1377</v>
       </c>
-      <c r="D922" t="s">
+      <c r="D923" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="923" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C923" t="s">
+    <row r="924" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C924" t="s">
         <v>1379</v>
       </c>
-      <c r="D923" t="s">
+      <c r="D924" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="924" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C924" t="s">
+    <row r="925" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C925" t="s">
         <v>1381</v>
       </c>
-      <c r="D924" t="s">
+      <c r="D925" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="925" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C925" t="s">
+      <c r="E925" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="926" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C926" t="s">
         <v>1383</v>
       </c>
-      <c r="D925" t="s">
+      <c r="D926" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="926" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C926" t="s">
+      <c r="E926" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="927" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C927" t="s">
         <v>1385</v>
       </c>
-      <c r="D926" t="s">
+      <c r="D927" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="927" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C927" t="s">
+    <row r="928" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C928" t="s">
         <v>1387</v>
       </c>
-      <c r="D927" t="s">
+      <c r="D928" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="928" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C928" t="s">
+    <row r="929" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C929" t="s">
         <v>1389</v>
       </c>
-      <c r="D928" t="s">
+      <c r="D929" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="929" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C929" t="s">
+    <row r="930" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C930" t="s">
         <v>1391</v>
       </c>
-      <c r="D929" t="s">
+      <c r="D930" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="930" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C930" t="s">
+    <row r="931" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C931" t="s">
         <v>1393</v>
       </c>
-      <c r="D930" t="s">
+      <c r="D931" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="931" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C931" t="s">
+    <row r="932" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C932" t="s">
         <v>1395</v>
       </c>
-      <c r="D931" t="s">
+      <c r="D932" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="932" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C932" t="s">
+    <row r="933" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C933" t="s">
         <v>1397</v>
       </c>
-      <c r="D932" t="s">
+      <c r="D933" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="933" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C933" t="s">
+    <row r="934" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C934" t="s">
         <v>1399</v>
       </c>
-      <c r="D933" t="s">
+      <c r="D934" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="934" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C934" t="s">
+    <row r="935" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C935" t="s">
         <v>1401</v>
       </c>
-      <c r="D934" t="s">
+      <c r="D935" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="935" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C935" t="s">
+    <row r="936" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C936" t="s">
         <v>1403</v>
       </c>
-      <c r="D935" t="s">
+      <c r="D936" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="936" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C936" t="s">
+    <row r="937" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C937" t="s">
         <v>1405</v>
       </c>
-      <c r="D936" t="s">
+      <c r="D937" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="937" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C937" t="s">
+    <row r="938" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C938" t="s">
         <v>1407</v>
       </c>
-      <c r="D937" t="s">
+      <c r="D938" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="938" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C938" t="s">
+    <row r="939" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C939" t="s">
         <v>1409</v>
       </c>
-      <c r="D938" t="s">
+      <c r="D939" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="939" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C939" t="s">
+    <row r="940" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C940" t="s">
         <v>1411</v>
       </c>
-      <c r="D939" t="s">
+      <c r="D940" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="940" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C940" t="s">
+    <row r="941" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C941" t="s">
         <v>1413</v>
       </c>
-      <c r="D940" t="s">
+      <c r="D941" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="941" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C941" t="s">
+      <c r="E941" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="942" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C942" t="s">
         <v>1415</v>
       </c>
-      <c r="D941" t="s">
+      <c r="D942" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="942" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C942" t="s">
+      <c r="E942" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="943" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C943" t="s">
         <v>1417</v>
       </c>
-      <c r="D942" t="s">
+      <c r="D943" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="943" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C943" t="s">
+    <row r="944" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C944" t="s">
         <v>1419</v>
       </c>
-      <c r="D943" t="s">
+      <c r="D944" t="s">
         <v>1420</v>
-      </c>
-    </row>
-    <row r="944" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C944" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="945" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C945" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D945" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="946" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C946" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D946" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="947" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C947" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D947" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C948" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D948" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C949" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D949" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="950" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C950" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D950" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="951" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C951" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D951" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C952" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D952" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="953" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C953" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D953" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="954" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C954" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D954" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="955" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C955" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D955" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C956" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D956" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C957" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D957" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C958" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D958" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="959" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C959" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D959" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C960" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D960" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="961" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C961" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D961" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="962" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C962" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D962" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="963" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C963" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D963" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="964" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C964" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D964" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="965" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C965" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D965" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="966" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C966" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D966" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="967" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C967" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D967" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="968" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C968" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D968" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="969" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C969" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D969" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="970" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C970" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D970" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="971" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C971" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D971" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="972" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C972" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D972" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="973" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C973" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D973" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="974" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C974" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D974" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="975" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C975" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="D975" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="976" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C976" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="D976" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="977" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C977" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D977" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="978" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C978" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D978" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="979" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C979" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D979" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="980" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C980" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="D980" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="981" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C981" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D981" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="982" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C982" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D982" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="983" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C983" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D983" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="984" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C984" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D984" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="985" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C985" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D985" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="986" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C986" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D986" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="987" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C987" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D987" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="988" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C988" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D988" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="989" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C989" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D989" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="990" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C990" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D990" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="991" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C991" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D991" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="992" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C992" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="993" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C993" t="s">
         <v>1517</v>
       </c>
-      <c r="D992" t="s">
+      <c r="D993" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="993" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C993" t="s">
+    <row r="994" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C994" t="s">
         <v>1519</v>
       </c>
-      <c r="D993" t="s">
+      <c r="D994" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="994" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C994" t="s">
+    <row r="995" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C995" t="s">
         <v>1521</v>
       </c>
-      <c r="D994" t="s">
+      <c r="D995" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="995" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C995" t="s">
+    <row r="996" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C996" t="s">
         <v>1523</v>
       </c>
-      <c r="D995" t="s">
+      <c r="D996" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="996" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C996" t="s">
+    <row r="997" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C997" t="s">
         <v>1525</v>
       </c>
-      <c r="D996" t="s">
+      <c r="D997" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="997" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C997" t="s">
+    <row r="998" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C998" t="s">
         <v>1527</v>
       </c>
-      <c r="D997" t="s">
+      <c r="D998" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="998" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C998" t="s">
+    <row r="999" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C999" t="s">
         <v>1529</v>
       </c>
-      <c r="D998" t="s">
+      <c r="D999" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="999" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C999" t="s">
+    <row r="1000" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1000" t="s">
         <v>1531</v>
       </c>
-      <c r="D999" t="s">
+      <c r="D1000" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="1000" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C1000" t="s">
+    <row r="1001" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1001" t="s">
         <v>1533</v>
       </c>
-      <c r="D1000" t="s">
+      <c r="D1001" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="1001" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C1001" t="s">
+    <row r="1002" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1002" t="s">
         <v>1535</v>
       </c>
-      <c r="D1001" t="s">
+      <c r="D1002" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="1002" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C1002" t="s">
+    <row r="1003" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1003" t="s">
         <v>1537</v>
       </c>
-      <c r="D1002" t="s">
+      <c r="D1003" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="1003" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C1003" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>1540</v>
+    <row r="1005" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1005" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C1006" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D1006" s="33" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E1006" s="33" t="s">
+        <v>1543</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -15030,6 +15210,144 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -5998,6 +5998,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6033,18 +6045,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6328,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A937" workbookViewId="0">
-      <selection activeCell="E949" sqref="E949"/>
+    <sheetView tabSelected="1" topLeftCell="A1003" workbookViewId="0">
+      <selection activeCell="D1006" sqref="D1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6945,10 +6945,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="49">
+      <c r="C56" s="53">
         <v>1061</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -6956,15 +6956,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="50"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -7168,10 +7168,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="43">
+      <c r="C77" s="47">
         <v>-208</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -7179,13 +7179,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="44"/>
-      <c r="D78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="45"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -7213,10 +7213,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C82" s="43">
+      <c r="C82" s="47">
         <v>-211</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="50" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -7224,64 +7224,64 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="44"/>
-      <c r="D83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="44"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="51"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="44"/>
-      <c r="D86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C87" s="44"/>
-      <c r="D87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="51"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="44"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="44"/>
-      <c r="D89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="45"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="43">
+      <c r="C91" s="47">
         <v>-212</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="50" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
@@ -7289,88 +7289,88 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="44"/>
-      <c r="D92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="44"/>
-      <c r="D93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="44"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="51"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="44"/>
-      <c r="D96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="44"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="44"/>
-      <c r="D98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="44"/>
-      <c r="D99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="44"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="44"/>
-      <c r="D102" s="47"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="44"/>
-      <c r="D103" s="47"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="45"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="47"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -7424,7 +7424,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="48"/>
+      <c r="E109" s="52"/>
     </row>
     <row r="110" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -8762,10 +8762,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C239" s="43">
+      <c r="C239" s="47">
         <v>-776</v>
       </c>
-      <c r="D239" s="46" t="s">
+      <c r="D239" s="50" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -8773,13 +8773,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="44"/>
-      <c r="D240" s="47"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="51"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="45"/>
-      <c r="D241" s="48"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -9142,20 +9142,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="43">
+      <c r="C275" s="47">
         <v>-811</v>
       </c>
-      <c r="D275" s="46" t="s">
+      <c r="D275" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="50" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="45"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
     </row>
     <row r="277" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -9191,10 +9191,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C280" s="43">
+      <c r="C280" s="47">
         <v>-1002</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="50" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -9202,22 +9202,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="44"/>
-      <c r="D281" s="47"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="51"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="45"/>
-      <c r="D282" s="48"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="52"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C283" s="43">
+      <c r="C283" s="47">
         <v>-1003</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="50" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -9225,13 +9225,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="44"/>
-      <c r="D284" s="47"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="51"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="45"/>
-      <c r="D285" s="48"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="52"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
@@ -9248,10 +9248,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C287" s="43">
+      <c r="C287" s="47">
         <v>-1005</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="50" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -9259,22 +9259,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="44"/>
-      <c r="D288" s="47"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="51"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="45"/>
-      <c r="D289" s="48"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="52"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C290" s="43">
+      <c r="C290" s="47">
         <v>-1006</v>
       </c>
-      <c r="D290" s="46" t="s">
+      <c r="D290" s="50" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -9282,36 +9282,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="44"/>
-      <c r="D291" s="47"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="51"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="44"/>
-      <c r="D292" s="47"/>
+      <c r="C292" s="48"/>
+      <c r="D292" s="51"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C293" s="44"/>
-      <c r="D293" s="47"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="51"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="45"/>
-      <c r="D294" s="48"/>
+      <c r="C294" s="49"/>
+      <c r="D294" s="52"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C295" s="43">
+      <c r="C295" s="47">
         <v>-1007</v>
       </c>
-      <c r="D295" s="46" t="s">
+      <c r="D295" s="50" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -9319,41 +9319,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="44"/>
-      <c r="D296" s="47"/>
+      <c r="C296" s="48"/>
+      <c r="D296" s="51"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C297" s="44"/>
-      <c r="D297" s="47"/>
+      <c r="C297" s="48"/>
+      <c r="D297" s="51"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="44"/>
-      <c r="D298" s="47"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="51"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C299" s="44"/>
-      <c r="D299" s="47"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="51"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="45"/>
-      <c r="D300" s="48"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="52"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
+      <c r="C301" s="47">
         <v>-1008</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="50" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -9361,22 +9361,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="44"/>
-      <c r="D302" s="47"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="51"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="45"/>
-      <c r="D303" s="48"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="52"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C304" s="43">
+      <c r="C304" s="47">
         <v>-1009</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="50" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -9384,22 +9384,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="44"/>
-      <c r="D305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="51"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="45"/>
-      <c r="D306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="52"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C307" s="43">
+      <c r="C307" s="47">
         <v>-1010</v>
       </c>
-      <c r="D307" s="46" t="s">
+      <c r="D307" s="50" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -9407,22 +9407,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="44"/>
-      <c r="D308" s="47"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="51"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="45"/>
-      <c r="D309" s="48"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="52"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="43">
+      <c r="C310" s="47">
         <v>-1011</v>
       </c>
-      <c r="D310" s="46" t="s">
+      <c r="D310" s="50" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -9430,13 +9430,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="44"/>
-      <c r="D311" s="47"/>
+      <c r="C311" s="48"/>
+      <c r="D311" s="51"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="45"/>
-      <c r="D312" s="48"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="52"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
@@ -9453,10 +9453,10 @@
       </c>
     </row>
     <row r="314" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C314" s="43">
+      <c r="C314" s="47">
         <v>-1013</v>
       </c>
-      <c r="D314" s="46" t="s">
+      <c r="D314" s="50" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -9464,29 +9464,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="44"/>
-      <c r="D315" s="47"/>
+      <c r="C315" s="48"/>
+      <c r="D315" s="51"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="44"/>
-      <c r="D316" s="47"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="51"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="45"/>
-      <c r="D317" s="48"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="52"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
+      <c r="C318" s="47">
         <v>-1014</v>
       </c>
-      <c r="D318" s="46" t="s">
+      <c r="D318" s="50" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -9494,13 +9494,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="44"/>
-      <c r="D319" s="47"/>
+      <c r="C319" s="48"/>
+      <c r="D319" s="51"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="45"/>
-      <c r="D320" s="48"/>
+      <c r="C320" s="49"/>
+      <c r="D320" s="52"/>
       <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9515,10 +9515,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C322" s="43">
+      <c r="C322" s="47">
         <v>-1016</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="50" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -9526,20 +9526,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="44"/>
-      <c r="D323" s="47"/>
+      <c r="C323" s="48"/>
+      <c r="D323" s="51"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C324" s="44"/>
-      <c r="D324" s="47"/>
+      <c r="C324" s="48"/>
+      <c r="D324" s="51"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="45"/>
-      <c r="D325" s="48"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="52"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
@@ -9567,10 +9567,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C328" s="43">
+      <c r="C328" s="47">
         <v>-1019</v>
       </c>
-      <c r="D328" s="46" t="s">
+      <c r="D328" s="50" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9578,22 +9578,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="44"/>
-      <c r="D329" s="47"/>
+      <c r="C329" s="48"/>
+      <c r="D329" s="51"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="45"/>
-      <c r="D330" s="48"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="52"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C331" s="43">
+      <c r="C331" s="47">
         <v>-1020</v>
       </c>
-      <c r="D331" s="46" t="s">
+      <c r="D331" s="50" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -9601,34 +9601,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="44"/>
-      <c r="D332" s="47"/>
+      <c r="C332" s="48"/>
+      <c r="D332" s="51"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C333" s="44"/>
-      <c r="D333" s="47"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="51"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="44"/>
-      <c r="D334" s="47"/>
+      <c r="C334" s="48"/>
+      <c r="D334" s="51"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="45"/>
-      <c r="D335" s="48"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="52"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C336" s="43">
+      <c r="C336" s="47">
         <v>-1021</v>
       </c>
-      <c r="D336" s="46" t="s">
+      <c r="D336" s="50" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -9636,13 +9636,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="44"/>
-      <c r="D337" s="47"/>
+      <c r="C337" s="48"/>
+      <c r="D337" s="51"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="45"/>
-      <c r="D338" s="48"/>
+      <c r="C338" s="49"/>
+      <c r="D338" s="52"/>
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9690,10 +9690,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C343" s="43">
+      <c r="C343" s="47">
         <v>-1026</v>
       </c>
-      <c r="D343" s="46" t="s">
+      <c r="D343" s="50" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -9701,34 +9701,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="44"/>
-      <c r="D344" s="47"/>
+      <c r="C344" s="48"/>
+      <c r="D344" s="51"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C345" s="44"/>
-      <c r="D345" s="47"/>
+      <c r="C345" s="48"/>
+      <c r="D345" s="51"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="44"/>
-      <c r="D346" s="47"/>
+      <c r="C346" s="48"/>
+      <c r="D346" s="51"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C347" s="44"/>
-      <c r="D347" s="47"/>
+      <c r="C347" s="48"/>
+      <c r="D347" s="51"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="45"/>
-      <c r="D348" s="48"/>
+      <c r="C348" s="49"/>
+      <c r="D348" s="52"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
@@ -9745,10 +9745,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="327.60000000000002" x14ac:dyDescent="0.4">
-      <c r="C350" s="43">
+      <c r="C350" s="47">
         <v>-1028</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="50" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -9756,48 +9756,48 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="44"/>
-      <c r="D351" s="47"/>
+      <c r="C351" s="48"/>
+      <c r="D351" s="51"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="44"/>
-      <c r="D352" s="47"/>
+      <c r="C352" s="48"/>
+      <c r="D352" s="51"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C353" s="44"/>
-      <c r="D353" s="47"/>
+      <c r="C353" s="48"/>
+      <c r="D353" s="51"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C354" s="44"/>
-      <c r="D354" s="47"/>
+      <c r="C354" s="48"/>
+      <c r="D354" s="51"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="44"/>
-      <c r="D355" s="47"/>
+      <c r="C355" s="48"/>
+      <c r="D355" s="51"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="45"/>
-      <c r="D356" s="48"/>
+      <c r="C356" s="49"/>
+      <c r="D356" s="52"/>
       <c r="E356" s="15" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="374.4" x14ac:dyDescent="0.4">
-      <c r="C357" s="43">
+      <c r="C357" s="47">
         <v>-1029</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="50" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -9805,41 +9805,41 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="44"/>
-      <c r="D358" s="47"/>
+      <c r="C358" s="48"/>
+      <c r="D358" s="51"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C359" s="44"/>
-      <c r="D359" s="47"/>
+      <c r="C359" s="48"/>
+      <c r="D359" s="51"/>
       <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="44"/>
-      <c r="D360" s="47"/>
+      <c r="C360" s="48"/>
+      <c r="D360" s="51"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="44"/>
-      <c r="D361" s="47"/>
+      <c r="C361" s="48"/>
+      <c r="D361" s="51"/>
       <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="45"/>
-      <c r="D362" s="48"/>
+      <c r="C362" s="49"/>
+      <c r="D362" s="52"/>
       <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C363" s="43">
+      <c r="C363" s="47">
         <v>-1030</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="50" t="s">
         <v>503</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -9847,25 +9847,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="44"/>
-      <c r="D364" s="47"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="51"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C365" s="44"/>
-      <c r="D365" s="47"/>
+      <c r="C365" s="48"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="44"/>
-      <c r="D366" s="47"/>
+      <c r="C366" s="48"/>
+      <c r="D366" s="51"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="45"/>
-      <c r="D367" s="48"/>
+      <c r="C367" s="49"/>
+      <c r="D367" s="52"/>
       <c r="E367" s="11" t="s">
         <v>506</v>
       </c>
@@ -9893,10 +9893,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C370" s="43">
+      <c r="C370" s="47">
         <v>-1033</v>
       </c>
-      <c r="D370" s="46" t="s">
+      <c r="D370" s="50" t="s">
         <v>511</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -9904,22 +9904,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="44"/>
-      <c r="D371" s="47"/>
+      <c r="C371" s="48"/>
+      <c r="D371" s="51"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="45"/>
-      <c r="D372" s="48"/>
+      <c r="C372" s="49"/>
+      <c r="D372" s="52"/>
       <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C373" s="43">
+      <c r="C373" s="47">
         <v>-1034</v>
       </c>
-      <c r="D373" s="46" t="s">
+      <c r="D373" s="50" t="s">
         <v>997</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -9927,20 +9927,20 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="44"/>
-      <c r="D374" s="47"/>
+      <c r="C374" s="48"/>
+      <c r="D374" s="51"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="45"/>
-      <c r="D375" s="48"/>
+      <c r="C375" s="49"/>
+      <c r="D375" s="52"/>
       <c r="E375" s="15"/>
     </row>
     <row r="376" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C376" s="43">
+      <c r="C376" s="47">
         <v>-1035</v>
       </c>
-      <c r="D376" s="46" t="s">
+      <c r="D376" s="50" t="s">
         <v>514</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -9948,20 +9948,20 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="44"/>
-      <c r="D377" s="47"/>
+      <c r="C377" s="48"/>
+      <c r="D377" s="51"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="45"/>
-      <c r="D378" s="48"/>
+      <c r="C378" s="49"/>
+      <c r="D378" s="52"/>
       <c r="E378" s="15"/>
     </row>
     <row r="379" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C379" s="43">
+      <c r="C379" s="47">
         <v>-1036</v>
       </c>
-      <c r="D379" s="46" t="s">
+      <c r="D379" s="50" t="s">
         <v>515</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -9969,22 +9969,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="44"/>
-      <c r="D380" s="47"/>
+      <c r="C380" s="48"/>
+      <c r="D380" s="51"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="45"/>
-      <c r="D381" s="48"/>
+      <c r="C381" s="49"/>
+      <c r="D381" s="52"/>
       <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C382" s="43">
+      <c r="C382" s="47">
         <v>-1037</v>
       </c>
-      <c r="D382" s="46" t="s">
+      <c r="D382" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -9992,22 +9992,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="44"/>
-      <c r="D383" s="47"/>
+      <c r="C383" s="48"/>
+      <c r="D383" s="51"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="45"/>
-      <c r="D384" s="48"/>
+      <c r="C384" s="49"/>
+      <c r="D384" s="52"/>
       <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C385" s="43">
+      <c r="C385" s="47">
         <v>-1038</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="50" t="s">
         <v>521</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -10015,22 +10015,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="44"/>
-      <c r="D386" s="47"/>
+      <c r="C386" s="48"/>
+      <c r="D386" s="51"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="45"/>
-      <c r="D387" s="48"/>
+      <c r="C387" s="49"/>
+      <c r="D387" s="52"/>
       <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C388" s="43">
+      <c r="C388" s="47">
         <v>-1039</v>
       </c>
-      <c r="D388" s="46" t="s">
+      <c r="D388" s="50" t="s">
         <v>524</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -10038,22 +10038,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="44"/>
-      <c r="D389" s="47"/>
+      <c r="C389" s="48"/>
+      <c r="D389" s="51"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="45"/>
-      <c r="D390" s="48"/>
+      <c r="C390" s="49"/>
+      <c r="D390" s="52"/>
       <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C391" s="43">
+      <c r="C391" s="47">
         <v>-1040</v>
       </c>
-      <c r="D391" s="46" t="s">
+      <c r="D391" s="50" t="s">
         <v>527</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -10061,22 +10061,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="44"/>
-      <c r="D392" s="47"/>
+      <c r="C392" s="48"/>
+      <c r="D392" s="51"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="45"/>
-      <c r="D393" s="48"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="52"/>
       <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C394" s="43">
+      <c r="C394" s="47">
         <v>-1041</v>
       </c>
-      <c r="D394" s="46" t="s">
+      <c r="D394" s="50" t="s">
         <v>530</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -10084,13 +10084,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="44"/>
-      <c r="D395" s="47"/>
+      <c r="C395" s="48"/>
+      <c r="D395" s="51"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="45"/>
-      <c r="D396" s="48"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="52"/>
       <c r="E396" s="15" t="s">
         <v>532</v>
       </c>
@@ -10107,10 +10107,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C398" s="43">
+      <c r="C398" s="47">
         <v>-1043</v>
       </c>
-      <c r="D398" s="46" t="s">
+      <c r="D398" s="50" t="s">
         <v>535</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -10118,25 +10118,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="44"/>
-      <c r="D399" s="47"/>
+      <c r="C399" s="48"/>
+      <c r="D399" s="51"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C400" s="44"/>
-      <c r="D400" s="47"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="51"/>
       <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="44"/>
-      <c r="D401" s="47"/>
+      <c r="C401" s="48"/>
+      <c r="D401" s="51"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="45"/>
-      <c r="D402" s="48"/>
+      <c r="C402" s="49"/>
+      <c r="D402" s="52"/>
       <c r="E402" s="11" t="s">
         <v>538</v>
       </c>
@@ -10153,10 +10153,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="43">
+      <c r="C404" s="47">
         <v>-1045</v>
       </c>
-      <c r="D404" s="46" t="s">
+      <c r="D404" s="50" t="s">
         <v>541</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -10164,43 +10164,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="44"/>
-      <c r="D405" s="47"/>
+      <c r="C405" s="48"/>
+      <c r="D405" s="51"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="44"/>
-      <c r="D406" s="47"/>
+      <c r="C406" s="48"/>
+      <c r="D406" s="51"/>
       <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="44"/>
-      <c r="D407" s="47"/>
+      <c r="C407" s="48"/>
+      <c r="D407" s="51"/>
       <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="408" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C408" s="44"/>
-      <c r="D408" s="47"/>
+      <c r="C408" s="48"/>
+      <c r="D408" s="51"/>
       <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="45"/>
-      <c r="D409" s="48"/>
+      <c r="C409" s="49"/>
+      <c r="D409" s="52"/>
       <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C410" s="43">
+      <c r="C410" s="47">
         <v>-1046</v>
       </c>
-      <c r="D410" s="46" t="s">
+      <c r="D410" s="50" t="s">
         <v>547</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -10208,13 +10208,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="44"/>
-      <c r="D411" s="47"/>
+      <c r="C411" s="48"/>
+      <c r="D411" s="51"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="45"/>
-      <c r="D412" s="48"/>
+      <c r="C412" s="49"/>
+      <c r="D412" s="52"/>
       <c r="E412" s="15" t="s">
         <v>549</v>
       </c>
@@ -10264,10 +10264,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C417" s="43">
+      <c r="C417" s="47">
         <v>-1051</v>
       </c>
-      <c r="D417" s="46" t="s">
+      <c r="D417" s="50" t="s">
         <v>558</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -10275,29 +10275,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="44"/>
-      <c r="D418" s="47"/>
+      <c r="C418" s="48"/>
+      <c r="D418" s="51"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C419" s="44"/>
-      <c r="D419" s="47"/>
+      <c r="C419" s="48"/>
+      <c r="D419" s="51"/>
       <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="45"/>
-      <c r="D420" s="48"/>
+      <c r="C420" s="49"/>
+      <c r="D420" s="52"/>
       <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
+      <c r="C421" s="47">
         <v>-1052</v>
       </c>
-      <c r="D421" s="46" t="s">
+      <c r="D421" s="50" t="s">
         <v>562</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -10305,22 +10305,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="44"/>
-      <c r="D422" s="47"/>
+      <c r="C422" s="48"/>
+      <c r="D422" s="51"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="45"/>
-      <c r="D423" s="48"/>
+      <c r="C423" s="49"/>
+      <c r="D423" s="52"/>
       <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C424" s="43">
+      <c r="C424" s="47">
         <v>-1053</v>
       </c>
-      <c r="D424" s="46" t="s">
+      <c r="D424" s="50" t="s">
         <v>565</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -10328,13 +10328,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="44"/>
-      <c r="D425" s="47"/>
+      <c r="C425" s="48"/>
+      <c r="D425" s="51"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="45"/>
-      <c r="D426" s="48"/>
+      <c r="C426" s="49"/>
+      <c r="D426" s="52"/>
       <c r="E426" s="11" t="s">
         <v>567</v>
       </c>
@@ -10351,10 +10351,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
+      <c r="C428" s="47">
         <v>-1055</v>
       </c>
-      <c r="D428" s="46" t="s">
+      <c r="D428" s="50" t="s">
         <v>570</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -10362,29 +10362,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="44"/>
-      <c r="D429" s="47"/>
+      <c r="C429" s="48"/>
+      <c r="D429" s="51"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C430" s="44"/>
-      <c r="D430" s="47"/>
+      <c r="C430" s="48"/>
+      <c r="D430" s="51"/>
       <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="45"/>
-      <c r="D431" s="48"/>
+      <c r="C431" s="49"/>
+      <c r="D431" s="52"/>
       <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
+      <c r="C432" s="47">
         <v>-1056</v>
       </c>
-      <c r="D432" s="46" t="s">
+      <c r="D432" s="50" t="s">
         <v>574</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -10392,13 +10392,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="44"/>
-      <c r="D433" s="47"/>
+      <c r="C433" s="48"/>
+      <c r="D433" s="51"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="45"/>
-      <c r="D434" s="48"/>
+      <c r="C434" s="49"/>
+      <c r="D434" s="52"/>
       <c r="E434" s="11" t="s">
         <v>576</v>
       </c>
@@ -10757,10 +10757,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="43">
+      <c r="C468" s="47">
         <v>-1600</v>
       </c>
-      <c r="D468" s="46" t="s">
+      <c r="D468" s="50" t="s">
         <v>637</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -10768,15 +10768,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="44"/>
-      <c r="D469" s="47"/>
+      <c r="C469" s="48"/>
+      <c r="D469" s="51"/>
       <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="45"/>
-      <c r="D470" s="48"/>
+      <c r="C470" s="49"/>
+      <c r="D470" s="52"/>
       <c r="E470" s="11" t="s">
         <v>640</v>
       </c>
@@ -10870,10 +10870,10 @@
       </c>
     </row>
     <row r="479" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
+      <c r="C479" s="47">
         <v>-1610</v>
       </c>
-      <c r="D479" s="46" t="s">
+      <c r="D479" s="50" t="s">
         <v>655</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -10881,37 +10881,37 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="44"/>
-      <c r="D480" s="47"/>
+      <c r="C480" s="48"/>
+      <c r="D480" s="51"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C481" s="44"/>
-      <c r="D481" s="47"/>
+      <c r="C481" s="48"/>
+      <c r="D481" s="51"/>
       <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="44"/>
-      <c r="D482" s="47"/>
+      <c r="C482" s="48"/>
+      <c r="D482" s="51"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C483" s="44"/>
-      <c r="D483" s="47"/>
+      <c r="C483" s="48"/>
+      <c r="D483" s="51"/>
       <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="44"/>
-      <c r="D484" s="47"/>
+      <c r="C484" s="48"/>
+      <c r="D484" s="51"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="45"/>
-      <c r="D485" s="48"/>
+      <c r="C485" s="49"/>
+      <c r="D485" s="52"/>
       <c r="E485" s="11" t="s">
         <v>659</v>
       </c>
@@ -11296,10 +11296,10 @@
       <c r="E522" s="14"/>
     </row>
     <row r="523" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C523" s="43">
+      <c r="C523" s="47">
         <v>-3014</v>
       </c>
-      <c r="D523" s="46" t="s">
+      <c r="D523" s="50" t="s">
         <v>715</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -11307,22 +11307,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="44"/>
-      <c r="D524" s="47"/>
+      <c r="C524" s="48"/>
+      <c r="D524" s="51"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="45"/>
-      <c r="D525" s="48"/>
+      <c r="C525" s="49"/>
+      <c r="D525" s="52"/>
       <c r="E525" s="11" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C526" s="43">
+      <c r="C526" s="47">
         <v>-3015</v>
       </c>
-      <c r="D526" s="46" t="s">
+      <c r="D526" s="50" t="s">
         <v>718</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -11330,13 +11330,13 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="44"/>
-      <c r="D527" s="47"/>
+      <c r="C527" s="48"/>
+      <c r="D527" s="51"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="45"/>
-      <c r="D528" s="48"/>
+      <c r="C528" s="49"/>
+      <c r="D528" s="52"/>
       <c r="E528" s="11" t="s">
         <v>720</v>
       </c>
@@ -11408,10 +11408,10 @@
       </c>
     </row>
     <row r="535" spans="3:5" ht="249.6" x14ac:dyDescent="0.4">
-      <c r="C535" s="43">
+      <c r="C535" s="47">
         <v>-3104</v>
       </c>
-      <c r="D535" s="46" t="s">
+      <c r="D535" s="50" t="s">
         <v>732</v>
       </c>
       <c r="E535" s="9" t="s">
@@ -11419,58 +11419,58 @@
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="44"/>
-      <c r="D536" s="47"/>
+      <c r="C536" s="48"/>
+      <c r="D536" s="51"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C537" s="44"/>
-      <c r="D537" s="47"/>
+      <c r="C537" s="48"/>
+      <c r="D537" s="51"/>
       <c r="E537" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="44"/>
-      <c r="D538" s="47"/>
+      <c r="C538" s="48"/>
+      <c r="D538" s="51"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C539" s="44"/>
-      <c r="D539" s="47"/>
+      <c r="C539" s="48"/>
+      <c r="D539" s="51"/>
       <c r="E539" s="12" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="44"/>
-      <c r="D540" s="47"/>
+      <c r="C540" s="48"/>
+      <c r="D540" s="51"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C541" s="44"/>
-      <c r="D541" s="47"/>
+      <c r="C541" s="48"/>
+      <c r="D541" s="51"/>
       <c r="E541" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="44"/>
-      <c r="D542" s="47"/>
+      <c r="C542" s="48"/>
+      <c r="D542" s="51"/>
       <c r="E542" s="12"/>
     </row>
     <row r="543" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="45"/>
-      <c r="D543" s="48"/>
+      <c r="C543" s="49"/>
+      <c r="D543" s="52"/>
       <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C544" s="43">
+      <c r="C544" s="47">
         <v>-3105</v>
       </c>
-      <c r="D544" s="46" t="s">
+      <c r="D544" s="50" t="s">
         <v>737</v>
       </c>
       <c r="E544" s="9" t="s">
@@ -11478,32 +11478,32 @@
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="44"/>
-      <c r="D545" s="47"/>
+      <c r="C545" s="48"/>
+      <c r="D545" s="51"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="44"/>
-      <c r="D546" s="47"/>
+      <c r="C546" s="48"/>
+      <c r="D546" s="51"/>
       <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="44"/>
-      <c r="D547" s="47"/>
+      <c r="C547" s="48"/>
+      <c r="D547" s="51"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="45"/>
-      <c r="D548" s="48"/>
+      <c r="C548" s="49"/>
+      <c r="D548" s="52"/>
       <c r="E548" s="15"/>
     </row>
     <row r="549" spans="3:5" ht="312" x14ac:dyDescent="0.4">
-      <c r="C549" s="43">
+      <c r="C549" s="47">
         <v>-3106</v>
       </c>
-      <c r="D549" s="46" t="s">
+      <c r="D549" s="50" t="s">
         <v>739</v>
       </c>
       <c r="E549" s="9" t="s">
@@ -11511,133 +11511,133 @@
       </c>
     </row>
     <row r="550" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C550" s="44"/>
-      <c r="D550" s="47"/>
+      <c r="C550" s="48"/>
+      <c r="D550" s="51"/>
       <c r="E550" s="10"/>
     </row>
     <row r="551" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C551" s="44"/>
-      <c r="D551" s="47"/>
+      <c r="C551" s="48"/>
+      <c r="D551" s="51"/>
       <c r="E551" s="12"/>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C552" s="44"/>
-      <c r="D552" s="47"/>
+      <c r="C552" s="48"/>
+      <c r="D552" s="51"/>
       <c r="E552" s="10"/>
     </row>
     <row r="553" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C553" s="44"/>
-      <c r="D553" s="47"/>
+      <c r="C553" s="48"/>
+      <c r="D553" s="51"/>
       <c r="E553" s="12" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="554" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C554" s="44"/>
-      <c r="D554" s="47"/>
+      <c r="C554" s="48"/>
+      <c r="D554" s="51"/>
       <c r="E554" s="12" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="555" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C555" s="44"/>
-      <c r="D555" s="47"/>
+      <c r="C555" s="48"/>
+      <c r="D555" s="51"/>
       <c r="E555" s="12" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="556" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C556" s="44"/>
-      <c r="D556" s="47"/>
+      <c r="C556" s="48"/>
+      <c r="D556" s="51"/>
       <c r="E556" s="12" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C557" s="44"/>
-      <c r="D557" s="47"/>
+      <c r="C557" s="48"/>
+      <c r="D557" s="51"/>
       <c r="E557" s="12" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="558" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C558" s="44"/>
-      <c r="D558" s="47"/>
+      <c r="C558" s="48"/>
+      <c r="D558" s="51"/>
       <c r="E558" s="10"/>
     </row>
     <row r="559" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C559" s="44"/>
-      <c r="D559" s="47"/>
+      <c r="C559" s="48"/>
+      <c r="D559" s="51"/>
       <c r="E559" s="12" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C560" s="44"/>
-      <c r="D560" s="47"/>
+      <c r="C560" s="48"/>
+      <c r="D560" s="51"/>
       <c r="E560" s="12"/>
     </row>
     <row r="561" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C561" s="44"/>
-      <c r="D561" s="47"/>
+      <c r="C561" s="48"/>
+      <c r="D561" s="51"/>
       <c r="E561" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C562" s="44"/>
-      <c r="D562" s="47"/>
+      <c r="C562" s="48"/>
+      <c r="D562" s="51"/>
       <c r="E562" s="16" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C563" s="44"/>
-      <c r="D563" s="47"/>
+      <c r="C563" s="48"/>
+      <c r="D563" s="51"/>
       <c r="E563" s="16" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C564" s="44"/>
-      <c r="D564" s="47"/>
+      <c r="C564" s="48"/>
+      <c r="D564" s="51"/>
       <c r="E564" s="16" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C565" s="44"/>
-      <c r="D565" s="47"/>
+      <c r="C565" s="48"/>
+      <c r="D565" s="51"/>
       <c r="E565" s="16" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="566" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C566" s="44"/>
-      <c r="D566" s="47"/>
+      <c r="C566" s="48"/>
+      <c r="D566" s="51"/>
       <c r="E566" s="16" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C567" s="44"/>
-      <c r="D567" s="47"/>
+      <c r="C567" s="48"/>
+      <c r="D567" s="51"/>
       <c r="E567" s="16" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="568" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C568" s="45"/>
-      <c r="D568" s="48"/>
+      <c r="C568" s="49"/>
+      <c r="D568" s="52"/>
       <c r="E568" s="15" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="569" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C569" s="43">
+      <c r="C569" s="47">
         <v>-3107</v>
       </c>
-      <c r="D569" s="46" t="s">
+      <c r="D569" s="50" t="s">
         <v>754</v>
       </c>
       <c r="E569" s="9" t="s">
@@ -11645,22 +11645,22 @@
       </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C570" s="44"/>
-      <c r="D570" s="47"/>
+      <c r="C570" s="48"/>
+      <c r="D570" s="51"/>
       <c r="E570" s="12"/>
     </row>
     <row r="571" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C571" s="45"/>
-      <c r="D571" s="48"/>
+      <c r="C571" s="49"/>
+      <c r="D571" s="52"/>
       <c r="E571" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="572" spans="3:5" ht="234" x14ac:dyDescent="0.4">
-      <c r="C572" s="43">
+      <c r="C572" s="47">
         <v>-3108</v>
       </c>
-      <c r="D572" s="46" t="s">
+      <c r="D572" s="50" t="s">
         <v>756</v>
       </c>
       <c r="E572" s="9" t="s">
@@ -11668,20 +11668,20 @@
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C573" s="44"/>
-      <c r="D573" s="47"/>
+      <c r="C573" s="48"/>
+      <c r="D573" s="51"/>
       <c r="E573" s="12"/>
     </row>
     <row r="574" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C574" s="45"/>
-      <c r="D574" s="48"/>
+      <c r="C574" s="49"/>
+      <c r="D574" s="52"/>
       <c r="E574" s="15"/>
     </row>
     <row r="575" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C575" s="43">
+      <c r="C575" s="47">
         <v>-3109</v>
       </c>
-      <c r="D575" s="46" t="s">
+      <c r="D575" s="50" t="s">
         <v>757</v>
       </c>
       <c r="E575" s="9" t="s">
@@ -11689,20 +11689,20 @@
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C576" s="44"/>
-      <c r="D576" s="47"/>
+      <c r="C576" s="48"/>
+      <c r="D576" s="51"/>
       <c r="E576" s="12"/>
     </row>
     <row r="577" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C577" s="45"/>
-      <c r="D577" s="48"/>
+      <c r="C577" s="49"/>
+      <c r="D577" s="52"/>
       <c r="E577" s="15"/>
     </row>
     <row r="578" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C578" s="43">
+      <c r="C578" s="47">
         <v>-3110</v>
       </c>
-      <c r="D578" s="46" t="s">
+      <c r="D578" s="50" t="s">
         <v>758</v>
       </c>
       <c r="E578" s="9" t="s">
@@ -11710,23 +11710,23 @@
       </c>
     </row>
     <row r="579" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C579" s="44"/>
-      <c r="D579" s="47"/>
+      <c r="C579" s="48"/>
+      <c r="D579" s="51"/>
       <c r="E579" s="10"/>
     </row>
     <row r="580" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C580" s="44"/>
-      <c r="D580" s="47"/>
+      <c r="C580" s="48"/>
+      <c r="D580" s="51"/>
       <c r="E580" s="12"/>
     </row>
     <row r="581" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C581" s="44"/>
-      <c r="D581" s="47"/>
+      <c r="C581" s="48"/>
+      <c r="D581" s="51"/>
       <c r="E581" s="12"/>
     </row>
     <row r="582" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C582" s="45"/>
-      <c r="D582" s="48"/>
+      <c r="C582" s="49"/>
+      <c r="D582" s="52"/>
       <c r="E582" s="15"/>
     </row>
     <row r="583" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -11741,10 +11741,10 @@
       </c>
     </row>
     <row r="584" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C584" s="43">
+      <c r="C584" s="47">
         <v>-3112</v>
       </c>
-      <c r="D584" s="46" t="s">
+      <c r="D584" s="50" t="s">
         <v>761</v>
       </c>
       <c r="E584" s="9" t="s">
@@ -11752,22 +11752,22 @@
       </c>
     </row>
     <row r="585" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C585" s="44"/>
-      <c r="D585" s="47"/>
+      <c r="C585" s="48"/>
+      <c r="D585" s="51"/>
       <c r="E585" s="10"/>
     </row>
     <row r="586" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C586" s="45"/>
-      <c r="D586" s="48"/>
+      <c r="C586" s="49"/>
+      <c r="D586" s="52"/>
       <c r="E586" s="11" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="587" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C587" s="43">
+      <c r="C587" s="47">
         <v>-3113</v>
       </c>
-      <c r="D587" s="46" t="s">
+      <c r="D587" s="50" t="s">
         <v>764</v>
       </c>
       <c r="E587" s="9" t="s">
@@ -11775,107 +11775,107 @@
       </c>
     </row>
     <row r="588" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C588" s="44"/>
-      <c r="D588" s="47"/>
+      <c r="C588" s="48"/>
+      <c r="D588" s="51"/>
       <c r="E588" s="10"/>
     </row>
     <row r="589" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C589" s="44"/>
-      <c r="D589" s="47"/>
+      <c r="C589" s="48"/>
+      <c r="D589" s="51"/>
       <c r="E589" s="12" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="590" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C590" s="44"/>
-      <c r="D590" s="47"/>
+      <c r="C590" s="48"/>
+      <c r="D590" s="51"/>
       <c r="E590" s="10"/>
     </row>
     <row r="591" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C591" s="44"/>
-      <c r="D591" s="47"/>
+      <c r="C591" s="48"/>
+      <c r="D591" s="51"/>
       <c r="E591" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="592" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C592" s="44"/>
-      <c r="D592" s="47"/>
+      <c r="C592" s="48"/>
+      <c r="D592" s="51"/>
       <c r="E592" s="12" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="593" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C593" s="44"/>
-      <c r="D593" s="47"/>
+      <c r="C593" s="48"/>
+      <c r="D593" s="51"/>
       <c r="E593" s="12" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="594" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C594" s="44"/>
-      <c r="D594" s="47"/>
+      <c r="C594" s="48"/>
+      <c r="D594" s="51"/>
       <c r="E594" s="12" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="595" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C595" s="44"/>
-      <c r="D595" s="47"/>
+      <c r="C595" s="48"/>
+      <c r="D595" s="51"/>
       <c r="E595" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="596" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C596" s="44"/>
-      <c r="D596" s="47"/>
+      <c r="C596" s="48"/>
+      <c r="D596" s="51"/>
       <c r="E596" s="12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="597" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C597" s="44"/>
-      <c r="D597" s="47"/>
+      <c r="C597" s="48"/>
+      <c r="D597" s="51"/>
       <c r="E597" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="598" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C598" s="44"/>
-      <c r="D598" s="47"/>
+      <c r="C598" s="48"/>
+      <c r="D598" s="51"/>
       <c r="E598" s="12" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="599" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C599" s="44"/>
-      <c r="D599" s="47"/>
+      <c r="C599" s="48"/>
+      <c r="D599" s="51"/>
       <c r="E599" s="12" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="600" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C600" s="44"/>
-      <c r="D600" s="47"/>
+      <c r="C600" s="48"/>
+      <c r="D600" s="51"/>
       <c r="E600" s="12" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="601" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C601" s="44"/>
-      <c r="D601" s="47"/>
+      <c r="C601" s="48"/>
+      <c r="D601" s="51"/>
       <c r="E601" s="10"/>
     </row>
     <row r="602" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C602" s="44"/>
-      <c r="D602" s="47"/>
+      <c r="C602" s="48"/>
+      <c r="D602" s="51"/>
       <c r="E602" s="12" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="603" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C603" s="45"/>
-      <c r="D603" s="48"/>
+      <c r="C603" s="49"/>
+      <c r="D603" s="52"/>
       <c r="E603" s="11" t="s">
         <v>778</v>
       </c>
@@ -11892,10 +11892,10 @@
       </c>
     </row>
     <row r="605" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C605" s="43">
+      <c r="C605" s="47">
         <v>-3115</v>
       </c>
-      <c r="D605" s="46" t="s">
+      <c r="D605" s="50" t="s">
         <v>781</v>
       </c>
       <c r="E605" s="9" t="s">
@@ -11903,13 +11903,13 @@
       </c>
     </row>
     <row r="606" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C606" s="44"/>
-      <c r="D606" s="47"/>
+      <c r="C606" s="48"/>
+      <c r="D606" s="51"/>
       <c r="E606" s="10"/>
     </row>
     <row r="607" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C607" s="45"/>
-      <c r="D607" s="48"/>
+      <c r="C607" s="49"/>
+      <c r="D607" s="52"/>
       <c r="E607" s="11" t="s">
         <v>783</v>
       </c>
@@ -11924,10 +11924,10 @@
       <c r="E608" s="14"/>
     </row>
     <row r="609" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C609" s="43">
+      <c r="C609" s="47">
         <v>-3117</v>
       </c>
-      <c r="D609" s="46" t="s">
+      <c r="D609" s="50" t="s">
         <v>785</v>
       </c>
       <c r="E609" s="9" t="s">
@@ -11935,32 +11935,32 @@
       </c>
     </row>
     <row r="610" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C610" s="44"/>
-      <c r="D610" s="47"/>
+      <c r="C610" s="48"/>
+      <c r="D610" s="51"/>
       <c r="E610" s="10"/>
     </row>
     <row r="611" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C611" s="44"/>
-      <c r="D611" s="47"/>
+      <c r="C611" s="48"/>
+      <c r="D611" s="51"/>
       <c r="E611" s="12" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="612" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C612" s="44"/>
-      <c r="D612" s="47"/>
+      <c r="C612" s="48"/>
+      <c r="D612" s="51"/>
       <c r="E612" s="12" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="613" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C613" s="44"/>
-      <c r="D613" s="47"/>
+      <c r="C613" s="48"/>
+      <c r="D613" s="51"/>
       <c r="E613" s="10"/>
     </row>
     <row r="614" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C614" s="45"/>
-      <c r="D614" s="48"/>
+      <c r="C614" s="49"/>
+      <c r="D614" s="52"/>
       <c r="E614" s="11" t="s">
         <v>789</v>
       </c>
@@ -11988,10 +11988,10 @@
       </c>
     </row>
     <row r="617" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C617" s="43">
+      <c r="C617" s="47">
         <v>-3120</v>
       </c>
-      <c r="D617" s="46" t="s">
+      <c r="D617" s="50" t="s">
         <v>794</v>
       </c>
       <c r="E617" s="9" t="s">
@@ -11999,50 +11999,50 @@
       </c>
     </row>
     <row r="618" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C618" s="44"/>
-      <c r="D618" s="47"/>
+      <c r="C618" s="48"/>
+      <c r="D618" s="51"/>
       <c r="E618" s="10"/>
     </row>
     <row r="619" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C619" s="44"/>
-      <c r="D619" s="47"/>
+      <c r="C619" s="48"/>
+      <c r="D619" s="51"/>
       <c r="E619" s="12" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="620" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C620" s="44"/>
-      <c r="D620" s="47"/>
+      <c r="C620" s="48"/>
+      <c r="D620" s="51"/>
       <c r="E620" s="12" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="621" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C621" s="44"/>
-      <c r="D621" s="47"/>
+      <c r="C621" s="48"/>
+      <c r="D621" s="51"/>
       <c r="E621" s="12" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="622" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C622" s="44"/>
-      <c r="D622" s="47"/>
+      <c r="C622" s="48"/>
+      <c r="D622" s="51"/>
       <c r="E622" s="12" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="623" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C623" s="45"/>
-      <c r="D623" s="48"/>
+      <c r="C623" s="49"/>
+      <c r="D623" s="52"/>
       <c r="E623" s="11" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="624" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C624" s="43">
+      <c r="C624" s="47">
         <v>-3121</v>
       </c>
-      <c r="D624" s="46" t="s">
+      <c r="D624" s="50" t="s">
         <v>801</v>
       </c>
       <c r="E624" s="9" t="s">
@@ -12050,32 +12050,32 @@
       </c>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C625" s="44"/>
-      <c r="D625" s="47"/>
+      <c r="C625" s="48"/>
+      <c r="D625" s="51"/>
       <c r="E625" s="10"/>
     </row>
     <row r="626" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C626" s="44"/>
-      <c r="D626" s="47"/>
+      <c r="C626" s="48"/>
+      <c r="D626" s="51"/>
       <c r="E626" s="12" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="627" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C627" s="44"/>
-      <c r="D627" s="47"/>
+      <c r="C627" s="48"/>
+      <c r="D627" s="51"/>
       <c r="E627" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C628" s="44"/>
-      <c r="D628" s="47"/>
+      <c r="C628" s="48"/>
+      <c r="D628" s="51"/>
       <c r="E628" s="10"/>
     </row>
     <row r="629" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C629" s="45"/>
-      <c r="D629" s="48"/>
+      <c r="C629" s="49"/>
+      <c r="D629" s="52"/>
       <c r="E629" s="11" t="s">
         <v>805</v>
       </c>
@@ -12103,10 +12103,10 @@
       </c>
     </row>
     <row r="632" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C632" s="43">
+      <c r="C632" s="47">
         <v>-3124</v>
       </c>
-      <c r="D632" s="46" t="s">
+      <c r="D632" s="50" t="s">
         <v>809</v>
       </c>
       <c r="E632" s="9" t="s">
@@ -12114,13 +12114,13 @@
       </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C633" s="44"/>
-      <c r="D633" s="47"/>
+      <c r="C633" s="48"/>
+      <c r="D633" s="51"/>
       <c r="E633" s="10"/>
     </row>
     <row r="634" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C634" s="45"/>
-      <c r="D634" s="48"/>
+      <c r="C634" s="49"/>
+      <c r="D634" s="52"/>
       <c r="E634" s="11" t="s">
         <v>811</v>
       </c>
@@ -12137,10 +12137,10 @@
       </c>
     </row>
     <row r="636" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C636" s="43">
+      <c r="C636" s="47">
         <v>-3126</v>
       </c>
-      <c r="D636" s="46" t="s">
+      <c r="D636" s="50" t="s">
         <v>814</v>
       </c>
       <c r="E636" s="9" t="s">
@@ -12148,44 +12148,44 @@
       </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C637" s="44"/>
-      <c r="D637" s="47"/>
+      <c r="C637" s="48"/>
+      <c r="D637" s="51"/>
       <c r="E637" s="10"/>
     </row>
     <row r="638" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C638" s="44"/>
-      <c r="D638" s="47"/>
+      <c r="C638" s="48"/>
+      <c r="D638" s="51"/>
       <c r="E638" s="12" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="639" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C639" s="44"/>
-      <c r="D639" s="47"/>
+      <c r="C639" s="48"/>
+      <c r="D639" s="51"/>
       <c r="E639" s="12" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C640" s="44"/>
-      <c r="D640" s="47"/>
+      <c r="C640" s="48"/>
+      <c r="D640" s="51"/>
       <c r="E640" s="10"/>
     </row>
     <row r="641" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C641" s="44"/>
-      <c r="D641" s="47"/>
+      <c r="C641" s="48"/>
+      <c r="D641" s="51"/>
       <c r="E641" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C642" s="44"/>
-      <c r="D642" s="47"/>
+      <c r="C642" s="48"/>
+      <c r="D642" s="51"/>
       <c r="E642" s="10"/>
     </row>
     <row r="643" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C643" s="45"/>
-      <c r="D643" s="48"/>
+      <c r="C643" s="49"/>
+      <c r="D643" s="52"/>
       <c r="E643" s="11" t="s">
         <v>819</v>
       </c>
@@ -12213,10 +12213,10 @@
       </c>
     </row>
     <row r="646" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C646" s="43">
+      <c r="C646" s="47">
         <v>-3129</v>
       </c>
-      <c r="D646" s="46" t="s">
+      <c r="D646" s="50" t="s">
         <v>822</v>
       </c>
       <c r="E646" s="9" t="s">
@@ -12224,58 +12224,58 @@
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C647" s="44"/>
-      <c r="D647" s="47"/>
+      <c r="C647" s="48"/>
+      <c r="D647" s="51"/>
       <c r="E647" s="10"/>
     </row>
     <row r="648" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C648" s="44"/>
-      <c r="D648" s="47"/>
+      <c r="C648" s="48"/>
+      <c r="D648" s="51"/>
       <c r="E648" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="649" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C649" s="44"/>
-      <c r="D649" s="47"/>
+      <c r="C649" s="48"/>
+      <c r="D649" s="51"/>
       <c r="E649" s="10"/>
     </row>
     <row r="650" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C650" s="44"/>
-      <c r="D650" s="47"/>
+      <c r="C650" s="48"/>
+      <c r="D650" s="51"/>
       <c r="E650" s="12" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C651" s="44"/>
-      <c r="D651" s="47"/>
+      <c r="C651" s="48"/>
+      <c r="D651" s="51"/>
       <c r="E651" s="10"/>
     </row>
     <row r="652" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C652" s="44"/>
-      <c r="D652" s="47"/>
+      <c r="C652" s="48"/>
+      <c r="D652" s="51"/>
       <c r="E652" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C653" s="44"/>
-      <c r="D653" s="47"/>
+      <c r="C653" s="48"/>
+      <c r="D653" s="51"/>
       <c r="E653" s="10"/>
     </row>
     <row r="654" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C654" s="45"/>
-      <c r="D654" s="48"/>
+      <c r="C654" s="49"/>
+      <c r="D654" s="52"/>
       <c r="E654" s="11" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="655" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C655" s="43">
+      <c r="C655" s="47">
         <v>-3130</v>
       </c>
-      <c r="D655" s="46" t="s">
+      <c r="D655" s="50" t="s">
         <v>828</v>
       </c>
       <c r="E655" s="9" t="s">
@@ -12283,13 +12283,13 @@
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C656" s="44"/>
-      <c r="D656" s="47"/>
+      <c r="C656" s="48"/>
+      <c r="D656" s="51"/>
       <c r="E656" s="10"/>
     </row>
     <row r="657" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C657" s="45"/>
-      <c r="D657" s="48"/>
+      <c r="C657" s="49"/>
+      <c r="D657" s="52"/>
       <c r="E657" s="11" t="s">
         <v>830</v>
       </c>
@@ -12328,10 +12328,10 @@
       </c>
     </row>
     <row r="661" spans="3:5" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C661" s="43">
+      <c r="C661" s="47">
         <v>-3134</v>
       </c>
-      <c r="D661" s="46" t="s">
+      <c r="D661" s="50" t="s">
         <v>836</v>
       </c>
       <c r="E661" s="9" t="s">
@@ -12339,25 +12339,25 @@
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C662" s="44"/>
-      <c r="D662" s="47"/>
+      <c r="C662" s="48"/>
+      <c r="D662" s="51"/>
       <c r="E662" s="10"/>
     </row>
     <row r="663" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C663" s="44"/>
-      <c r="D663" s="47"/>
+      <c r="C663" s="48"/>
+      <c r="D663" s="51"/>
       <c r="E663" s="12" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C664" s="44"/>
-      <c r="D664" s="47"/>
+      <c r="C664" s="48"/>
+      <c r="D664" s="51"/>
       <c r="E664" s="10"/>
     </row>
     <row r="665" spans="3:5" ht="94.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C665" s="45"/>
-      <c r="D665" s="48"/>
+      <c r="C665" s="49"/>
+      <c r="D665" s="52"/>
       <c r="E665" s="11" t="s">
         <v>838</v>
       </c>
@@ -12385,10 +12385,10 @@
       </c>
     </row>
     <row r="668" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C668" s="43">
+      <c r="C668" s="47">
         <v>-3137</v>
       </c>
-      <c r="D668" s="46" t="s">
+      <c r="D668" s="50" t="s">
         <v>843</v>
       </c>
       <c r="E668" s="9" t="s">
@@ -12396,29 +12396,29 @@
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C669" s="44"/>
-      <c r="D669" s="47"/>
+      <c r="C669" s="48"/>
+      <c r="D669" s="51"/>
       <c r="E669" s="10"/>
     </row>
     <row r="670" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C670" s="44"/>
-      <c r="D670" s="47"/>
+      <c r="C670" s="48"/>
+      <c r="D670" s="51"/>
       <c r="E670" s="12" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="671" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C671" s="45"/>
-      <c r="D671" s="48"/>
+      <c r="C671" s="49"/>
+      <c r="D671" s="52"/>
       <c r="E671" s="11" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="672" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C672" s="43">
+      <c r="C672" s="47">
         <v>-3138</v>
       </c>
-      <c r="D672" s="46" t="s">
+      <c r="D672" s="50" t="s">
         <v>847</v>
       </c>
       <c r="E672" s="9" t="s">
@@ -12426,34 +12426,34 @@
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C673" s="44"/>
-      <c r="D673" s="47"/>
+      <c r="C673" s="48"/>
+      <c r="D673" s="51"/>
       <c r="E673" s="10"/>
     </row>
     <row r="674" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C674" s="44"/>
-      <c r="D674" s="47"/>
+      <c r="C674" s="48"/>
+      <c r="D674" s="51"/>
       <c r="E674" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C675" s="44"/>
-      <c r="D675" s="47"/>
+      <c r="C675" s="48"/>
+      <c r="D675" s="51"/>
       <c r="E675" s="10"/>
     </row>
     <row r="676" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C676" s="45"/>
-      <c r="D676" s="48"/>
+      <c r="C676" s="49"/>
+      <c r="D676" s="52"/>
       <c r="E676" s="11" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="677" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C677" s="43">
+      <c r="C677" s="47">
         <v>-3139</v>
       </c>
-      <c r="D677" s="46" t="s">
+      <c r="D677" s="50" t="s">
         <v>851</v>
       </c>
       <c r="E677" s="9" t="s">
@@ -12461,55 +12461,55 @@
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C678" s="44"/>
-      <c r="D678" s="47"/>
+      <c r="C678" s="48"/>
+      <c r="D678" s="51"/>
       <c r="E678" s="10"/>
     </row>
     <row r="679" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C679" s="44"/>
-      <c r="D679" s="47"/>
+      <c r="C679" s="48"/>
+      <c r="D679" s="51"/>
       <c r="E679" s="12" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C680" s="44"/>
-      <c r="D680" s="47"/>
+      <c r="C680" s="48"/>
+      <c r="D680" s="51"/>
       <c r="E680" s="12" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="681" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C681" s="44"/>
-      <c r="D681" s="47"/>
+      <c r="C681" s="48"/>
+      <c r="D681" s="51"/>
       <c r="E681" s="12" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="682" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C682" s="44"/>
-      <c r="D682" s="47"/>
+      <c r="C682" s="48"/>
+      <c r="D682" s="51"/>
       <c r="E682" s="12" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C683" s="44"/>
-      <c r="D683" s="47"/>
+      <c r="C683" s="48"/>
+      <c r="D683" s="51"/>
       <c r="E683" s="10"/>
     </row>
     <row r="684" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C684" s="45"/>
-      <c r="D684" s="48"/>
+      <c r="C684" s="49"/>
+      <c r="D684" s="52"/>
       <c r="E684" s="11" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="685" spans="3:5" ht="265.2" x14ac:dyDescent="0.4">
-      <c r="C685" s="43">
+      <c r="C685" s="47">
         <v>-3140</v>
       </c>
-      <c r="D685" s="46" t="s">
+      <c r="D685" s="50" t="s">
         <v>858</v>
       </c>
       <c r="E685" s="9" t="s">
@@ -12517,30 +12517,30 @@
       </c>
     </row>
     <row r="686" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C686" s="44"/>
-      <c r="D686" s="47"/>
+      <c r="C686" s="48"/>
+      <c r="D686" s="51"/>
       <c r="E686" s="10"/>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C687" s="44"/>
-      <c r="D687" s="47"/>
+      <c r="C687" s="48"/>
+      <c r="D687" s="51"/>
       <c r="E687" s="12"/>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C688" s="44"/>
-      <c r="D688" s="47"/>
+      <c r="C688" s="48"/>
+      <c r="D688" s="51"/>
       <c r="E688" s="10"/>
     </row>
     <row r="689" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C689" s="45"/>
-      <c r="D689" s="48"/>
+      <c r="C689" s="49"/>
+      <c r="D689" s="52"/>
       <c r="E689" s="11"/>
     </row>
     <row r="690" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C690" s="43">
+      <c r="C690" s="47">
         <v>-3141</v>
       </c>
-      <c r="D690" s="46" t="s">
+      <c r="D690" s="50" t="s">
         <v>859</v>
       </c>
       <c r="E690" s="9" t="s">
@@ -12548,34 +12548,34 @@
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C691" s="44"/>
-      <c r="D691" s="47"/>
+      <c r="C691" s="48"/>
+      <c r="D691" s="51"/>
       <c r="E691" s="10"/>
     </row>
     <row r="692" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C692" s="44"/>
-      <c r="D692" s="47"/>
+      <c r="C692" s="48"/>
+      <c r="D692" s="51"/>
       <c r="E692" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C693" s="44"/>
-      <c r="D693" s="47"/>
+      <c r="C693" s="48"/>
+      <c r="D693" s="51"/>
       <c r="E693" s="10"/>
     </row>
     <row r="694" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C694" s="45"/>
-      <c r="D694" s="48"/>
+      <c r="C694" s="49"/>
+      <c r="D694" s="52"/>
       <c r="E694" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C695" s="43">
+      <c r="C695" s="47">
         <v>-3142</v>
       </c>
-      <c r="D695" s="46" t="s">
+      <c r="D695" s="50" t="s">
         <v>862</v>
       </c>
       <c r="E695" s="9" t="s">
@@ -12583,34 +12583,34 @@
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C696" s="44"/>
-      <c r="D696" s="47"/>
+      <c r="C696" s="48"/>
+      <c r="D696" s="51"/>
       <c r="E696" s="10"/>
     </row>
     <row r="697" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C697" s="44"/>
-      <c r="D697" s="47"/>
+      <c r="C697" s="48"/>
+      <c r="D697" s="51"/>
       <c r="E697" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C698" s="44"/>
-      <c r="D698" s="47"/>
+      <c r="C698" s="48"/>
+      <c r="D698" s="51"/>
       <c r="E698" s="10"/>
     </row>
     <row r="699" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C699" s="45"/>
-      <c r="D699" s="48"/>
+      <c r="C699" s="49"/>
+      <c r="D699" s="52"/>
       <c r="E699" s="11" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="700" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C700" s="43">
+      <c r="C700" s="47">
         <v>-3143</v>
       </c>
-      <c r="D700" s="46" t="s">
+      <c r="D700" s="50" t="s">
         <v>865</v>
       </c>
       <c r="E700" s="9" t="s">
@@ -12618,37 +12618,37 @@
       </c>
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C701" s="44"/>
-      <c r="D701" s="47"/>
+      <c r="C701" s="48"/>
+      <c r="D701" s="51"/>
       <c r="E701" s="10"/>
     </row>
     <row r="702" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C702" s="44"/>
-      <c r="D702" s="47"/>
+      <c r="C702" s="48"/>
+      <c r="D702" s="51"/>
       <c r="E702" s="12" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C703" s="44"/>
-      <c r="D703" s="47"/>
+      <c r="C703" s="48"/>
+      <c r="D703" s="51"/>
       <c r="E703" s="10"/>
     </row>
     <row r="704" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C704" s="44"/>
-      <c r="D704" s="47"/>
+      <c r="C704" s="48"/>
+      <c r="D704" s="51"/>
       <c r="E704" s="12" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C705" s="44"/>
-      <c r="D705" s="47"/>
+      <c r="C705" s="48"/>
+      <c r="D705" s="51"/>
       <c r="E705" s="10"/>
     </row>
     <row r="706" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C706" s="45"/>
-      <c r="D706" s="48"/>
+      <c r="C706" s="49"/>
+      <c r="D706" s="52"/>
       <c r="E706" s="11" t="s">
         <v>869</v>
       </c>
@@ -12687,10 +12687,10 @@
       </c>
     </row>
     <row r="710" spans="3:5" ht="358.8" x14ac:dyDescent="0.4">
-      <c r="C710" s="43">
+      <c r="C710" s="47">
         <v>-3147</v>
       </c>
-      <c r="D710" s="46" t="s">
+      <c r="D710" s="50" t="s">
         <v>875</v>
       </c>
       <c r="E710" s="21" t="s">
@@ -12698,55 +12698,55 @@
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C711" s="44"/>
-      <c r="D711" s="47"/>
+      <c r="C711" s="48"/>
+      <c r="D711" s="51"/>
       <c r="E711" s="22"/>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C712" s="44"/>
-      <c r="D712" s="47"/>
+      <c r="C712" s="48"/>
+      <c r="D712" s="51"/>
       <c r="E712" s="23"/>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C713" s="44"/>
-      <c r="D713" s="47"/>
+      <c r="C713" s="48"/>
+      <c r="D713" s="51"/>
       <c r="E713" s="22"/>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C714" s="44"/>
-      <c r="D714" s="47"/>
+      <c r="C714" s="48"/>
+      <c r="D714" s="51"/>
       <c r="E714" s="23"/>
     </row>
     <row r="715" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C715" s="44"/>
-      <c r="D715" s="47"/>
+      <c r="C715" s="48"/>
+      <c r="D715" s="51"/>
       <c r="E715" s="23"/>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C716" s="44"/>
-      <c r="D716" s="47"/>
+      <c r="C716" s="48"/>
+      <c r="D716" s="51"/>
       <c r="E716" s="23"/>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C717" s="44"/>
-      <c r="D717" s="47"/>
+      <c r="C717" s="48"/>
+      <c r="D717" s="51"/>
       <c r="E717" s="23"/>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C718" s="44"/>
-      <c r="D718" s="47"/>
+      <c r="C718" s="48"/>
+      <c r="D718" s="51"/>
       <c r="E718" s="23"/>
     </row>
     <row r="719" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C719" s="45"/>
-      <c r="D719" s="48"/>
+      <c r="C719" s="49"/>
+      <c r="D719" s="52"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C720" s="55" t="s">
+      <c r="C720" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="D720" s="57" t="s">
+      <c r="D720" s="45" t="s">
         <v>877</v>
       </c>
       <c r="E720" s="25" t="s">
@@ -12754,8 +12754,8 @@
       </c>
     </row>
     <row r="721" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C721" s="56"/>
-      <c r="D721" s="58"/>
+      <c r="C721" s="44"/>
+      <c r="D721" s="46"/>
       <c r="E721" s="26" t="s">
         <v>879</v>
       </c>
@@ -12772,10 +12772,10 @@
       </c>
     </row>
     <row r="723" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C723" s="55" t="s">
+      <c r="C723" s="43" t="s">
         <v>883</v>
       </c>
-      <c r="D723" s="57" t="s">
+      <c r="D723" s="45" t="s">
         <v>884</v>
       </c>
       <c r="E723" s="28" t="s">
@@ -12783,8 +12783,8 @@
       </c>
     </row>
     <row r="724" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C724" s="56"/>
-      <c r="D724" s="58"/>
+      <c r="C724" s="44"/>
+      <c r="D724" s="46"/>
       <c r="E724" s="26" t="s">
         <v>885</v>
       </c>
@@ -12834,22 +12834,22 @@
       </c>
     </row>
     <row r="729" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C729" s="55" t="s">
+      <c r="C729" s="43" t="s">
         <v>898</v>
       </c>
       <c r="D729" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="E729" s="57" t="s">
+      <c r="E729" s="45" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="730" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C730" s="56"/>
+      <c r="C730" s="44"/>
       <c r="D730" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="E730" s="58"/>
+      <c r="E730" s="46"/>
     </row>
     <row r="731" spans="3:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C731" s="27" t="s">
@@ -15196,6 +15196,144 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="C91:C104"/>
+    <mergeCell ref="D91:D104"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="C290:C294"/>
+    <mergeCell ref="D290:D294"/>
+    <mergeCell ref="C295:C300"/>
+    <mergeCell ref="D295:D300"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="D283:D285"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="D331:D335"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="C343:C348"/>
+    <mergeCell ref="D343:D348"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D322:D325"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="D370:D372"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="D373:D375"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="C357:C362"/>
+    <mergeCell ref="D357:D362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="D388:D390"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="D391:D393"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="D394:D396"/>
+    <mergeCell ref="C379:C381"/>
+    <mergeCell ref="D379:D381"/>
+    <mergeCell ref="C382:C384"/>
+    <mergeCell ref="D382:D384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="D385:D387"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="D417:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="C398:C402"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="C404:C409"/>
+    <mergeCell ref="D404:D409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D410:D412"/>
+    <mergeCell ref="C479:C485"/>
+    <mergeCell ref="D479:D485"/>
+    <mergeCell ref="C523:C525"/>
+    <mergeCell ref="D523:D525"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="D468:D470"/>
+    <mergeCell ref="C549:C568"/>
+    <mergeCell ref="D549:D568"/>
+    <mergeCell ref="C569:C571"/>
+    <mergeCell ref="D569:D571"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="D572:D574"/>
+    <mergeCell ref="C535:C543"/>
+    <mergeCell ref="D535:D543"/>
+    <mergeCell ref="C544:C548"/>
+    <mergeCell ref="D544:D548"/>
+    <mergeCell ref="C587:C603"/>
+    <mergeCell ref="D587:D603"/>
+    <mergeCell ref="C605:C607"/>
+    <mergeCell ref="D605:D607"/>
+    <mergeCell ref="C609:C614"/>
+    <mergeCell ref="D609:D614"/>
+    <mergeCell ref="C575:C577"/>
+    <mergeCell ref="D575:D577"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="C584:C586"/>
+    <mergeCell ref="D584:D586"/>
+    <mergeCell ref="C632:C634"/>
+    <mergeCell ref="D632:D634"/>
+    <mergeCell ref="C636:C643"/>
+    <mergeCell ref="D636:D643"/>
+    <mergeCell ref="C646:C654"/>
+    <mergeCell ref="D646:D654"/>
+    <mergeCell ref="C617:C623"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="C624:C629"/>
+    <mergeCell ref="D624:D629"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C677:C684"/>
+    <mergeCell ref="D677:D684"/>
+    <mergeCell ref="C685:C689"/>
+    <mergeCell ref="D685:D689"/>
+    <mergeCell ref="C655:C657"/>
+    <mergeCell ref="D655:D657"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="D661:D665"/>
+    <mergeCell ref="C668:C671"/>
+    <mergeCell ref="D668:D671"/>
     <mergeCell ref="C729:C730"/>
     <mergeCell ref="E729:E730"/>
     <mergeCell ref="C710:C719"/>
@@ -15210,144 +15348,6 @@
     <mergeCell ref="D695:D699"/>
     <mergeCell ref="C700:C706"/>
     <mergeCell ref="D700:D706"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C677:C684"/>
-    <mergeCell ref="D677:D684"/>
-    <mergeCell ref="C685:C689"/>
-    <mergeCell ref="D685:D689"/>
-    <mergeCell ref="C655:C657"/>
-    <mergeCell ref="D655:D657"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="D661:D665"/>
-    <mergeCell ref="C668:C671"/>
-    <mergeCell ref="D668:D671"/>
-    <mergeCell ref="C632:C634"/>
-    <mergeCell ref="D632:D634"/>
-    <mergeCell ref="C636:C643"/>
-    <mergeCell ref="D636:D643"/>
-    <mergeCell ref="C646:C654"/>
-    <mergeCell ref="D646:D654"/>
-    <mergeCell ref="C617:C623"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="C624:C629"/>
-    <mergeCell ref="D624:D629"/>
-    <mergeCell ref="C587:C603"/>
-    <mergeCell ref="D587:D603"/>
-    <mergeCell ref="C605:C607"/>
-    <mergeCell ref="D605:D607"/>
-    <mergeCell ref="C609:C614"/>
-    <mergeCell ref="D609:D614"/>
-    <mergeCell ref="C575:C577"/>
-    <mergeCell ref="D575:D577"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="C584:C586"/>
-    <mergeCell ref="D584:D586"/>
-    <mergeCell ref="C549:C568"/>
-    <mergeCell ref="D549:D568"/>
-    <mergeCell ref="C569:C571"/>
-    <mergeCell ref="D569:D571"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="D572:D574"/>
-    <mergeCell ref="C535:C543"/>
-    <mergeCell ref="D535:D543"/>
-    <mergeCell ref="C544:C548"/>
-    <mergeCell ref="D544:D548"/>
-    <mergeCell ref="C479:C485"/>
-    <mergeCell ref="D479:D485"/>
-    <mergeCell ref="C523:C525"/>
-    <mergeCell ref="D523:D525"/>
-    <mergeCell ref="C526:C528"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C468:C470"/>
-    <mergeCell ref="D468:D470"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="D417:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="D424:D426"/>
-    <mergeCell ref="C398:C402"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="C404:C409"/>
-    <mergeCell ref="D404:D409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D410:D412"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="D388:D390"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="D391:D393"/>
-    <mergeCell ref="C394:C396"/>
-    <mergeCell ref="D394:D396"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="D382:D384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="D385:D387"/>
-    <mergeCell ref="C370:C372"/>
-    <mergeCell ref="D370:D372"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="D373:D375"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="C357:C362"/>
-    <mergeCell ref="D357:D362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="C331:C335"/>
-    <mergeCell ref="D331:D335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="C343:C348"/>
-    <mergeCell ref="D343:D348"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D322:D325"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="C290:C294"/>
-    <mergeCell ref="D290:D294"/>
-    <mergeCell ref="C295:C300"/>
-    <mergeCell ref="D295:D300"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="D283:D285"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="C91:C104"/>
-    <mergeCell ref="D91:D104"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -5423,27 +5423,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-6000제어기 모터 셋업
-모터 사양 상관없이 공통
-10775
-commutation offset 710000~720000
-50W, 100W 모터 셋업 시
-10611 rated current: 1.1
-10656 kp : 0.1
-10657 kd : 0.6
-200W
-rated current: 1.5
-kp 0.1
-kd 3
-400W
-rated current: 2.4
-kp 0.12
-kd 4
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2000제어기 모터 셋업
 모터 사양 상관없이 공통
 10775
@@ -5627,6 +5606,27 @@
   </si>
   <si>
     <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6000제어기 모터 셋업
+모터 사양 상관없이 공통
+10775
+commutation offset 710000~720000
+50W, 100W 모터 셋업 시
+10611 rated current: 1.1
+10656 kp : 0.1
+10657 kd : 0.6
+200W
+rated current: 1.5
+kp 0.1
+kd 3
+400W
+rated current: 2.4
+kp 0.12
+kd 4
+</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6326,10 +6326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E1006"/>
+  <dimension ref="C1:E1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1003" workbookViewId="0">
-      <selection activeCell="D1006" sqref="D1006"/>
+    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
+      <selection activeCell="C1005" sqref="C1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6358,7 +6358,7 @@
         <v>943</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -13197,7 +13197,7 @@
         <v>1076</v>
       </c>
       <c r="E770" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="771" spans="3:5" x14ac:dyDescent="0.4">
@@ -13224,7 +13224,7 @@
         <v>1082</v>
       </c>
       <c r="E773" s="33" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="774" spans="3:5" x14ac:dyDescent="0.4">
@@ -13235,7 +13235,7 @@
         <v>1084</v>
       </c>
       <c r="E774" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="775" spans="3:5" x14ac:dyDescent="0.4">
@@ -13445,7 +13445,7 @@
         <v>1132</v>
       </c>
       <c r="E798" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="799" spans="3:5" x14ac:dyDescent="0.4">
@@ -13464,7 +13464,7 @@
         <v>1136</v>
       </c>
       <c r="E800" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.4">
@@ -13747,7 +13747,7 @@
         <v>1206</v>
       </c>
       <c r="E835" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="836" spans="3:5" x14ac:dyDescent="0.4">
@@ -13790,7 +13790,7 @@
         <v>1216</v>
       </c>
       <c r="E840" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="841" spans="3:5" x14ac:dyDescent="0.4">
@@ -13825,7 +13825,7 @@
         <v>1224</v>
       </c>
       <c r="E844" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="845" spans="3:5" x14ac:dyDescent="0.4">
@@ -13836,7 +13836,7 @@
         <v>1226</v>
       </c>
       <c r="E845" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="846" spans="3:5" x14ac:dyDescent="0.4">
@@ -13847,7 +13847,7 @@
         <v>1228</v>
       </c>
       <c r="E846" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="847" spans="3:5" x14ac:dyDescent="0.4">
@@ -13946,7 +13946,7 @@
         <v>1252</v>
       </c>
       <c r="E858" s="33" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="859" spans="3:5" x14ac:dyDescent="0.4">
@@ -13957,7 +13957,7 @@
         <v>1254</v>
       </c>
       <c r="E859" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="860" spans="3:5" x14ac:dyDescent="0.4">
@@ -13968,7 +13968,7 @@
         <v>1256</v>
       </c>
       <c r="E860" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="861" spans="3:5" x14ac:dyDescent="0.4">
@@ -14035,7 +14035,7 @@
         <v>1272</v>
       </c>
       <c r="E868" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="869" spans="3:5" x14ac:dyDescent="0.4">
@@ -14062,7 +14062,7 @@
         <v>1278</v>
       </c>
       <c r="E871" s="33" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="872" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -14073,7 +14073,7 @@
         <v>1280</v>
       </c>
       <c r="E872" s="33" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="873" spans="3:5" x14ac:dyDescent="0.4">
@@ -14084,7 +14084,7 @@
         <v>1282</v>
       </c>
       <c r="E873" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="874" spans="3:5" x14ac:dyDescent="0.4">
@@ -14095,7 +14095,7 @@
         <v>1284</v>
       </c>
       <c r="E874" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="875" spans="3:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -14106,7 +14106,7 @@
         <v>1286</v>
       </c>
       <c r="E875" s="33" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="876" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -14117,7 +14117,7 @@
         <v>1288</v>
       </c>
       <c r="E876" s="33" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="877" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -14128,7 +14128,7 @@
         <v>1290</v>
       </c>
       <c r="E877" s="33" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="878" spans="3:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -14139,7 +14139,7 @@
         <v>1292</v>
       </c>
       <c r="E878" s="33" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="879" spans="3:5" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -14150,7 +14150,7 @@
         <v>1294</v>
       </c>
       <c r="E879" s="33" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="880" spans="3:5" ht="174" x14ac:dyDescent="0.4">
@@ -14161,7 +14161,7 @@
         <v>1296</v>
       </c>
       <c r="E880" s="33" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="881" spans="3:5" x14ac:dyDescent="0.4">
@@ -14236,7 +14236,7 @@
         <v>1314</v>
       </c>
       <c r="E889" s="33" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="890" spans="3:5" x14ac:dyDescent="0.4">
@@ -14247,7 +14247,7 @@
         <v>1316</v>
       </c>
       <c r="E890" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="891" spans="3:5" x14ac:dyDescent="0.4">
@@ -14258,7 +14258,7 @@
         <v>1318</v>
       </c>
       <c r="E891" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="892" spans="3:5" ht="87" x14ac:dyDescent="0.4">
@@ -14269,7 +14269,7 @@
         <v>1320</v>
       </c>
       <c r="E892" s="33" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="893" spans="3:5" ht="87" x14ac:dyDescent="0.4">
@@ -14280,7 +14280,7 @@
         <v>1322</v>
       </c>
       <c r="E893" s="33" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="894" spans="3:5" x14ac:dyDescent="0.4">
@@ -14419,7 +14419,7 @@
         <v>1352</v>
       </c>
       <c r="E910" s="33" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="911" spans="3:5" x14ac:dyDescent="0.4">
@@ -14542,7 +14542,7 @@
         <v>1382</v>
       </c>
       <c r="E925" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="926" spans="3:5" x14ac:dyDescent="0.4">
@@ -14553,7 +14553,7 @@
         <v>1384</v>
       </c>
       <c r="E926" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="927" spans="3:5" x14ac:dyDescent="0.4">
@@ -14676,7 +14676,7 @@
         <v>1414</v>
       </c>
       <c r="E941" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="942" spans="3:5" x14ac:dyDescent="0.4">
@@ -14687,7 +14687,7 @@
         <v>1416</v>
       </c>
       <c r="E942" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="943" spans="3:5" x14ac:dyDescent="0.4">
@@ -15178,20 +15178,20 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="1005" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="1004" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C1004" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="C1005" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1006" spans="3:5" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C1006" t="s">
         <v>1542</v>
       </c>
-      <c r="D1006" s="33" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E1006" s="33" t="s">
+      <c r="D1005" s="33" t="s">
         <v>1543</v>
+      </c>
+      <c r="E1005" s="33" t="s">
+        <v>1578</v>
       </c>
     </row>
   </sheetData>

--- a/wtr_Error_Code.xlsx
+++ b/wtr_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="1582">
   <si>
     <t>코드</t>
   </si>
@@ -5419,7 +5419,219 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">This is an array of scale factors that is used to convert joint positions to corresponding motor positions. For simple, uncoupled axes, there is a single scale factor for performing this conversion. For mechanically coupled motors, a square matrix of scale factors converts from joint positions to motor positions. For example, if a robot consists of 3 uncoupled axes, this array consists of 3 scale factors. As another example, if the robot consists of an X axis followed by a Y axis that is coupled to the X due to non-perpendicular followed by an uncoupled Z axis, this array will consist of a 2x2 matrix followed by a single scalar. The scale factors convert from units of degrees or millimeters to encoder counts.
+When any of the scale factors are changed, the robot is marked as "not homed" and a homing operation must be performed. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 기어 및 엔코더 사양에 따라 변경되는 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 동작에 따른 Stady State 에러</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 속도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 가속도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원점 검색 시 HardSotpper 감지 기준 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔코더 사양에 의해서 결정되는값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
+  </si>
+  <si>
+    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 숫자의 합으로 피드백 제어를 어떻게 할껀지 설정
+48: 표준
+64: 모션이 끝날때 I gain 적용. 적용 시 동작 끝나고 I gain으로 살짝 움직이는 경우가 있음
+128: 각 동작 중 I gain 값을 래치.
+최종 위치 오차를 빠르게 없앨 수 있음.
+중력 부하 받는 축에 유용
+512: 다음 동작이 시작될 때까지 friction ffwd 토크를 지우도록 동작을 지연함.
+"ffwd torque rate limit"(ID 10348)도 참조. 이것은 Friction ffwd가 0이 되어 모션 종료시 출력 토크의 갑작스런 변화를 줄이기 위해 사용할 수있는 독립적인 매개 변수.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>황준혁: 케이씨텍 CS팀하다가 로봇앤드디자인 영업팀으로 오더니 23년도인가 퇴사때림.
+이후 대전 한라 공조 간다고 뻥치다가 오로스 영업팀으로 간걸 들킴. (신장섭이 오로스 CS작업 하러갔는데 클린룸에서 황준혁이 교육 받고 있는걸 들켜서 'xx놈아' 시전)
+오로스는 현재 로봇앤드디자인이랑 거래 안함.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Stop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Motor Power Off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kd 보상에 사용되는 속도 오차에 대한 LowPass filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
+잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
+잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>높일 수록 오차 감소, 진동 증가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 계측이 불가한 경우 Kp(ID10331)와 비율이 유지되도록 설정값 조정, 임계값 까지 값을 올릴 수록 진동이 줄어드나, 
+임계값 이후로는 진동이 커짐, 임계값 근처에서는 하드웨어 변동에 민감하여, 로봇의 위치 구조에 따라 진동이 발생하므로, 임계값의 75% 이하 수준으로 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady State Error를 없에기 위한 게인, 10300번 설정을 112로 설정한 축(X1,X2)을 제외하면 높일 수록 진동이 늘어날 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 보상 Limit 너무 값이 낮을 경우 로봇 동작 완료 후 정위치가 틀어질 수 있음, 너무 높은 경우 정위치 도달을 위해 힘이 계속해서 올라갈 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 보상 변화율 Limit W축 제자리 에서 진동 발생시 설정 값 줄임, 정위치 찾아가는데 시간이 오래 걸릴 경우 설정값 UP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇의 관성 보상 설정값, 로봇 자체의 무게 Or 출력 효율에 변동이 없다면 변동되지 않음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성 마찰 보상 설정값// 구리스 점도 및 로봇의 온도에 따라 설정값이 변동될 수 있음,
+진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공진 Or 눈에 보이지 않는 잔진동으로 인한 출력 에러가 있을 시 공진 보상 값, 적정값 이상 높게 설정하는 경우 제자리에서 진동이 발생됨
+공진이 발생하는 경우 Wafer가 없을 때 육안상 진동이 잘 보이지 않으나, 손으로 End Effector를 만졌을 때, Wafer를 올려 놓았을 때 진동이 확인됨
+A6 모터에서 0~0.04까지 안정적으로 사용이 가능하며(시험적으로 확인된 값), 해당 값 이상으로 공진 억제를 위해 값을 올릴 경우 제자리에서 진동이 발생할 수 있음
+10338 값이 높아 제자리에서 진동이 발생하는 경우 “ID 10327 Accel error DPR filter pole, Hz” 값을 조정하여 정지 상태에서 공진을 억제하거나 해당 설정값을 낮추어야 함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dry 마찰 보상값//실제 마찰 값보다 높을 경우 정크 동작이 발생할 수 있음, 
+적정값 값을 찾을 수 없다면 확실하게 낮은 값 또는 0으로 설정할 것을 권장, 진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마찰 및 관성 보상 Command Torque변화율 Limit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 축 중력 보상 설정값</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
+마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
+마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID 출력 제한 Block 최대 시간, PID 출력 제한을 설정하는 경우 예측 값과 실 필요 출력 사이 차이가 PID Limit 값보다 큰 경우 PID Limit으로 값이 Block 되며, Block 된 시간이 Block최대 시간 이상 길어지는경우 에러가 발생함
+931 에러가 발생하는 경우 Limit 시간을 늘리고, 엔코더 좌표 및 실 End effector 위치가 목표 위치에 잘 도달해 있는지 확인, 만약 목표 위치에 잘 도달해 해당 위치를 유지한다면, 값을 늘려도 무관함, 
+구동력을 전달하는 기구요소에 벨트가 있는경우 벨트 장력 불균형 문제로 값을 늘려야 할수 있음 - 좌표값을 유지하지 못하거나, 좌표값은 맞으나, 실 End Effector 위치 틀어짐이 발생하는 경우 하드웨어 점검이 필수적임
+GPL 버전이 낮을 경우 내부 파라미터 고정값으로 설정이 불가함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 사양서 설정값, 모터 사양이 바뀔때만 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 사양서 설정값, 모터 파손 이슈가 있는 경우 모터 파손을 방지하기위해 모터 공칭 사양보다 낮게 설정할 수 있음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6000제어기 모터 셋업
+모터 사양 상관없이 공통
+10775
+commutation offset 710000~720000
+50W, 100W 모터 셋업 시
+10611 rated current: 1.1
+10656 kp : 0.1
+10657 kd : 0.6
+200W
+rated current: 1.5
+kp 0.1
+kd 3
+400W
+rated current: 2.4
+kp 0.12
+kd 4
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>모터</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">총 2가지로 과부하, 위치 오차로 충돌 감지를 하고 있습니다.
+동작 중 위치 오차에 의한 충돌 감지는 아래와 같습니다.
+위치 오차 (Tracking Error)
+모터 엔코더 값을 실시간으로 확인 후 정상 동작 대비 오차 값
+위치 오차 확인 간격 (Interval)
+없음. 실시간(Real time) 확인
+위치 오차가 허용 범위를 벗어 났을 경우 발생 알람
+-3122 : Soft Envelope error (알람 발생 후 Servo 전원 유지)
+-3100 : Hard Envelope error (위치 오차가 허용 오차범위의 2배 이상 감지 했을 경우 발생. 알람 발생 후 Servo 전원 OFF)
+위 알람은 동작 중에 발생 되는 알람이며, 목표 값에 대한 허용 오차는 0.01deg(mm) 이하로 진입해야 함.
+목표 값 허용 오차 이내로 들어오지 못할 경우 아래와 같은 알람 발생
+-1014 Time out during nulling
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과부하 알람: 각 축 허용 최대 순간 부하는 아래와 같습니다.
+정격 토크 대비 Max torque 
+R,L 축 모터 100W -&gt; 정격 토크 0.32N·M (=정격 토크 100%)
+T 축 모터 200W -&gt; 정격 토크 0.64N·M (=정격 토크 100%)
+Z 축 모터 400W -&gt; 정격 토크 1.27N·M (=정격 토크 100%)
+T Axis limit 정격 토크의 431% 
+Z Axis limit 정격 전류의 423% 
+R, L Axis limit정격 전류의 300%
+단, 로봇 별로 차이가 있을 수 있으니 자세한 내용은 로봇앤드디자인에 문의 바랍니다.
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충격</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5448,185 +5660,6 @@
 kp 0.015
 kd 0.6
 --------------------------------------------------------------------</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This is an array of scale factors that is used to convert joint positions to corresponding motor positions. For simple, uncoupled axes, there is a single scale factor for performing this conversion. For mechanically coupled motors, a square matrix of scale factors converts from joint positions to motor positions. For example, if a robot consists of 3 uncoupled axes, this array consists of 3 scale factors. As another example, if the robot consists of an X axis followed by a Y axis that is coupled to the X due to non-perpendicular followed by an uncoupled Z axis, this array will consist of a 2x2 matrix followed by a single scalar. The scale factors convert from units of degrees or millimeters to encoder counts.
-When any of the scale factors are changed, the robot is marked as "not homed" and a homing operation must be performed. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 기어 및 엔코더 사양에 따라 변경되는 값</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 동작에 따른 Stady State 에러</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>원점 검색 시 속도</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>원점 검색 시 가속도</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>원점 검색 시 HardSotpper 감지 기준 값</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔코더 사양에 의해서 결정되는값</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
-  </si>
-  <si>
-    <t>모터 및 엔코더 사양에의해 결정되는 값</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 숫자의 합으로 피드백 제어를 어떻게 할껀지 설정
-48: 표준
-64: 모션이 끝날때 I gain 적용. 적용 시 동작 끝나고 I gain으로 살짝 움직이는 경우가 있음
-128: 각 동작 중 I gain 값을 래치.
-최종 위치 오차를 빠르게 없앨 수 있음.
-중력 부하 받는 축에 유용
-512: 다음 동작이 시작될 때까지 friction ffwd 토크를 지우도록 동작을 지연함.
-"ffwd torque rate limit"(ID 10348)도 참조. 이것은 Friction ffwd가 0이 되어 모션 종료시 출력 토크의 갑작스런 변화를 줄이기 위해 사용할 수있는 독립적인 매개 변수.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>황준혁: 케이씨텍 CS팀하다가 로봇앤드디자인 영업팀으로 오더니 23년도인가 퇴사때림.
-이후 대전 한라 공조 간다고 뻥치다가 오로스 영업팀으로 간걸 들킴. (신장섭이 오로스 CS작업 하러갔는데 클린룸에서 황준혁이 교육 받고 있는걸 들켜서 'xx놈아' 시전)
-오로스는 현재 로봇앤드디자인이랑 거래 안함.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Stop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇 동작 중 허용 오차값 넘어갈 경우 Error &amp; Motor Power Off</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kd 보상에 사용되는 속도 오차에 대한 LowPass filter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
-잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 토크 노치 필터 설정, 토크 데이터 FFT 분석 결과값을 이용하여 100Hz 이상의 특정 주파수 진동 데이터를 제거하기 위해 설정 
-잘못 설정 시 진동이 크게 발생할 수 있음 - 데이터 FFT 분석 없이 설정값 변동하지 말것</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>높일 수록 오차 감소, 진동 증가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 계측이 불가한 경우 Kp(ID10331)와 비율이 유지되도록 설정값 조정, 임계값 까지 값을 올릴 수록 진동이 줄어드나, 
-임계값 이후로는 진동이 커짐, 임계값 근처에서는 하드웨어 변동에 민감하여, 로봇의 위치 구조에 따라 진동이 발생하므로, 임계값의 75% 이하 수준으로 설정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steady State Error를 없에기 위한 게인, 10300번 설정을 112로 설정한 축(X1,X2)을 제외하면 높일 수록 진동이 늘어날 수 있음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I 보상 Limit 너무 값이 낮을 경우 로봇 동작 완료 후 정위치가 틀어질 수 있음, 너무 높은 경우 정위치 도달을 위해 힘이 계속해서 올라갈 수 있음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I 보상 변화율 Limit W축 제자리 에서 진동 발생시 설정 값 줄임, 정위치 찾아가는데 시간이 오래 걸릴 경우 설정값 UP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇의 관성 보상 설정값, 로봇 자체의 무게 Or 출력 효율에 변동이 없다면 변동되지 않음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>점성 마찰 보상 설정값// 구리스 점도 및 로봇의 온도에 따라 설정값이 변동될 수 있음,
-진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공진 Or 눈에 보이지 않는 잔진동으로 인한 출력 에러가 있을 시 공진 보상 값, 적정값 이상 높게 설정하는 경우 제자리에서 진동이 발생됨
-공진이 발생하는 경우 Wafer가 없을 때 육안상 진동이 잘 보이지 않으나, 손으로 End Effector를 만졌을 때, Wafer를 올려 놓았을 때 진동이 확인됨
-A6 모터에서 0~0.04까지 안정적으로 사용이 가능하며(시험적으로 확인된 값), 해당 값 이상으로 공진 억제를 위해 값을 올릴 경우 제자리에서 진동이 발생할 수 있음
-10338 값이 높아 제자리에서 진동이 발생하는 경우 “ID 10327 Accel error DPR filter pole, Hz” 값을 조정하여 정지 상태에서 공진을 억제하거나 해당 설정값을 낮추어야 함</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dry 마찰 보상값//실제 마찰 값보다 높을 경우 정크 동작이 발생할 수 있음, 
-적정값 값을 찾을 수 없다면 확실하게 낮은 값 또는 0으로 설정할 것을 권장, 진동 보다는 로봇 성능(위치오차), 충격 감지를 위한 동작 시 필요 최소 토크를 계산하는데 사용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마찰 및 관성 보상 Command Torque변화율 Limit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 축 중력 보상 설정값</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
-마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"충격 감지를 위한 출력 제한, PID output saturated too long 에러 발생 시 설정값 Up Or 0으로 설정하여 Disable
-마찰 밎 벨트 텐션 값 등이 표준 설비와 달라질 경우 PID output saturated too long에러가 빈번해 질수 있음, 마찰 값을 재계측하거나, 리밋 값을 변경하는 방식으로 대응"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PID 출력 제한 Block 최대 시간, PID 출력 제한을 설정하는 경우 예측 값과 실 필요 출력 사이 차이가 PID Limit 값보다 큰 경우 PID Limit으로 값이 Block 되며, Block 된 시간이 Block최대 시간 이상 길어지는경우 에러가 발생함
-931 에러가 발생하는 경우 Limit 시간을 늘리고, 엔코더 좌표 및 실 End effector 위치가 목표 위치에 잘 도달해 있는지 확인, 만약 목표 위치에 잘 도달해 해당 위치를 유지한다면, 값을 늘려도 무관함, 
-구동력을 전달하는 기구요소에 벨트가 있는경우 벨트 장력 불균형 문제로 값을 늘려야 할수 있음 - 좌표값을 유지하지 못하거나, 좌표값은 맞으나, 실 End Effector 위치 틀어짐이 발생하는 경우 하드웨어 점검이 필수적임
-GPL 버전이 낮을 경우 내부 파라미터 고정값으로 설정이 불가함</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터 사양서 설정값, 모터 사양이 바뀔때만 변경</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터 사양서 설정값, 모터 파손 이슈가 있는 경우 모터 파손을 방지하기위해 모터 공칭 사양보다 낮게 설정할 수 있음</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Loop PD 제어 설정값, 잘못 설정될 경우 Position Loop 성능이 떨어져 정상제어가 되지 않을 수 있으므로 계측용 PC Or 검증된 값 없이 변동하지 말것</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-6000제어기 모터 셋업
-모터 사양 상관없이 공통
-10775
-commutation offset 710000~720000
-50W, 100W 모터 셋업 시
-10611 rated current: 1.1
-10656 kp : 0.1
-10657 kd : 0.6
-200W
-rated current: 1.5
-kp 0.1
-kd 3
-400W
-rated current: 2.4
-kp 0.12
-kd 4
-</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5998,18 +6031,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6045,6 +6066,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6326,10 +6359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E1005"/>
+  <dimension ref="C1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="C1005" sqref="C1005"/>
+    <sheetView tabSelected="1" topLeftCell="A1008" workbookViewId="0">
+      <selection activeCell="D1021" sqref="D1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6358,7 +6391,7 @@
         <v>943</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6945,10 +6978,10 @@
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="53">
+      <c r="C56" s="49">
         <v>1061</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="52" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -6956,15 +6989,15 @@
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C57" s="54"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="55"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="2" t="s">
         <v>71</v>
       </c>
@@ -7168,10 +7201,10 @@
       </c>
     </row>
     <row r="77" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C77" s="47">
+      <c r="C77" s="43">
         <v>-208</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -7179,13 +7212,13 @@
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C78" s="48"/>
-      <c r="D78" s="51"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="49"/>
-      <c r="D79" s="52"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="11" t="s">
         <v>105</v>
       </c>
@@ -7213,10 +7246,10 @@
       </c>
     </row>
     <row r="82" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C82" s="47">
+      <c r="C82" s="43">
         <v>-211</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="29" t="s">
@@ -7224,64 +7257,64 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C83" s="48"/>
-      <c r="D83" s="51"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C85" s="48"/>
-      <c r="D85" s="51"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C87" s="48"/>
-      <c r="D87" s="51"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C88" s="48"/>
-      <c r="D88" s="51"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C89" s="48"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C90" s="49"/>
-      <c r="D90" s="52"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C91" s="47">
+      <c r="C91" s="43">
         <v>-212</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="46" t="s">
         <v>119</v>
       </c>
       <c r="E91" s="29" t="s">
@@ -7289,88 +7322,88 @@
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="48"/>
-      <c r="D92" s="51"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C93" s="48"/>
-      <c r="D93" s="51"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C94" s="48"/>
-      <c r="D94" s="51"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C95" s="48"/>
-      <c r="D95" s="51"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C96" s="48"/>
-      <c r="D96" s="51"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C97" s="48"/>
-      <c r="D97" s="51"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C98" s="48"/>
-      <c r="D98" s="51"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="30" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C99" s="48"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C100" s="48"/>
-      <c r="D100" s="51"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C101" s="48"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C102" s="48"/>
-      <c r="D102" s="51"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C103" s="48"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C104" s="49"/>
-      <c r="D104" s="52"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="31" t="s">
         <v>130</v>
       </c>
@@ -7404,7 +7437,7 @@
       <c r="D107" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7415,7 +7448,7 @@
       <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="7">
@@ -7424,7 +7457,7 @@
       <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="52"/>
+      <c r="E109" s="48"/>
     </row>
     <row r="110" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C110" s="7">
@@ -8762,10 +8795,10 @@
       </c>
     </row>
     <row r="239" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C239" s="47">
+      <c r="C239" s="43">
         <v>-776</v>
       </c>
-      <c r="D239" s="50" t="s">
+      <c r="D239" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -8773,13 +8806,13 @@
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C240" s="48"/>
-      <c r="D240" s="51"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="47"/>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C241" s="49"/>
-      <c r="D241" s="52"/>
+      <c r="C241" s="45"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="11" t="s">
         <v>352</v>
       </c>
@@ -9142,20 +9175,20 @@
       </c>
     </row>
     <row r="275" spans="3:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C275" s="47">
+      <c r="C275" s="43">
         <v>-811</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E275" s="50" t="s">
+      <c r="E275" s="46" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C276" s="49"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
+      <c r="C276" s="45"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
     </row>
     <row r="277" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C277" s="7">
@@ -9191,10 +9224,10 @@
       </c>
     </row>
     <row r="280" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C280" s="47">
+      <c r="C280" s="43">
         <v>-1002</v>
       </c>
-      <c r="D280" s="50" t="s">
+      <c r="D280" s="46" t="s">
         <v>423</v>
       </c>
       <c r="E280" s="9" t="s">
@@ -9202,22 +9235,22 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C281" s="48"/>
-      <c r="D281" s="51"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="12"/>
     </row>
     <row r="282" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C282" s="49"/>
-      <c r="D282" s="52"/>
+      <c r="C282" s="45"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="283" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C283" s="47">
+      <c r="C283" s="43">
         <v>-1003</v>
       </c>
-      <c r="D283" s="50" t="s">
+      <c r="D283" s="46" t="s">
         <v>426</v>
       </c>
       <c r="E283" s="9" t="s">
@@ -9225,13 +9258,13 @@
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C284" s="48"/>
-      <c r="D284" s="51"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="47"/>
       <c r="E284" s="12"/>
     </row>
     <row r="285" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C285" s="49"/>
-      <c r="D285" s="52"/>
+      <c r="C285" s="45"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="15" t="s">
         <v>428</v>
       </c>
@@ -9248,10 +9281,10 @@
       </c>
     </row>
     <row r="287" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C287" s="47">
+      <c r="C287" s="43">
         <v>-1005</v>
       </c>
-      <c r="D287" s="50" t="s">
+      <c r="D287" s="46" t="s">
         <v>431</v>
       </c>
       <c r="E287" s="9" t="s">
@@ -9259,22 +9292,22 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C288" s="48"/>
-      <c r="D288" s="51"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="12"/>
     </row>
     <row r="289" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C289" s="49"/>
-      <c r="D289" s="52"/>
+      <c r="C289" s="45"/>
+      <c r="D289" s="48"/>
       <c r="E289" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="290" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C290" s="47">
+      <c r="C290" s="43">
         <v>-1006</v>
       </c>
-      <c r="D290" s="50" t="s">
+      <c r="D290" s="46" t="s">
         <v>434</v>
       </c>
       <c r="E290" s="9" t="s">
@@ -9282,36 +9315,36 @@
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C291" s="48"/>
-      <c r="D291" s="51"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="12"/>
     </row>
     <row r="292" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C292" s="48"/>
-      <c r="D292" s="51"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="293" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C293" s="48"/>
-      <c r="D293" s="51"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="294" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="49"/>
-      <c r="D294" s="52"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="295" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C295" s="47">
+      <c r="C295" s="43">
         <v>-1007</v>
       </c>
-      <c r="D295" s="50" t="s">
+      <c r="D295" s="46" t="s">
         <v>439</v>
       </c>
       <c r="E295" s="17" t="s">
@@ -9319,41 +9352,41 @@
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C296" s="48"/>
-      <c r="D296" s="51"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="47"/>
       <c r="E296" s="18"/>
     </row>
     <row r="297" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C297" s="48"/>
-      <c r="D297" s="51"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="47"/>
       <c r="E297" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C298" s="48"/>
-      <c r="D298" s="51"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C299" s="48"/>
-      <c r="D299" s="51"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C300" s="49"/>
-      <c r="D300" s="52"/>
+      <c r="C300" s="45"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="301" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C301" s="47">
+      <c r="C301" s="43">
         <v>-1008</v>
       </c>
-      <c r="D301" s="50" t="s">
+      <c r="D301" s="46" t="s">
         <v>444</v>
       </c>
       <c r="E301" s="9" t="s">
@@ -9361,22 +9394,22 @@
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C302" s="48"/>
-      <c r="D302" s="51"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="12"/>
     </row>
     <row r="303" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="49"/>
-      <c r="D303" s="52"/>
+      <c r="C303" s="45"/>
+      <c r="D303" s="48"/>
       <c r="E303" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C304" s="47">
+      <c r="C304" s="43">
         <v>-1009</v>
       </c>
-      <c r="D304" s="50" t="s">
+      <c r="D304" s="46" t="s">
         <v>447</v>
       </c>
       <c r="E304" s="9" t="s">
@@ -9384,22 +9417,22 @@
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C305" s="48"/>
-      <c r="D305" s="51"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="12"/>
     </row>
     <row r="306" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="49"/>
-      <c r="D306" s="52"/>
+      <c r="C306" s="45"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="307" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C307" s="47">
+      <c r="C307" s="43">
         <v>-1010</v>
       </c>
-      <c r="D307" s="50" t="s">
+      <c r="D307" s="46" t="s">
         <v>450</v>
       </c>
       <c r="E307" s="9" t="s">
@@ -9407,22 +9440,22 @@
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C308" s="48"/>
-      <c r="D308" s="51"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="12"/>
     </row>
     <row r="309" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="49"/>
-      <c r="D309" s="52"/>
+      <c r="C309" s="45"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="310" spans="3:5" ht="171.6" x14ac:dyDescent="0.4">
-      <c r="C310" s="47">
+      <c r="C310" s="43">
         <v>-1011</v>
       </c>
-      <c r="D310" s="50" t="s">
+      <c r="D310" s="46" t="s">
         <v>453</v>
       </c>
       <c r="E310" s="9" t="s">
@@ -9430,13 +9463,13 @@
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C311" s="48"/>
-      <c r="D311" s="51"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="47"/>
       <c r="E311" s="12"/>
     </row>
     <row r="312" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="49"/>
-      <c r="D312" s="52"/>
+      <c r="C312" s="45"/>
+      <c r="D312" s="48"/>
       <c r="E312" s="15" t="s">
         <v>455</v>
       </c>
@@ -9453,10 +9486,10 @@
       </c>
     </row>
     <row r="314" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C314" s="47">
+      <c r="C314" s="43">
         <v>-1013</v>
       </c>
-      <c r="D314" s="50" t="s">
+      <c r="D314" s="46" t="s">
         <v>457</v>
       </c>
       <c r="E314" s="9" t="s">
@@ -9464,29 +9497,29 @@
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C315" s="48"/>
-      <c r="D315" s="51"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="12"/>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C316" s="48"/>
-      <c r="D316" s="51"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="317" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C317" s="49"/>
-      <c r="D317" s="52"/>
+      <c r="C317" s="45"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="15" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="318" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C318" s="47">
+      <c r="C318" s="43">
         <v>-1014</v>
       </c>
-      <c r="D318" s="50" t="s">
+      <c r="D318" s="46" t="s">
         <v>461</v>
       </c>
       <c r="E318" s="9" t="s">
@@ -9494,13 +9527,13 @@
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C319" s="48"/>
-      <c r="D319" s="51"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="12"/>
     </row>
     <row r="320" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C320" s="49"/>
-      <c r="D320" s="52"/>
+      <c r="C320" s="45"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="15"/>
     </row>
     <row r="321" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
@@ -9515,10 +9548,10 @@
       </c>
     </row>
     <row r="322" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C322" s="47">
+      <c r="C322" s="43">
         <v>-1016</v>
       </c>
-      <c r="D322" s="50" t="s">
+      <c r="D322" s="46" t="s">
         <v>464</v>
       </c>
       <c r="E322" s="9" t="s">
@@ -9526,20 +9559,20 @@
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C323" s="48"/>
-      <c r="D323" s="51"/>
+      <c r="C323" s="44"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="10"/>
     </row>
     <row r="324" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C324" s="48"/>
-      <c r="D324" s="51"/>
+      <c r="C324" s="44"/>
+      <c r="D324" s="47"/>
       <c r="E324" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="325" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C325" s="49"/>
-      <c r="D325" s="52"/>
+      <c r="C325" s="45"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="11" t="s">
         <v>467</v>
       </c>
@@ -9567,10 +9600,10 @@
       </c>
     </row>
     <row r="328" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C328" s="47">
+      <c r="C328" s="43">
         <v>-1019</v>
       </c>
-      <c r="D328" s="50" t="s">
+      <c r="D328" s="46" t="s">
         <v>472</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9578,22 +9611,22 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C329" s="48"/>
-      <c r="D329" s="51"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="47"/>
       <c r="E329" s="10"/>
     </row>
     <row r="330" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C330" s="49"/>
-      <c r="D330" s="52"/>
+      <c r="C330" s="45"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="331" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C331" s="47">
+      <c r="C331" s="43">
         <v>-1020</v>
       </c>
-      <c r="D331" s="50" t="s">
+      <c r="D331" s="46" t="s">
         <v>475</v>
       </c>
       <c r="E331" s="9" t="s">
@@ -9601,34 +9634,34 @@
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C332" s="48"/>
-      <c r="D332" s="51"/>
+      <c r="C332" s="44"/>
+      <c r="D332" s="47"/>
       <c r="E332" s="10"/>
     </row>
     <row r="333" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C333" s="48"/>
-      <c r="D333" s="51"/>
+      <c r="C333" s="44"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C334" s="48"/>
-      <c r="D334" s="51"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="47"/>
       <c r="E334" s="10"/>
     </row>
     <row r="335" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C335" s="49"/>
-      <c r="D335" s="52"/>
+      <c r="C335" s="45"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="11" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C336" s="47">
+      <c r="C336" s="43">
         <v>-1021</v>
       </c>
-      <c r="D336" s="50" t="s">
+      <c r="D336" s="46" t="s">
         <v>479</v>
       </c>
       <c r="E336" s="9" t="s">
@@ -9636,13 +9669,13 @@
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C337" s="48"/>
-      <c r="D337" s="51"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="12"/>
     </row>
     <row r="338" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C338" s="49"/>
-      <c r="D338" s="52"/>
+      <c r="C338" s="45"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="15"/>
     </row>
     <row r="339" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
@@ -9690,10 +9723,10 @@
       </c>
     </row>
     <row r="343" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C343" s="47">
+      <c r="C343" s="43">
         <v>-1026</v>
       </c>
-      <c r="D343" s="50" t="s">
+      <c r="D343" s="46" t="s">
         <v>488</v>
       </c>
       <c r="E343" s="9" t="s">
@@ -9701,34 +9734,34 @@
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C344" s="48"/>
-      <c r="D344" s="51"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="10"/>
     </row>
     <row r="345" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C345" s="48"/>
-      <c r="D345" s="51"/>
+      <c r="C345" s="44"/>
+      <c r="D345" s="47"/>
       <c r="E345" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C346" s="48"/>
-      <c r="D346" s="51"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="47"/>
       <c r="E346" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="347" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C347" s="48"/>
-      <c r="D347" s="51"/>
+      <c r="C347" s="44"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="12" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="348" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C348" s="49"/>
-      <c r="D348" s="52"/>
+      <c r="C348" s="45"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="11" t="s">
         <v>492</v>
       </c>
@@ -9745,10 +9778,10 @@
       </c>
     </row>
     <row r="350" spans="3:5" ht="327.60000000000002" x14ac:dyDescent="0.4">
-      <c r="C350" s="47">
+      <c r="C350" s="43">
         <v>-1028</v>
       </c>
-      <c r="D350" s="50" t="s">
+      <c r="D350" s="46" t="s">
         <v>495</v>
       </c>
       <c r="E350" s="9" t="s">
@@ -9756,48 +9789,48 @@
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C351" s="48"/>
-      <c r="D351" s="51"/>
+      <c r="C351" s="44"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="10"/>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C352" s="48"/>
-      <c r="D352" s="51"/>
+      <c r="C352" s="44"/>
+      <c r="D352" s="47"/>
       <c r="E352" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C353" s="48"/>
-      <c r="D353" s="51"/>
+      <c r="C353" s="44"/>
+      <c r="D353" s="47"/>
       <c r="E353" s="12" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="354" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C354" s="48"/>
-      <c r="D354" s="51"/>
+      <c r="C354" s="44"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C355" s="48"/>
-      <c r="D355" s="51"/>
+      <c r="C355" s="44"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="12"/>
     </row>
     <row r="356" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C356" s="49"/>
-      <c r="D356" s="52"/>
+      <c r="C356" s="45"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="15" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="357" spans="3:5" ht="374.4" x14ac:dyDescent="0.4">
-      <c r="C357" s="47">
+      <c r="C357" s="43">
         <v>-1029</v>
       </c>
-      <c r="D357" s="50" t="s">
+      <c r="D357" s="46" t="s">
         <v>499</v>
       </c>
       <c r="E357" s="9" t="s">
@@ -9805,41 +9838,41 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C358" s="48"/>
-      <c r="D358" s="51"/>
+      <c r="C358" s="44"/>
+      <c r="D358" s="47"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C359" s="48"/>
-      <c r="D359" s="51"/>
+      <c r="C359" s="44"/>
+      <c r="D359" s="47"/>
       <c r="E359" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C360" s="48"/>
-      <c r="D360" s="51"/>
+      <c r="C360" s="44"/>
+      <c r="D360" s="47"/>
       <c r="E360" s="12"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C361" s="48"/>
-      <c r="D361" s="51"/>
+      <c r="C361" s="44"/>
+      <c r="D361" s="47"/>
       <c r="E361" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="362" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C362" s="49"/>
-      <c r="D362" s="52"/>
+      <c r="C362" s="45"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="363" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C363" s="47">
+      <c r="C363" s="43">
         <v>-1030</v>
       </c>
-      <c r="D363" s="50" t="s">
+      <c r="D363" s="46" t="s">
         <v>503</v>
       </c>
       <c r="E363" s="9" t="s">
@@ -9847,25 +9880,25 @@
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C364" s="48"/>
-      <c r="D364" s="51"/>
+      <c r="C364" s="44"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C365" s="48"/>
-      <c r="D365" s="51"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="47"/>
       <c r="E365" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C366" s="48"/>
-      <c r="D366" s="51"/>
+      <c r="C366" s="44"/>
+      <c r="D366" s="47"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C367" s="49"/>
-      <c r="D367" s="52"/>
+      <c r="C367" s="45"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="11" t="s">
         <v>506</v>
       </c>
@@ -9893,10 +9926,10 @@
       </c>
     </row>
     <row r="370" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C370" s="47">
+      <c r="C370" s="43">
         <v>-1033</v>
       </c>
-      <c r="D370" s="50" t="s">
+      <c r="D370" s="46" t="s">
         <v>511</v>
       </c>
       <c r="E370" s="9" t="s">
@@ -9904,22 +9937,22 @@
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C371" s="48"/>
-      <c r="D371" s="51"/>
+      <c r="C371" s="44"/>
+      <c r="D371" s="47"/>
       <c r="E371" s="12"/>
     </row>
     <row r="372" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C372" s="49"/>
-      <c r="D372" s="52"/>
+      <c r="C372" s="45"/>
+      <c r="D372" s="48"/>
       <c r="E372" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="373" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C373" s="47">
+      <c r="C373" s="43">
         <v>-1034</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="46" t="s">
         <v>997</v>
       </c>
       <c r="E373" s="9" t="s">
@@ -9927,20 +9960,20 @@
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C374" s="48"/>
-      <c r="D374" s="51"/>
+      <c r="C374" s="44"/>
+      <c r="D374" s="47"/>
       <c r="E374" s="12"/>
     </row>
     <row r="375" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C375" s="49"/>
-      <c r="D375" s="52"/>
+      <c r="C375" s="45"/>
+      <c r="D375" s="48"/>
       <c r="E375" s="15"/>
     </row>
     <row r="376" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C376" s="47">
+      <c r="C376" s="43">
         <v>-1035</v>
       </c>
-      <c r="D376" s="50" t="s">
+      <c r="D376" s="46" t="s">
         <v>514</v>
       </c>
       <c r="E376" s="9" t="s">
@@ -9948,20 +9981,20 @@
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C377" s="48"/>
-      <c r="D377" s="51"/>
+      <c r="C377" s="44"/>
+      <c r="D377" s="47"/>
       <c r="E377" s="12"/>
     </row>
     <row r="378" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C378" s="49"/>
-      <c r="D378" s="52"/>
+      <c r="C378" s="45"/>
+      <c r="D378" s="48"/>
       <c r="E378" s="15"/>
     </row>
     <row r="379" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C379" s="47">
+      <c r="C379" s="43">
         <v>-1036</v>
       </c>
-      <c r="D379" s="50" t="s">
+      <c r="D379" s="46" t="s">
         <v>515</v>
       </c>
       <c r="E379" s="9" t="s">
@@ -9969,22 +10002,22 @@
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C380" s="48"/>
-      <c r="D380" s="51"/>
+      <c r="C380" s="44"/>
+      <c r="D380" s="47"/>
       <c r="E380" s="12"/>
     </row>
     <row r="381" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C381" s="49"/>
-      <c r="D381" s="52"/>
+      <c r="C381" s="45"/>
+      <c r="D381" s="48"/>
       <c r="E381" s="15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="382" spans="3:5" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C382" s="47">
+      <c r="C382" s="43">
         <v>-1037</v>
       </c>
-      <c r="D382" s="50" t="s">
+      <c r="D382" s="46" t="s">
         <v>518</v>
       </c>
       <c r="E382" s="9" t="s">
@@ -9992,22 +10025,22 @@
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C383" s="48"/>
-      <c r="D383" s="51"/>
+      <c r="C383" s="44"/>
+      <c r="D383" s="47"/>
       <c r="E383" s="12"/>
     </row>
     <row r="384" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C384" s="49"/>
-      <c r="D384" s="52"/>
+      <c r="C384" s="45"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="385" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C385" s="47">
+      <c r="C385" s="43">
         <v>-1038</v>
       </c>
-      <c r="D385" s="50" t="s">
+      <c r="D385" s="46" t="s">
         <v>521</v>
       </c>
       <c r="E385" s="9" t="s">
@@ -10015,22 +10048,22 @@
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C386" s="48"/>
-      <c r="D386" s="51"/>
+      <c r="C386" s="44"/>
+      <c r="D386" s="47"/>
       <c r="E386" s="12"/>
     </row>
     <row r="387" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C387" s="49"/>
-      <c r="D387" s="52"/>
+      <c r="C387" s="45"/>
+      <c r="D387" s="48"/>
       <c r="E387" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="388" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C388" s="47">
+      <c r="C388" s="43">
         <v>-1039</v>
       </c>
-      <c r="D388" s="50" t="s">
+      <c r="D388" s="46" t="s">
         <v>524</v>
       </c>
       <c r="E388" s="9" t="s">
@@ -10038,22 +10071,22 @@
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C389" s="48"/>
-      <c r="D389" s="51"/>
+      <c r="C389" s="44"/>
+      <c r="D389" s="47"/>
       <c r="E389" s="12"/>
     </row>
     <row r="390" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C390" s="49"/>
-      <c r="D390" s="52"/>
+      <c r="C390" s="45"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="391" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C391" s="47">
+      <c r="C391" s="43">
         <v>-1040</v>
       </c>
-      <c r="D391" s="50" t="s">
+      <c r="D391" s="46" t="s">
         <v>527</v>
       </c>
       <c r="E391" s="9" t="s">
@@ -10061,22 +10094,22 @@
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C392" s="48"/>
-      <c r="D392" s="51"/>
+      <c r="C392" s="44"/>
+      <c r="D392" s="47"/>
       <c r="E392" s="12"/>
     </row>
     <row r="393" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C393" s="49"/>
-      <c r="D393" s="52"/>
+      <c r="C393" s="45"/>
+      <c r="D393" s="48"/>
       <c r="E393" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="394" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C394" s="47">
+      <c r="C394" s="43">
         <v>-1041</v>
       </c>
-      <c r="D394" s="50" t="s">
+      <c r="D394" s="46" t="s">
         <v>530</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -10084,13 +10117,13 @@
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C395" s="48"/>
-      <c r="D395" s="51"/>
+      <c r="C395" s="44"/>
+      <c r="D395" s="47"/>
       <c r="E395" s="12"/>
     </row>
     <row r="396" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C396" s="49"/>
-      <c r="D396" s="52"/>
+      <c r="C396" s="45"/>
+      <c r="D396" s="48"/>
       <c r="E396" s="15" t="s">
         <v>532</v>
       </c>
@@ -10107,10 +10140,10 @@
       </c>
     </row>
     <row r="398" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C398" s="47">
+      <c r="C398" s="43">
         <v>-1043</v>
       </c>
-      <c r="D398" s="50" t="s">
+      <c r="D398" s="46" t="s">
         <v>535</v>
       </c>
       <c r="E398" s="9" t="s">
@@ -10118,25 +10151,25 @@
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C399" s="48"/>
-      <c r="D399" s="51"/>
+      <c r="C399" s="44"/>
+      <c r="D399" s="47"/>
       <c r="E399" s="10"/>
     </row>
     <row r="400" spans="3:5" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C400" s="48"/>
-      <c r="D400" s="51"/>
+      <c r="C400" s="44"/>
+      <c r="D400" s="47"/>
       <c r="E400" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C401" s="48"/>
-      <c r="D401" s="51"/>
+      <c r="C401" s="44"/>
+      <c r="D401" s="47"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C402" s="49"/>
-      <c r="D402" s="52"/>
+      <c r="C402" s="45"/>
+      <c r="D402" s="48"/>
       <c r="E402" s="11" t="s">
         <v>538</v>
       </c>
@@ -10153,10 +10186,10 @@
       </c>
     </row>
     <row r="404" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C404" s="47">
+      <c r="C404" s="43">
         <v>-1045</v>
       </c>
-      <c r="D404" s="50" t="s">
+      <c r="D404" s="46" t="s">
         <v>541</v>
       </c>
       <c r="E404" s="9" t="s">
@@ -10164,43 +10197,43 @@
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C405" s="48"/>
-      <c r="D405" s="51"/>
+      <c r="C405" s="44"/>
+      <c r="D405" s="47"/>
       <c r="E405" s="10"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C406" s="48"/>
-      <c r="D406" s="51"/>
+      <c r="C406" s="44"/>
+      <c r="D406" s="47"/>
       <c r="E406" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C407" s="48"/>
-      <c r="D407" s="51"/>
+      <c r="C407" s="44"/>
+      <c r="D407" s="47"/>
       <c r="E407" s="12" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="408" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C408" s="48"/>
-      <c r="D408" s="51"/>
+      <c r="C408" s="44"/>
+      <c r="D408" s="47"/>
       <c r="E408" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="409" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="49"/>
-      <c r="D409" s="52"/>
+      <c r="C409" s="45"/>
+      <c r="D409" s="48"/>
       <c r="E409" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="410" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C410" s="47">
+      <c r="C410" s="43">
         <v>-1046</v>
       </c>
-      <c r="D410" s="50" t="s">
+      <c r="D410" s="46" t="s">
         <v>547</v>
       </c>
       <c r="E410" s="9" t="s">
@@ -10208,13 +10241,13 @@
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C411" s="48"/>
-      <c r="D411" s="51"/>
+      <c r="C411" s="44"/>
+      <c r="D411" s="47"/>
       <c r="E411" s="12"/>
     </row>
     <row r="412" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C412" s="49"/>
-      <c r="D412" s="52"/>
+      <c r="C412" s="45"/>
+      <c r="D412" s="48"/>
       <c r="E412" s="15" t="s">
         <v>549</v>
       </c>
@@ -10264,10 +10297,10 @@
       </c>
     </row>
     <row r="417" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C417" s="47">
+      <c r="C417" s="43">
         <v>-1051</v>
       </c>
-      <c r="D417" s="50" t="s">
+      <c r="D417" s="46" t="s">
         <v>558</v>
       </c>
       <c r="E417" s="9" t="s">
@@ -10275,29 +10308,29 @@
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C418" s="48"/>
-      <c r="D418" s="51"/>
+      <c r="C418" s="44"/>
+      <c r="D418" s="47"/>
       <c r="E418" s="10"/>
     </row>
     <row r="419" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C419" s="48"/>
-      <c r="D419" s="51"/>
+      <c r="C419" s="44"/>
+      <c r="D419" s="47"/>
       <c r="E419" s="12" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="420" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C420" s="49"/>
-      <c r="D420" s="52"/>
+      <c r="C420" s="45"/>
+      <c r="D420" s="48"/>
       <c r="E420" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="421" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C421" s="47">
+      <c r="C421" s="43">
         <v>-1052</v>
       </c>
-      <c r="D421" s="50" t="s">
+      <c r="D421" s="46" t="s">
         <v>562</v>
       </c>
       <c r="E421" s="9" t="s">
@@ -10305,22 +10338,22 @@
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C422" s="48"/>
-      <c r="D422" s="51"/>
+      <c r="C422" s="44"/>
+      <c r="D422" s="47"/>
       <c r="E422" s="10"/>
     </row>
     <row r="423" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C423" s="49"/>
-      <c r="D423" s="52"/>
+      <c r="C423" s="45"/>
+      <c r="D423" s="48"/>
       <c r="E423" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="424" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C424" s="47">
+      <c r="C424" s="43">
         <v>-1053</v>
       </c>
-      <c r="D424" s="50" t="s">
+      <c r="D424" s="46" t="s">
         <v>565</v>
       </c>
       <c r="E424" s="9" t="s">
@@ -10328,13 +10361,13 @@
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C425" s="48"/>
-      <c r="D425" s="51"/>
+      <c r="C425" s="44"/>
+      <c r="D425" s="47"/>
       <c r="E425" s="10"/>
     </row>
     <row r="426" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C426" s="49"/>
-      <c r="D426" s="52"/>
+      <c r="C426" s="45"/>
+      <c r="D426" s="48"/>
       <c r="E426" s="11" t="s">
         <v>567</v>
       </c>
@@ -10351,10 +10384,10 @@
       </c>
     </row>
     <row r="428" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C428" s="47">
+      <c r="C428" s="43">
         <v>-1055</v>
       </c>
-      <c r="D428" s="50" t="s">
+      <c r="D428" s="46" t="s">
         <v>570</v>
       </c>
       <c r="E428" s="9" t="s">
@@ -10362,29 +10395,29 @@
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C429" s="48"/>
-      <c r="D429" s="51"/>
+      <c r="C429" s="44"/>
+      <c r="D429" s="47"/>
       <c r="E429" s="10"/>
     </row>
     <row r="430" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C430" s="48"/>
-      <c r="D430" s="51"/>
+      <c r="C430" s="44"/>
+      <c r="D430" s="47"/>
       <c r="E430" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="431" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="49"/>
-      <c r="D431" s="52"/>
+      <c r="C431" s="45"/>
+      <c r="D431" s="48"/>
       <c r="E431" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="432" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C432" s="47">
+      <c r="C432" s="43">
         <v>-1056</v>
       </c>
-      <c r="D432" s="50" t="s">
+      <c r="D432" s="46" t="s">
         <v>574</v>
       </c>
       <c r="E432" s="9" t="s">
@@ -10392,13 +10425,13 @@
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C433" s="48"/>
-      <c r="D433" s="51"/>
+      <c r="C433" s="44"/>
+      <c r="D433" s="47"/>
       <c r="E433" s="10"/>
     </row>
     <row r="434" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C434" s="49"/>
-      <c r="D434" s="52"/>
+      <c r="C434" s="45"/>
+      <c r="D434" s="48"/>
       <c r="E434" s="11" t="s">
         <v>576</v>
       </c>
@@ -10757,10 +10790,10 @@
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C468" s="47">
+      <c r="C468" s="43">
         <v>-1600</v>
       </c>
-      <c r="D468" s="50" t="s">
+      <c r="D468" s="46" t="s">
         <v>637</v>
       </c>
       <c r="E468" s="9" t="s">
@@ -10768,15 +10801,15 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C469" s="48"/>
-      <c r="D469" s="51"/>
+      <c r="C469" s="44"/>
+      <c r="D469" s="47"/>
       <c r="E469" s="12" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="470" spans="3:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C470" s="49"/>
-      <c r="D470" s="52"/>
+      <c r="C470" s="45"/>
+      <c r="D470" s="48"/>
       <c r="E470" s="11" t="s">
         <v>640</v>
       </c>
@@ -10870,10 +10903,10 @@
       </c>
     </row>
     <row r="479" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C479" s="47">
+      <c r="C479" s="43">
         <v>-1610</v>
       </c>
-      <c r="D479" s="50" t="s">
+      <c r="D479" s="46" t="s">
         <v>655</v>
       </c>
       <c r="E479" s="9" t="s">
@@ -10881,37 +10914,37 @@
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C480" s="48"/>
-      <c r="D480" s="51"/>
+      <c r="C480" s="44"/>
+      <c r="D480" s="47"/>
       <c r="E480" s="10"/>
     </row>
     <row r="481" spans="3:5" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C481" s="48"/>
-      <c r="D481" s="51"/>
+      <c r="C481" s="44"/>
+      <c r="D481" s="47"/>
       <c r="E481" s="12" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C482" s="48"/>
-      <c r="D482" s="51"/>
+      <c r="C482" s="44"/>
+      <c r="D482" s="47"/>
       <c r="E482" s="10"/>
     </row>
     <row r="483" spans="3:5" ht="78" x14ac:dyDescent="0.4">
-      <c r="C483" s="48"/>
-      <c r="D483" s="51"/>
+      <c r="C483" s="44"/>
+      <c r="D483" s="47"/>
       <c r="E483" s="12" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C484" s="48"/>
-      <c r="D484" s="51"/>
+      <c r="C484" s="44"/>
+      <c r="D484" s="47"/>
       <c r="E484" s="10"/>
     </row>
     <row r="485" spans="3:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C485" s="49"/>
-      <c r="D485" s="52"/>
+      <c r="C485" s="45"/>
+      <c r="D485" s="48"/>
       <c r="E485" s="11" t="s">
         <v>659</v>
       </c>
@@ -11296,10 +11329,10 @@
       <c r="E522" s="14"/>
     </row>
     <row r="523" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C523" s="47">
+      <c r="C523" s="43">
         <v>-3014</v>
       </c>
-      <c r="D523" s="50" t="s">
+      <c r="D523" s="46" t="s">
         <v>715</v>
       </c>
       <c r="E523" s="9" t="s">
@@ -11307,22 +11340,22 @@
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C524" s="48"/>
-      <c r="D524" s="51"/>
+      <c r="C524" s="44"/>
+      <c r="D524" s="47"/>
       <c r="E524" s="10"/>
     </row>
     <row r="525" spans="3:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C525" s="49"/>
-      <c r="D525" s="52"/>
+      <c r="C525" s="45"/>
+      <c r="D525" s="48"/>
       <c r="E525" s="11" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="526" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C526" s="47">
+      <c r="C526" s="43">
         <v>-3015</v>
       </c>
-      <c r="D526" s="50" t="s">
+      <c r="D526" s="46" t="s">
         <v>718</v>
       </c>
       <c r="E526" s="9" t="s">
@@ -11330,13 +11363,13 @@
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C527" s="48"/>
-      <c r="D527" s="51"/>
+      <c r="C527" s="44"/>
+      <c r="D527" s="47"/>
       <c r="E527" s="10"/>
     </row>
     <row r="528" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C528" s="49"/>
-      <c r="D528" s="52"/>
+      <c r="C528" s="45"/>
+      <c r="D528" s="48"/>
       <c r="E528" s="11" t="s">
         <v>720</v>
       </c>
@@ -11408,10 +11441,10 @@
       </c>
     </row>
     <row r="535" spans="3:5" ht="249.6" x14ac:dyDescent="0.4">
-      <c r="C535" s="47">
+      <c r="C535" s="43">
         <v>-3104</v>
       </c>
-      <c r="D535" s="50" t="s">
+      <c r="D535" s="46" t="s">
         <v>732</v>
       </c>
       <c r="E535" s="9" t="s">
@@ -11419,58 +11452,58 @@
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C536" s="48"/>
-      <c r="D536" s="51"/>
+      <c r="C536" s="44"/>
+      <c r="D536" s="47"/>
       <c r="E536" s="10"/>
     </row>
     <row r="537" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C537" s="48"/>
-      <c r="D537" s="51"/>
+      <c r="C537" s="44"/>
+      <c r="D537" s="47"/>
       <c r="E537" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C538" s="48"/>
-      <c r="D538" s="51"/>
+      <c r="C538" s="44"/>
+      <c r="D538" s="47"/>
       <c r="E538" s="10"/>
     </row>
     <row r="539" spans="3:5" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C539" s="48"/>
-      <c r="D539" s="51"/>
+      <c r="C539" s="44"/>
+      <c r="D539" s="47"/>
       <c r="E539" s="12" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C540" s="48"/>
-      <c r="D540" s="51"/>
+      <c r="C540" s="44"/>
+      <c r="D540" s="47"/>
       <c r="E540" s="10"/>
     </row>
     <row r="541" spans="3:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C541" s="48"/>
-      <c r="D541" s="51"/>
+      <c r="C541" s="44"/>
+      <c r="D541" s="47"/>
       <c r="E541" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C542" s="48"/>
-      <c r="D542" s="51"/>
+      <c r="C542" s="44"/>
+      <c r="D542" s="47"/>
       <c r="E542" s="12"/>
     </row>
     <row r="543" spans="3:5" ht="63" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C543" s="49"/>
-      <c r="D543" s="52"/>
+      <c r="C543" s="45"/>
+      <c r="D543" s="48"/>
       <c r="E543" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C544" s="47">
+      <c r="C544" s="43">
         <v>-3105</v>
       </c>
-      <c r="D544" s="50" t="s">
+      <c r="D544" s="46" t="s">
         <v>737</v>
       </c>
       <c r="E544" s="9" t="s">
@@ -11478,32 +11511,32 @@
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C545" s="48"/>
-      <c r="D545" s="51"/>
+      <c r="C545" s="44"/>
+      <c r="D545" s="47"/>
       <c r="E545" s="10"/>
     </row>
     <row r="546" spans="3:5" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C546" s="48"/>
-      <c r="D546" s="51"/>
+      <c r="C546" s="44"/>
+      <c r="D546" s="47"/>
       <c r="E546" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C547" s="48"/>
-      <c r="D547" s="51"/>
+      <c r="C547" s="44"/>
+      <c r="D547" s="47"/>
       <c r="E547" s="12"/>
     </row>
     <row r="548" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C548" s="49"/>
-      <c r="D548" s="52"/>
+      <c r="C548" s="45"/>
+   